--- a/SQL_module_final_project/Analysis report.xlsx
+++ b/SQL_module_final_project/Analysis report.xlsx
@@ -8,15 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Backup\Zefirus\Szkoła\Kurs Analityka Danych\Projekty z modułów\CodersLab_Subprojects\SQL_module_final_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3CA6E6-3790-4667-843F-DE856D3D2820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A312E6-AEEC-4DB3-AA9C-9DA9BAD00B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{D60C4DA7-2D71-483E-A3E8-11F3B2E34890}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{D60C4DA7-2D71-483E-A3E8-11F3B2E34890}"/>
   </bookViews>
   <sheets>
     <sheet name="Informations" sheetId="1" r:id="rId1"/>
+    <sheet name="Question_1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="Fragmentator_loan_month">#N/A</definedName>
+    <definedName name="Fragmentator_loan_quarter">#N/A</definedName>
+    <definedName name="Fragmentator_loan_year">#N/A</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="121" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
+      <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicerCache r:id="rId4"/>
+        <x14:slicerCache r:id="rId5"/>
+        <x14:slicerCache r:id="rId6"/>
+      </x15:slicerCaches>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -34,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>SQL project - Analysis of bank customers' credit and credit card usage behaviour</t>
   </si>
@@ -71,12 +90,70 @@
   <si>
     <t>8. Are there younger customers with high balances and multiple loans? What kind of customers are they? (balance &gt; 1000, more than 5 loans, born after 1990)</t>
   </si>
+  <si>
+    <t>loan_count</t>
+  </si>
+  <si>
+    <t>loan_sum</t>
+  </si>
+  <si>
+    <t>avg_loan</t>
+  </si>
+  <si>
+    <t>loan_year</t>
+  </si>
+  <si>
+    <t>loan_quarter</t>
+  </si>
+  <si>
+    <t>loan_month</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Etykiety kolumn</t>
+  </si>
+  <si>
+    <t>Suma końcowa</t>
+  </si>
+  <si>
+    <t>Etykiety wierszy</t>
+  </si>
+  <si>
+    <t>Output from SQL querry</t>
+  </si>
+  <si>
+    <t>(Wszystko)</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Total amount of loans:</t>
+  </si>
+  <si>
+    <t>Average amount of loans:</t>
+  </si>
+  <si>
+    <t>Total number of loans:</t>
+  </si>
+  <si>
+    <t>Average loan</t>
+  </si>
+  <si>
+    <t>Loan sum</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ [$CZK]"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,8 +177,24 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -110,12 +203,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -124,12 +229,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color theme="9"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color theme="9"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -138,7 +263,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color theme="9"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -146,17 +271,17 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color theme="9"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color theme="9"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color theme="9"/>
       </left>
       <right/>
       <top/>
@@ -166,7 +291,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color theme="9"/>
       </right>
       <top/>
       <bottom/>
@@ -174,12 +299,12 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color theme="9"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color theme="9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -188,17 +313,32 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color theme="9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color theme="9"/>
       </right>
       <top/>
       <bottom style="medium">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -207,40 +347,78 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ [$CZK]"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ [$CZK]"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -251,6 +429,3484 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="108"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="8"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Analysis report.xlsx]Question_1!Tabela przestawna72</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Average loan by quarter</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Question_1!$C$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Suma</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Question_1!$B$53:$B$57</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Question_1!$C$53:$C$57</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ##0.00\ [$CZK]</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>134166.66487499999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>136133.38218333331</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>130638.46249999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>131142.74728750001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E438-4E9D-A7C5-0E32AA6BF4EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="751166336"/>
+        <c:axId val="751168736"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="751166336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="751168736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="751168736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#\ ##0.00\ [$CZK]" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="751166336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Analysis report.xlsx]Question_1!Tabela przestawna73</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Loan amount by</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> month</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.40997878451209274"/>
+          <c:y val="1.9236232465938245E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:numFmt formatCode="#,##0.00\ [$CZK]" sourceLinked="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="108000" tIns="72000" rIns="108000" bIns="108000" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c15:spPr>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:numFmt formatCode="#,##0.00\ [$CZK]" sourceLinked="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:numFmt formatCode="#,##0.00\ [$CZK]" sourceLinked="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.624298934681464E-2"/>
+          <c:y val="0.24403018521930128"/>
+          <c:w val="0.82589812407079577"/>
+          <c:h val="0.61953240356645334"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Question_1!$F$52:$F$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1993</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00\ [$CZK]" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Question_1!$E$54:$E$65</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Question_1!$F$54:$F$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="6">
+                  <c:v>389436</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>105804</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>590112</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>154416</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>218556</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1160952</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-78DC-462A-9D3B-EE25580BE911}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Question_1!$G$52:$G$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1994</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00\ [$CZK]" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="108000" tIns="72000" rIns="108000" bIns="108000" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Question_1!$E$54:$E$65</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Question_1!$G$54:$G$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>568836</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>775704</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>692580</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>381624</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1440252</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2072496</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1766076</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1366956</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1101096</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>718308</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>873204</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1622772</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-78DC-462A-9D3B-EE25580BE911}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Question_1!$H$52:$H$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00\ [$CZK]" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Question_1!$E$54:$E$65</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Question_1!$H$54:$H$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1588032</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1468788</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1176732</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1154796</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-78DC-462A-9D3B-EE25580BE911}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="751156256"/>
+        <c:axId val="751169216"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="751156256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="751169216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="751169216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00\ [$CZK]" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="751156256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="19">
+  <a:schemeClr val="accent6"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>316230</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>175259</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="11" name="loan_year">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33D2DD31-5CC8-23CC-A3C6-7A6BED5280AC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="loan_year"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6791325" y="180975"/>
+              <a:ext cx="1834515" cy="1800224"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>Ten kształt reprezentuje fragmentator tabeli. Fragmentatory tabel nie są obsługiwane w tej wersji programu Excel.
+Jeśli kształt został zmodyfikowany w starszej wersji programu Excel albo skoroszyt został zapisany w programie Excel 2007 lub w starszej wersji, nie można używać fragmentatora.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>392430</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>392430</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>168675</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="12" name="loan_quarter">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0A26F07-01E7-0F71-B8A8-995ABCE7D968}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="loan_quarter"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8702040" y="196215"/>
+              <a:ext cx="1828800" cy="1786020"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>Ten kształt reprezentuje fragmentator tabeli. Fragmentatory tabel nie są obsługiwane w tej wersji programu Excel.
+Jeśli kształt został zmodyfikowany w starszej wersji programu Excel albo skoroszyt został zapisany w programie Excel 2007 lub w starszej wersji, nie można używać fragmentatora.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>468630</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>468630</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>168254</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="13" name="loan_month">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36C3CECE-AA8D-BFDE-E2DC-A2DC069D652D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="loan_month"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10607040" y="200025"/>
+              <a:ext cx="1828800" cy="1781789"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>Ten kształt reprezentuje fragmentator tabeli. Fragmentatory tabel nie są obsługiwane w tej wersji programu Excel.
+Jeśli kształt został zmodyfikowany w starszej wersji programu Excel albo skoroszyt został zapisany w programie Excel 2007 lub w starszej wersji, nie można używać fragmentatora.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>168592</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>291465</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>12382</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Wykres 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AF03F4F-41F1-17C6-F6EE-DBEA1864DEB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2857</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19048</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Wykres 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F092A27F-42D2-BC07-1620-1D4C0FA5BCBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Anka Zielińska" refreshedDate="45575.665482870369" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="34" xr:uid="{30F940A9-C2DE-4A1C-A596-5E68D09890B9}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Tabela2"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="loan_count" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="682"/>
+    </cacheField>
+    <cacheField name="loan_sum" numFmtId="165">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="105804" maxValue="103261740"/>
+    </cacheField>
+    <cacheField name="avg_loan" numFmtId="165">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="72852" maxValue="183598.5"/>
+    </cacheField>
+    <cacheField name="loan_year" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1993" maxValue="1995" count="4">
+        <s v="NULL"/>
+        <n v="1994"/>
+        <n v="1995"/>
+        <n v="1993"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="loan_quarter" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="4" count="5">
+        <s v="NULL"/>
+        <n v="3"/>
+        <n v="1"/>
+        <n v="2"/>
+        <n v="4"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="loan_month" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="12" count="13">
+        <s v="NULL"/>
+        <n v="6"/>
+        <n v="7"/>
+        <n v="12"/>
+        <n v="1"/>
+        <n v="2"/>
+        <n v="5"/>
+        <n v="8"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="9"/>
+        <n v="11"/>
+        <n v="10"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="34">
+  <r>
+    <n v="682"/>
+    <n v="103261740"/>
+    <n v="151410.17600000001"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="101"/>
+    <n v="13379904"/>
+    <n v="132474.29699999999"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="90"/>
+    <n v="13344372"/>
+    <n v="148270.79999999999"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="32"/>
+    <n v="4234128"/>
+    <n v="132316.5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <n v="4233552"/>
+    <n v="151198.28570000001"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <n v="3894372"/>
+    <n v="139084.71429999999"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <n v="3214284"/>
+    <n v="139751.47829999999"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <n v="2997816"/>
+    <n v="142753.14290000001"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <n v="2619276"/>
+    <n v="130963.8"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <n v="2072496"/>
+    <n v="159422.76920000001"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <n v="2037120"/>
+    <n v="113173.3333"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <n v="1766076"/>
+    <n v="147173"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <n v="1622772"/>
+    <n v="180308"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <n v="1588032"/>
+    <n v="158803.20000000001"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <n v="1533924"/>
+    <n v="127827"/>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1468788"/>
+    <n v="183598.5"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <n v="1440252"/>
+    <n v="120021"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <n v="1366956"/>
+    <n v="136695.6"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <n v="1176732"/>
+    <n v="117673.2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1160952"/>
+    <n v="145119"/>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <n v="1154796"/>
+    <n v="128310.6667"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <n v="1101096"/>
+    <n v="110109.6"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1085352"/>
+    <n v="135669"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="873204"/>
+    <n v="109150.5"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <n v="775704"/>
+    <n v="155140.79999999999"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="718308"/>
+    <n v="119718"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="692580"/>
+    <n v="98940"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="590112"/>
+    <n v="147528"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="568836"/>
+    <n v="94806"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="389436"/>
+    <n v="129812"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="381624"/>
+    <n v="127208"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="218556"/>
+    <n v="72852"/>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="154416"/>
+    <n v="154416"/>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="105804"/>
+    <n v="105804"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="7"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8E082A0B-AFBF-471B-A5AF-9A0D9692BBA6}" name="Tabela przestawna73" cacheId="121" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="E52:H65" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField name="Year" axis="axisCol" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField name="Month" axis="axisRow" showAll="0">
+      <items count="14">
+        <item x="4"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="10"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="3"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Loan sum" fld="1" baseField="5" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B0F78992-30E2-40A7-B093-E4560512C015}" name="Tabela przestawna72" cacheId="121" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="B52:C57" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField name="Year" axis="axisPage" showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Quarter" axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Average loan" fld="2" subtotal="average" baseField="4" baseItem="0" numFmtId="165"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleMedium14" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Fragmentator_loan_year" xr10:uid="{C588836C-72C4-4B74-B31B-FCE9522CA83E}" sourceName="loan_year">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="2" column="4"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Fragmentator_loan_quarter" xr10:uid="{B6C736DE-E919-4FC8-AE8A-2DF25097C2F1}" sourceName="loan_quarter">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="2" column="5"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Fragmentator_loan_month" xr10:uid="{C0F863C9-B4FC-40B5-AA4A-0523FD83F044}" sourceName="loan_month">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="2" column="6"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="loan_year" xr10:uid="{D6B7EA0D-DCEC-4EF4-A9C2-EB9CE732C698}" cache="Fragmentator_loan_year" caption="loan_year" style="SlicerStyleLight6" rowHeight="234950"/>
+  <slicer name="loan_quarter" xr10:uid="{F05DAA14-E3BB-4F0F-949F-AF5CA199109A}" cache="Fragmentator_loan_quarter" caption="loan_quarter" columnCount="2" style="SlicerStyleLight6" rowHeight="234950"/>
+  <slicer name="loan_month" xr10:uid="{16C44729-994B-4BF7-B307-C1EA9EA830A1}" cache="Fragmentator_loan_month" caption="loan_month" columnCount="3" style="SlicerStyleLight6" rowHeight="234950"/>
+</slicers>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E6B15F9E-5CDB-431A-94FF-C0BA3501E369}" name="Tabela2" displayName="Tabela2" ref="B2:G36" totalsRowShown="0">
+  <autoFilter ref="B2:G36" xr:uid="{E6B15F9E-5CDB-431A-94FF-C0BA3501E369}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{02D6906E-67A9-4BD1-8B9F-E41B8B4CEFAB}" name="loan_count"/>
+    <tableColumn id="2" xr3:uid="{2311BF93-5588-4E81-9C84-FC2D93931E45}" name="loan_sum" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{E87CB925-D069-49DD-A49F-FF23CDA0F940}" name="avg_loan" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{1CCDF918-0749-43E3-B036-9C89D6F9FB35}" name="loan_year"/>
+    <tableColumn id="5" xr3:uid="{DA59B149-E47E-4FC4-A48C-AD89600E3D75}" name="loan_quarter"/>
+    <tableColumn id="6" xr3:uid="{A544833D-77C9-45BB-8BEB-61EFF85A6DEF}" name="loan_month"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -552,8 +4208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6FD5622-6690-4992-8B8F-59DFADE27961}">
   <dimension ref="B2:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -564,332 +4220,332 @@
   <sheetData>
     <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="11"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="10"/>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="11"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="13"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B5" s="10"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="13"/>
     </row>
     <row r="6" spans="2:18" ht="31.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="10"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="12"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="14"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="10"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="13"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="10"/>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="11"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="13"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="10"/>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="11"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="13"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="10"/>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="11"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="13"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="10"/>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="11"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="13"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="10"/>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="11"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="13"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="10"/>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="12"/>
+      <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="11"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="13"/>
     </row>
     <row r="14" spans="2:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="10"/>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="12"/>
+      <c r="C14" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="11"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="13"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="10"/>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="12"/>
+      <c r="C15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="11"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="13"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="10"/>
-      <c r="C16" s="1" t="s">
+      <c r="B16" s="12"/>
+      <c r="C16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="11"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="13"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B17" s="10"/>
-      <c r="C17" s="1" t="s">
+      <c r="B17" s="12"/>
+      <c r="C17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="11"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="13"/>
     </row>
     <row r="18" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -910,4 +4566,1060 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB59316F-7577-4460-BC84-7CD517300FE0}">
+  <dimension ref="B1:H65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="18" width="8.88671875" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>682</v>
+      </c>
+      <c r="C3" s="2">
+        <v>103261740</v>
+      </c>
+      <c r="D3" s="2">
+        <v>151410.17600000001</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>101</v>
+      </c>
+      <c r="C4" s="2">
+        <v>13379904</v>
+      </c>
+      <c r="D4" s="2">
+        <v>132474.29699999999</v>
+      </c>
+      <c r="E4">
+        <v>1994</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>90</v>
+      </c>
+      <c r="C5" s="2">
+        <v>13344372</v>
+      </c>
+      <c r="D5" s="2">
+        <v>148270.79999999999</v>
+      </c>
+      <c r="E5">
+        <v>1995</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>32</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4234128</v>
+      </c>
+      <c r="D6" s="2">
+        <v>132316.5</v>
+      </c>
+      <c r="E6">
+        <v>1994</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4233552</v>
+      </c>
+      <c r="D7" s="2">
+        <v>151198.28570000001</v>
+      </c>
+      <c r="E7">
+        <v>1995</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3894372</v>
+      </c>
+      <c r="D8" s="2">
+        <v>139084.71429999999</v>
+      </c>
+      <c r="E8">
+        <v>1994</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3214284</v>
+      </c>
+      <c r="D9" s="2">
+        <v>139751.47829999999</v>
+      </c>
+      <c r="E9">
+        <v>1994</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2997816</v>
+      </c>
+      <c r="D10" s="2">
+        <v>142753.14290000001</v>
+      </c>
+      <c r="E10">
+        <v>1995</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2619276</v>
+      </c>
+      <c r="D11" s="2">
+        <v>130963.8</v>
+      </c>
+      <c r="E11">
+        <v>1993</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2072496</v>
+      </c>
+      <c r="D12" s="2">
+        <v>159422.76920000001</v>
+      </c>
+      <c r="E12">
+        <v>1994</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>18</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2037120</v>
+      </c>
+      <c r="D13" s="2">
+        <v>113173.3333</v>
+      </c>
+      <c r="E13">
+        <v>1994</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1766076</v>
+      </c>
+      <c r="D14" s="2">
+        <v>147173</v>
+      </c>
+      <c r="E14">
+        <v>1994</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1622772</v>
+      </c>
+      <c r="D15" s="2">
+        <v>180308</v>
+      </c>
+      <c r="E15">
+        <v>1994</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1588032</v>
+      </c>
+      <c r="D16" s="2">
+        <v>158803.20000000001</v>
+      </c>
+      <c r="E16">
+        <v>1995</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1533924</v>
+      </c>
+      <c r="D17" s="2">
+        <v>127827</v>
+      </c>
+      <c r="E17">
+        <v>1993</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1468788</v>
+      </c>
+      <c r="D18" s="2">
+        <v>183598.5</v>
+      </c>
+      <c r="E18">
+        <v>1995</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1440252</v>
+      </c>
+      <c r="D19" s="2">
+        <v>120021</v>
+      </c>
+      <c r="E19">
+        <v>1994</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1366956</v>
+      </c>
+      <c r="D20" s="2">
+        <v>136695.6</v>
+      </c>
+      <c r="E20">
+        <v>1994</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1176732</v>
+      </c>
+      <c r="D21" s="2">
+        <v>117673.2</v>
+      </c>
+      <c r="E21">
+        <v>1995</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1160952</v>
+      </c>
+      <c r="D22" s="2">
+        <v>145119</v>
+      </c>
+      <c r="E22">
+        <v>1993</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1154796</v>
+      </c>
+      <c r="D23" s="2">
+        <v>128310.6667</v>
+      </c>
+      <c r="E23">
+        <v>1995</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1101096</v>
+      </c>
+      <c r="D24" s="2">
+        <v>110109.6</v>
+      </c>
+      <c r="E24">
+        <v>1994</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1085352</v>
+      </c>
+      <c r="D25" s="2">
+        <v>135669</v>
+      </c>
+      <c r="E25">
+        <v>1993</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="C26" s="2">
+        <v>873204</v>
+      </c>
+      <c r="D26" s="2">
+        <v>109150.5</v>
+      </c>
+      <c r="E26">
+        <v>1994</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27" s="2">
+        <v>775704</v>
+      </c>
+      <c r="D27" s="2">
+        <v>155140.79999999999</v>
+      </c>
+      <c r="E27">
+        <v>1994</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28" s="2">
+        <v>718308</v>
+      </c>
+      <c r="D28" s="2">
+        <v>119718</v>
+      </c>
+      <c r="E28">
+        <v>1994</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>7</v>
+      </c>
+      <c r="C29" s="2">
+        <v>692580</v>
+      </c>
+      <c r="D29" s="2">
+        <v>98940</v>
+      </c>
+      <c r="E29">
+        <v>1994</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" s="2">
+        <v>590112</v>
+      </c>
+      <c r="D30" s="2">
+        <v>147528</v>
+      </c>
+      <c r="E30">
+        <v>1993</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31" s="2">
+        <v>568836</v>
+      </c>
+      <c r="D31" s="2">
+        <v>94806</v>
+      </c>
+      <c r="E31">
+        <v>1994</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" s="2">
+        <v>389436</v>
+      </c>
+      <c r="D32" s="2">
+        <v>129812</v>
+      </c>
+      <c r="E32">
+        <v>1993</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33" s="2">
+        <v>381624</v>
+      </c>
+      <c r="D33" s="2">
+        <v>127208</v>
+      </c>
+      <c r="E33">
+        <v>1994</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" s="2">
+        <v>218556</v>
+      </c>
+      <c r="D34" s="2">
+        <v>72852</v>
+      </c>
+      <c r="E34">
+        <v>1993</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2">
+        <v>154416</v>
+      </c>
+      <c r="D35" s="2">
+        <v>154416</v>
+      </c>
+      <c r="E35">
+        <v>1993</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2">
+        <v>105804</v>
+      </c>
+      <c r="D36" s="2">
+        <v>105804</v>
+      </c>
+      <c r="E36">
+        <v>1993</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="23">
+        <v>103261740</v>
+      </c>
+      <c r="F38" s="23"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="24">
+        <v>151410.17600000001</v>
+      </c>
+      <c r="F39" s="24">
+        <v>151410.17600000001</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B40" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="25">
+        <v>682</v>
+      </c>
+      <c r="F40" s="25"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B50" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B52" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" t="s">
+        <v>28</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B53" s="20">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2">
+        <v>134166.66487499999</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F53">
+        <v>1993</v>
+      </c>
+      <c r="G53">
+        <v>1994</v>
+      </c>
+      <c r="H53">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B54" s="20">
+        <v>2</v>
+      </c>
+      <c r="C54" s="2">
+        <v>136133.38218333331</v>
+      </c>
+      <c r="E54" s="20">
+        <v>1</v>
+      </c>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19">
+        <v>568836</v>
+      </c>
+      <c r="H54" s="19">
+        <v>1588032</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B55" s="20">
+        <v>3</v>
+      </c>
+      <c r="C55" s="2">
+        <v>130638.46249999999</v>
+      </c>
+      <c r="E55" s="20">
+        <v>2</v>
+      </c>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19">
+        <v>775704</v>
+      </c>
+      <c r="H55" s="19">
+        <v>1468788</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B56" s="20">
+        <v>4</v>
+      </c>
+      <c r="C56" s="2">
+        <v>131142.74728750001</v>
+      </c>
+      <c r="E56" s="20">
+        <v>3</v>
+      </c>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19">
+        <v>692580</v>
+      </c>
+      <c r="H56" s="19">
+        <v>1176732</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B57" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" s="2">
+        <v>132812.77634666665</v>
+      </c>
+      <c r="E57" s="20">
+        <v>4</v>
+      </c>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19">
+        <v>381624</v>
+      </c>
+      <c r="H57" s="19">
+        <v>1154796</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C58"/>
+      <c r="E58" s="20">
+        <v>5</v>
+      </c>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19">
+        <v>1440252</v>
+      </c>
+      <c r="H58" s="19"/>
+    </row>
+    <row r="59" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C59"/>
+      <c r="E59" s="20">
+        <v>6</v>
+      </c>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19">
+        <v>2072496</v>
+      </c>
+      <c r="H59" s="19"/>
+    </row>
+    <row r="60" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C60"/>
+      <c r="E60" s="20">
+        <v>7</v>
+      </c>
+      <c r="F60" s="19">
+        <v>389436</v>
+      </c>
+      <c r="G60" s="19">
+        <v>1766076</v>
+      </c>
+      <c r="H60" s="19"/>
+    </row>
+    <row r="61" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C61"/>
+      <c r="E61" s="20">
+        <v>8</v>
+      </c>
+      <c r="F61" s="19">
+        <v>105804</v>
+      </c>
+      <c r="G61" s="19">
+        <v>1366956</v>
+      </c>
+      <c r="H61" s="19"/>
+    </row>
+    <row r="62" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C62"/>
+      <c r="E62" s="20">
+        <v>9</v>
+      </c>
+      <c r="F62" s="19">
+        <v>590112</v>
+      </c>
+      <c r="G62" s="19">
+        <v>1101096</v>
+      </c>
+      <c r="H62" s="19"/>
+    </row>
+    <row r="63" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C63"/>
+      <c r="E63" s="20">
+        <v>10</v>
+      </c>
+      <c r="F63" s="19">
+        <v>154416</v>
+      </c>
+      <c r="G63" s="19">
+        <v>718308</v>
+      </c>
+      <c r="H63" s="19"/>
+    </row>
+    <row r="64" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C64"/>
+      <c r="E64" s="20">
+        <v>11</v>
+      </c>
+      <c r="F64" s="19">
+        <v>218556</v>
+      </c>
+      <c r="G64" s="19">
+        <v>873204</v>
+      </c>
+      <c r="H64" s="19"/>
+    </row>
+    <row r="65" spans="5:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E65" s="20">
+        <v>12</v>
+      </c>
+      <c r="F65" s="19">
+        <v>1160952</v>
+      </c>
+      <c r="G65" s="19">
+        <v>1622772</v>
+      </c>
+      <c r="H65" s="19"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:G36">
+    <sortCondition descending="1" ref="C3:C36"/>
+    <sortCondition descending="1" ref="D3:D36"/>
+    <sortCondition ref="B3:B36"/>
+  </sortState>
+  <mergeCells count="7">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:F40"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId4"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
+      <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicer r:id="rId5"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/SQL_module_final_project/Analysis report.xlsx
+++ b/SQL_module_final_project/Analysis report.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Backup\Zefirus\Szkoła\Kurs Analityka Danych\Projekty z modułów\CodersLab_Subprojects\SQL_module_final_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F603BB8-ABCB-4516-AC24-D86888E52B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A13CAA3-BFC4-4635-A7F6-57F203EB5477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{D60C4DA7-2D71-483E-A3E8-11F3B2E34890}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="6" xr2:uid="{D60C4DA7-2D71-483E-A3E8-11F3B2E34890}"/>
   </bookViews>
   <sheets>
     <sheet name="Informations" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="Question 1 charts" sheetId="3" r:id="rId3"/>
     <sheet name="Questoion_2" sheetId="4" r:id="rId4"/>
     <sheet name="Question_3" sheetId="6" r:id="rId5"/>
+    <sheet name="Question_4" sheetId="7" r:id="rId6"/>
+    <sheet name="Question_5" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlcn.WorksheetConnection_Analysisreport.xlsxTabela21" hidden="1">Tabela2[]</definedName>
@@ -27,8 +29,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
-    <pivotCache cacheId="11" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="1" r:id="rId9"/>
+    <pivotCache cacheId="25" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -36,9 +39,9 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
       <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicerCache r:id="rId8"/>
-        <x14:slicerCache r:id="rId9"/>
-        <x14:slicerCache r:id="rId10"/>
+        <x14:slicerCache r:id="rId11"/>
+        <x14:slicerCache r:id="rId12"/>
+        <x14:slicerCache r:id="rId13"/>
       </x15:slicerCaches>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -87,8 +90,30 @@
 </connections>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="64">
   <si>
     <t>SQL project - Analysis of bank customers' credit and credit card usage behaviour</t>
   </si>
@@ -103,24 +128,6 @@
   </si>
   <si>
     <t>3. Which customers generate the highest return on loans for the bank (most loans granted, highest total loans)?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. Is there a difference in credit behaviour between men and women? </t>
-  </si>
-  <si>
-    <t>6. In which regions does the bank have the most customers? What are the regions in which the highest number and the highest amount of loans have been repaid? Which regions generate the most loan income?</t>
-  </si>
-  <si>
-    <t>7. What percentage of total loans does each region represent?</t>
-  </si>
-  <si>
-    <t>9. Which customers are about to have their credit card expire? How can you automate the process of notifying customers to renew their cards?</t>
-  </si>
-  <si>
-    <t>5. What are the differences between genders in terms of the number of loans they have repaid? What is the average age of recipients by gender?</t>
-  </si>
-  <si>
-    <t>8. Are there younger customers with high balances and multiple loans? What kind of customers are they? (balance &gt; 1000, more than 5 loans, born after 1990)</t>
   </si>
   <si>
     <t>loan_count</t>
@@ -201,18 +208,6 @@
     <t xml:space="preserve"> of which 606 have been repaid and 76 have not. Which statuses correspond to loans repaid and which to loans not repaid?</t>
   </si>
   <si>
-    <t>Suma</t>
-  </si>
-  <si>
-    <t>Średnia</t>
-  </si>
-  <si>
-    <t>Suma bieżąca</t>
-  </si>
-  <si>
-    <t>Liczba</t>
-  </si>
-  <si>
     <t>% of loans</t>
   </si>
   <si>
@@ -235,6 +230,81 @@
   </si>
   <si>
     <t xml:space="preserve">Rank of accounts by highest sum </t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>4. Is there a difference in credit behaviour between men and women? What is the average age of the loan recipient by gender?</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>loans_amount</t>
+  </si>
+  <si>
+    <t>loans_count</t>
+  </si>
+  <si>
+    <t>Loans by gender and recipient age</t>
+  </si>
+  <si>
+    <t>Average age of the borrower</t>
+  </si>
+  <si>
+    <t>41-45</t>
+  </si>
+  <si>
+    <t>46-50</t>
+  </si>
+  <si>
+    <t>51-55</t>
+  </si>
+  <si>
+    <t>56-60</t>
+  </si>
+  <si>
+    <t>61-65</t>
+  </si>
+  <si>
+    <t>66-70</t>
+  </si>
+  <si>
+    <t>71-75</t>
+  </si>
+  <si>
+    <t>76-80</t>
+  </si>
+  <si>
+    <t>81-86</t>
+  </si>
+  <si>
+    <t>Saldo</t>
+  </si>
+  <si>
+    <t>% of loans amount</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>5. In which regions does the bank have the most customers? What are the regions in which the highest number and the highest amount of loans have been repaid? Which regions generate the most loan income?</t>
+  </si>
+  <si>
+    <t>6. What percentage of total loans does each region represent?</t>
+  </si>
+  <si>
+    <t>7. Are there younger customers with high balances and multiple loans? What kind of customers are they? (balance &gt; 1000, more than 5 loans, born after 1990)</t>
+  </si>
+  <si>
+    <t>8. Which customers are about to have their credit card expire? How can you automate the process of notifying customers to renew their cards?</t>
   </si>
 </sst>
 </file>
@@ -286,7 +356,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -315,6 +385,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -482,7 +558,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -507,6 +583,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -538,26 +628,24 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -3629,7 +3717,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Question_3!$F$2</c15:sqref>
@@ -3692,7 +3780,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -3714,7 +3802,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Question_3!$E$3:$E$21</c15:sqref>
@@ -3786,7 +3874,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Question_3!$F$3:$F$21</c15:sqref>
@@ -3856,7 +3944,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-2CD6-4962-B267-B73338E52B47}"/>
                   </c:ext>
@@ -6105,6 +6193,99 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Anka Zielińska" refreshedDate="45579.544611111109" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="88" xr:uid="{8A13D85C-88BF-401D-8BAA-7B15DC770AD2}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Tabela1"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="gender" numFmtId="0">
+      <sharedItems count="2">
+        <s v="M"/>
+        <s v="F"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="age" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="41" maxValue="86" count="46">
+        <n v="76"/>
+        <n v="59"/>
+        <n v="81"/>
+        <n v="77"/>
+        <n v="79"/>
+        <n v="71"/>
+        <n v="68"/>
+        <n v="82"/>
+        <n v="54"/>
+        <n v="50"/>
+        <n v="65"/>
+        <n v="48"/>
+        <n v="47"/>
+        <n v="74"/>
+        <n v="56"/>
+        <n v="84"/>
+        <n v="60"/>
+        <n v="64"/>
+        <n v="55"/>
+        <n v="69"/>
+        <n v="51"/>
+        <n v="66"/>
+        <n v="61"/>
+        <n v="73"/>
+        <n v="44"/>
+        <n v="67"/>
+        <n v="86"/>
+        <n v="63"/>
+        <n v="46"/>
+        <n v="85"/>
+        <n v="42"/>
+        <n v="53"/>
+        <n v="70"/>
+        <n v="75"/>
+        <n v="80"/>
+        <n v="78"/>
+        <n v="72"/>
+        <n v="58"/>
+        <n v="45"/>
+        <n v="57"/>
+        <n v="41"/>
+        <n v="43"/>
+        <n v="83"/>
+        <n v="62"/>
+        <n v="49"/>
+        <n v="52"/>
+      </sharedItems>
+      <fieldGroup base="1">
+        <rangePr startNum="41" endNum="86" groupInterval="5"/>
+        <groupItems count="11">
+          <s v="&lt;41"/>
+          <s v="41-45"/>
+          <s v="46-50"/>
+          <s v="51-55"/>
+          <s v="56-60"/>
+          <s v="61-65"/>
+          <s v="66-70"/>
+          <s v="71-75"/>
+          <s v="76-80"/>
+          <s v="81-86"/>
+          <s v="&gt;86"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="loans_amount" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="180060" maxValue="1914084"/>
+    </cacheField>
+    <cacheField name="loans_count" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="15"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="34">
   <r>
@@ -6403,6 +6584,539 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="88">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="981132"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1316652"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="1899108"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="1081224"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="543396"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="1722636"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="1790676"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="1328568"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="972984"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+    <n v="1420296"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="1545072"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="610596"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="1243404"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="11"/>
+    <n v="1314072"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="683532"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="12"/>
+    <n v="480444"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="625296"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="14"/>
+    <n v="751596"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="15"/>
+    <n v="1248576"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="16"/>
+    <n v="717900"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="17"/>
+    <n v="1138032"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="18"/>
+    <n v="1914084"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="19"/>
+    <n v="797316"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="20"/>
+    <n v="1449960"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="21"/>
+    <n v="1274688"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="22"/>
+    <n v="841488"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="23"/>
+    <n v="644724"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="24"/>
+    <n v="850704"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="25"/>
+    <n v="517188"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="1519620"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="26"/>
+    <n v="849864"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="27"/>
+    <n v="1614372"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="28"/>
+    <n v="339444"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="798036"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="29"/>
+    <n v="1263156"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="30"/>
+    <n v="1451460"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="31"/>
+    <n v="1076856"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="32"/>
+    <n v="1321224"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="33"/>
+    <n v="264612"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="1813512"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1108404"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="33"/>
+    <n v="1191276"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="34"/>
+    <n v="648456"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="17"/>
+    <n v="624672"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="14"/>
+    <n v="854760"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="32"/>
+    <n v="1218756"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="31"/>
+    <n v="805536"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="35"/>
+    <n v="1026168"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="965232"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="36"/>
+    <n v="863412"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="1458672"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="21"/>
+    <n v="614868"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="37"/>
+    <n v="1288584"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="38"/>
+    <n v="342444"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="39"/>
+    <n v="1232196"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="40"/>
+    <n v="1488828"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <n v="865284"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="20"/>
+    <n v="1525812"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="927096"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="27"/>
+    <n v="725760"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="36"/>
+    <n v="1423008"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="41"/>
+    <n v="997392"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <n v="1127628"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="19"/>
+    <n v="1135188"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="42"/>
+    <n v="403740"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="43"/>
+    <n v="395016"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="44"/>
+    <n v="811356"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="39"/>
+    <n v="1895376"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="41"/>
+    <n v="1140468"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="38"/>
+    <n v="1167756"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="25"/>
+    <n v="526164"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="16"/>
+    <n v="1272192"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="22"/>
+    <n v="1187064"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="549084"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="11"/>
+    <n v="505800"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="23"/>
+    <n v="1084644"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="44"/>
+    <n v="678000"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="28"/>
+    <n v="1245900"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="40"/>
+    <n v="959064"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="30"/>
+    <n v="1240188"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="18"/>
+    <n v="620628"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="37"/>
+    <n v="349332"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="35"/>
+    <n v="768588"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="45"/>
+    <n v="1054080"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="34"/>
+    <n v="314688"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="45"/>
+    <n v="184200"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="43"/>
+    <n v="671268"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="24"/>
+    <n v="180060"/>
+    <n v="2"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8E082A0B-AFBF-471B-A5AF-9A0D9692BBA6}" name="Tabela przestawna73" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="E45:H58" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
@@ -6628,7 +7342,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AD1B84A0-DB03-411B-AE06-618861A8199A}" name="Tabela przestawna4" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AD1B84A0-DB03-411B-AE06-618861A8199A}" name="Tabela przestawna4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
   <location ref="D3:E8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -6796,6 +7510,107 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AA3CE567-ED78-4D0D-843A-A2FB84108302}" name="Tabela przestawna8" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="F2:J14" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="0"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Saldo" fld="2" baseField="1" baseItem="1"/>
+    <dataField name="% of loans amount" fld="2" showDataAs="percentOfTotal" baseField="1" baseItem="9" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium14" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Fragmentator_loan_year" xr10:uid="{C588836C-72C4-4B74-B31B-FCE9522CA83E}" sourceName="loan_year">
   <extLst>
@@ -6859,6 +7674,19 @@
     <tableColumn id="1" xr3:uid="{493B2FC7-BC3D-4935-AABA-B314133A513B}" name="account_id"/>
     <tableColumn id="2" xr3:uid="{57801173-34B7-401B-A639-CA0EEE3A5EE5}" name="loan_count"/>
     <tableColumn id="3" xr3:uid="{9B8CEBB8-EA25-4F7A-AF1E-095158E8007D}" name="loan_sum" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4D8E40B3-9C7D-45DF-8062-E1AFFB2A329D}" name="Tabela1" displayName="Tabela1" ref="A2:D90" totalsRowShown="0">
+  <autoFilter ref="A2:D90" xr:uid="{4D8E40B3-9C7D-45DF-8062-E1AFFB2A329D}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{24459687-AA1D-4473-8922-F79FDB1854B1}" name="gender"/>
+    <tableColumn id="2" xr3:uid="{94BAB046-4892-4FE7-8FE2-59C4621B0D74}" name="age"/>
+    <tableColumn id="3" xr3:uid="{FA80D0F2-557D-43FC-9DA8-F20D8FEFC1D0}" name="loans_amount"/>
+    <tableColumn id="4" xr3:uid="{A12D687F-DC0A-409D-A64A-7F94D5EDFB0E}" name="loans_count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7161,10 +7989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6FD5622-6690-4992-8B8F-59DFADE27961}">
-  <dimension ref="B2:R18"/>
+  <dimension ref="B2:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:Q12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7195,320 +8023,298 @@
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B4" s="6"/>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
       <c r="R4" s="7"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" s="6"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
       <c r="R5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="31.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6"/>
-      <c r="C6" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
+      <c r="C6" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
       <c r="R6" s="8"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
       <c r="R7" s="7"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B8" s="6"/>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
       <c r="R8" s="7"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B9" s="6"/>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
       <c r="R9" s="7"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B10" s="6"/>
-      <c r="C10" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
+      <c r="C10" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
       <c r="R10" s="7"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B11" s="6"/>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
       <c r="R11" s="7"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B12" s="6"/>
-      <c r="C12" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
+      <c r="C12" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
       <c r="R12" s="7"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6"/>
-      <c r="C13" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
+      <c r="C13" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
       <c r="R13" s="7"/>
     </row>
-    <row r="14" spans="2:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B14" s="6"/>
-      <c r="C14" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
+      <c r="C14" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
       <c r="R14" s="7"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
-      <c r="C15" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
+      <c r="C15" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
       <c r="R15" s="7"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
-      <c r="C16" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
+      <c r="C16" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
       <c r="R16" s="7"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B17" s="6"/>
-      <c r="C17" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="7"/>
-    </row>
-    <row r="18" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="11"/>
+    <row r="17" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="13">
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="C7:Q7"/>
+    <mergeCell ref="C15:Q15"/>
     <mergeCell ref="C16:Q16"/>
-    <mergeCell ref="C17:Q17"/>
-    <mergeCell ref="C15:Q15"/>
     <mergeCell ref="C14:Q14"/>
     <mergeCell ref="C13:Q13"/>
     <mergeCell ref="C12:Q12"/>
@@ -7547,33 +8353,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B1" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="B1" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
@@ -7587,13 +8393,13 @@
         <v>151410.17600000001</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
@@ -7610,10 +8416,10 @@
         <v>1994</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
@@ -7630,10 +8436,10 @@
         <v>1995</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
@@ -7653,7 +8459,7 @@
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
@@ -7673,7 +8479,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
@@ -7693,7 +8499,7 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
@@ -7713,7 +8519,7 @@
         <v>4</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
@@ -7733,7 +8539,7 @@
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
@@ -7750,10 +8556,10 @@
         <v>1993</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
@@ -7793,7 +8599,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
@@ -7873,7 +8679,7 @@
         <v>4</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
@@ -8033,7 +8839,7 @@
         <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
@@ -8258,39 +9064,39 @@
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="26">
+      <c r="B38" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="40">
         <v>103261740</v>
       </c>
-      <c r="F38" s="26"/>
+      <c r="F38" s="40"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B39" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="26">
+      <c r="B39" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="40">
         <v>151410.17600000001</v>
       </c>
-      <c r="F39" s="26">
+      <c r="F39" s="40">
         <v>151410.17600000001</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="23">
+      <c r="B40" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="37">
         <v>682</v>
       </c>
-      <c r="F40" s="23"/>
+      <c r="F40" s="37"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="15"/>
@@ -8302,25 +9108,25 @@
     <row r="42" spans="2:8" x14ac:dyDescent="0.3"/>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="12" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C43" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3"/>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="12" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
@@ -8331,7 +9137,7 @@
         <v>134166.66487499999</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F46">
         <v>1993</v>
@@ -8396,7 +9202,7 @@
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="13" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C50" s="2">
         <v>132812.77634666665</v>
@@ -8605,128 +9411,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
+      <c r="A1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>30</v>
+      <c r="A3" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="17">
+        <v>203</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="19">
+        <v>0.29765395894428154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="17">
         <v>31</v>
       </c>
-      <c r="B4" s="29">
-        <v>203</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="31">
-        <v>0.29765395894428154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="29">
-        <v>31</v>
-      </c>
       <c r="D5" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="31">
+        <v>26</v>
+      </c>
+      <c r="E5" s="19">
         <v>4.5454545454545456E-2</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="29">
+      <c r="A6" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="17">
         <v>45</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="31">
+        <v>28</v>
+      </c>
+      <c r="E6" s="19">
         <v>0.59090909090909094</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="29">
+      <c r="A7" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="17">
         <v>403</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="31">
+        <v>27</v>
+      </c>
+      <c r="E7" s="19">
         <v>6.5982404692082108E-2</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D8" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="31">
+        <v>13</v>
+      </c>
+      <c r="E8" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="32">
+      <c r="B10" s="20">
         <f xml:space="preserve"> SUM(B4,B7)</f>
         <v>606</v>
       </c>
-      <c r="C10" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="33"/>
+      <c r="C10" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="41"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="32">
+      <c r="B11" s="20">
         <f>SUM(B5,B6)</f>
         <v>76</v>
       </c>
-      <c r="C11" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="33"/>
+      <c r="C11" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8757,30 +9563,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
+      <c r="A1" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -8793,13 +9599,13 @@
       <c r="C3" s="2">
         <v>590820</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="24">
         <v>7542</v>
       </c>
-      <c r="F3" s="38">
-        <v>1</v>
-      </c>
-      <c r="G3" s="41">
+      <c r="F3" s="25">
+        <v>1</v>
+      </c>
+      <c r="G3" s="28">
         <v>590820</v>
       </c>
     </row>
@@ -8813,13 +9619,13 @@
       <c r="C4" s="2">
         <v>566640</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="26">
         <v>8926</v>
       </c>
-      <c r="F4" s="40">
-        <v>1</v>
-      </c>
-      <c r="G4" s="42">
+      <c r="F4" s="27">
+        <v>1</v>
+      </c>
+      <c r="G4" s="29">
         <v>566640</v>
       </c>
     </row>
@@ -8833,13 +9639,13 @@
       <c r="C5" s="2">
         <v>538500</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="24">
         <v>817</v>
       </c>
-      <c r="F5" s="38">
-        <v>1</v>
-      </c>
-      <c r="G5" s="41">
+      <c r="F5" s="25">
+        <v>1</v>
+      </c>
+      <c r="G5" s="28">
         <v>538500</v>
       </c>
     </row>
@@ -8853,13 +9659,13 @@
       <c r="C6" s="2">
         <v>504000</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="26">
         <v>2936</v>
       </c>
-      <c r="F6" s="40">
-        <v>1</v>
-      </c>
-      <c r="G6" s="42">
+      <c r="F6" s="27">
+        <v>1</v>
+      </c>
+      <c r="G6" s="29">
         <v>504000</v>
       </c>
     </row>
@@ -8873,13 +9679,13 @@
       <c r="C7" s="2">
         <v>495180</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="24">
         <v>7049</v>
       </c>
-      <c r="F7" s="38">
-        <v>1</v>
-      </c>
-      <c r="G7" s="41">
+      <c r="F7" s="25">
+        <v>1</v>
+      </c>
+      <c r="G7" s="28">
         <v>495180</v>
       </c>
     </row>
@@ -8893,13 +9699,13 @@
       <c r="C8" s="2">
         <v>475680</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="26">
         <v>6950</v>
       </c>
-      <c r="F8" s="40">
-        <v>1</v>
-      </c>
-      <c r="G8" s="42">
+      <c r="F8" s="27">
+        <v>1</v>
+      </c>
+      <c r="G8" s="29">
         <v>475680</v>
       </c>
     </row>
@@ -8913,13 +9719,13 @@
       <c r="C9" s="2">
         <v>468060</v>
       </c>
-      <c r="E9" s="37">
+      <c r="E9" s="24">
         <v>339</v>
       </c>
-      <c r="F9" s="38">
-        <v>1</v>
-      </c>
-      <c r="G9" s="41">
+      <c r="F9" s="25">
+        <v>1</v>
+      </c>
+      <c r="G9" s="28">
         <v>468060</v>
       </c>
     </row>
@@ -8933,13 +9739,13 @@
       <c r="C10" s="2">
         <v>466608</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="26">
         <v>2516</v>
       </c>
-      <c r="F10" s="40">
-        <v>1</v>
-      </c>
-      <c r="G10" s="42">
+      <c r="F10" s="27">
+        <v>1</v>
+      </c>
+      <c r="G10" s="29">
         <v>466608</v>
       </c>
     </row>
@@ -8953,13 +9759,13 @@
       <c r="C11" s="2">
         <v>465072</v>
       </c>
-      <c r="E11" s="37">
+      <c r="E11" s="24">
         <v>4774</v>
       </c>
-      <c r="F11" s="38">
-        <v>1</v>
-      </c>
-      <c r="G11" s="41">
+      <c r="F11" s="25">
+        <v>1</v>
+      </c>
+      <c r="G11" s="28">
         <v>465072</v>
       </c>
     </row>
@@ -8973,13 +9779,13 @@
       <c r="C12" s="2">
         <v>444864</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E12" s="26">
         <v>3679</v>
       </c>
-      <c r="F12" s="40">
-        <v>1</v>
-      </c>
-      <c r="G12" s="42">
+      <c r="F12" s="27">
+        <v>1</v>
+      </c>
+      <c r="G12" s="29">
         <v>444864</v>
       </c>
     </row>
@@ -8993,13 +9799,13 @@
       <c r="C13" s="2">
         <v>437460</v>
       </c>
-      <c r="E13" s="37">
+      <c r="E13" s="24">
         <v>2910</v>
       </c>
-      <c r="F13" s="38">
-        <v>1</v>
-      </c>
-      <c r="G13" s="41">
+      <c r="F13" s="25">
+        <v>1</v>
+      </c>
+      <c r="G13" s="28">
         <v>437460</v>
       </c>
     </row>
@@ -9013,13 +9819,13 @@
       <c r="C14" s="2">
         <v>428784</v>
       </c>
-      <c r="E14" s="39">
+      <c r="E14" s="26">
         <v>2545</v>
       </c>
-      <c r="F14" s="40">
-        <v>1</v>
-      </c>
-      <c r="G14" s="42">
+      <c r="F14" s="27">
+        <v>1</v>
+      </c>
+      <c r="G14" s="29">
         <v>428784</v>
       </c>
     </row>
@@ -9033,13 +9839,13 @@
       <c r="C15" s="2">
         <v>421008</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15" s="24">
         <v>10297</v>
       </c>
-      <c r="F15" s="38">
-        <v>1</v>
-      </c>
-      <c r="G15" s="41">
+      <c r="F15" s="25">
+        <v>1</v>
+      </c>
+      <c r="G15" s="28">
         <v>421008</v>
       </c>
     </row>
@@ -9053,13 +9859,13 @@
       <c r="C16" s="2">
         <v>419880</v>
       </c>
-      <c r="E16" s="39">
+      <c r="E16" s="26">
         <v>11349</v>
       </c>
-      <c r="F16" s="40">
-        <v>1</v>
-      </c>
-      <c r="G16" s="42">
+      <c r="F16" s="27">
+        <v>1</v>
+      </c>
+      <c r="G16" s="29">
         <v>419880</v>
       </c>
     </row>
@@ -9073,13 +9879,13 @@
       <c r="C17" s="2">
         <v>417600</v>
       </c>
-      <c r="E17" s="37">
+      <c r="E17" s="24">
         <v>10520</v>
       </c>
-      <c r="F17" s="38">
-        <v>1</v>
-      </c>
-      <c r="G17" s="41">
+      <c r="F17" s="25">
+        <v>1</v>
+      </c>
+      <c r="G17" s="28">
         <v>417600</v>
       </c>
     </row>
@@ -9093,13 +9899,13 @@
       <c r="C18" s="2">
         <v>417060</v>
       </c>
-      <c r="E18" s="39">
+      <c r="E18" s="26">
         <v>8377</v>
       </c>
-      <c r="F18" s="40">
-        <v>1</v>
-      </c>
-      <c r="G18" s="42">
+      <c r="F18" s="27">
+        <v>1</v>
+      </c>
+      <c r="G18" s="29">
         <v>417060</v>
       </c>
     </row>
@@ -9113,13 +9919,13 @@
       <c r="C19" s="2">
         <v>415800</v>
       </c>
-      <c r="E19" s="37">
+      <c r="E19" s="24">
         <v>2246</v>
       </c>
-      <c r="F19" s="38">
-        <v>1</v>
-      </c>
-      <c r="G19" s="41">
+      <c r="F19" s="25">
+        <v>1</v>
+      </c>
+      <c r="G19" s="28">
         <v>415800</v>
       </c>
     </row>
@@ -9133,13 +9939,13 @@
       <c r="C20" s="2">
         <v>405780</v>
       </c>
-      <c r="E20" s="39">
+      <c r="E20" s="26">
         <v>4190</v>
       </c>
-      <c r="F20" s="40">
-        <v>1</v>
-      </c>
-      <c r="G20" s="42">
+      <c r="F20" s="27">
+        <v>1</v>
+      </c>
+      <c r="G20" s="29">
         <v>405780</v>
       </c>
     </row>
@@ -9153,13 +9959,13 @@
       <c r="C21" s="2">
         <v>402000</v>
       </c>
-      <c r="E21" s="37">
+      <c r="E21" s="24">
         <v>4650</v>
       </c>
-      <c r="F21" s="38">
-        <v>1</v>
-      </c>
-      <c r="G21" s="41">
+      <c r="F21" s="25">
+        <v>1</v>
+      </c>
+      <c r="G21" s="28">
         <v>402000</v>
       </c>
     </row>
@@ -15630,4 +16436,1505 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1750C6D-4679-44D9-97B8-06BD855C4978}">
+  <dimension ref="A1:J90"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3">
+        <v>76</v>
+      </c>
+      <c r="C3">
+        <v>981132</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>59</v>
+      </c>
+      <c r="C4">
+        <v>1316652</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5">
+        <v>81</v>
+      </c>
+      <c r="C5">
+        <v>1899108</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="43">
+        <v>4919556</v>
+      </c>
+      <c r="H5" s="19">
+        <v>5.6107058644968885E-2</v>
+      </c>
+      <c r="I5" s="43">
+        <v>4898808</v>
+      </c>
+      <c r="J5" s="19">
+        <v>5.5870429718950801E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6">
+        <v>77</v>
+      </c>
+      <c r="C6">
+        <v>1081224</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="43">
+        <v>4331580</v>
+      </c>
+      <c r="H6" s="19">
+        <v>4.9401249439049846E-2</v>
+      </c>
+      <c r="I6" s="43">
+        <v>5566800</v>
+      </c>
+      <c r="J6" s="19">
+        <v>6.3488813637818692E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>79</v>
+      </c>
+      <c r="C7">
+        <v>543396</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="43">
+        <v>5250036</v>
+      </c>
+      <c r="H7" s="19">
+        <v>5.987615096569647E-2</v>
+      </c>
+      <c r="I7" s="43">
+        <v>5350500</v>
+      </c>
+      <c r="J7" s="19">
+        <v>6.1021933133784026E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8">
+        <v>71</v>
+      </c>
+      <c r="C8">
+        <v>1722636</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="43">
+        <v>5756136</v>
+      </c>
+      <c r="H8" s="19">
+        <v>6.5648172339214481E-2</v>
+      </c>
+      <c r="I8" s="43">
+        <v>5030856</v>
+      </c>
+      <c r="J8" s="19">
+        <v>5.7376424341219735E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9">
+        <v>68</v>
+      </c>
+      <c r="C9">
+        <v>1790676</v>
+      </c>
+      <c r="D9">
+        <v>11</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="43">
+        <v>5577888</v>
+      </c>
+      <c r="H9" s="19">
+        <v>6.3615271201520662E-2</v>
+      </c>
+      <c r="I9" s="43">
+        <v>3728472</v>
+      </c>
+      <c r="J9" s="19">
+        <v>4.2522861241974769E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10">
+        <v>76</v>
+      </c>
+      <c r="C10">
+        <v>1328568</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="43">
+        <v>5213520</v>
+      </c>
+      <c r="H10" s="19">
+        <v>5.9459689530258049E-2</v>
+      </c>
+      <c r="I10" s="43">
+        <v>4947780</v>
+      </c>
+      <c r="J10" s="19">
+        <v>5.6428950625301177E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11">
+        <v>82</v>
+      </c>
+      <c r="C11">
+        <v>972984</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="43">
+        <v>5487264</v>
+      </c>
+      <c r="H11" s="19">
+        <v>6.2581713278276843E-2</v>
+      </c>
+      <c r="I11" s="43">
+        <v>4387068</v>
+      </c>
+      <c r="J11" s="19">
+        <v>5.003408469290041E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <v>54</v>
+      </c>
+      <c r="C12">
+        <v>1420296</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="43">
+        <v>5306580</v>
+      </c>
+      <c r="H12" s="19">
+        <v>6.052102979704245E-2</v>
+      </c>
+      <c r="I12" s="43">
+        <v>3997188</v>
+      </c>
+      <c r="J12" s="19">
+        <v>4.5587541138055118E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13">
+        <v>50</v>
+      </c>
+      <c r="C13">
+        <v>1545072</v>
+      </c>
+      <c r="D13">
+        <v>9</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="43">
+        <v>2582640</v>
+      </c>
+      <c r="H13" s="19">
+        <v>2.9454758506426686E-2</v>
+      </c>
+      <c r="I13" s="43">
+        <v>5348916</v>
+      </c>
+      <c r="J13" s="19">
+        <v>6.1003867767540888E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14">
+        <v>81</v>
+      </c>
+      <c r="C14">
+        <v>610596</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="43">
+        <v>44425200</v>
+      </c>
+      <c r="H14" s="19">
+        <v>0.50666509370245438</v>
+      </c>
+      <c r="I14" s="43">
+        <v>43256388</v>
+      </c>
+      <c r="J14" s="19">
+        <v>0.49333490629754562</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15">
+        <v>65</v>
+      </c>
+      <c r="C15">
+        <v>1243404</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16">
+        <v>48</v>
+      </c>
+      <c r="C16">
+        <v>1314072</v>
+      </c>
+      <c r="D16">
+        <v>9</v>
+      </c>
+      <c r="F16" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="46"/>
+      <c r="H16" s="45"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17">
+        <v>82</v>
+      </c>
+      <c r="C17">
+        <v>683532</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="F17" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="48" cm="1">
+        <f t="array" ref="G17">SUMPRODUCT(Tabela1[age]*Tabela1[loans_count])/SUM(Tabela1[loans_count])</f>
+        <v>62.848184818481847</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18">
+        <v>47</v>
+      </c>
+      <c r="C18">
+        <v>480444</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="F18" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="48" cm="1">
+        <f t="array" ref="G18">SUMPRODUCT((Tabela1[gender]="F")*Tabela1[age]*Tabela1[loans_count])/SUMIF(Tabela1[gender],"F",Tabela1[loans_count])</f>
+        <v>61.850162866449509</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19">
+        <v>74</v>
+      </c>
+      <c r="C19">
+        <v>625296</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="F19" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="48" cm="1">
+        <f t="array" ref="G19">SUMPRODUCT((Tabela1[gender]="M")*Tabela1[age]*Tabela1[loans_count])/SUMIF(Tabela1[gender],"M",Tabela1[loans_count])</f>
+        <v>63.872909698996658</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20">
+        <v>56</v>
+      </c>
+      <c r="C20">
+        <v>751596</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21">
+        <v>84</v>
+      </c>
+      <c r="C21">
+        <v>1248576</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22">
+        <v>60</v>
+      </c>
+      <c r="C22">
+        <v>717900</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23">
+        <v>64</v>
+      </c>
+      <c r="C23">
+        <v>1138032</v>
+      </c>
+      <c r="D23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24">
+        <v>55</v>
+      </c>
+      <c r="C24">
+        <v>1914084</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25">
+        <v>69</v>
+      </c>
+      <c r="C25">
+        <v>797316</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26">
+        <v>51</v>
+      </c>
+      <c r="C26">
+        <v>1449960</v>
+      </c>
+      <c r="D26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27">
+        <v>66</v>
+      </c>
+      <c r="C27">
+        <v>1274688</v>
+      </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28">
+        <v>61</v>
+      </c>
+      <c r="C28">
+        <v>841488</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29">
+        <v>73</v>
+      </c>
+      <c r="C29">
+        <v>644724</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30">
+        <v>44</v>
+      </c>
+      <c r="C30">
+        <v>850704</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31">
+        <v>67</v>
+      </c>
+      <c r="C31">
+        <v>517188</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32">
+        <v>50</v>
+      </c>
+      <c r="C32">
+        <v>1519620</v>
+      </c>
+      <c r="D32">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33">
+        <v>86</v>
+      </c>
+      <c r="C33">
+        <v>849864</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34">
+        <v>63</v>
+      </c>
+      <c r="C34">
+        <v>1614372</v>
+      </c>
+      <c r="D34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35">
+        <v>46</v>
+      </c>
+      <c r="C35">
+        <v>339444</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36">
+        <v>77</v>
+      </c>
+      <c r="C36">
+        <v>798036</v>
+      </c>
+      <c r="D36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>85</v>
+      </c>
+      <c r="C37">
+        <v>1263156</v>
+      </c>
+      <c r="D37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38">
+        <v>42</v>
+      </c>
+      <c r="C38">
+        <v>1451460</v>
+      </c>
+      <c r="D38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39">
+        <v>53</v>
+      </c>
+      <c r="C39">
+        <v>1076856</v>
+      </c>
+      <c r="D39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40">
+        <v>70</v>
+      </c>
+      <c r="C40">
+        <v>1321224</v>
+      </c>
+      <c r="D40">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>75</v>
+      </c>
+      <c r="C41">
+        <v>264612</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>79</v>
+      </c>
+      <c r="C42">
+        <v>1813512</v>
+      </c>
+      <c r="D42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>59</v>
+      </c>
+      <c r="C43">
+        <v>1108404</v>
+      </c>
+      <c r="D43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44">
+        <v>75</v>
+      </c>
+      <c r="C44">
+        <v>1191276</v>
+      </c>
+      <c r="D44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45">
+        <v>80</v>
+      </c>
+      <c r="C45">
+        <v>648456</v>
+      </c>
+      <c r="D45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46">
+        <v>64</v>
+      </c>
+      <c r="C46">
+        <v>624672</v>
+      </c>
+      <c r="D46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47">
+        <v>56</v>
+      </c>
+      <c r="C47">
+        <v>854760</v>
+      </c>
+      <c r="D47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48">
+        <v>70</v>
+      </c>
+      <c r="C48">
+        <v>1218756</v>
+      </c>
+      <c r="D48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49">
+        <v>53</v>
+      </c>
+      <c r="C49">
+        <v>805536</v>
+      </c>
+      <c r="D49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50">
+        <v>78</v>
+      </c>
+      <c r="C50">
+        <v>1026168</v>
+      </c>
+      <c r="D50">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51">
+        <v>68</v>
+      </c>
+      <c r="C51">
+        <v>965232</v>
+      </c>
+      <c r="D51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52">
+        <v>72</v>
+      </c>
+      <c r="C52">
+        <v>863412</v>
+      </c>
+      <c r="D52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53">
+        <v>47</v>
+      </c>
+      <c r="C53">
+        <v>1458672</v>
+      </c>
+      <c r="D53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54">
+        <v>66</v>
+      </c>
+      <c r="C54">
+        <v>614868</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55">
+        <v>58</v>
+      </c>
+      <c r="C55">
+        <v>1288584</v>
+      </c>
+      <c r="D55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>41</v>
+      </c>
+      <c r="B56">
+        <v>45</v>
+      </c>
+      <c r="C56">
+        <v>342444</v>
+      </c>
+      <c r="D56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>41</v>
+      </c>
+      <c r="B57">
+        <v>57</v>
+      </c>
+      <c r="C57">
+        <v>1232196</v>
+      </c>
+      <c r="D57">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>41</v>
+      </c>
+      <c r="B58">
+        <v>41</v>
+      </c>
+      <c r="C58">
+        <v>1488828</v>
+      </c>
+      <c r="D58">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>40</v>
+      </c>
+      <c r="B59">
+        <v>65</v>
+      </c>
+      <c r="C59">
+        <v>865284</v>
+      </c>
+      <c r="D59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>41</v>
+      </c>
+      <c r="B60">
+        <v>51</v>
+      </c>
+      <c r="C60">
+        <v>1525812</v>
+      </c>
+      <c r="D60">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61">
+        <v>71</v>
+      </c>
+      <c r="C61">
+        <v>927096</v>
+      </c>
+      <c r="D61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>40</v>
+      </c>
+      <c r="B62">
+        <v>63</v>
+      </c>
+      <c r="C62">
+        <v>725760</v>
+      </c>
+      <c r="D62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>40</v>
+      </c>
+      <c r="B63">
+        <v>72</v>
+      </c>
+      <c r="C63">
+        <v>1423008</v>
+      </c>
+      <c r="D63">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>41</v>
+      </c>
+      <c r="B64">
+        <v>43</v>
+      </c>
+      <c r="C64">
+        <v>997392</v>
+      </c>
+      <c r="D64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>40</v>
+      </c>
+      <c r="B65">
+        <v>74</v>
+      </c>
+      <c r="C65">
+        <v>1127628</v>
+      </c>
+      <c r="D65">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>41</v>
+      </c>
+      <c r="B66">
+        <v>69</v>
+      </c>
+      <c r="C66">
+        <v>1135188</v>
+      </c>
+      <c r="D66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>40</v>
+      </c>
+      <c r="B67">
+        <v>83</v>
+      </c>
+      <c r="C67">
+        <v>403740</v>
+      </c>
+      <c r="D67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>41</v>
+      </c>
+      <c r="B68">
+        <v>62</v>
+      </c>
+      <c r="C68">
+        <v>395016</v>
+      </c>
+      <c r="D68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>40</v>
+      </c>
+      <c r="B69">
+        <v>49</v>
+      </c>
+      <c r="C69">
+        <v>811356</v>
+      </c>
+      <c r="D69">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>40</v>
+      </c>
+      <c r="B70">
+        <v>57</v>
+      </c>
+      <c r="C70">
+        <v>1895376</v>
+      </c>
+      <c r="D70">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>40</v>
+      </c>
+      <c r="B71">
+        <v>43</v>
+      </c>
+      <c r="C71">
+        <v>1140468</v>
+      </c>
+      <c r="D71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>40</v>
+      </c>
+      <c r="B72">
+        <v>45</v>
+      </c>
+      <c r="C72">
+        <v>1167756</v>
+      </c>
+      <c r="D72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>40</v>
+      </c>
+      <c r="B73">
+        <v>67</v>
+      </c>
+      <c r="C73">
+        <v>526164</v>
+      </c>
+      <c r="D73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>41</v>
+      </c>
+      <c r="B74">
+        <v>60</v>
+      </c>
+      <c r="C74">
+        <v>1272192</v>
+      </c>
+      <c r="D74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>41</v>
+      </c>
+      <c r="B75">
+        <v>61</v>
+      </c>
+      <c r="C75">
+        <v>1187064</v>
+      </c>
+      <c r="D75">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>41</v>
+      </c>
+      <c r="B76">
+        <v>54</v>
+      </c>
+      <c r="C76">
+        <v>549084</v>
+      </c>
+      <c r="D76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>40</v>
+      </c>
+      <c r="B77">
+        <v>48</v>
+      </c>
+      <c r="C77">
+        <v>505800</v>
+      </c>
+      <c r="D77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>41</v>
+      </c>
+      <c r="B78">
+        <v>73</v>
+      </c>
+      <c r="C78">
+        <v>1084644</v>
+      </c>
+      <c r="D78">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>41</v>
+      </c>
+      <c r="B79">
+        <v>49</v>
+      </c>
+      <c r="C79">
+        <v>678000</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>40</v>
+      </c>
+      <c r="B80">
+        <v>46</v>
+      </c>
+      <c r="C80">
+        <v>1245900</v>
+      </c>
+      <c r="D80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>40</v>
+      </c>
+      <c r="B81">
+        <v>41</v>
+      </c>
+      <c r="C81">
+        <v>959064</v>
+      </c>
+      <c r="D81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>41</v>
+      </c>
+      <c r="B82">
+        <v>42</v>
+      </c>
+      <c r="C82">
+        <v>1240188</v>
+      </c>
+      <c r="D82">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>40</v>
+      </c>
+      <c r="B83">
+        <v>55</v>
+      </c>
+      <c r="C83">
+        <v>620628</v>
+      </c>
+      <c r="D83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>40</v>
+      </c>
+      <c r="B84">
+        <v>58</v>
+      </c>
+      <c r="C84">
+        <v>349332</v>
+      </c>
+      <c r="D84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>41</v>
+      </c>
+      <c r="B85">
+        <v>78</v>
+      </c>
+      <c r="C85">
+        <v>768588</v>
+      </c>
+      <c r="D85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>40</v>
+      </c>
+      <c r="B86">
+        <v>52</v>
+      </c>
+      <c r="C86">
+        <v>1054080</v>
+      </c>
+      <c r="D86">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>41</v>
+      </c>
+      <c r="B87">
+        <v>80</v>
+      </c>
+      <c r="C87">
+        <v>314688</v>
+      </c>
+      <c r="D87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>41</v>
+      </c>
+      <c r="B88">
+        <v>52</v>
+      </c>
+      <c r="C88">
+        <v>184200</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>40</v>
+      </c>
+      <c r="B89">
+        <v>62</v>
+      </c>
+      <c r="C89">
+        <v>671268</v>
+      </c>
+      <c r="D89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>40</v>
+      </c>
+      <c r="B90">
+        <v>44</v>
+      </c>
+      <c r="C90">
+        <v>180060</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F16:G16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43586B73-C208-4400-A652-9C3C93535FFE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SQL_module_final_project/Analysis report.xlsx
+++ b/SQL_module_final_project/Analysis report.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Backup\Zefirus\Szkoła\Kurs Analityka Danych\Projekty z modułów\CodersLab_Subprojects\SQL_module_final_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B87F29-7D4B-41C8-9A3C-056DC3E3DE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F28D58-90AE-4D8D-9580-2BD9B1F718B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="72" windowWidth="21408" windowHeight="13356" firstSheet="1" activeTab="5" xr2:uid="{D60C4DA7-2D71-483E-A3E8-11F3B2E34890}"/>
+    <workbookView xWindow="828" yWindow="72" windowWidth="21408" windowHeight="13356" activeTab="3" xr2:uid="{D60C4DA7-2D71-483E-A3E8-11F3B2E34890}"/>
   </bookViews>
   <sheets>
     <sheet name="Informations" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="_xlchart.v5.1" hidden="1">Question_6!$A$2:$A$77</definedName>
     <definedName name="_xlchart.v5.2" hidden="1">Question_6!$F$1</definedName>
     <definedName name="_xlchart.v5.3" hidden="1">Question_6!$F$2:$F$77</definedName>
-    <definedName name="_xlcn.WorksheetConnection_Analysisreport.xlsxTabela2" hidden="1">Tabela2[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_Analysisreport.xlsxTabela21" hidden="1">Tabela2[]</definedName>
     <definedName name="Fragmentator_loan_month">#N/A</definedName>
     <definedName name="Fragmentator_loan_quarter">#N/A</definedName>
     <definedName name="Fragmentator_loan_year">#N/A</definedName>
@@ -89,7 +89,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Tabela2" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Analysisreport.xlsxTabela2"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Analysisreport.xlsxTabela21"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -3310,6 +3310,7 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:numFmt formatCode="#,##0\ [$CZK]" sourceLinked="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -3383,6 +3384,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="#,##0\ [$CZK]" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -4234,7 +4236,7 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:numFmt formatCode="#,##0.00\ [$CZK]" sourceLinked="0"/>
+          <c:numFmt formatCode="#,##0\ [$CZK]" sourceLinked="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -4298,7 +4300,7 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:numFmt formatCode="#,##0.00\ [$CZK]" sourceLinked="0"/>
+          <c:numFmt formatCode="#,##0\ [$CZK]" sourceLinked="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -4580,7 +4582,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="#,##0.00\ [$CZK]" sourceLinked="0"/>
+            <c:numFmt formatCode="#,##0\ [$CZK]" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -4749,7 +4751,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="#,##0.00\ [$CZK]" sourceLinked="0"/>
+            <c:numFmt formatCode="#,##0\ [$CZK]" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -6477,3873 +6479,3947 @@
             <cx:regionLabelLayout val="none"/>
             <cx:geography projectionType="mercator" cultureLanguage="pl-PL" cultureRegion="PL" attribution="Obsługiwane przez usługę Bing">
               <cx:geoCache provider="{E9337A44-BEBE-4D9F-B70C-5C5E7DAFC167}">
-                <cx:binary>7H1Jb+RIluZfEeI8VNJIM9KsUFlAGRdftLmWkEJxITwkD+77zts00LfpH1DIUx77UJhDX2f6Ehn/
-a57L5QoXRbmkbAUwPhghgUTI+cyf+Nl79r3FzP560/zlJljMs70mDKL8LzfNrx+cokj+8ssv+Y2z
-COf5fujeZHEefy32b+Lwl/jrV/dm8cttNq/dyP5FEhH+5caZZ8Wi+fC3v8Jo9iI+jG/mhRtHp+Ui
-a88WeRkU+ZbPBj/am9+GbqS7eZG5N4X064dxsB/u782yuTP/sLeICrdoL9pk8euHxw9+2PulP96T
-794LQL2ivAVhIu6LVMWKiii7+6Ef9oI4su8/RngfS0gisiSuftD6u4/nIYiDOvZ2de6Umd/eZos8
-h7/p7v8Pco9Uh9+efXjyZ99/w01cRsXyZdrwXn/9oHWLG6f9sOfmsbb6RIuXf472+e7v/+UxDn/7
-a+8X8EZ6v9mAqv/6Xvroicof88Ldi+a3eydZ4N646zf2Dmhhts9UWSVUWYHFemgp+zLDSKGUrL90
-BdPH77/duIsfOv3xr+vPB5UaxmxokD6Af38K4JDYLqGpOVl564ZbX9jS5n7ihDpJ5tV2K/vZCoAX
-AhX2hL1wkRfxi+/isflt8z8wo6mMGSJIeXAwm/6H7ksUfA9D9w6o73/i2p0XeydL/eq5ELrzl9Qb
-ntuz4XF60/vo5On0fkZyl2a4vrhxo3fEFNYUlUqwbiA0iCnelxBWJfBT6y9deanYh0ViT//jtz/+
-7ds/tys0jGJ/gB58H8+fwtcX2SXceBbFP8ckEZMkTLC6WmXUx5RA2VcQkmVVUYbgWyolhH/89ufs
-cAXHozF6IE6PngPxkdQu4fg5ir3wXZ0q3aeEYBnje68p9REUMWVYkQcN8BXqbDO/tfircVsL7BRk
-wSs85k9kBAfzrHKjlznB2xZigiVVZPI9t3w8Z+g+AWZJFMwefPoqCLkPBFYLKOgFYdF2vYYnz/06
-+jBAb/psWXofRHZpAk1dJ3gNqXsTgDJTRAWr90yqZ/RknzBRFhWpZ/QT+/u/AHda+/I3BAQPkj2s
-Lq+fuuiHZ3cJpBnE/cXCi6utL+dtATcQ3iX3wUQcXl3VfaBNKkR58srOAMVHdpbFd7Gc9+0/6vUn
-b4AM/qIN8R5uJ4dPcXsssEvgHc9vnPh26zt6G3JAa8EDqqIETvLup2dgyj5SJIkqa/vrhSoranP8
-7fcX1Rp2kD35HnYHZ0+x60nsEnjTRb6IXP990ZMkpsgqIoPoqfuSiBURSfd5MLb+7tX6lqzWtzu9
-vv1zu2LD+D0ZoYfgkPU9kdklDM2svV34EKAcQRJzsf2Vvc0SwYcqlCgyVoYDTLovY8gqiGyYq6wU
-E16h1jCSPfkejkNMpSexSyjybHEDTGVtDYNrzRvRo/sqWbJMDB5yM9ej7FOKZAgte2sezyDbuyQp
-W5UYxmpDtofTUCC58fQuYXQQvyYceT2VXBYFJAo/9wudKD8GioCvRIioZJ2GXgOzmccBpf4rWZy1
-eA+184vn1rm1wC4BdxLEYVzerF/fexgXA5qPRUKAQ9799CoEsMwRhLDUKxCcfP+XOCwjd7Fdl2Eb
-2xTuwTW0qG0+vktgaYvcX+xxKJtBRAA1wPdEjUJdB6syke5jt57BQRVOxRIlCH6/GQ1AGSz3obAD
-SnUuqFW/pNYwgMPD9KCcak8tb1hwl0D96CyyJazjbH67pCnr9/s+pigqFEhIv0qn7mNFkZm4wV42
-QV3R9pVi3/59pdn334s/ftuq2zCyW8bqwft5IPjbIr1LGM/m2W355SXTeBuJWS6RMiUULUutmySG
-7KsqQ/LD0tiLI16nyzCYG7I98GZ/f2qbG0/vFFgZxO3QnvC+/pXtQ2THREh6r4K/nn+V9xlTVVWS
-esxzZQDQgvAalYZBezpED7shv/pUaJcgPISOjHars3qzrclElZiE6GDoLu+rTGGIUfSQuX7qT19W
-aht+99I96J4vKN4/v0uoHbfhlzJ7zzAdfCSiCoRz6zCiF++RfREjVYb+oy24vUatbcg9yPewez6Q
-eJDYJfTOK7eYVy9b3U+sSR1BsvxFq/+J3z+Ob+PoFWW518fBeFlHBaaG2JLFLX8er/WQq5cgCYVJ
-r6Syct93+vxXQuAfA/Tm7lDqov+duzR5Z0G3iCBRmC+qRfbiFHoDftAuJy2ThGi4pinvyzIEXIDh
-Ct0+V3ODLtpelx/2PLN7wR5sswGKvX50l+C6yMoieteiGKwURBEpLBY/loLHpBootYgZdKI8Xdlf
-o84wTiubeZDvwfV8SeVBYpdQ+3wLTc7LrtTzeTev4nL9Kt8n0iUK0GuR3NPrJws9pHuhp0jt4fcZ
-shYbStV/qi11aJAekkMF6SGxXYJzCp3F23vk3kyysawuS2A/nOFjE5ShR5PIAO2mCYIaXbtdj2Hb
-Wwv2oBoyuvWjuwTPfW9etYj8d/WUUPqSoXUAFrVhmKADnKoqhRTvKlTqwbXyeHedcq9QbRi5gTF6
-ID7PTx598y7hOXWjW9iI4ZTVXULuhTz520wPMEUYy9JD9heyEI9NTxRlGXxrz33e6dS1Nw70guyN
-sm//AeXWtXUOevVhPIeH6UM6kP0dFtwlVPkiWuTvbZ9gfRRSTfe1sV79BUPlGnIVEsFrpDZrZkt9
-vv/+gkLDKN5b5cMAPfyeD3d/fOcuIXcAFHS+N46z+fo9Ds74Nxsiw1QhQEIfvOdjQ5QUcK3SurbW
-ixdWECw1+/b7y6ptg/HRGK9G8pHULoF5sWzVernF4CfmDg7dIg4X4ODfswC0jGqgC4WK5L5NpZd1
-xvvQ7aAy2H73MNs2qdWdTu4iAw+/XavhmfRYvDeJhjKXjwV2af7wYB7l/vZI/c2eQFZkhSBpOCCF
-PRDQXA+b7aTBzMG9M36FWsPY9eR74G2hV+tv3CX0zmK/vZm/omLwE+3/bA40/d0bDhHkt6HT936O
-AHvbXEygaiHDA8rwLqiVQn+u03A1ezZG6M2f57nAhswuzaDzMkwW71q6AErOFEJg3/NwyUmBfg2R
-3DGFlQNYs5AVmzvvXqHRsOn/EO2hNtRK8+PhXYJrPK9gX7QPoRTP3rVDe9kXKirQVyjd73vqLbiw
-BUJlRMVLgnf38xi1ld0stfv2zz/+zf/+P1+h4DCIz47Uw3QoMfWs7C5BvM7oe66zfsfvw89hU6K0
-3MXywJgeu1RCMexc7MXJ6xz7ilwN6jEM41qwh9r/K3n8WbbIXkG731RvweAzoS90eIcEND4RCIyl
-Zwq+M+jzhSxGvXXGPIPUg2gPqyGv+eN7dsmkLluguC8HSW9CCzLysLue3G956BEUWOOgRxtj2FR2
-9zPYG3PZfv/9JbWGIVv5uQf5Hm7Pc9wHiV0Cj4OlldvT5G8OUJiCRUldVzZ7pWm8L8IWMqhbky1L
-3Su02obdWrwH3fP0ci2wS8hdzL/E71yTxggjyOb2GgchM0ioKskUSMtmGuBlBYYxupfrgTPUbXb/
-5C6hcuh+WcDGlPWbGlzT32ZQkKxRYW8fBP0/NjVscgtoViIUAn7cg+c1mgwD9CDZg+hw8rSZ8+HZ
-XQJJj8N5B0x/e/bqbTABxcdQCBEpUh6H0xK0ejAqy/jHlrBNK1qtNkuNvv/niyoN4/V0iB5wQ7zw
-qdAuIXh32hg05nTzZP6eW2kBRQob9KgMhZK7n17DAN6XYRstHCEzHKi976ljQ+vVDp46dhDMb1/o
-Vlqa2k9Moq1nSwUlyfeO6xmGsF5Fw314eB8K4hhyafdbe3tF7/8/XbL2ySF1B9ldwaN7xyUUrBpc
-MIYu7HsceukXFU6ngwdgHV1/6SpbtlQF6hzt9/+1/v3gej7slTeFe/54aEvL5uO75Ik1B/bnFe8a
-/wHjgW4fBbp+7hlPL/6T4bgDlcqS/IMQPV1RX6XXMHKrpfHHAD30hkpUfZFdQvBikbxIPN7GhQBA
-8HqwleyZIw3kfTiFDUO2sxe5a+4rVBnG7IfoK9D68fAu4bTcCbi42TvI5kFcvSd1BbgkkcF/QGDX
-CZXHEQYYmwolx2329qDdt99BvW///ic85sqIng7UQ3SoE+850V3Cd5a5X7L5y+d5vimRpjA4B1he
-J9Ke9PyISIS4Evd6fiAP2b6oyrAd/hDtoTZMZtffs0s4nQGLhC7zu5blg2gBnfjl1sn+Zt+JFGi5
-k2G35t1PDzNlX1IhPlnvFxR7lHJlCI9V/OO37//5kpLDaG4drQfw82b5jDa7hPlFtoB9uu8I85KS
-wtmyy52fz/lcyCTAp9vSpBff/7H4siwJblVsG7QbI/TgfL4CuCGzSxDOFoGTueG7MtVl0me5TVBe
-N1X2kt1wHokEPBWjXmCxsqulRt//8aJK2/DbHOLVAG4K7RKCx3HV7r339gKAEM4lgcLfum+9F2xQ
-2KAtSkRV7/fw9pA8jus7nf7cXoNH0j38ho5revT8LkG3PKKkBepahkAOt3qrt62Wy42QSITdH8Bz
-hqgr5OsgBoHyxbbk6x//A7T79r9fpd42Y3wyTg/RoRLHyhM8kdwlbC/zRfGKHT8/Mb93Does+7DF
-9r0T+pICbZaKNHwuHxzNAH5BlIf3/r1SpW3TaXOIV8+kTaFdmkQzN39hj8jPzhHfb/X9CfcIwAFK
-KhzQeV/v7lEE2OqrqmR5kclgPfzEz/74h723aviBkwH/5DUCw8P0ZtVQmWhYcJdm1tEiePf+WTgP
-SwRMhyO0uzOxKHSwrBFfr3erpPKR+7JCw27hQbKH21Bo/fDsLkGlOYsv65c1mGn/yT4ADuwGetLu
-Xc6z9kU9Xp+GWebXludbwwGSDza+mV+T9uE8Q8jSUHANm4nsO3Xqxd7VS+oMT5fH4r05c/D3p7X8
-xwK7NHGOoMQ43+NxsMjf90jQZSkCIQWpz7RbYyABcDCoSHrNF29QaBi8/gA9+AZNvvcSdgnAZXww
-3zt0k/naBJ61/zfZHexpJHCdxI+1ddPuMOyCgtOb1P6Zk3eHB75Cm2HkHkn3YBvqoHn0/C5h9nCb
-2OH8y+I909bL8pECG4uXRzDd/fTKtdBCKMN5vNDQu54sq5V140Kv7/99/uWPf11/PDiXhtEbGKOH
-4VD5b0Bql5DkWRkV82Dr63pjXA7bVOCyt+UBN4Nx+fKkSdh+JMKmiLufXlbl/njxO72gnrRVsWEc
-n4zQQ3Eou/JEZpcwPF+EbvAya/mJUfh0/gW8K1Qoo/29Y7j/8J2rIqoE56ZDKmdwPpH9ux4c0r9f
-8IdOcL7McZv/KZ8wNEhvOg059iGxXZpR0LcFfR0vT6nXL8iQa5UZnPIMdPfB7DcXZBnadGTC4CyX
-FciDta3XqDXsE1a5tgf5HoRD0W9P4v9m9J7RbRVPrBbAR4+88TpWgE7F0LYPbHiFTW9NJnBi2TIT
-u3Fb4mYoAyTn7lrU59UZhmwt90j1n33L6vM+8uHCSH1ezI27q243LmHd/undHwh38PZE7yO+QYpy
-/9nk9tcPEINg6FBjYBIP1+guR3oUMPaDhtXb7okvIIUE44HHhEthGFxwqSBKYU/ph70artCET6Df
-H1JSCD6BxgGoi3zYi+KscO6u5IVnoeERapYI+mARxKt5XN5/hCjsr1qe8MOWVyxKD3cOz+KgtePo
-4eXc/3svKsNZ7EZFDgMTKLokq+eW2kK7O6TLEBzMxVRQDY62gAaF5GZ+Bhcbw+Pov7kNSYtYEXMN
-PpfGaejaPBRSI7LlReI0VxLFiRGGgemn7lHn20cqK1zT9bCjkdg/9/Mam12QFlqRWYqBaEWNrsOJ
-Fvik0FDWzGOkLDrmaAENzIalEU8SNhIa59Tt2ElGI96JZFx3CffSXLeTMOcVEmaV4Jea6MlIt0M5
-0Apsm3UgcWgOHSkpGrV2LWhSUJtuTY9lJpwnTi3Ap152HDlpNRezxhuTSryUxcrWArnRu66YkDg7
-YlFw7uQB1mAXRjNO6ugkEy2PhwU7oyhJeKcI3HPQEXIjA1ulXiqEd7WqM8U7LyrLNoo0/hRhiXcx
-Ni1VAG3jT4nTTVgdJXpbOp8siWly62tiGGhpkuVcCUvXUFMyCkpKeKZ0ehNFXxuPmZYVfC6ocO5U
-ZcYtO/zsKLHuVC7VvSbxeRmXE1eKPO4ot17tW6MkxpdOrJqsTqdiq1KdFFHKq7IwfLWItKasHS47
-/rjEgtFaPjOZGFiGHLdEc+PS18qsO3PKPNLsXBD1lqZz1e+4VIZTX8rHAmrGslRfWBG2OGPVlWo3
-Y1WJP4cqObVtJ+FWHbucoOI4b/LDTmSlKQfdaRa0uiIIH6vC0yybYN5lldaJjsMVq9Zr7Hs8Cp1x
-orgjIUSmUKR656UGo4qRUWdBfVwbyFJOCzkyoZNNT5DFCzGd0ca99VppHovlR1eojcpjuuR0JvED
-etw0haxJeX7MWJpyO245KhxupdKUdr7ZuuqYOE7BVbuctrI89/P4cyKhSSNI11iQfd5J2SGcBX1J
-LWUiSNmoyZoR6774qjwpI1tv1GRUs69C5uiBiy9kUhmeyDQfKTrt4Itpa1aemPCGNAtHoI7REWWR
-W2Gkh11+yRJ4E2GtjmOPTBSnHQWeLXI/wqPaqk+pX48EVUm5IMqf5TgZuRWCd9vCaKp4sPQCPCrl
-Kc4WaSOOSJ0eVZiMVBTcwMSd57E4EdyUN6Jj1EkbG2rnnQduqUVMugirQI/Kj63kjwO7DfUuF2+U
-mJm5KH72BKpqnYCPUirNXCvSFOQmnLiqOLa67DqOI7NingVvprqQheTUY+iM2pmk1YX10cER4YHi
-uTyN0VTyFJ5j56CS1ZM0Y0cs7Q7slOhxjg0WpKZQ+jei51ua6osXSVkHhlJhMwvJqHamLUpHdUFH
-xC+vhFTUoW3qwHbCqUQ7M+pCMCijrS/cKOGxPfICdE4ii5eyMGmqyiAwoygRZjHzZzS2jlvHmzG7
-mldpcyKAY/Jl50QU7HGC/HHq+6Ouo7rftEetgiPelHiElFoTpdY3lnPTLfxp3XVczNXP2IZJEEZa
-WCmO3sb0JPIyHiXxOHHRxMrjq5qqGWe4mQp5qeOKnsKNniNCOo0GkumQSuKx4oqaG3gXtiAe16Gi
-YZYcodovOPgrlbeOZPNIVrUWHAI4yOq48zyuVrjlsKlFD/NY4VaSGCQUK12gFdgRuMesqBdhJ80t
-cFdBwU4IbS+xI1xJlciTpkp4WMnixGOJ1oAth7mnxx0yFT84BMqpmHWHdL/2p5TZKq86ajp2R+a4
-YM7YqhrRhCxtY/O6sluzszxPc1iqHHttK/CYRZQH1JY4c8NJ4qmSSTo708SYfqKJlGllZx/7QVJz
-27I8zYuDMek8ollWec0Ke0YLpsOB7IddZl8EYVPrTu1+keJcNhIiakWhGqTMYCoQ8rUtgmuhcWtD
-yItaEzr5EJeBnnjJREGxliIBaz6WTggRdQV1F1lKas2CudZRNKtC75ARSy+lQua+jDSWORVPWHeV
-ypZhyZYCVutoTdd9ZtS+wIWHeFp1Jk7RJPZid1Kk9dRtJNHokpbbiTvDqRtqpBC1lgWS7nSV5sK9
-KXosUC4E9thuhFNc2tyuSMLLVNYDJZ4mNRig27S8tloeUXfetYnuuvLX2IP1p66vOxHDNfahkHGk
-BieCbX2WWrHirtLxlglgk/UZpo3u2uVhK9AzscKaW7efaNhOBSXR1TKYgDYAMliIiIKx6kgnaiCY
-YdOMkJ9qAOM4sKRKq2BVrOyPftJqTYL0Tq1GvptoVlcaauMew6J9mjrEzJNu6sRgjf7chyWvatoR
-FpxITxq/4n6dTe0osrW8Dm58oTVZ2xlioRaaTZxTTGtiBpRlvJTgr8uKJOUBk3Uvsg9lj5yl5Brb
-sagFSjiH5nObo9hqdM9LdJQymzvYG6WSd5jheFJ0/mGaUF7FjpG31CiD5Irm4JWQtIgzwbRLwddZ
-zLJjyUovWthboIlVrZp1IXXca0s976KRozK9kcC8O8Hw5eC2ssllHoXHWGhngppw2mQCtxWXq6pj
-qj6ZVFlzQ+lN7gumINWHcHx5yjsalbwK1WuFCVqtEt8QoywoDRLhT1B/glVWKhTwSMo0KsqGB5Y1
-lpTyOqjROJGF68rCFxaRLP2OVN7T3kd87SZO2sy1nWJF3x7++bcj9wbuoIy/Fnf7dn78/q8QDf74
-10myiKAivVgUR/Ok/+Ty+x4ehfHvv3/Jah/94wnPfoZJny3yMiie+fCeJ7+SZi9vkH6eZj8+j+oJ
-yb67fnpFsqEUCK0nCpPgQBasLo9JvOfY0AGvwA53JsO9jEDslxeObZBsuM1WoSBJMKXLW1F/kGw4
-9gU4uQJ0HU6vh9uv1n/tI9AgyBgi2Uu9+iSbQuEZDnhc3p0L3/iYZDdxY7O6VjMtsUZlox7nlsP9
-uD0r/JTLkWimldNxxFJNUiJiyNVtW7tG6PiTphT0hmRaGmafSEdv88A+IW3hGkgAR5B5+JNIO92T
-hPMidr5KnYJHYlkaSUOPPLWbsUgYI+A8Wu5jXpfsCvy5XgXSlRDGp0odG1iytVDFY4sFeh6WExF1
-HDf1uUSUKbZTHQXWV8+H9TNRXa2sPB5gpid1oXeJZAgyMxW30TABiy7Lg0TEQC8rn7PIazUZd5ZZ
-Z77hU3vidOItcPV5i2KjROlYzTAsuyQdVTUYJgqASjmefWRLssBbKk9sid7GqTyBv/20UBxY5OgN
-KlOuJiAniSWv49BEbasRKbugectluTjwxZZ7uOCR1Xp6pnipVsASo4WuSma0tAzbyqeq6H+igRPz
-IF7+ZdUJUYNPilBMfAiBgo5cK249wi46Z359hrrkNpCDqWPLNferzjZDJW+meUYpD1kKnj5tKh1F
-1jGjNdXKsDrKFXvaYvQxDvEY7v0yvcqDVVmIZrkaHMliNHJdZLYV++Q3mS5Z3ecS4rYRqdSxwNLD
-Im9TDUhyxiU5OCDA2Q1B7ZRJFVU8bhuZ18zSZCZfijY1srg7EAs2T7AEDrW+Dipp5OftUVEIgeZm
-igbr8mVpIQbENvS4ILFx3Saa58tnFkpDrrrSqKPi5xCCFhvYQcAKg1XpmSxVk1YQTYGkcymPrgPs
-n2a1Y3YsmdWwEFIcHNRdfIXTyJRseVQkzrjysnGboQMl6LTCtrSmxgCNCiQ/MWqv7DjNo0uxED8V
-iJpyY00UEk5F30ZcqZRroXOPbYuYFIJjiBWwGcetjmh7FjfedeC0n0NYk3nWKNS0s/aS5v6xgKxc
-sxv8heZMC5Nl+OSdhIVlOq6S6Y4j65bqaYUQnnlic2QnsDxE7rTp5KMisbnFMo/LGRsFRTVR8u6M
-2DQBF++M2jTmEQGrR1ap2agcE1e8CSCIrNP0gKbU5RDKOzqqM6Z1TRPwtmmulKQy2+UiwTp6mdIm
-0SQ70EtUAQOvHIlLjeJraQxM0w88Q6T4oy2hRoOFrdGkpvksiOE0p+IlnK59XSeKqaSKAf7MdGOi
-A8XPNElojtPA0ZnbfFVoDbZFzy3BOXBFwrHJCmEUJWGrSawRedoyXc2tSYYhlEoDXaTJOGf+pxIJ
-ZpdhTabSWebnpiMfJTRZuG6rZTTxOEq7o0DKdQi6TzN4AwglphQLeuhiQ/KiL7YUmlmKr32g3H5K
-gKFTmyt2bDQ0OSw95ZxG0UcnVCO9IHmqlzg6sIL6JHLxbejIOcdFEnLPzk6KuMNAMayp50DALRXo
-S4epLijSMcvlj0oVnWUNmnQK8O/C9mNeqvD2GTPTzDujWDkopfRESPJPVREUPIlULSvdsdPQWdR0
-tyR0z5CEG96kTqPJFRoHLPZ4RRTKM1jnS+IdqYljlF3i8lws9cIuKK+jahJb8JvKrUJNAr6nNQ7M
-n6YILmKRmYKimlVQHEUqPsWeOmvy0jGyDuYM1KwRd9SmNRM5+RJYmeGWotnK6Y1AxGO5bKeVe8WC
-zDHtZXDkh0a5ZP+K7536UXxGcH3oyhLMjrS+kAuI+pA7C2zntPZTs8CNy9uIHntKfgrDGb6rntpC
-DV6O5OexnB7HqoWOIGFwnUl1DG7Ut3jo03GjVsBvi1BnyJt0djKV/XgSU0knraO5cu7xpoIkQFtd
-YQv4WR7haRJ5113RKbzxSc2RbX1RukbPE2sCTmgUI/moBpdRqoGOs/IwR2Qk08r0LTRuOtGMRGUi
-JS3YrTtB4S2m4MrE2PAjNI1x9dFH4UED07igJiSAkKyeq5nMYwGPae4eReBNJauZ1R2ZwLmrXEpi
-XlVgMS0tjKCB0DiKeUuSAxX4f4FQOxLTYtb4JcSqAsQpVnuDaMezhGoOCTS78kZRE8MSUk1tP4Il
-DR4OC5h/dskzWmielcmmVxSnOKSuXlWxxfNUAOP1o2lUhQdAIwzR78D/qceeGhiOOFLb5LCpRF0o
-S4d3DIIctRx3aUggUlcvWBLA6BmsUmFspko+Cp3ASDsfVt3EUCB4yYr2KJH8Bqh+VU8CXLaQ0rFE
-zVM6A0fJFRGLK8vL5l1TiKZtWxy55RQ4Mk/80mhbZxoy3+wSwlXBntCiumAV0nOEJ7laGzWrp3mV
-6hFm3CKx7tnxoQBLRRne2rY8pqLMBVSbBWQ1OlbqXVhM5EqEDnDPlMDXWHk6tl0PElzVrEhKPcGt
-IfhUS+wbREqdoJwnjmwGNRZhSA9SLfSAWYgHxB7LPpg2PrRRPHa8LHc4pEK0tlKbA3BahiWKM0H5
-WkpucqgEjgahF9axAykGmqODSgndkcTCjNfEQ5rfUr2JIUYqRAgbBcyd0j5OCmHsW0Q+96nEiQR5
-gCqG1SwUzbfT7F0l0Bh2dj5PoFdllbsj18M/fsuLhwNSN1LVyxHuU9XKvgrddJCkhhtC4YCN5a2F
-9zRa2V+exACnRBEGNBsup3+g0VCvkBiWFTjDFvqqFLwkt/c0Gj6CjCxV6fJSiOVth2/KVcNN3E9o
-NFSs2LJPmIqwqVWBrPhmrpoBuYrqpCu1ODerpgROFAUHSVkZFaqMmOQGStWTRCyoXtpOA4F57uiq
-eJt05GNAyuO0rUedl0mcFtGJnGYfmRDOpMIaK+pFEpHjxKvMBkkjKZtRwjrNURBYmGvmCNILClY4
-dVqeMb1k0aXfWMeyUkBKFBLPUQlGrY4rNfpquWms0c4NOezxXFhyMHIDiIBT+5oJzke1CG59qzts
-w8ysXAh00+K8CsppJ7SnQvM185ORV0Bm3Qq4V+c6RDyQH5K4JdFREVUz5l0XrqMTCY/dytIq3zMy
-q+BdLmtYtQ3SIF3Og3PPJ7yxffDI+VjsplFSaUF1RVE+SeNLVh5YTakjVmqoQpqghDwHy4Wb0XWl
-i3jhaw1bBt6S5vrxqJMuYb8bDyXMmXXQivJETRDUAM5YDGtpA1w7YlwVjzMgSZ43tkNJ89NYBI9j
-m40IpCsGsiKlRts4Yz/NbizcGHl+2hTFR+wF50Fcm3lTBpBnErVaEiCX5kJm3DkNlmkO6zZTK66o
-0SiWcq7WkEpPa6MVGi4HilYp81IlegsvIrAbs0kzWOW9ceYTTaxlU8zZCfi7ERJ0R+14XWdGCQGW
-nc675IrRUsNNoKmVwgXXnXWNEo6sdkQrZcqAjPqCkSvHWSiOq1TWXBqaIgHyJgcTO7rKwLc5aqAF
-6g1yDomVTApS6MiHlSpSP3viAhWNXpbNF5/NO3rRAAus49KAGWj6fmYKsTB1w0T3RAfYg6e3uXtA
-E4dDiseQg1xDDAIQKQH+jD/mEQVqEMQdT1k2kzp/VBRLOokPGrm8IZlzJWMbMITgzr+uM8hsdRKH
-bJpRKgHPoQLj2d2hkJATEdNJYX8RhUgTqMyBz43TAFawGyLQKbCJWeGKC+jOPy6sC4qy48A6EdSj
-QrZM1w1GHoFSTVSbHSk1BaCgnjN2FD0uPXOZe3Lki0auTdo5Gi1qzlrRlIVQy9qRkh3RHJJvDVQq
-6qkoOVruEk312FGqnkXhCFea4kK+icg6VK6um+IcWKKhkoLXjaIlxSX2nbFbR5rTakGKOcoviedq
-EMSGMKcwFCOccmQHRo2g2EAvWkjY2N0UpV+szkzETBNKT/OTAhbhI9SqoywQ9U4UIYtLOLVkSEVh
-XrVf4sKgUAIIckkLitzIm6vWtTWLFbNKrGdIrmeOfZgIzqFSE63OqpFl04kjFiPbLXW3arUawgJI
-D5pNWWp+Y3qq+H+4O5PluGFuST8ROsCZ3HKouVSSStbgDcOWbYAACBAkwenpO+uP7nujF73obe88
-yJKLJA7yZH4HLILo1Lv+bdzmvfUkfOK1NEEVrDcpO3QepVne13h6jdZPl3mV2ZD2rH/S8dR16LOH
-DwEjf9gOyUxzNLvxMOJpo4WExW6+ovaz5q6Ml5OL2HkLLyOMrD5bcTXa/qVufkqYmVj3dZyw3PLr
-DNMxWaL7SsKfjYAKk7SIt36XOARu6Y4M7zabq5SKY+s5/zjJrQo6iwcS6jPo8ECKLx4Px02lVUTn
-e9x+Zn5zHyRUG9zJPoWhOq/T3hpW6OjZhDEsYJZv9lfQ9cXED86+OKFyqmhB6D2M61xvbw25Eslz
-6y15G97IXIruV9rDrFP9u2Tb0Wx1HkqY/oOsmAzwLKwIUEw+eurieTd43pUzM4zz90zuufTOfVrM
-LCi3qKyD9zVcn3z2Sj1bbLE6uQExidfB7Pxh1/5CSXwSkuVwpas2/g70q/baPBRp7i3HOYirKfzy
-tLi0+jVcdZGFaCRhf1hZhXAPexscgpXeSOByzuciMVMVeAQhwlGrp0Z0EJl7zprciS89vU54qrKl
-vxP/c+k+VlQqsHhHE5gyHJEaYhOz8VzKpHvZEL2G6tOsU7kwv2D9d+TPRRioNk+tLCD3ddftFmJL
-K183HlUMwV+caRicW4FX2O1VfZmN3FtVP/NlRbkbVD7Zx37Sfbnxpx/BW2EBnA+shIZWaesV3mIL
-gYXVQltRRS4UQeTUa9x7ViSc5f0GEzjIjp5Zrj1BA5p9es1eB3UxtD/p5D8b6HLLfwUp3yFqHnfC
-6Hx41L/6OVPjBzNevhB2Sjo4PIPeDuOc/o54sltijvZaI5vwbqgLT1AlxzQke5+S125JCqrkkbm/
-NT5eNrtS9i9zj5gTxZ237xNjcOubAj7gOVJblWR6P2XIRwOxWyTJZfvkb17FN7gabZhUq1huMZuL
-tNclIpltPVEbVCoRpe4PmfxOBbahvlo7VjUTqpg3j/CwdN5klOVZYot5ios4Ha7OqHLqmC6oZWne
-WMGLCV8nTDmRFSGVuMzsQ3vyWE//Fjq8RkQ8h2MVEpvmjrRN3tL1NQ7Vm5oQj3KjadG38UHDG1ke
-mRp7N3X0xhbxskny6UTS5GOkcz2EL//fKN5vnJI59uvrX9aY/zou8z+sAsCJ/7vS/d/8yn+bxAm+
-/n/p2sdLHPEaQIAOeGXS42V//6Vr/f8B1C0OccApZkwSHPj/X7o28nDcX4SBxiROI6DN6X/bw5iF
-jCK8iRZvbcBbnqFE/5/sYRzYCcX9f/rDmKpMwwjfCD8HBjb9P4XtymRKcCihhm1n0rvR4jYsW3aI
-s+CH0AS6bc1svgoq8r6pDQyP5JeVgcnJ2n/0mtqisYE8KpLB90x/Uxh2jW0qtrTYrlC58L4vlBba
-6HzqDNrBMbxuJtJPUZidk1boos8kPKZV76PBHLcBlu4UdDkblrPqh0PHPUAQWSUilPHMXHtmrgRY
-guDmmkXtz7il32auD+iB/w0kuyZDcKJd8sr9aefCiqt3nv01y3nK3seNHqL6xOaTFs3FS39IGzwN
-AsatDVVB9YocfJ/BrbNB9J11v+UyFxO70ljqvPa2qm3a5zFbSurLKkUa3dh3NenjKpcqBY1Qs/MQ
-AWUJ10Js901d/QYmkqznPCLfQtIfW7wd52x7SjOk7baF6fo2t9AOfnQT/demo6JTyFVXBELtlDN+
-You5rujgAS8k8e8Q0bB7Z223x2Wc4QVkzXUJnvzxZCmMzxQb1BD9JYy8jZYO5Upq9LLDW89+oUXK
-vbpg6l4bwDC+OHh22a2eX+q4fp75VkXcL9OeXnnYHTbKUJMhU/DCVbHf5PItwCe0U494fIHmXeZL
-QucbX/ucBekuldMfKMtF/jKdRApK22JVKtekKX1/37DuZdXeIZtIEZAb2vCuYDNsAGCg4oXhx8Lf
-LmRwCqbn3n8XGbauaC26+VmNJ8R2uZ5gbzqoecUzfuTOXCbpQegThk6lf2UKldh7rpFc8ARxaN8/
-s3i696l0uY3W/RCAHegEfkfW9msxzORJvL48jAQYEQo+dIrIdNvRccuKhYa7bqavQ/RwWqT8DJZ1
-LPzIFOHm/fPo39Abk9I303UV73Ro92xSxZBAbU4fXYCGbexkISJZgj+Y4YX6P4Ya/UIW5zN6k3ZF
-DI9dd5xyoDPnJrSimAZzi9drELt/IlmeBiQhuo/KdDT72kFTyS/Yy+Xk5nJI23Pj4GTq88rvvZ1L
-64+li36tTv3oWXZg8DaUa8uITs+DgLlp0sswuiINvCoemkLzP9xD9Oypj9F397rRR19Nj1i+JEH/
-NIq2CpvoZUi6wusUekpymIP5uhr6nanoi68enoPPbDsMpCvrccthnxxD8z6a/jwhoTb6xGB2xql/
-nnxYwUsGT4qGz1Cah1TWL/XU/uMswm0Z16YIZ8/D8w1LyI+e3DaNvxK//856c+L/uRvjTnPa581k
-sIWHbR5ze0pXiEFSo4HC8iBR8G/I0O/4jyQ7nbJKeSgQdYOdV5x9gjakZ/Cj2uds4xVd0hfEWXbX
-RltXbJLqnTcv90SgNY7kVjIrkxtZAz8nG+S1CbdiZesKTImgl+TqtiSZKb2p/7FiIfULqgJVBwrf
-U+uvrauaKPqU8lnOzcHW9YAKcm/Gb69et3xstzLWW750/LeX2ieerLk/T67gbmvgySemaAhCE1qH
-2025aHlFJZ1LL1kvnsaa7nmK5t+oLU/8s68SezecXBocR3hEYQ/3dv3htCy20J+eLUs+a69FYGzC
-u0z8PNmapgrHYXpoW4uudrivXOVtvPov7aBvYolh6qnZ7WLWbYe6T9rKeCTebRxrMnGzqGb5EPXD
-2aQZVG99SydDciIvqQnXN+AiH0CwnqUQZ5FET54eijo8O8K2spuavyMnr9tch1Az8d++9uFqS5GW
-w4omLlv9sJpVKk592C5lGy3Pk4vIVzBmk8INR/e5Rr7Lh9WN0IXCPqKJMlmxjEJSX+p5658aa6Hh
-JwafMFSXJKrtoR7XOUUV1ePTaMPm2rS1n8vMVWkTxGh6yXT0U2Ny2gU/ko61R1HDQAYwEt9JD9Mx
-6ReOik2v9VrXn6PTwy6Ol+YdqMG8g4fdveDBENUwsuaStM1yZmEWlTDYzSFWgyl02tlKMXi6LSpr
-adcY4d8i0Ep72zXpESVsPW4awbJzfM8CAkTE/0Zz43JP9GveRoi4QommjKW1rdDIpRX4N3NEIKhy
-3/zpRnb3CDkElpjd6r8OjQkuNRzm0u87V/WoV8/YeLFmpizWT30QjruAj9NvTjL4NSpcveOaBNiU
-8bIKVFtfPyUzgtx5m+xtCMBqrPEbiZbuuIgE1XFFjLmwfwgKKgA5P0NNacnh52dzAHavG5e9Sktc
-adBAoa2RSUl5HBMdVrHb2pKv8mtcON1xkQ45yfiHYgiuaHBhS+eO4ZrcG7nqa5gI+T1STfKOzOJU
-yy3NTRulhQWOWK5eu+ahzaBkG+XtZ2viHS4+1EDs/26FsHnIPDy1sVXwOIbnKCTgtbSqi7AjYxV1
-7bhr7eO7BY7mNfaym9b+r8BTyz7qgEYNnB9am77NAVAf+ki5TGQvjkIfJO+PY2L3G1uDohdod4hZ
-f/uicygRC+yTaK4LOqTrQcZbeHBIigtir+uyp8gFmu0fGxuvzEj/gFL6j03rP1PMXmRkacVThD3c
-VzAIxI+gGY4DW6+89V42kuyCQB+QIb/5fVt6IfaTevteEvnTWEg10sFQSEH5qH0UpPs4dXmz7Orw
-sixx6ZmHVIpOzRDtM9kXvJG58GacTlwX88BPG7KH3PQOTVuKbcpeTSRP2dLeGIw5xGZ2iNAWkCfT
-dfsaLSmZZJPXkGpD6MGfx/oIve4J1x764U5CkZ06pZMvUw/TeUNSzYqMYxFwOnk3RYhDvzY/kugE
-Mbds+4yC0AzrI6Zl071k/rLr9bSUIzckyMc51A1A140iv5wzVYXbAMYnGKbowJIEFlJjGlFEvZed
-bBckZyjl+Lck0I2c1uY89QhvOBvp3nQbf8HMJ/ZF7hu1G6aWlGSr6T5mKtv5LYK6aRqBPAy+Vwwb
-diX9gAknHpJXj2di75AKHRwa/MvUG/FzbTb7aoDLVJxs0EhDs9X3UM+wAry4TnK4GEFYPGL5G+Jn
-ebRgzQ5CLfajDxegDejuZU6R8hUr0fqArnR9E9vqXfsscqchHKN/rcdBao3z+JJR8iuaNXZUZcX4
-lI4JsEsA2FHeWkqeBACNnUt180bdTI8BPno+cZq8AOFMSgEM6ai8pDuAeraVIVNfbLU/ovwhnI7n
-BVaSN7enHoSvLBIbrDvUjwDeQhccFgWMYMqaT38YlnDnjTT68JTfFNvk8XJIHKjHeIGFkbUDbIiY
-JzwXXVojPXXZMSR6w011Jmc9KEe76rnw2oGctUR2uIks+AhEW3+2MItPQTDDX2uBGO6bbk1+bRP0
-MLEeexSnwe3npHXXRRPx2WcqPS5eBF7Qn9sM+lJ1059NdeFhmZByET7+jGIkWCsojjIhLrz6Jn1t
-smgfLWbMGWtAZSAC7P3SUXKyDCFk1CztHleS5AEjVyR9T2m/wPZbynmdn3xEQniUpmU5Q7UPpZ30
-VoiVbLmT9c8gnHcKYxJ5IPWlod4l49gG11QdqTNv6dz+AJ6MpK/DzrSgPJk3bK6nYEjBdk1jCeRX
-VRETX8Qhw42Jt1uapKssNRuYheHZd4oV1ukiiaLm4WoGuRA1MnJz7Tx+zIZfeAYNQM65q7IYrTsC
-vq6tbwgTfcg/+EHGcH4Sqcxy6U9tPhLgci0LP7aZ+pWbfFx8MEHST39nSzxhH+A6j9emOYk17N58
-31I4Ulv4hhPWXYE3rmR5PKP9C4Xn74zweiCS/Y9NbdmrlKBMNdvSYlTxqQUR55qEPQBzA0IXeWMn
-8eCnDAExTequWjpyYkmIBDB7Xb2fBq5s0I1FNPX7mmq4bUuVtANqSFjMgMk7Nl58hBGxgKrMfHCP
-ZNkvgNxTL/qn16ay2bQbYSVLwUvai6v1PjrP2j+ZN/1xQyTyFHq75Ir2O4WRgwJHCZEZq6yB1xTj
-AqAjmOWZbg7e12RYSRMJ9h6iFPsGac96ZKfU858Y2NuTpu4ZvL+Xg+tJ9yAPx7wZ+L4jfRkNYV0O
-IgZNVethqdTUtmhb+gSkiuiSq5wiMME+a4B1BMEH7VEiBh7DLPfkEO/ClkZPatRx1Q7K3njQTJXn
-qaZs4fieB+djUXg1OAjgHWJnqEKAHQX8RBqlfyyEZFWYevxZ+QqOIQ+Sj0A5mOC07/cj6AICRHHJ
-PmzKtmdgL9MPEa/qnkTOP9BoGncOYQ7MbZVFH340KgT7VlyVJtldK8IBkCjMHQw4zA7NzWyPHm3a
-DyDg/RtTuv21JGr8PUFvnMbNkRONuTfsnPXGH9mUuJuTWpwIT9XPmElEH5Ocpn2o+2nNo6zNnrI5
-Hj9HIIx32Qv26rkGG9M01BC9ft20by5Yg5/gy7gsAdx5iHZ8W5dB1i0H90C9fV8nb1Fv/V2q5fIk
-o46eNw/s9JjgQY2T1rvXviWlaXpy1SFbj22f2KdaNpFfhHGH0i9UMCLh32x8wSawwdoO0cOlUa8/
-Rol904sAfE20D++IKfnnkiV9XwZ8HT5cFo3+LtwW/x0+wnLsmQjhb0pTkQgExEia48KaHq7e2Puv
-C+A5ia7WRaWvV4lLM2GjfoBEftrwdyXCsLKxZs+ZP/F/LpwyD9ZcKGVemw0sU53wer9Fdir82vd2
-m0vQJyakW88SlPUDJEhPwzLVSL90pS2IZzHrC8dT22TL0VtEEQxbHlBvAJsObyIc4zeQwc/Ydweg
-2FALdVTnwoV3irkJW8u6VDXaGpB8LWxggiEPvXl/MqDqiBJq2MFBU0yLaP+urhmfJiWOTd1OlUa7
-XrnIA6BN0kqCATK1r/Y+MNg5CysRoIYnsnlB/pPlPJ0hw+SXNkuERt3/7Nv2qYvAazhC2Vsa9rDw
-I3CLk+4RCCawpju9TWeFmZOW/9tgmYRJhGEU+uF4DWMbqUzoudwfpinv/e2U0rouRxWcFm1l3swb
-/p2aL8ZXu0k+0Hq0YkHXlmhNH83kS5rIGH84T4e4dhlyvpd4+yEQw60K3gNspTSUiKD4G21AjW2B
-MSUU65Em5hD1iMLc7DG0fl539bu/o3/bDJRXtMy5Ei1a7S4pPBnDTl6oKcgMXyOxXR6nsLjPjd0h
-tFRYQ80ISIj9FZ7eiTb52y2N+qFbch0W5ImJHSCz2jo8eP4A1e2jyZKiu6G9OuJS/iFArfLA1aRi
-w7iTbPkV+/Ezihxq/oiAM+j+rJOuaPdZk20tYpgnop7mQht0BiP4j2IRU4qCIKN9vFH89z2HcknI
-+8gQU7UW3WnWnTHV485Uxt7Ocr4f6jir+pRh5Em2UynBKeaPPJn2bBeml0DtmBBfNvZuTHbfhGcY
-g3DYQxmRyNhInZatNuEeuxCAKaUlMMPW7TiHpWLXLqha09qDxRIqWsD8L2zzRG6HFKWlzTtveJNm
-udQuhcqU5r0HQpp16S+8YWoqRq2bvUfldZKHzCV3NyLJ9eV29Xqa87YtOHJBVtMAIOWI8Q1hGXjZ
-IaqGoIP5kq2/a0UvLqvjJ9TsuWJ6OIfw63OvN1mF8RcwbGFWqIhfKFyhKmah+MU2gYcwtuZjM8s/
-GPvRbnt0o7QHicdS/0mO4SljWQln45dqGnoJWXxxA9Gw0RA0OR1n12UOlpsc+mQ/mw4zSOvZdHXl
-GodpI2yANEYGoJLsikPOkFMn96zvzHswb0kVKpi6MxlnXAY1A7sC1EY5iPdRLdGFwH+64yibCbH0
-zItxGJ96ue3jhr20GhI/mPz3FQ04YKLsKfAZrpduNwp/ZgBcFOpdO0k8LaD9DUCDTLv4HPvINUfN
-j8NmdmmNp7Tny7On2uithdnYpAHC/XbbilDxZG+MTQD5rWIvdKIQhZv0hXD5bWeGtDk84X/yjj3x
-SgZMBSbpr0xpuFwYL0Izg72xZs0xajBL54UNpg00rSJinm2dwWyMYDmnEohPrRAa6/GR14IcggKy
-ell/YrPyoPWbaoIvdHEY0YCuoKKc6do/T43X3SANrt44nOPHupjmMCjTGdBcRpLTULO/3sRlNcXb
-dxw1fh57LL0vasOyl+YFZhqKZL+4HVM9QGdpJbSHAWdgvCndDXLzT13URZdVZexmiN8cBi/DWOPs
-YNCsGjMnYYDMz3tWcd0VTRe/B6Dg5jUdSz/pumdsPHttaXbwtjS6jVEDbBU1OInEzYvbexpZ1Kvg
-z9Rt/9mVcEfqFYRWBtBPQdqUWtgfUbLIAwtRUddxR5FIt8IvR2ffg/hnE8KQZgsNbtwdWW3KxH+Z
-AJUp+ovAlLun5gHpxak9ef3W5+jEwvuKqaZ9Om7Tm8a4EgYaFncTOiCVZ+Sxrzd6RVi+Vo1IvxxA
-1gLa693CHIPbjsLrtJ7zYAarojBK1NmV45Mu3QX0LCYwavyl87k8864uNb1NfrScBAED0ks0XclU
-+ROBbWorGpuwkvwRisVBBsm7KggVWLTOHmVWg8Yj1xnh6IT0okuBvzY/IIL9YuoxfNoTUUXRWIkN
-DTJM2A+8SXC48oGDcsUQYjFY5+VymPY9aq4Uj6k5oIaFj+4/aA/9CJOkixFbfEo76jyyJjprg2mt
-unHhAXwch4MA2WXGYbhiuwQEMK3YB0X3jyNVXYy0VZNSDmRgE7vYdwAlFScRQGUEFHWU0N0wtt8+
-S87S6gt8u+AonfzsV0bPk4v7k5TzsW1ZdxC0TXJXb4Dh206ViC6AoLjB+5tSNe5n313U47KTFqsk
-GCwgUTVW4NmryQ9wLfvfmVcL5Dv1UiNUny8gDPy8qZPTMot+16bhVAa9z06tN3w7lQxvoo7/ch2V
-EwtPDn7yzDXZTY5jR8LoQeHEf8YKR+qVi2yH3zaNfsnOYqIxm4K3Lp0BMepn18ZN2QXsL9SPf+my
-8RTMcXReInIGVdkWlMEPzh6zCTroGCRHXSGnpaUnHrwemY+sC3Thb2goTRtcpVie0TUgemUfxK2w
-IEJMzG0M0wLCP7UMeVRvoQVUyy8qpKcsGDD95T8SbUjbHPYnnGoQhcGGnL4V0FQmA+h/5e6UtIdE
-vmkJmru/oW0tcUrcrgaDjb0/VrsEA8natIVOSJLb3vhli24YRuIu7fprSPltCr0XR2ByckwojP2G
-/B6QC96TsWDcd1l2mfqLea+oxYNvqCGFWVpZmGY4BBQ46Sju0diyY+Tmm9fbUz+btQj99clJpEeW
-/qljkBZ500R724ysEPiCW+IYpgjisS22KMQ6C9ZSJT9pT/9Bah8SkmoERm5H1vSeWXFBW3Uba/dH
-h01wSQfQnY1pu8pn0XxbCTv3Kzq6Ltk+RhbRPO0MNu6nlqiXjI05rMMCA9YnEqwHPYYC6Oewj5fs
-NGdDVuLyNwi5kdTb9WVK6a3DnjfTHxZ586R5Idp538oB88WKVW0/3HFbcwiltqgniKShzp7XR/zY
-Yepr8rDi2l7eQowjuNUvE9xNxmCQ6Q27RlLzPz5nV0+jC/apD1dYgc2Nso8E2+Yj3X5Kelqm7Dl+
-OPUe+XBRE1eLz29xmq1lGmDxO2G2W+NhSc2BqUsJ7usIj+Uzs+bFTPgsy5IdAeGBGd3bjWCWZCH7
-Nsq+AnxLh2d6xsQvGd2fiWN/xsxpjwG2GKPD7Y7FfIdzq662tkVs+U6ha+wc1r33pXww+m38m2/t
-2SX7FJ3jyKA+STUaXIW1v8aaXMPFnRAUFyklBzclt6apz6ZOLbZjISADm6Kl1Kt6+G/32GDxh8ZP
-S24tLLl4w2NAt3uGxPfNDmB0umQVBQmY9xaYWWCgudYEAZHXmDMa5lMIHgztWt0Waex+zoOJCqcQ
-zK1hNJc4HPtFoBmBhx0OpW9HTMRv5MgM5mGtl/7NNOqkh0A31/6mSmU4dvFpnTF53wNIBw3iYxR1
-6kRa6EdH1DmtjrYFGjy5m2wwMeHRNYMoVAMaIfIiXX/CQORLDwpCp+GNEyVPPW/3RFLg1tl4xkgW
-P2UhmXdLyj5kx29rL48e6zHcqZakgreX5AwuUyEGNeFCLecWBuMPYew/SuG3rgmaULHhB5A5uyco
-h2VjRjhgWoV7EoTdmfjjQYSqNNP22vpAO9G2vExDKF74yJGtZQSfqWugrPyMXDo+7Fo53jbr53zF
-TEyz7cf1e6ztjUav2tQHzPAUEY47gEhHSqzMzh/8PSig1wec5I8Zmrs/w8h30PiHMZUoM6hjx0aI
-nXbTHjDsroEXZ5lF8h3vMgHMHdM8uqPlHF2ENwEXOo84KYCHb7EcbgFqO+P2qfEx5zWiHQvm7nHX
-wq8s0EPlMLdVjE7672SMWRHEDI3NPNc1JrkdPh3eNbJr4jfO1kL276Fad3UknzhOS2D9UUylWi5R
-wvch+87QkzucA2AhDciKQxaAwUbqn989tt4FnyqrItl8xuOyC8ZvHu5o0H0qMOn1Sp7p/KAPgpJN
-vNg47CGMMfTjRUmMYza/NFdFh95ToCZbEEDxUI0C+x4cGhV/4ewI1I6pKaHuCwjCUxLh7idUlTZq
-6rfOAi+tPdh6Eq8iKmI8zsctRd+NUeiYvgqVsHvPBvusW7iF3Wan49CTbA/Yw8cZDnjRB83qcK8d
-nmiMnQeAI4bZq5DeG5lb+AxIJhuanmVahw++AB915aDxOzec6kDP+xFjvJVpdfiuG3C13jKg7gsf
-ZmPWh7JaeHcLhfa+ogRLOerWEa6uYv8GALdHKlGvRUjNh/PGaYV45UvVi7R7XRTmjoNJ/ggQwk+Y
-SkvX05IIDMD4w7OELAAxOYHx0qoMPEyluejTZvUhac1d9AScMAg6WKxfOBWg6nAAQpkoFFPju5cB
-KCc2rXfE6GZv1tAAQQa81aJd0A0BpYSBDnjW9Qmv4bKlrNU3pvWfkeS9+1N49Dn/N0cSrQaI07HH
-yRoKHb2LX8c0PWU1/N5uiW4Z8C8ElcGNNlgoQ5axqkMs1tWfqPZNKY2DV4yJ9cfkboSMMKnnJbcU
-C2Xmhw7pRuibOSfB+LKC40Ry2j7383jYsuCJqfBmo+Qn8aPXYCYnEYyXTfVATGcMvQ2zxF3cyIFJ
-8axMnEAfsvtCxakNxs8QuyzK7oadPOTRocP4M3xTAKchv9sleG4pL1MCt9oEQTEvCCMd4htPXusa
-SHKTuN+R/Nd7jhQUIr9AtwqwBNZvIJchR0f6b+TwteoZxZ3h0BEQg2Wa4RfrApGqpgjjDfwpDNxL
-Oo4IY7Z6Hyzyp8twwEXHur+u5r8DaiCz4+bUYyJ5j5t/wIkYoFn5ctDE2weh3SUbO2Ux4iAMayDm
-/p/snUeS9EiSpa/SF0ALAANgwNYdzt0jPDjZQILCwDm905xiLjYfsqorO0u6R6SW0zKLXKT8QT3g
-Zqr63vs0PMWB90yBeIOJkBh9HV1H3aPunG4s3V1NgT2uoiw7x4JrtRDE/to6ZFawHMdG5juB8oNh
-IorYMCkpFu91EiSv5cyFpfqjYY2L0BiQk/J8vSjTXWnTugTt+1Rmt3HQUAO46kFXjkYEyUWvDO47
-MWO/M99zazpYbXfb5jF+cIZSqvw1LYKBoek9RsAKhoaMkiY3tW7qvtVVOzd3xV5O+bRts1Fs5hgU
-Ch5bru3UuhmpGNtMENhvDk6cYc5twg9DZe5Kd7R3o5vw4jbGb2xM3jqP3SOSOPZVt8PLaNwG3nhj
-6iFG0cDHDftqas1t3mOmltO99D4hkUSpfoOMWK5lm2xsR0Q0Mp6f4tht6YESvd+ncfRjI5MaBbZT
-rr4FDWP2lBzGJUW9thpGLZl5iBmyjUZ6P3UPrjxMkbl38+xuzB7MRPPb1lnMAXaIfGbDQphI/UBa
-OYTeeKommWzUYGK+VzZ6TB6d5NyQBDKC2xivG/of06t5LpCX6HCZLFPk6m0zbstK7mLpEfNNnJPS
-ShzTTYlJJ3O+ifme8YQ82DBktBmbatH1YqUztWsbgVATT1s1Mj/vuc7WRti+puV0TKX1HdbtMVfW
-PTq7P1TOhVnHkbZ1WokJvZM+E1xFXZCWyuROVJMv82I3lfYO16iLRlQbftx25i43TAbtWl/yyKFM
-Uo6lIED6c+fq31bcrVxLPFVl9hnI7ES66adLq29NC0ghB6Hv4DFYm1391boxATaLmVRX37s2VXfv
-HCLQEY4Znr0YjzGwnLGLUfp+da3tN5b8wWD8VI8JxAKl4VkezRujME+jXt6qYdbXWd1jb/AyUpSc
-o91cnArFKLIYscuWMZleSkK9YsMX6dahCcSODvI0Dsbz1Fe/OQLvymSQxxhce9R5axsMong7//bz
-3BHN5pQMTRK9rvPBGJnccWR1m0hVV65hSCXT1XXVmtpit1g2ZGpsEfsH38rUxK8Ih8PlL2pP5jnO
-s1tGd3KtEjLH3lCetQw/k0q0Yq2M6Tfq0LNqKlZ8sZ2f6ii2aVP6oRae66aUhLqo+xsT87NHfc15
-rx3cqtdXDo6ZxTx9jMKsWPcgGXYYVYxt6Xi3hu3p5yBReFO9LHtqnHRdmNrn3LY4pNRjp8mdscQc
-ZR+rjUhcYqRq4pUrEcoIYBc8isYpR3tY11VIIKsuGXnzNuVm0HYlXp9dDc5lHZjRrx17D5PVMZ+O
-TUZ32Q4Wy3vrdGSEzzlUJE5rXmMVR77s6/e8Hs8WrYLaEjLD3l1i1XDsZ68lhad0m0FH02+mXltC
-j+pDq+Mne4Qyk4+e6Sdman8KTf91chJjyvgYBlqtrCzfzCg+RxNJ3NEMF2Hqs23MtwJPpI2YGrc2
-8QgPjBSUIKd/nT2cE0NK6STM7Bzgfq7i6GBBxOEvddI8vGlLWjxOLb/UeZBMZIkUG0QaUPCr2665
-eHiVeVECsjet4xxiszyGc72vqv7eTdPyoJe8q2wjeLRbB79EhzlmMrA3ktJzxPhqx/BV9NGUPqLu
-wx/IES87GWN/00bysTJ5CYW5lareWgzFVlBktB15bl8LxVtQ3NUa5jfgJltNkB+sOiStTN1XjKeZ
-yq0s5d0ZOBzbcHwJnfS9mhXx7CF+aLTkq8eBGMgfQcXQoPsOtkACsY9mu9OGXZkcSFhiYECITdLL
-8o6Ii22q5nUYP3Vmt/W6+4iRwLBJLH+qaW11dA5SwzNDETHhPZwYG7VZZB5zu9OP7pCcFeEdzdU3
-T8pbG7f2IrpnOVNn+COOeowqFdzXOr9oaTX60Zza6EcmOMQzWD8/iUyTTar6/GHGD/krlMvlYrbE
-TbiEsiFSN1FmD5NPjg0+mTe1LwmOrRvctdkud/UJk0EXnyatdQ/TXImtq/LmPFH9nDM7UZ9Brmpu
-c1pXEdQODRMknCzQ671Glm01IJO+Dk74EXjYW+z4Q1bISWZbNMgtLVqPJs0N/sDyDLahvqSxSm6k
-yPSD0fSQR3gZ9YBB6EZo+bMsExu93AToZCzwha5LvuuwXnPcblRIItuw/LFzfJUbt0WjXia3x9Tm
-PDcRXlMgZNXSOl1lbpq+lnO0CfT2xyp2tLvOY/YpPgpqinUZyVXS6Ze4TK4V6a+wC/YaM4g9oyRt
-h8icbSprFqTG2msVyXsMbdH9AFcGlzI+KjMfjzUGan9MiYLJtLspHOM1itpTYX7FHVCjnr4DcaZF
-gG6R6ONkl0wh9KtgFejRq6tfhsBb9cPZcMKtRHYJnWshezBM9ELUdNL40QbkRaXtY4gWxKPfRfw5
-ex5j5Gfet2tGwh7+ofmdannadhoDv7DRMI00uGrcaf4QMji1Oq2u7RQETNDcKRTlMSH2xrDkJoQV
-ZJvouAQcCEhFL7VHMI6epeJUIfgaNxtrpGKKcxxa4KNc+gQOPjPyLfNQZNm1kla/daOOCJYevCb4
-HbeioKbWMD8OJO9HgAeKlEEZnYpououXedLAI7FRIq2PEwF7hD0SXXX/kHbeOehdbxW2Xu7PbjQe
-zDkOyRvUb3UmPzg7MADXyWega+4z40G1FbNH0V+qZO0N+rbPFzEAR1tSAuPp2d7qQ+/bGMlSsNSR
-s64IYK3T0ZGrNB3Wta0uIXnlfjRe5rY+NS123dzeRVOIcTn2vj2TQ5IZi/YmjdFYT8oOL7FTMZ/X
-5pNWDLs+nXaJBopIi0j1RDFQC6cxB3I6Y7CSXvCtwOt0LdZXzesvVafOsv2JGh23jkV9ZNnTvO7G
-9IP7ljfPgCWuGF/zudgAK0TQ5j5HL0+AVxRAFiqqssz4kvFXXTaY0U3vMkiK/47/sTGRrmwq7LSs
-23WpA/YI0jTmKBncTSRKdYO9bsXp7CFHSMajXbEJvfBxauEQsG5c/mR1mfs6Qzc/JPCDB+BC1OUZ
-mVutO4sQ88qws2mTpE3GT4FW+z8mVvEXBuuS+M3bqJ3+HgO2dbb8krb97+MVf1mg/U+f9feQBSu4
-dVA7nifJ+krglf8IWVgsZ7MsTNamvqSHCVL8ieAxpLRMj5VfJrBaEht/Rodh9ZBAFhZLw6QJUudf
-IPCwD/efExbkmckmL8shHMMTgp/hP0eHzVrhdm8IpI29sVosQXr6raDTVV7znGhAGNzqlyFruOrq
-szS9baph9GwezOLZcDWGs+KujbSTUw/7RsizqjLmPMiW0DmAeS16NmlDO01OcYnio5CBhvypqqN7
-UVYHpKeXOC/XeGQCEAONH9h3DSUxKbzqXBn6dYriQ6ugMhQ4AqLkOW+Mz964b6pmhQy9wdLqZ0VI
-Dr9fN8R8jXuMR+nRa1rIIfHTOIa+wsQ4J9FLZKY+MeCbwfqIBjLIaG9Dym0KDG1+6HX9zRqLTdpx
-RhbDQHhMO/SB85mSd+0QY6RpfOuigtc4NWs7lpuAcHNbjo8olpe2TpgSPozVu+a8u/JEuI4aOrmj
-4160pINlY+iuNcpPhYlBxssUYl7Z+vwyBPFzlebk+BTcoEdBJiSEbAcKddW3x9YlnklsAyVTXmd0
-29I2vsdsuUQq79a1DzkJ30X48eJvUcpNnmWMq8gQpNih9Lew+Cqcdp80/EqjX5CgLijccjFRbPjW
-iLqQA0MQA2OkoQBEF/qTqVH2NdZrtCgQLg4H8h7wXQZEy90sP4ilbad5Ow5lC9+tDNZlbH57uKJU
-e2M3L2rCsrNksrF5M1cX54QzTgFs4YhtnHe6kHUocP4a6t3FcdnannvCIMQAWk+PZuV9ItN+FIX9
-Lr2U874b5FpL0xsjZGYbZZyS1ZfuTJscDkKlwRYpjm0GyUXOeC9fizQkYgckVGBEZnHONnSxS2h2
-g6rcrmAKlWscGM+9O+Ur3X1RoAnFrK07pKVV0YabaREohDG9hupWWl28Medpk1bZurN7vpZQ60Dj
-PZLVsDtotDJQbO63Fmn7JXWtJ/Q4w6S4FW2xHfNXHoujAjPCQXPp+anSqtiNdkzbS6Sxyd4S/Mrx
-zHgkpiIb0O1I5fmNOd9NwOPqKl1bWXEw4x51x/JTHD+1gPem45fXMNH5FW+JRI+YVy857RQZMw6G
-S0Ym1q3d1fgNdYXAYuoPlGPW+NZNlEfeF24A/MvqWMs7t7xiP6ZS2YA5XMtRu22W4YAxXGd9unUj
-44Vr2zaiU9NzT8iLlqWPMndug+kxob9ypC/KcRW72TrBK+SS5F7pebltFbFAt19jhQ9xgq6mCu9f
-fVAJIdIyZ/qvDtgBkZG3RdCfQ0LpU2+/zcb8JiWOZXNXG84m9eY3Jw2f7S58dsNPo8kwJSiclMWm
-Lvd1DNkxT6ZbzTLuxlGiyTR25HfuXUYYNvrDUFCFZ2K8+zGDUoCWybjjUoz9sJLQawNjwmwfcdKY
-+qo1+xunO2Jc+7AcPNGpuQuiAhup9Tym+3qYtgYmY6v6Np2vaUCVSbrhnqmzPzGgcIP3ikluiFdo
-CuXazYNtEll3dbOXMJ6i8rYbSBstqE4ClrYnyAJYD9IKH5ekupGk10mPbxxVrpu0u5CiQloSMWpb
-qa9meuog+gjlJw7VVdIyTXbnZ4PpOJEC8hzWhdbgJrLku8qdp774dnLDN+qOlj9I9kvy3JHVpzen
-LxhZCV6lfB2BGg04ZPDLzNoEvKFTOpEO+khph+/NIB+0pkYsE+veDQj1nI3m6sIybqKtU74Z0XPW
-0xN76buKd73o0Rj0TRFmHEUhZzCx73QuiDLkTXMeKus4qMGvLd80rkg/H1mS/fACn2zQktF8M0QA
-UMmYWulrHKZrt6Gojd5jLMBZbf1qOQOg+cOOSBD3/U2BkL2Sdn0X1ZA127OQeBmceMdDurNaEeKc
-Utc6ezHl0VNyFfFYJNahdSdSPrkinZ7fRIa9tXtvq9fnom62pVc9hAmcRGWDaOhgzob9vqs3VkMZ
-12wTPiRiyNSF8sXR+S3LBgRpdbItfo547znu2rC0e6zjsJSIZ5CPvk+jal/mH47T7UM9hfJ5Xyjj
-ZazVJQZwUIbTqp3Na5+X58GqXq1iQhsiUJ7VR/ACPJfvuECPIenfNJg2ob6N8ZaXVci58cxgtPYi
-CBM/oXjS8xwK73RXwWfTIzyr5jIBEZPczhiw1kb77Ezh0ZgTWlRzFxfaTlbZgCiV72osmnGfHWqG
-Ia63VUyJIFPvZZ8Q+Y4xoE8boYdcItPjLNyVVQsiAdPRbq1TIMXGvjr2nSVRWjYqhmFVb2KOu1ZA
-BKE1Zx7HvGeXzV8I1Ldu0BxI+pyKTPn1AHlI1T5X2GSZYCZ4F7lFu05SmwPPvo4E/Jo5/AxcMoSf
-lnsnF4GT+9yuy21JLxENNzmRPYv7xymPaswIKwW+HC1IcBpwMRSb5LO3BVl3pH8ap2xK7phu3oxD
-/jsVuNizxMchvqqHOzd+w0CyihNYbrqNY8vc6GH46tEIaZKyeehs2iiXWZrlJ+KqRY4/mOUNXRmT
-0Sa75ka8zjARDi3G23KNuehcDd6VcsmnmHs2ArWdag0HZQZtzHyvcRwZQDkVOlCBka7ofm2+fUhQ
-oSSc76Jz2G3/jHq3mUOxQQAD4LoZQ0YspBdc8+tfr8H/ZzMzbSrr/75SP0efP/UPL9pfKvwFab98
-3t9rdZYIGFTVHstcbVA/9p+gH5j0RJHZJeMYgnjzElX+j2KdQDSKrUcZ/7dINAygv1fr7BGyyciy
-ZFuCnnNgZ/4r1Toh63+q1g22PFOnu6gvbOXmy/61Wm/BFzOcRheey4YQl9HvppT3iYY8VXubqsRz
-WDbOiywZJVs6Bg5vvgexHeIcLC4qRHOSJJwQ2f0w5O4S0W0Giszu4ns5tvusf89Fcm7TfG9IZgZz
-FDwblnMXttnDLFq/D75zbM9LCMYDgltZwT4AfJZEw9YjHoOGvbxfQGLNezs0t1le1X6VNasaNRuy
-CuYL0I+MoPLxhiQysABY7rGCrEes0nOINTKvL4vuEuv6sQ7imxQYxpSFr6V6clRzZfyEsT7G6ulS
-gabeeMHAjE82+sK8KcnwBMObZuR7EXFr0r/AGulIqpnOQa+7L09g95kI0WV0wZz7OKar4MHJM2SA
-xttKXIMd7F891s8E0nYExKCkL5QzLccZySgG7i5NOmPbtCGsByJwV0+YFWbGTKKqDjFi8DZT9WuJ
-c5eXFiYoQJFgVRfirqkZbWj5QAMO3NoggWUmF2Yva4qcapVM8XEY+hc9138GJz5U+XAXpqO31gyA
-P/hP10FtvECBJ9YSMfyxp4UdLMQpG1NQ+sCD8QUVJ3o8SJ1xufdGnFpVxOVW4OMRubsvg/FHzPFl
-7NW3bSOcMbnBA08C0R5gFSVh+LNQ6KvGu3OG3tiyKgC0IErsujfjZ+KZzbqOBkrwHg3ftIaL2075
-b572x6SjTekN42Bl8JhSSdJPdglVmeaJVa+LV61AjSGCuglF05JgDRVAF5JCruNc8D35Ii0fJMnO
-fMjsNxDH2d/se4OMd6aYLuBIdslYTBhMibwJ82UM20Nk8eKWaQpe2TJesnwq1o1dbBw37XejVxAD
-5cmPNX6egeiBNIwtTjprjZ39NR7rW8WECGRld/MP35/VNd9OT2TNHB9pBiNyPMZz62JQy7BCU6Wb
-IzWHhb7UkBBoEtxrcam4LQ3LXQeV3BghIapa798Gy3n/wxWYYo1kiLi2dDnSRATXJrDU3eIK5Iq4
-+y8cgWLAbq3V3BqyoySgFEx058owf5GpWOg5tuuqz7aLH7DTa8x/+cmbv9l2/cgz/+jq2TYrpxBh
-dji16VDxPdk9QWuzwom8ixpMIxH5AeW2OrPF7PCHedCR6Zb8w3goK+PBnKhgSarGBQLH6ECyJqyR
-vWuddt8R9cr1AZUg/ZuFsE3bpy4C/jpX7gspo+0fdkJRls9N0+SgQH7+cBUqneAOt6l5xp9za2dS
-HVxcmyujdcmeU6Su0jECN2SEmB5s8lkwWYQMr2FdkdoGMLQij48dSXsM2RpBD+qCWozpqxlbwe4a
-xsfGdV4Kke2SNCX5VR//MCNOefyK/eQpMonRhuWwX8yIaebF22qxl//DkZhrVEGOcO3N3xyJlH7D
-OhaaurcT3uymtJ2VaTjUD//wJMpcjX4+oQZYxkfWjCv3s4NtyTj506zo5D3Ki1acQSFSfhZvRvyt
-JS38pu/MGj5tUpFTMpHNwLMy8HS1Y/c4R83NX5yMjdFfFYGS9R9uRsZy5LjrjT59YDn0Q7u+ETm1
-CuXyDUaftRjxFEVwGDE3t89g/U8lXCZGHd0q7buvGulyy+h95yj7RrrdpgoNot5XBr4Y9BJt1+DT
-2ppl0NEGM8NZnvTIjBGDnYPK5gRHmEYWbHrrG425cY/frWncpzgTD7Kgwx4HFiYwE3osSTihWpoH
-0ujXrsmeGzWuy9I4Og7gAjHeeS7fDG8KIRKCMxaFdPRQJ9VZd+ZbqWtbUuRPbEIQ237GIZqrlyyR
-BzU6Jc8tfww35NkqvVMhzHNdBJizXIKgUPHJM13qnHx9RMMxehzyKh4OSZs8t4b6mAf3NoVwb6Nm
-EIB7H+2GOanGdoKIdnfHMgpnHY0tLYzum27Cpef0+suglzehgyOohGUKm1VsuVk/CXNS3+Yvak4u
-NmazY0mU1BfjU9pyeTlKmYhN2tbJ5vvU07dAQX4NqT0PobfpB0b5VnfrQEOeDfHSiAHLd3oK4/pq
-GAI3MVJ8WF2EyUFEPYzfCcWzLTAEtL7SQeJ66jRMUH0q8VXFdgUYor5Tmn4T1eljvuxXCG0O4KQR
-W4tfbpDJTrCKIWw7lqoMx/6PHQ1N8dKO5iFjeYM0aqZqvDY9Wx0G1jsMVrkzGvleaFBUWf8AFgj+
-AfsgSJSth47ggyZR6sfpks+eX7NCAq/AnmtmjwHjNp7i7VCNt+VMlkNLrpIVFKEWXSUrKTyXzCIr
-KrAbHMDDrwhJQ3LZVWwJGIfHztigbqFMsAAlhPbbuKcQ36MxDC89yzBGlmL06ihcAcrZ3hbdsjOD
-8eS8RKsC1mm4rNUoeggbrNlwSchSB13IJd7WCKQZ9XzJWg7bxVidjjUpHFZ26AaFN3bge5NlHhNL
-Pbplu4cdOC//v97+czK+1M0WuKD/vt5+/56jj/rfctbePXzMH8Ofi+/+M2OTL/H30huSpgGP3mWY
-yj5bS/6Jqrf/XdJpe8y9Dd3AM/pn6b3sBBPsaPLor4Dceyb/9Oeg3LQMG7qmTo0KfdP6V0pv5w+G
-5l/3QS1fCW8t00OD/uCfBuXhkHYGbkBa15m5UOZCx4QWvTZMRXQACw8BlHGbyeaY6JXvMpWeZPlI
-KY1hr3VPecgOjMxl1wPq75MxMiYe57MIxAmIYrGJuBScED/HGMTjuhYOmI4WhgqYwquVwE4GTYTO
-BVDYnB40RYGQykvtGF9EGi+aBThZJelmzo3LgEwIrcNZ9V5/P+aM/lw5b0XN8HoKoLGhMT8RuR7p
-MctTbIfKj0v8lXGN6cRApdwXHD/rdnLPU02LEOU4oeqShRAzE21hb4hv+plGAhYHvJ92i5FJ0JTP
-C6Js1IZV22BTcG2Ko4pIi8bYspENoeca7CFygIUvfmVOH5oT7Bhlo/934YvSmktSR/uwr3aS+U8w
-41wJq3evZ/SSMVzUeo2T0N4wAmNG47CoCdNl4GZHUuYPmR1xjI3fk5Xvx7GAksMvXQM+qfXxVyR8
-sFOVJ/qqjQGj3sqrTTK1XwAugKnJAsLbvJWQZFbASRMAmtOL58XWjeFCfOPMeO4t+3fQox/WjJ7D
-VD4W3Aa5lb2BFbhyuwSrQQYEzSFBNWBSmW1twwg3dduN78ksjkUtBZ4c96J19RbbDxUTzvk02/RF
-NRGlGb51MoA69S6z1OaoyYaPktTvIE3mFFL36B4apvO49btzMLMOaCi/czt+BSt4gjrPvhcSZz0y
-hNIPrHPA0Db7dhie3fPiuqqQIpvBH42hwdgrvvSifYbsfGylWPoT+aaNS4pogmY8YMxejWIRJpPA
-O0Zp9wGHzVqFMWpA5C1g6iS+DxxxkrUb7WqI0Xo/v+Z6fg8tflsrInkpVvsZQLw3k4oIckLM5ex+
-cfKS9GQO41TBh+KZlzUrdCIvu6Vsz/x6Gp7c0I231OMgTroLsRS6j3xcFZKcnUupvhIKPCTIV2zr
-2CG0ZoX6vxkUcd6ILARwTPznrCFp4qeIR2RJ04eoG5IPShPBbB5zfIovrcSdkcuZNVOsP8jUa2Mt
-1AfM3V2M0cs5xXSS+lztspTAoGnWuLU9n0GSATdeI1Zph3Z2yOAwon/Pe0Ao95gDdeKxQbi1DeOD
-VRTGJTcUJj5eBTNJjwWW0a1p1QN4j5oOaqh8thMddNeGPWtS6eC43Q4GSY7RbV9mBVyjy4f20maN
-g5Eq6delmVN5BSZ+/GTcJYr3g1lBQsrs+rEf2jcZGfqKhoJEehVeXa16zgIPd9gSNknns9JbAILz
-qzKJ8LXPpeH+loVF++zkGH7GkzU2lBp9t7JD7SxIyCSlfmwMcconpD7m9m+YjnZ6kP/kLPxKsDpN
-av5gCl4tNdmWZXwtIabmM+ZQSENicAr38Uof+nIf1QwLJoUVzaweI6G8LR3CLi2K394RzFsJBvbF
-BTLTLim8p7jvH1XDkw7W5ORpkA1kMmGFzy/jjOEuLWBvaYDVV1MSPxrgXemNWDBlsVMsHd2veshB
-LYA6GabF7tSUt3YTtnACgsmvMMmNHamZtknCTeLyTYWTETnrR+DwseNPvH/PkAFuIyeIV1m2ML/C
-Fz2cPuiqrY2Iv7Moeqk8POjRvKU4WUXoV5vQYnKYxZBiUsxmk7pmoMT03sn3Q6Txi5QzJONu9ru+
-XkI8x7FVRzfkmY4GLA0zgHY5wycrBAa1rD94gRIkSYy3IMD5FtR4hwVELlEl6apdcFkWoGLn2BA8
-sR3aOHewyWW1r6j9uKJ7oHTK2LbAJu0o36uBXnPWscqymGqFc/yl18ZDQIYkIUGzMur+xiQROuDd
-qwlNrNke9zHn2tEV3ZaT+qgx8iLd0wC4S4j7xeAD4JFkSUdIKfwk+DkdkrHaTlHw1hbxcrosNPpU
-3bsqvuDmIaUZe+hoafs1daNOlN3memyvsWadLaN4N9jYYYfdR6pwPOakpLVEkF92+x+RgoAJwc1h
-ogDWZwfkngd9M5Awj5zykmc4vmfL24CpYc5T2c+p4OKZaQOZgwBwyQREEelcFBzJdTkaT0nS7FRQ
-fUyJ/NYTqtdAv+uz/LyMoNKjc0ScK7PHwjSLmyhE0qvmu6Kc3oPgU1vGI23b7EJSoJ0x3To22MmM
-QOaaBN9ReO63swieo7uf0sXRV6ZXRQa10qYz162vE7dsSODXCmCwgihN1NueIPuNzQz0uPwSTvCq
-jUQxbEV/BfPkd/Q4o0TT3LFaDqjv9NVjlVp7JWUuWUw/F+YzveS0mfW420CsiVeQA9jVpw1PIHJY
-9GbCfUk+UvxN09wfInJA6zl6o3qvfBUZT8qO74cWharw9i0HlIYBuhurDPBWe26p71PDe86V+G7V
-sNdYVRKTIMMjienPZirEqq59ZIJzc5K7Jq+epdleFOe7Hs+Xuo3fREXtUZCZcvGD9RZTmZ4wnMpQ
-YJJ9DUEb6MS0dYGTaprRbSu5WOWpeRSmgUmyryJMv70gfgzM8KaFxcWf1AlZg4g6Netim2haz6PU
-P8QLm68tGUwEYqTnwuIaNM6mqRg39Yn4tkOOpXpmVwSrQPpIbKjfwLUQH7DR+3yvbX9Q9jNydNk6
-hAvstOG51b/6Vm83ocb8H6KpYRdbLc0fcsZ/yA4pUQRBWm3wexMrqhivUyC3zaS9y3y6NMYLpJlP
-pdN4x+rCwB/LFH0JceOUgeOIKWtyiA+kVolIbpXgCMEhsXXuPhygwRXleGYbxmdewzPyYu/djPUv
-5DQ/CiLsvyNYuqXGGAvqGsiGZdm+JzKe11lTP7oa8nif6b+B9htprzrfQIb9kQt23U3OayPHt9Yy
-n5Is5phpsd6F9yKud1lO4TdlpcVEUb+xxhSfUdUgMtmPDTH51hWPHo6AHH48kdYNWbFbYfDXdWzm
-w050mGuemkL+kn1G6UwUJQFclq5ZT2zIsLruB42VnFpwjduiX/3rzdX/q5sJxP91tVdZDNFH+2/H
-n+Yn/9//K/kv5Irl8//eM8l/twRLanW2Z0nTdGz+Zfj5Y4Wuw3ovdgtgHZIs1zKXRbn/IVfo/445
-mnQBZiAqdm+x/PwpVxhIGbrkHzCFuZ7xr/RMtr3IEX/pmcjo6/RKpnB0YTh4lf5qLuJyENSRE3di
-I1cMAoqbsGGa0ZV4udmmcIcPcoNEi+k4PAc5Fjr3xXEmP4AigYOWCI5bGJsqaQAYMDxI0/omZP9o
-kh0awTopZkMO3lODbFbnuphw6p1aqKVz6e6mxi9CbgU17Wj/sSfMfmG323Hs9oZlPTFbZhEqax61
-iCsKXtryZoHDDAtIonrW3uM8089ZQbS3jXqTx/miIjosCcvsM1nLk4ZvCd7SDcRO2zeIzLN4J6xa
-iw0LLda65o37dGCFGH5MO4en7ODKD+RnMZ9Dtgnotc1ugwgf514fseuAT9OjeGXH9YYzxFBgKbVL
-5ujbrsoO7EtaUzGvM4vcjT1tQzkeLNUyB5KY4WNM0fa+SGt/QOIFi3YMrWkX6epmKrNdU7ZA2M5Z
-oK5VGm1bW+4t0ttR0H0Elg5xXbjPZHQQkl/JXDN2SlgxG9z+wathx1m3KjH9VDMtqscvt4n5G6y4
-Pe6FskB6x35Uhg9BnO708SdtvgzvKhzEIMJRkSB/z0/Cnz4DLFCyYurXDYfz1EH7cXYj6xqcOMWb
-de8ZFPop82Ayap17BVmWYiLC5hJGcFGYTqYqXE9wJeSMTINZmv/Oul1cHKoeEHA7faLPbnwdU2SF
-xwFWz4l5NiNAKFa18TPAyfSnVuBbI1TYSJMnTUPsHYWDFZ4ZUzbmm56caGF4v8tYfy10cXBSsRZp
-/uo69NUKC8fo4S3VaULnJtgnrn4vrfbOHIW2gnEF4oUSZBi6kxNF1AfWrdV3J6uT2bJS685z7K88
-dagXbcZn+mcffII8JisTBlQTlX4lwc2C5mAXIyZZEI7qLuGz/w9555Vku5Fl2anUBECDQzp+r9Yy
-9A8sJLTWmE2PpSfWCySNZGUxu4zfaWlJWubjixe8N67j+D57r03nGtUOQTELE7YgBlZul4dJ7z2l
-1AUDJryVHfH+QXr3kbVXyXheIH0CwcCBU1wc3eWmoHIdMvtw344w9E1xyXzt+Cs0CJ/8szDopMPr
-OrZUDemZpIHNr+aZyVUsvPT8f6y78BeksZxXPZ8oqBDLrHLZ6pX6vXIOuRFCpuc1Z7mzUDr9lvv2
-kwXxoM19VvvNRZQxdwFBSEr3c8ZTpdooMdEB8avrTd36rQlNWNUOWge1VQ+0aq4NzZ7v7a7gOyso
-bsI0NuARCX+YOEvqjtBvHQ+jMQW04ppkDF5u997WpHsV/bkHugFmiY/2yD0kP0ijojuXm5ga7VNM
-rh2Ue4FvYno6x/WwgGK8qzxukHm5C8z4kz5mWhi2WpUvaxPrUCiunQDMCoMA7URrmk3Hx1WzeCrS
-LJiD+IWfoKZPVhlcyq48VkF9HFLj1ct3TVovB7IzqqL9OF5+mIpdAWJQGGvgv9LpCxqPRAk3Mba9
-YjROZJZnNkVQgFEg1frFOkubi1GGdIxyUwm9qzF8y1pb5qO3dadCACqx0cDXHKGEM3H8k6bysQGS
-8OIYsMKzjFKkUn9rJtFloHBJz29JTHGHgdfY0Q5FUCwMMbz1yZN0MERZxQ2X92DzIqcCMFllIqgK
-JBGDn/N66O+BWSyr/q2kwoskSN9ZG98IttjcUYUxhXvuSdFykh35joiQwPmXbAJjxL9XrgjybDJy
-FbGDnECWnnq2i6J8DQwzfTiecgxZBQb5uM4uKi8D0WQYX9WBxCl3fXU5aMXK4XaXGeprH+PM1vkb
-ujgmZ9rMJr8Fcfeyq+cDCT1FT14CHYCD15/gqPFjaL5l2Xjjyvkeoj94ScMJyQ0COmXHUppF5LJ0
-Tj3uqqyVp4o4fmlfaBRNo0voP2s+JarNmzOiIAzKXFjxgR5t4Y6Mw/5C11cmlb5OVh6g2bIUxADi
-o77Hn6L4jpVNOlCFBsVyLpV3z3jEO0LR3TT9rnz24sTO5oK8oOxTADQVPFAwt0Ow78NhXfavjqjn
-RoUlk0KoAIAPaP3VCAlLt/1N2r65VsYZAcDFtzcTrYh3EZ3wEsJojoia+ja5UQm2CYt6nX4SXvFw
-KaqkUg0KWbDWLAcOew3i72jGBwJUB1SkhV8WK9HQKyDanU2swrTTo4mPxenhDIuaqJdY2C5/qPGT
-Ww3dPNHWsb196+oDbih70eTFzis/4oHFOYwNThqKdxnJh4btbznYOw1iNTf9WTZa7xbFClaZ3BrT
-AVZMaZ1tm0uw7gvq1B71TKF/I1+p9U9RPUe6yiqffHagfRZpeh0bloeq3RGIbS7sc18HxmQeVv0e
-Q/e7VvPscUJBYt09+QpNxz4VEK12bqCU28qv8J1j0acbpwrx3ils/rP7f86AOqno/17Xv/w2oGIJ
-Ld+7d8oZ3v++Pmv6Kr+PqRJp3zKlY0N91uVfpX35i2qYJg9Ugc9dB5D3x5iKtO8IZlBVEzjQqSb4
-b/VZlmPSqsVqlr2A/c888Owt/seYajDr6qj7mOANVcVt/1cPvDQsTxlMdnimvU4a/1bHbTDT6+Gl
-Dq1kNujE0GBp2E3erbk7YWDA/T2xAvy2Pgn4fVXcgbDzzib9nRThUQDFM6xygp3L5MnJAYfoRRLQ
-dfNPGyOyG8THOhveU70m+kglq9OsgU8yD/1mzym5QuGcFJgAU65yRN3eHc86AObCBkPtoylvTW9+
-UqXBzD2v2+9EsV/bjIFU1PoNEZB1W33RjZtF9j9UmxMEAQguXOQFElL2kYKuMG0e6c6zleOJ0ek4
-sPC0c0Ro1qs/mgvquHjAdC6P5udRb5e0huETLZeZtunId3blcG286qio3VMeNNtQURBrbP1qStrk
-CeFNmN0G5Yl6kRbv3FhswJYve72eW1UHDKIluHKLqvg2EsqN1GMQvzQwGsOPQV/k+bWLX8BxoIRR
-C+895FiO+KRz/D1G2qOGTGI2JPaKPYK3mi8j0ubETGFipzuDF5Jiw+y1aO7UAWjMfbSU5Q/UKAGE
-N9stg0zv/jQ6caI1QbPYXRLRldEKRDhd6Km1qexb2Zwd9Ht95UIqhMa+EXm41LVgJ7qr4cXHDp/o
-kNxLuvmqG82LUfITgrGPd6P/Jso12JqSylOyp5XBrZ80oPFp5Ac0tlnRB5QzPIng4GSbMb31FTaM
-OQTNuH9Roy+V+wxeQYTxU4TUnJ4ddEZAWWZ2DZuXRK5QcJSB+toCge+iyw3ijOd9BTyTY3dfJXuv
-c85hXO9L8RCDgnUdm6XSlgUHNp5kQWWs4z/qvfHA4E2HUMyp+CU92lVMJH+fLQhcVAUqVf5YsLWy
-kp0toy+w3/O6SL7N+sXv9vDgRrOZK+omcW6pfmj1dyM/GkQuAx4WUyq2Ss42GVYqvqzhTkbwEPLi
-VOaiE7QFI7v4VJrl7MLfOtiFdaquTfJoNRYK0DRIDUujkJ+W3x3qyXvhr2peovoMyHg1VjAnuKMp
-J2+ilMEdNPyVXT3jiZuX+XM81Cd4uEsJBhmFBh+00e26lFdz8C40RqB6Gvjx10FGGW+ZrDL4+GUV
-4XEDeGvspUf1m6vwPyn9SMa5U/YkYj5SdE8UGUxc9ArwqGzceulK60PWR32sTw7jKZtHfM98fByi
-GCIhFc9DzET9TyED9rYyr/RoBTEeBFxAJA2ff9VuQp/9mslaXwe/DYTQFACsaTHrdPehg4OZmnsP
-VoNAcaQRKZnFGq+gy7j55EgxL9X6xfbwmLLWaIdqXfhi2dj7AatSpmz9Eo8bCE2Q8Lm26UNJ3u6z
-bS9gpiNvq7tHhcxD6KzBvQfKsi/tLWSJjQaI2LTwtWVikWIzZ9nTYm164KG+KifEJWUiTE2+7+wc
-raEEDECSEfGDSBAAA+CV+fhWNJAlHpPAhagSHn1V4Skc2jC/4l3EEA4jZBso3bIbhL50IYJEw0CD
-FmHCAVMybmz+PCaDCKzngCrn2xBPDIRLAfL+bmAqBAAw0zoaprB/NNlGT4ufoNbxy0N0mlVdc4Ll
-3qNT63cv6zcaVbR+ITkZ85XCaMX06S3r5rFtsb0hEzuRsQE5uwrZbAxrt18xTLtd9lbDVoBaOjxb
-omUm8ydKH2ZGjx0rfu6AEycvv+LRe089KhG7HaSWOUBe4GX3VnvNDbEyx/Y+ufWi9tprdIw7wcnA
-boNIl0fE0FP9JC2c3cMDYfTJDoL3JiHy2y0sIrEqdd+9sUk49QYBdiCsXlP3vcQHIrob94i00+Aw
-2HIBHzTUkOzc6hVf3iIhKKo12ypHrcO6iGYwJRVKqeECaxaVR3cKqalQUee9PmwDYqNtcqrkmXIJ
-KZ4sp3ns0MNR03Owi3GXvpSt2BYjO+A4enZoGpBmCYHnZlfejovxXIJWFXASWIMI/J0g0cPuu0iH
-RQr52LGTRaO4wwzU6C0bQCP4rEO42FsNnSGe9uTbBwfsorSvJSBuBYp8fS7wdCUEK333y4tWbg6/
-TwK0hw+tWRCM8dxNGxwSWL32oKND6NWTyTLMqRcl17BMKR5D/RqN9Z48MyvoKcPcXcCQ72RE3CHj
-/qDhnQpmKhXyZvs4DtYip50G0p3l4rf3OIPMctGUL5iDdzUbGE/f9MJ6yAzjIea4kJgfu1gHK+tQ
-Jxm+U2T1KMx0LR0M6d4dCOKm1tJHsxluZENpFxhWpJ1pMUnQTMryYPTGMlFQkBMKr6hx5lGknmHJ
-o7zbnJ9n1zgW8SZIlBUgfKqHQCXxuNcLsIP8i3eGBK70OEB1dptHvzbY6wyXxv6OnR8VzAEYQJWn
-Tc+drB/YW4XHztxq0apnUOa4KrlGUQTkrYocCBBbdLmwjDVZ+BKTPVDcWZwvGha9kb1r8Y5xsCnj
-MdToIQQbJwKK0N89lv08Ou2BPsE5dnq33lY8d6yvMTzl0I8c/xKxFPaiB9Y/8543DphH6nMpPrst
-Oz59g36xiUrMm2nEihsdoa5T/vXLtZUob6WH+K+uNU+7EhB8cHh8QiWYU2UK3jzcR77+A7qRhyC7
-3vbSJhOFsz+59kth8QK3df5CtxNtmgj5Gv0xXrqOQiQ2kIyQ65hr2HV6SbtXSuvUTeK+Ee766q3x
-WHiYs6hLFtTPRUSHm/pZduAAYepYmGxbdVgPplz2gmZAZxFxo3Gl/+R5ycpoW3wX7cIoMGAMoc7C
-BahBSz0vQOX+FpY78Jsk03cKXqd2DOcNGV/N3hv1t9Vta+XFqSlLuVhy2zb1aozuBvyqLkEyWBS0
-wFAHgKlg4p9jsvZdY+sOj2Z3U9v8iCVuAbdr5ucm4Ckgg9a4SOtzTFdhY5xahDWLLkWrrsGqD3xr
-r+yQZl3AUrE62+LaThe4W2HQf2itRfeG7NLIR3PEwnET6UkxLs2wt9Q1uAWcZ6ekvKvaZVCuyuSc
-nl5T5a7iy+op8L6E4AAi8B4kR3ZCWeqk4mlva+KMgEbwkjmLIEKzmqatwrnw10DfAueKWeqRwrYg
-CBIc0TFxJP9BG4LJ1//vL2C/dRefhuSjKf9uPzD97t8vXuYvhqqZNncbPG+WMLmS/b4fIJQMmMbk
-P1OImJDCHxcvMgu6weBBi5ZUyT8LfunP/YAqNXR+WFpS41fMf7QfMP4mfMyGgq/DzUslbsGS4q8X
-r7CXLtFz+PopFNtSNXi8W1hk4qR8pT/xIOiQZTYM1r7isiN2EYBQV4oWw2vhhpQVwMmx2LeVwGot
-s2ddTtRPVtWLT3ZV1taizotr0CTLyWKjNSA802Zt+vbVpSMLro22VEL7EsUZ17FuLxTvoUad6Ct/
-aRXlyNk/laTo/iIOhk0YanLnJfIZUAHFwWsHZgVoInBwIeytCg9Q1Kp3NQ2XqefdwpESLVXONez6
-9GzRP6vZx1E2B/ogqUIM8TvS/D7al6pON9z9vvXUeAT9z8NIgnDTtj6nvgfFUC+w3g/1psVhU+WT
-nJzWz1XqXyo2mETPzHfAWEwl7k6d+D5acC3TdqX3xMli51GfEBvGeJWjeNSBspZhxUqwyfZNDK0P
-PvLgDrekqa9VhCjr0YuiF2KvBsL66iCKr0MwVJSI5dohMtu9PnKeQ0H/EV20blUohNFAJCB6Dfr2
-PsQAHmIayUEQgctdGkB7HZxnVQUitsenmw20OaU2chCY9DhQzykY/qKur5aSrdnWHil6nyX0tugE
-JobCWultHsNnBa9GV6YNl6CIh8fpK2RR86x0EFtL3b2nBglHVF+rLu6VwZ+tUKdGhU7YQ7rlsnqm
-dPY+aCBEA3NVuv6xDZ2nlnBFE/PfHKqJ4zOI4yxaaozwBFsTih+sKbnsVZy8YlaW+b0THWAzzKNW
-Qrh7bJIHXrmdJBvsp/W2AXFXuRT4NfUJZv1bQPkRXXiw06ZLzFh9QFfPsBE/KV2+Mw3/QEyTLwdp
-00x9btT13bLNZ0WBzVlziUA8exhdAA5g21TRA8XICoONboZDmXuFBTcSVoVvbGKv3aZaAuIksT9H
-3VilKXFAGr55ups7MGEet7gURIiqIwsn68zWkJ6RDEr1y1P0dWf5eyWMN1nYWqvMQeDXFYzktu2s
-szHYlFPTnIUGGQK1yHmd8aPtqhD3PR4jqWs7zbe3wu7WVl9urLpE2oYe2dDz5ATMsh3AqKYQG7Zx
-Jy11UrRTZmKt6ZnreAyxTl7VdXvQRYrsAY806gWjyYg+GbZ09ILZcLrsNa6iR9SZet/VT03NdbNw
-38KuefC0fhNq1aYzseHJ4t1TuIo7CY6PtiTzlDGBlD2QI1flks8eUuIEUED7B5uuwSsQ2nXKJ4Ge
-2DplPlKEhKJd7GqfFyIznqIOWUEUE98Dm1zWbIOeB2jQBpIdCKiULnwLWgyCjVTuWhO+dSFkhCb6
-AbsGUZcfKghjazOBTWbhT58xAc5LHH4wPfCJK8wXqM1o6qQxkxfFpn42M1ZEQmc5AQs6N72ltMJ7
-ij+g5k7nYYujo3IJNuA4WORCWuLnce3cWhWaAD6vM1u8fhNUMd3YYQhNtTymMRdndlrGBHOr4+FJ
-lH24yQj2vOOULk6Fj4ZlOMo97OQp8Vokm47Tx1fXCG5ro6PYAVimn0D5EyGX1HDw8OQJ5eLnDI96
-RfEf3iYlna5QlFIK++z2/rUG/dc5HL4mb67OLiUX1nduNu/003LIF2o+h1Mml3lk0NxkxPVcDrmx
-MrLo7nOdnyt9GqzS2j14wgNLBdEeSRe00kAdUh+oFj0FAHNsa4WqRG009gK2YeuKGS5NLIRo0fKp
-Yr1qjOOSkeoATGaOWeVTurx51BHzEat467niZ5RhQikbiWYW0fdYpsvASuHXdg9JjU0VL9E2qKqV
-5vFpAariaOFWGSsBQY0zBjzMTGtD2soNxJn6KTPy166JGMkA6HtGcTMK2lUcYAMPVDVlMz99Ugzj
-fUxyzlDzp0oTQFgBxljviXD2wix+BvxwatS91rl8IOgFG7XelHlxICdaLQN2pVX5EuXDRWOfUxGA
-82qf0XAEx6oQy6N3xs9qckcOrC/kFJM7BU0IVz/Xow2a+jqUyPORjXITg7Ud+eGfJzm8BX2RenB8
-JBZ/TcEOm4sfII8VNTeiW0UW4R1PsDeNaFbxpmarUooHt4svBt2FCyWfMJBiY1rdNYVelfK4suL2
-VvSkeKLYpV7Z4gfWjWHL1PEb8btlE1FPr5SH2qjWVeLuCBi0y3ZMFzGtqmpGk0f57VXhVzx4UJrj
-ZSLQBpXwiQIUxlGqA4m6KVQ8SDM4VDq7xx7SKqWSy85lxdi67rORJ87SyuBNJpSvZ+3Vzvr3JiFh
-CwfDq41nT9XBSoQLt1BuEfWLcwNrNMlD5xmS9pdW5MdM75ahoCLCGeKFZ6B/GWO7aKuABw31jQ24
-XoxNb2DBWu4xOIPqSuela2yeQ9FKTaoHm1tfoQ0vwuyyrdQ8mkU4/xs8pmVGTNsSwWPv9mv6pbHK
-8CPzn7N5cKgZ/t8G331Tp//3//zXJivf/8YcM32FP4ZfU6c62DEFuV1Ss38GCoxfsMxo9BqrUlqa
-Pgn+f5pjVMg6FlMpywChOv+yddBNBl9++TffzD8h76j/muXVBEkGIQg1CE3nmcqY/dfh16La2OmH
-rgKuWUMPwGcvEWcCKspajYxfT30tqVEBXhu6MSpx9hgRo7R0KA4iXgJt4YPZ+yRk3vDd4SSH5uE5
-+SYZWPHpbM4WqciDWdHQehIMP0aaIqBY3CZHLafOMXmNY/eq5NnOaUBokU8ymcOdUdvUFdvQxFrW
-o2HN3ABZ3Cl3Etxm0eY3MRo/TRTcIPMssV6/tZTxVFWJv23quNSbTVFiH1Wze6K4J0CPWyAIS5v2
-wJwy0aXp96uAsE0/qHO1dvnYEswpDfJXbsbtmlp7jX/CqgVNnX22TlCkSxcue1IYm7H3XrugfFE9
-Pja4na9cHSqW/MVXr0c38jwzDQstUaApCXWPuI3TrPhhcEj5rgDsQdaQensMOas2C6FgIJsWy0au
-dAL/XY7s7oKqNfGXdkFPW3rP+0HtyVn3ykcfj66ZAPZOW0A6PzFLoSzkws2UMFer+jnw3XeTniCU
-JXcD6XEi9wNcz+p3+OSfWeou6DI9K76+MTMxB5t5kDG3Gd8rAJXpSE8+1sy2cNH9GEcLudEHUhKW
-YhHLwicq6BMzNOvBGusvLY6fWujbdRk2M/6lnbldGDilO1rLlAc/FK9Rj5XcqU+sV7CeNsvUdnbT
-Nx+bGQM6gjhZmbuZQc1vfvXWP9u+/KKl9TLE3mEU1k6R1TbQq33UDjyy0qONWZTDf9eAoVbiMt5i
-1H1pnfzDS+1D5GjHroYDWXK46cS8NUZnu3OXMvI2naUSkqFWI4tW2rR9BYShQpp16SedWVMGJnLW
-vQ2MJrIVMBPWtg2HFxj+s6pAwlR5jpQJ3dt9f1CF8yF77j/F2DSUXqgXHYA3wHaAh0K+j/l4Te3h
-rPHWZvy4ARZPDmMWb3BysK4x42xjtNzYIi8ZuD8UuMuK4iKDbpP4467HJ6p25U0azhYX8MHh/Dar
-KaPJ1N+x6OsCZgInLD7aGsdxZ508UjZtZ0PwN994rXZtgt95HPQDnrULnOF1ORLkaFtrbTMK55b2
-xBM7X8RotGrTPJrA7eYApfAvYUkOfeUYCnGxUfsY1d9Jty9Ck76CpPkWzJKhqpP3Ds17xt9znFga
-cjXN31j7y2xlBeUcTx1qlKAKI8eW3XT62VGwNoxK9uTJ5ASD8LuMifYM1vNYunBzQwhdY/nGXgTD
-W6osGi62IzEDEBavjZoesOW8Ycht01OcDM2SXgd1nntEMOjWeDbIUrq1KtYRlVIjB0GSVpsQv8g8
-StXFOKSbJBNHYN4MShFCePLjdDxAAXb75ScVYVcT5rXZkrBI/VUrdoZsdg3IEIe1RFRM2UkY0AX+
-PTRsq5bHJCdAWPYU5HVHJixwsCa8bMEIBxvmZAfOXcYN9Wg1WUwuDLm8RFB8Wgw7QeHsIBMudXA5
-wziGs1a4W4NSiTiiIpNIJYUqKzN3N3lGy7QwLp0wFxlEADilH0TAbnho2E7047VGwSO5zOfdAoGb
-GwQV7Wse6AtT0wy+U/ud1dmyHmhd8vJ6+oZWdVhX+O7jj0pEN82BHd30uFIwQ0RtfPcpMOlrtHDD
-eauj/KjXuX4aQ+uoUEzao5arhYU/sJ53tfVckFEKfUalMHrMmuS5H7tZS82twJ4bUFg081rjx5O0
-blWOtjZR+emfSQDOmPuhPHe+alKxTSZllGtyBrwMjbeoRHdWExUrVuXSG/NRa2NA5cuwrJmUZHXu
-0eQTKsbIogItyfVu7VE6zQdt3ff1B+Bq3s6aztBw6hjAnImpREHJdSxlKbtxNxTlBqEDoVvGt7rg
-Gg/fe4U9cV65Yj6mwdFO7BtprIWpDiulhfAt+60nRjz5Gi0wbvRRqhlryKw6m0p1b1V2IipmHyzv
-264bJnXkNlCqKky8Nzk/moEL8nnocG1JPkeyOsYqqdjoQ69UegjcH1gxD0FO8DejEootWgv5zeq5
-xcQZwmhTTLu8OH7peATNGks/BLpxtk3kF+6OY58vDX64e7c+JRh/kOwflboyePvsfc4+/FcbUULc
-aFSDlS99aq2wEDTdcxgDy0BqzpPg4mlYoqLfYBMFH9UYP3fUnG3/p3W9TR5aZ7sy2Kk6n3XY04yV
-6Gwk8n6lsKHuXfj6I5jOJuYJpw1vFsF8Ym7GvjDYa4nCfo54K2o4cWOl6NuwMnZDmj53ooQQpxAX
-CllxeSYVnoow8XkVGFHDYE7v8peCVhOr1lpKZcEU8MhFZ6sNP57izHOKUljiKBSs2vvAiw85JZRC
-696UUsJuCNK1hWGrNkxcuTJYRmpkL/CFw4eqHk1suHHJDg0oX4JfHlOUl/HRA05mjUvRJNsuQoRJ
-4ZSodY8tNIk2rHBfQ6c8k4oHWyRPcVmeVKvF2anR2gDDf2W5nMHc8n70rifVW7QLFak79AJIWaQB
-jUj5tJIEE6cj4avmwXen269BMmL+U5lTAC6dhqzb6rE9Z3W8cWx3XcXgnvAxiHTqHm5jjAtE0kKF
-aPtIMSfG5AeaXMi/9cjVnenyGJ8iGXSmITVh4yRA5kQDUULwpGmfLMkQEIUZUFu4/U29ZmUOiy18
-oB8Blc2P3vWw+0+yG/1//fCrcvj6jpQjVSTff6d2a3+64eUvEhiv4TBUO85kGfpD7Za/4GhnZicJ
-LIQUFr/y+8A/JYhNoF2gL4VqGpb80w3PL5EtxrZksvBzUKftf6J2Y3n/HzYjLg+6heNec0hiatxH
-/jrwR52IGGK1cU6dLhbZsD+6mbdilzqTPkjshCOwhl/VAUgomYxgRjlXrcTa4wxvneNwMPsbTXpX
-DfftjK623a9Vxv4ICSiI7NuvdcYx/R6rTHBw/tppjCsT12ULGI3uUZwekMmY0o5gm69NAxCrsbQl
-39S1Gvn8xaZxy2X7OhSE8FSSgDatoMekCm4U0GDMZDk59D1Zfa/78tnMCcAhmZTNqsTszApvsttP
-JckRuj02TLFArOVz6JF7UlhB+6X8TiGczL3A+elBecxT3XlQDBRGLTMeBt+4B6pBE0ifPfQeKyxM
-vchmSoNomFrvuis+8haoIulxZ8vrgE2wiqH4qMhcaSqeFS3rbqY5LtRJAaUXdN56QzuTDrV1v/Yw
-l5bNI8Tch7K5wkKdx/Soc/Onk5miLF4wIb6LFli1z4ZLFc01tUDO2JMt3/DetXK4dcTgZlYerru8
-ebaNfm1U4k2zWQT8tac5ragVFlW2k35864HXcNkycKKXF8XL2Yz11ZfZdE+Qt9ksJCASbbrOYqEa
-QGwqYsiNulDRi9lzTOUvoUn0UZD2M3EPoVX/XuQ8CnpUiFad8H9g77EkHhE9+vbk+NEa2jlr8tPU
-4JwI662R0dvYp3vFdOL1HyXOkCGsOUsjvuagAgcsOGOxEk9RPJ2fPLJ8acDDJqzPdXQUVXu0XaRJ
-7TuXJOWmNFY+2osuZ58Z/Ay9s+pS8WjKcGe6w7PmwsELbGQiDuXc6lg7eqisPV2kIPSoCDH8Ctl/
-NBFFYRWx7pkrcOCiSEO/F8nRd9vHqtCwsaGO39hSpuF4GyK5H4yaOtHCi3ZNSF5dbdqTnF4pFPFZ
-LdS9VvF9J4b/5GrW3WY/qgYWEpnOnx0N3RQFBr3o9+lKlxU22xp9mJJHc0F2mmaRAHplpMTrTilP
-Zduy1JfuOWGNkk/eb4OG6FR9VDz3s7GatUNJSkvH7kF4+dXvsyfeym8XT43ZfkbcshIrukVRu40M
-CWNL2xdTX3Dq7URmnFRcb2ZjgtNpWaxkOivn/sRGjo9W4ZRrbcAImPv6W0f6v+1A2JOCmBk9pNWg
-pX4Fz15jZATPNMAiZnUysfnZif5UcQmbEebXofl921S4DjbPIT+Q72HAYyxEaVIbee4Vgph+mG6q
-wHmkRuMM57GcdwibXBaq/uy37IJaLS122hQxZy3daBAB1Yga7y7wIF3JJFhkWOSrxDyFJrRa0UDu
-gkZgenhQ0vFCFxvN0V6L0N3xk+tzD9NiXnVDPHT0V4uAjxCyvARiMKKALrvB2AKioeROcZibs71t
-ZJ8eo0ROUWaReh803ZXndASuOQBmnQ9pNay6TmjErD0+y/k2b7mbB0H7lXjR5GgkUmRCgNT9DSUE
-KzuswoXmY233JstAKBmpenxDqpjQWkwRNrAwu2Qt1oCKFLRWRnEKPknFkRIY4SnL8M9VEbxODQch
-1cD0OXp84lJzVXv1T0OChNuqjm2a5D1KdTGBzMmfSzgnQx5xSx7I1bQQltGclrZXfyiK1HdBT8I0
-G7lEKOmVhOe6E80nHVe8FhpsWEkAOLVM/fE/Rx+0eXD/e33wEiDuZ38jCk6/7XdRUAfGDcEDeJ4h
-gfSYf4qC2i886E1DFfyyZrOO/mNGYCPO8cuaTAj7X2Hc2JrZk9u4kMmr/bMJwdYno/F/y8tBbdNU
-WNwsbNi8O/9iRA77KlCh57GZcqOj9PpDUY33oM4+IIcsotTJ1oChUMwKCU4jKY6ZY8IiRhVRQn0T
-Ed5aioFFkAo517BPrYs/S+/HIzegn4SeVXB0HxAyni1/eEQ8mxlKvotoTbXCbBkJ7974+rHFxF9p
-zbikIxtIRZAAt5AF4VoDnhZngTL4J1EQKR67qfgKRSKInbOVF7PMIKnURjkI2TyZlyl38LAw+Yet
-p2gcnXmVCUZ0hxQOacUrZ+IiGbnPGcg97UDGBYcdpQF8PcjFMuaIsam9pba1wR9dfNCrRMTeybeW
-phCOMPytzpCE2pZbq6rMeZrngthLXtJaKBdpxwmtaw+2CJ41c9zQ/nvyMfVIjXJHtWAnA84RAnjP
-bZMCogRO4AhwQ3bfw6hyIBJZgbvH9xU/eq21K1z/E09vMg94/uj4qlSQfb7W7avahlIbgy7qlqbZ
-7RMCI259lkk3F5VQcQyyPumkvOt1vQroR9WFuzPsYg0/ez2FhZJc+Y4TUsyDDAWXafMiEu9mYRWM
-oY3C7eg/KbV7rUB34eftn3pPvngdLlovl9fRzDDbRK9jZGVowQxDPTmJWcZshcMQ3atoo7WW4Wsb
-dSjQ7FKG6mTg5ZtbLhoL99ZXUC6n0bLf40x7d0X87nQhASmHTAroYlaK3UHW+cr3+peQc70oY6qb
-fes7HbWtO/4kU8I+kSiOaW9u3Lp+7OrsKHv6TxSFDLc9vpN1Yf8/Ok+lyhCqNcpGGfTzCJOL87Ij
-4q/eyDL6M7WNWUgGUyI7DncxbyQEAz2fx0FJBAsFtK1D1puS+P1Q6VsPat2m5+1d0Lt3yhLJRDyq
-2xanGNVNNNeFUXQIWf7QVsdOPHeqbVJA9rVzu8OomJ016mJLpL0GwolR9XOvathQtip/scFKWGpw
-6pV0X4cAxdqAnBN6CMVhj0OVX1PRxmSnqIq0WOUNMWoarxCiwjjXw+bqkld1injl0zNaCv1ceQoA
-Mmx7KWHQWkW9TdClRk81V31WfYCdltj/4Or4Ya5u3dwxju1I6zKbOOjh+EDsDGdsfSnZ0gdIRlSa
-fmOceI/BkGQNKEAsC9Zg3ftGPjT+QKMbYVPTSc+xSNYG1CDicwTOLBs+mUhWaVvroNuHGyUdoBPX
-CsnxWXxXgGt6EpnTIiaq5htgkA9FkB7VTuP30kN5iHv/FA9UmqttdBKNvXANbulZuGXChhEU/D/y
-ziS5cS7NslupDSANeOinJMGeohqqncDkkhx999A+rCE3UQupmmTVvurgr98iIzIjLS3GMXYXRZEA
-3tfcey5bas/bYeBHrk/r7xYWV7Xmr5oEjofrujWpe6wyw65h7+pdxexcXMtmnOwSpzKHJ9focKY6
-zV457pfjEynbsGhNKWTsXIOxgvgs9vhmu+h3Omlyb2B0gy3+4djVpvmjTViCZPJ0fCkaYmycyb+E
-Amxw7w6njkgZranr1ShEIHuJkcifwfgPFQti8yksDcaLE+rBUT+W4cIcnrYxQImiSgIZqifLbclS
-4V7GkDGbhKEx0LfAChGRgGnKTBDadsfRC0lVHAAllWpZoJdgYkKH64tkO+YlB4tphGUUR4aJB01g
-Zhy8z9Fk782HF2L+Cx8aJ6Vj8dqd2U1B6xcbq+7PwiedMeIKdyxEQGbGBeAGkx5uQ1ltytZHJW0B
-Vi7ucgsye5eYj3GEkrfs12YPOt7RT3r5bZkIOCLI7sye8eTqMEHFKcNhNvdy12vfUVE+2YlPhl25
-64Gr+Ga9jSIH0xYoyBJOohgQOcrcuUgMLrZgYpJTtAgd6nOzqXqY5FNdsbTwP8j6e6mUSyvjMhDR
-y9+j428btrSkrtvsp1ifjh8uvjcWbfdhE3/Nst7FMWyfzqmCMGSvO6DHqLTuPFYdWlugTulong0i
-j9uhosjKv2bU0g2iKzuUXxPdrgu0JkHpqs3zR59/U6ttYaW+eCyRLZbOXk+6e9T+9IS5Jma2gw9+
-qXT9WDMy4t0kG3aCJ4kEvpUGy3lLZ6JE+CKPN05brWEgVH4ZHcB+vQEC6xBwVE3Pnss2Lff6OyfH
-QVrmLOq7N1VXr1MRJ6sy9D4XMmbjuSBR3d/D3HSrmYhUQgL0e9C2O1NGHynqEKT8UCxCJwD9wpet
-30iG52Fj6hBfeFneXwDX5Bk8GsqGLgMaXhebwesVbiRGT0lqfklvvOletW8j99hF5itoh21rEVpe
-GMBEiL+uyMv03Ho/ji2n0titYnfBgvRBl1XM4hNCcIq1FXWbuXF3FYIrbVZsUjJqdQNtRKv2rl/s
-JMAZMxXreO4e0/bHjWHueyLdu3P/3k3NTNUbhZslIFPYIJmmMLkjUnEFWSloBlgxcn6aVcP4F9KL
-sOJyY/QegQfWcEpjps9c02+OPR7NevpROSYOFGKJwsfEFCOoG1TSRQN5P3Pg9pKqoLEmxBz1SrZ7
-yuLERdDu3uyapXpb4sFJ+CTcwyC8J62jCR+gNVGaz8tWowkGy3oiyuDaDVgn4lewuhy2Yr70ZbHX
-Q+w8vtMHhaDsauSwq3vtRznymQcHIhkuu1hAP29KlIk9mqU43ExLZLLfv88R8MZMffdjvR9Si7VL
-8xvAFCm08Z2WynWO9WR0woMZ9be4YBIPt5QRqXowMhQfaLfLJgwAul5IwttZQMjDRZWvCgGoaEp/
-a15115fuhRFIAIWWe4TpY9Tv5qlDjQyf404PH2YLX49p7kxy3giyPFtuojapbM9yklvPBceSapiX
-jDCYKkDQePtdawk/cwZujq55LVzBYNm5hVPGFlLy4IFjtPQj2a1I4C1UJDqPHJlWTXHI4GzbLPpx
-jc30qmpsaL4lRJHJ+1EJ+azSIPHWM/ZToe00lVKiWO4n6/Vfy5DGNpA/jaTQaR7ar7TrzlNU3Uf+
-bK1db3xAfQULut4Itg4rAiD4+hljLGlbkW7cooo1nfDEh9OiZ0nC4h5HQbV3nBKdvPPZzO1d4dv3
-MJ5GrnR/b6XIpszevwyIzUBgIXy0XowwX6coSwqSwHwYEm1I4kweLvObWxJO587xH72yws3jDhSN
-lHjxVG99KhNcgOZH5kxIM2HlD8sEb7Lo/pZk9KlxfLI2RBB14e9odJGLWs6zVOYvrwaqTI9hcWh0
-V8eaqdDZfTboeiTZoCziSQaDwAIjQbEzGM8AyVGrxThCamGSFVo8suLGVqOxDTIJEiTIndjCuHpR
-7nKrW6giXdyLQ2eP23+ivpGp7n/dN/5/QTWLvc//+7/z5Ovn73WQvMBfOshFTwIM0vEYGBPQ9Jcp
-s1hg7zQvDA9dm47wb8yszl9j5d2/mTILz8biarjckCDm/yFOJdqW/9RDClBaBFxbyLSX7vRvp8wh
-elvcZETSj3ECK9x0f4lsWfPFzUPnmMfSxBVU1um2MLVnGrV0z7QWEoBVf1vWou6PykNUQpKV3qlf
-NrCq+SAoCGbWNJGOjDy0tbTnKJ4vFa6LZHDX+NPupOYjB0ZRsK6rhFQh9N6rMdTvKUSoUMrAq0yC
-GCz4gupXlkSvOpnAqyFM3wjmRXkimfN1IfGPDqtssRGAn8OCJbieHf2RuxwNZYs1CK1VCLLInOqL
-THGazkj2YodpWJg1u4kEwE3adw2OcZBGDvlrUnoeYYLVrXX706j3hzhMLmWDKYulTC3JeRoaRRyz
-xygoY/adEqFiNYABhuWMauGkxHabrpH1XtxUZ+Sn3SsmXLl4wWSyQou+A+6Mld3w3sfZv0ffGnSO
-ONS1wgoS9yTMz+YaDAZqPLTgVT98kyN4LZ36u53MM8LsY2YhH4ZN8uXXVG1d8WLHyScN7FbM5iFL
-vnSR/sLEyA3v6ju+o1syeYgRmQRKeyJiiIyihNYPMm6dxIE3LCb7ITyVof00ZRgT3TRGplJ898W4
-LXTvmkCX2hqRy3NdUPA4HKAN7kNUout+CJ9V6R80yPeE+IA5h8FDAuAmTb07P3W3hdZdVZeBi4/h
-cBXTzlPtqXfwZZkUn9h+yy2rVcKK559yBNBVFQBLSBR3BMNL6al1jG/QSWjMHfd3OA8RJaWH8rtB
-xa+IZarL6pEJ8QOuV2Sh4zugC1SW+b6Bz5fiNVoSAeYQKr4m9kPWgcnkeiA891CX8ojglC2ntTME
-SAVm74CqMRQwd0SZqpFiP6fmFp62DGxUDnHcvzplb62pgbdwN3aW0PdiSQpXiKgHve0PbG+mgIHF
-o4t5rRwUCw0vPynW+jHxkj1bDJKhXwqVbHoT6aHTOu9TPDyYJblGM9C8uuY6kUDBa2YUU7xR6XxO
-FpklUnHcAqTW6EebzyLxjN+xNz9Hkj8UlbORmKzqQVCobGfUal0W+SFznR/E+vdu4z65Ma6wPt0B
-mMMX4L7N/cgNiHIiS37XLsIoo3mJOY/cRktXG0CeEJDyYOL7EUO2Hf35w2FM2Shnl9jNC0K3LX7l
-RDKvieqTiyrIUOYrDIoNTO9PdlljUM3prZtobOyWVMu0dnfsXuSuQ226tkUk4Z+YF0X+FmFa/b5n
-y7ZiwryOi+5Zg//YVZQuFAFBa8hiE0pm8ynKiQLQD2DFqBKvXqw/FDUlMJaBZEU8wbuDddyTCQUU
-paWOaFxBP0oUnKjUSAKunM/cBrrmR7t6bN/8mmmF1wSwtxE1JX/seOeLUfivlZyOks3IMk5dZwMD
-AxFfUNQEWpZAypvYzWp9tWvT6CPuh2Y1l/r9RN0YTxhjw6Zwt+MMCcVoTXAmjJNWo83qoR0x886K
-694pwZVb0YdsumPPr2ja/jR79cHTumRdeUlHc0wV3Tsvk/OLSK/POgsB+autT9QNa3CU6luel3eW
-536aBPfEsts4pTp79Qa8+w+V3yHGgIgEBGxePt9ysw1oUsgPR8OBNQPdyUT+tCm61dQiqZsKxu61
-UncwP9aJ27+5xK+1KpLMRl4z27o4+kSwFKq1NI3CwMIOHXngVv0EwCNOUmHdu+2EYz3HAVhU9Ntd
-Wz2NYkI5OFYnETtPTntzJYSX0Vc7q9EI8eKhnvntZzsmvxP7p3IYhee5/ub1FvDPJap3MJWGjRVc
-dwMkquub/VSqblNVFPdk9CLw2I70+UtGb24nuz7O2fb38xGTRIDDmZYcMCw6dzFNKGzJJTfzWyzb
-BwTbvI/l3Z5s/6khZIyY4ZclvleTCPh9VoDMz1+WiVp9jh2LxCRycnOCu06G+oyd1zB5JqTboTg2
-2EQVOwVAPUU4ru2L7sjHIIZjC+rESeYDOmrHghWbGi8wbQC2PPpgrTLb2KbNXcnL1do39IC0Bo9u
-9/qRTT+IEnQNvD9qu+A5XqJ+U5vjRunq7T/G/aapA3fVbrb1v0f+poMIHASSTClte98ZJZPHyvb4
-q6jKcUX8/iMFmH3D8OYm3R9JwIa0cdEURFIU4Tm3fOeuULR2bdkV61mDAO2yimHVh8fWG1GZF3zk
-SAOZIxsj9Nh0+E6S/CaSEKzAHxggM8YpO71YeiUwQqNrhCJp7thpPhPh2h2WeOEaCgNlbHgcFEjB
-Vop/oqrTZn7/31Wdd//2P7/i6vvvlJzLT/9ZcoJGB9lnYLvzoZ78NT8FNDrQc8DnpHjCTvdQP/+7
-ktlxDaQL3oL/Azrw1y4+pgiGgaQBpQT2wH8wlOg/6RoWbPuiqkAaTTiSzXv4a12DmpjPekk6rq1M
-/8Fmcj9Y3aljkw+Im/TL+NJo5VMPnrmX/inpQJz1tM4rX3KhAs8oMVts+tK8Yak7GUv6CHBcBdfa
-IVsacOC+FOQVmVN4myxJhq0/PRfCZTctkHiZ9k7DrOJ1/pPmLalthodRzG1uqctJvpCH+DUhg3zr
-MukEMKbdm4a3bpO7PIJZW9te/BQWNcbo/MNK41MnhrOPha0zondfT18rjcGtzmEuVZWsWpHYmz4u
-g0qS8lyTDmcTbEKeCu1viyAaKS3OvvloE4faNZwIUwoUe+rn59rzHi2imykj2lOZ4mMoTOOlYeHt
-aNoLZo1AZjr+Ew68mljgWiwsPu1tSInitnu2J47/VSjwX5FwdnE5H2K2xNvBZyQFSeEHFOD7NMnz
-qBieTVEPmWq0DNRv9Vc0lWfTIYO8S112KygJNCxgpjKPk4l9UcMChIQj10Libwbr1+jzCvbYvDs1
-LXPUvnMiICmIocBXRb91fDQZGtKB2YPvl3YgWuZ4frOWjMkiNL/ETBR1ZmYXoIpot7WV4cVgWaK1
-ZYlw00bi6Ev+RyNIUCfz4c2y3C15TIzQCPFJzWiPu/nqatk1JMOTewIUgWFNh1T6JIK6T31H3CbO
-zYsC9Byn/iUK8XOEOrOExsqyQx22djCaaRzgKXoOc/0choyCh0QBeiFgMptccR92fF/DBD3QSvlM
-cijIeoRuDnuchzy9LvaiJmEWg/iVTuotlcVvabuPczRch9HRoHLbzcZA/UUu1LJTB8wTYCXpmXcx
-jpOatp3AfYeedZY6OG8F6pkhBOjsiKkW9XNYO4cyhI5vN849MyuoIwVogDhNaz4TKi704PAorY+O
-OpUzrQxABH5UEBAT/C6bkIC4UQPfHnVmR3i2f7GXcXOmxKfMfLbfFvwSDwBHpeHp8U1tl/v2ThLt
-g6y6Hk9a5JDPNNTkBDpv2VRTe0I6s/2T8oqFxGhtNKtJn+hVB1AzTHDbig2jk0QP6RBzq1X1U9dF
-p8Iy72tdXJHWgYnw74TDfHjKBq6e2GQuYXrNCZ3HPq1M0p4UOgBV5NeyrgmsTK4l5lM3Hc+UnRe9
-i66thh2n1a9S5wukviSMgIami8P7phs/HEI9pC8DZQ0fTIPfSHpEo5rAw7SkXaxrgb7Qb7Oroez3
-kdOtAd3p6NpjzBhZD6dNxKim1tmyZX5+aX3sb21yyG1D4Bge3zKp41UqoThqi9LahKoHfroATTdd
-WxM9FE+jkdtbm52X2vSb9YzEwiiZnfpuoJkUnE7lfyq/2LsIUjJa1ahw2X0UtCFZtKlbUDugsdgM
-xm1Qs2Bc0Uyj7KGrjlyWFbl96Iv0Va+ABcjCXZ6T9aYYxpVgILqyxuRiDfoLUTXQtGvnNbdgosoG
-hoTQiDEO9UU7R8pBX+VsQGfqflWg0JYt2JOMoMzYQmgMPkqnK66a/refV9/hhLK7zu9qnfyVNO4O
-M8fLuh7iCpdeZKzKxh0PhZm6xPWwHUJHwmxPowGyh3ucrX5glv5Osagtlq0opcql4SYnm0n/kFa3
-9dPswSm9wzh3C+ZYu2CnNAK4dVfcXCu3oVFPGxYdmfx05uiqL4NHx75PiuK9GVnm5O3jIGnSB2we
-01A/10soexrnH5DINmPW/LLwWXeZ9lv5zXudxc9UlDtTjXe91X9oY3pUVIGmwvfpnkhp3AOYo1ib
-EXtC97NH/lKtvRQsQlqX13F+5jo+sv/A+HwyGpSiVl5qqypc2BTNLx17VxtybVv5umRtJo1w4xXt
-BlHro9MOq8XOV3ferW5+ZhzCqYmbGJ3oUP/KBLSguHzHq7N2rf5Q2FheannyZf44mHJbe+MdinSg
-58XBQ2Evu/kNXcrRnwkkNdOrpvS3WXZb3emCePRuovrtV9lxHhkJFkN5lFN7l+XxooLBO83EbxFk
-nbNKrJTGB9bqXKpMd2eIuiIZ9mUBs2Ws7YZHVnaKm+pkY6uAXcOywjMDj8/Uyzy0a0m+0bL505HQ
-KzGlNouVwGDAUzA7BpIPDs25iWL8phBMkBWhfP3Dv992bw0DUArBNwINjmYv1uHMjq6fnXXjjdvQ
-LZ4N1dNJFsna7EjwmATtpdeDSJJ7QC17J5V7ux2/nEYd5EjgXKKyB6tkAl5zAExl+6t2mwfZGztH
-D/dl4/NU72+caefYV5u6wUAxpvoLnN5V0Vm7sM/P8aSOBdfUVOR7vQOPb5sHCODn2R51GDMOR32L
-GWMWGaFd82EYmwtWCc7p1s+22rId9qPqzW7zd9sBwuL6kCYdxg7pc6/EJW4ycoVzQpxx8b4OE/8F
-sSCao/y1CPsfmcqThT94ow9Fs6/cmaxzb76fa0NuWPsG5TxubDI8RsfFIIVgKTLYy//zjG2X4eV/
-V0D/n3/9abN/+1//4yTJuquGv1NIL6/yZyEN9QJZsOWzDQI5KKiJ/8RhmMAGEQ2T4Un/b+qLNvff
-BcK6rqMWcl22KouI+C+FtOX9i80AVnfJA7Xp/6h8/wFHoLswN/6D/IdQT9d3eEFfx/LP2/ubQjrC
-Eug4OOXV3H2h1b0pczzrlo5tIjbWKqnx9E9bQ7o7P4RgHA8QPiuqX6CLzwwhAzthuYdEsCGsnJKx
-SFocIyzbm+Rx1NS2dZknCULq4vpxFogdsaxd/eGXmUiE7GF7c/L6dRLZWy/kAKyOgw3zjFo79fzt
-58kumoBytb2170rna6jRLZJKdLHmgkS1Lgu3tuWf3CItESwsRv+UbaJIpsCysu/B9z/KJN6VpGSP
-ralvaq9rVjKqLhoG+zSuLr5dfCR8A5s5xVmQUE6vq8Z8DE1L7FP0CKtpnA6q1qGRWrvJZuOXCkiq
-YcTRRUpoRi52xkPQtnlmK1JvGI4HaDC3njJfzA4VtAFquWqcj3z+4ZY88JVu29GHL5KkBMbI1tlI
-Ldyihdx1hsmjG9qbU9TABKeNUfUJygvs0oyCX+POOLaJyo9FocHP03+KQYLeKMcva/D3S4TcRDUn
-kogPI/kpoxe96Z57OyK3Y9jbihmg2PVhfsItcOeTF7KId7SKMUqVjb+TxkB3aenpQxQL0gHYLOVX
-3+8COx5Xywp/9vRX15aHAc52jkbrgG1cC7QEGUVb7CKz/4iixN5zlNz7AxwsC51ANMiTkeebVp83
-DrnKhZ/dTeiyMTRoPO77ZIdu+9sXPMj1nt1T2Ds3YxzeSvNNGs5ZKaAIoRdUlbtprPi349hPC93Y
-r6LXqQKuuvRtOhuxgdjyB0J8lgvDfYglPYEoMMuUo7nxvHqfm+rqiAYeZQSKrJwY17ULd8ku0eXw
-835SHpKk/zRRQ6/mTqJm4+TpWG9G7sajSUAeHy7EyBaaqyq2eaReEr6BlTuVH+iJnQ3M1885Fndh
-NJNO3WeIMXsNv9g5d6/wXjaGw1YZdW1eZbta+Xs8R/dNnf4qRZUxUWPrkQVmlPwup+Fqd+Euem0S
-SvlcsKF89OVmvPcROyWtRbHvDYxe+R7paC/GMJ+1hUkDtnLJS3EHI9v0M4dwg4KTmbxBxBcRGg7V
-Y8ggG8Qx1zdGKsj3eNNNBrp1eZp6WB5FWQSzVf4mvGYd99kxF3LfTsklqcOtU5a3uch2NmIS30EY
-TSzHXeEheYjI4VLq5OfR9+hP2Pw1NMI0IohbYdKgW9BZWIeGPGgeoa12/N2Uw2mKUekgbEJlivbX
-NgO3pfr0hHh2deJ91KJ1gQZhdIPJbaJ9pIT/dHQOq0KvKSSm21hpz8bCn3Ic7zpaw9EPE5hSsfjS
-nAGYT9LdsyzYReOC4Cy3ndt8xE10Cm390PutDJqWEX4/wUEZMe0BWwQhucr1eleEcHkYa63B/ZF9
-E2o7COUbn4Db0qt+priBhKCxG3KvRjLe/Co5YMtZ14h2tMVQHzd9tMXBe457OMS0i+lc20FhRuyS
-0eP4RuVtDNW+AWM29q0X7dV8G+X4XcXAqKEq2K26VX5xyrzWXsWtwxInPhmAvBpYkEYXVw/4PB0Y
-e9NW0qaUfX7rhb1niHpfZtra0vQLAmIQqoXxmDrZsTOQKyQQKNkzG5j08HJpufOkLWiEork3FnU8
-U1wG1LJ5rQSQeVuvoQv4+l02a/f+OL/3tdprBhornlT5RjrTuXZ6fBvWk4XsDKyhDZ52k/QFWTP6
-0xyB/U/1SzF6z5qXPiFFwA6uKOfYTHnylzn9ovS9KyPAGBnzSVHKKwsQKHn+u12WT8r1DpnmfXgJ
-ej8f+kYW+TsXTxrCB9DcxVq4XkCQIxMOyztx2N40HMRINHhkdSw4/GcNgs+0CAExkgSD4X9kIyY+
-4b1WscTVwbdlF/FNn7wXysLjIJCOzjU0DXZxY/wxpW1gT+qko92ZohhC+Mx0Jb2oxDtIsKatlM+j
-kV4Jug7axshJqPSCYmYTYIbZJ2ZFzNUlizvaHwvmndRuTVVeoRkugRIvnVNcba9ZgkCrW6OZ+9bk
-OEVbvGSE9oDpxlOamN+6sLa54jXLELp8nB/zkBRKvMMe5WpLZYid/UFY3d4Umg72kGGXbl2gE6kV
-663HhCo+HoxP7updnojAVvXDnDdsvbCM2TY25kXMSAjOSrQAFGeULRHYG5wD+paV4JM+JltHWddF
-rCahLJl9t/NEe7Zm4PBtIj77mWVeKWD0GdnnZENd052cuCCECoMErZIWezsj6CeTOCTmB9n5v1Lt
-N6UEUpJhJcalSg4Zdk8ZlD4Z9C0PAiYgg0u/2i6cRmkbzMGXx4mfnkfeP8pjOl4dkJMDna9T3Pgj
-1gvbk2cX4Zxh2Pc1evWonry1qqNroU2bAi4voTw8fbh0mjrDBKrLYx/CVJx4GmLEP+CjDVoWrPxB
-52Ji8uxLi2dDD+BKtrtw0DnbyVTtEWWFNcMj4A4rlxq+NX7wPhxsJzrSAzwZgFKQw1b3PbOnuIEz
-BxPRbzEOt+qiCfOAEXY1Cz5iI2mgcHlYDsHMFGQghoV2b6A2mYH0WLbcTcK8qUmc4IE8YavlKR4e
-u8ILJAvNobOuhOyxJ2DK1BsHEnLb1dCipqmjg6snB8NKvpICFMIcXzmDtsPksUxAUyXwvgt8E1ZS
-vEda9ByRujcbWRNgPAQOVDfXtATKSQMb7qcFINSPD9a8YEXDOxTWT9LmGmmG4drGgL3SxGMIQ0Mb
-KheTD489TrPNJNHYxCGMmDz2ltAsQtyoxHY8NT40WzVHmYuLmYC/KaFA9FSHQIpYufyKobvakI5a
-R31E2cy7Nl45g08OYT7h3FzQmZhr28dfP1l3BaBrkriAwU8wjbMiZs1ckkxiTfeVbt3L5ATM7YGo
-KSK/Xej5Ax0bkXtZNMAU7HYjEUIr0yy2CGUQ5y5JEyqlZ/bd6s52CjzjDqDFZifzxd35oiIU4a77
-pvkkxPTx2YVH1erJ2llcnS5aa7cjPaKAxjjP05rtJXLUTsDBMf0fN6x+kXlPVkvDWjz6yCCZ+lm3
-K2eiqVQGXNERxwG6P+7973Lh9pCAG+SF8eWmXxX6avQI2ZTe8Ss206DdMA4h4Mqe+5bA+2zJyS3f
-bLN/yGtuuS58UaRTwxfGLa7jWOUsJS+pcu+sWB1CQim8sX716CxHD69ujWnft/mzoxSczgSVAsUo
-+t9VolmrxmNR/9o102UsCJieOobOsRUgwl03vripLqqCoRj2Q8PhEWZy75vKPReyXmL9hkeTKDx8
-uTzBBkgWwiHlYBT5i9JncAbRqF3zWdw3Lr43oXBxoT3a464AcGQ4RFKgpPzn6UKXNvG/7kL/xOGf
-PuWYlH+PSLP8+J/tp/cvLGO56ujvDLD3CxLmz/7T+xfw8wbyH9OwLUFk0l/3nz44Rtwn+h8Ex8XV
-+ieOcfGuYnP9S2NKktM/0H86iyvmb/tPmBme79musEhFs5z/sMgR3HaoGRiJxJV2P/fdqVq8e7GQ
-ZN2IPQvaex2TxAQ+RvnVaRYEbsw39hzbAfOfWR8s9ymlu1IXI/nNuHrjU5EPWR+ogTw19NxtVe9c
-Y9zk5Y/vIAs0Dm2FNNuq4LkkB0maOozs/Ti51MnTavCgZ+jA6PvuMEH/iBPCy8FmkL0HJvDNLFjF
-MGhOkY8Dx3mv2cjIXPvyh3wRsqPLy8U+AVlAOC8sak4KGAGNrYKJMsxM35EzotEbu3U1qONyXmYp
-MYtAsoAu3Kp0ug+LV7tvsb8M2S0WPq4BVEOKiqcKD4RaPmXCA5pgnU2/ujZLlFE8/nRLjjrGgHGs
-141KX8fG2SuKetJ5DxXD1bz4gIlYI4jf6LJ7Ca3CXUfgvln1SHwaE9RU17X2SglgvCRfWXtLPwqJ
-1lQjlBTZrvBR5xR6e+znz6FJjvPiWI8EW5rwanlIVmzj1puPyAdYiKh7fQpf7GjAW4xWy6vXku68
-ygMPuF7afcKhwI/Qby0UrQKJZcE2JAs/a3RjoiPpR5vvo8ZAl6QFwBWOQ7dMgo9O+oXu9wHh9k74
-0SUlG6fZ2bA7EZUZtneeZ6yksSEOWIXObqltkaUUonxgGneHRQiOQsaQrEe0aPFPaBH4AEiS7nLo
-PBoO1t90QIhL8/5uYFi56nyyKbGZxJGEmeAle79xdgVndK3yw2idGTgQ5XHfqq8OJ6w9BCOC5ZGB
-r8MojZ36LWqxTcj5IJoWBWrNUxzKvAXip9ageBw6DmcaIhZVHv/03NrUVh8k22yi+YHerOovDQqW
-vP2AVW8tiVnp2QFeK6m6eKEuJ+ecDaF89ku5dgtAutA90/gNakoh7wQjciVeQOBhMFFUzYzWDVS0
-G8iNiX4/I8IW9rjOLYHU+8WJvBW7Sclugk5/GD+VQLNvVNsQBzMWmMqLg5EWoK+fQ/tdI2DRyJ5q
-93WRm3Q14QaA99S373/KRSpdwDoDxIYCzDBY/yDaZ0UFzmXVGK/KOQ/MQ3zKiAm1Se494S3CDhZA
-9uSEXLkVpgLI5bTKY4T0++LnLsXnt6FRC9b3Kv0qG6vl8OeIa6Nbjch3WUs1anjsw49Jx6swuVvg
-cpuq6Q5hJDZRE9osGLKNnpWUwxOKC0ezKdeR/c3gvnVvH5pk41KmxV6zn4tkb6blRzQ6R8vsLxLW
-hpcP+8pr1hT/Z77MfTLifiJsM6EfKdz+mPqIyByKtwVk1dc26VJ4jc2pezWle86RK/bVRFYjwoek
-u9cpQSKRryOru4tKrFzjNqV+NPAcic49lmVxdgBgxS3aKsYMLiEUmnrxhu6YoqK0tbuxYD+Gvtcz
-XnW/OlaCOoQIHksUQTbmmwF7DRXhynKM7dhvG/HoAn4qiEyVwju5Nk8TRjaHxUFElv3Gp65bRTDw
-UU1vueYhmCfje4jMd6T9DhJ/CPy0BVDd4THK+G32PtI1iKlNfskh7pvuM0Qg3dAeMV0/5DMPU9fL
-Ee3pDx66uwhuv4NPwigPpkfqI1T/3ryNrPiKP2D/UP9zNvQGFoiQNIBRuqg6gobEXmMXKjKC9Esa
-HfDF9SyAwl8GeVuEgVTMoEga6KiNSu0wMeko1IkGI0gbuVPKJ36CdXMh3+zEILv3ZQgfY5NOdIk0
-0Mk2oCjn1j8PJB4MJB9kLmQWcvgmRJ61rW+SaFonJCXIdtiDW9hYJCgofBLZjLtDC9cFCQsWRFQ0
-tYFO8oK/RDCkZDEQBbya8ASKuaNwu/QcHzAug2KcV5xBG8nOnoSsTRf+Csl5KCOdTx0nIOtqPSQ8
-wSeuvd+wXGdyBQkKyX5MakSj71IyJMiwCmIyJQacGeZ47P1d2Y8bt3mMSJ8gWfyuqV/jNEMS+JqR
-UOFD0SSvwtPvfNYMZhFUycAs8VpnBxP2EDcYk72zSeoF0qOIDIzYpx+QHd5Ktav6cFNY3E8ESC2e
-v2hjtUfynUx2Bw3ZGon2RDPvLHkb07WOqnUMBBgVBsTCS29+zt059x9dItJ4/jCDY6KRR2+TSn8G
-xLwO6R4NXGVWnqJ+LlR2KEuUaUSmkgfSMhJO42+TVtDm7BCkhtSYtwGJA6zsO7W2owOz7E2GckuL
-nxNSR7D8XFv/OIweIXgfmvZFGDLCjKBovwhjH9A6tszWPovhnrT7bYthwd2V3n6JZ+JiRTTlh9BH
-S8bZRfqghP0+M8Rp8isTTOIes12JCFPViBlzqop0YJuTf0qAx4OS08Jf4fEStVdW4iVrN0tF9VIu
-vIQ1QqeZAOBsMf8T6bK3nPqCF+5U/z/yziNJdiDLrltp45gocwfggGPASWiVWv6cwDIjf0JrjSHN
-uApuh70vHjRLdbGKZsVpTb+MjAi4P3HvucrdOSz+cq+7kfxXmYMOlMX0Vtj7DstmN8T7AgFkGmTb
-AUlmZ+7KIGasgtijvcZAN8vyipqDMqAT9b5zP2Kj2s0F8jCb64pJzIgg0ZyaYdXZhBnorjwVi84u
-QsuyIMnWFUNCnmVia008dgBQth1SyKv1U50FueglYI/ePIvsowx/VxLgabyjzjfIIWyxX/C121vB
-xHHC1mlRj0jvwOtDWbCqsjPWz5cYr1CSd79FQFBmxhiq0yuOYNZsnIvQMp+BNmz+der8JT31H9f5
-p+gKuuzvrJeWv/bH+h41li1xlaO5QpOlxV/2S2pxkC+/+Ceh1p/re8zllNoemBnT+qP+/0/1Pb9l
-uoq/JFz6RLwF/xRu3TH/Dm4dewI59IJIWGmZf0OcrCJGFzogSHy03O+0Zu+w2KnqlJT6fD7VRFGg
-zCIjJWgOfoCsqYseCrc5NUxFDQagYiIjswWgG+dHVRFg0HX72EzlulDuY4e6cuOm6IGisnkfy+Yz
-lIw6ZR8cAPbeT95w6zjFdwFM0FjCS2yGLx7FU/Ptl+neN9t97Y0XE2CFH3j3fh1djDGzN00xvw30
-6Uzs212MGacLbYuAC4c0GdtbDUN7XzbE8sngbiaVutbzHWNAdvLMvd30hH1853YVijDjKCT1r+Za
-dNQBcMwOC/EmrOVnQ3I5JBRKFR2YdB35OTDsrcvtRWbz0wy/i8ChjaMVfmpL3OjCRukGiqfsuEhJ
-CDvWif+uxMRBhzF85rhx8uYW7iWydlnAoCvxWhGS5cCcr/FjGrbFXItZlpjq9zCGTD97ajP52RHo
-3160ySYgNtvPFHq6ZN0kI1yLBQbkfAPAIB4T4qEtIPBVAbObfE9Xua4sba5sw92E7FQoHh5tWb6m
-ZFJCLSHivGbGCzC3/AIMRm0H6yQR01Vn/LTSvEo53pL+c0ETsgtTdxc6JJU1VAYzYR6+Gh/KFtN2
-jrNdhNXKJhYjazWvj+sny1jS4bb3vK++HH2CXchDFO3GLhbRSNRdhRhfRD0+xOzymx6LCfrTZva4
-VGp5cjp/5xqMfnoXIKZ36DMmkn3qwRxEvtKl3HaRcSFbg+/pAOJsco9xRZJEknxU07S1QjdgYioe
-WtJSrCGzVlWjkWMsDvaWGKD6K8zS3y0/URGyWcgY2PvYVQGAMWAsjR2P3E0lqs9C9WDr/GEDhPth
-KK9diInCYuwCfhx/YQZCz31G9/OCOJf8Iig88TJUixYDSofLMfI95qC1/rEirjK3ITZpCVISdCO5
-p85YGvCKD8uubRPU47No5HkAhtKa2aMkLHMu0x34Y+Z5RrwtwYL6ovzQaroxPXwfZhLhxQShb1Xm
-sUv6syxt6OLAYO3Jea4SfQ6jML/HfYwfv3w3J0W5HL/ZmhBlj2iaIr6U2D/rPgQMP4tbR5WQlvzH
-BEH2asTmmprJyQqyn0ajRirRjTN6RjSm/Luo1JeEOaIcputE3hZLOHuVZ/YvKza+qKRPE5lzK7vH
-2QPz1TMm4NZQMDU8pHFiby30qRghcuuBQ2H0woU1px46G7VilpONbn/VwVc+cHN64XosHbDibfno
-Kvk+BUjnDbCUlQldj5efN3LxDmTduqosRrneKu8q3M2Y2dsAez60x6bYzRLavN8nxH2KrTmPCI6M
-ldUkz5qe2zcE2P3oJbHq56QrjnkwnF1T3A6B/ZKbhE5g7G/Xo55XQzq992P1CVP4kEbeCUXSXbCs
-UnmJEEGdT3fKto6SW9v1cE8PWxmPFzB7cAVq2rZWRN8uyjHoUe9WEp15L1my4/bNEOyT++6sZspd
-RaRW59Y8mUxRmALsM1Pe+HOID1d/a7PY4Hvap2m0GRVdtyrZEsweE1qLx9+T4d4bnXMzuvux7uEE
-LO0WxDnhv1qhcY0aPANpU5/ScQ7WqTGcmCrDwMnWzowAPV18F1iIgOgRas0qgLSfpj2m3eIwh4lr
-QdnAoN8eIsAOm1qGnIMZRbOVvDR+fm5i9mNOdADO+1QgicqI1GXbepB+ewNHf94B03i1muw5IaDC
-ZLJQAx1ANMsWocKr01CGMgfNh6/W593qMm+Td3IH8AsEB18GLCtPwBdOvVs+GqBN6SPP5oJkD5rk
-ZObiVFTxPQ3Bxi3lvqnarfAJf2AcwM1LoWVp9MRcUTRTkaueHRF/uCMqA+Vf89ZmkWISfljp3vnA
-nkZbn7MJHOvl7dLP0gw+jdB98bF7Jn5KSpGSmHbZKXbjxQji62CrvbQLnO5iX+hvaOinvKMun1xx
-9tiO4N0gSXsZcsXyIyDjCyJhBxC/e8CuRxoRzZAij5wn9+hlg4sYIFrTqb1qFyv0pJzfgUGHj67/
-NyomoFnmuHNxkGmgpJGA9Gt12ySyn+OBGHLvp52LfZsHG12bR7BfLEK5RpHg9+qYNeLVCqqLZWCL
-Snv1qzDlUejqY7SsTyfoTnbIIUdeDHJbnIBKnMTSXvCGaK9iIzJVt8PIOSBBg9ziMt11MTk+tKDo
-BV96Y/4UrnF1VXQhn5n1Pfs4truhZz+4iT1sGx3+xsaDzbjauiAv4tbcATPdu66xH20Uy05AEO2y
-kO6nDtmiBM0IwRqc1Qv38mZOxodJeGDlRpZdsmWIghLFAJ5GxqR66KvswxD9QXv9m4yBk7SkQgxk
-a/jYp0KRvSij+mVWDnIJciSWxUq8BEvkuViZkg1fabUXPE1wJBvgXmQ4iCWWolukjxNJFZk/H9TA
-pCRk9xAsYRYMZ1aKdIuKCaYg7SKb1BEzEDFZxWtNGkYu+pOTYSyxyMmwILayouCaDA/wgvazzbo8
-X6I18hh8h9tlh57UDdBVeCXEN96lNQGCDy7pHG7gEtNhl5+qijE6kuBRQLrEyT+tMGDuEo0C3GSW
-yFboyD7aPqglCMSvYii5DFrKgFTMeYkLCeAZQEbdlnb+jN+GBJMqPFTFsnodnlrP2Hskj+RLBImM
-gwsZT6d8foG+BahuRmGXIG9LS9JNSTEZtPVhk2pSk27yr9Mo2Ezn/3Gj8PLv//Ma/f63/PP73+5q
-7MT/63/8naZh+Sf+2DQ4f9AOamhcjwCfFNinPy8FnD+gKwMWqbFvmEppGo2/mDtM4TqM/rWjHWX+
-56UAfx7S5P8fpn5BY/7npQD/uWWzfkAvhzZNLk3F9fMxyoPmv/0X+V+bgT10OOLuyLreOmMGW6PX
-hqQQBHuPzD3izRh/NNm8UboDbVmG54SElZ207RcVliwfGyPaqMD+LSrxBHSFiNDY+DCyLL84Vb62
-u3w39lwEfv5UdcSOd8kjiowTnMz5LOcUUrQonvHZI76Qb6UuYe0YaEJs4JNQRHDCho38VTLmUPEH
-Tudtr2E0ee34jMcAVSlmqYwaMa90sWnmYGuGdrhVaOrNguqlycRvqNgfsiuZxBbQHNFDO/70KcL4
-boZvQ4Xsoygb8mFNdCU8XGXvM+pE5u33kYofFvlOMvB0qpFKzzolpl3hLGxIZUW/7JHDlKp6NUpz
-ArgM4NQMkk1rX40cSU2eNcN9wdTbbz4UNRRpbqgdvHmfNPXaAt+4ghwNBlMAWeRNWBFeDEgevCfX
-duQHL1bLYK9r4t9+qO5xb92Jar56/7Hyj2AkNF5+WznlbzBL/VbaeXSMp2V404kfXc5AL0EAOzKx
-cPplmkNahYdJmA0cCPfs9sNjPdm3do2vEiWdpZgb50l1LQb3NRz1Z677ZOt0LcoZJCRFmp/GsMA5
-Y5+SLrsEI8ii0Um2ChEvSYbyCGfB5Aap7qSy7hIz/vapHUgiMZmxCa9d5VCuBdV5GCAQN6MMAE57
-Vqb7AWrz0WCsOhYE4FSNxfK8ecjHWewn06V6iddWM69YrjWbKM1vSA/cli6ilQCHQGsMXC09+oex
-99BDG0sQuU8sjcudfDZ8+xOl20NpRaCsu+ykDJOCu9SP9Vxu0DG8iiR6s5BdkEgUnUirYcDvcLZX
-uKoI5Wl+twOMxS5qb3uC3QFQMKLVSbizuEdguno0CKACH2yHoENVJr/iEgfjKJOTX5vnOstukWLn
-KwTV5cr17LfKMt9pVMZ1aMkfg/V5ktf3Pnv9n6TNfnc8I2M7kGUJLyhn+FS01bGpbZAidASH1knP
-JCvdtG60czWo7MrMTl7LAI0RfS4jLCn63gnTjZfwE0Sz+wAu3lm11gCVdMaUA25zNt1XAPdE5YYO
-AbgmzhjrEhAGH1fJJmnprcA1xYzsO6KRaVomTMH9gNpcB9Gr7IgdIBaIC3tVRMG3gWrHxLOxZ594
-AmnrbRqbis0u8/isu/E2TZH8zOyjgIuEjyxf7pjJnbI+gxI08jHMdYFnUYWoVbFUJwBGTL/4mMpw
-K+fkW8jwVcTuvu0UYhvL3fRh9OQn+S2Bknd45NeBh90xoLGULnmanZsTJUbQHMU81aqHLtDt64v0
-Mb606StgVMK/6oqvLLQtI6X/Te1n2wx+tbK/dA2lWMFVG9ME0aKyxsnzGEUkwFMDzNMCJR9CY5f0
-SFNE91Mo75Q41poQ8a0l9Z0hk9chR9Q6Wz4Y7fwjZIFYSpNghQKfmXc/Vu5z3ONf7RPM6X2PUh7t
-J+cO2cEF4VVTfdvW5UqKYfmRJkEWj3VAzfzU+dlDUzuHuky2FIirPF1sM+WxblNkM85yAEebUCi+
-3u1NEn7AhSOPfJweI6VfpxAXR1xcJZihiRKOqoF6jJjjcqbWz6xD5oTuqmoVk4VOlo9lg6AA7TvK
-x2Y+OUN+6LvkPquTU2m0pBMjEI48/ZwvcwA7dpl3Mh4uGtjkaUJOnF2QwU2aXGZ5W+UhLmxIlqgM
-JsA/uVc+cjxfUmcmQ0fG/2Eh6Y1xJ0b7wmb11bZ/sBRuZ7icRHqBJCpQsCDdrSMXr1Yc4JaaWEaW
-LdrDbLyvw3pHqjAcCPc7zN1fFhiC1ew6RG8E8hvd4qVMfQigPJ+yYwaU6RMQo/NoYHUaKYaIp3UT
-fRB4j92pf+fA2La2YNiPS97vP2SqdsxgMdDzdMFr5/nZDviwu8nb+bNzV5jVl2csSg6vPeTgQzno
-+Zq70iBfu2V4WwR8y/o62vV+Rq8XkgLXkvBePTcFeWaTcZdI697V5alUOAdC5ho0tRiNrHCtcYIQ
-GfOhs0NmAfU3WCrmc7LUaHhZCI3OP9B9PIXaOlitfWrxxZkhATIyvs0S8yMW4X1YcyXimeHomlDN
-WtXRU0C1ej4t39b3I9trj8aYo0HtrbKnEE3fXemeBuFuq6HcJ8GMW5BNwVivpz5jM4Q03cvIPXCM
-50aWBNLUh4obc4U3NVxHI02kb7B6Kmb3rKthN8n0ToLQSlJxhMi7RXZM8cr+RSkkxD2KVYQsd61r
-blqDdC4LNfgUEFTlnnpHVtu4HvgdO/4QfOZNMT1M2nxWnHTUvig/W9R8kzgtP30UdM6ZsetLKRmg
-GW5zzIXqNwk5BJHp3M7MY9ds2zmmiGZNA1AlqZzux0WTGkQiP2ddx8iowMjaoBnjKP8apMtPZNFr
-6PtwpLJuBr2umSNm5HqbJq6WYmL5xIOlC80GymCfYawVQzczQ+xT5kCAXcIsGQYxAikt9ZKlNPVO
-TAp1Kg4e5phTNM1y3YKMGlmQlW6860TzXXQgN+nmV0O1JOeUx4g5rIkDMaj5RjAfTUirCo7BBMgy
-RszVTt6d78SSbTShfgFRPAmWuiwnaFl3Q8cPBMU5Dw51Vb3rRF6qvLhjL8J7F4K9tOrWha7lARgx
-jI1tpSG4MbwravHpT17wOw/dW0VKrFW6j30CCSFKx596BH8y1sY26YwXf/biVVpb21knT23t/6Tu
-cNcxnR2nBpWn9ToK8zO22j03L4McRn0OjwhMOHuMIZGHyQ8ybL0KPXlTuc6dwXcnaVFGT0kdsP6q
-2IHBOqhC+0sGrL5YuIgBxYltWTuNPkBNIJeG6lAhrDRqNL7C2Uw1mOSeZYod3WWwVxor+51WQccH
-Ftu7ADGjNQN0mxmdOSmzUYgL8OSccOOZxtPkq6+clWMHHgYchXEY+/HOLSyHzLecTZb33I2sTTMC
-ThbW4r9Qr/T/jLKFI/b7+u///XP4ey3SX2Js3T8IOmqFLQe0kYaQ+1ctEuZ2dJOe6ViedAQrjb/y
-7TgSFs6SLYsPfpFh/Uk3hQ5LOuiwFl8PcUf/HHIJadTftkimhPvk4B+CBgUjePn9v2qROht9q4QN
-s7Z6aqpCO5wkifxV1wFSgx59PfMKwcAqgePZTktWFmPwwfTuTAftdtr340boxNnpALqgFxLDCuTs
-y8o7sTNKZMcGmsLRcawzxDrknhqRo+cUH5mLHl4jLEhHJz5nMOx3PYtYhOZgG0tbX3yMmcv6/b7z
-Mc00WGw2ERvsBMVWIRyGXoxZGJUZ6jyQzrrijDCvedKTht2o9TjqjuvTTo+EaYYYnAuCrc2JfRGh
-iGezhnnZj90ipnSmrRlEpzrTCnWIOINCO7aNG6Hp5BHmItvy+u682j/X2I8nNV2tBcoSM2lTpXM7
-uelwmtsJFfI4PPtzDMa1Np8c1hBZHrIDZ82C8+MlIF6znC6Gyu/dKINXF8tzprt7J/DI9JHmlmHO
-V8Ur7wSygWra9RmLhljYt0OKaLsZp+PkeMAyuJHnqtsnEZvcUFrEjKK7mVvnbBnZse3VAbgo2ezO
-OyK1CQQJQn6vkW/+HBBlZhqfoqLBNBNegQz0WrVFuHFU8FXwBVD6O3T6N4jkm05BlJGpWHQEd1km
-70JP/5BSsiaGQq7aMLymhjusB384SiGPMDrQZS9pIr2TnWU2oXZIPtoemoc7mN9UdAv8ElUqI6S1
-RMAOPWvNMOEQ4P2OC8S1PvnzCnnQCsBvc8rkN/zpCUWsc2QkaS+Bh4JegZAioCIr3hHCDU2oPWUh
-Nmah39OJYbCB/TwsrLNTsIP3UhoL0Mz5TUml6gBAWBonZoQiKnZhiysgmqBRuy2R6K5op2OWe891
-jpQVsWuWLw1fmF2DIj/LIrupaMHWhXCPUe3vx8Z6HepF7Kb7tWVFR8eTDF1FwrFroKIO8Oii30PI
-bLzOfvdUCvuqFdaqxjPeB2tmeQfVWFEIQCaFgYZFxHxuzHHvOt42ZZJFxXGy1AiKtjJQOkCUcsqd
-7Icn7Q17A69zHf04pVo3pnkyJRnPYRGD0CNvr073pNLc9l73EYHzNyDUtk5wBCN2Wnxyre7eBxU9
-BG1wyJP0UELiV71/wX1F2Wy90Ws1q5b91AYF91HE7QzdlZCexXlBqhkdk7DVw9hhaNNgjrLEE3iy
-/EenrqM9FISDYRmPMIJZ0UxlAqdCPk66ukb4D9ZG23Id91mOhTYK+w1GbP+pjHX4NdUIGZvcQ0sc
-hw+um74hFLy6kZ63mTbokT0YPiMxHQxo0g8IOj+1R/oqsRCAiKs2vWn7xjgWuTcifMIxNuDZa4f+
-V28XLsw1RJSec20nfeMns14VmdLrKh7LzcQXdWVXnoYONeu1iO1faMrZZlrYRTJMS74bnwpKXTwk
-aPxHkk1cA0mpzSpploDRaiffiwE1YoHaW/DWlfFtr95U45EACCSoLlD/AALChHPAtskDG3m4HqXx
-hSE4HIpfqDcJPbCdTVYtL8rqBAur9DuCT75yOx43c4huwZfcWZIUekxbD0Cb1k0Y0iLjqG6xRs75
-1mNXFvB85DYD3WLKT/4iacsd/SU6/VqnckfPsuuc/p3DmiVArW8o8eDiEq47UeVSQVDXt3pDRbIt
-GF0A5dyJuDwmFbPYwjl2hfbXOqqZ5quB6D9kTbx8PNVx3M+HsvVA2MbWxmkqaKxnkDzTuBcLPUux
-QSbBcmNUnlr3Sjwrk0gyW2UPrM8vtkMgOtUKh0Ra3rRR8YK0/9gE002YyQdhzscpDn+1KO2TPgFj
-Pl8zPm3yZtJj7ZD5WJUmgCGVIebVJ3fS8yZGDmnV3fOg47NSBDEjYOJQPeS5cTtpb+8Y/cbqcwZV
-Qw6hLzPX/zq1jsPF/4/nwv+HMnkpunz6O9XO8nf/OBC2/yAUcg8EJNoWlkVJ82eTMnmhgOldxbxY
-mYpR7V/mwTgFTIod/EymI13+0h+LHUQkTIo9/K4uqg+TSco/IxJ3Nf/S38yDTVA/5CzxIghUcv5m
-HuyxIBqTKsfJbuXrBth0WQXAmkVxO4GhjrV/NMBSSxfdL5jqFly1AltNR0oALkJaBdA6oUDC7bat
-aqJ0BxtueKG/ItWD9ebANfS7AXpNyXEzMVF2WnknRpyl7CmRaZ/rKAbXjM4hLBn+CVuezQS7aMmZ
-uZIl802o3QJWCr6Tq+iurWzPDU5N7roI3sv4WPg8flZyGhgCzdPIbMll85f99j3S1rS7LRWq1LzY
-6TpnThCchF+SZE8op57t97wZD3WU3fhh8sJxdesL835Irb0/hDCW8/F+KS4qjjHE15u0qNclfFqz
-+exNRrxRhcqxum0N8W016SaSyW1Mr4fvH0iYG+MXRRjjpMucDxShkUDXiGDVZcxIJ9hbNWpLt+vX
-RkSQ99Re8bDesOnFKxlsCsffZQM6zShyD5YKT0NAlBBDatjv2Xgsh/CpAiSzn5of1BLQoDU5chWw
-tcpNd8kCWKgjlAdd/CLTEglo276kCeF9ZdKvBaw+o4EkGOjqedY+LzTyAC12p2ACqexnuMzLHBlu
-ba9ZrKZnEMj+Lqd6oWY+VZH/BL69pxv2bkh1+BlE8CD7JX87waMLHA/QSjueyopaZCJJ9TyQLY1e
-myXuUDFzm4uVF+vHEr/6aDMgaAFZz9iJwv6THQCfuW++xAPVtsvAXMv4KcMQ5IzdcI396M0wh7uJ
-dPS1RyaLETvPwzTyRie7So43UJyOOmW6F8pjW+lLoTp9GiX6ESf8nrE9DIGjT1BYHmxEeEYHlQhM
-8yoNCgaMWMEReyCkJ+3U2cYd2Py5b7ZdQHnG3ZROFDQoSD5g5jx7bWpthjF4c3GuRV54KyKGhhUp
-j1iYz/SXay7DHeN7AjIqwDz5S5zrDya9dx6ry7Yz78zJ30Vpsi27/FhnVw17ImrYaAxxuVHmO5/l
-dkyCbYMyFOMfOw/RtkQkZvthyF97t/mpOv9kmdBO+RaKHAG78kIm5vjBXP/GkfYpbrOz4fE1tIgQ
-26oqe+5CldCBq1tnCmDHMl0J2oq9QYh2K/WYRhmZda666dy7KCdGNR0ryKB1w2RCwZgMrn7CjWxP
-WwXX0Hf6+zBaUnjKg0VmB7lCO7cyb3MbL7vbAwAL4H0POw/t+NAwwLauqG0hwGQX3yw3BWIvwXh5
-9IZTg8i/lWgJRrHx2v45b8Fm88b6iPrnKTxVWE5qAnTGsTkRKLSynIxGKoY1I9q3QmdvEfGDEREY
-6zGrmQx6/XBMM0ZlTTvdTMQNtEm5dSpoL6AzEX2QHVzuIOdgYWSfBQnlWVQZI+p8OPQ2JKyap3Wi
-wSstqtz0jIp5yx+6Je0NnAC24z7j0LJP/o53r2IfUaD+BMWyMdr+Af63tetjXCghW5CJtY2U7X2Y
-5Ec76dDPFMcByjhxSsg9CWhHnmIXw3Uy+AQy2hBd09xJjL094OdZlVirCcAiirPymWv0ToLloADH
-60KMdo+Wz3CUCFqviW5Kwz4YAVksFqYdj0JTZmc7mPji4fnkS4c/9hKa37aMj7KcUI/oI+SiXerL
-g637XS0VLvQOvFay4TPCNmbdlF2yb0v/6OIYLGVwnRJFRlc7Oxiu0191bp8GhzVMOLG4t7I1iY7x
-qs7D9QIAt5PiiEz1RKZ9fw6WAzFmyzVl+hGPxKPAnbJ1GrGTLk+siRbfqXGw4d7AorpKCMwJgOQj
-89oBgzvkMEc52ktoAP0VzMBnAEudUQFiseAsZluvrD7Ymf68960WuZzJeegtIaabiHDXcc52hfcI
-AJ7ItWkv8z3iyHubYVncGreh6RyrKbqpgQOUnY3zI40PIWrxZv7hFutA/ywFVEcUghXRSdc5J7wz
-o3cPuvbDj9udzubsVslFoisE6CgyMdZjTYZrZxrZS8hHFoT2j5e9dCFrrAjMHD/jgcnAsG4DflpE
-YOsqo/+dkBrvGnJoKQB7vkR2Aw6dtn+vBnJbjaWdi7Od4UDJDyCZgz7bT2peIpw34PJuZUP3gSlj
-s7AfDSPdhMBgm27cG6p7qu2O7/XswdDllQfGpUDPgADpIwN2a3oJ6H/vXlTcRsJmSlaFkSLboH/S
-VoDBNDjrKXksMMMManic1bQvm/KRHKNTkOm9o9qPApZrF+Fdylrno6jxEPMgxGvTj5+7TCCM+RIC
-t5DJh+zjFygbJvPVRizxp6xzBm4Pp0e5WH2yAbi1sJfg8nhkC3nRfXANm3Gr+bhTNzk7FhPwwbkz
-yU1RbbOVo7p36+8+E19enT/NY3mq4/Yhjo3LmHx6+fgTBKSXMvY0+xrzC32aDpGfqqZCWWliKYJY
-fVdJvAGs7veVwrsG52io9a3o1e1gTfauWBxfnklErfhl0XTELJQkrQvw/l96YD4TBeS9DPW2bqot
-H/2qbYwQQxETUGvcdYl1Yey6je25QagbhHC2Ylw13VoWNI6zQECCtTlz3+oM/0eaTtTotDlldRJM
-jd0GVWzofNU6wOMaHarWP6o0vg1cnmmFDtLPcAKNzmV2ygN3lHUX23a7j/ty2S7YnE85wBNPr50k
-v4GYgA7Esb/N2jyUVXFVc6MYaIRYT+OKmuo7Esx8zOHeFTzzYf3iy35PZfWOGmXYZlI+G0rtvUDj
-h82jky+d6ySQtWuZfkFsYKTcOST6pRgcOoC769Ym1mOiK7KZS5fVN4A9RiX6rMaYG4Fo2b7tzm5R
-vhY2cIou10yj3rq6vrK+w0OjUIQ6lv1YRS1H1MDCplq2PhnggsGZV7Vw/R3d4UPb1ugTI39jGtUx
-Qz9I6g1nzmAQhy1s4ztjI6d6my4OlWNX/0yS/WGUqJeWzStfYFwWlRpp861vI8fYbUXDfefKt0gt
-hdvCg3IEHR33Gnkt7l2B0zyEGsYGKNwYflSuAXRfWFWDnOIrQHTdyZjknWO4cCZ7+yue9Z0ftMfC
-FltSTM4m2SE7mDcHaSEG9GYXewZuI4buRx4uOIiYxQiYXqHHeGGatmozeGJT9hy1ZO45zpFwJp+w
-25Hscq4Kq65vLHZfdl3+yqflUmEF4YLR6zx7gzlvUyI3tUuEpEm1GWbr1a6ZcJFdePZozge9SJCK
-Yq9zQPJFwVcvLUKXIwyN6khrGqKdSjIYCA7Pv21z01o9G52J26/mwarv+uTV9T9yYmDMdoZUQzBM
-T0CMtn67S14MWR+49P3qVREl45kcakPu3HRDvVnUu35aPqQ92k9OHct3b7IJDV3GEKgipsbGkgqc
-AUkYATZBVextAm2YtT4hzN1rtktJR3dP7s1M/o3sinXRWW+DRLrV2Nc8m8/knqE37f6VWlpG7f+4
-pV1Hv8t/EJiwmIf/2M/C1tLaZTROxgGZe/ZfIvesPyBqcuho4V0tBC164L80tHiKCdTT6j/P7mln
-bZQAmu2x8IhUcJx/pp0lRPP/bmc97VJ3Aylhu/C3nueQXIRCN2B7EgQHDfdr6OIsQpiO9q531oXR
-cW+8u0vNYcYvDTzrsXDXE6t45V2K+MFkShNZ3hFUzHawAfP1Ol37bn+uKv+xrjgF4lA8shgiBWq4
-JPGQ4/gsL8QTnKT6bOKOWVt/cI3qSzXm1naomEH6CEJzcDG5UPO1cZkD56Xq/RXaqryAWtcQa1NB
-PjAvYbKTTfUSVCxiQ7c/DiSuANaBi+Kx0za2NoRAaJGQPVd5ENFy4k11t01Day3KYx46Gx17D4Ej
-trZP22tBEYgkftFbGSiylfptMGR3tPs7I0I9jEmDWe8qtySQmbPrypP2yWXwi2MlwGNQxc3TTTJk
-OyfrNzBjV80E/5dS1f2wmBHTRK0thAyipvP2xo1ZLdQXz1lDAd4aISRzdF2NW1EHL3wvt39jG6/J
-aG29aAUz6NZGBBUl5mNCRyzip2l86uJ3ClXUTdxXuiFMlGE6GebOJRQ0pBV6Ssfah/Ksew2/pyGi
-zXgzHCaQMhJ4aWPv3ib6s2r7Y5e2NwHM2WK5Iub8uU0Zmy5RpLoKjjm2ZUVXFTLyCOujI8kbfVvA
-pHWht4mPwIsS1CfnwCPSDp6MX/7gWB4i2PIwoaDKF6SyWZbciqQ5VcQAhZRQlmGcTOM+ESUphu84
-U/jVa9OX25QjzbfMXQpmO8HMSPcyIOjIKJD60T3ARgPt9mAUI7v3atMOV6E3egpBhjwY7MYlrpE2
-0UTPvddlvc6zW4cPrfYfAuM9DD4gmBBaOGSfQ/zbdR4FA1NrpLf27yz+xUDCsvqO1bcDOiPYR6V9
-wnffhN+otQGvXFA/FxWZQ/HnNGArrzWSa3FofPt+yJqbqcKJZ19QRsBG7bHih+Sq+2yb76wu3tn1
-PbfhG32xmX1xb/XVvKfi3uYSKQli1PLWddv7notstAFVknTU9Uu4Le/AiDq4AJEzHi1x3/o+NRRl
-A3aUmdYmgRiTs8eZjU9C0JoBOiokXp5KtSWcnnCjE4lqW7uiiOLU/9/knUeS60CWZffSc5RBONSg
-JyRATQbJ0DGBhfrQWjr2VKvojfVBiuosq6w2y3ENcpKZXzFAh7937z333pvtthvWLc0dlYx82GjA
-WjZ8F26Y69dF0V3GnvQ8lnNNJT/ppViBnF+EArbLF9Cvn7W9ox2KrcSnazy4RrBtkWQi1fl02Sut
-Is6ArqINIZXbgrmHTOfBJP6Xx+yt09YvmWLDwVnF5Q+jB7F2Z00iq+RdHoN477LS6zl6dLzTU8xM
-W2McNNx7lbGPFhaXGoIizj1JUq6A5kpIfW0zQAzKc5XfBrXxXfSIAosb1xyvLv/MjHiOhfW5PvYN
-6J2pecQNsSqaJzGwFOlAcMOHbenkxameDMIXaEYFpLMhNZnd0k0P88i1/lhKu3PRV5b3sW4NZ9bi
-ryZj42hy30MiKQdmmagk1BwNch+7TO1l+zLyBFEHQ2JWn7hS8ldsk2Yv5fzQI4dAZlqB9DpYxqtS
-xaQgyqOiCG5x4Ua68tKQzxfRNQ4yH0LhCvV9iexzSSOdav22XOwFgCb2RnBweRjA/BYUpE0hc1v+
-mCcfsabsIn1ru69pjNMTvW7kbjwDIGqIqRiN2M7tXYQvPeB+XIY7A+mUGmNa7Hg2uJcooWcOFzQ+
-bls4f9zgTA36MVfI9Mphz0NQUVOV28cZYLalRrQVmr89IfghosqqzJ6Q2LyaIHAFIlRr+nUFz2kg
-3aXyFCvkSTONPvUGTJBLZoKtSOQ+KV3lKRVhlbxiYul3k3VT6gd4yl40O8em718psqJRGDfcGAR7
-K2pJw7fUq5TGtq9zBAri+8qH5T6XReJFbsWKRtvCqIjn+n3Quq0cjlXt+In2PKiqZ8REytQtoB1F
-wwn0KQOESsOzgTbpuCdzrJ+eE8irAmanENUlorvaCe7VoPF3cp672XmJMxYectfCBLEtAFjFVxzO
-pz5KfYhIO9rPsK96TXPEItsH896G09PMD0RQVjVo7/YyMDxFkbYS4hIMC+am8uHYHEzWjVDcN6m0
-twE/k+wPVefauDZ5EJxq2cjAh/VzffZmSuR0qHmjvq0G9qDzNjdOKuoZaV6HmFHEhPSnY32apvln
-SXLInrUH3e6vLBbLVUgtHm66dVPm+xrwd1s+2fWEgkgpRxMANiZxM1FhZN2smAZnanFpJBufMg4I
-iXnZcnZ28qNORBrm9CCDbLlt+kusrW93IZbPinKbkctn2nCq5SHLwpR9R1JtEmG9uz1Z4TFzzqwa
-8AKCfgCTTnKt6JwVjINVWIItssoXS4wbcjJEwICSV6dqBBAE8UHJ9gq3dtX4o+aRx7X5u8aQFHeA
-qWpvbvOlgw8U+2/Rs7YkwqHgnrE+XdP1BTakqM0Y5PMLYRAqN5+6oX+EkElzSP+YWa1XZfneiOOr
-leobTe+eDXEbiCxwwNjVLxuuTUttusW1QkeXHip+Wh1M+mqLBxegsrPT3eFzDpGJSod3a2QzNzfW
-hqrUIyIlT/OSyijXepNuhQLdgGLRPtsmpJrTeTqpM3r3SLEqRBc4Gt00YBccgRfwNupJ92h6e1fF
-LgBWoBYaTS1bNbhIeqJgvkNauUgLZ1NeP8Rh9OgSi0lJRwYglXrxazCMZPVV6l/EN1dWZBzG5tgB
-vizs8pSS0EiEwcgyZbcQ1zPBnZbaMExM3pTtUuXBah9hOmx1/HwdxnUjemtUJjLjWtI47o4PMEfw
-IOWr0liictQMU9CyV4Oj5T6qOd6HqqdcR/pBs5kTLNhanewxwmJNbtUj60y/nvl85EmIk3DUY4AR
-VsFcljWXAhxYI2CQkNs3pqOcNM+wa8/BvtTwBu/CeF6nvNiKhvLZMfic42AX6DBb8vQuIvtQlmKb
-MLLi8F8Pbb6TWXSVuNqAqgsG2KygdggEo3pjlJq1H53tJJuLEjS0ih4wWLtWybAUPjhR58FL9qrp
-baqvdf/M4PjcCOVQaX9MZ9oOnbuytLMLZKOLtlAnVjWwN+JaaXWUeuNZCq+W4DsZLzFXp6wFnIVD
-PIHRMP7aUl1WFHRKEXcNzG+TxoBR5ZgBmK79ktmzMvcI/vXEIdCxMoX9fnLsg2q8dKkNPm2dIvVQ
-y46pZltjB68JgeqccjRCoONY43MTuWe4uz8VRIeOA7JwX9ooJxBn+G4W+kP0FGZ4S17l0HoJ2EWW
-+6X5ww2u4k/Mh1sHPzJIwYNbYI+qa+QoF3uQa5WFgWlhTWNpY49eaJ7cxbyc34uEigQoNUqDqsXM
-qhVegDNc8lvX7SkQ3F341zBExPWe+p6x0hYRGFxb7Uf99GTNHXfi/Ew1K7cHdd2qp1QmvHJxSCKX
-Z4SZIgzLjgLDld+2t75HHtcsflPUZ3Yrq8yxPBHC9lriajpH7WcfaJjt/mglQBi+Rws4YQpg3wuC
-TUDrdwtJIA5Ru+ASBgMWT2rQ5GdrudthyUg1sA5Apir71klglBykRe1Xl/A+JQVb/FGbq+EGvsES
-qac3rOQ9EPJ4jfExBqOkJMo2tyiEZilrDJxQaH6OSoUyXRXUcZEr0ca/WAFGhpRMOygskP7nSMsu
-Wu9/P4f/VVo+ltn/+fd/RihYfvHfZnGTJhl74Vyb0AgMy2BK/5u4DBrbwHnk6kzVBhPxP47imuny
-v2jEk0zLEozQfzfSuf/m2OjOqKz461z7XxvGNSH+a5XMIlJDO0MYWdTq5X//Byfd7FiuW5GWo/7T
-2kTMYWutf1LktAnHBNfTvDELwvwYQ6r5wuJ8U8G5lQB3Gh7sMarZtId44OQCCCPojYhiyF2RKGz+
-UX9tUFdh9w1N9RBYit8MzFRIJaF4UvPvcsZ/hPKI8lL2pzG17kssMCJOsgkrEIfoNyLdyWreKhOd
-XgYuItD4JlYqrPKEkSG62+1D22K4Cyc/GZ5axCnCm2MHsERZoZIJA6Kf6QcC1meArt0fBmz+w/Bl
-18Yhb7eaS4SQ7benhtSNKaXX0AfSJiVnYL52IO+PvqE2OyUjLegeQtXZglKlyHt8Cot5l2EFq92j
-9qBlCRXbID/T/ErvGQiWXGwjKE1s1rKP0iDzjhmbxee6sQ1PIjkG5WOVW9ckadeZFp4XDxiyxabD
-vbjMGHHOgQgEoaPxObqS5zTw/dSBJ5EvRVduqVFF+5XMQ5lPvcda7yrjAvLyrBjuR91/z8pHPAXr
-di4eSYDsU5OC9GA/99M6b7+y4GdGPjIipJ+6/ArD5mmu083SdztBSBXd8FhlM6tNBZDv9DoqO6lL
-DMQ54XWubhGs06Y2d+SdPIonvbR3b41NV65Rg+wiBXCv+dtr8jXHrc7qxa56zzBWulhSDNGD2bBF
-VFkLIChFCiUDw3ZKm6M7cHkOUgw41X5O6FbMS8/ivKTnN1PgWlhXt6suoqKCACGpcaNjRJzLCJxd
-SXrWqmdvIk8BibzNXvsCoq6Kv3jcl6CH7YrCiRBpnj9SGU8JPxYaHNnGsL8hEGWVtDJbdMM37+3c
-IXgMyDKVHw/VRo2rC2Z9Ky0BJKnmxWDf4PUSVJZK3F94ZvZM9sKL2sRzK+KmVHf2ZeehNK3U/qBy
-/dHVVxv5wMjbO5xRgiDHrO+PBqt1vUEX0LudJW8dcSOgukRQNzH6nJva1HSY27xDyxqREVGzsDos
-/5nJlwFjFgEXediiw2syQ5OKjHPuAp3gz0sKqLjTGZ81d3ae8D9a1vq5/RHYVC/TwyFGuqs1GBzm
-qsq5IE4/CZMi3c1SY4ecBdjjTDSYKoseU57pEigUzxZ1C5vYiCVrYdpUMtHDxrpK5a1Gj5DdfVCL
-U9AaO1GNvkqcpmghxGfnoKq95K9We2in2O1dazvbwToDnqmhGnTkIXhWdWVvi5NFZVCr3t0Q7PXE
-b4t04LQdFcAFd6cJDv5nxDe+crSTAjM8gd5hFbzokAVpJOUxqzZD1bwQ6PZg+njkgLZBZz6UGFD1
-uWSSSOB0EYyvG/HOQMNgyIWHjthjkfX7CsGU1TlwKVWpdzLUrmpiPhI2YmCq10u5aswvVdzsrNWP
-wiaiCw+qGJTPmZiSiEtf6I8GnK68/tBg1DniEfGTc8K04V4naL9F9CxG6BmChQ9xAERiHA466xe2
-KioAC34Edv9SZt3JMeqPqq83gZUfJOCAYqaNR/R09CSeQGef6bjuWmyQaFPSeQPWyscEumXewYLx
-655iUfgDcNGuYn4yKarMWP6ljNfB+CnCeL2IKlpuMXkO/HUvAoxFe5vRS8vylCvzOsx6b7Fq5rwP
-XDCrlrT8aKDTzt4snGvL2tCBeJm6FgpCfbTDaFMXOzW/cOZ1qe7j2bnPPDTOTCyVb3ZX4aBNUPkD
-Tmvzm8gqBSxfzuTuSHduxrw45FH53lsfpP6kmxx0ljQ2PqM8G0+C/OcY+LqWI03NfgO9l4NjPvKz
-9hR9qVMafGfk/KQpso30m64nhzl+EeW8XgIO8aDtCEy+gwf7SbkTO3JLuPRIjIFblWW9W/0tR1AO
-NB42Hu+O7U6XDBtRybMLddgAcJIMAaISiz7h+BX1LaA6Qt+0ZyhyAU5WLEJJfonoM9VCDK8SdDJP
-dYmi0wXttjc/zWJo4USnwKo7dsAV43i2z0Lhx/mOdk3aMdeRwyZ4U7jtq2Mc2v45hDpurvG4miED
-dvOVmB9d+yTVF67zZvHiFrANxqPJpDohn3CRrrpu35sF+1f0ou4kzEcHz1JvPkpDXc+E/hsuvJAs
-SrHp2++CiDrQ8m9nvszyPhKuAA8XQ5xY+Cus6sw+3oW2iTW4+Z4TQiukbx5DDOcDpUKzWTwJLpau
-toJ1jg9mYs42dwb1OEaQ0K0bw2XRrhFJTh2+5MSKTQbsaDG+qOw2LDfruaRmKzd77NI/PXuluuWx
-6ZKjrk5P+RBiX33Vi08OH6y/vFTK+gGxYmvNhGFmVXzay6pP4LaBnMA2qe+MZwJon6LWjm7925LL
-HPMAi0T1qqhPfdfc5kDem4JnyHlJ6s6DUvrT9eXR0kFlU2VHnbgKffTRtQ42F3VoJUO+i6wrkvjW
-rNcZZ88MJAYj7yXofnSCxa353WC8dWELCaYe6ogIz9SEuO74QErOZjoE1FsP1Sec9M+SMiNDG+AA
-SPZYu77QfZUFiIL5zb0kDj9D+7UY211TUfaVUxZRsj2gkXaXyGatFIC0mddpE9wDfN9m6Il6IZ7D
-gOhWsNWXLh+KOUc89+SopThy1sGGta/6kB4HfFmB9Z3wzubNQJ8VJsDxmRTDttHtcxdM+N757Fmg
-rgXlfyK4K8uSBD3WGn1F4Z8vSIn7ufqactboitepN8ZYlv0chLORwGe0KfIT2Noq3t/xlwaLWw22
-xuxQBK87hzyWOz1XeO7oip6UcO1WKjvp5hsNRg+6daXuVQXWEWeZ3yLoD8b3QBFJobAILMejY3Re
-TS1vOIGwYLBTlZ6iT2tbmEQQqbpdkaXYGNTo2ewKFNKvfFtm7H8l3w9j+EqqF00nbYR/LVjyx9Dl
-MpKikhSzVEDLs9q2y7ttPFiJcxbldCdtu7f1Jxc7wFCz3dAeKZmAMInxbDhm7A2tB3Y3CRkLPh9W
-1FUy0HO69HBDS0F3clgAAP5snPdI/ab1jCMlepAx5M7B3fdBvEXv9yYjYC5kAZYaa8qrvEo/l8lX
-C0jRjUbIkjar0PJBV8Sm4RVdh5tupNoOw71h9t+guf1A3XMyYZJbNq/b3LH2Lc6ytoxZKxEXNmxM
-+LYeblXVPehjRQVeXnzx67NsfLZY1aRd/zQHtmdp73pjXcrwlkX5NWKfrYX5tQj43vb2p4t0M70K
-zHJx7PfiI8F+srwarO6172nda1Rw5NtKvuRuHK/C2jNn4s79q1s5OSBwnmJ92mX1O3x7FjIGN+i6
-YoFHUC+arlnMrsHBO7QYfpTX0qIeG3b62O4zd47WpBnuLVwSNz8oXORFqL9KrvdB7JIYi58L5wJj
-G6oV7WxwL/kg8rR9ztsmODgaFpbya2ZHmhTUy40eyZtay7/tyXkdAv4NnXpIo6NTEuZ8M7lmJeln
-Zyx7ZOB9kXXSR31DwNxvrXPKMb4YROPMOPL9ZeYmmsI9S8u2eHTZO+Z+Ltkbahm04KvalZvaPVT2
-L5IFSQXd/swN/PYReBVaKyleE5H1RHBS5fyBU6gcetHyQJD5LnaxwbaWwgVbmXzdLV9DILJ1vIu5
-+VuTcww0FmGUOdhY3ZGpCG5H23RRJYetHj+p48JwSPZOi3+LkBHtzJuyhPI606BrDDjkH5Dvhzq5
-EKHa5fLTzd4oqkDwkYl2AGegrrK4O3T1i6ich9i81SDLhGzuOlethYBTY1Xpk3Jju8FLkeKt7HDK
-IjjONBXlf+y48tKFl6Us/hoOfw75Qj6NreCraZOSai4IEHb6ZpGDTPnSs2T18pDpYeCZrL4GHQ7T
-0nKdkjktUqYiJhDNPNp1+t7xoNvuPpn6jWPv+6oouU3hjwqANC9Cjl3z+jR2ZAJs49yxrInnK8UV
-hFACPENcoka9ApLZeR3VInHd75yQy5RhvzfQtWyErJDkgqs4myVBpgn2eOh0J4k42hLvraeD3nDy
-z7ofa+oTC3dugSSkes+2UEPwOdXDa0nSqcQd1TTrmLhSiPzK2q6Iki1XZQyQa01iCePQmPZuqhBU
-0Y5V9h3p1VOcyNNMG30WPDZcOjvu+Fb2bqfPy3ou8tuKewFHpm5MJ0c5p9rsZbnL5AmYuGKBGdt/
-LJUqd8wdwD30QzLlK/K8cXZKR2JR1glfHtmVNTP0cyTeG44flVLqmOaDWjUZg5iQx2VRyL1ZlX8R
-qAt9uCsO+FHqGbWIzr5yp1aW38zReRYYTfJrT97BYplZ0+rUNFuubtTYyA1T6ln2xl6pCHg4t1FX
-AJg7TEDOVlePCYUBPadAR4zJlfIhD79zxr/KbS5l9J6aPiXQuOe8MWQYyuSNR6wxX6mKx0/LGTkr
-B8K9vGrQpGju6KM12v66c176hchbPhO5iXCqtSjVi51o4JxqcQK3zZ4m9l0ewiLH36RwQ9VG11eV
-GQtRA6Mg0dKtY4xnPreYYSmzJhgB2SXqspNJbTPlFH5aDz4S7W9f1btC/BYDY8GbGozs3h6qhToc
-QMnjVmnbGAhq6A4Cj8zSsdgbhwIUmKwfLfzHsqKZJjjHab/wfbwap2HuKmwb/S4Gbuy0NxVFuoOB
-Ff5RuH3iJeQmn2abEAE6rAxv4s9KMBp2yY3L0t0d9yJbWIjVI4y2vaq2GIQYsXX7tNiiW40y6gag
-1l112GHbVDfM5blwrVsWD4cZCkvVW5fKCrFeTF9DXROhMm6GZjxqbcJkaK9Tfnhaf5cWxG3zDa2S
-tBAfISd7X4yeY2SLOsDSFwMq8KrU/kgNdtoa1KoOYvZ14O4fQFYz46Oufc8zG2HyLNggnvuF6dIs
-USAb7YTCqzB9qNP7QDNFCIWcql7puuu/dA3TtEMbEMqC215ZBZxCZ6vWpy4dENS3MrkqJBzn6aWd
-um1O4nFpmuCC7U85OIOG3PyxB+PuKAFTLgvR/Tj9ROG0Kqmi5Tw7ZrjnynHwgDisy7mmWqTy8r7b
-d4IcnQUji+pXi01IARxx2LGHXSuDQuWjum2oYoK6tkmUDQRJ2nJm5yRU5Zjj0whV4mwIcnSge6K/
-tvpvkV5Url55+CMGYDJlt445HiL9gSYVsvftZgHiaaEfz3D3ptCjjAr8YL2zRpTSOIJgFQefQpAO
-ncVTENe7DG5KWD5CldloVe6ZXD3I5a9N1LiZYChmhmenKC79VL8TizxHpcNcwTfUIBtnuzs8emT8
-8MIBAykgBVCwxp9RW6C+LL8rjO9YzY8WU2NUursJwSisXURD0m3cYsfUfjHwuuiI+nZyN3QyVWV4
-TPWF+y/QIFsqsUhjucp9DLqLwRYCSolfB87GkHRqGeJBT/STxu0t6mwErPjZyLK3IjU3Qj2YksmG
-AS4gDWLVL8DkvR5TvFNktAS1IMIoIo45OQhE2hZ5MpM91T0qs22NEjDZ7dNY/5GlDTDcWcd4/pTk
-S2a+OX8VPB7UK4HUOpsIQxX/Yte2v/Xmu2aRWYtpU9H7NIL9wskmw3czqU91UxxHrDA4Ro9lPa+T
-vNmTEMJImN56FLAaS18TEQGZv6NFObUVQJiAR3Na7NxI7jJWigAz/ues0Rfv2X+/Rt+HSxT985+k
-s5Zf9x8bdAoyXDo8CFuZhqMC8vrbBt38N30hcVGgYfzdtPb/sugm612T4JYQTHTuf1qhqzjWzaV2
-Q7NtUFv/ip/NUv/rBp3bJSt0rHEgfuGA/ecNehPUw4TLoF0nQfNq2JIxt9a2tCCSOHe6r8WnW9AC
-FKbuLWkm5iCtu/eo1U4Q7/V2PI256ZNA2wp1WG7M6VZmtBzM6nNmaT8ipO2vCI4OFxt9Cg9jBCEm
-hBfj2Ceror+m7L10oLg7YrJp0pPDdcAfJBYKixgTFKbhy1LZws01tCw9erUcDhvKdzv2hjGqfbEz
-2vAQdBDUZX7V5PKOE5lBFa+JbyAv3txyAvNjXp2he66q+RY6ZJ4y3YloIW+0VZnnQL+TZ8fEiDpr
-2S/EJV+q8qmIdUjx7A7wECCrs4Zt9tUs18i2ay3HZhMZP5bKZ6RFFsY3u31MHGOTmLwm2SUanUYx
-d+hFlDPZxcwJG4rpoV4y1wzu2mS8a1N5DLUP1aGCIIQbEznDWQaYdavSuTqOPIQgg/Z1oV0mmcfb
-rKLkHsJ3bTiRV1mab6Kiycz6zRJ9A+BYxUMANlbnc1yLKD8BgDnAWuPdEHnCRbqI+2vsaPc2Cp8q
-h+VPOJpHkp+nhu6L3p5enM6653VIjIAi3cDapKxx7b57U2yu7ZV+GqyZcFm5VXD9aJiTyg6wFpd9
-arXUD4f3c1iNN3oZPFdU5zRwaTRpihQl3v61LLWkoXtZ77NsSMJbMtePbW1+2FpzayrtGObNNmm4
-TLnAEJxSQQblbzhKIhczBb3paP6knYVvPqVzUcTZKp9dhL/JS0x+ynZGj/TAJzBnypUsOKK/4gdp
-vUZMMZGru0cR5LuUcutBU/ZJHn/aanee+uJ3Eu6zqXCHzhtDhyUrbq1DMQmbJhO2bUHne5JTk82X
-46Mji5YMyYesWXzOwrqOePg6zf4JNO0Irw50fSXYOZLwiqKzHZkvVau5XkSv2AjGYW0l8jsWxYto
-25t0mc4GR/xBQej44Qu5SqroPUurb3wSsHJ687I41iTohDYKNupsbGb8/vR6CbomKkWeQJuuu6K4
-ssJRWFHxfmzNN86Zn4gy6EKn8MZadONBkw8R9u4oa9hBT0tM77u0VNrRtVvd4VLU9fIyVvkT1Hd3
-P9EIDmPPUPSblkLvdNyfMKg/1bbb1pP2nJV8ForqnAujWcZ2jSoN5NzcIIsRa/ZLAuF7pQrXbyJM
-MIlVnUtLrqTUiN2zRCsFA/loqiuRkeLInOE3zAx9nXC2LKTlPZDRz4pqqzJvPorSOBUMeiUyCLKP
-uu7H+lskbuJDkIoAXiRnmSi3WBYlDR0JnWhx8J7qzWYyWJk3CZTglFVjS5BowqtQqEDwG30mRD0R
-PXGQBKys2w4xflH6FQKMqNwDSKElovguEyOlXjm6UZ3m2TZr+irtqLJw+Q5qG37cm9gWG9mHOxzM
-X32Y+mLA+DPDFXKg2W01q8HowAKuiutNPHbLnszZTKPyIFJrH+rqm6sLsi9q7ccOkao2oBexnLd4
-5y+j7sZ3GnsXbJyoASuLu6P070pEzBojvLFqJhenjRlvmkp+8nj7c58/UGIXbqflXmbk+xG4jN1S
-KEJyzqa71LVYrNWhuFk5j1bK0bHpYsXxOjs7apr10GVTuJY5neKNbCxftAVYN2WJfy2JPCp3Q3Vi
-Z2GkIGKbPQ2ABddWDGRsGcnNFzbr4Rlvi8J0gbbE1KWx95RSntpcNDv6Ru7FUH4RJwXIyl58XevF
-qxiGrZIrgnBP95aMym9Upp9O2r4xdJA/c0Gh6a3+hsvoMyrkERMdXFydZ2128y+gYtXGDZbcQJQf
-w6QHuTOomteL6JdatB8COph1u/I5RhJcB0uqNSjNrygJ8FTrG0uQyIl5EcjBbGkJZHG4TIQV6zmF
-D2Af9OEjq2KsjH3zWyohWdDsU7dABgOxeJYqZo6uHHg9FRmac09dpW3pp8AZPpV5tPFLYWJWww7U
-SVPemMWOOJkSH30JGu8ITK2eySjSC5Zw2oFMVYzmMS00LsNjK4+FjoshrgWfZHQqXOfQx4sihuvK
-VwbWMWFLnWwdv+BW3adl8zwO5PV7DeYgmZ5cLW8d5MKE/RtFtyV+nG7bF/EfQ8/41hVJ6ymj+puq
-gW9SE4UZhHrWemEVN8igOW648FUL6N7NIAsyaevh/OBORrMy0i8aTDdp6RxHlOyhH5iYGJlXVqUj
-jEjmDWm1f3nZMY9LPJqZXFZ4/Wbx5qSChHVTvY9Cfldp9p3piNOhUM8N+xhux/lrG/mwkNdA7SgH
-xkZlx7shFnsXZJZqir2p4Bvmms4mNCN7lj+nLX5EV+Zex3VbzcP2kBniQ5CiU4v4FAAZEHH63Unr
-bPUNFS48elOLUdwwG38QTQYCXD25CRa4hIrOJK7nfTAUJ33hMmld/6DrMx4UFyghVkJA2gw4YKBH
-KkccXDuY7VKOtuSzx++3mgwmo0yckiv5aH2vQXSLaxgP9giRN5XuYwSJOB75AeYBw3EWDMyNIvWm
-Ov7Sc6bQae4eE0iVeaPygwJZ5zResRi9eGFSBVJiB+JY7RXBOTLUDT2hOKi5xbXrpu3vZSJvQTA8
-saumhJ6jES8tI1wIipqsnOGpDd8BlHAgDeapBJKvlBiMDNNzYaz0OjV+Zdy+Njae4Mn+U3f5+Ag5
-cVOQP8RBVW+prtj/z5kFnP8vrWE9/7YpGN9V/zPHv0k5xt+//2QwWH6Tvw0Gggp5zdRx1sDr+Stv
-6j+sNTrtH9byJnA19R9jLjT4GfwKE7oV0AZIu/x2f/fWAKmyTdOwNdhX/Pf/QrMf0Dpu/WUmYevs
-f/73/7KRtNizM5bwl2MysPUF6vAPvhq9VSs5S/wk2K/Z9vwJs7/4rRdnpBf1xVULnA871b8yLTph
-3cQ8AegzKdhlEhtOnOJzttD3bPwBmdqf2qxdHOr4xu1jIWyTDqdnIivbsJ1uoCWvVYXTX+EyPzFv
-q026NhuUj87+lBjjPaXXgaRzP05e1Fa7UgfvsyTnL+QA/6yL/kuUwbLa0fe4CHkTR9ggsFDnqf0c
-6sM6sv9w8q8bvJFx3uIQQE4Ff6eZlKRlmnYy6zdr2X8r86/hnFsZP2jjPrJnTwjefFHhBxVkWWUX
-DrDscBY0rPTV4VUta0q1/Iks3VIMGFKPkPVsNtTh2ia8g/iho+5As+D/iHs2q47ZTEOHnd2GsQOE
-D9lmml6Z3mkpYJDin8uVBtX8PSeKshpH3XzQDeOJ3DoLuZ4roJN9mzFf1dliw9bK6COvRm1jNz1n
-QUm7csY54xvBcKFxxrMVhRaxrhh8daIXgREvuUsZ2jv2rmTIrdeuih5sgL5zZD4ZlLo4bSW8sEUS
-V3gJRE680YEoGjT56RADhnHelzUvrNBFShqlfkry2otz62wHyaXXFj+C2+IYYeVN8nXHa7fmN2Ef
-bIIMWtnK+GMG+XXg8AN5pdDxZcxAF+xx0ziclC30o4qL4Vq23U8XtU+ZzF4AI1Ea7tbE+mk1QTic
-VSTDIj0Abl/0I3rUlX2qRZ9DFtJ4v0hHjvbSGciPpYzkJqk1oJ2BQfsjiL31MCyO6AazS22Eu1bv
-8g0m9K8KH5YABlnQSb8UHyYKHYRO74Gz2ZixeOx0BLbQQWqN4z/Urb8KXWMQDkK/N7r3LmRxpNRL
-d0Dkq2320S195mEacvPQl0GTXqtEu3PlVJYE+iWqqdUoh2InIi7pUxw+cq9D+VWdb0NQrZrnIatz
-yT66irMtrYmsXs0mPKExL8iO1wQEFsZkC3sY1b01puFERM9N7+xkCQVr4C6e9HAXmqzZxzzKOLCm
-l1BZXufcmAgV7RTyl5M6PWJ4OpcCKFaqlHwSuIVNQIspNwMO/n5VpfpRc6pd0fL6cXUekEQTZ922
-T1yG1gBT74ZMT5mgG7IW4d0q8YIE9mGyXd8alBdd0Z+zzt10Zf1thylwOJp8d0xm1OdF2d3R08UK
-J6g3G6l2gZhCfim/Im8zO4kKc022d+f+eRAq9wF6KGonvcSVsdEtucnojuhN98E04mulgY0W2VND
-TQC50YS6D37SlEiHIUJ7QjKvabGuqiiUmS9bmzCNfA8rt8CiBbfBmRU/HKJ+KzvtJWQvL+rhPcya
-DWpJy/LvV5fzFb7uCo7CR9DQ5R7RN1+m1iXBNGGwz4uy+VC6JRVzXO6IBe1rWgKTwULuH/eGpmKd
-qHW/MBZfNE75sK/fI7gXXLy2WY8FZGJ73KISpDY6XoqbpoKkmaAtq2N1CN3qjb6FXd9Hb7bCF74z
-tuasH8Ly15zGHZB/LwiMN5sGmbottz0TFtyIXVWQ7ABj8+NojaTso71nw+gpoUmi3FC/xpYowBjT
-IpYiMqEMqgU4uuAp4ZscLoStoMU0YiNmcOcg0xJp9dUlozSa05djS7w6X30N0wmjzf8l70yWLDfS
-7PwqbdqDwuyONkmLO49x496YcwOLjAFwzPO01Gv0qpd6DqnfSx9YzWJVWZWsuZT1pmhkklkRGbhw
-/89/zneg9e4wIxIyyghsocjSpuH42jKoSeJ49RoGGg3pGliCwjvpfXenlRGKO2Ovcrwzz8WtFfhs
-9Jyu1AGLiL/oh4xzhGJm1hxkgTyXtw3FijF0l6wO7zhOIS+nAH1cQSbeCCmhL/B5AuuMXQBq4QRi
-lqnPUDE9df5lrIwzOBpSPMVAzB27BhsYd3YSRSD1LO8yUhLDxlqkXNhDcu4aLGY7gXxeRIcWLAKA
-O/4UuArXglhlmb2aQLv57OR8tkPWmkFcP9sunLm4ZbPpedHPoQmeyYc65yQPsk1mDS1WwHjfYXJo
-KvM2wWYI9QJgzcxELPmopiRdUv9H77g4NBycK+3jEFrrFoe/mAfWPDDEbO/cDEPewgimhrNS2rbF
-OF8mSN1+Ii+0oew7w8VZnbaCW2npIQN1FxBIp0LHtSKS/MFu0l1C5eCUmMec94lg1cnjjMpf1y9Z
-2a5F0mB8T7j6mnxDeVec8TcRHvOSwzhhcXXw3vvZecxoMs0ZTJQM8M0H5X7q1Y7TdJXp7pmc+Xow
-W+p0aGByendNbSYLp+xlYsYsTLSszlQnNSdbau2oJ2Cvo/5sEZgam+mqB9SOMiJtJxc/lVSfA0yh
-XE/4YfX6vVu6I4p+YmBwGR8HxklA3HB1B2JC+oZU/22a2BkAjjbYSs0s6zqW3DsSMnvyhQLwlyAy
-PcjwDn01oG7i1nxonPpautS1lHCMfYOy1KYYad2e3shb3KceNYywARY0/qC1V+ULa9+BIo2IaSMt
-70WPsyiwHyrf2fuVEywBsdhIpDkbTTc+iNS4RQn7VVYhZ47kZepa95Tm7io9eyxVuA7BG7tJSPlT
-E+Z8HdFCt4Crt9qBEtplJGucjh50x0l/zNkFZxSr9Wr6HKZHSd9plEQG1On6VRq00rSJvUgsEgdq
-wo9J2dy5aeJ1X2fQITJI0qyf4e7jjPY99g4ACmXzWEzOxYiptW3EbY4U+zp9tPTaOtA7/FkCjoRq
-lokv7kNeMK5BZckqyvgyjd6/bwbWcTP8uHXHilDNtA/K4BjWzQ+bdhfA7Y9RaG39CCi92zFY1iwd
-kHcW+FwOjstDW/EVdyAIumJ4TPR5BKQOp4tCPiDhO3UIFKbrAOR0Gh51nou41Z9kLQgxONaaHMWz
-67MENSx3O07NMXLCz6odDp5R7ae5K4YdT8S6W7HiD7Yxvu/BG5ZO530kqX5sAohLvNTrJr2TLtMV
-2Yf9mMZb1RaPYQF6Z1Bnp+Qm08YHPashZ8ffCTzhnjvAYpT5kX+wZWZc2zx/aJR8MitcJ1D/lqXR
-Q3AdWL+HZKSbiSOjowF+1Ul5N3RbgeqwhtBwKufr05Adk1onu4RDYCFRn33x1cFHsyf3IR26y5Rp
-XyNA0wQKX2oigCoz+EnR0n2j+TsE0W3boj/bJFcQQUoyhEjSlIA6E2Zrj4XfAnLJnYyMdzUwvLpD
-9gM0mL4YSv25G9ON1OXJK8ZDCwuZkXE1Ni2OZlgxDdm6BExaqNp3iTEe1jNVRQ6tPXWfroyM12mt
-iA6VBMZja7xAbd1VA2Hi1GG3Ws3Y19q5xpEHm+FHaxLnYTvJbyFbBTzWJf6qXrqMxLqL22+Iv4tc
-YDXx19PobroatJb1WvjDq9e6j7oR0bE94NzOnOizAPGaDXOEBccIWCkuBjN8Dcp9Af4SNeNoc/GQ
-c/9W1g73mhY6O81sf/hxnW7/+DB7Vh9VXuffzX/7rx/DP3/kxViREmt+Hb5+/7tL8ZVBrf76as7v
-xd/+m3/1H9b/49dfDr7y1Xvz/ld/s4ZL1YzX9qsab181+fLfJrz53/yP/uI/ff36uzyOxdd//y/v
-n6nKZk9xpT4aRrw//do8ARoQvHhFWP/Pkffyb/8zT5GQvj7+wX/674Ou+MX1JPOObpFQ8lyAgr9t
-wKiygcPMGGsDDWED9XuIhEGXTIlnSNO2+EVTJ3jy26Dr/QKzEMCKw+JqhjL/IaLD35l1uVoDvnU9
-/m/owLRY0P3lrFtoQxgLl76xCWtfqJ7zJqUJBNJSmuyMprrUrkF1q5L3WUvDHEVhRaHeh1h/DNS4
-KQpKnXGP0ioz7DyWwCZie6bQCYcBATkhoqmV6Xtncy9t9WApswFiOA2LuWW2lBkgkGZDwsUzOoqU
-SEaYtOqgRSUdZUVMtGtUryEUwgUjFgv4KD1kNtUBpMPEwqr7F4kTZ/D9YwSxBPqVt5v8SK51jG04
-zo9kE+liY+XkesONYjtzoTRto/KAKCnMwapkLKuNg62PyFZirZDnKafibjVcWGszv/c07qp6l40N
-IXNFvtF58APjS/fiUxejUMmar4Mpd88CbZsF0WPd92skWsxX8nFit8Rnck8a4qGovCc7xidmcNQc
-sS1sIp+2X2+ehwrS5E5hveqFdynwtAXsUhj0mr2jWJEX2UhN8YT9e8RRGFcTxDv6NkakQQ3T6oB8
-Cuu0uUdAJ63xFVra3u0tvOjsVlpjCwYZu4ZNzlwq7rDC5r4ApL/o7Ls0J1Mg8A7hz/Rtb2c7zsLA
-w4mOf4ihSFkNVeNRiRzAVqkNP5VtvWQOIQKNzARNdV+1Pu61mGYFHSYxh0pAuCM1XC5RdXftKY9z
-CoFUr6+mqtyEerWJzODFhTpAGzjmyPYt5amI8/6BNgoC2sr4UVf5XU0ZvIbpk9QH3SJQb5Jq4Ojt
-FrbeXoN0AEJAvI4EO5dPLofhFZrYfTaVq7qW2yjs17KMnhrRPikMrwuz8sGEczev3fGulfVmyJzX
-kZw9/usnxwajkA7IBmWebCq/v8URLewudBMCE+sh9HaFbv3AAsh5pJGE7h9wT+A3JrrfjtVK6fFm
-zKptZQHbK9wQqNS4SQkWU/12EpO8GbInc5L0r3UfUwHd1T8EfFlOgvZoJuOLxcS39L3x0/fCG3wB
-BTsrBbCXu/PaBKBCVmjX0mHB4Cl5xhlHUxJ8PKw+rcnQTdHn2an6Qym8cSEbA1uL3Dkjds++z5mj
-w+hY2g1NniyyV6JXt7Fl9xMUw1dumlTBNB+9M34Byv3IPJMjm5WHRaeMVbBhQPy16mIbILdmjXEN
-GLAWbZN+e764ayGWLTB5gBd1r/UcZ4pz5zHpWOARKUMOIww0XkrQYlQYkvcpxT5swYnZBiK2D1i5
-DrqN79MQPtafejgdHN4bEec4c9rOnbiWm+qc0d+DMbUtYSHowVYLiWNghJsU7h8PJ5mM0u0MwIuU
-/h4qeTImt6R0x4KtVrwVSgBz9q8zSy9pLIDfrr1Jo5HuqdF4Hhr3rYRm2A584J3K4OSFGiGH5t4V
-uEeBfOEuyhwQwJywxtgcgCet9HROiWvGCnz5sRHEl336sIeg2ImwfLImHv88+mrtnyGfXs8s4RGG
-mGApsjOG8WSOYcxohqXbkNNxpCxsS6sNxaGTOpt9eSxD7Fb6yLzqxHwWqjEaecTIEIXzKe/DGgMk
-fsoM9ttT1p0r+HUopxsrMo+e7EnSo1gLzXkFm71CNj8IurrcARpjX5wRRNZZlR5lr62GHv+pq23H
-yrnJMDskabZCdaQnhx1CbNsX+vhWkxHe22X10ynDDz8qaeKr91TrUYdOVauYbzTUAVpcYjodGBvO
-tKuObSJLkLyCkSuRqnYJkpLlgQBpIUTk6meJnsPDjX8zz6sPr3ZfE624WoKpVYXEE+1Cv/Yt2LEp
-50FR/NUx1gODsdFGx4C6izDAmManxUnLgp2IuBiSQvAkxKvkOh0Wo1m7SqkTT6vroPlzf2G+IsW3
-c4xurwg/l3LYpKwAXBfCZT9yja7ziNgvN3rNDDbAUB/U4IJxlC+tmT1VbB/RvMaNlsJsNSgWHfv+
-sZbYqeSwVgEqacJdcsq+J8t8sn1v01rVKZsFHi276dl8PrVkx50ZKtHQinE0o/orzqKd0K0TGsAN
-KAYZNpMCEs0PXmlTAiJWt7tkECMGVCgR1NRk4DA5jlnmYTxh/WElOEnlNQTBteyT5jA6PeqhHh7b
-FohNC411fsOj68GorY9R0eTHTqOpuPTuqNTDuVY8FxGFHNzsLxAAX7hVSy7vdr6Akvnkko4KG/Im
-WY1DwAb3KaCCogt9aTrhbF65qPYl6X3EA9S4t0TwszLLYyOtsy6CW6OVsOWSlAWUwzzAHpNMBJmA
-FNt31CB4aNQYud1bqNW3tqgvI7qR1eHmVlqp7YqCOL8bnIvcoZ7AWo66s3OUw0sCjre0LkVo4kkz
-ljHG8CWOAWwi6n2MzYew65ptP6dj0sTC5oUgrAvjZJUmdKS623C/wtMCp3FkFdab6XNTYHCGDO9m
-XFuCfpuM46Er51UfIRfuW7tWs26uZ3xorQtmfOQIN1jVY+L3uE3glGAeiUXLGSu/lUVOwjezY6kS
-xAxZn/GKfsnK31NSuhBlvp+gB1Uu6ogMjJOXwTnvQmOrZTTV1BpYOS+Zn7Am1KcHK5WCgUVtXHbJ
-XAHCrUOpcz9h5mZdp9iAbU0cbKBCYxWQ1xAnHaoEZASqI0r9qehTQvOs8vdT6lJZ2121rru3hbJ2
-eiFiuDggko0GWl3RO1jnGd6pK99Tt/YeZdwgyEpAK763AuK0hnnf1t7TJHSEl8LwMLLCre1Y8BN5
-5XqDAuSY8CplepVI5hhNxueYLZu0PYgqIV6k7s5nSEfd9N5pHzqMoX2kM/ROa5tnvWOdyccvA0uH
-cSObbsiyaquVJGixIFKSFcKaIc2ADhMZARwrzWUU/wrgJGU+VwBLXtLafnDSnAxY8MOYCHbU3lql
-xX1iqENYWR+979y5Zo8ZJ7knyPgpzOyHIxvetAQ8MvM6MF4bRX40QwqNzORGEdxhcrRjF8Q6/KaQ
-UAi5GEAP5mUU74XksuSTW+mFBwrbjl+K2D7KwN8Drz6L1r/DWAULrZrGNc1QDb18+o869R9rxXHc
-BvKkSCBiudqV5CA0Yru/2p6COJILrehRx2vnsTfL1VgHGBuRrw2te2Bvuyq8SJ+v0MRfq3Hb1cWx
-NvGqJl56xh93pF/wE9nvLhwcvB0THT+uOV58CceaPTweUVrHLXBg3CS+9U6+2UMjrmZDK0USMKaP
-drVNXHvlAnzx3f6uDl3AGo1BCXW+awbSckp05nboU33PT56vIQ+3rad+0Mel73oxW7T77CvTBCDw
-Kvv0g7jYteQyqUptcNQqTMhcUUIMA+6bV0XvPMgvbWR8ar040D89pzaLZ7MeyKvSh7RIy+EhsQk4
-86e5H2IJeiV9FLSOLaWF2OFV1PwaSb6FGJptZBO8pCB8Fq6QxDEbclKaedIwnulCnTuLdAz3d4Im
-+kTgqoyTnwl5EtdOj012++Oj8P+vQ67EEvmPPZ5/QiUwvL/HefYPdrr8Bn/e6bIDMRh1sTyyvv19
-0rV+cecJ1xOGZVvwCzF0/oXX0xTQEJg+8cKxCf7LSVeXFLPiqtbprrTsP+T1xFb6t1tdA2sAC12L
-AlnDtN2/oSUwS5sDblBeAEAIY996tEbjJbSIwQS2so+DnviUmZaI5DGksQgmcRj17i6KkFI5RRwk
-em5kVn4IY3MLYYQTe3IO4ch6KOvDS5qHj15EKwYOwblM87Vq1XNdYq4H2KFmqblD7C7QnjWHbiK0
-aNvOdi7adD6L1BpqtYNqnYydB9QQIbuCeo61Odp7aNylq2hjZc3axdp5sophZ1tI9j7dqdnIhB5k
-xsbQknNkd2cDDK0PWTfxiiefMzyn3ZycGFO5CxOiwp2xKmqllgX+ez7qDtM6iYQWc+XkJR+6Zd5h
-bd1kfbTXu2Q/FQWvaxj1jdcs49AgnuEJTsssf/Tb+JKV3f1ouDtbb960qNkPaf8RWmD9Q/xpNXc6
-TWXrkkwNb9uROGbXJFtlhqvS0dJFzMKPA2cDU/KxoXI6ErS5mIKeuWSkiPa1zKOzV9d3PdA2Fgq7
-fIipyXG1vWlwcQuJVYbppbS4tHmCPHKz86fiRzo3ieoFSgW1Cxjo2DNFT94oIZ3FZPrxdVZhBMeZ
-hEtRRGz9mhMXYoRrEuM1sc3YaN4bVb+2o/tczTXj3NRaevVESM0C9152ksAVPHB11raZUAG1Onv1
-UXDZQ+/TxoBFbOEIgCk8LXnExCI0IK+mFVtH/40iAF7s4cbpxNnPulXSOJRRFisp/Odh6tbZKCXB
-fQjmNbRZLIViTWXwm4m3NhTFU4mdvadRVBnBa4dN0mg9BrNuN435SEqPq3McTSePWqPMNQ9tEN37
-Npl9PDh3M/u9IvMwdOFPJ/JfKjOzFoFpQUTKlg2caOUPlzZlY+pLAIett2pVd+wS+1B35DlNFqoL
-xxrAWqW2tTPp3dR9uc+ZAQhhXxBl2XZHm6xrDgbI3dInyjp/XrqJTghzPSZ8//PSrHVtTmDygj1P
-7dC13Gn8+9BHNmKcrhTpfGkSRmlIBrHkU1AdyGF4AUc2EAbDSXaRUQy0O5jXVC/wXfr71gsGJgY2
-Yho/dMVowFaCq46F8RLr6bCUVbIvc4M8sU5cgkuSqZ0VcMyYQgNvGnDTjjvlcHIZU7UyGTsYNdLl
-VPZwuTSyN9BBcMgZ4stBqg9ye2eFGkMj2xUifBAWaFQvkLnDnj9phY4RW/zpdqRvtZJgQ3AOXIpP
-pYSp0jhoQC3NhwnPzTIsyI1q7YFC0GPaMH5T6Owb48ozYigo0zbLSfi1EaIXRILa7rZp1ZwCEXAR
-5eXh2SABo4PE7bnQqaPsImD2Bkm7Ef9cDkZk5s8VXEsodnjUZ8Bn3L4VWL7RP/Z6HL8EPmOvRhZa
-JWI59RhI8YC5/WulpSfJZ920ECPsZoe7qlTE7MSqYvkmIST4QCTChVsufde80RnxOmmIDcxpEBx3
-epu+Vk78PUjrqednW8vuVen6phyte4eW+LrCLFPmPtvq9KtLmo80e/YJNWZimEAgpIc4HdOlY3F/
-USYANah6ge19paH/xf2UiJXxxMvtXHoDqZWKxd1gfFhlQxMD7aQpQW0Zw5pO47ecQciorZtHVgeE
-9ljtRwllZHBDGs3c5qYsc90zOIIOeZBtcnAy+QzxmTWSfpWRvjXoXAlgnprQbNR8iSmMc4UGaMa4
-/MykfwxltZ4ouFWTRaYzeEyI07Rjvwvj+N1JoMmVYpVa+aWdxN60NXAs8Z6m7E0pnCczycZ1D7ks
-zPQv3klvJRG0mVGiFOXgsaqvkQzyZekk74mNGZsNwaIT6Yb26WXGtMLnR9w3dcNCPmh37ezHVNYt
-wNxhOclBDqBPNGPbdrSJ1bY2ez1JEUa0kZOCFQ5kAYk7pi6qq61RP6kQMyFElpD7ponvzpowlrBM
-CPNg7efpz8GJXspUQxSc52MIMDFoh1zyiLf1lTv2hiA/KFfERhXhH0whXygwa7W85CbhADQN1taL
-yiq3LHi3mg0/IBjviwTnTOhSiKmxG8l8c2kTkSMPOuy4YhxC+q8c7tdEwE41f69ABefWeGhcLImO
-ZmH4D3a95dx1ZF8zZ0TksrZR3F4ylIzIhckWBcfUK9aTm+8qJz/rprG0u3Rb81c3t/dygh4K7oLN
-6s8xc7YzZryHLugLYImszjpcG7XHAdoTcVJa8BRNxSOLb2qNvTULvtaBm1MIC8xJyOdyWvucGkSl
-UY69E6Wcq9EDUEdILByYC1y169XcKsIbU8v0B1n4l8AhSupgTW7rC+yYdU4sqbG5aAPDjBHjSkJ/
-XLGjU4dc7OrBjEcuPksrOlVuQAk5KUDT2TG4QNTDS5HRNO714SajVJhd2M1QFlBKEOyk/QFxTKu+
-7DCOScK8PRFHndYsJ25eRjybQ9Nt8bbzs7JPvlt8uDPhoiHhbxEJIZSruf2NXcUeMtQBW8kyH9iK
-NXB1A/7ANG18Do2HwMObk8XhtDLwWhnYhbISwg9e+gcng/bS4muJ0hNz16IA2FuSpItxPjBpZusQ
-ZdWdFE+w9pAIRLQiws8dlNtRth9d2bxoWXiLqxaAReHz07N2oul3FmeInrc7UTsb9lSE3KiYw3In
-jHxb0LQTKH8bTR5HcFXuPF65ZPJJkws2mb21D7DUuhyZAlphUST0ukxb14z4SEb7pnA2TUWhrq5Y
-xcXbCaJSAp4Gag93nwI9L5Y9baakALuHXnvX+m0vsM/WFM4k+MF40SSUzkIp3HjIIa2v3xU9FcAp
-EopJvBc7UnbO5uNj8Ohx9sIBZZeu7CZ9ts3iwQ/D76TtN2GGhRZPGil9DjhRy40Axp5kA+B8hwdp
-9NXNxh5OQUx3ll594EO57gzowYZYe6wx+xE81IR8bac1NZd69mX18c4buPXSW7XuVPRkhDnJ9OhO
-s6P14CYrKl23qd5/jjRd+NwkVJnvWshLdQx/pYrB/GgST9WEdhUDBwL0yEWkH8n4ic69CxDoMfDl
-5ecYmLQl8N7Kp2yj4Z3p2JDmOJ0wPF/6Qnsv3f5gYwd0nHzbWzT0jbxRhG/t/SKYC+LR+mkeMq1j
-U04PuYVdTdmXoC63XaFDiaBMEUM5i97y0/S8cx1bCQ0QQAPnWXFga2oZ40NCBmuYZRQtWag2PDQE
-uFvPeOKsPYOnOGUwd4oRY0VSHTPSAnDuV8UQHKcG4kCTMEiPDn1OOVF3+ysNpp/AWO/Cbth4rfOh
-pmCfwEYzugFvsrPh4rQvgBcQHjFTizpzSK2YjwrprGQM/5K2835atFgKPa97zi1tnRvW2qcdu6Ss
-GGP7iwiDdVybT5x8N4wUS9M03wy9esB3vijN9s5HYkxaLh5dex8ktEPG/rZv0MsDZ48FcjUoYLeI
-HLtOZvd26G2raeC6oMFpRNhC1BSctL37FfJTjHGZkmj6TgAysDuguIWhgiWFryPbpUHEIodqYJFd
-R2t6oHZ1+yun0ayuWfDRUuPMJXQ4RYn3M9OKE7NRj4IGlrxjfaHZdxXSQ1/cWjs4NBLjXk6QTUkg
-uc5XQ7VW2Xv3VaBAqZVbX/MfjJHgZjb+ROvg4k8cmSKMkmeHSoQ7f/C3k9Kfo6LeBDZFPM630ZE7
-IMjuWP3Tf55Z3voPzPJP4VdVx//7f/3Trnr/VP/2r83/+Ze/t7/+fagXGLU9R9KzCez2T1vqfzdq
-i1/YF9sSp7Q575DnJfXvU71B5YAQFrUE+LIFUsBv+2v5C1O4YaIQGIz9fxCCaNns5P/aq23N63UH
-AKLtEgp1WaL/5f66FqqvGqvD1xlCZe0KZ5dq4wdWOZ1lQ03zCt/XZqjJhiQFl4kOYZjtpb6uDNL8
-pos+38dT+jb5xkNhx6DLdHnAgkj73aCPr2wWN2rs4WrDVslKLCmJjcO0TiUc/MLR4f1EPjHkPoc3
-y/3VbpJ77C4Q+QINyy6uLxv7IyJ9tUdc2+r1dKf7+WcWQUMsKuT3OY6Xds4t8Hp3mZlhdeR1DLXM
-ai/UODMpo2eprH6ugFdvKm9WUOU3aiM3fPaQGpk7A7JRR66lLcBeoAif6Q+nxlvBL5/VCNTTij8W
-Uqao8bx7uvdmpC40RftomyFmw5E+doJdE/oHd/h67XWCPQ+8Jj2Bg0L1zGPY+ejJXL0bzq1AVfct
-BFbhNlvhku9mI7LLZ/w/YbVvY06FhmDTe5actkQlD9zD4Ih1ByhdFtEjrpS1jjCSxzC7tQ4eKxqE
-ove3519GGj8Vw7Ru0uirrKfNILofpXRunTfaq9rvTtxWHjqoKFuZoC5Ycbi1s+JicXrBLTNfajRz
-0brb3BnfqVA8ZLPps5MwGx3n4mq8Q3tNv2KPPHneqHOh8s5UQe49UeBBi3p2yaRyuR49D8nATkb7
-0Q9hvxkmm/WoW+eUA2TarjdzKNUg/ZYizaFe9JipgrG7GJPtkylvHiloXoqB3JDUrw7lyGuq0WlL
-12JzL4rsofSwJg5s/l0rfRpM7VDWPJLQpYD4lzQ46e4tAi4UlGRd54xRZ7Oy1wV0diNfNVbebHhe
-2GSFXBuycoYHApZH7vUWI1/J7Gv1uYd7Y4Q52I9PVNBCsivPgWX+dDNOgCSfbnjFid+HzH4J2AAp
-4EhBa8ws7Y575FNlM2J6NU7IJr8lgdxV+SwdFCfWebuoozTDbMUxBTGyCOpMMOSnQLwHBymkiEdK
-Zxn+z/QScn1Hx81LgnSD5QJ+VpByG5JUwiO7gNG6WefWhFrORV9IdRli94LDnu7tXF1NwWqlmYyr
-bDB/2TL1D9j403WBP5zK4eG1G+V77RkUPZTHWm+hfKQvM58JOusubYDagEDkKl4k917RnT2ivL3i
-UEMTmVsYow+rmAiJNq17cP0Z/1tOFNoWr6Pwv2yHjYNjM9NzF2rZYgIGqFsG+wpHqp+kwPK4AE61
-ThTLJwGbLlXOr6QGq5jQpKa2Hyf8ECCvpwFmxTRMp77FxGvJGHuGCWeJS9iimOInUsRPLsDInO6H
-URbbqrV2bPSgJJfuxsrSHzVhVxNS5dqu5CGg4IUvhOZgpk7bb0F7aHG+ytuWSbtO2cg3q7BvjxHf
-z6QIe3kRFRzmQE+Lhay40c3UONqjj4veoxkuNnfaIG+zT3npEAY8hdN0pX9v0XdVuhoRi3CjJN22
-0tziRUtcwVKq/558dXQb3rUpH3WtwgtKJmw/dKpBPGC6FTK6x7WLMhpihotbDY6gprM21l3YtGol
-i1bstTQ/e3wYAXvr76MensnCcdmMV36fbFolnmX5Td3aTWvCV2zJe+q2NzgWz1JgENXyWxPSnmfy
-Ja2InQyL/zxXAIl/6x/L+ffVe/D3gA3zf/VnDd+zZ1+ZaTi6FL+yF/6cywLUoINDtvkfDh/O9N/r
-h0y6gpDVQdpx2Bu46X477mcnG2hiGohs3ca35v2RaJYh5lXBX5/3htAlRhTIjSZDjGRf8JfnvfTA
-O5UmZ5oWtQfD5RWmp+1XEKFRt4imxhWbAG2bSG1ni0wT1/5CALdCIEHq2hWJAd38PULJGs2OTgpI
-XwKP1twKaGxLI7wLY4eH+TGHP+L72CrC97o1l/VIjsVCXyvIBbIchNqCPPNG6ntP68HNYTIy0bKD
-6hjVDS0b+mo0wnNFwmIi3Swes5K+I1anURw9Ui+0EYn/NLjpp+QOb4TmQ19/+7G6t4cvXLxIiTbr
-LDMEC8Tcn1bJHX7bAXRquwwYcNiZvGHCWMF+7bXq3PXRWqvIzBrVIoYM2/Ppr+j8qapH26fxhonA
-nJ56TBr0T68jU2y9Ot34xc+261a+V1+x/xGsDy6JcSu1nrgUPSFBvU7YJDg7O6cmUqOXo0gOxM7W
-QrUvA6OXYl1gUSFKdIhOH7GeyoQuigBC14epkwKZIrrZMbsZz3U0PmmGR5irolOOCf8aIpQlM4DG
-g0RjQ6TJ7Gsq8NzCqeGq9+zjvhtsn4SFuIyY/BVcG8FBFcG5aeHdWHBv8pl/M4Nwcog4PmQcF0IO
-S6T9kEM9phUpihi9WxrNvO7cBs1bDBFYi/WnkZ+d0WNRh8BD2mqpQ+TRIfME8hbD6eGQ2qVweyz4
-PZUR/ERwQc+ZK1Ag/OAuOosGMQVRpzJow8n3OSpGyHLIC+4VXkPO52UPfDQJPmPen3l8F6ffTnsv
-+WeKzW3Qq5Xv0O6keUfcx3iq4wmBdxNYCj9PuOOYAZsYXhqksR50FSyjuR1ON3JQvy5MhSdTtvup
-pGuuqrnqsVeBiJRyyri4JWxhQWcGgTR8BhV7o5UHS8nXJgoej4P34vXpKTJqeBSUbsHtknm9HYfn
-CK7PAJzJ5CRuoY2c+giyiHXq/fKeaw9gNGjbKyj/CpClzB9CqE899CfV38L4ojeM2lX1jc577WZU
-1GRrjy4udx1Tk2V8uOpIQfW2n/lS3sWENuXqfKDUFd/pDx49zCHETzDxcJwQ2FoJPVvOFcs+y2P0
-NLIQp8G9JdCt6M0zZ9gVJJcHvXGuVVCfavXTi3HsldCxdChZ6UzLEva1FOnZVO1ZAu2tzKtXvVeG
-M+cz2JCLk4S8FXPXBq2+d4qHgLwGmN19BaerasJrbLE7IzsJxSuo2atB9fIJAWIvbQANfofjDwP2
-lxTlteBn0xGLZpbAcAUbEQQKsbWguJvghwlENnAfFWGrTBqHdKaMQRsDJLDgpQkrwlt0mX/yJM6q
-5iIJm6npJWebk38xA+8i1/tMoJllUM1c6GYKyplVZJQ8jaAjhjMbfM/qwWBF22qGo8UR7GiTHGRQ
-sViEEZf9ylFLdib0ggS+2kATqM/ig8sW2DOi1i92/tSCcm9RvlmHeXDaAhxAiTjQpYY3JTxyg1gq
-qG6186IDih+vQ8CD41lwsRzO9TXsjhImHPirRdp9MJhcWi6yTQUNp4JBrx9deHIFP7yerupGXqfO
-XJaasZ+gz1kxVV1tvg110PJYUpqRd56HRnY/ksAiLXU2YCo4fbYzwx3fC/lLnrSpuUV0HoCqhGDK
-9wQPT3pEBpGkeLZnJM26hpuXpD/sPn5S5L1w5dJxFte4uNoTmq9FwVEEfS/smgc16tjLPO87KALE
-Mk6L3odkrq8gUlhQ/DxofBVUPxDlmVxnNjUTLFGIxkL/G8rHLndO1K+dkDgey+TDqqyjhBioBZT3
-kLlgLepifuCrhS04SXBhcCWcYvEr4THD3ZFQivMyZ+kxpnHJ5fMagWNgcVrIxzkDFo2b3gdX5lpr
-w/2OwVW4KKtivPTOg22oVczdky30t+jCNYCdcPKARbRrb+Y9xzuVPRda9t7QGSIdkqEmUV29LtFM
-8ehoNEW5jU1zKwiR2phdQW9mC2tdFoC3rQV8N/qR/ecYCktT5w+1elVz5JIXV5SCJNZCbmI08sQu
-dMlil4ao0051n2ofsnga4mTfUkLtJ4xJ4tHmEzqM/5e8M0mOHVmz81bKao40AA44gEFNom8ZQQb7
-CYzNJfre0e6hVqA1aBWqhemDXqpePlmqZDlU1TCbS/IGI+C/n/+c71ArjPrZGCZepL3ypwufvgLT
-Kq6xVeQU+HAZ75NfXnWsvffcFFsBFzAB5cvylrde9h4X3TqBnBmE1L0V0FoIS6e1vobPF3LKldNn
-May1/E5ZO4w6IBq2NY3ilAWwGVwKl7uC/20VHxTz5fAaQQLQZx6ds4HXuWXZN+T3vZnfcwRKvox1
-bxqftC/h/V1ymi0admxyqjB6p/uC4CZF2M/aeDR7HlP4fclcW3XwwB5kXWb5uw+lm5w1WexDnsGx
-tK4UkahFY3mPpo9hauSOT53axPZnaKv1yDLcc9V9Y4Ke65dJX4J+j+4D5T6UdXVJiXa3eMLZ9SyV
-uVIWSVHoBde6QMTuUJY10L73Dn04lIb1mdhqwl8OrrkTsn1jV73zDYagqZx2kVu90rCwE3X1MHTG
-RubWK7WEWUthgvwZZ/R54t9GG8U0c96EW+8KKggcwabDB1lhQLWqfqlE2yTN9+A4S4tcllnedQYu
-eCdkDxQvlPsG0Nyr/YvbQgmZjjWYElrJD1ZMx9ovq/XWU3xCsEbtrla0/XacWkM701i/RyYmBWg5
-crxV41CbOiuH1UMvAZc2aX4UQf5OqmNbUJuV5vpxbOU5r3MomVAcKgCMRb9OPOM8EcVNDPfDVuMG
-6+R5tMx14lSfuOV240BSsNyWsXyfNPdeg5cexOWuY4M1oa2TawaVXQwHh0QmMigQmMsA9ClRwy9B
-YXMZyFNTi2Ui2PIrQk9wlsfZPsiTuspZlWHmIKrGg7g7ZfWZ4PxOBlyXuagJzJhEcWfy/5Qgc4Qe
-sjKXpKozP9oOwyRPzBBHIjFdLdr5/jq3o4sf43ueW17QeFczl7CURLkjtnXdOXDloYKOlDt3Akwv
-rFhAYeOqp9HACzeR+1lmd11J15FDUzpimEtphUezZQkXt+PiTh3vMiHnzFfTpX928a2W6Z2PZmN2
-T0MWn03sZ22JEtAOG1ANJMq/e91jPOTvaxsHj6+N3LQqO/kWVmJbmuEdR2kvalozj2X7oKbPGCtL
-KtXGBDXGJHXKZgxIUN+XDWWJafgYpjQy4yGx+pesronPVjwyRPyQUYzE+vZlGn5VjQ6soN+34a0G
-5DPyrvQH8ZFo9a4Jnw21bhPrFZ7pym/8pWPQNJZ+qK7BxkL1xi6N3/T2UTbfPQKYYzXXzLizog8O
-VJjppFa3aP0/XuyfDAgGXnyrK7nOoQeJlr0mVXEcHIC/29XUc8/AXOCZ0INodBitF2ncy6FYJ5RD
-U3uwqW2WHW24ZmNHNMxZaWACMvcEd2RVxvna1t5TRTCxERAReDbSDNnZ9RLNjSADS8Yz1BmQtoRO
-SVakG8cc79mKaayRWm9k8AUmd0vNJ6XTpoFi5oYw6NL5bc6jrsClQbe77N86OluUvARJCz5qN/C0
-soZuOQ4RDQE4LBhDCDQMw3CuDGeTcONxZu3CsIp1AJhnTJJHUoBkD59T6pSIqyRDfh0SH6A8pooa
-0nRFhsEiBWkHXPYRDktKGC32R14XUWwEN9LRKDpX3RpUg629jpP91usTdkGSgh6aULpVLG45y37J
-uD/luQUENFjHcbwhNz/r+vDIi40ZRLSbjsC5vZNGvs0bpi0a1jWYQaXCPXWC4Gv1FGKc7uho06hJ
-KioA6C3sUPPsDfRys48/x1W9CUBxdd3FZgglNa+R/cGfrhN2xWR9GDgGa2ObZOHOxUyQ4VZBo+MO
-VrKBCZ6kW6wc7bEuDpXCY83eJ5HbqiVMlNi3viXYrVn7Mu/ZXSQH2xz2LGkMj96m0uUk0jfmQPsJ
-urDD6jA06Gyr1jV7uz68Ccq7G4oqMMsUUNC0oLrI9CK8fFl3tyZ8xxS7yFy23+pUd1ejv4XO2cRp
-qjw6a4+qS9d4XIXx7eirmHRUHgYbrmk4VVc5RdoGWeAgvGuLXVr7pxbHFUlQinnc7IG+EPIWMOqQ
-NU3/GDLP0R7ywEFOzE69UNxDBmUk8GLnO9vm5IliE/sHblyWZp+xqDf/q5YvtXAO7Star12YRAlP
-KU/pbBZL+oWqdmeOKfXr3YOFARqPCuflyKOdd6BXSYomCc8GLm3h5jpTGbxn3381MuqB0vI9GcaH
-oYfn7pffZqe+WWDnJmQ4tUsy51mj/8VIza2Qw9Yvyo9RHFqTmosWgdGJotUA5JC3wdkKph6TsnZW
-jJaGYQIWbnZhEJ1kMfWrHKGwc+9zCMurfnDCJfVi93WoX7o5hVuVO4MTGNTCEM3abPdptcHz6HpP
-iTfRAk7hC8H9oF5CW3uvNOfNilN6PbpTBWjPDp6tOt4HXnE0mCfzBN+J96SlFXhDuSII1ITA7d0I
-NveA1tYoudJobjJxNVUmAgFy7cj9SV5iRUzaOSfFdDaK5BiqPdzsF/iMcGjHq9tw65+8S9gB9R21
-VcLVzIeySN93AAKb+tf2y0cdEcNbx12D5TvnbH/SiUEfHXI9aa/zYcUhTTwf3DAOa50PRjl7Y0Ki
-IhM4hdzCMZ5M0zHNrJUftmuRFXRxMnN73OTN6b4daWRqum03TuSuE/LbRrxu9DetNPpVb8dHxNpt
-Sxw8VOM5IF8PzfbQY5az4SKPpJSnJGNnqSHTGt5OqW/uT3B02A5niAEWko0joEbb3WYYmT1md3VI
-I1AYXiAQvWKtYseDk9+MOyiC6AWerxPbeXEEjQFxgiW9wAE4UZAR59QRuRjYJjqLI1GycuCn6kMW
-sOo17WjkzKggKg4lRq2J2pBJYs5xPo0IOUUPqLcLcuo8IRHQhJEs88J+5/32kZnyMzDSA287Uk1Y
-XI9OTBtNqr2FXMSColsq+W5Fc7MVT2lQKYrrBAgW85VdwNylYTUvgboLvYxuz+m7q3A2eElGkcTc
-5sXOvPlw7e2AD82zS8abnIQNV5cApF5T4tdrQKnDTFk1PT2cjf+QwcRY2CSssgiFGYUYZ2qZEOOi
-5q4xIR0kO1uce2Z9qgFpnieOkxFJSgSQcq6erKSKjp+AetpZd2HZDWN++tbaZF04V5eR19GOLXD3
-5FAQ7wthLDo1NCLvFibhqqbKMjDCZ6x6L4HBu9jqrJiwKEQ4Fd91FPeE0avHjUhLt5JvN7T7fHwD
-wyU2jgedGXa7n8nHyeU3RuAp6uNXUJHsroHF+deRpFLYliuHGAw/2bK3PiZ9O+qYiqC4UZqziyjL
-ZCJkaIeRYzdXCjMXYcNemtwKE17Ybn16YcbIuTdS0jlTy7ByLINL3W4koIcRid9vIDoM7insezoc
-KIXyyG9Up2GgJZmhA5NMNEJQNO9l3TP3G6tues9JkZTaSeaQDftroBhDLGCy4SGFIg32qMA3QuXJ
-1TZcjo7HYODa1i3niF8iqZYx6dUOx9cSZkv/bXKRip4t9wk79JrdIXnMNSyglV+2d2QLKK2xjNVo
-t9tWNI98nDYBe8DSP4UU4JLTY9en8YtmV+hrOyiSNytn/pFrOdhoQCD4AMeOFlus5DZ0D25FE6kN
-+tKblw/MJtV74s93N+0U0Jzptq8j5ZMlkjxGsk0Bx0+r0U320iyX5LtWGpOQ75ztDMvM1VId+bBP
-PjpLNzvEvC/TkGYLeJwNB4ugwroBDuVVm5IcVwH0zX5Q0vwk0FsmVKLZCUmcnWxfLVB79bDTjHir
-cWyF/XiMxmPinitqRqvIvJ9zFyUlFO6YI7EVR7unewrvbkom0Jmyj9gBuqd8SPlw7WIMT7xqGYvN
-3ujPqf1VUB0QtO8Fz0w9+bKbO9Wau8lkUULI0EXpc1uUiuKFCPM1pKplBidEzaMxUPhA09tzYrRr
-luRLG6T+3NiUpT8egJwO6bHgsiLGh8LcZzV+ZlQOLIOtfrWt95oAaSdWmT0RHgWZyVUxzshICBZF
-xXPoaHv2zWtpjECUngUByoygU8aTIufm6t4EU2UAxgaWil9O3Nd7UCnpKnXbTUPbRjNkS8+4yxmD
-Defi9iCCw10fSx4NjzhdtlJG6zFottXIS+WSqwtGSJ6H1Dd3zaRtEZOX2rCPUxeL273FbsYcj31L
-ZxFbI0g5S6PKVx7j3zAeK4iPVI702qkmAVSEFylox0go/wEQlpnAWJKFKR41KhOQSHSW6D3JTxdE
-rTKMZSWNxSjEFr3SjxtGtBlNyGzncT15Vdia/BwjFCj9oWW9ORNlixcTV0nWo2fLh8Eoz2FDxaa+
-dYdz0PTbpgYQ5b7p41tFZ4uXPjU2BzhLdSM5l0SZYx9Vb8i2Nv+fx5jWz0lH8KCiv5dRdUGAXnRE
-T+ZmDAPhgjZvRoUoxp9N3LigClDvYdeTDudR7H0rzMXN2G95Es3NbHn+RWHjXWFUx0hXh9B4jmDT
-YJbktpNH6wh7Z1xcRVMd/LjjTkz1kHvnRLT34PqW+alH8s4RpbjD/eDCYpULS0QIfxNiBPZx+ODJ
-xdA7eQCV5c2O93RkZ3ySU10hYy1N3dm5YAzxmdU4DkveSvXZbeqFbKs9/9tAbi2pYK5YT6nvfvAG
-NSjAdayODb63zl1m2dgFRLKdGRyd9eBZ6J1jPBeQXLBNTjG42ap/nMmmo3sNWDObONm7bAKIR/83
-SJ4W2f/e7GKoawg/ssIyKF2cX+muJwXAYVXb9nnWDAt1JIJ+FjGXIupNJkWT3X+dhZ3Ngus/WNh9
-1N/t558Hb+Y/+fvSTv4GuMHQXcnyDT+MAdDw96Wd/ZuQJth1g6WcIYTDou/vSzvDsSWMxZlK4fwB
-pej9BkJRIJpi3yHH4zl/ZWVnW3Ou5h9oioYLw0KS+2FHCAVjpi3+gaboSG1qKyIJGMrF3uLhHdfj
-GszfwOzr78hyrjUBNyx1aVMy3KPpoVSWKTDzwK4eYzhcSgAD8PPgiRv4La/Gaom2zKLbX+g87azW
-rdZKSz5VjQIPL/zqeXrHDFSvwZtunMk7SMDrjQhWWQO+qqmfO5lv61ydVDM8jqN7LKaB1DmpoE7T
-TnryPTpACF193El7uI61SScWgfsOH8uiMbOj6LIE4z6rJ81clf141/jiXvPoPsRVvOoRqnGLPtWO
-vHqRdqy4CEhnuG+BC9u+2vvYejrHuLkByrrx45rUB/l0ALusNCnu0oaiBFeUPjtux6PJ25shKiv0
-8UOZCQSDMoLUkXK0TPS6i55jADVL/ykxn0j6JAg5ryhUuCtiVnaNvkAWgrPaJO/YyeetHMWfmkm8
-0OKYZH9AnP3khgTtXGNjNQHP0yB/Zmm67Wt9L11Cn3Q8qumXNgsfCjEXD/K2Th0eTFp1sEa1N0b7
-qaH4TmUYciq1rIV/pZ2cSupqN/hEitlChbgHF25t8msC2avw4wh6aKru6AfI6C3OZMylzikqjV2B
-TzxNSIoDKACl637EcX1Xex17Gsk86RcclKF59FQJBj7M2XCV+SZO8lUFeU0N4S1sGjyY9IhjPTva
-Xnxv9ExtrjUQR+alaB2CugUnzBruM97WEVAlE9m+hwhuhMl9FlYkaqLyKTCrE9x7Lr/+44zwjmpu
-g4rIYqQVZC0jhyJA8F8LEwyDaq2Vzhd3zGZtFTg54/TZGKxTrw3k4NuNzjLCNgTimlucHLDQhfvT
-GDrCPOgl4VFyixYFuGsw8hGDVYyWj9hsKTDrRYmXO/Zc5r14a3SEgWkKOPRtcpUpRDMf4nkt6Wpr
-2NeI1igfJJuNBX1XWMAAZ+40JoaJ/uiw57QlwmGrbulY1VdE2C223efQ0B+EwDnWmxXJLswpjIJ+
-xb2ImkokOxYGWn4fQkFl6aMdw7E/V33wUHcWP5brhWssHyRwtE9dEOKuI0QUifrVZJF6znXb3jiE
-VoCKzLQ5g2SDide21fJjnNLWY4idwoetedwnrUR3rjI2njyNdzNbVWY7ugxghFnrVI061zTmAEPi
-kqcPgbWwxyyi8l2dEWnx/fqZpAx94fZPFU2v04jci3CUenLA4wMyY5SaSVWdWrtu8qHbw2zasxne
-6gvLBMgbJMmhksrlZDKpiLJ/hStogphjeq+qw4RvhVvE2q0hRLiaQyCNrsjSC5aq1UBBsQ8vZYoB
-th/2YYXUFCX1SjXU/MatYgbBwwPlKjLbs11U4bKrez4bwAuCDOh4yS45rp6TSD6GMthrvMR4E5ea
-l/MSNXzcgCrDfSDvMDQPuY3irKUvWQHzoQy/+slZhTH2gxgkoEzlc2SExPKTTz+d4M+A+Y5rkH/8
-3S48+X5yVtCStrZEJRs/TFAC/F/QvJ/R1LlCYIWQnTgaFt2CczGKnvlslWiIjWvcPJQV9z33dV6I
-g+4xVkXZFsIVKyDgpkanf4cmV0Lifjs7tj7NkcktsgnG4IKb6AVsGEHdhsZZ7pVewQJg8MqVzLiL
-T5VgEenvGjU9ZVP8QA8AVFAbEwcjBSZv0vOtSxApgE5aB/FPa5NM7ujxSjPQA3l48kLAq3P1YTl9
-6XK8jr2T7AsYEBcT1hwSLwZ3ujsVHZ6Gk5/jBt+QNMJviK8LZ8QW7zLmUwZax8lXOvKhbLtk3Dau
-t0YjhaoFQlbn7xmy/m0oG21oAlvokQ7Sv4zu6gTfm9clbzLSMQi0S3/S31Ro3oeevswmBS0Tfsek
-gaYHMrow6ECrVHTgFIdnUWpot7q9pYhkOdbtHViHx3bkr1cP9gbA6DEFqCTihJpI+ItElbJjlPZ3
-vWrvbDZMoeW+U9uwix12ARgmHZKDeLKmXYKnTMNWCkgTJkx4wO3DlmMobwMqCrhIizsNb3srdA8Y
-S18NW9O4XVZrJ6Y1KKAwDb9hRydbBcmV7JG5AjNvE9HBSNaxvaZ+d1Fq/a/ITu+bBmKmLj7mW3Rk
-GNco1M4tDvhJ4J8zQgrYDPxpIQNwYWB9S5wO+aNboZXjeneajZtmlIPHV6y7pzabG5Sy+oC+DqDd
-+ubxt6Hw987ifRAOzostUsTCGm698sFJ0YxIjcMpKd09Ka6Hvp7QdZ1Nxr14rKprwMNnkXTY6UTn
-Mimkxc5oSroOuikjaJDTs4Dm5bOny1ipdsUAW4MTp4/vTBt+A1Sja5VxeYAPTlY1dD79snkN2KsR
-UEcx8zS2dhrDcKOF+4KUiVbQz0YL0QKZZ8ewRhKQ94Zl9rc0DdahsJ9ajti6Jjz11wfg/9wsNonb
-7P8+Jv8tpr76t//2b//6P/57/id+9vmP/7vBTdqmazL26iZG73mK/neDm05RkU3FAl2QNo62v8/K
-xm+cVRJjiuW4BJAFM+zvBjdb/01aYiayQWmThjDdvzQtz1/pH6ZlmG+eKYXEPo89Hm7cP07Lqh+p
-KmdLRYNmzzU+5rgW1RXm4qI1w60qGDudZnpIVLd3DH/rJATa+yltyFL7X/rg1xsZx9NFNyTkfM+8
-6wn0zR82cH143d0+f3PGzEf584bH2gTw3WPQCKZu9oxFbwXYKatNjjlbBoueIK3vFGss8TrGXki0
-0/6oTPI3ff7Qwynt4oH+mghfwSx0S//CZLGvHcgeQ02rW9m9DZaH/9WqH5hJOQsZ0LuUHuucBRXh
-80uvJw6KVrPV9Z6QuLM1Wue9LML1EH2KOlw19lsWDZdMhq+1MK9ua58zkm9otOrGLQj3PQNWlL9b
-LRxN4F1a3nw3kD5bpX2DipQ04Vo5FgH1MQFwbr3hnJh0gIQuNie+a+INc08a4TkgPzK6b0aEXOW9
-+gYT05gbySLV9Z0TR78E8RPyXU+a7j0aJkWY0vFuYm6lgA2U0K/QYmOnjcnZWw6+Fxg3M6DdfxVJ
-/qQRWgbjsx0VPuugRljQNHnoSHGeYouTQE3xtcpzc9fSKDQG9isPUUcxFcQRW2sv4sqOYXrkxuHt
-yqi+r13czjQ4wg8SDlMYp9aCSfQmVNRvjTGf60IAOwOO1gMdudTjKUW+/WMqsAhFPXIV04+eJvrK
-iK2FZop0j70+KGer8NTnlNCIc2Fm0IGDexHNNb3JCJBPACBhUjtAP8oXrpw+VJg8SGUf6kp/yBJi
-ZhKxN8yd96mUFeawEnc52bZtOTrIEfYtM8d3BwhPpWs3CkgroF3TMeH65fcIeGnwxYZwWo0D1kcf
-6fVhSpl5pqgqNxYPc0jyCe1uTCXB9JWy/oUPpnlwQ3iCBzrDHZghdi13afutYFKZDthj9lSLuhxB
-76pEPSeoOw4dRitlFEBpxYpT6lgOJdBhD+FDlV+VxhHkaCCJhA5iKZ4YrAsbAEqj3G2ommMOH3/q
-Y5pvbaRabm7weMlCG4+EMTgVR+fgD7JYty1XlRw+CRvlU2iUG8cvPkctOOq9a7BnYBXToc0nLUFl
-sNOIyjHERa/8YDRbiBp87Gzd6OZ9q9dsZYpQz005m8ytm7npHkzwDYLo55ias+Pu0OtPFXbVjlS9
-7PMSri5LXdYL/Eb5VCoqe0usq75tXjDmxwsYQQsAgiww/RXIIgtLEJuBbDCPRCxtM/zhhxPM48Ou
-i4x9O51CC4K655xSdq0pQAIyk9/AHjcmy6QpucFi6Hdu1rw2rICWDfgKh6JhN7h2Bn4ls2XkhK81
-DzAPgvu+68GcD9oXV4Q2L4FLzWq6TwQtIT2JAdUZqI0T7vbkauWApSTVX9M2636lOj5Rtp4DX1Tg
-9rHL6gws5suBO47VkkamZJuiA8beqWSlSZpxWw4IgcY9/cK+Zl7kWN3ZDWbC6NISQWc/xZqfRB1N
-MzBTMdHzasCOHT2cliC4RyqTci5NVrp33Yz+r3gesxadIGJQ2eskQIvA2UXfCLRqSt2Y1+Td4LGL
-BkDOw/1cMdPJKtykzbAuifanxltnUcngFQsVvYSMcq2z7ewIBmC6GXHg4A/jhdpAzgJWt7BDZiOY
-Uf1FUWaatSuCFGdrwFfpzH082q7tnEtC8ljleAhYcon5viFnxwzkeNJz/HZEYol1nzCB1+JHFo6B
-+EqIfFCavZZ8E2ZOyuSsaW2CY87ntNLo7s0MmyJdWQ4eYnxo3s4wqo+kckGhCFC1enhfafIzqf30
-Tmn1O6GZO9lkvxzQimnrm8d5cd2l/oXieSbMPpizg5RO4diRIcXy7LyjZWy5t4A4fNYrltCpftE1
-sqDIkgvb87OlK9t3ynIh2sf+MqzKRz9sfvpqfPej+dqjufuoiJ4KruaRTo9MquYAKmlINmllPp2c
-gAcJycGTVblMhFiPnAwRFnIg/XVad9cKAPk+3U7rLjfz2UVLXXbfH+IRp1AGfTRkz3Tn06Sz5a6p
-oyfzIngDa6MMrJGyNOpbix3UmJVlP1e81LEzcxavVXKTvbeUTX4IhQGn9H0aeMmrYkU6fBEjcmmj
-RJ7vdjSfw4Maf430JqftV9EP2yJTS5uyjMAqv4yQP+17qzH9pcZqU2T90QtGPFXc8arjZH1b1n0L
-wsqPzkAwUm1exfaCZ5jaxKq5EizDn0QCjRgpEDEe/3VNQ3J8w1eOP8shANPX25BB1YXX6WsKLOg5
-sNQSYx9o4YGu27ELgdgYHW98BJzSHZgdJvd5cCTiB+wPDCQvYA8hOPW1txTCxnxdYSsN/Po4kO9n
-7fn112fc/28hS/+hyPu36ZVsxlcIWObPi3P+rvVavxGmEELX55wFqu3vw6v4zWZslR6zqYFM6vFf
-/hDGlPxLEEtoxBCW/pDOcH8joMmfg3gsHLJu4q8Mr+Q6/o/hlWukI/kOtmN5MEdmovEfpV4x9knH
-xEg7NU6VwLZusu3v09rexn3tY0ftsrspa2CfB8lSDFW1DnHsUphNfKl4E025Fra7ErTW1RJaIFjD
-TTnxRM/wMan0ixKyPa1i+7bx1yKJ1cJujX2vhWsDeGCvrEvjjWeimWtpawevCXAk17eJc0142sXG
-Onax7RoQIGoMn3o/C0kyhyuPDj5MIxpP+hp7hDQXQ6gv6szeZ814xtqzsU25jCqxZ+5jEVpcbeqz
-iDnrN+rIgBZweqU/rm+eoEqDdI9UvhhqPAPJ9NBSAFhQ9VM3qJnYyddEzKmxKrITXT7bCjyDoas9
-DFrAqanzWAB1hBkcYK7VTqXAIOG35QHzF62fwQV8v4uIKZ74HV9zbTx4WXWye405f+Q0n5ii6ija
-N7CMrQCFIvHik3K4/Oa1ONRtWa+moEyXmeni5yVlHeKxIDqSsi0GwcD4MnTs9DCRaT9aGHyV1oRF
-v14qjeOmzXHpIu6GPH71rvjq7Vyn0OA9MznQgCBFOMmsjwIL1hYR9FSLdlshiZiw5e3RuugQjwYl
-bpk+sUrjJYb6vDAa9PSarZrHg9HLyKcYHQr3mFYrayzvkwg8S5ttg874CKdu59NFUyb47YNWnjM7
-2zsxYR6BLuRF032iiUUTKzRZviMsj3KID5kP+MFKJa8EONdIfCfjeJwwpSZTTo5ugr4nR3NHB8yj
-1+XtwjaLi1MYz/Ucxi/yS6U9QhMLNspMth7TMaF9ODn5R6sULRs4ISDNpEuXvoHBiC9g5p5mj3A1
-eogR6dmAJDhiwTISCV0Aqyq100P4bhUu7y6r2iC4LnA+H4zBfabD+1GjsDkPQU7EsfaS9s2NsnrY
-hu7a6AEu+3hCpKE9RYFaGXCDgiK56pF4VAr8dWpQ86NBQOzoUFfx2QW7lZDz4X6JtSZy1nqvvQ/Q
-qdKmvCWF92Z241bk9YXWNLyHPue8kd6Zw2fVt1hkBXLUtO1jTD9ufMt798mK9TNAwW2XAdxs6Vex
-WrAGzpNl6ksug5ABIHUEs2Cma8kLVpwXQe9Ewz5QAk/T6aOYkLc7SCddXVMIpG8ieiss+is8drTG
-oD/SGE3wZa64aOm6CEqa50baL1rgT1qVHvLB3kIwq1hvGvcWfRm2w10u4J1Jj0YcsP2kV6Mys2g7
-Z65dGjd0SF4GcC0xV3Eoq1s3dHNMyj3LuavDiXf8yPsRc9XWnOs8ZNAvMz8/97K/N9ru1LUZtHEk
-rZImEIH3jf5GjyOcNKOWBM+N9kp7N11Yc8S6jbQbYcm7aEbBWaF1yCPgcEFibiNocRYULDbF9kok
-RKaiGSmXM5jD4EbUYy4BdYoWX3RA4aIZRjdl00sKnc6Cki3BG/gkJExskXH1EwI/iIAgQEF/zlxt
-a8FTm8FAPbAEU8uuQc3HekR6xa5uYq2tgCs0QBZqYAtDmG2t4icGwdAXLGxNXNZtoe3R0B+yGPQc
-+uWnNQMc5IxyiI36lMB2iGE8dDPswbI+ddgPYVIuM1gQ4zjcJGyIkLcZ6HOmBF7vGXFdTOOOksKt
-zQ0j8NofagkXEbSJovqhiOGgSCALc8S/q10r2BQWl/7eza/87naGPoOO0AZR+h9tiScUukVIQq6D
-dpFBvTAFIZgB+ZMkd2mrW5ajtCKjSks9NLH+5ELP4FV+mT/ApqttqOqifUhb25N6VlA3sAbiZP5p
-gmxDrHwFNYDdDxt5WB2O9w04DHMFD0NlbXSIHhlkD8xcbDTsL1X2mwTyR9b0n27+E1CDiU3Pvg71
-hNUVVEgBM8Qe5j53ejdhiRjzwgm2SG4SuRLhWcEcCVV/imGQBPBJRpgkIZcbC0ZJT4BKm6ElcxeQ
-mjEmGZaXUn7XM96ktBijY2141uoK8JJ5KSGhtNV0k5V9RFGFJc8I7fqwmOx9lEe7YUapeGG17Y2O
-7FF/GGCt+DBXSpFd616s4kIn+YipwU0opI6xt/fgWvoalpwLwYUjCgx8xe1Qp0x+S3CdXyTqL/An
-RsIZApPF4TKGCpOZ6ChQYoiCf4tU36YiWwVcqxJM5CZUmR66DNywtT/jZkjj7Cr4M4FT4FadkTRF
-G0PxnBk1cl0P0aYkSoiFgZizOtsz1KYYjIPR5+/gDTZKxhckcOw8dnBX6GyscvLWpN6yjVWGT5AL
-FTtJlKfCvocu9NZULCR7KNwHLWt+VMxTF+T1t11ia6Fb4N6NErKZVr3KKDZZ6KGOJjbFW8rTYKak
-W0dxSWkwMYRmwVqayIeNZ0uS+0vgX01+y0IPgSM2uKx1wzGaiN4z8jtD4W9r+Cl0PhQsU/kkydwV
-i0w1r0B40d/KrTnR9Jz3OKc1mOverKVH0kYXMYxVWCQdRIX5tZ9wUXFd2CcWqAO/Gj+GOn8nEr7l
-PciHFONY3ZAEaIfsg2Lcq0zcrd7CSCxdvK5ViZeIRTfLuSSu7ltBjUxg8SkXb2NQHWXCZlC2ePes
-TyWzkfIo97Oqkq0y1RM5tA+JtFh58VefkgTSZQ2wqzL2IiFaSd+Bk7Z3aRi9edy+yAJkx4moIyiZ
-tSrTY2Pl3aEJpycfdJLUz8maSvN9hsmTNk9Wr4+Neiib8V3a+qttaZsw6TYmvcxO+R70cmGxzQSb
-HoVvmUMTem4Y7968hyor3kJBoy2U2b2nA6EX9u0Vj6cPd5w+EMKOSmfXQznBSUt4NA7cctJO+Is4
-XepZeDXL9i2qMZrqj/1wKYobdmjkKqJHoU8CqnaeVHHysestdBtmp0HfuEl4oLZwrVI6bQ00c6FI
-mkeWoucRjDutXN7CY+vma9WjzM5R5aJJJNcYbJsbtWt8XVtdkxczZiNcsfle+9L4ZUNNKr3wIrTm
-oOnpKW3jJ30ADRjYL9Xz0Kch6R5xFTxMm2AjzerNT3VogvIOuiMIg2bVDDYMkdT8CFse28nOTUtr
-zRGK1NXd+Gu/D7FBMbjmWXcBMQZyBfXP0CAb6+TFgHa/1ZnzQVsPRbS0Ke2rwSQISgvIJpkRvGVD
-WAdp5fZf5/I2V6L8v1YPu+K7yP989TD/8d9XDw6rAkkO3hTsCYDmcBH7/fZGFYwnTN2zbIcVhCW5
-7v3h9iaI4nvun6F0sOdYlufZxu91qP+7FOf6NwMOfTr08lCn8/s//1PeZtciylXzL/9s6XN0/h+M
-OkJaLt+bXlZwHNJgZ/LH21vWWdZINV0L6VBVT01GsNroQ0H7S+ov6vx/kndeSdYrZ3adSg9AYCRM
-wrwe78r7ekGUhUfCI4HZaAw9BE5MCxR1SUpUd1Bvin5h3GBE/VV1Csj8zN5rD2TOd3MMdExUoLHZ
-ie/LNhu2s9dER3iVtwHm/DWLXButso+MNOSBLRxr5j7P3xq0O4XQI2IfY52zNJh7462pFMeyxS4Z
-1Vsh/GfPENtyZgJqAtBcy6b6rW1QkXPgfnV9cF9TLYqOQ4DPmBeLPQFD783MNo5xiR6BeBDtYS7S
-EPA+J0tJyebP2o8WN7HJcmClq/nWI2x1NRPitsuMllAs1dz10EdqO2kwIjP7kFm990mfEKV1Uq17
-H5XGJR9IvPENf99YXibpk0LgQdW5zDykCyM1bMpgpB1gJNadSbVTYV1xozzYWQU1eJliwYyG4M5u
-LfDqvU0+tYtTOtZP8xREe5X37AXjW63RsRbYeNd160PUqSCl9xDgqUmiO1fM4aHukdj3C/0iBIMR
-gMOITfNKUwa4YDI8N33tC4zs3o9lO88GMA3AixtYvOskMC7sSj/ChboRleA3KrSe6ZBuBGCObiF0
-+LPrY/bFkFYt/A4fkMeUeckOZ1WHAh/mz1zUxBzmFA0t/gmdnXVMOm4BGaRdGCH87fv9vHBD9EIQ
-WbApoErvZmH7Z3/Q7rrp3XtKmINlmcRAAiLJhkBAJIFNYi+UknDhlYiFXDKMgAMXlEnVY1aiXa1Y
-IlPzlthWwI6bAFAE8KF4IaIs4YH2wkjpgKVAnHs3aZbavMBqgQLGzZp9teBVAANJcCsEHjyQX7Tk
-+7CO5gM4arRUKwGkRSy0loiYYH7bxfXA6VkuTJd0cUgJ5BgZuJey5iSv4b+A7t+STsOfPWAwSTAt
-mgSkznhco5WUEGSmxP8pqtfY7gUhgFAZxoU2k+a8V8UUfQ0LicaJc5BD3mJ2Ga5KVd4WUvG8LPwa
-iaqWENT1DNgmYxlIxMaZMnI/oorKAeDgVME3CcsxJ01oM6G3wHMGLTpO2zs/HjcJcBZci0mB9dVl
-twPLfaXxarW8jdkYR3v0XC49N9neTtu+WWZ951nmQzNgTEiq+7kNQxAEPu0U7TMh7++koaWsPdxD
-QbO5MalD1lJmNOsHqJGIUdqzqzOsFGShefYHqEMssUtOUlBkp6LVzERJljf9FIV1PsMtLenJchP8
-cbyJSLH1y+ZMwtFRCqYYmudHOv1PEyVyNc1Yd5wFrIk2CgEtHgwjAbKtZA6sCy9z37E6K3geRFK/
-FxnMgoDQY1sPDzWRVdRY7aWIgNU7FoS/zrjGyxWtnYqhLCXazWjRT/SlcSzs6Vp2ZCclBi6gNBk+
-E6/y12XfE3OVY47Xtl+vnCl7bfRokookEbwK1Br9lL2TzvoLW8AHJyhxtkbfPMJsScNz3fa3I8Gb
-J1vO3xwR/pqS+t2i6urdghhMZh6zgzBYCPM4QCHIDI8Ptg0/BctrhMh878D/zQvzBm41qmWxKXRL
-J+wwVnaHF2wzEPeBA6SfJvCCDdAKVPgWMXZAU1euZXwEMwABGc0v1YTKR8tQb8fQfYUdsibk90Dn
-SBfontE+IDTn8GoF6KWpJqBrMdprN3jt9HRUPmKKhB6oabEA4bvbERmAxpB4W1d9qtS3+B4BXqLx
-tknN8xAkivSQ8naex4uR/ia28VT2i2mAEC7PZfVUiAcD/A8Wi/5RdFO2nbJgOGF1ca9b13myfMjE
-2fhVV+M55gAZaQBsXOKEYvqk4ziUTO50JKPybPe2BN8ACznDt9Nr0mvNBsoHimr3rCwWpWmghusy
-nGM8juxzAr8ZvlN+8pkejme0sb5UN8AnHAx5Frb5Y1eq3bajDX/TYQcni81/nXJoIfL8Z+UQ1YAy
-hp8yU8M/EWMs/8IfwmVfLvJkYux4mn1JrfRHRYSeAv6/5wry3GEJ/n1F5HhLbh5z6yXq/X8pMRzI
-gh6gQt8zpc8XQyH638qf/6gcCv4yrP6HcgjsIT8VhEOLQE7P5qf++3Koy/JJxXnYob3L3DsYpMDF
-jdret5VzJt9iXgcj1Pya9G5lsoS2U/cFyMYmL6Or2lG7dCgOEHQPjsyoL/rXKXLZbhZgppNjJGnV
-p3A3Bv27HxnXVpPvaVjAiKXP4cyYqLOsE63quk1+YWwzeRz3YhgfArcCiKpZQAIX8di+uL1zpHVe
-wYLftsa0p9EmPlyu2oZTz7Y3DHC3YyB2XWC8Mp4jSbP2vkTYPwBDfBlzzkhSBte6JfNXZNbKRUu6
-Zt6Alx8myUgL2w7VOTU6kCLRthLeEVdLvBaquFKeOieW+ipMNuoeCel1WWzKMng0Au52v6O/mMaA
-l7Sj/mmzSu2MOGarOS14EKzF/QQA188deUiETu8iZZ+lsbj3JyBg1oL+J0HeIkCwakZ6NN28tHFF
-VFRr/fY+K/psxO9sWx5oUCXZljUJQdVudGXbOPsC4rjXlV6wz4T7FPYPqO5Xv+Uq7E0k4KV/NiK2
-6rrK7wuUFU1rv1s9kzxDQc1rCxW+BTKvYcDFHBbDyIcNmHefcfygTjPOCl523Ec31jL0ImKJBr4B
-h6JseascZHKlcLDue4esyaieR/+oC+6TqlPQDriGYNnMh8LWLyESsQr7TlSxjgynB7vtHqrOQ+md
-7kgJy3DDxExXNLHeSV5ek9IUHUJyzPiAXILl8rOK2+PgW6QSZ1eyc7+rInt1knA3tNha+nBVF9Yp
-a3OGccOz6z8yx9tboXVVuAza0MUheCea1qn8HUXf3qy6nTnKxwbGQjSAAmCn8ePTaPYhcQRGiyJO
-4KIXqOe3RDQ+ZpTEQ2/vKDo2DhBglCbsst2lcYfFD1zdZjIukuBa9M6pH0S9SUnQxirCke8JUi+q
-bVvHC1CPtW9h2GCJkXyOxYyXSW0s4TH7y75mynrYVWcDHFBrtD/2FJKQZlbPDGSuAcIcy15c2omP
-Nk/3HbT/ssXtY8udYAIds2qt5LQTAKUjVq8u6/IUBsfKtCBDuviNswwZp5A1BODwl2gnbx1ohrdx
-XhQg0kmWmbLxkM2Inzz8yfDpibwfsbDLLH8sAzKWl4Fb7n7DyD4vmpNWdYg3keTgxG5f8Nt8DI18
-Xa446j4KXAzP1TzCwlzqoHp4Z491aRnTbAyA7BDwxhvYRI+BHrbFHBQIYcaLI7IjK/hTUfQs3D2K
-Zv+7YWu1nZTdbm2X8cKAdZn/CZhA+CnFc49Inoo3QpKLIzRoDr4KP3KN60jDmGnz3ehXl9IhirlU
-8c710cSWzrWcvKsIOEpKWFGPALZorE2v+t8ZAkZDptwmRTGAgueYKYe8AeGTO5Te23nzZpoZxr1m
-ZLFTDItyZrCOQ2UdDHzfuVHsqsw7gNP4GCLJB2yGx8xP9qCwEfYW5VcxMWI05HDT1Ogomf8mvQnM
-xwEASiBvNXK+leRbr1UefAxpu5t9piCdfTZqhogyRsYfSAb8qmB4rVMGIXHef4iSDnC00WENATKN
-uZxaykcL1U/mvUkP56gXLmb/+jmZ7K+JJQsiesxO2BvJrAxMMhTKeVPCRu5jcbRUeGW0xnos1LoB
-WkYN9GqP1Xef5qem6S+iTpFgJ95R5Bqy1JKznRJjYpF62beE3NuQPaz5pLP+u7FzVnL0DgbPoKae
-TUW7s7IQjgko+SyXp7bX76pFOTrwKvuKBWTM5xFhyZ9GH3ZMkXPMFG9lZAM3cx65Ri+DSH5GR/4S
-efIMIKyhXZI2lIjphYxBkiQBn3EsoYWALdRYvgsEvv6yy3pbecMJNSSM9/I8B5j9a6F/CR3dqpG6
-adJqN5GczojzuwiiG6jSD32bn2wwXbOipygrUPyEg6dkYeULOpLh8cYwqneLM5lubWv0NUGN8SEy
-2ivEHM+U0qxGOLWL7AORFX93zTlXImFpUJrNabbBU7/2M9/YtC2iKFOz32RSd4iWATmZ5QFZUCOn
-X9FipLdRHoMhEMVdjSF6avB9s1tmwOu5l6ql6Zf5HB0MiKyrpAIjmsjFqUnfHg6N3lSx+1SH0lhZ
-DdgaPzZ3Y8kvvWRDBA7ZkQ7iY7ufr6Is384WGRigsoBWzV9u7pH61cGgmh5kSOi6LJ2t5Ko1Io0v
-g0RDAm+gBIYELvAdDaa1ODD8Qm2b2jovOFBLe9ABuqfCYRulIk3ajXTPfV4CgzHLx8Qk9K319v1M
-MikLgEV9R9410BZWCWKAguRHnz3HjQVsKofjxZD32xsVtqqE1qi9xqKOVXuATCHtdRQChfWRE8UD
-afTzddX0D3YfJ6eBQbUqwufO6+5siXJ0dr/HSdxnBH5xiOF5ihj/lDNr6gCVx2Bh3Q7oOvBvyQiQ
-FyJEIEIwantXn1zTPZkmkAOWxCuDNSQsvP6b5RoDT4NWEBzUNbvh75IRpNW1m7oWz3Hob7wBvkGI
-ZTSZp5U35E8hSY6rOvDuOPxuUVw/D2ZN4IBj3JtlfejNGo2LcIkwYU2TSWZM0cTVVAz2j5b6WaTN
-m5MQXdJO5Yk1AX7/0ntuq4pus8S9QWocgDM//UVfyrQgAsZC6/7ghMhpaqKKWLu/pZ63z9MKKdcI
-q6PFc4GmDnG+xfCr7MF56DzcQcyl9Y+dYxo6F4fY2X0S2idfS66nNqBp9YLqKhd+vYFF95AV1bEb
-JnI50wJeYFcfDOE9R7N1hUz+1qzouuz2teRKTQKEOMYM0sqs3svWiE5Fn96WPlMFVFpAjeFCnl2L
-RKSpARgAJu+Z2iE/NHG4CCdVdQg7Sblhpqm5K11oKPg4ZnPrGtn4GFkoQufKuaMi/+10CK4gs5LD
-5FAHGKZnPAOjCrb9XBnMAFgjYXUjdifsoCwkLlJ+V3dfOrTv04m48SwX4X1oG/cyxyrXZsk+Uf59
-ngULzVn4mF7V6r+R9hmVYwVkTrXOnZspLG5jeudn8nPW6UI2jq4Dt8EqMaB3cKcUl+t4P8xZt/P8
-UCM/mGG9pBcvHag6WDwJlmMrKRq4LH57pQcXWjXmCRb1/PYlp1GP4j7R2OrDY6nLAwYWtLwDN4O+
-iVQkdvmc7FokwbkiGkp4Z4avE/sYZIoElqxtQQRVH+6pgNH9GThYp9/Cs28an+PEr0igI5zpWtbQ
-omSJ3SfA1Z3UklTFTL+L0j/Wg+2thwldg5X2t1Uy71MoCGAamVr0xA+smADvodmsM/SiaKLrHSnj
-G4wN7P9CDsvE/iLYA4GqL47laL7MRAKGVRLCLJjPffzYEMWQyObYNNRwtYmcZAajRnhKYwIm1/Al
-WV7elQtjRPun2WbCKubF875gZ5T6kE6+JROQpZ5KbwLdvSeu/RAlaHd9H65g7L966kFQDA+VPtVl
-eOVUebmbDJA4RtAReCLzm1SjC5EUWl4BfY1EoyN10LH2BsSGKeprxpahohePkYkx7K3u6gD4hu3p
-Q0K0LpXw/MzyY2dO+p1MsPu0AEEh6iOJso913zwmxniLihBrG8LsCBqw7p2PcWTqzE9wm4/uWRek
-5yJuwzt4Pc3+3tDB7VBTkPxFXNgHZ8MaP8cWYIfsVsIKkcc7AA/j6uCnwRWJGSenG09gSn50BG+S
-bO4jkUePhf8XuxYzHuU8OkJct0iwaFdauIvE1ETEz6Kzn9niql3dA7qZGULhkKl7BIIaczOa6efU
-SmGgjylpzBYudnhu+ylJnl0ZnUc7f5696KzE/FzGxrPd81a7BuKRTFfQ87qXzMnWJpXUqijEsz3l
-V/6cXGcJf8iIMBlLIrr3BOFUineLbDisY3b72Uj2XH49vDge/jOf3geFeYU0INq3Bi+sjg9SGS+B
-sNv1nEyfrdPctCYaWm809jEEBmumfkQojVcpunNyeR+7qMOr9sA86h7d+EOSO2cXX1APB2I2YxZR
-BlWq5e8n8zMdaX3m8ajm6s2xOvz7CwGBZO+dqKM3LK6QPfdamAiTWZnuM8rOUTRy2w5ctoXpcwaA
-FyWBE1CTSaKFh1E3yMmLtK9xvF7rOL+dMWQGXXljd2gummnc67C9Ju/yyRXf4CAgpQ+We1Mp+ARL
-g0foyRcQ2un/wWXz/6sCEWXffzq1eWz6rvynE5vlq/+Y2GA1lw4GGWmzLA2QAP51YiMXBSJGGFoX
-rCvSZ730N6s5thmHiQ0REgFYfb7ob/YZm/+XZEbWW3yh/FdmNqRRMJP5x5nNInIkuQZsxSJpXASK
-f+c1Z45dsjLD46pxWm3jtryFPfraO2jLOo4rU/NuWIa803gWlPSulG80qwDZekrvavDK1mV1qUD2
-OBINSdI1D1E+f9BWb4KMW4JOYlv49nZgKeDw1CILVGeWsWc1MRguCh9cRjIcDGfeCKo9xAxrTa4t
-WjNzNVTBRVM4p6okk1QyezEw/JVDSRlG3+ur7BQ6P9HoP7Zs0kXD/RfZr1x9N9IYDyK1TvgjX31M
-hblPNBIyJ+WP1/RCu6ov74eK/BoZImgej4Oq1kFcvvl2j0PxE5XP2qblFF34FMgf1fmPCzZUQrmA
-/3ffZt2mNBdkB6gWWGwdlUVWOuve+1AxgiI7L42VqGcHpLx5Lrz7qYpPsv7B57PtQ1IPqexzeIi+
-B120zc1DHxm7lIAmchnPnrOdpc1qKz+hGXufu+l6Kqe9yuKnqe3eerSGks9UZ/Vnx3iEPKH32uUD
-M+3maaydu7EhwDVR/X3dYRYV6i115a05kN81JCRmNR+l7rCWA9ZNIOo7yP9HlREBhwNCE/sKbySA
-A5PdLS7sLhVEdnONZYMFERqtnAaK5REu4/Qg5Cjcbum6YNvTUCcOFXBu08PNU6rJMKCpyG0yxyfB
-OC6BxaVEb26h+iEJqq61X3+Xdf87tMibmKVfWvj4EQOJUtfLcYjeg4i8VREgba0Xj43VIww0GNsb
-JZkahaPMLbrMl6BAkKlc61mOyZWt0aSEoBl7MokAVKFjzAjRsXT+YlH/ksj1nE00tPVSJRU2Xn9U
-8ttKuS+dVjThGUnNdnWKCw9qa9si4hzwJxRcBcGHZ4I+ZFy/tUqetdze1eCtCUZ1n6MOXQyUMlFM
-b/zqN0aGRzlFozIv2OIcjMIK5CpQ3GB81YNkZgibxLfb65ypQS3wGKnYfaeU2HB4AHM27hMGMFqH
-pKnab/xeN7VFSLhsgGC3qJIAi3mLjaR4JZ3i3fBqdrcBAovuXc/BxRPD3ou4Dllsc2NU1k1n0Ad0
-tKJOfeXDD8wUt0tQ9u5ZmOK5AP7dlfERvR3G9S8r9G7Zd9xoy7wFk3Jbe05x3Zj5s6pxj0UEY617
-h2CtOkfYwxyYnq2h38xmJm7T0H6npQcROKhxk2Y/Vu1jXxvTTdomj7Wyr4w4+4qySK/IZn0GwQ2e
-z1G3TSiZ2bnK3FW27Nd5hH6QRBrLdJK1roignJw2uXVhVwfk0S5SpgrEe5Kta/DSa4l0ZBVjyV5B
-8zrqrLnp/AKFc5nHu9ALDgK4Dhl675EumVGyHYlz/HgdT4o3EgpLIY8PbYQh5rpEvs9E7eG6dsgM
-UQPqttl8NGrmsTbwQmWmDbPefkKap5zTEBIsaTXtU6N99uo8XXDOmmrd5C3Q46zONmxoDWpZEqgo
-AeMtmiJn12azdQIlh18mdePdFKJ1cpn7ES42C7x15nNfONFGOXQVxTJqxVKjl34E2EVaqo1LT1t0
-AdWUCI8u5GK/K6ereRrCQ+NCBUDQNFyNZSHOwBbiNVric2U5G6+Zm+OM7gv2FryGOAa4T2fslb+B
-k778xTqem3RcA0IGHnHdbaVELeCGPak0oAykSxwN2aGcl5115vhY2WLEF0bTGlvZI3GzBxE0e20Z
-hLH3b3NLf57N/OH1MW/8dayGB56RmflIuRJoeUNCYYBcIrKSibnRVnhjkoVNpE77bKXGZ1E4yK54
-DZOcWVhhfqUALkgEJkOehzNREMNyBwOPXV5bUfGbWRAeBAmAoxEgRg/vp7l8jGfBBivQKwpoxGGY
-3oNyP4Z6Y9vpixU5p2CuXo2uPUZJzK2X+Wd7cpn4Nk8MPyW6veHM1PUYMtwsxhBPS4AmD0f6VSCq
-96W7z4x0W/lFtJqqnND35tRaxX0UFzvg0Iza9CMSx61N22O7YEYCeQb2vWaD4i4wNbbLhrv2Gv83
-hoywEn0HRbEoV0m/5K7FWBgVwfR57z3VmXyEysV+cFRrOxyuOqxLo/uplYNjXm/I7Gn2jag/+sC5
-8pnqSJpwmKtibzWM1uMFPBrKXVTkP8L/EJ3GUR4z7PHptyAfk1a3/6+zq/P/w6rvlJRISKev+M//
-Pv7bvvnzv3//ZP9kXbf8I38t/uSflm0cBmWaT+d/QoP+Wvw5f3KxAOIxIeoDxI/H1/xNwMQSyaYs
-ZLcvXJwofxR/bOz+cWH3L1V/uGD+z+pPYGdxJRVg4Lr+Uh3+XfUXZsqsanZk0OTIXIzTp1qj1HfD
-XyeoLpFDlGIyqe8o9y7abI+zJa8TxuerqhiCM3Uj3Bpvo6YK9uy0j60vrFdkzpP3vZjIsFZ5Agno
-4DCqtBBzBNAm+bedamspZr7C/VVB+GHDbqnl49TH+7oALd/azbET3SoIk+3QDJ+ZMYC5nckrRaGp
-oU+zpVtZSAoYAM6gDzOB9mnUD6qJThnUHMO5SSzrucmDjMEBI8yijRbAzMCgFJcWeDW3yuDKzz6L
-oOyhNsPXWTQ3mPe2nWVu/H5+nQj53UmzfClzLdfm0DxNFI+NjvDKDDcpSvv6U4yK9hN44bY2qvtM
-PGVhicxjvJ5s95B0X2YIgLuD3zLkV3Z/rauYeKv6OmafgzkBtukBu8shwl8XFRKEGfVxBiVonSl0
-n7mPoSdFFdFzcy53D7lLobq4FReLqgawNiXzZ4aN5sJW86aLCbqDZXy5d+VIkrUpb7C7A24tykcE
-IuXGaGccqQnT/7g3n81JHrJSv1dyeBqwgcRMlEwqSujb9VOlm1cbglmoBmJHeor1mSo1HPc8xz+s
-19BRVPNTQ5fqlshycze+dUMNvMWhyZ1FTzPOdsqyxn1YudiiKz6FqFn5+djv4sS+czyinblKAUtb
-H/hH1WaoANA5UEEJiTT46Fcsg6+slsdKONNZM7D36344IiM+T2b2g7GyQKWB7wFEDmf7Q8ja+aJs
-In6Bzpbrql4QqZOVr7ycId3Y2MvIwdCok+nZdZb6GMO5CAuDvVilg3sVKCJN0aasRQykws6CDlJN
-5eNiHt6lMT34FW1KFfKh56yG9kkgUiQuFTM0iZ677VPyQ9q03rk1Y/be8jhvfcZg9aoxvK/eQgtc
-uhO6tL5nfOW3X7ZdbcogxvbH77F4C1ndrntFikxG/blyiOBcDSYW8wT7DaXpQwKf37XEbYagORr7
-lzIFUErgNCum37hZojkgxaNN3WWonZslJz5IzTeX/UeVoz4PPBMmpXP2UJgzmyXvcqhwTFmQpaNr
-Pq7dHMN1kbGEPlIRYJPCO695c6Ohu9FoX9zQ2/Vdax6zTr00MX5eNzXuEGy5W2sW9TIpwnI2QtYN
-AUf19U2KM8f1WEEg9uefLC62lT9CX2Ws6O2Usl7qdrxxE2CNhb/QYlYtkTerQfBoFNi0GQt/+WZy
-DqRxKbpw17TVOvKThOhjwEDuOH1XCYKbeQC/KLFm1A6XpxeMR1Ph6KImtcx23VMDM2K9NQlt9WYm
-z0ksrtGUsfkecIAgiqnZXCpm7cL7FOVwzX4C3RBAcYhGj6ZE3dI7I+kQc/rdO113keDdVwPN10pC
-Ap2kuJheDpF3WrwaUn20tB+8kUtuEXq4pivGh7INf2vPgqDZvwxWFWykmZ8NG5uQWkSQuLl9edF4
-pc0GjULqJ/ZG0gThdnaCTY3XaJUb/RXP6WOVTnflMN47Plgayy6BIzrsTQfDgdcy1SPIVoWnAe1Y
-M4cACJtNSmwNfccv88PtEOk7D/AqGqXks2Fixianv+kzPR9Sku7BYCagw4KHkkimFQDwRUjqk1Z/
-xKx1oNK6mGFLrB6pG47+UKSXXQlzhsJsoLwLyZYu0FohevX2EfBY25q3IHhvbIt0dGMA2ZjU89FG
-bcSeAtNraoFyRLDYQM/pas2CYIRx4PUNfYx/BQjqq69ZbJXJZdGOFbbzbhZRe8Jy8Vwa+CVy4Nkx
-3FuyiGkF+Ih6seTcO0eq01tPy2PsJYdAkcJaey9NgeH/BVnoi51ARI4dcVVYjAPDtPtIXU7QdPwa
-murNry+qwnmey7PNQZVNwWmymAhjEMNL6LbRBieAXjHUxXhosHyY3dpE0Dlt2hlqWhXtnOxTerw0
-djTfVDRTs3ZfRtu7zbqi3pU8cZUXdaepwqQkhU1WrLZ/RYBmN88gIWCOfzXdMXwMq5HfH+yWG7lP
-o3A7hAz5wZZOtuuqjFVYeJyF3CWVeJdoR8FknlrVcJ8lxgfe83rTDgmI0uLDzUMmEzGHYofDGkbC
-ZaBDJxQehqeREWyd3AJuYQoRc0JEkTwnKcHVJd2+Q+pMBERNd+al8OU6M7ODgNPdeN21Gkz/pGKD
-KwgGeIc/ng0jKAD9gtlmI0AEHByDk9TJQOAWXNKiM94w4O5MoXfzEnZhVJihZ92emF/iFjC6Hoha
-7G0LN7sjxPOiSNwL5oZ8a/rqWpLqZJTYF8P4zansT0/q07igMln5ONF05qffu+Q6FmzDr1MXnFGX
-21cy75g42Xyb6CQz5W8qV+styYR6oxdI9mJNXdDF0mUoUz1GUfxB6Ki5Ysxrsl8xGJDMQJdIX7Zi
-Bvgx6yxXiZMdkS89QVAjfCCP5K3L0bk4vWYCCFdusTxOk/7qPKyXjvk6G8GxGtz3vAquOs0aeAR6
-X+kBCbSFCweVblVuMre5n4x23xn8XZjkb5rG36ahvS989SvYe2OIxAyDzrBKiz1wYcbpWCdGQpoy
-jkUW9OPZQQKa2P46xKiJC2+PSnZt0xtT3nvHqop4e1GviBLAauQ3X3Zh+4choBljUPzcmBR5ytRX
-nayehE3jAAxYIENyco7lrrsCCcL3DT5o8dalYT5aUmMPK69yLEsRSthBTl99w82GlfZgxOWSnHKg
-yjsEECo1sWkaeIlfbhtLsgOtt6hCtqXX3nhj9J3H0HNYLN8Lmz1BLpMPCyn6CJWMXFao/VNzjoKO
-oKwe+lh7M438TEU84ePtX5qyPCEuIFY8t2oWcAhuJjjk7CDjCcXQ4O592d8kvEntEF2yESibwUGG
-laq3yw52l7kJPTSRKn8TY7DnGNsnKcERqdgzed36bnu0LINkzfeIiASGRLAoxxVGI56HxNp5w0i5
-oZ4nXptVW0sypNtNpcmsIG4bROihxXnC5VRxJQxvWQ7fO8xbQPQMHmbdqes0j9Vl5IjhyR23XbS4
-xMgM2GttHIJGysNYiguECvJr/OyHne+9cKpplbUfdiJPI8tDDn7yJ1zLQdBNgssw/5KztAst8SQH
-A8ZBuJ1D75Rw7VROdK+NhNyGANNn3NyX7utC1FY5nhrAG6GVFIg5uEYsH5K/Y58Hhb1XBNbB7Jqd
-b8NRGfGNwbdvmHSoK3MYHuaMgcdESDYDLiPkxOty/TxVfbJu8+Zo2J2FOY7ZkFbRcYi9Q+LET0kC
-sGTy9cZy2WKU1LVRiS5EaCLemuhCGikjZxduI0pt1mAEBFqMKKkM/K/URPJAIOmDCod0rbLiEODm
-RPK+yKV4LqLMvGcz+x5OrBZj1Mq6RH47t/l77BEbxD/cRkiRetW8DSZ5rTPu1qoaT/Wc382KPwXy
-EWMpnXrlHVsYUV4rnAVWsrPdgc3pdBiHecee9xTVSwx5sxFm8+mji9/5tR0dyOfaNFMSrIqJaXLj
-EZRYoijblVNMoo4NonX2zWcMH9G+R7vdjh3kFOcqCaJTOPpnLIZ7UWYnwWXWUBQjZoMt0n3hVayI
-K8ihXlePrll/Kyf31w0aStzuhAd6465RPIuub6BAEIa97qL81kBI4MzMWqCQQotlOgCHpjnYuseo
-NfI3MJdzNUvgkPAjELoyTNbFsRmCljUClTmejib2z7QOt6FFwoyP19CAWowBauch59w03NuDaz26
-Hrh39OGptF9kVd1ppjaHntzZe747FMCuHNijw0OPTDgeUoNlR+pDTjnMgaanlNGVuTOaKSa+Kts5
-CcWSXaZftbLgoM7u2hrNx2G05E0fgelnX/rWRx9j39x7Ex1P6xB3HIWINJN+2kGDemwGP+dJZmVa
-GOKSLFbKofj9rzPfWDS7/3ctcqVGYnz+bdUQjfXn/57/k9HG8vV/eLM8JL6AM6BWeBwBf6y1vD+Z
-jisxSEJoJeHU/4fYUwSmgS9YbVHkoGH+22Qj+JPH4Wd5uKgcsaiR/5W9lrsAnP9xr8VMxRXA5xhr
-LP+5TD7+brJhdGXY2l6HewELFDW+QxQpu+A2CRFHTJc5ETCjcHZLINvekkYIbwO1WGRvmFzfSUEY
-Yb8oJOZxhNhWHR13xKHr4nEuvo3+SXvdQcbNlTPm18KHGSbInfOvM6YCVQo4s4JaFGDc9/PbjusI
-vIXectM+9WHvkeFMPF7PaRtW6ktDeIfnLg6aLhRq0Y1u28cBqwvbo8Ig8lA3q9TtvwbZu7yI+HK8
-kuzwbIbtQVIQRUsVfE6W8WSVyFyH/NAaPfcf7dpKuU/WlP4YFYPtkiQf8Atc7LZFZEljiZMK2308
-6b1EL2ErCYBs3LZU7scGR8CmMQAKdIqhhpxyvrIEQupmlDhlb1J2LGuu+leGdFqu53ANBSTEh/WT
-U1D4TSP1e/2DZuJCcQZfLe3vp5IKcMTsS1waFK+2ZeUo/gd555FkuXJm6a209RzPoMWgJ1eLuCK0
-mMBuREbAod2hgT3UImoBbb2IKu6rPpAs8rGL1W0cc0IO8mWGuID7L875TnkPxglfhEY4fFO/tHJg
-04b9Preu1AePMtOIQqlDptZJcaui6iWEx7c0bGLQh6jHMN5rJGUwNq3T4VnYQbQuh754dRM1LMTg
-bxu9uw9j2COS4cSA5YkdEy1+FFv51kpj3GUD/LAM2baobLjOEI1ShtPucPQHE1ubzxVRrQEKrFxQ
-B1yvp9jLDkTTQIswTq0zI93d977O71JiZnvZMY42jxFBCBQLaB+TZ9OShNHxNAjI2sm09LBnBTbt
-lCpq0ATTknaYfD6fi7LINO6ntmcj5JsyXZI94JKH16t901KylTGMpkKq+RLd+rQlRGzR4mbGrM1B
-PjCgEuRMLNJeXdM0XDXK+QKGunOQjlWDlAfGXCtc7Dx2TU+GJD9M43fj2s8m/Gm5baAklrfWRYfj
-wWc6KVV0hAaqR13WiNFcedX/WJCa5kq5/iXzMOkMLqkESAiC8WiV0SU3550n08TQ+BXA6lI++m/6
-2Ggdue0v2pNiYapp6UeskUZX7WTSM6TBEDjVFYlaXhSvE797jkquqbqdvqdKu2vwT4FcqTeZZhKx
-RGerDHUhJhAzillbe4lMFZzBrxhXdYcV04aSnWjVtnDTb6P+pWXidWaBk3n3lrTGpZemcczqDAiL
-Y5Lbl5HYg2xxYY+Rg2Q7f/REonh6ETJPKXa2ivgkajuBCilx5CroSKAchfnLLugpYXI0XIPVVgXB
-R1eOa21pbENWM2o7stlj8xgjZzG5YjOPKBHJ3d6I/JrWurcc/JbMd7sjzyuKDrzIO4cIvoThGr8+
-gq8GgvdayY7WB30F3RbPgEvYXmW/auW4dYXzbAXsr1qQD1Bx2WiqQmD6E4r9Zu3cWaL58nPvs4zz
-Z5MUdU9zbnroHLxw+iI/aKUjFdUdvP5WBAiOVdiKSUu07aIGosfs4SkHyNsdrmoPTluqPzo2acy+
-nY5rI4Jc3aTeEx/qREk28TaQlAU88BZHJX3I0Hjsz7EW0p0uuShodbokOJtgwIKeiBM+mieUxU9u
-B8u4kbVc9cz+ljyb5ZnKy1sgkoVuOcXdSrMIrPLolF1U0uh2X/HyRTslUG4aCTrmaWiTnWrMTQMT
-cdklULx5KEEM6Kz+Grd+yfT6GCXWwek9EoEc7yd2w/igVeUEdSJ70V2r22p+zgNQ5BqeAlLdAjdY
-G5q+nLqaZt+JvtlcrSx/ONaj9wsf4DxFeEwFDpZB2WeFG5/JLZYQ/zg6nUVtpb/1gBgloI3FiBya
-w5nf4rgRNIIt9vuSp2ndxtU4656xb+CR9/s9Pne4DO3OAszXNAOLRoSoJpvMgmzV0bafB+cWpdU1
-8r0PewLLTcbKCJ+c535XVfISp9B0NPWKWuqh9q0T+I4jXlsgeOLDtxL6WvZuC69kQ67nD5rTfPce
-RnZjJDmlbk6Ni+TD8eA1DeNzbfLepg3BIPbQvDZFfSkTDolMVS+sK1Zmrp1bspkK7ExHfVLHFO3h
-ZOdENLWksrLsPg5OH+H0qwgcxwpRCP8+08/WyKHEXUnwWGmUz/D+SXZMP7ymIDOPwThvw45wPrqQ
-YfyKTIz/4YhCenK1B6tyiK9MdqHXfg9hEh+bSqhlVQAq56bhQxfqYYKTCmnozgqDDbr557hRtNAF
-vL34Yofjmr3wQlnjkwmB1KPcRH4+ovfE6dCYxXMjtVele2sU+I+hGW0MUD68BclzNyIkcFw2iyYT
-O8BuG6WAzYLANwpmF+xkDU6GtZbJeyrpjTRmVmpFZpETTytHF+Uyi92LjRJuH1DLR5G31YgD0tvk
-aHBpAKtlK2ottaxedS0cIkvq90gr0MBE8Ns5k202jfLerzEgBs2XJ1iFunDWF9Hw2UZ8RIFpLgU4
-giqudoGCD5Zn6Gw5NEawnpVJ6o45C6G7eNP20KockIJFww09NHuNsw7i4lcfNp8WVFXGMQQu2xfN
-JIRn7BBgsGCoh+wwVM4DloVdT4YEiTnrvMqPuW4hepencczXflnQOquD1DFmNP4bQtkSeST3Kc1k
-aOgby0B8zGq6NFB3D8FwN4/gaYagV7fYgeqRAbCbCpiD5ThupCAKG1vqETHfKQs5Rd00irY6FImh
-K4ngIkRnKUlnsyBfWDBLMKXLfcxH2dmfmH6+J4JmXaGeG6MgC8zb1F6K0tXQDnAvV1OuccSbcqWP
-zYH5XYSc3tm4Df2G46F4TqfqaqlxFTgdMPOBH82UmLMa9z0ZjZcMPxGQJGw8MfNq/jpqhvC+ToPj
-P0+bEfw/24w/4fsW38X3H/7176rn5r/+lwWqSafgsRY352wVyvi/7E9t3XLQrtFiePz/3+xPA8O0
-2ax6NhkuvxfP2cFv/GuGydKTradl+sY/0mX4/n/pMvjSfGNgBC3Pcng4/rbLaMbQy0iAUqT6WvwP
-MUrwi29tYoulz/kbhtOpdefXyFBvjqNOWpM/I2/dUMaTGRnFh0l7Q0jHYN4kyyosT57P+L/382Uv
-jaMPU3gYyXXM/fq9z+R6zlxr4+EM1AY24FcAbGYJwJr2ojiSVpVTiyCYtzSP/GUSeUEMR8xAHLd+
-mulzaWF9pmgehs6/M7Ro3dbEIYmK6a8JMIlwrU1tOJtWuDjC8tWQEL6asbHkPWXftNR4yQaIBKbE
-G+HF5StBS2QwWfBps43OEVuTP0aZQgHIlpdNk+bmFLflLdDkOiRgz0yMZziILXMwb12X8s5UqIPC
-6aPWrK+hYsxuhK9pj3uhV8ivTgbWTQ9qqD7kBxWRE2vgmtHrpTewwkE1MwaIlMtiXOEfWeU4CSdg
-OxwFD10dHEIxcEpkxsIkic6f0LSEjIRVf+0Kw9zI0r6qGA+VlyY3fiWHWro6p5G4Bb18q1rhL2fY
-v9D0rUFg2jqa2I3Qo/T9dAjdVzNnW6OkcXZL7abryb7CfNob+KBiXV/GOuEsUboO0uzQ2Ra7UJW8
-tzDDg7g6tFRVEWcjmCvkJbH9jq6M/Rk8UWHPCKU71Yg7c2o3eG7YdAEIr4L7BtWyaBmsdW3zYEcd
-DKrJvPB472tcbinKIZKo1M+ka3s3q6p13ERLbET9Ismzx3xmDPtV+FZxCQz5u59mRz0KT2PQfupx
-tEaJsCrirU1WZJCLi9NbF5dNBCIjBbyvuTeSTRxhvBKT/aOl5U+eBzf8vXSDQHl6mymvWYzPYeW/
-VMQurFlQmBschq8RDn9YE/UiLhJ9qRCjBR6bprJ/ULFxX1b2MrR4tGKj2iZ+UWwYOD4HvrUvNIrC
-ilijQEdLZAaPk1J7s4fHTBbQqcW3UU/xnIG69nLucLOwqfj6bT56yyKsDqPaNgQNJgHhuTbBxnXq
-3jLo1AQQlGgHBNE31Wddiu3g8mLVg7al996q1NjVOP/8qn3CTkVPSPnids46tNIVXNlzazZPwso+
-pzBZIzLaKTLZOtfbhl2wLVgHWVV/mqb24qrwwUELJ+FASra0ccj4Uq9vY21t6rpCn6VX+7oiXySn
-M2vjrabbu9YlWzbIMTl/l454agY1W3TXVpP8JGNzLXVMPwoa3YTX2AjtE5q91R9JX6Cv8qreV/A9
-fFJks6Z57AJ7E2XmKuf4sVL9NFbD/RgQTJmER83n1jfddpFP5BQ50Q1lGyIIUAidWk/S471IHkQx
-z/3EsfEZEzimVa78MnsIyha6xPBpUBMv/DH97Pycf9ddkXpztafyGhH/PqH9m6KOSa+7iv3manUB
-pW124DcMFyd4YPSDdW78CZuRbQHhksor2yVwUB9U/1hi7vZeyzj7yJv6VJU2gtiJN9gS5n3LSmST
-2lTXdgQ4mfByQLw1dM30EW8MywpCSuIQpSDwjcRP3zVhnmNvekuKaetnvNqx5MP2qh05vY+kN97y
-LIqXvcifJvbnpOuxjx2jni+kE3mdgKlnKQmUvqWIqUFxhzN8DOlFukQcuetx9yy9DB8cqvwHy6nh
-4oQs4cf+Wc5pemYB17eJ271OgECIdU+SPGTTIygLhSLRg7ZZwkjJUQjDOnz3ZfzNbZYy8yXg2km1
-r8wvHosBeQKqXghnszpBj+FAGD8evTtLJD3aVGa3qmscYGSAn7XSP89ptB2ZyHE3vI95ukth+i+w
-vK8jTQa0m8XecKe1A1IPStAuqsuvSEdXih6QEQ5qh8iun3WIeTrCtFXfmPEapefWK+E9ZATIO5n+
-0HXpI6FEd3rnHecIGKVhG+vdcGmNPyP6gGzsnj2MiCJkFZzSser9LzEloIvmMbHGAS4c0Nk0kRtp
-q+VgsG6LJ/ma1vZB5xqYmyCAmOgulfcKO0Ws68k+Kg0hQ1QYH3mE9nFKcCeFzr5CaJe1PdU4xG4k
-GDzaIESYZ98FkT8rELa++GlEf2HFzDa28rK1Smwo82O0dgr51NQSTYAV/DCUhF/C5ACMMysBG9dR
-0+o1Mh37bfCnx6Rkj010DwgPJ/qJQ+1OdeSRGAD10i56IA0mWJTAnavReIjj8Bih73FcCYY9jPmV
-z6QpVk10aUXOKxGOiCGHK9P1cu3NuUBzuB9UJ3ebQA1aMY8jW6kjibehLB38a+di0RwJF1TeAPcw
-Pxhe+JDGJAH5jW2jOFWHOKj2vcmyNOzuC0egdM8Z4zs7MVYv9oBMkkp+M2TwR9m1Fip4iDxxLfrO
-WSZ6c7DLGlpI+1J50bNAzoJxElpae2eVGpJYglDFtGoHfhKsp75OVv3g6mdVefcdqfeEsMZYnswa
-jgzAWuJ+AiIp2wgtZKsOo0H2jHTncWGmLwIR7KmkdkyqDkLrDn7YcjXikS4T9OEW4hXGZoRy31lG
-+xyTzzGRwRlo4ZcVhHdjPuzCnpuhTfKWV5y5EYw5bw4vn9hON2IdEPW56MDdF/jLKuHcVbzBbcOC
-rcXCKlE7qp6FTtBjcnYNyKR4t4kg39QtsZ5tvyzNZmnBB6qG0qIXmHeI3rhz0rhZQZ8hHq81WYA2
-wSMv3rIuoNzlUn9tU/vDLQZuQ1ZKgxWuIhKVCd3c1GFERHkNgj9J+xvztM9gzM4FvtrQwXxbg6Kg
-Y1/KJngt826D7oR5jEsg16guJcNK4XEvdu1JwI8ZKtluqxFeLeZ7iowY7fsc6q5144PTlafJ8S9Y
-2DzcYzrSC3nMhPnkp+IaG9mz0Ilfb4a7VA1HeLh8wMNVRlQ4tVts+Cr0zk116Cd79qBm53RI3tIZ
-iKNN6b0dBvgs2HstYZ2f22pE1yLvgpRdmMwewe5+pGZZL8e6utPRv4ZgMl0/PkEiWZVzsnNa6OMy
-K5OD8KaPJGj59VeUkHkarJuxWUWmZADvMInh7FnqujqNqljrnGVprn5ig+MeOd7G7oD+1D5JUI34
-opmDhKQ4g4rp0hfN+yAQFkjcEpr2SYz4aUBN0ZGJUBkMzmViblqr+ajYS3t5dkA7tMfwt/Y6/Qej
-CGKvUOxFWx37yjsPJT1oMvmrCIHF0GLYc8PDFM+MJEQ/oreQYbAflGzO+9p6FbHRLitb3BzDOemM
-L+b0UHcMHxoOg7Tv+S85bz3VHqTj70KYox0Lr4oy0R4d1r8gdCHhW9WABNchVKmw72QAhtiVpDN4
-6HfSTSdVNCdmvJGKBeXM/OhzyOCkJNR+TJHkirWVE9sah+MHMpN1pMIfYyofitpIV/M3j3FhWSOp
-D9rx4AfdLY/GFU7+DdlolJDWRVP+usAnw1X/HBdgq6cg3JTGBC4jOSZwq6TTHssIloTwAQex45/i
-bFl7495tojsPzRwGn3idFcZ2ZAa7rAgbkT036KgcUmrUfQ01oPDGT5DCN6MIHyosZpJAxr439hTg
-HzoYRWQIzt2Uqceia/Y+YrkAvuTWaN2nqJsOSS4ffEtu7ZpCSjmsG8qEBXtsrzqjfbUoCTMCPgyU
-YqHItmFTss6YnmAjr2GgpisG51fIvEc79O+KMLuUtOulU3xVHlP3LiVi2pCrKSzORdystaC7OmG6
-9UvwLSUwDDJETD840GdtYmUfIUk9EZiHkm8IDhqwL1HWBycXbJLQNipq3SlIvmXmAbnolmmcrFwB
-joW8lunZKeOTERNAoKaf3jXfBKTWwO7vhMSGV9uPWRyvmHkfdDpFtwU0HTVb0yEukx6DRczMdiIs
-Bzg6E5fVoEAz9LA+q+aSJThF7J6gLiF3uFp+/fNMIWYo5H+/7FxO33V6+x+EZN7+zqJz/rt/HkHY
-vxF9ZTOCYGdJuz8PAf4yg7Bs07WCwLR0Dh52lv+p4Xb03zDoMU/mv+dSs7y/Upf4IzSurE1xwsKi
-NOx/aAbxp03m7x18eACZUpNI6+JQmdUefzuDyKuu5UoiqrwM03vRTJs+jFZGad77DnWfBwBssnoL
-PbV7rWc+rGYdmpHxtHD3ho6DHGjfKU5Rhabc59XQHGf7fwWICRw8nXzab1CHTOuo1d5EY95jiluF
-TXTVwvY9UCVLkzHfEcHJvkpnT9RM0Tk13AqgWvjWhLRBZeKZG6cv9iAYzEWPyG9h4ROh5FIujFZu
-f7ad4wYyFtqzoBv0TRmgp/DZ5n22k79h50BCdJ8eynGmq3TuRrn5nZyMTVviH6YT7QyACo6m7xsw
-+Auj00nRFm+2P76ISrsEPqVDRg5X039buHDnlS5fx2G5IOW6qEuXdZu9GrmnuZvxEafdOZZjjMiC
-MYAgZDr2UZiZPapxB0KBmIHOVeIghFbWF9PhI7fk0WDVrHIavqbcF061JnIMJR30hixSJ9J21gNL
-GVs01zDJjo3Vc6S6r3EdLHO7vXi0ElEarp08fs2C4me+trx8ehAj5DchzE3euOhSw2cVCFx9JL4c
-4ik91ZF6hTj9BXr3M4VtEhQW42Dkrfho5Jk77tUC8Mb4l+TMBMYGkggXE4/Rb1ONW3ec/eiqTj7Q
-3oDnFze99y8Ol7qexC8II/fQ4Psli9FVkY38K5065U3Pp2XvOtbhcC3Nu0YGx9TKXxCN8okOLmZ/
-3dkTrPRaoerueNA2MpuepdBQERmXwq3uhJY+WujDOlqqJjDJnxE7NuL3SvDJSuPguwORC+VLj7/A
-Mc19E2GOl1n5NPY0WVpuIHzKrUfQA89TBxe+n0fdOKrea0db86SmDIQQgZpwOpOJoO+m31mSWhOs
-VrsxK1DHBPBcTP8K9+QTP83aE865KSRs1p7Ug679yogVXiSh+y1wDnU4hSI0cm395ZOAHGcdwmiM
-B7YlLhoaE5SSzj5ESrvU6fD8vAsvdWchyqt4MPN9PrH7hdBlIBhIWOup9n2owAwWQW+vVa0ZO2kI
-plJZfOjngDOPfDBNzbW3BIHTZ9xppKF5fvqsAxoACsPlaSP7mjTL3eNsXGRUkih5sGUyEfGCR3MO
-W5sa72nw2ucK7r2fxN+5ru+mOZ5NMwhqk9V7M8IzGNzovgAYkJPoBi/zopPwJjpKxIzMt9ycTjMp
-izTaG7x/ODeh5yw7cuJqCNdRWf/yfGfTZ8GzSZ5cN4/ZcAhqXfUYAr5Bz+ucNEu/0oS+ZiTS1dW7
-1+FT96BIRGu99T6UCLYTKXYDXzVK6DkhO1140C9AXbKlVTYZaHKP71g+jHMoHtu8956UvE7Hi4te
-cJ+Tn2fG2Pe0jA6z645RaG6TNnuQJjhaz7wNCRSqxNHfJqmIcW5ifi/+yhb5sSTOqia9L6rRUHbM
-5jqf4VRk9sOTpUOO8Pri3dZsyUbR+ermQECe1LOfWT12KXu8+JpVIdafMwLput05UjAPSKwaOBr6
-ieWbFR009gad151qLX8wmcEh5FxFsVutCF/ahKm4FBJb80ByrG98hrPC2qvTMyGGL2pwfbJMIXSm
-YvwAK/IOIeHejiSOQHvjwaxc9JZN5nV8djr3fUojHCmUwCbi4NrgxNQG0niLly5pp3mnt4aftu7Z
-j4oMA3Y9Mi82jm1S7YSGkDeySFLKN91UvvoZNjPYGmMgrx007cHO7426eA8ddRvJojDNbu936mHw
-6jXABEBP2qvVWB9ubG7DESp8nDJ+HSU9DyRWeCoAOoyAELzwhVDdpQjQ3LdVcHSIrpBm/x60xnZq
-gpsqp2Md4CYIrJcoDpEVUhQness6WyynytwGKOSKPrqaOF/betwX7ndhpW9QeRcuPnXgadOpUYyf
-2M/vuxw1Okca2vSShByIGysUYccyH6Cc9kxRPVBaQpoYzC2xCTT1WYb6so8IFuvswNjlxOwEELxE
-QO6W34ewxORh9NqXmGkCuhsWesrbTyH7TgFj1G1IAx74imNyk4aHnht+F8DWa19GK9fM12gVr4Bj
-j6KguLb0pQF1nf3Fx8j1E0/d/p+nYJsJCP99wfantdHDjUoAcvjfNd7x9/9ctFm/BXDDLUAJDpeE
-PZdzfy7arN8oljw4X4Frz3AF/uTPxjsqM6o5xyRJGJb+/y1Pg3dpWtC+Wbw7thv8I4sjx5vJ4L8v
-2kwDojmeO8RzWP98H4zn7+VpuRfQNI8+b0q7M1LkzfpHm7zOKbhZkOy0MdmN4zbiCIzSK5LMtYWT
-iV5aOY9x0KE135py40Ln70W/jcdTmflfLcjbcNPSYxgRAnm1w6d6N5j9FQvqYw6e1RrWhPhqhDa/
-ixBkzlvhZhQ51lKVPwC5FiY5TEEHXUcdB7Ui5fuiUFEPNPdEvVfutKfNYf6GSdhn3Jc2u1SXK6JR
-dzm+lYbxUFi5m2EiPDIsjlFRH5WDSszdFJP8sMxkg5b/IIoPPXi1p19Ge0oi99XgrV60nm8v48k8
-UsBsPdwlKS6FpZ6U5PGpivaZUYpNCbe0bCDHeGaI78vzo2xoglXzPNRkBJeEO492Yn22PaHSxnRC
-z3eL8OM1VUDeN+zmAUmd2/m06+EllWKtVzfPHPZIGBmbOrjJ43E7DyPHaZpT1+OzhR93qVowii3q
-9JjCMwFSDlggO3Xk84Ua8zqUAmjxzObF1ElgKYL3OgIc5aT3be4+62nDzV4upTWtDVVsM7LlqSPH
-3WAQzCNnHkLjVt8WSOqF24Tuyg61aysYe0QZEpoR5EuW4llETmdX6Ute+TDMW7Y1jPnNqQagVG4i
-0H48CPIspnFZ1c4FBfwhMOXZZF8lkuDJzqY7z/wRTLcXZeh9ttK9M+P6Lp5lwNm0L4s4wS1s4Ni3
-sSnn9T07z3c9za5Ok1/J08XrNBM5rDQnNUWPL5atn52SMWbDmskfoxdVT8sGc8ZigtFntCaWxiK8
-m7yefFElVzbmBxQIvr0hDhMqSNeuYo7NAKFuZTarzrOOEhUGpKLpGGlfETpmQdY4Jsjh3Q6T14F+
-P2fguOiN8cxKZ0AtFnCtNQf+PdyFY36yHf7YMfVTI0GW+9Na0y2GQO7jCEhTT2akUGQvR6AhCVPP
-WCc9YkJEuZlG9UJA8Lfpw8O3IlRCbvrOeu7bjQnQEGQNLSbELlsx5864GgzYCMtgFT/ksDc4xwXl
-lzlQGfMtG+NH34UHDWdsiOOySMWrTKx7iuxtzISC4DCe2uArJdiWwmtaTfqc1caDFSSpfy3LYa/y
-rHlwp/qXFTFYG9/tBBwVXLMH0xW/ApXdMY3xD3Jy7/CW7oN5tlqN+xjeXt4lANiHVZS6eCWxyIHQ
-X0ZWf9HG6HVste4rRG7J6fJo+ShA0954Hwrn2Sm4EaE23HSlb6u6BLSACyOFg5X4DxD4SVFJccBB
-8yNVVoTHTDHOyPwOr72O5CMle9XsmP/1engVjfY9InAikoh5dhw+hiVGIbDdiLcDquohO/4xcDGj
-UQzyetZpUoAS39baHrqOMAH3p57COsUekfvXDN9DoJXPrmC7I1yiaiivnrU8WGbFWCxbHxhWmyfs
-LcnKJUFiW2Wy2KpePHo5ZKqaC92uS31hOuKgDOIAwhnbMAWbguaYrc0W58gpCtRXSEopA+el1gzA
-GIgsoYFATu6sJ5rLgD4SkyS9T2RiIgLbmjtI6TVbXwqDWq3OVrWm/wKWfbbn0sasP/Lwo/TNDyei
-KHGH1VwexjIlFbe7hpHP1Cqztq3O+lmPz4FIn1WcnypY9d5kv4nQ3ek9exOVRYcAx1aSFBvl0CZp
-PsMpa+2EqHkT74ksKawjP5GVHoDXLq1keOhtVAQNRgBSUI+69olQ6ivNg3VnMYds+FFadIxWCm6w
-TvVjTNobSxkAsTFmz7ZqjqZPGtDQrsd+urjcNMgBVlXkbqIoeCuUv1Fa/TOV/mdn8/p2dGSeX2/H
-mveBk+u+K0C9dhayB8QFNxgKi9qR+zIDfMlyq/LdvZ1o+zB0bYzA8+64GI2F6Jgw45ZaKL85RODH
-9bryVz1cTRrJi85624YPgW0FQEp1Bn3ymJXxOuIHyrNhk4f92RfmYUDltAsFU3fTegx6FItJwAFg
-t2zDTHPtDVT4QxFtndbrjqEMb84QnHiSK2xdzYuREXM/ukweXPRAxEl9mMyPtXwW5zbRT0A2Mbbt
-P7qhlnP3bCptWiC12A2u9+W20NFmBIY0p/BY9RAebADXrn3SEvcC+o0uBNSW63k07Yka14OPisyi
-tp2g5G8DBG76iEpWYgYTJpnFHp4WHhhcY6upS8/pWPsHUSVnJ6kzuC0uU1u3PLmT9tTqkuo92dAl
-8ZJignrE54ABxJVbSaoQZKK8axCV4U5xGL/g2WBHTcAeZj5SzYLiEtvgO8Q4j0r8JzWHy8r8oWir
-kwDdIZvm5sny26VZpAbY5HV1xeLeob1ax1xoWWKxVcnfijR8LoJDFiDhTSyQalE0/Wqt7iTb7INc
-jNc6BOLPoisi33VAYkpccGFxzY7RrtWvZUKOQXjPQuNktOyy0Eq4DLcj2IbY0jaAZchGH/Z1Mnz4
-HVHeeLn8mss3Tx6qkO20ypEf11TTIwe6G8S/WtSrjjTwMQfEivjyGefJu6oQ+/7z1Ng2pej/r8be
-3brs3/73v/9L+of/0+EGKZkZf5Og0Yz7X//rf5J8yjZan/+dv2i0CLSAcOaht3IZhv7VCuL8ZjAE
-DWZaPSWE5aOP+ivkwnfRZkHGsAzXBgL1eysIqAzL8nWDUtxBrvWP1dr/VaSFsQTAWaB7HpSLWVz2
-+1pbmb2UmoxghNrDKmMqDxRvPbDULa18b0zOSsRkezB0uVg42ms53pog2dRkhK0Say7GmP+tAq19
-51h6QP+qUB4a+GprmTyQfHNOiET0BfWCrzEAMao140QCb8qRMHtmrGNw6T0f5C1UFjjom145agkY
-480LJns7liNimB6vLpIhklY+pzbajYzCNAMeUoeWRoXQv5qTZRP81uD7HFxxT2XBO28XX8KusbuL
-Cs2wXSAq7l7xvm6l3+A7jAeosOaEFjqtdj0grW4WK+pycjDbItP08qvEvJ0MRHBMKj0EVoscNjoa
-ZnHrlNYy/FTXkMwss+rOqQRJoyHFr1pqD7N7RZSC60X3gVsxpXFj8k6NZiMLhpXJdEQ5MXNx+rfU
-75110xmLpqofkSCx9ADu3iHTT8lFIpZsoVVUUHkCOaQz3qWew6nU+720YLEiZtoUuvEleuSeHCLp
-um/EQcj2wJt+4DvBcQxgYoiBRhhQ1ndFpy2nPrnariyXVFhkcGgUqg6mUNomHUICpfKibdJXO/ml
-0yCu6edvnhu/Frl1iF1UeV3sXUY7xJdvzp7PlBFiFwSoj2gHuCmgVWNAhB8aJcdQKczYahOw/geA
-yQZcdOwYyx49RnJKY/LKG/0+q9lBkpOteJSQJywKpuoTSfZbhOIgaQfTgztRNZBxvXzFfHpjIrHp
-AY8EXr8uMm/rGRljXjQKWXiG8vtms01D51oANcr2XI8/iSrukFJsBxvzQFtE95mrv7SZtYQmuqp0
-Mmvywn5lh7EnWe3MtPe9qqfPRGm3xBkQr402iqDm1vhOvzbC/irhGFHggodL5VEkw6NtaVf4QQdM
-qqccl60Ygx2cW+gEYmnb6XoGVrBTR/wFzsHW71rCjMlfRwX/aOfNDrrEsuNWyIb6VEuS4zW1qRn5
-y0ZRsjTnsMQrI4tjlZtHKjdnEeYYX9w5NqlROhHgeFFHbzw7ghWp7t4qjzwrRfa78k7I2R7LRntM
-w4agoSRZRe1wwHoIOjaSZ58CVxmmv/Bje8PFzPJPfBDVd7XwkUSBOEBZWQSlP9vSQYg7zZKp5Cnw
-shOqj1OVQWgCn5TSW0JcfVPDeDJlta1V8zg1XEq+3DJjFpANmfUG7puZDPdDUT72xNt7pXyNXfnR
-EulpRs5dZHnDenKnjd8iYDQrn2WoceP5WuJZPPsVQe6JsfZj9Ph2hXCKb33POO1XNDv2PYrpqgH2
-hfYSEfg5w85uTON7PwXMefuDz3ZyyuZIxSqBMRsVGwtzAxuWX5bpPlG4Yk+YNp5GqpGN5WUxV5oj
-h1QjUQKWQkHgStdxhJBeVxSU8PPuIOwtJ8PYzbVYgbWM5/9Lls1NaCDWo47SxfB3tkCJEQM+DAPv
-DokOqgwgOzKZWGPn6P+/69nulAb3cVrhECif8/9g78yWW8fSK/0qDt+jjHlw2L4gCYKjSM3DDULS
-kTAPGzP2pV/Jj+Dwe/WH7OysrKx2RZXDbke46yrjpI4kHhDE/oe1vpUkl7xDjDUlU7rlY3om2/kL
-Og7KsSE8wnBJkfbAwPWUbIctZev07VF+NRzkgVFToenpR5oysVQ79sUW25MOru+CLczuOqX8EdKP
-7Fph3moRqfS4DF7KNHyBz7TDAOQRYxuBBi5RWrJINlAOKKq396pm22J02JBRRlhSF/rzrK5tmkwS
-lGhatcoHiLbvCPTAc7LvsbIwBLxvGh6Xbcd1zE9qj6DLkfZ9K8c3maT+kCV35HN9k2x/14bZqfIa
-Ep1Qd3ESoum3ffwoN1Op7cy6w+RKI006cmMVhywPby3zZdahKw8NjJ9xmdAzm/iuez5gRrEIx8x6
-Q+YqmU64teOii/y2I2cqJbAgDgxiLlaamvkWKNhMN/1ILR6tqKFjSQOHuQraqm0qtB2ajBdmozcJ
-ejm6O1xHqm84JTLGiGhNlHVZgjBskdqZZvXVwlNYdYsMT0ePl1QLBGmR6IWoNko0ewPavW4R8ZmL
-nM/usp6BCp/70JrocMdvKfq7vjJf1VB9tAgUV7vyNIdAFg2zvyaZNmJnqJDPKM6jIEmliV1gfHDe
-cE7p6zKRL3kJgqTWPjXpbG0veuYl+6bt4HLocKahoKwQLpLzBJZQMp2ZF1QkGyvpxkGvq3vbnc7z
-kH30bPCQ9Pv2xAIkE3hvOmCFhX61ZgCPqjrF/jBii1rCUTNq8taz7on0www/pF/WBJIQ7/TDBJVk
-9CSOFswqtgIFhj4GIEV2P6r41/Li1Zs0BLGsYmzri/+vrHpJeTv0ce4XCrEIevgwNxB8Q+JbHSRM
-ofhpNt8+jEp08owC0cHsI/k4hIbzmhE8FarGW5l3H/XgkrmtrzIY2WwsiJrOMrZKAp7SzHtLV+1w
-PGmJODQTHww3Y05vKwC5ZmsKgBy77BykuTYH8q4A1UM9T15TJV0OCu+x1iJnbyXePldN5DnMpepc
-OwwAyYO8bYhtL/YKD3l+4NIF95sZBPrKaEsdCt1k+wJz1ZqZeLSmHrtMfXlsE8XdpGjAtqjUJNGn
-5i37vfl/aD3+6zLaMy3DYIz8J4rxY/OeMjb+t3/uf5RJNVafi2Ih+b/+kF8qcTzPTJVNTA+u6doI
-En6ZejMJX4pfg6+jPkCP8PtK3MYl4XpkvBgYsA3q559Zw+DmLAsGHdm7hmWbvOK/pBLXGab/0dgb
-Bo5mIfM3PZXX8hve3BwRU2HbQM9m2X22XvcwG+NJNbEHCfMub9K3OamhY05brXECL1SIo2fdqlej
-Rn9nPFaa61tJC/o+0rON072EZdzT13qBQPNo5Scjt29jhYmG0fKhwZHRZQy4hvu4eJuNt16UB2/4
-mL0Cd5fy0ZSqWJds+0cN4pGYWPLmiofpy/1Qzew2K68pa0KeitadxDSMRCxZq6gSOO4TVnt1ZayU
-zjzzFIfphqV2rWfTK23SkbkhM1CHKOo+lPeo5taECm5N4MK0+yurrfYFUYv6YIB8tPSdil+jAujV
-tEzSpxd9HMksQiBLn3Iek4qaUAMo85IopyaqzgpatDQmjdIq3uxC/YyIILGZiMsmfQax+17XGCw7
-707l8Oxxolv3GiI+Jl0uJ1zPFqA6NcOzmZ8z+zhH9B/7Mk1OmvvY1I9hdaPmBCAPwz6xx00bg+yf
-5UYAOV7g4OEceBzdwrA+tXIJxVoLcVatE8bWsxWaQWhrPua6a4RFOEpeatSjRXfnYgnUU289Z5Pf
-2gTtupcEXjOx5es5RRkb3vDIA04HzUoF5+oRg8n+l/q8JtzbUj4V9uQI5+EDbUPEmMA/93m0L0lj
-N9Gd1ZhFlF7nZEMJwFjKazYkhO90tH/xY5TeENDRePa6IqFbFTcW4d/PEo47ng/FLM4QeES2pOt9
-sJfV07OwO7QIi3xk5SXnybjJm0+NxOoY1YAsLZ/4AIg8Gz26MacTLfFlhhLjIAZGpCvqB9eMAyX5
-0vQHs+hvCwwmaXFnmc9DJnzMbF5JKYZZtvab6N0l7h2qYJTfG3i5mS4fDWNk3ehu2tQ6WMtCJCTH
-Rt8ofCS0MN5qyHMKj8VB3GmHFprVoWqJ0CjKU61lpxLMWY7hwMinh7ocP00GJhGFPhwVyXYFf7m1
-8iRxxx45ILh5DXkkF2Kl60GW6kdOrbNH75QBd2wGlM3DMkgS8ynBbH3QTTXFKg/Oh/zQCFqBcTDT
-gBK70Z9wL60w4xGdcKjHK/NcqX8wRc4A5zOd3+pZcxzscZvH3iK0rE5DpsFD443K2q0VNncRu3tH
-u4Zc3BhMAR3fNbKH+5aKnqVDGlZvREUEOnupleHpL9EEx3kuXmeG2asBdKQ94yztT7MCa2pU+ZsV
-yaQdlfAEbLce1Tu30JhB38osezGmmWLLqtam1L7b7JvKIQI/p/OAGc5z+tQV1jo317DpItzGrVNQ
-mj9nvEB3KHxR9h/EtTILpufFJLoBx0WxmqEyQTgkZv2xhWvA6nEV1e8AnDXa3YkspFHil/i08Li6
-afoB4fIwtNXFns8NnvK+Kq5mc5xc9Sw7gTLA2DQ6SbULazp7zUNeDHsPvCZyqI5e/MNAYTXH940Y
-GW8h2EXOxYfaelcMf6TWmPP4wHqlcU62vrebeB2l5A73wKPV4dqSqrGq3FOL/xMtjm8jJSnjH7GG
-wpYOs9P7e/KH93o+rAZEsKW01qVNzEBa4IgWMHKGtVbn+9xUdqMxnm1ELcpknaHivia5d2vo5JU3
-L54EQIGjgswXr2j2ZsWChVug3FRVeSBAYyV747738KqR3IvyxLzO9rD7NazlP4giFRmAUkrPP4Ui
-jZBGhcM51IbAQ8SqRU8Tg2N3ZiGqhM+gFG6lwRWATqpYxnct3D+ikxIqc8g1dAbQSemIjwxa1s18
-Yv9CHr2m8HOYUyinKgk8sjP/TF6pWViHyWFLlcBHi7SiR/RiPc813udZEyyxfmaW6v3Fi6tfsKV5
-pe963Fzdr7Gl+NmPQ7ifHGKHfk0urfqYPLSrlfoqe52yfJW1L8bdoKc/wUuzazYmOxFiqTNIIWN5
-0X12IfYhjawLSAb/ySTTxf3v6LA0U9p+/sW/oZgWU/w8qq7fjWJXct4tMFOH9bAz10cUvKxTYg7D
-FEHeT2DTRofDmNv5Ie61n+CmYQM6ET/zefhPp5t61oLsyqo3ScxfSxf0PwhsWpr0GXbssnL+M8Cm
-HN7a3laTl2KI2FlUkofO/4GZmm3pvfy/R5iKpMo5mv6KL/2P4kvVkokDxzyztbld/ZVh+t/OMEXi
-8vVfDDDtRuO5ojL8K790A3E32zmFx3jkv4NfaowNGTeedx09BRIXE6XJmDnuOyptU/3oLbExe9wg
-RAoG1USP4vQdfifldowG2uA6CVTw1qshV3ydpEoFOTr+UgqSdxcngFiiORTiOIXAyq/GkDZjgSHX
-NlBqtf1xbuwnA8yWBKE75eLa038kbhUUSX+JJJhVJnhVHB1dUiYyZ3oaMihXBhGOdR0Q9VytBvh7
-iGqJ+4SGaakXS8/91GS2nPfnSpS7fBhe2eOSZOyiMRlBOhV9xILA2ne0ayyLVm5h7uoC8OGQbQs3
-u44yvpqt8Uh/TpR02L8k+JPawnpvc0iJA+NB2bI6J0cPf9p7NJcluVakYdY1A7tIDohLMtg72r3z
-WTBR7xv0OgBvVmzOEXTXKqaD+YgDgBp5IMQU2QB6nLprUEapMcioAeZn/i5QkLWqdWY4gC50/NK7
-mChfErs0C0lMapHtjScayW5WYWc2u+KmktS3haPuYyLw5i6/Iswm0hXYtruAeDpzyaYThMnDQbGW
-rAeJGT8rXWCr+VEziXK2kSw5L+Xi3Vfi9J504ZEgRNhvi79fxehPcv03mHiUVzRohEztSVa7kDFJ
-uwAkQGuW8E2wAUan3DpgBIirW5M6QUhyenLBDGhYz0jQuJbQvmYwBADTjvHCJShKcYrn+tAhii7c
-6HVcCAaTmh4a9pMpaAPeRZLucLEJoAcZIXYOEIQGGIKxUBE8+3kCkpBiBouBJugLPSEBo+CxoY8s
-FP96pQQILKGaLsiFFjKXC4MhoehY5snXccEzjHAaiBtiWoLiGQiZunAcQnRTPWSHfCE8GN6uhPhg
-lyMJ2vNGzA4GOheJA/LaDEZENZs+SZbop9nHLQwJWBJlck7DepVCmMAu/TxDnFCZJ48QKND8cNfi
-bIRMIVrE/8z5Hz2YFSHsCiYN79AmEdZUQYmgWsC4yFT3xJj8YhjZtoKBMcPCcGFi6BVXa0nAC/mI
-Le9wBOIgg6KRa3jOoWrotJhuDwoH2oZpYOruFgCHrsBRgsjRmfYphdCRQurwyEu3IXeMUsB0y7YK
-2mydSZGzzBqamRusM/PjCP0jVoCWx+UnJoHdAB0EeQ7KKi5dJ17nBR+i2tmF0fnRJGJc8ZD7qUV5
-niCOGAqj61l5Gcbo4A6onzTYJGmRPeIlO5OM+VI4mJkVKCbqWB67BWvizMTQwjkZnRnBE3azSS93
-FvazYvGhQaK+gAdad95SEeJU6xbPmj0jBBXSwcs/OC6mOHZqbcVPD4cDC6ENxmvkJ/alHhg44Isb
-K+slzPRvHS1rN4T3g1Pspz780VdwYmuLtOLJLzscKDGA2FyKu56XXk6sx2285KNyzVP8k5VyVRmV
-MLUKd3NX4lCMGJLLLyfXJe5t2zdS5ERjmT6U6bC3FPUmHvDjKe2+4vW4ucvTFJWbQ05fPTBQMp/L
-GIK9wzwA2rCyCvUaXHBs7aEl7KHdxaTbprtoMPeqU96F6uDPPVsbx712ebkj4uYBrejDwDBvKMNr
-V6YXVKcvGM9201wGmRrfE5N9KV31rXX6etWYCXQHg0fPsmlNFmjuVMgdBxNxQMu1AcliA/CK63CT
-etOIxT177CYrpyNRfcVpbuMRsoOMTsPosPzRnnQUomWT+EueDwCXlQEHvTcV4GsgVSvrg4isrPee
-NHvedSqhaqN98shbHzh+2Ak9FWA85DAShAuqrfsecPPOc/2ixbwpcbzRWGvXTuZ3JDF5YbpXRsyu
-mKFzJ9lbXXIsQljjY+3LlpgsJ9vk6rvHTwrjcDMAN4cef4zYmcjM/MwL65LKBsBS/lqnyzoL2YPT
-zjvJ5mRgSc3mXN30mvYQyVchSEwT4avdKg+G0/KRE0S7z/VDaukHMUbsHGLcoyYrpf5Wq51H12MH
-DjKEPQkpR2V5b/CKFdTCg9buFUscDCO6JeBgPRruftJwTWT6Njem7YBZKRkYZkbVY27KAKkC0Qqw
-5/qi2rKkfstaFKYJlOrVZI6+KppH5u3HzEqxQHQuSs9C/5Ca/RKjwPD6Mahy4ulktzd7ARNRv6Jq
-/DS1fifxzdQ1vHxWNwWc5In7vpi+Hcamq5GFtZW1qzk0jrMKoFSH398SrTDWKmK04S6aJoKS52Mh
-2o8iJDwB5NBAREQXVxQX6UJ/b96GXPpuZD80kVh3RvJZgWdJNT3aAE0G3bxwxxplhzBrnegax2kj
-A0BEe0yz0heqF4LHYWdfedZzP+q05uJQRTTzOvgzstIJYy1Xyphdc1AOMRnIhC1gKhpfENsFJYic
-rrGDEANbiPltVTbuEW8PMjYrXRP5vo5A7yDSBr0xkvlmMI/iwu2dXnvX6o6QdjmcelTPgEyu+B6R
-0LdwJaUectIIlt2pIVdSDszXMiz82S63vY+uFCwZGThLHRELHnOmH71HUK/bRPfu1PNDpHIgzOtE
-dtK1IYlQ8fJA4ToQ5rWeZP9VtlkwavGlqiBFYC2Gul/eyRTmZF/5RRy9eZPuW1GE07i9Q0njAxAF
-d5DtNNV+iNE2oxQ2HsKx7xEmgP1zMqSQcn5301gFnThzd+Goywy/U78bbea9FzvUI0HicNwUYb2z
-JMvhAiwBe120IDoWw0jdRKb3BdP/CwHtTs20x3A2z8KbYgbePdpH7dMQHYInPD1FScofkNCuyF6r
-umc+adx5pYbYV5ub/ezyiEZZxHzO7u4SQ2eeCItNdvdunx+s0n0SbDlyQ711AaRr3eRHqXfVM/OQ
-gFmwa+3c9Na9ni03ZD4+xG7jy2jm8WMECCofcrPY9/O4i7PsHYESi1dnUxjVpZfOHizk86hkezVO
-t8KxHnUUvv5omqe4VL+ocPmE5+jskZ1i7tuwlL5N3Ygq1srfc56RnDMI+J2CwLYFe4GCoBida9d2
-Eakv/a7P8VUlxl2EpdSwcuKmxd5GTNAP5VFrTRyDGcoHLZ0ouHTivRCSuzCr27q5NRXlMUwo7Qh+
-EKV9iw0MGbyM3zHcHmNcbEgXPiYrfRaFwq7GfUb/G3gILJmyRruyb2+zMN+agt224lqrJJW+WYSA
-p9QV5sVLpbf3aUwIFyrzxgD5k/aBYirEnM3XmpuWtJMWwx5LojLUkdnkpKHJaaequChIjmEPdo6j
-6dTyZwTm68qYD52NnstSjI1uRgxprRtkCAQnzRtnNII06y8lbD+s5K+Fx4PYrnaNVZ1VPuEgFoKW
-/9osV1xZbXoArbawP+bSCkq0UCNj7RA50mK+HCD8tB4nz+ghBFCiRyqWBz2OtwXczLp86FGKcBIY
-66GNT5Ej/TBpX9BaYKrzTnmMZRehfylBWk2zP9jJbmi63ahZ7HFKlawdilXLOOXYzbIeYH4GL3mq
-KY2QAgsi3hye6jUoZGVMTwNPY1sF15TG9Q9B5nVjRxuyoE+Zbu2kpVyrzD64pfuO2zLeQtTZ5CK/
-w4aPKKIObDMGdojZYxQDM34Xb+CYG0ABQSJnHQUiDPluCEqj4X0yT6Fdf9pgSnFG+y1emtkQb4T+
-3ZmGuQ+xb6oNdedUgkZIbpWIC6YoGJC1+8hDdoQdQG5Yru+0wnkuhQA943r3FjWp7PO9lxYnrQYd
-behbEYETGidWdV7po2k+2DLh7sV84IA3JAViP0bgZV2I0KJ7Vsr4LmsgMkuSzW0yRJ3F7qrVK7Xq
-d05rbSu2jTCYdrhNTg7D3BrtPRa7IJXgHOLFJZRxTlv6ulNxQI6jsY8IVrETmEMT31XnZ1uTAYUG
-H8d039XWtmvytWDsV0NKkEru5y3MSMma1qh54qL32+hh5CfD/ai8K2MwOv1Fb8s9gVzsXooVZOoF
-YLT1rJ71qHpTj816LkzBsUqwZzWX5zJM0fR50oEEMflFwqq0K55Mvb6nzviG+bONKWMoS+NN2ZNF
-6bQucQywcUtgEopFk1cBu0ky9Y3n9Laz04sU5RIXFi3ZkcAeC9omHB7gVuNH6S1KD6XEa2rdcv1f
-W1FUqxGO3IH++btLXXXlxuUPq7aIuMmMWzcBcibNZlPkGB7VmDyHSqZBNcdBI3OURQkHEhV6rEOS
-1fJ9ZdnNyuZ2z3g6yLB/s7S6WKUsFYthOiaLZsvQgNpBxm4wlTgm03YlwodulzQ0oLBeqKqWyonM
-6YQbaSFRKRaqKn15ptisHYSmAYnidBtJp0AUCI5Q4bBGHsq2Q8zv0AHfIAYGRTvClFNjv2ltD4ZF
-8Y7E9WpnFLrkZu1qV98LrGao8J+GmC1wKm57AwV+ZNKkGq9zJI52ZuwUu/dLz/zobPaWU+x+CJEF
-nd49umJ8R1sHDDn9hExo0HdgChdC2xvYQWfwTk7e3+C4Jgt1GmNAp0WHAi0/1kqs3STjQv7IX5yQ
-+zLNmCyjVKkIViGC3uPfH6EnnbubJNVRimvOjcUac1sL6FRRq6w6fXhDTHpTk88jUiC77izf856g
-prhNT5F0wbEV7RNSZWNF8uH7VBBDoiJeXrtLr55483NVR6h2ZQ8yARdF+hbhFJFp65sTC/cm3oCT
-vwWgisxg1bjxUU82pr7HOXttB4wIxHso4oFoltid31POJ2JJfVftdyGaWxKcFASCY7GhXrRWUK5W
-NfS8aDzYSG1GHktmhTGg4v61juJpGvN405nG1Vg4geZGrZqP0eKJ2yHlh3/E/qbbotapWndX403z
-IdM1LD/SE/WGm9emb3PBJfV8M9znvXdqhHsLpek2MhE85TmziVgnOBLBHC7oy+g13xNLOxR9yQYa
-92uDS5vqqVhDd5J7+l2A5IBatlmDkwsz9xB0kpSK7kcZeWd1mPw0cY8m2n4BrWlsoQSldCuyjiEA
-mO0PlV/q5tgqomSmpvgeTMPhQrhoBb6swSSUyMSYVLYfXf1YspEPxUEStRx39o3sEz/O5w8bbk+e
-wx5oic4V5yiT22HSnmXXHFvy05vJDhTSChiopJDxzBuVdXEZ87Hgt+ZIgbOCDoVJwTYyJ3h65rVJ
-jip0XGPo3+qcPZLatQHGtiCLhoAt0kG4DCQmgyZhYSDUk4vYmY5ybU9auLIm9YpSjvoMkwnQmLPo
-Y4z7XyhTErxXYN2cYlw7HTvQYqDoxMEEwUy1sGOGYoTI0x4BEpzBR7w4EThxRRyxJb3N1cTEB2na
-nKGKRmsKjH8lZ+PH6FW41IW3IWbr00k/q0pdq/oGVNMNv2Sj6N657fGjW81936KFzLIDiq0Xy+hv
-87rpiIF6mpFz202BKlyFG+ci3eEJa19Jqgfi9jy1+eeMa7klF24Iz9qiy62LbScXqU2H7KDTC9gY
-xJt5mMQyJpD9jSW+DbxQzJBwjD8VjrMqI9QZpgA+0id7pIjAkC7etG28LzIYgrmLKJTT5EGdNLr7
-ZudU2hOX/FJ7IfSNzPWogpAPEreKFhdddfjskXSCp5RBh7ktYEOX7XRuEvWJaMAF1Hfb5SZerUUf
-m88gs/pMt4Nc6lfh0IzruNE2HdiwJJc8uTV7lxeOWP3/YwRx1D+pPXtv8mr8+pvn92b+teLsZ/fH
-8s2/OK05BIh3IK10QeEaKMt+1pzpv7PxOFueg4bM01W0br83Wpu2CjoJXwaGatf8leTM+x2JHSBM
-LNNyQfga7l8iOeMb/0hxptmG4RmqQRQIorPFHPKrHBCmDYWBNQRwiD62EKjLbZeoDZNzl/VymXzX
-zRAUOlUp4rke9bvm9yR8YVjACKWkWKSe41nHhisvjmffg+jwNV3HaJXDHg3JZiTQMbyPR3ffOskB
-/vd3lzFx77wHVHVHp5Ms9KX7PLTOMZUYYrWUEZ4VhQY8PzAWzdR/ORJ3c9RsPDgPSQzblNv8qPdu
-wzGDacUOi0M4aDjBx+FDqM3WLm2fPNKjZmHywAx9kQ0yoqGF7ppCarNl/4oxdacteLM4I17dTPX1
-IG3f9oogieggEq30KSqIK0LbRZQzrI5thXYoo4PymnTTZtVOiWBgIb3N0ZMPI88BTGw7ZpH+OKAO
-yDmA+sh4VmeX+lrsCH54GjxXuXdxzp0szyTzI1RgqjNw5b3p12EpGX5mxoNeGKcicZk+gAZLqRay
-DBkSBehVbReuhUTXX7QxuRih+x7F6hjUVre38h5ATXfDK75oncqEcHpsxuYkBc/Vjp1HVn4avKcr
-0yoY5iyeUJO0i6ZBFjhpHkliw0m26UaLtWdzdp56dz5nFlpVzVtXZv81A3JcPK1F2O88ifsh/xGp
-8s1xlKDpcfyFU35VR4qRTJm3M9K4Wu92iR7t9RouZA0Lv9WrfRhXz5NT+7lqkXTd1AGJU49EvT4N
-WHeaVFwiwmYB3x3UgowqcypRmxMHmAGJBWiiLj/cxRrZQ7CpqmByCyohRiCzqVwdjRNlksYThiPg
-9fmzsO1XbnlqRiIWmvpVCvRwDS6Tdgp6m+lW2gEo4+DfY8glpX3OH4rafXDqmO6zWq4Ibrp4gPPX
-9EfXiG+7bt65SA3XLhHqk46bwiTRZdLYIaTOh6M4PJ9hA4/lcFC9Vvi2ml85yQJyJes1w+sYdx+B
-VFj7mPS7OVhm/NELnvfZzLAPtIVJ5KNI2Sl1zqMknn0t++a7F9OjtJpNmFgPlSw/jBKXVGhzsIQ1
-1UnYtft+Ib+p5FW6DBEmoz6pY347sPYiqoB/M1bsjec6l1Lznj0zO7Y4H9jhsGcZNfPIhHIXaeRa
-EaF1irnQDBAkfTI02XZ+HHMnYsKlPCKruXRkHHBem+8smrax276LqLuNS31n10vFiv3WRE8pI7m1
-c3czd3S0JBGcoQeRqpuNb2By2WEU3Ws40aR1CueTEmJ8wG9dOTchsikhuwc8j9wbqNzLmSwvpXmc
-6I08bby6Q3pSmLOiEZ8OGvh/sEoTak3noo3RMVXTXaOIr1RPzqTKITgV2bXqcY3YDFCBCa5cr71z
-B3dLT4k3DXzmlLGcELl8HszU10Wz559fngxPC3AbPRa9/Zw1UKThVm9rHZ1YyP7QEO4NATo74SZ7
-gY3Nr/VPu4RqTpzgzgPjI7ryAZ7E22CIUwgDv4nFY10p2JCyvZaZ9yZZOGvVjb703A7arH8oOhUI
-WYPnV8rFH8VTshjUKXCEJE4Ol7Zh/PAMxoNub+3KmB4BhierKf0ow+lRgfzg0PXX0KkzcCwsdGi1
-YuNHZuB/0pDtq0wQCMCZ4Q269cF1kltHpXzSl/sDBSXEMAlogE3D/JAz0HCrTPVbHXGkWjJWB/Gy
-ZDAP/uiMYGRcOr1A9RauFc3JRmZOum0wKKwnob2kdGbPeNyGecOTYMJ/gw1joOo8ZKl1ti1xMhP9
-My4H28cr8B5NKQ2AYpi+O7Z0THP2bRpJsRkk5bTi1fVaQ0Sf5jNIZASFInwMdcR5M/0g8Kt0iQru
-nW1uO5uyIQ6SyE7Yv2RV1QOfLHFXhd2DORUESxOhW4bD2zRndx7UAkgJGetLg3FJmz0irnOZ5WYM
-kfIIhaTkmaLBENwllSvWKGEB35Taw5iIxG8HJShJQFeL6drzubGS/sh49zLJ5AVswC6q3cOchvem
-VX1RT95mKnera1nrKKyxnPVBK1mYcqZKK94Oenu27BLrct0Huc360hhCO0hIHlt3zHNajc32FH0N
-bLBwQcePFnmlscQu7HmBJ4yLmd424HoN3vQmfcJrJE0Wq/pjyoy98SbCSqp2LwAzaGXrC4KZd5YB
-H7ZmSbLpOZzTcg7pbqqt5aFMxGmyVaCjZqZ2gyD8aoY9CRxtMJJ2WbSv5qTcWbN3O8RAtOwoSA0U
-ZWBUmForaLyG8Ks3tFNt1Ns4lsGYkIdcKVsFWCuxyca+VZ8z1QwmR/koQWAmXXtfYsRgXky+lb6r
-lfRDZW5TZ4+ShTmPLUJmyyAiQXMCBrzG/w4ed0nwNe1COVTAyBWFZX4jbyO4kcS7gLCG3bRvi/Ah
-Kr0jCwSVFf9MgTHQouTxWZmT236otsCmbucJd+doN4xnpQXntub2oouMevUVi98l16HKIognqg/a
-hHpNTffT6ZqbMNdXzRB/6gqT/bjdRkOisGQxF40e2SLQs6iIbF4iQtOecYQnR+IKqiCfQHfxsUDD
-3r6bTQXYFlA2MxhnoYM59M+6H5PTwlxzM1mExXawzIbqhlOyWEU2ZIcK57iVxQ+4d7G5xhzpYYnp
-JDmjmL0KzT2hgP3UrCla9xQNWuEedKoSV4+DVEnu4UN1aw2xsMiLL+B97Pgd7W7OYeG1Dme3SiXK
-76HrteARLvllmz6fXuII8ThMtJXB9kmbjadU6mKlepwKo0V0EK2XZZ+qMvczMMys2piPh+pxSOej
-PuePQug+YzxvQ7fmJ6Zh73ov36AdWcPrYiKMg3ECDbfDL70GueLXHs6a0LO/3Rh5xlSYYzBP9bmK
-iFxt++ls6uI5rMwnAaq3ElMQz+axk/BUWH1gx7u3oBvUZo2niZX3JP18iJ6bQWP3wgedLVemmA8s
-2m+SGFJFiRqjiQobsCw6ZjVCimEEg2hOaRL6rK8k9eu4TvXoTD6On8XRjcx1v6v5IGVc1b+8Rzon
-nw2Txu/uH/7uc/p7qGhzk0Rx90//8Ad/utRf5X3XfH115/f6t3/zD76x/aefvhx9VZv37v0P/sDm
-F6P6bf/VzHdfbZ//71/y89/8c7/4s939Ya6//vFv338USblJ2q5JPjscK1+/tcIb2Fz+fUv9tcGf
-+K//Mv473/hzF+UskFGPZ5Fm6Bbud0hWP3dRzu902nFbVbGngouy+crvnTuOSiiJo/7SK/3i3PF+
-p3vmYp+3Ncd2LABUP11srgO88TmqSi4hF//3f/6bsi+uVVJ27T/+Ld/z2zbKWDBVGl5hmKV0bryI
-X7dRIVSfQs2hf6c5KHAFD4maKidZFEBQzN0MG3JFRNJlVIwPDKtb9ggLqZ25pQcdP8JEAiSp2cue
-MdfEbsJbQJ154mwag8zu3NrGCDchVV/ZZr65issyppsWRuJznvIsiUD4KFZqbqrMOuixHWhmvc15
-5DiDWbA2UHZFpslV6hE22qrbfmqvrqkEo0eBkkaXRspbmDPNWsjm6JTODzZMKLz6YI7MYMDvGVHf
-rNsYSmGNgcGLAyGMmwxqk4PZnyDJy5ipe1rMq5IMW810ASjrbKdHknUrniCu43HUuOorkVn5jneD
-uimjNKsYPSE9Se5tCzM12csfYxROxEVxEhuAuCCU0uLIH6L0GMNI68K+COZicah7qFwhu0psBcee
-KsfO4BnrjoflA1Phqh0Vthate0/IOPYCF1Mos6IlIkUSdEEMxmbIaqomjq7aXs6odDgalsmRRju+
-BoBibRLDvmQa0gipqX5VZpsBRKQ9Q9Ia5/SgW4O1qQ1zFevif7F3Jjm2I2eW3kptgAJJI2nk9Pa9
-X7/e+4Tw7rFvjf1WalSLyX3VxyillJGQhIyqmiQkSICACPl77tdJs7855zsPHkUY3+6xg5Y3TfWp
-zKpzIdUmxvIOUmoAaapjEQcOOu0hg3Cnxvs8jNbdqN+RXYHFwpRbW+v2QSEemWuhOigJS/arGCN8
-1K9lShwEaie/rsnPyyEWuHm4NdMKBRJhNCNzTHCtKcL05l2TGtu0or9rkuyHW2RXhzSyvjRgZU5M
-FwtcsU1H+0CkDZBNs7nkImRzqJEG1Vyjpt7rnYlKyQPKxII1Qgsfp9puCIKrtHnkwo6BN2ntw9Id
-3OepJdM8IZGHeIBPgG6brgfrX010t6aWLpJW7oqOlDayO5QbvGMGyFeTxhpjxFhSoBRZqYHc9Ek4
-yyrVz10x8e60734u1hkZ5LGKX11l3fule83GNl4NiYM4Tq3rKTzr7Bl8M4GopnnbJsEsUbnazoQ1
-uQgLm0sjdo/CG9LNSBZwGhTXgW3mXnUx9g0BW2hA1tZGKWAWGJaLrMTjkAms+Nq9ndePLk++Gwcb
-IdKdchriCjE3p/qW+x4rApuQJL8wQl/bGF0Eiyg7Gp44b/Za22ycAQJ+74rDoKCBN2HI05C8qIS9
-EfOVZGPiHXUQsimdgYqN/EMoViq57V5ATjynCQLAKDqqocMA7BzNhEQLH+hGkdF2JQEBXz0Z3dbw
-Lad5c2qkgLCQlRDWWvXsWy1WlKqFK2wi+hj6ihzjoH4FtMMUHzbY4NrsZmt4F8VLYcCyYWR1otz+
-Ss3myqpuZQ/sQzOoBBrKBaZU8cKK4mPKSqgjnyfNcB6QEBERRWnwsqvJv7J6zZfmZLw7QbaeRPRA
-dvotjCjOSnngob+YSXvJB2dRszFi/R3gM7MQNDDheYuipDkVQpEZweCfMvNsquBba6D9W7m49KH2
-SJ8M7wFDVQwccqFK9eS47UM1hRW0Gyi2oiVeQK98MDp1yEqgfNY0DztNsHVk/2k7GbPSlkBsDDcg
-8tw2XpY9ATsjEa1VZx+8QFjf/ciM2+j9Yxs5bI6M06RPW196K0vGB8Pl7SFEnUxZ+ULeLFR19Jhe
-mM0zCpxIvtTu/az/htEO9CwdX/j7jrnBi2116r3uk5Eon+Z10GvYdL1zA7Vxaguc2uW4cXMzZMHl
-LSqNhSs2mbRocLPwp8rEZLXZPxScnSJ0VmlsvI+ht5uCYV0QY0SijUuKQn8D4ppu0KTjQmLrl4XZ
-09AHW8OQr2bYbmpnvMgAvZRRc+3QLlP0tU8EmD7lWsumy90aeEBb9xYE7bUItCs6xkVcsrQbPZZ2
-PSFB/b1tICOI+i0FPTj6jEACqnnd9F/qurj0w/gejizqVdw+jL6xKmyGNnLSPvIwfkm530RWblSp
-8yM4mx6SBzP3+9RwslVRa+sJLU6qd+T+iYck/sXMQ0ZlPEPo1dqpjZcm/NZnA2SSF3dW418wfa08
-b4JhUSwRSgJVdHcBK/eY4Zbb3XJuUDER39MjR6x1nT2/ZbkL20UO3IbBK/0hwyJm/I4fPDiEvu9N
-37wHi+VjUjRBN+mowEq73gcCQUHBptWtGZ5AXNwk85aqHquNqRp59ILQYL1VPHiOOtVAopjj8WkH
-j9KmdekR5ChuHAkDY5FMGb/w8ScexDdaoJ2WOVtRWjy6tnOpe04DhYl8ar7xtcGbKYK3KuOOjX1/
-l9vmioyUI7iGlTDpFobM24nedsh48cmvpMAN2pcgQJZRWEO5jEhAYfvfsJSMCX8fo1cUblD1Y2gP
-DVy/A2esu7Or+Fgr+RhLeoZi6LjpXU5Cj/MBGUW+JYklWMZdYpLIk79oBq7+FLGc7cGSkiXXURW5
-12SiRtGbGslPRMBi1l7hbr/USfppTPj0nNF7NKza2DENWuQtpiQ38p8roefkGAWgfPSDqEogW561
-G7qagyhQ9yQDna3OInyJLieVPZZWO3vWUBFS2PNZpdaxcvM7OjkYKzHB92V8VxkQ0HQN5EmPX9TK
-glfCZD6HcHo2lHnv6Pm9XtlPUc3IqLCNK7zrTUSckda1D1KxK8TcGC2F2Z+IwVpNNdEHNJverUWp
-skfCnCJoEN817WLJ0yfk+BXR9CwqNNikO8pXXeqfUSXWmh6tkt9mNOWL5UWPDJAIMMNfWTOdIoVk
-qdviXVoWO9JqafSI0WJQoqB2lnoGc6fptIOdxsjIUGW0Jg+bebAnBw07gp4wRN1TOdX/Refx37Wn
-mAMD/kFPwdIqL/5GRzF/2V/2MgSqQ91xbd2wXZi2f+koTFYsYLVQCsHB1aHa/r6jgLoFlfb/cLn4
-on9nAXh/ovD3DE+C8nKlwTrnP3UQ/6ijkILtz38m4Nr0NH/G8PJw/L6j0FLTTKp+LJi/W3ca9HEX
-jdIkqGvRLAWTvAj6BActEwQKxWs7HAgahK+uHcCMnMhTPkeooJJcO0TauLN6xDEZOqkA87HhgKep
-ZglVjZZq6tDgo61SaKx8pkkRR3mJ9qpFg+WwyrHRZDnBuA48NvOzWAt3/6ZAvWVl0c6f5Vy+32xr
-h3cfndeI3qt1i8+0CNc9OrCYFBNGfiQCoBBzec01FGO96T0lVXM/TxZzA02+PsKznkVmCODW5iw7
-M6PyKNGhJYHaW+jSQvRpDjq1DA54GbQ7NQvYSJe7Ii8H/sGuCFHBpuJ+CzP86zXqNy1OsTJH3oPe
-h5gr3B2hkuQGmre6y1/SkAA8Rqj5UkScm06IEXzE9dBEhruYrO5X6LnH2tNfpQfRqvHHQ62sx3bU
-zvQWv0WMnfsuJKwRgcHas0vAYZU2h9OO92AVH/JW7q3eupcIJYjuvUYy/56bMpR0GB4AgPhyXCpE
-IJsOVC8//2YI2VC5OrErQ22ze2vLNwSfCcMiMFsksDebvrfKe63gNzAk7YbI4h05aK8TsdSL3Eqv
-bmy9pVPyQlbFDmbNXWtgHBmtB9dpn5HskUwfMKkz660RkiMTI6v3SYRfjZGhwJolP+lofY8WD4AT
-QNRp5UhuDZPYVjsnWXpJO+OhbeZTfCLMJqTwDAXwXkkIU8LQFvCZEFO2sBjLhJ3zOuUKSW1AIU08
-e2v41SrOoTf6FZewP8tq64OmwXeX5fQF7Hfdwe2VlG1M0NZ1hrUhqd9CFDor6al1LHQSKWacalyB
-2+2D7CVonbcA8Z1X1RsjmdMziXKg70vnYRAhDZzQiggqViI8sy1RY9NCtD5se4TAeb+vcNbbRfAe
-2cFbwRyZiCb5YCR4b4iPfE6J/IpZTCwRXJ/o+G8ZlNec1X7d2RlaCYSrFHZFwNjUaI8dpmoBZSC0
-W96NUj2bLTeBSm62We1FBXUt9cZdNxnGkrAeJPZ1cKqgxugDg0dCOmfi1MrwAmhSGCpmWA4Cmx3A
-E3NhwMQ0AzQaIW8sIsT+HKT1pneHPewZVOWbCFJXMrwQvfsUdLGCDPcTIrPLUvNRaQ1wnAktSuWq
-RUDsRocZeilEe+vaTi5NJblsoF4NPXSx1OVSRSYX6D9VQxHiJ3OifJb+sGLcxnG9jkHZLIwBxUXQ
-CzRlOfhXUPnIxihwipb4X81A1NNWn2VdtSuXnGNFk7sK23TlZahM5ux6xf9PUMtlxEQuUqg4/iTv
-3XkH28yPNc4SNHAVNqtWXBSfwKyxW/YJr2bfo7+RfHq4tO4Y6gQLotaoGSoTeVt8ISb7QbOCJ+lW
-TL9ZGNKRMqomd2Ba9yy1KLfZZ0YPdlysE3fAL1QcEtZ+ld09jUPxkur+Z9uBxlA6JCbjHJtDsQRt
-dIn14NnO+l0qBbI2Ae4rA2dhaeIub4tzVaGbMnTSYRVBX9uUROzRTj9LNT3oVXdCuXpGjkZurMTD
-FDv6KoKoDI6weG69zAIFh2EkraqDC3+frqR+x8SyRkeD2YQpZzkEGxvyaNTWHrImFFiWtonDtx50
-2AgnScICdiuNiW9PoWZUzwYQ55j1gsn2dGx72C32a6nRfWTRlrDnjVvJh7oIrql0fiYr3oc9s/Ux
-YYrgcaiLZZR1pFklu2YanqJo+mVF7XYyAtiALrEILn55tpYkNw3xdCL3ZWWUyW4QxWdRkvDHjQAg
-tzkZbAVt5bw1okVqbM56qugFTf0y8HjVO/QDULyybiTFIMkWudHfhAn5rdVVu4988nVj1qLC1HfJ
-SDAbYal2DvvUU/2Lk9P3wsRY67HY+H6FOtq7q/R0VwNCCRkL6SYqNia5syWrMcuDb8NSZIpL4wld
-bTJ2OZgVJL8XYHj7MmYs36W7giWNHPs3l9cgt6p7L8luozCIIBiynp6AIQtxkqvS8GlMWNUgWKJ+
-Zf/uEAYYe+M5KrIXFHUP7fQTBdyy7oS+y/tNEMRojsj5Y9KN2zgkELuhy6TER9Jjb6LYvVhlukpi
-ohSZyshmnADxenscPU9GbnfLDukBOmA4YRaJtBIqHU/2JtXdu7G1ixV/1zKxAYQVObHvKcOR4LGc
-atZh/LaYuuGDorPsD3aYLSNh3VH9IyIMg7Xn4QgaiPkW4IZFFhJBF6mr0SlOXZAsJLJeCXRZdYBz
-7IbmIfb7vSh0uNRBsC4M/YRnam9YOGqmFm9LDjNNE8YXnfy6U/ihBOv6Ma1+JTI7OVG4siI6V5Fv
-JnMyl5kMt4SK3ChUVpaIGa5428TRzz0GRAHgDLTuixuGJIg4H5GTMIbidrc5OzS8ixQ5vXROSB+J
-JOXc8QMsj0W+LbmWQzd6n9r8VhBl4g5M5KYYO6a8GCSWbZoQmqbWJXem5bzWHkeQFYRH38yODJWD
-OXINxnsn3wZDIjFt6fwsS948yXJSLy5o8LbMvJdC38r+vkijx7Lslr6FcNaERm0HaLtnPvFUEXmj
-qjenR7TmI0Ef1IYZzaarSESMiTtB/EErFj51OYuSNAUCFDzmhqJQQooyAhxju4N/E4yQP/0q8xKP
-TT4grJY+EFpSAhlzrcwJgyAnMJlD9KZe8jL28Q8z0J3QpzmuKCPhtdEWGZ2dW8VL5LpPGupevcLZ
-gQWpHUb469zDU5WtNSjXyAD3mo/NEe6fu8tUccLGRbAx4dUJTeegF9/pOGtNR4/3uYUQ48ExnY/r
-EURs2beLsBqNlUBNQY+7ih1700nAGDRwoJAJ3gU3IC3irVyyC7X8K2O2bPvqx1MFoZE2Ub9W8hF3
-+XNk4asbi0dq0TsKu5eo7Lf8IjnKJAoMwygWmUfAQq4Fexbz6IZGJr2hgrkzFAygDFm/5FK9Fo2B
-UqRKntgqMiyhUvTG57jI3nrN2YSTtsk6+zP39EfNVJ/eAFTWi25Oia3JqB8YcDgYGI1LU7V7qOoX
-5ooIi0hcSKuNNocYRb54Kg3kS5k6pBpw27j/xh3AzhmrRRxDAynQxY9AS4cS74Ztb1wT9aYvueI4
-icImfoXwrK1K7Hn1ZL3P0YNMcknUzDcuH9cks0vfzvqi+DHTyr1jjBtwMHNAK7JC0hOTEb4f0X27
-QuJDMN1HUx9eW3LClyXfQRPx3OWF4BUgS0FHQ54X3eWPL6z+27aNtFl/v218/Pgs6r/VNfJVf+4a
-CbuzbLR6NgoBNj4mlOc/76GsP5GmArVN8F9Xmjoror/uoZy/R5Dz/kSnaJvSdtHf6Y5p/5Gu0bVm
-QNzvc1OIuOM/ruQblHDuft81MmdMHd8tq6WJK10XOVmgJCU4RchZgRAITtfOUXMEeLau2TG4GtG/
-EZMikIzPDnR8j/RLz+Z4MEZMPXQeBaMH4UF1TGDkp/ugeif+jmVOckyJLKm7cRFU4TZpiBVDqLbq
-e0YrCk9YEth0TPoZh9/Bsdo15pdL1Mb7iPWGXmKEGb0VEEl89m61tipFvkieH0w7uiuM8c7pSg05
-Oz+C3yAj73/5I0rm0WdBzmOd5fo6s6MPgwES4o3hZoM+XgAT/GLtcifMfI2Vdd3Zztp187WlkMYn
-5kNoad+ZjxAxmi01s36kg5ysSECL84sz5WdhM1nVjMfBj7hzvY9cRdumac4CM6sivMpFC6FIlgTd
-/xSQKpGjviZgJqWYI/IU4Z67w1b6NaGjXg+KJrTxw5PoOQVQByE+i5dtm201zrBQkGrl6HtsJMdk
-hMZZuPkqGYtzEaFESWsmcC4h9iIBP5lyPbvFL0GzU9XuGmg1Fw4Tr0FTWzw5t5Gdyhh0rP4QI6YD
-g88cKp1RPmRz2kTgvWMC2muW8Vrmw04bhi+ZOaxAiHZiT4T6o4KArzlXhUso9Yod+VoI+IwDg6+1
-P8PjsEYhTmteDanxEzHQW8RRDyIgCIE/qcfadn6EmrZBLfbN0FA0T8Oqkfh/rKRwVyKMDuz7Nlba
-gBS3zl0/Tpt/cRz+yTgOQWB/kaB58JPnf5Ec/kVy+GcgOWSamdGwIM5Dji4JLP4vAx2C5KzCq04U
-GWlCEYLj/ze0Q8qtKZ2BUdv/F7RDFEZ7+FePpaddsqrb/WHAQ1mIfeiQOJ+OW6sbtvP/JnVFpxwR
-IB6FTw2pOl2RrVqLmYg7S+yI/qwBuYKPjHT/KYz9e+FER5N0FEsffhI+4MlX91rkruoWYny9saGZ
-llFBHhkDFhiz+Nwxn3vwwV3syiFZ6qZPcWzs6mSemBhn17QvM8W1AvfQjenC1utlqkCq6+ZVuSmp
-bYxtzfZKG7I3GgpwUs18MD7FhME90DZJqX/TbzNMtcSa7oTAX/ieJCEabuUv+hQnoBH7K0KqkOVR
-EKj8rrOTM/Z++DTptmhZh7c1pVEMa7322nM9RwRpyl64yOAXJXt6OyOgo/5pm+bQiPIWaUgzaNs2
-oa4OZf0Blv5VWOMhq+W+KdpNU5LT5HcKN2d0lnCTnCk51PbwbDsPvtMecoshkV+q3YwdySz/MZdw
-cqr0OqTgUUZpraZKHcwyRXEil05r4DxySSkKn8Kd7Q5sr1CABqN2xwBcX+hY7eNOnX6z73vQQtjQ
-wUgNIdK2R3KqTmkX7wXMO78p2f/ifLdLhH2TU77Sy65IPv2Y8PS6Uuzx8d9Ure7aotq2VnxWiftV
-q4hmP/MPJvCjsXBefFWsvLhaj5O2yio+vCmodo3wSc6cXuhJ36zRuGDrXfpIEmls711Z30QE3bRC
-Rc0GfFG1zHMHkVOrdFsttm9ozs+Do0F24+2b+u4iSu9Uuc46CApiETDs9zZ0HbgXFHq/JpfghD6/
-ywcLyL2H7sRkotqSA/bJ7G7X2cPnAGMxMKory+uVyNiuWnKpfLXq0VvnDKFs239sRcYYt1vqmHJl
-EB5QxKIV0D/9gLzpDCljpNqbXo9kQaj+u8gp1jR2jE0UoUTMtxCLlp4vXmuSn62hZ9X9bU3mAUzq
-ljnyu0n8qHKSHRj8V1fLD3lM845dDdy6s1QJ6mGerkWSuIek7dYeUYko0faBp94ms33IBCKMLgdZ
-bOjNAhDSnoi/DxhSbFjaPfgZJuIObh/9YEr22VJjoOdcUsYpXo24a3Jnf0hHIzFdzfGnrVsUxryb
-gTO8BXzfQ2M8oxhvtygF1kXm2Ev6rnwTeN3boORaSwBp9Lup5i3k7UTwa0AoITCsKimfkYMN5GoY
-fv5IhgEi+YjoU3mXTURd6cPGicxN6SYXzYmzpbSJ+p7aJ3uK907I+mtAn6UJwLK6Xy7NjGFNyjEg
-GeVgLE5veqnNQ2ckBZogvlsV1Vc7/eo84zwOwEaUQSHfwSFfSN05xOpjsspx4XTTjabox1QEswXD
-eHJrm99TAloHiL0UTkCix5yL7Rg9lTEa6DQsTuPQFBdXxyL9z9OhY2j7Bx16kdQ/6n88j//2v0g5
-/Rud+vzVf1GMmrppC8+ygAojDKUf/3On7vwJwaf0PJSINka63zXqFpGjZEzouu0SS8+f9tf1rg41
-3nYtxKTW7OX7I426Ne+df9+oM1x1LccwDFs4rKH5Jv6jYFSN8YR/AFZKHrt7QldBDxnfpcdhbvW4
-PTQX/1QhcapkJmlo7k4aCc99cUfUAyuo1PoqtZ5VWJlK2uz22rsaXoTq5sfxdzWS4ThgCjd141cz
-Ju/FrFdqQhu7cYZ8T4zJa4NkBB74GDLSa7tlKEuGxhEGuoy8ICPkhU/FeGmJae7MltVhaN8FDCUx
-NSdQH0q82bY5y5qypW8i3pp0EMzmQLS1ueRSImA7qt59rFdNU7FR1sJrbqfuIW5yc6HnKQNjf0bS
-FimCtEntqiCywWoOPz35pZ5RRXtGwnuZgxFJg7uoj1auXRsQy3I8d6izdQNDYiSgpXnjwc2SQ6/I
-R5pF4wslxYc+VDt7SAh4bY6ZbG5x6VyQzL/FmnZFtH+PRxnkkvmhPKLl3WSv+uBX6Ae7yC/ekCi+
-aIV2Vm5MCAucYl8ALTDHa5trx7iJ15VXMLNl7uF4zXM4khrKTuJRq8FMjZq5awzIUXHQfVVesFO1
-80iAIWr10mebSgpS47s64LnsMGXT1U+cdVNnpCDbkAh7dF45Kh+Z4WX0nE3q1r8qdHxdF67C9COT
-1qKyk8tQAYmSM7xaOdGdyH2EuR3kEZXep6D0wPlzNNU+rHLpMFBug488aN/bupzdBfoboygA4Gir
-eAveRK1eSqvAHQk3TQd9NGbRsiTYRTbFwcIlYc85H6mPZyFmEB0llC5lgW2c0JIh6C/8A4Jfy+kQ
-JLFY2Dapp4lfvbdF/mZV7sEoHOhOIOPc/GxNRKjoVmMua4gzOklSy9oEJtKiuk0bQGOVFPeNKR9L
-15ebWjpPyWwYZaVOimu0FlF8Hh2hrcOSFSzk5QeJTqnW61PUJFtUiVhO6xArmjoSig6mKiBtNZab
-CVO53QhU/kW2Tat2G1vpVxyndxwcb46cEVzyBLVub2KcS1L2PHNyq13eG422Flq8rTNW1qUFpYSB
-N1soDJ+gzVtjnwziHPgAyYJmE1p41gyMfaxKCB9OVozPm5XdMa8KRAcdLH9nA3jpKeqaGChRYRYL
-xikvShES1gp2E2nEDGpA5ZP1W8fvNlHlwdqe+Jfk73iSdJ4Is3a+5oBYG4Pck//5k2Bko6bha8R6
-GMaNjZw5bTHM57pzl/qQbiYyXIJiXi1nE3u04cUw1b3vMPUp+m9P+Y+9BRxATQqPjMZlH82EIMlP
-kN6HZndwBRvhRuOBnlBc+qWABeVzgbatdytc930K1NkYTdLdRp3SPSYjlpBIktLypP9m3M0YqrkS
-yXOanIGRfr838MMsyzZ89UvUG2lmES7VRsCYwuxKvUe8A2FYASX6YGxAci4CjTWLZn9W9bj3Y4Ak
-BVezqSerNmmPVciyMSXTRqRfjhFsMKf98kX3xrTsMZyNxS4/V2Kl70XOOkc5G4ldhoe52qR4FOsM
-N21gzTgmBR2FGdyQ4WLUexYhLUOupp6tgs439iY4LKM8GqX+4RsshTyI/lHTo6Id30ozJCVVPbY4
-vxfeuf+c3p0xv3Ge88uGIx94+mHQWarVRnmn6dp7muQ7p28PmjGuCiNd5xg7Dy3TPzJcd7D0vGVO
-n4Ko2sUGpifAGDyAicNvgmgTBFlDehz70dybrkZSXvPQrBn1I2VOrOoLbBzHRcpjYIX5j4qgLZTl
-cJeOAgdmwS95Sl5tMskIkGpsTgNjgO7P77sK8vehxHtcNngRwm3Ai9MSqE0sNwh+pbV8SFQ/Xbkz
-uuaZrM3tqOsH1bKV4mgWERAZO3y1Gud7wAs5GdY5mKo9Wv8j4mLqdDpQUfTBrtJwNQ0UcEC9LEas
-yEyKDKhVIw/0PQ8eCaYaELZqyJZmKd5hyr0kjjvt7Bh5kLDVrtFmIStGITw7sF9suZtCPKf0MosS
-3OU4Dfay1xASY0PkVGuDuxK1UZhpR7e3iBqCk7N1u15D5RnvWeuj2lGR4735RUyr1mr6Mpf6e8qa
-m3TZmx+kXAGud+yMbu2OGJmxKLzKRv/RKv2AS22HEhwhhSiK1eQE59jzGaxi6V+apoQg1M+pfi77
-eWucfrFMIh1FtwgKTNdexV9lFESY/BPVfZAH/v5m5loX//Y/v6Kf+O8Yhfjiv5Z9eLqk61DJ6aaY
-0Ql/LftwfFO6Cct1UelRkv2HBY2kGNQtgAyONNzf1X3zNoXOk8pPCFP/QxE/hpCzE+j3Gxokffz9
-lkX9Oa9qfl/4sVvGXeuWRJmU2kW04RHr+UVypgAjXCvPOff5B+Kbtd3uesU/HeItIiHSxFrzyafG
-MO75Ab81eC3J5N/iUd9UnX/LRUpscwNRCScwflZm+cRGQ2Yp3jSLWYbboi5nJJFNW9Oyj/oQY3zw
-tvQfuDA1eE5QSMX0OFj1vca924b1wvLaFYKvU4E7fJDl1tA3BTeayBTC+lOZboLou2Ebwat2ggG0
-9W0yM5WzkP4eu/cKU8BR9frCQdTaSLR3R9vp8A3sFHAr3FQMP/KzVxq/rBL8oLew5N6pqq3dPBjR
-p0l4AAKZqSfwhkVRzzWC/t6Hu9vbmIJhC1Xj1g7Odixuqb4y6dPk8BPJp9FCSd5Um9YgG6dcu/mv
-OH6EG7m14vQxcIt1ALmJ0mw15+PEQ7wC+7PWKupE7CS6iWQIvYyo7ytPJ+rZSNZOVhwHqTgyja8K
-AbBy6iuyHuXWb4H08M0LVW7iKLv43k3jhRfOV4KOOG7GE6rmgxONC5cozBATBxnIxCOtwxiPjABm
-m09zuPuGo2/hjcMGgNa1ykZuJKxZkaOvKTuWNvJl0XS7BIVAj6S51YtPgcS5KvIHPZ5XyP2ngfbZ
-MXH1R83XBAqYvJddo9/INUHyrkrymvI7hXI66J1L0CGlNuPyeXB6hOmRpIFvb5PFikuguwaVyM5I
-3Qemtm1a71Ehzq71tl+5c5I0su0+uaj6l8VFyg9WJZLOQHyKMNm2tncZR4GUu1vV0ecwvYF2K9p9
-63PlZFgvn8MSD1J1m0ZjX1kHofxfjo8diNPYp3JSDIsmr7wnio04meDqDqhR43GRy7Ohlc+9GvZJ
-jmcmvzOFvuti47vGiuLX8UdBNrqqaJeQBzl+/+RmkKtmkldmvdaDIpTtM2pAZuJGWSAtPJUd6lLl
-FjvVUwLo6laARlp7XLG4QM9W2GXLsKv1XUOEVtdALiUyacLFs50xy/3kGetUBI+zuqksImYPKBZN
-x6JYgMzgAfo1IDYpM9cZRha7NpZvbRptC2JQiKF20L31iDrn+lw6FLMv8+Zy7M50LHoV3Ns10ETs
-XIU4wbYaw2FX5g8V/iJeqtFqUZ6BCWz7Q2/ijw95mVngQqvUfsURlCk9u5u05OTpADD9SAdFPR1F
-cQgRM2FJ4hH+yejIkseAkFbKMxh74XSxcv/bNeSxTAn11G8wIZea0RxymA4dfxYGCCs8+zV8EeJx
-BMah1N947AVBuHiOu4r04rEczffUL4998y6zdx4mKl5z20Yarq56H0/Oh20Hv3yPEFqHjhaNEima
-1A36dnpsggafV3DU67kungPN8NzBJlpT5u1zrCZ17l4aMlcaP9qYvgCv6J5i3SfqMz0Alr123pNu
-X61sPQa/HBCSGRHiXrWvbUGJrZFD1V+muji1lXF16uYUFerUWt57gS6xatltN/HRKoiswmQJ92/l
-JhFS++qc4JZhU0MPTkFrHT20NdTpZ99d2WF/bDWwOL357tUGD8sM0QKMU1WoC0CtSXEcDOXz7n16
-hnHyymozsoIOwV1XHYIv85T7jxVkNl6DzJ/2so8PHVinAPlpqn2lVoQn4SMvrpJuGEf3zepiLNkA
-EYhCnq6NfTb4BEdvzblvcNzgg7Co0ZVUK2RgZYiJBSlj0XjMqvx1TUxidk+G2UYiw0woDh3/DsBF
-1wVrqX+UHqKXaidNtKWOvHSM9EiXXShaIS+5wbM8jOBFAp3YH+Wta/9LMyFTZhh5nBsIlbVwAdpT
-cTkc9VKJdQyUDHaAHO4azz6InsGc+OLgSWfiRvM+zH4hf9lnwZrRxSpAjlZE5C256fwLBVaZ7+Xk
-bvw42PKHo1y/gOBa2OLgNcTo4qRHIpYYVwnUF6nWbI7j4AJkFoOMC6H1lU2Op3ImkFviLmmgZUhi
-re211T8HwSkM7+vuSdnJsYXO7ZFxSoTlss5M2BEoU+Ma0iMC0fF7JAGsuBlNtNasi4NvU0KOSJnz
-DWJ617G+idk3tI29EIfgvZ1NC2WvNWRlXmiuBqLrq5z5AJEAYPrJCTuN+nXMuBwi6BJz2lzOp8vf
-No7JG6OPZeX0bzq88biBfQ1em6gliQJ7q3f+UrgPNiZH+1jm41aoTZd9outaxVSeXpSgKwt3Rm0t
-BUa1Am0mPitgdNB0BxcbV7PqM2SG/idWw6bj+7YOrZz2OYY4W3U7+twE3pILgU1wBo+tB5DuDZC6
-aj+aGmh6ZN9Dejmq6eZAFICLtMS9ufRJy7SZ6fRxvIbfsLXa4GSZvPVIpq2SeCTOokAx8C42DodV
-wcSgiZurp3e7XrPg+0IYiNZoH0KgMWmJ93bgnSMgLZ2e3bhcBTVJzFB+pPeWFYw2xsOU/hjJNeaU
-ArwaUo+YfKa2fY4zb2tzguI13k3qwewISzTXXoOb7TugvGI2PBsjI+seuDwD+l1fA59TK1KA7+O8
-Wo7yWnDet+5AQME2I/1W1x5TwmB9OLwNY+ARFV2LF+p/k3cey7FjWZb9IoThQmPq7oBLOl1QT2AU
-j9DqQuPre6E6K7uzKsvKcpyWgzCLeMxH0iHO3WfvtSGURP01ASxdlfm+AGENgCLuaxgtNSOOui6z
-+sWpeFBn1kosXaeASgZDQ4WR+7a+NagfmlofUvUnh+znZCZdjD1QrJznIMdUTMUpD72Iu5SVS6Ac
-9PHWxrNnzTytflWdR8jSfm29lLayGu2vPvzphsAX7ngwtfQkyYGMEkSBiu7jxp5kfGCkfTLBvgWw
-sToK2kysexYCRkFcudLuJrI8fjasiaOm7EftQYBEcXS5rSfrLZUY5wUx6Bp9AeD9Q2HNO1en/LYh
-OyAH38yfjforrOhATu/2dDWrluAaWWvCoxiY8X4rDIfk37L3PHyMROslPMBml8pJ7NBUozkNmGjn
-NEpyi4O1qZZOveVdOLJ5shtyzjxpReu+5mFPBywI4CBLAXs24SIU8CpreGR9YFM9WBFsp29t5I+V
-kW9qR8GAR5+sSgDZzWpicbia9H2teK1b+TYGo6w/9Q2jTP5UVPo2pWC4N51XV3fhpn8wna0oP160
-H/yu1alwtO+g1n46sESDsS2Gmyhu4fyqtr8Jx3euj1B86XgcmyLcquKrj/RV2ZY7d2Q4hS+PsZv6
-ajd60MlMqPK9AOo7zCz2eo3ShrBA7iwBu7u7IcFELfKjClE9lFSI8AuaBhAu/AwEok9NmNDQ/WOm
-37BmGDPfTBcnMiArkb1k1S+UnwCraRQz0hTi3pKcgMVrEdCe+3dq7G9d/wkfdAf7b9csCgKrmSF5
-bOxvLnf6s282BRi915Yv5hCe0lw81JqzLxx6IeYH9jQfUEHRt0T/oEQPvbGJsNlqtqRDkcBG8FsM
-LDQvhvlSst1S8t9S/MTFmzEdYz4Up9bZDfGNTeRJNELW4BolqReQ2BzSPwuz2Ee9vhkSxR/rbtXS
-8pZEh1HhO+KXUKo1Okq0FfQ1jwXMyHGBGeKzZT5cKJbqlfJGXMc2iJY0/Y4tg4N6DqMrNdVVOVxi
-ost2KK/g/FZKgvOMWsSohB8Q3HNIyF12o3rhnMUmbS2sWL+j+3Q2SjY0Nk5a01oB4j0pTvNEbetx
-ApE8xGjY+Z2OMxhiwzGxDQKhzUPSbBH8dsVMLtt50OJh3aIaTSbpvcncGUhJWN58fWzPVmBucx63
-DECsx2wMp+Z5Cod1zo8zhNVVR5Eq+QacgRel2V9JOuCy/k2AdU/gOxcgEltCJMSxe0unbcWpAxgb
-YtvnDAUIHuTgEPxKw42U8JDEk8rGiWyUixymxDNZ+MTLQ2efo5Op82NUfbQAct3+ouGJGzkRZC33
-UUHGA1FN8KvOJk57BpQhhfJD9D0pYWb/2Gnu60hx6NccX6qjY9SXrFpI4Peyf25Ro9sne2qZPNcy
-mSlXeVnuPz38WPAqRtavs/xh6r5dpL52CUVocpfjP0NGPRfluZhPbosw5qlB+SCrzRAmj6DT6CR/
-D00GWNvTum3ROJ4iBFtguVN1aOpuc0hQy7tYICxVeNL6V9P+iuUZt16U3gjlqpAkUto5eFwaNN84
-j3m1BPyDNVPUvnI13oPppp2OwCPIn6pQRV8l3dmWzVhSb+rsNWo5eFfBSVXKvY3sSU87cq+GS4Mn
-o8DXQMu5NxpiHfAyb/XbrNio6InfG+5LE0ovjVuKReEKsuDpCr+HNMyjKUrMjy7zixTCjEuNTTxX
-KNYjb/ML6xlOfsO6y3jVtcCfh7XCalxm4ZtV4tXj6d6kNMUAYRw4iYYQ8qpzTrl2kd+LhsLOeT1V
-4y884R41OMfRTTc4uOUiFBw8oqM7tj+O060qqnJgA45AUTsyhPGfKuo9m0tPC28T8nFEVUzT3NQC
-Lq0MSZb1LD3dV86Sq3K8a8BAdM1ZV8xb4cI0LS8CXHAxj0wEyGA6/wfI1JJXfwJEH9nDtQsesPJZ
-Rc0Gp+c1qNuyYNDlUJ0NRK/T3sdJMNTXRNmxLmI5sR0YjZ3mHknUO0Ty2u22JqI5cBSOCKjoTQXU
-YpxoSOkJW9FRWk07eMNYBDh6moe+fpk0TBvOLhbPRgMoHD2Aa89Cm+8J5oGdeSAOchr41aDQ3RsS
-XuN8Z5V47rKuXdV6tGaYx0TJoyxi139h4/QUIv6XDHGq+SxHPwBdXtiKVyug9DdmWhDbEhuLNy1V
-8m7b4+PgAiN3RxUI7UWXWmbPisOTCeNtVPmTpq2iGPQtnbgbjf1DVAfe1Ez7OkQKvgzqPUs46FGH
-cU65ymsJkYLihfK9z8+VRqsqdcxLy8pADGr4mKuz4IUAepO31M9AIbHNxRVhkO8JKKuYQ5LkO2Ur
-UlTgMzQvnF021Jqv1Pj2g/BZxMG6RqptaRxa5Xr/x626lc2r2q37LaZ1d34sG2D2ANpUQnHNiTje
-NrKsTWPV3wmLGZE0K0sYPG9n9KN9w94mXBY4QvnsauPMDonPlbamxgg8lT1kuex64mjYJIhQfcrR
-LtVvRav6wi7oGk4fEMfpCNavTM282FQTSCILpF6nYH1o/VH7M7sLSvsQhDbDMvuRiamaC0sQFJEM
-zyL8qtw/GF8fw+yhsau9Qy+wyp5KgASlLllEv5P1kSm+cKpdYbPaUYtdajtPUileFJ6kfQ5bIOW0
-qY8HOnt3CtA/s8/okY587LeAWqpdBjEnaPaRwc6Pk7iVH0X7PqnmHgDHaXRQalrJvKSzYCvcnDXL
-dxxRxOz6IWzUuey8rDxKYFOCfYziElOdIyqZ7HVqNMd/H8HYRTn9nwXj/2sUWP2RZVf8E5/A8sV/
-d/Qjz2iC0LahmvZ/bOL/JhjrfyEXc0W5cHZtQ2iEvf8mGJvqX/xZV+M/EQaHHvUPOXB7wUABq/oP
-Pi+b/38hBy7Io/83wdgio27A14WgpBNL/0fBeHZaadklFSwpbqUpJuAYGjgDZazsIERcYP0fo7T0
-Mx6GvLEOrOCPakBPS+wrdrshAnKsq+5nDlVWa2gs0D5Ma3gelZH1BewW7hED1p9s3jIVpC03JG3F
-a83BPC6Qn3SFZ9KWCocEpk7Os7Tq9WNhTfHGcpptJH4gWPlKbz+Y4OsKm96JyIBT0kPfDjag2PGo
-47NCXkw4+U1Ks+vMDZ6ewa+6eTMtPJi+Ze41/WBikMg0IDgZ4AS3XMN4goBeYV6jzbxTflIeTGEi
-N9GcHq3qlCT2QSwqHhC4DrKoqlebjKZfhfSpakIQsez+oR1YXk0QVRyGub5n9R3W7cFwjQ+N8dQJ
-BL/V5Mcuhq+ofZvsfqPl59aBXqLI7ZixHFfwNQzJLsmHRyYU3xpcLy6fAdua2TuR2IcC8aLkVJiE
-cGQJH+dXQ69vxug895x1osgBE5rgLSo32fAaR8SA5BSfAsq5O6hDmTRXjRz4LT+Z/fvgwnEB7yuj
-9FJZBS/eZ4GcXZPzoTGLxwXTcmvsMTsdDfwHi3kjgr0UGeGrXUCWzds9OfKqqfcxbU2iV1gy18XR
-bXi5W+puwGAg5oNLyr4dzfeclDIkg53ZkSbO4l0Hsdci0qZSuqZazIX14NFSTVh3IhuFeTEmTJSO
-cCWnV9vi5+QAoJfxoU7vffSZGJIYqnJNyOq6lL/1lfkQo385ta9Ky5e8eoqyIyWFVgUlKInJSDXN
-LqWrLWrAj4y83ql5MQag5RSFTec4YwYEibzko8fhpOvlB5kbnA1D5MUz1zGiplkPT9mEGEeI39U5
-dzo4FZ3iPSROQgXysDUZjhzQBd2Mm075rU0Xyx8QodDVt1NvvrVl80ld0MqBPGm07XYYcTskz4Fa
-0SWWrGdzJk3SkswdV5OVXlnmrec4flf66l41pHAdB36q1a1AJ9/YAG/LMbsZTJgJfpvcAbfP0jMI
-rxYd58YwHfWuOzb5cDQs62SSgYlpyZjL8jLYiGMl/o407jeRUr7JBANcRudIQ4857elSY3ttbIdg
-8m1pX21UMj2D6+P0XmPp+zwR196yLlr4FkW2nzAR1zCSHfdnipq9toAbqFLy5qXBLmrFZoxxAplA
-K/HqIRN+VhxHxwhHi43vjSBkA9+T9qTJC7rvJs383PYj62QUA9yfZ07+aFS63XqpPjxotBo0WHzs
-ZnGXSn5l6rmvcth0Md9nUmyH/EujaHBIwHK9JBsVsWMS01NXkNt3ZjCgSD3FW8sDzIEcmZfBG0jY
-5w4/AE278XwamgNHGULe2dqMQ683JgDM0UYCBJ9op8jMAMJv99iYr2Iobs5kbezkExbAqXC7E2SJ
-3uUwOcCXjJkTSSHb45uoLwS5nmKAtAkYpDa+xYHzWNGMUXAA1JPs0LsfYW88VoCXFQoJ9K45u4p2
-YI3gSZOJ2d7R2EZNBfQKA/HGWpLgn/hPvLmi1uHKZn6tsVy3apWE+0Lyh0LU4kQ0PhP3MU0vkJ/X
-EfvoYddE3BDq1kqTry7ni9Xok/ZLr67K2zQDKCt/Uj6RrnDW2sSQP3HYVhB0QTTH2Uay1VDNJ63s
-ngrDWY8RdR7maHlmZu4kbtOenrue/FTHKoEnsOniHBu3NPrQ8um5/bxPIqbhCbsPkn3DiB1k3xhy
-fArnxXAMUN7QCpMo3Ey1yrEZ9xc3nkF3WaCP65heOXV8141jkb8NvbWbOnkbJ35jDk8z9hQ6XmqL
-k2heRd98hCdDFJtEsL3D+NvWmRc2dKtZ6tMQAHKq9Q0qe649Ok1CevluFPaTa9+6FOm1pQg15kJ4
-Js28jqroJa3Ss0N5i4IJAJ+oCoYWZET5lOqnASwxpTmi7DlrvOC2XKcqMB3dr+MR40W+KaK96Jx7
-4bLKkg+VeVVblLkM3F5eby2hfwAvWWcTP3s1+63mHgqMpx1KW5I9dP2RyOsMHJmOVLOjeMQ5ufpi
-3uFyiyl5YfEXC3mjEw1A8vKwSihsqFjlXBVoV3aPIp+oXl0mF6K9GOL2QR+D9aABCgpq3OWkp3pw
-T4+dk0NbMzc5ztjxCsngrXF1zvLmcIFYtXGL6FTIhKRwUvDAi7yChhk3Va6UQPmpBMKSXPqA6se0
-InEbrvtI21YsGepWQ81gE4VxSMVWLsb3kuLVDvjsYGVeN+iHnJj58lY0DHXj1H9q+5KUlTfGCC5U
-YWgRInHrbMm+rwLDfE6H+DR1XwMbt7AtPCpd9gBvXTgnA+4fSnPeE4tbMPsj5X3ALKvTOivMbRPd
-1Tb3Cp6gOXVPIU2jWaXz0QCZmQWgm/6FnB8bhgQgw4ugvWjknQV9m6gvgH9TNIeZZVqn3Kr+zbRO
-obM0hrVse4FAqeE7y+6AZ4Ph+mZwD/V0L8U+cPyw+BmneF+27KXCozYnvmGMFGbpl7JgxfxYW8Dw
-2fGxRtXotQLUvuEph+eXA/xpThp/YqsYaqqHYEVyUnDU7BkEmj+moRy1BmoU0q1N8L+BedLElyZG
-tgQh/xq4yiYN8zuoXiQCk9t/FigZ8O+L8mSPFgF46HRFRkCAq0WW7rZbSmPQfovhOcOz32Xhd683
-JEFiyDvqDnTbZs53wrFQfiNvFP02aBWGuAhOB90ntkYUmQTyckpr7n271JVnR97o56L71mOwc2n/
-pAasjXGVBqCCCM+TcVhWXluO7isDW7rWPzkWWmiUftYi38g6vyW95WvE7t3kSXMhAQg6rfJ0j/hJ
-8xjn7vKuT/FZUPInIgQZHDf6jCGJj8xp97ONiiVZX1YfnHQqAw8A+DBAjyKBtbXsUO2Vns37WX5y
-jPdSIVAMDmFJ3lBV2d+IR5wAUAGhFXH9L9/XppHKY2a4+56+SPo/mfbUXamNJLe1uuQTxZkuPlMq
-EWF8PoVxvq/a54SvdWZOpjgXM6xnwrxHQEZM9nuwlxVAqvTBPUUg44RD3pFlZzD7ywGx0pNND0u+
-hMnlZr/dML7is7hlJQc026wOuWHTfpfQBtl/a+D9A0h4BHC3TUB9cUOpmsrVSKmQ+SlzDAASylA2
-b3I3PaYdjk0R+0hBo/hM9JgsO2Pp1+LCTXnEF0PplUG5g0utcJHFCFMPrbplsdfV7/HjAnTe2A+B
-ke7naVGBkclrPEufvcQGDPLdw2gP1G+OtqQPRPo0Oc/dMY1vdoPVz94CTbdU31G2rB97kr+Ndg5L
-khx85LvE+JzQm0J/Cn7T8rbM2UqxC026kS5ZzxZgW8cvWv6YIhV9VOoz1JEVrdBwSLCXruxoYRv+
-KCDQM/2gG8A9hq0ePapIGNFj79zLAksoFZafavRMMjk2LjCowuoBNycVkP2FK4grhP6PgdP8vCvD
-m53shnj5Tpclqf2F82xmv+e7v5j3s9ILnK+eYsAFzr0FdkBqJPvF5GU8Os6uzTYxpZAOH/DKSU5I
-WiXlYAnPIPZ9yqaI1323yYNtj4nkj2a3rMVOdrKx3gLrQ7zgpeiVV/3FYEK8Da7fc5w60MEpjNVg
-0kvoRy8l61565laReebfxt05tw5D228q9Ujlo2yrBfHCtXBw1V+NtylKwApBYpUQxBjJLkG/InrT
-824X9wwkKbmfZBOq1yJzvl36IEPiKPuovPD+xLFHp8K+hD/lbEMWB1+W4lvJJ419ncpF5afsVNEk
-KwQ/r/gua3CBOHcOpfnYMhQgO0XbHOHETbz0XRk+Jph6JqcJblhwDH5wZPNMM3Wb7qZ+zZOdPVqM
-fdprFrOujX33B7wmJS3CWvfi0Cmb2LopA79Kh7l7q+oPIj5HAWsg+95apxEwgYJFB8QsjVOa75Y8
-XRXnukALwJBqp9BgyQcvCuHfxrvUyH1Ke6Qt4WxwsAs+KF0lpdEhjlIVqI/dOhWwVGV6QHw/OCxL
-CpQXoU7YbBDX6FSZDAyD0/MCpmEBx2drY5lufhqF16xzMMCc42KETds/mXFycA3K4Lv06lSMnJO4
-p6RglPQrKEJtXcnyZzBYce307mz1n+VU0U9DT1T07PQsp49KzOafde08NgccTbX5E6PhFdGrBsun
-5mWcQd2XNChMyrtZzrhCCs5eCMF9D9hqOugLLbOMuHKI2qBqPsy9zlaiO0xN7o9NgAeFbX/+rucc
-Swnc2Twjnbp+6aW4NaH+R7fUN8kjVsbTExWxmyhKWUKGt07yRNFxCuull1Qaa5Rgq3VAYqevSMfR
-zvhEjKxKtFu8xLEIz/Xzp4z/NDRYmAO6bWwsBzx75+DZqJR0HWaUJGDxmq4TFgASWH5fUaCBa8zm
-SAunZQumG9m72ul2tu/hdnEE9hwsPQ5GJw6oxYjNYiqegkJ9j40/kRl9CLiOoBW5Cz8UduMU9KwM
-flwOcCudEhabiUBzsBUvVz3eEItDGc6ntdLRQGFkdy3CRRFiZRbmwyRFhj1mWNdBW6Trfx+dTCda
-8r/pZB9FmeT/jJe4fPHfdDLrL6qoDJgS/IPYig6Q8G86mfmXCQ5RuHSRkJlB8PpPmcxw/1KRyAS4
-dtOwHVOguv1nnsb5y9YcFVIG/zNAu9v/ikxGbOe/qmQaWEaUBYd/CmEtXI7/P09jlZnsDcj361k1
-Ic3Smt5aNHu4xtWsE9yl9DHE0TF2zzPVulZSHGgs7J1gBw3hlKBLr/LwT8MBCcPWecaqzObSEZjC
-Ky58tY7WSgEcmKWQTczUD/OntOwibk/t3sY8R4H3vIeKuR4ZKPk6Dq7GtybdK2VGBu+N/jULSWao
-+img39hJWPUkOIfcjAF3su8jxHMAPW32wFTuHpSqbtfRWP5OVfaBobFjkh1Z3YDlw90dq57udt+W
-zS4qTa5pGlPDKDFKNmrrwoWzlRfwhdHCD453ZkqZbsD7Rq2MK9QySfttOjw1tSk8BhnJssGuhK8J
-yXtLKcpq108IAd2IG51K7peZWMuaDk20ELvmSOhU+oFilBBvU3YpGyU8xKL6SHCBJq7RrmU5PbV6
-82bi0zLYWISAnaD6vcRqW++4caFNIPiA9dvHeno3O73exMFcPTSg1lbuaPL4ZU1j4m/ZFqy800nb
-mxEjycQYVnbL6lfjHdX2zbktzNSD4sbCyopdD7r0lu3Mu6S7mlrPpVozuxd6z7eBmrbOneRXzHjY
-0gRYYlvh06gd44VKHYvlY3EgEIb60VrvRUArdC9dckvajHnb3dNZ4+vNuNatEfCkPjPVNzvdjaA7
-teV3YZbXYcA6VRTbzKxeq1TQ/Cx417URxpACi/6QzJwB1WdKKE4OHHlVTT+gzeLOS6n3HLSStK0y
-/SrJwD4uz7xa4CWMCM4I2ndtZdOq5Cq6oP4cC9gdsSBhlH87kmlIMUGKdd1z4vCyI1WpYb0cTWYe
-Kt/P2cCswbsPNqXczh3nVqFkW0EgsUq7k13w5jaleg8CSEoVvqp2IB8zchkNTXAeXb69tn+LKV6n
-Cv5eLgxzMX4Z8XSkIYa7IRGbjkxrkVu30a32kk1dYAw3Z04eokll7GrqpzZdugobKsjCMgJOgiDs
-4rfahgNHT0fDyEUFLKPzPpzCE7HWVdpjyCzNxLNb+GjBzCu3+Sji0Leo0XUUeXQpkXc7Hc0NoJpi
-/oQ6uMw5Sq6OGt2bgQmmQ94GQQ7eyiU4N1ZWvmXa+Bjb6Amb5JdiBImXJe5F6ogGQMz9PlL+UE+X
-rKi28Su7uEj6xrFaUcTbkFLt8nFfNxDUVL3cla3xlIzsSmsFZ4fNTVtBc57Y/ghVXoOGQJKi44gg
-hTU7ZrQC8YynKfgjAvuctsktgUGNkfejTeRuZA1YO+aLrUJJsZT82a2iAzY7zxzgVfZxjY1WTV1c
-4fbGnmA6YnRAnramX5x0+8Hikuxsiwva2nFlbvM8vQXg86vIflLqcubuDRGeaFCBUM9SCeCMHZhv
-jWGyoXZq9oFSnu3CYvh2d1VTvqo1fTD1EB2kXp7zNjjafeDnLrSbWL0a1XyO7BkvlIT4aBE+81p0
-xFSZbd/lCt6oVnmAuLwYSt9siTZWGpAZh0Bc0iVD0fewEcGWSWB6OXKMrS+sGYBeVrsOauWk9chT
-mUIPTsgjdgBzGNP6nITFtBKM770NImgpzmn52FadWnwFY/VHj/sntwqPNvZmBSFk5ENUSuM0plPM
-WFlfS7f+6vAMO01P60Npvef83A3ZFqDa+BTIUmdN8NAq2mqqS58nCnX3QMNrqR8JYm7KjBBZ7QSr
-UZ3ee+FwrlfS7RjPFDswl8sKZ0+f/lZpu7Yz/JZp8wq5B9LddJlCHZt7eY+D4WhnrbFJ0DR8PRWH
-airac4L2qxmzOEg2EUub5462L4sWChcxNB+/S7xHCt4G/HTbrJTHQHE4B7jV1giKeO80bE16i9Np
-Exp+QtusYvenNhxOrbDnFZln4lVltOFNzclTM/EO25wRI4WlC1ZkycaEdgxLUhfSZGPrxdOUeGOn
-4CRKQ5Q65itbuZbVuLF19TEZOXy6OgdFivtovksbZz3VV8L3HBDxfif0g6ytrCmJ1mODqzD+ylA9
-LF1WDtBrewku4MSyU4v0AsUFVoAyJGbtj9qLnVPcLWsCIuz4VI/gPOMHBfa9DXVsbEL7bqX6oEpx
-JBTOLdaehsB5yZsaMQglXY27xwqSgXStY6BX66lQ1noW7nNtkqirnH8MzP/BXh2VR6Wfe29M4tel
-Oh3//H1Kd5Hcd1Vwq8ySEpSHJKzOXdkSKa8IAFTPrh1R23ITvTpvbDXnOWi04abPBR4gLDo1dUTS
-pkKgLfQvwxyah3CMAFQUUztsewVyex5r6rmr8RtMALP4Sd4dBurIlZyHqOTVc4hZrKSP8CZ5njj0
-OSLM5Yq1K0Vhwf4wNW82C+NQBQOXxgQ/sdML2xuUDOGbnQWTmkn7V6ofJA9dHnS7pmsPdZDb2EuL
-ZklAXGv2TDqmmkgo+FP6VYcc7FGqYQGUC2YqFDnVWgN/DyDRaobHhUN7NN7yEv7IXN80GVzH8HdM
-bG7KjuhSET91/VLc9DuHjpfJ8evfZ8xeMkP/85h9kZ/h5z/ZQy9f9fc9NDtjsurCImVE6J//8rf5
-2vhLCIcFsK0SFndUhyn6/+2hKUSCHKG52Ci0pcbo7wO2y/Zaw7XoCqZiUk3avzJgC1P8t8Q6Jbb8
-TTr7bh4dfC//OGEThKtBV9CKJ+BEpgUUM3gXnclhl6lr1SCHG5ThZTMVEZXWfSSFvrboa5HUi9oO
-DBJWiRi9eFU0hyluT8GoPUYR6FIMRTprD5eEjE7sOEinXUMWl5RqRhUCZF3px3pEb7e7y6o3i/I9
-lQ2oNoPf76qzoZte3nKDdcmuJBDRJfW4Uka5q4zWI8+1zWFXjoX6GjJDdizPpyn39IacNVmIJEdR
-0pR1b5yE8u4yOhU9bwHdyLBuXWbjjxSo+JwW/Lr50+Fwbys4GSSrEpE9N06AO+ld4P+ijkftsi1g
-1WNMiZ5Rkmx0honjQylxkKNUWrGnQtCNyan0rDVn/VuXGuZ75TtwtN8OPddqL2mgIk90a8k+ToaH
-ov0Sw5NiZ/dK5/c5dOfOWpexOvIyMM6xxePrvbG2eviWpNuUBWxoy21I+Y5qUu+ubYWCqSTZuPS4
-WMolzFGIuk1mUd4uH8pJPfGKwUDUrKeOHYawu1M7nfNsYBC/py3kSd39wuWJw8daYexbVE/nkQWP
-13fBu8EHyr/KGa5TZS+odBc6Li9lE+Bb6sqzPp8kGhJFM06ubqbouTZQONxrMHVrHXyfUd56ncdl
-pb6SWL4uH0yghFfqJtAfe0q1obbX8g6ab+W2Jq7VY5aqR8qqHmY33Tbjzhhjf3LeyJNpSEN1Wm71
-7kAM96tob1kq76W9tdya0T3fYGkjS3vrEu2Q4x1P7Zpl154bEDDyl4lAF8dXt+Ut+jCDYaH6ArGs
-XDPVzlQapolHvhpfFS4/hbe8071hcHAr5USZ+U9L5GXAV59RytiZh5R6u9a+yeE+k6rXmW46fAcx
-4zX8jzJraaXR701AHVfTvJgKGQ0+8CBnYg9OQ7l8IpSK6w3MgIHjjEYKVUtXWjqccxDhzKeCcvWZ
-F4NRvQTxC+GYaPgR2iae3gJCCQ3j1KpATdEFTir37qRPBssTNkaXggG6Yr1awERpw8PcG/AH3yJt
-utjFGx6LEvXTjj67niSEHI4Wx+aJgJeVhXi//Kw4qzWfJ77rsNnEw7CZyoBvdsYBn6PygsLpfLd+
-rLUjta40UxEpTt2r0kRrKpW1iT7kAO+BOKUU0tpGd+G1dQDieE2y5Fhpw05PB3+maUgBSW58Es9b
-WywUMolZMafGtLoGgGorTXqxm71NFecPPMFubj0ZuBuLMtr15IV98thTR1Jj6fbdBqNFWvltYNWV
-Cl/F4tLFcu8yuOvpVYhaYOE7ouxO9Ydl3BqZrkVvPXTVSJablTIL+JLvW+hIkroy/fTOuB7DwKNH
-5ct0FRIAg5d2urYqQxR7Lpt6Gu8JuyztR2QYt1mm8pMIjblZyza9qbzEOVch5tFQJM+VU3+4jcwO
-hrjhJSshAOXGbwrUqJOE1zimd+KWGNOXakQvmZSbDs/kGEPPXD6xuT5xnGdENMkwbOD6OD1UIBTa
-rHyd7XIvZXzThuLZyMARx8J3p5h+XHbzi7/eFfljXZRo48y/rW6f+Lx3RLWOVLFetaVBy37Wmzvh
-B3jJBHGiUzOiUU9x+euUhOfc5iVM1ac5+1HAS7gWFmsc8jV9NCHzZE0KZgRWrXuF43oiaV9UsPdC
-4GM0WDkn2qrqfqsh2sfciNpg++ask7H6sKlwAqbOxQ7Uvhi1lzglPze4F/7yU4lyPrZkySP6WBKe
-jjlQAeqcR606h1C8m/gqZhM6eXAMU/Kni1KIe3Ezh1TB0MzCK80jtXqLWzL6yXszXEe4bD0LdCvC
-QKKnv7BUz8EYX4kUk+DBfZiY2yH9mvB8BkEIhRhAfaVsBO85uzoYefBZYuJLhnNNf4wYat/mE3S0
-6NF0kAO+Avmt5smXy6631cxLRvGXWyLpWAU3CsGj0r641IbVuFOqPNoouP5d/IKOET4W83dUkdGt
-/kAQ33a6vKQ4BAKz8WK0ImBU+pr2Meui2LpntcaRM/yhzI21TtqrzKcnW41oKZi8OE1Y46eHRgYc
-SPuNy8aCVhnFKfYLDjUYyq1iVgPVy8p2dLe8TcnqxMretF7UkdYyZCkf6wvnrxjKvEz7x76YrqLA
-qa8/1yl+//RYpn6lv9R1uEndzDMIKYU82AtsoSb5wfQz6ig1FtWhUNU9aJBrKcu3oahOkapeKDvl
-7+68SUYg8vVX07yRYXufQO3XxWce17uhv2XUhK3mAXOQaii3wHLWvcSjhFkcLYBi6w0FKl4b2q91
-VK8z7J0zuaSGw5Ek5tvvdH3cxiYUiRGyeu3W94o/QnmKWzr+hM2hVopzOynHDnzFKsPhZohrELGF
-tA/6/DrSrQo5JMRMNm/NZDvnCDRBcpr4AB1TUhllAqro+3PmLDFr7ZNdcZfZvzHieDh+wBVYpbA4
-zOzNYYsUgsee3LNRw4+DJNXQnMwK3vRwBzXGZgBz0pMGVA3RnNKZExIAbBbVWbkxRkpgaRof9H4b
-J1t94ebEGNO1+MXS39vYJ5axVhtaak/d4sVJjXXQSGxSbF6q5OP/kHcmyZErWZbdSm4AXxSAKpqp
-mcF6oxn7ZgKhk3T0fY+d1H5qYXUQ9SszIjIiRWJaMfOBN3TSoHh6373nGoSXkoEcp6t2fE48nP62
-veQoTIzUxa+Yc8qZ09epb3+JhP9YAVhaJRRH5vxGkwyH9RxL+8OdujtyQZe6Gj0jLzdYd16cifAP
-rNkAPtb42RPuZn5ZyVgDWrJT0c5x+0tkcS/r0rswzm8N7gPTj55S+Shd3v29orGdNRLKE3C6qzXw
-KU72MVktO/f5LGFKIPAa0brbtJ+RoGbGeh8jnoa6Dd9RDXlrjqZXBc4xMqw7v6JhNk22YtLwIfCN
-lxPVx0P7YE7pvek3+1HGGYY2saeFzHO5Xdc0xdM5MKbSM+1wnTs0NkbZL0GqexXGlCAGZHe0BBtw
-YWgrpji8Uu0rFYRe5gvY8Avo/jSSkyJCspl1Kmed7MHUIm+ySEd3qAs5C55gm3cPcHnwe1OgEqlz
-zkVrLPdZeGmzYh3DD5LuYxn+cvQ3qkzP9fRi9w4Tl31XCXaahNBkRQrQvan0JTIaBt2PHD8o2086
-bA3tLpnHSxKwyalwqtkcS+hjdf/etaSEI/VUkfof52NmnpvG/rTdNxKOJynSbcUXYdGQhHk6w3zp
-P4Lo2CdCwfZ4TOp9rPL7rnvt29KzyhrBz/TQn1TV7iqcRVp6yp2CYJvvJciSqXy3mCnpqHFoaunV
-1iBuELOh92li8HX3aBWHRM57v3krZbDWJcWZ2EJDK9rxouJlEJ3sytjr8YXLKhP4JcO8iqyGfadJ
-BSRndxWxmYwCg7Lh9qiNT7iiNiT2AGtuVStubjFuA5v9T+egVKe7xL+3XJxeDXW+4refLmaQ9BFd
-V+dM6hpiPgAP6OBgOMFenRa7hDgJ1gEvExgpCQk5jXlsNf2lZL5pGWDh67duuNH17tLNGuJYu2pE
-RScSPqp1UGJJaLedxk07vNTt0bF4JvlZTQ71I1bIBPLY2MnOJGIdyudGclbXkvMbQ7p5P+AOqeuf
-oO0w7DJVuL8SqvdMA/dBpu+GOdrVYc9w45KSzS7Z+NsujU/FDClNQqI4ClIsGSGnIZk7AhfxVpu/
-XOnRr05HBcMtA782HCp8bHWOZQn46tBUF7M61ahCiTNsXWIODoV+HXU/vsuuLr4XdJBQV79pJs/F
-ndPyEBLy3pASNNk5Cxb5OTc7guEargi3Myhf4mZVvhdRcK25zKjU2DemvdOIFbuSn1Hw22l3Aqy9
-0XmBof9yRMtrEA9do++zGBssbXpq0+XZ1vFzbpYjprQuPbWBe+JzRANEsFdwwXESasgv9tIR2h46
-neGcUIcRqJ3tz0e2pEP+PnZ0cITY4aZDbBBMCPxdJN/QZmbUEDHu8+e6RnqzDLbXNEZNPC4jhd8c
-N0KthvapcIId0e0gqT2prnk8vSTCP45OQxCyP1k21xCIiWmRX01nRbM8lRZpsXKIZoXgi2aD0lbr
-0ZXMdvM11viBYm3SKixOWJ2yxTTapLDXHzUeNYoh2F8cuejE+k+EAabFMoUwCJex3DrhzsZQFXQF
-oYPMs7TPGLsVdPpnOlW5Kjs7GDIYsuwxWrvs3mkV90r71tjfhTUTK6RGtOE0gC/UY+5qMXnlmL2M
-8d3RkDKZi0veZDWHsh6QpMciVo8asbHSqxH4x/iW1IHXYCgLY/c+w2CmMJqxHM7XGdYzxXtzwIqm
-yemWuBx4YV+85eO9Lz3+xY2RoJhbpAsHCoBgxOWS4hV8bjUhCcM6FNqaVcfNwYZoQqWrfbyM7s3E
-KecjwqsxIv0oz5bZPgCF3YDm2CVY7ByuqTOOO9hFrH1NlnduvjUkeI7sglgNup36MOfIAbvNMPD1
-GPl4f324GPuyuIXh4K+JtPfY/gpSgMJnrUH2PgMDMO1jOBwYBQlFrfv5WWAf7LS7ETOhE1yGl7T3
-ZvYFAaZF4p2OIvmHBTHAiuhQodM3z0Z9Xp7mbhaU6jwMRNQiG38NxPf6GsuTgb1RGkyxM9YibI+q
-TDy+jlWCHTJQ2SZhdE2xSU4LqQrbpJtQLYWN0u2bTTW2Dz32yix7i6PzPL5HrfI6UmAmRkyNGhcd
-a23U6h4aOpzb+eAO3pifFMwQXPVu+uVwR7MweA5UXEYYPsNwOnD6DdgO4nGnk+le7PmSILyPWZT0
-2nLASyykeoetavGUFphLs6h5Stonk8k5ZHWRzkeTRYnQcRfhODMidx1jVM3U14httcS+ukR6NMrf
-Wmyt0xj8GuiI4+Wthj1EK8UVL05uOaR/+dljjbWwyHakA9RfLLOg6hCUc/82ldTZgAqoPpMov9TY
-pCWmW/a8IMJskGNnqzfZDBnHuuwYAYY1zb8oyPLauR/Ioseatjg8desQg2+G0dfE8BtW53Gyn6Ct
-OONbgCVYT1rANcrDxb1aagHy9kwQ7dzrH4JrRUlAtFavUdpcFb1SM8ZCcnz8iMLNgBnZWkzJfNpT
-TMqFfqQZycfE0Ga3uIfXo+w3G1uz0rIteYNa09lnsjLG/Gx1w9OMGZo99Rvz3UK1WhHtR+3ZzYG6
-x8eK5xwzdYWp2sJcveyT+MhvUkzXsdV4XX5IrSdNPA/EpiLr3Ilti1Xb136ZGHcjYCbprucnQq3T
-stF1DWpBsHrny+4W67eO9ytghWP2zDE25nCaAgBSgO3Cy/Jd0bWMrSUsn9uGpalpQ5DjIGdrYtvh
-wRVil0wvWcSVuIDBq08A+ZzHxHRh4AJHbsrhYAljV/XFNbIWKNvvhv+FoqmU+G/JwpBcvKivitx3
-LXCTGvOT4H5d9PN+7pu9nhkXN2wQlzCCG8WlJxcxJ3zw7cuQ4jCZ21+RUbwAtvvVxpjfmpaRs9WO
-g0MIr7N2YbTrLf8xLYNbrGM1JcMsDOYwjC1FHAJbLkikSjZC8hzzDGWN8RxKkBEYH/adpS6a8YI/
-nM1Ts6sGNkZp8+YMCiEL+y4GFDU8YbC8xFWwtckwGqCPCkd70Jqv0iGCIkln0EWcRz9uV3xYvYRw
-Pb70fN9lOxwmLWbav5bNS91/tjPgFyH3RYimX+ZHYVr7hGNkGNK9lC9IZuwqQ6z5RNRRfhpbsCmL
-tgGBkUywWWXqdYZd69LHyzxvd08J9peooXt5WbyQUmbP1kTAMThmaIxZteMhAvcWhZ4/N/fgPAYX
-G1lNDRpkn2bKjv1g7CPEVHbuLyUtFALutCZ5asNi3CVQfrQ6J12Ms70lJ1OM+wqWkV83H4HTnnNe
-I1nnPvsdUdT+Ezz2ztVcbt98TCxtVWr+McJDHOHpofbXqa1XDk/eXv2uzpL7gOJBe3R4dyH5+vkp
-XEoZm2mfifWYP3OxK7ruJbH1dTX0/0bUNIkL559vHf4MwaVUlST/yN2z/On/dPfAu3WE69DGgYlm
-CbT9uX2w/jAVoRghXGkJKV0qZ/7cPmDvsZDQleOAgmBj8bfbB4PtA9xbSlGdfxWbJt0l5PZ31DSl
-HFMngotfiNPjb5cPWqjT/hZz1MkwvcsSP8U4Kj+FqX4GRdLCDDmprQVtiLf3zQUIni3Qwwr6Ybtg
-EKUqf2qrYRmZcZlp2vZLmFBq6xxzYBnXRGvnG6t+1vMQFn0wNsaCXBw65qcFwuiMUJF4nUPSt0E0
-BrhjDC3DLMpwFQANq1kSRtFwzKA7zln02UB7hGLoWZPJXWnoqXiyR5s7bdHcERqlM1McMwPLyph8
-1FCbxmm4pAM1TmF5m+hhi2dU9hA9dtQ/tK7O1/FiNpBwXBLNuLStvE4uDYmZftXTmWBHqM4GPgPD
-HPdpHe7pcuFpDbal3wSbIsMNHiTOHpD16wB0QmKUwJ1j7eNK29jdeFcFzfs0DjdDGHfR1LO5VN+0
-tKN+Qu+I8470m/Y6Zfm7aUxEUvR8ayXsl33HvTZwOHp4HEEb3HwfY61I6YnDiPQ6S+NuAvWzipR1
-GKKR7cBUflIxBnQeT2mDTEScYRs26pj79aFPeuL1vH+2U6k/5ArJD7D8DONWeH5acy/UvVZOwtND
-AOSioj1LHwnMD/nrpCFoDUly39kJQ3PzXVTzUwmOJWDd4VYWfUHImiKFZwVAgIF3W2MjAXkFqrhg
-P+J36EtVjJ4IUMbI+l+x/jiRN8JFLQ7JYKIz6CM5RZZLVs4deAJTvg4wKlsN1BYawF8kLJwQCSNO
-+10ALqdaMmX6hG42dd25o+twcblv8jEvucLbLRlNBr3RRl40yAWQ9oY4n87cTitrOw/izTLmDqmH
-T7sJJ9Vpaq9JB7zKLaVqjVbvh3L4qsyOsF8Kc4jiJKA2akDFDwh0YvMcaQcEuiOwHyRsj81W/grH
-BLW4Z8Lpzb3fW+88aVg5yGGsMmgvnukw+0l3F6fTs14DCEFNvittE40rL7ZNJd6DPvt0zHKXzM4d
-Yv2uENFD0WR7Udae7mq7eRx2c1+c0sp9nENI+fLLYf9HloU4GQwDfiJInh9a21Mza25YKyWb2Of7
-jmkTbEb82NXWk63Vh8kYv8dMmdhwmsdWDGzsg+UW8IoXhPB6AahK26tCgzAkWLbnTkgSYPE2F9+q
-yU8NmsWqgEjGH+oTOBuhTbuiW0AcCA7dQAWf6wTboQq/tFS/n5xhH7JOIL4Qw/Sd8f2kCYP0nL/7
-Pb3n1dQA4A5IUWG1hcxaEwPllqyhNVY7SNpbK7dOZDqpbyL8LZs1NOhXrMvreKLGL+Tbp5DeoQFt
-ksQkDxV4gWOsKgvHA39R3sTPWN5wCvE1O3qHC2mZYwJmWpSe6EeL+PgaIaVQTtnR5WbnXBwwgpEC
-wCQ0N5eU2TUROlmgaXgWZkwRXZBezT4mv1AaJwzAnxq1x5upVl41O19azhvcn8HiT0Qywya9q0io
-rOnYJGSTPsz9/NbTEmDVTkQIRZ2GLH2IMgx1WoT4jYMQJTygOirPQjCuSva86iUu9IpjyAkBS3JN
-7ojK5Kn7icu5xqnBBnVoQQxQYhDSSQx1vONJDw+x2179Ac0frvEXNe/+KuYfdWBzs4Dm2LSCX0Cs
-gL8W2yDF/Q1YqmeoPlDvzMKvRjgTehJucTK/u1340Annbpqrn4jyu9Gd7noRHKJ4WuKzOZLGdKUV
-43daG5sWZgp7JGTnZofMfYlyeacgVPM5osdR2nuZFWcu6dtgskkx52eOik821/sAxu8YfEf0+9nW
-tvAkHRjbrgZ+EEuXHxN3mJVVjQvCY6o8Acheo7jRh5Mt9AoxLju4+cBxsGgAI2rpUD752nidOwx+
-dR/C9IK2WfYcTfzACnRvZksWKRZ6QD5yW+AyYcn+UwhkuR6LszNi8cNZu1psJEzGYDwCGCrkw6r8
-qWf+l7MTUvjLrSWeXeDYstsnNaKFEqzsco78ValXNiCc307VUzOWsET0LRySJbgHbuD8zVF8lhOo
-hVLiz5q3EbI6STiqvPgGcDUIm4my4XjX9CUCpwEnRx1yZd1VevkyhxFhEK35CTriplN30lxA8mny
-ZZBZqKl27rMZIZpEgYbum+ULJRkhHx4pdwpbPLqlcYgce8LvKaAYdfLY+D6VqcoLTSZM7iTuwn6i
-m85MNJ/KkhijjtwmhkG0Uz7NvZV7M6Z/dsvHfx+biv0/UhOuSf2//1fwH7eI8w3IPZNK+4/mxuUv
-+XNuNP9QtunaiyPElpZyGMz+nBvNPwz0Y5cFH0ROaS1Ol/+aGx16QRb39zJY/h09wQK5QNGCjcvc
-+hdrFiAk/Le50cROY7hUkBjS5kv527kxGnzXrnJg0B3nC4wgyJ+V12JWjZpTntivfgpMn+iestvT
-MJp75QN2vuhMFh3Fn9hgSyTMxX6FAp/tOx/MoFO1lymP38vZfNCD5yjsHlCOudjbm79Ugg/ruKJD
-ECCThZLZoz+wIiD7WnPLtkCPBtP9kvyxgcm45aZEO6sHyAFgtYrupV6I5NNnV3KDC22UM/rN5WDt
-BnDwPetXuFUj9edAwH/CZL437Y9h6E587tczpkxESWZaUkVVfTdwM3P8dT1h4TSJoJDlvdfpHW3v
-tT6+2Wpnlk9p9ZyoEjTD+8RFd66PBiGMbLxg56X+56jRp+wOsVen7wmeQyd8VHh3xsM8W4So0Osd
-epttVMgkkrsm/e0zLwcjCHmkUKR7N+fAYKkcmN+Wk33LxKZekuBSj6JpJngVQpmDogJZ1xXlsWm/
-NC7h2VifFivAoMq9D5NlTFj3JQAUTxOc8ZDvJc02j333monyMJLam5mA8P7QGEWCFl0BsptOYfOq
-gdZYNzsTIrmykdgcbAN+9Tw2yTu7lZjAjZbfz+O00/GFZ9qzcgYvdBbI5iWvrbVd98TxfcLsxMLJ
-tVS2OjjkxQq5qYEwNPC6iorYENeR2STyr7UTYDwq0y2v688pVn3HLXYFvx3j/DYjm870esVo/4SE
-V4GTGi6zKW5ps9hPU/M91+dN3mvnRHxkBAGSxfo6avdhi6+Pi3nzGETT0bVglbl74GBkkCR3+vib
-29Kqdh46GiEbzKRZr5Htad8igdzo26g8SsZ3TB+g64GLHdj4b4ZKv49YdZa/ZUg+GYDSHD3TGRIY
-H0kv1qa6UA5+Lmwd7BYIuy6X66gPdnH1lgTsKOjUDpIXMzwTndgZPVaCKe3JwyKQuk5OJ1S+ilP/
-vgp+XHc+ymYr46/MJty315bOj+k5cXZje68XvPmdTx0Zks6NdY9ZBocJjbaVNxou/Fp7T2CVyoCL
-weQwBicalHE/3ZmpvguQmWtkzYzqIH8AMEZ3RTjYaxBoEc96VD7nLB6D7DOYGVOLj3KoPFe0fAHq
-GPIXK5OugbpaW6Dg8r7wuulG17pudV6ZAfOAqrg25v4hwIJugCJdafNvoVFlWm6D0vwJpvgD9f4t
-T4adlo83LYE+Ja4Tmmr1LirMK3p3Rr/D+Iy5PfLTRzz467h74y35ajmd59owuYJxU5kCE6U8TESd
-SM6eTMKhDcCSOcxODi4UrpcPJTMHVLWaGlBlftjgWprh6Lg0glf9T+q/asSKu9TrJwFvI+BqM+4j
-9vfA1eqelOss7wbbOBS2qa8dUe6cJSLTp+q+s9xjbyScfHiXx7480rrCxfqdb8dpjqdtZkV3WuHc
-xz6E8v6YYj3Vi3rDNs5soj3fnZe8Lu+oSjpZi4G1PoquOomFRzZ+Sav4LTGFY5ufIXvb6anEhgD4
-iktU8NAw8hWqOmi0zgf9dDFoucrUtsFuV7lgIodtHpcnvs5LX5Xsv0qGBagv8Hwt4ZzAdBAuj5dQ
-DntDNgJGowuSheB5yarjijHCHb6mTRq+yuKD/go3QTOqdxgWwRucdZ5wq08Zl611LKpdCWSwxdTQ
-xIcuTHedONMtAwX2OsA4FUCZmYvwzayTyOY6HX65NLqm466b0meqTVmes8ERLQuFfYzTd9bOEGlM
-rl+CFK87/DjWvch/lPHpGNE6A0Uxc0KzDMibh0nUXLTgItLJRX9Zw05G0eWSBhSnmWFAFu7SjmKj
-DP/OT/W9lUxeSjlIqMmnbOh2o/2s2KzEdbc3cE47zW1wuVAsfN/UN7/qsn50ghJsiGqSvRlzMtb0
-s9HCddb5dVn87jC45ctuhkV60150q2d5+x0mRGba1ybFPpS424LKVtvKvqyo283GedTkh8VuM2uT
-l5IQLxO0T1zcDr8tFlBj/1a6F9s82przKaFKBskbTOFVO7DZAyOxzsuAzfGh1VlAheKn7fnx9JgK
-SdCwD0JDqSnhMRvslfi/HXb3Q3odzOJUSvSIeVd1Xt8K5kOT43eCHBltRajv6qjyYjhydU+wftrr
-yxZ0ubSPFC/UEdTP5sqkCc60Nz8ksJY0NZ4Slxk8/SjTn1SyMeI1qREaa778iXhKZ50E83yspU8U
-3qcxPjmsJq3pNeAJy6elxKzE06/577rJX2vyKinMnwgg5Qj3iLo4FhRe1b2PxejNkfY7Ei64xrUO
-kbfLJ5LLzsV3obrp0WYEBIJBAfHIX2e9j3H2PeBfqYKLSQCbs9Llf5MQ1u9Y+misABJobEa0nQvt
-6lgfZWxjISoFH4H8GDft1sp+90FzC0X3Wy/KQ2iHp8IfmCgIuxW2NyNCTSTaAbl1IAzc+Gpk3G+q
-45Jhc/UO7CG/uUfPhTXUwJnOwErXI7PAiXK2KzdqT3bWZgCS8O8zUZvMlP9cgn2c4bb81Mk/8H4v
-f/DPKdr+wzCXbKWLw4ciCoH3+j/VV5R6Wim4SyPPSovc4195v6VEev2/ccy/SLb/L1yJ91soQ7pI
-paZtuepfKq2QSyPa36uvphTStoRrKwznjPJ/Ha70+77gJsZyoTTEi11x2wrc4t4yqE/qMOLBzA02
-HZuOvBanodTZ9dZ2QapQe9Z1cYO5RvgIN1XqrrS0v0Vj91lSqaD8AUOexRzTEhRrZJliIAwwxtk0
-gcZje9P0/n5ioIrpWGLbVVXrajaeaU5b1n/Wxpjtc1OGOyP46sh/IxqDxcRPh/MHLTjYAGbfRQYh
-zgE7yRxBxuxCMT+OpPjImCfMKrjlki3Okx2jdrfVufs34YBxt6CDoCoODf0bbu0fYr/+4YS9lIsZ
-KatKXnns+GiP+92AppIt03xYTAYPauVxyqzzNIZpD+d7IgbqE41H797LtFvVAnduNjHIsU9ReG6d
-NvC60l4XAY7eaaGruLSiYvfibr8lQsVQN5nnXnQNRYXqvs/ZLAV93+6skky6E33meXyL4XOsS1+n
-RomKIE2/lgxzrWnRkMSO1AfIJc1DSUGNmwGU9ie4cQtsawb1nmXdNdKaB6uc3nGFrJLWvTRx7EIc
-nbBAW+a6GMi7FVYGWTTbj8rGWDB6gw4O27E/ZNTeBvU5hfazzSbazEKOPv7BrgX7yTp+0Pu91SVb
-3RkOCbyxlC+Q0WFalyyhPXLgnxFvDOrmsGEEmwh0dotxGru+iSpvvsHNQjYO/VOMgccqB0Q7Sf0E
-W2A2po/pENKh4n9LZ6RoBI/sGBMqWrbrCvIBZSqaLwtP5ZnGRY5tKrkLolJp+sIJi5eIFS/ORLAW
-LqnfvrZOaGAnelixVcf+fsg1cz37BbswHSDzNJtbLQKsGY6oXZWjF94QJZDXTfHKmxP0uW3+jqvm
-s55BeBVlg/2gLB4ZBOmJpWJyozIkwWiqBbwcHzds0t10e9iLzgY/mpf3wQLpFYgiJErFujaql7HI
-MLpHobXRCSzyIqF6SHfjLekLLpuSu+U8aZLT2t60AdTk2SaopIo9zy+f894L8gDEOuhcMAavS/Fr
-ICcKTt0LYtXaauOd4lsFMh/UuXXOAupZSgxaAgXKB5gRt3s3nbd6lRzwpDREBsgVcMVcJwChzfZ+
-Ut1jRZZQcM9Nq+wuisazqGGNOhUqD8bZxzzDmW6WjkeKVuKGAgLg6z3hq+m+d8UrKX3cRnbo76zB
-vvfjRmPshjrQ4DzxO17Xcyl+JQklfZF78SfFzw9IhdulGLI0rOxxw4NSd+5a09rvehwZ/sl9J1Ak
-XAdHFvzR2gEG4QNDl3h/pWF/GG2L45u2uICkID6dnR1IyHlcRM2IE8HIAAg4WvBdOvp1Ckr204Gx
-qVz90DZNAiEp8YaCVg4hk7M/y6NbZ2eMdEe4Ocmqipt9nFSJF43O55CqlywBSq5gNmgzI3NdedUk
-7zTaXGvLPo2LOcx0RtpK9YBUyAKyKuzqbJf02aKY/jYHQZ+PJO0X4xHyqij/qd38bjIiHMkKj2ei
-D1/QEq5dZLK3CX5sbezWhJufgzpGtCy2E81buhIMZ8LZUHCYskMCHSNmoFtiArJirV2DmTj3m4/S
-wkPcDDd7qM1VWX7FBhDkWm9/Bp1JeiTn6+C6C0fmy3hsvpN0IliRGsdYjSenNLaG4Xuhiu+txr+l
-hbwvlGROZVHmBzHgYt0n4uwDbGEHc1X+9Jk1QGrN6UOg6a4D4hROO/7oBaMxcDE2PBKj0V+KfZ2C
-LdN0bxOn4UGo9n47PsV+SZYA17xZhh+4G7eim9ZFGe8jZe+KkNOeXuiMt1KaZtGqS6xvgc8BCXs9
-94rPTgEwYlbrLJsxISbNtQmbjcGFcNXyZOcBNs/ALO8rVbETUxjxUTjzGaOX0dxNY9twVIutDN1u
-PbiFsSaNmK8rBVnZUF9mlfPqi/ttW0yfVcFlnvdhkSPIUOG9EN/ryxgahJ+ZtQPLTfe2b048uFii
-0+A8Vc2V4twGgw7IIMm4vibrs+398LEe+4Gf1Bu3wHM3zL9qqAurREvJlFR0jXRnvC2rTpLnGfP6
-6GpoyWOqYpJatARRL7KKGlPfxo46//85tv2D4Uv/H3XQU/0Z/0dYf37/0Nb0T/70n6Ob9QdNsUpH
-AhVUjkn9v/rG1B+6kGiPiI/CMuj8+uvRzWaYg4uBkcRlquIP/Tm6LWRZZFH28BL5lECf/i/F9pD7
-/9vsZhsGcT5dmDA6TJuV/1/Pbja4TYptVb+O9XHbJQCJtTHPCHnR7qS7N41ahraTl6CgYajPP4Tp
-c3oOzmbWshf+B9ex56LHICBr7Vhyr4ghOIyhtm1Qn2DugLrx9edMtPE2W0QKInzwfbRhbYDh6Tjw
-izR+11L5BMKb/D+WQ91flBcSA1GbvoRudiOIwOIgYZGZtWBdyvbY2znxEJvEWtjb59AlhFM1Lnv7
-/JrRITiE0WNnOuRQXVSy2N4lWvwi5uTbAhyW9fVHMEHyKczhrOng0Uz6f9jCj9QCopTYtnE0HOfa
-wh0zeyBLqsXI77IHZ6saw8Ua0Zca393gCzrqtUukLgzvII9/02YJ4q3ZiG70mip56RbIXbhsOfAq
-b2uF+1kqaJMt0ew+SzdaC3JyUFRBY2HPFFPRIFnr+y+hRc5qnqiGNKab7Knb4SNy7yfgASqskFPt
-3GoVb3nqN2qkQ93xs2OH762gBrMdOUTa/JSUEsgjysh6oGGkoLXXTii7H7B9Z7yPkpQEieMbv520
-vfkyvE9H+duRBJWE8kFZ5YieqoHCb09YhduMsUBRihvO1y70qbZp7vF3vzEEg/+nQYbo8b5VDmI3
-r3i7yT/Z42dmcRghDwLtjT1VSOojSW52Yr9EN8vRvlbBeIZI1q0c0t+0UqQ7tKbaKxjq9IyFEr47
-VoMlzmNYKk8iAv4wjD1kR8JvFtWtWncd+baT6YGu1Ovbem4vswrObRMfs8q/04dmo3ES3k1+eIHs
-x6a8xpmYAE3VGxBgbYWtLuEmG46iWCdNf/QnZr0A/MBBWLxJaZH8meYBGSrpvBwxCZJ8ax0Y6msv
-S8cHwtVXFve8BCLn1RynNzsnwBYo60IukW4TrtgrrJzfmslKN1ZWuWFD9eKP+BbE3KGd1xVdkDL3
-xgyV1rIBV7Sw5gJVF6u2MmJctuxe+e0EwpwHKbFcUDRxyuMK7oOpv1QGypamvbRBQ1qBqEsR7+2y
-7b0SgZSYE6tanWx4h3PAcr+yCTxpgKskzOcDEhidAy4GQD8cf6rYfh/H+jxMMZnUoAs35kBFQZCU
-XwELThOxtG1jnGEdeS6N0cCczONouluhaY+x021TjTqWqJe/hqUQDETFu1W6e77gd7sZf/XUja7q
-giuU5SJIaMRUaX9nWGh7anhBQsgOnkaGLGXMAv6LmVwAOwMFZuZzwqMkoyIlPJAmMJiq+B2VEc7I
-HPobd2ZUuOjOSrmOEKZAjyuvtpZc4Ttu8SrRIqHL8RDj7Hc7+xEX4Mi2YL5MDuD/2KWgV1D0IUJw
-DzJJDhhilDeYMdeUInn2U3H2fZoO+2hC+CUxm4y2cfPbiOeXZApTMN+TVIVnERBGKOAZbaO4zPZG
-CZ9Kh5Ws9PwtrrPftbIf5oCM1GBpa1dTlCIOIEzmzGdJXUPsT5b+sNFnHKw1jZKa4LkWGloM1nbR
-k2ZQfBBZ5eONsQ45ivNaVdatz+j6mbMRfH4cQ5SNBq8oSTpF4KvbsHtNU6alrBIfBe3S1FAYG58M
-3oAlH2un2bIidS8qB1UKR+ezTtxkPUkyozjVL4VG7ZNraruUXFCdSO6ZVTmctICwgghLB9BzyShJ
-5ZJyT5PD7alIUbxkFT+a5pJ4qLh8NQX+F/yv93RuYFkvyse2DU4ah+sqyuYDm4o7w+qi9Zj0fGZC
-2owp2URJChmVCxMI30SiGh/4NS/LZxSGa14Ez0lB37abLxqcLl6yQtu3IFt5ga2ExubYvo3Kv46G
-DqdlvFW2zO7gfr0UlS73QUY5VCdVsK5SCi6kw5A91HAtkpnOWXxV3zy16ap06Y6qkh+jclJM6azd
-m+ipKkyKbZKvICEMwf/pJROYgbhA3mpfyXVmFTphN9WtU/CEBEK/DB1zyFgSZZ5kE92soDnjj3Xu
-CoGemtU0c1WzT3slTNQVwT/2b/l4GAFo0EcVenqecq7b7p4HbDPH3QeP4XuTdF+tKOodKqe/sge4
-INCfYPINgIKs5fiYNaohIRe126ygSc6YdWAvC2o3UY9EI/GZmN20KqpCAuCwA8+om+d6xLc/aqRA
-0JVATACnfbK4qWzMUWm7GAV/Xao09DqWuNsmmY1jOgimhZhCxgkT+soyS35W+iyuqdBfqOXEUyZR
-6vFhTJswj3BPZWA+QbAUG6uwluw2sQrhQ+HsPKfNp8s8UYxTL9AJkLA9BacZGYoqYIk1SfK/rMjq
-uT7Mkg1dqXH2hSEucDO82PlvV8avg8JwkvLKOPRlW5E/A1qiFA+xBU3rJKNl06omunq48/etcXIq
-vmdi2LT/h7zzWJJdybLrv3CONiiHGHASgUBokZE6J7CUDq31t/WU/8WFZlkX2cYe9JScVJlde/le
-3hCO4/vsvbbGFTPUEwjD0U7lQU7RFb7r7n1uoKcnM2/8SJG2Ayykf+QzQoc3OxvVrHx2SsX7oKpQ
-frHPjnpw1QIImqPavHTFeJj65arSG0+o776rAPaeaTdybOlh5DsRLGeHrAGTGTj+RjeMKHFg4WJy
-DtNxYqTmVy2/aIvcdvT4gCjiKtiWd1tobyBnGc9yxat0m743MJsN6NWgJjpcVXxAOfZzkEwG4bK8
-hesbFV4Ph28mzoynK/koCi5W87gxODiMJnly7BlHuHoqgug5MeqnpCv2uYRJA5pkkOZzrmMvnhrs
-xaNDvVU6vfVj9Wka+i6N3EM10JLR6+AcrGY9DNanDTrBghyGkLmeu4F873gatJq8bM0J0pKHt+Px
-mlvVm5FER9cQV5d1JKoQfwcTjs9MJEkwgnR2zaaCuJqZ2dtM187BHLJAdH4cOPnuwKmUIo0LtH5R
-4omaXZbixhReXC3cuqN1bEZy4jX9LyzHLJ7Ikxqwj1S+owaqVdrUh3SEVZQqAy2WmW9jdrLmaqIX
-lVFH5/ESpHC4tLHH2k5pT9otH3J2uUYPYmcOaRJ1xpH7b+iNaLtebSTPiyO5we0jrGhHS9xjQZ4i
-m+qTnNGAgvYMDZjQScdatAENB2+XAmgQDrx5XTiu08rcl43hueG8o2qgDXi1usz18k5jsUkd6MyH
-wUmCR0uNmH3Lu0I6xxrto94yXknc/3pOzHfh2DW9Z5falr5TmpFM0Gz1luvHQOjP+cup+I57GGq2
-eLLUmFB1cVZE8J23QMprPaPs1umtjyFQx1Wag50a2XOnjfOk6fJTQcMLCsiaAZUCudAuSjySKh9P
-ioy/B1NsNbM4l6OK1/2ndrRD3jGuYdOByVWiYPE/Oow9O9bwglsIiTCYB7d7UF2eqrHknQzRayaq
-TbOB/SuEpnRuXhw7pNJCWL9S4ZBKw/4XTny5CvTRt2cDgo+gX9Rd20ZHbxLsrQECj/vXQq5paVBk
-rsbu+6UBSwjYgTW92KMsvBiyOhlYilZpTzeqru1V0vajYXxasjtgZucs1QSDBBcWoR5U/hqSFwS6
-SYU0W1FP2RprbaYLE1Ox38WuF0Ef4ubz3Cvzp2or33TIseCHp4oa2sDlCaElMHwPm8YJf4UQGzWu
-NhzfXozXtCLjaNuErE1mMUsO8N/w02OHwvSwsGPbeD3p7nMDMZiMw8Okuh2DfwMtvb3oMDxXtEqC
-JSH03VdAMtV+R672lWR96bet8TnIFyWY2mOoZs9Cqd71xRlrxP0hd6ghGLVyk+eEhUEKrUqjPRXE
-A62guWZpV69UCyhn14NKmkrnQhPpDu4nTyu2+bIraaExdS5HNXXJzQ4VYZtNYu8a+qHXipcaY0Cu
-9gdrEc2MuP01wnZdcYGhOW2JlW5nk4d+7k6Nl8dgo+0u2/UWq2RN3za1+uMyZJoOr5uRIcMtYXaz
-/BQVu/bAEYcCFkyWkz7PR8NPHGZbHayR6Ib9GIbmTpjcL4MK25wlC6+UBP5mbQTUSBs96I5NaeZP
-actyET/ZriqcV7ogHlssqm5qXfJgoS3H8mSH9SGfn3GfkuGfm6+SSwq3YfQXpfAHh2Vh117KSH/R
-zBpLYu9HLUd/R5fxUuXptsFzr2HKVbL8sbX5g57nm4VCt9bL7K4FtGd3+rzhKwOuqnTg+ZKk6kYX
-wqT7ohB1HSPhW4S/SHM/9k54NZCSmKKLq44FoAGNK9rq0YGik3FcGKPzOAdC8wazRrNcei765xgI
-xdiz1qvwR854h+tce0ilhRReUbPRwl4stlNTP8RD7YfpdJ1NFL/lp2Wq0EhARV3D5oW7gm/EuhcP
-Cc5zFUOf8Tim/WPVtI9jn7wDVFsN5HrVIdnmo/jTZ7JBTdodnVTSZUs8Z23xdRub3N03ZjHCKYCt
-YOTuDuCaZ8SS1BTVtZ3ZH2OIcDR5s54g+pEHrFW1Du5s+jTQqbFJIBZwzYx3VRfsrGzyZEL/lDaH
-a/Tpx4mcC5e8i0XJmkLedcn88L3lS9ihbGhp2z5Ec5zi0lFvraJ9m7RnlTlbbSc6lYp57qoe3xRs
-DZoU/wo1PrUMUruarWvVoYwOOmBvK2WS6bT03rbzsygCSpmN16nADF7oUeWVQYLrBVZ76TT3Rmtx
-WA5HyN4PQW1tyQ9AEbC+ZJzvUlthkujVH/Zk5CNp59OqfKsROBZxR8yGjUBqJjh01OZg1fkpQeEv
-Wr4+OlG7KhHHbILcG+Xc6vP0xamD30BNjzRq+RYMu6Ikg0sNd26aV4VeZP4AQIQeTxtTT76iMSJ/
-axGWoZsyhmEnZ8fD7ZyRpcLBm75mIsFbhAOBNUsV0UocJMCc3ZzeayqbA7II7SI8R9ZTFVcvg9mA
-qaSzJXVhPgILSfmar0O9ww+DuAvyPupgWwQMnmaULOze/moO474twUs4kle264D7segeqLzxXMW+
-qPniMaVtyCBn1lTVoU7Jejc9JCljepvgu67NwbXWSWU+KhICutPX4MLF3yxGAud19GnT0EmoSF/b
-Kv8cz9YRSrx7ooCdoo/5jT6lvxJPthvUL1VGeBbFZDe5jHBqNV7DqLa5QkM8TdpJfdN63YQvn7KL
-pHQL2J76J2Lt2UhUDCUFOTSB5SnVjF1PFr9VcjCw83rU6PDDFeky7mQt3W5C+HUWtS92Z6G3ulq8
-mw0y2lP0jbMXH6sbbqreDLxykHfJSxy24UnS8IpnJH/QKsnKzY4w/FPGTJGfjqNHr+JdGn4UYXtO
-IZhYYeQFsf1ctWmz5Qa+X1BNVRVwXydPXFu7ICgeVFgCSo6NkbJHKLdUVIK3w9peX5zEZWJgF+bS
-UPz/pgq8rNtpc8GI9/Pf/5tmactC3SDn9J8v7491kUW/9fQ//vU/+dF/X987wrFoS3I0VUUORoP9
-x/reRgN24aaxi/9fcu6/a8CEp8yF9GbrLPEhKZos3f+5vlcxZGGmZbWPB1ZY/yUNWBfIyf/n/h7+
-sgV9m3/b8ovoaN//uwZs6nVZuiVdUhnULC2h236uTyWblWEeqJBHL+tC2u+cj4mZmL5LHxmHW7P+
-YjqYtoyuPkU0C9T4ZF12oIVFeHBUtlP34QSXKgYx5YTPfVs8UdZ5JJ3kB/DdikihxZS1KfgUXKyP
-RvXUqePVaqKFsvbbae0nyUGQowbNpdj0m2qnUWFGfTlgmJe2iB7QFE99DEVXYXRSsvmuqsuem+cL
-V3xgZKuqNfx2OrnOHVCCTsglF+TjCaST6zBGSkitCoF5RjPjKeroiT+W6b4Ozg3RMIUnSmecG40K
-AXJQKgYw0U+XqSH2ShpHxoiJM6EPdT/Bj+L7vXExdbICfZjR3HIt/aE7kYUrczha9Wh/uUlyyRhk
-GoUcbR+/D9r7XL/3tnw301czC28UswGb6zfZOPkFemowJK8dvkRNXt0ovrkj8bSBEGYrgX4h7ayK
-3tpHGRmPeg5XWmcfIQ2t0pllHRkWCR95ZKk1EJSus+cpv9vdI8SYlURtrqc3Wb0kzkZBb+cM2jTs
-LnWWtlzb5DpEJ6S99Vemw9Glza0UcEzU3mc/urLm7nPOxGkccf3R/SWVahUlyQteJSzWUEbhPX3k
-+Ih7MV7itjo3ueH3uvxtg1+bdvKosaiSRSxzENEMXFS1FVH6hJfYCPHisikHgOl3WulrtnhFku3y
-eW2Zty4nENGS5En09JNpJckeOvc10I9pNMECZJVVsIvNyy2Q22NTP2blj5z7XW5wW6ks+tczyHFx
-1f657XHOWTWb6bVfMJmNQ1F4bfpTjXcpJ14guFC0RDjMJY/CKzEqwYZslJUeNeq94NbFw4+j0s/i
-gumjRL506l9X2n5Fb0A14RA14GpoiWc2ebRqk2+rknu4iei8EBVy44HHWVp2XLhkRqOIiieMu/mM
-/hkW2tHFtO1Jgz2C/arYI2E3LMV1BytIheXak9axGEC7+NfGi8Jgu+xN8dXBHcjiqzTpegivRcXV
-vP+2w5jsU+vb3BUzhAA3h91mPc8Ia7r2TeZsrdXfccJG2viwpuKsDhOUj+nY2vVdF+PVbc1zEM27
-hFtjEiuXQVf9CHKUK0rMlhlmvXwtsMZG2SHQ+93cjZBfHtgd3R0IR9XIXgbm1Jx/ksi4Ku5Va58c
-rLUmvxZhGU6XGEYRcTNaJwzFPepmQ5VdMu0nWk+5CWdc0PHNpIpyt61uq9Gy4tKWF9HzlcXiYXTv
-DrQwWzOYslUgJix6jABQK7Rou6FF1RXHyowe6Mlb1ab12VYNHoNpPYjHGTOqG5Jpac2fznqbg/CA
-X4N+FDYerbmZtRpfDtXYTngODcw6Lm+HEw/HFjf7hFDTBBX+wNJjNn+0JpDqxFXCPPuSqr7u9a+0
-TjezLrbh9BSZFQUKZ5tXLaEkQZoCd3ywEg7SsbpvFVIHfUOD7C2B5YoeLkkPFDgQhUrYP01thty2
-/GTYvU/1fLanie7rgDu8y0gq9HdCdSd+kQdZjHS74gs12EoVmrGlezwf5C0CmWtWkU9x/NcA60EP
-bZqC6EXSWNHlrn4rB/h9KpuRdaaQZNAgwDSPKglSdKB1PVwAovhMURA+6Iviklu5xVlvXmjSfQwn
-uosoMQWD0fpVHt76GcJz2wITTjbhkJ0T4u9uWP9k+MwjGrFru9uiz/h9VngxzYRKdxH5/A4OLAIr
-AAKvihgJyQ30Du0660onl3+OKt5Sagn7ju7HyVmQzT6u90M/0wjfEY+0GS+dVKUm1dqV2rU24TWV
-2r4K2cNPBh8hC1+DNQNvHrd1OX7Okd9CG+7ZdjfwPTUt+mgV06MMi6ho8iU5PNVwifJWh5hVfYeR
-Is02YZbuoVo9xZH951Z/KQlJmjxyRb6lFaui+IO11xq4rnTjh6UCK68MHzR8VtVHPpvpBBIucCDz
-kLoEj6miyNmY4PUBEJWyd/jZcm5/xlLiSut5P4pVMVo38hVVUUM0QK2cOG8yQPCR7R44d/Zmaa7T
-zt4R+1r3UObTq5PkXkiSzoj4fTpfleI2U54ROxCg3e5LjR7sov/qx9JzR+dFM6zrkMV88aA2ieQ0
-Vs8qay4I9WCMf8XQv4Yd/TlcnyYpbwoIcB5mqyEiJhI7FY0f7rZhCA+5/Eeko7kWHGvUzUxvL5Ut
-fzV4MaQBJ83vsQcZEBad56G9amLjqI2XupuevOTc0FLJFjcq6eS2roq9FCyHNNSkCMxgqoyQg4q5
-dHgqm5JwJM+f6DLqB8rRlGajurxBuLgTTyFEWDXbRmirRjurOhvorP5wyLcRURX7jsWqPY3fBtXZ
-Cw87GtkjU61FxBYPHFJ8aaxb3CJ93NzYiR0Z02g+KZoTPRF4/5XVSDmjIiaKvyFEl/lXHcqNWs77
-ACC9G2/lZPqsji+u3hwwFK5CjIdRpaLujwuz6KlJADyziIxbazvnzVl3fvtg+tISnuXqtQijjZTR
-PkmpxWJVx3EQB4ov8fvDYr/Ao2szT3DB6gVgGEAnwcjd9THviHm6Pou8dWPyXp0CbE8D4QvcdXCN
-mB20S8nANBjkH4fwFMhpFenVo9bwmgr7VjJjEXLdRvalzsNDEUWHKnO5xoW/EqBmghKRC/jV0Lbd
-rQX3wo8Y+iwrPYlsr7QgbpQtzoadjYgRgi0FKhlOFBLuko7gukiuqDhF2p90nRFJ4B0mwalGpe+O
-fYW94FykVwEpLiwOYgKlq4QftF8tZA1DO4/8VWLX2SnCT5I3mI6JddCciNOt/+zm+alw9WNGEXsP
-w0R28qxXPc+hhq3BQ6uP3AntwyAs3C43kQQkaOfwrso53UwjW4LWtRf8dXcli3oCK0575sfUQEqD
-TBmuWJSeKvozgA8icPeMSfpRmflP9c2+xAlgNJKH8WqKm+cYEnEapOeemUhREbHp8VHDh5zeHtLo
-TnhKNZCZJca+KVtnQJFyCa0nWM9q4OsxF036molScU6mul8g7Jh994U9j+KhGAmX70w3Cj7b1CQB
-/m1b5C2tOEpL/4lTnruzRcN0Bo2XHl33tPTZKLkL6af3a4tdHCXe8/S1jDw0YOwtV+7NwKZAW9v1
-SvUwZ9DYalxgOBWLnPUfNQmojRNnsMGZzkq4++3yiyF/Z7f1yYeu0/zRVmjOBO4D4ksKgtyZtpNt
-t2JK7yVcQIIHILUyslpON3Bq/EzJDRZcidZU7efhulA5OjIVJan3pMVMBW+rqw5TEBE7vqTaZ9kk
-5ASiNaEFHGwYQPjAyWhTDhy/yTFHKef9dnuTFUpPnOSNCxOy5JKDWrsZ7ZTqLWavQYDIxiA6NSSd
-Jp+3044mkH9Hg571sf5pmZad/DOeHyfk8HHTEkizJKtAom7YvUpccCV9aJLwnnYgxL1qjYM+0NiR
-v0Pd9Bh91gYCR/EXhr8haLzQarzWZdpoKEjrtzHtcKrxbM/9OqQ6QlWbVUm21ereFpSNyYRrqT/9
-8CTU3xQwKNsYjp+9CssrJlIeAefnoXWIondTzs9uYz8i3FbRa6B4igJbEira0ldLVKBpn2yCGAmh
-cAo+GLYWUM+pDMWmqc+KfZO8rH26H1lud853QWlveJro6YztI+Hok9rYXlmw/hOAT4sXJxWMls5t
-Eh8jBW5lMJ/K+GLV6tGx8SgSrcZd2TiUANh3vQsOXCQIz61jvUb2eG5JSpqJshrYXyzNFAHNUDxa
-o2gxhABK686Vyh7X4Sc4/GsmPYc3iQ1BTP0e6nbVYSKWFFFCaC4f6/KYOu9ET0MaMFVq5jMycATV
-6+ixxxRTM6ip5INsDOUhtbIxSEF9xGNE5WNo8yahG+XprVSLhwkqkBPVz7pCWV1NAI/KvllzIfDi
-RuqJj0PEIjzvyDuPbJLu5qkFAuZEzUNJva8S/hDBEPapDqrt0Lse0++yVzCHZClVPknZAYaAzuVE
-h8ms0alnGgTVjVySxi2HlQbNjogLpXZ0pQEI/TfMIthhbgEtQydW+ZnUJuHOQFvoSnW7YbG9WHvu
-yaT6Te/cgzAEGwljs3pQAm9K1eeoQEfWywiIBFJkt1MdMCD5Z5KIcwDOA22Dboz4EjvKIencS0od
-vMQ8nlfKs+T7FtZ8T6iNLyHwglY1A3BIVC2SBSUBBuL2FAPuiq1xbxGXkyoscSDVSrNskybsytM7
-zy/UNXb1TnHT0I3C6jGtpnc8Nvui5l2Z8U3P2KuAin5OQv1pZsokaRboUdTdAkXOnFj4jl5ZwjDv
-I5BnMYWnPV8Uaun0/K47ybVefFyBvLa6fhmzblOVZOj17E5rzNpMG3Z62cWp4U92JxG8RLSHhALn
-8Sy9MqnXdZCfzbTdmIgOUJF8bd42HDOiuBZ8+zIgSbr4azPU78QXovGchUMplGNj/rFwuyjAO62i
-8RirMAET3rz1EcCAQ6xlq478rN2/gyB5F0nug7XEctwoRHYZ/9Phyc2SnY2zJrKTHXLbk5VHu0j2
-33ni7AfswzV1rlFj7sy+5ou4hMiaAH81jCSM8m1Y+tZcv9AiOq3sUWU0UUk6kU7KlaNhDDdqZLcG
-bt3SOIvsZnWs0/KQX9vw5PLLptHGKZR9mrrrqs/etVkBmyr/4HnsW7e7koU8ccfzBuAJs3QfEkW5
-OT2p3dK6NHN+H7uS5zQYemH6ZmDh3Y8PKggsmRdPmca1g5DCTuXoVp3uomnyNozxjoe73xim73DR
-Z5eg8KoaRfqiFC+FNW7LxL44sUEAks7TLKQTJNk7Cv3YsAkFqi6KrKXTY+i8NGp/Nup854SKBz6r
-VApOG6skm9h9NgLDXth/NcXFnMoLhODdmHfsppFCgN9aOeyEkSqu6Yst9bua2tv/f6TLBcT0n0uX
-5+g3pXP4/6JbLj/3D93S/BcbPJOucgwQMPo33fAfuqX5L5hGdUcl8OOilC6K4T9jRwIzKaKmMDnd
-bBVD6T+9qzqxI6L+oKTQNp3/mncVktR/1C2pnBBChx+ACsov8x9yR66hlWlW1FQUJPOr6xLwaw+Y
-QZ+qxjxEYfuQ2QiKIDVKbi+jQjYZ7Ekzf6XWveVoZCfChiId4ktUGdsK5k1JHaOIVZLuxsGdaiT3
-wJfKTxIiSamT31MXqZP5ByeCNPKMG+pQpZcEvU+zgnMM/i4tdxTFYLkUjA4CfzvilkM6Akpuarf0
-PXMxIAxRfzshdcMt9sTZKyfjaOeIRjZxWfqtOudQ0vLIv62i8TVRFVQ2nB6c7CsFNHGtJVcWEnO1
-G231faz4qpEh4UIYReJTLVmnhEwkSqZuEuYQBSZlbZzypPAmzTmGIPQy7awN/SlmfTqIDL9T/sUM
-vanwrJmJ3LHDWqUGI37KLVxaVIFFB6hNv0NZr4qSjB/rf2j9+Xgo6+SYte+9sxu0gd8bAsrcUCat
-PGiq88Fr6WNsPlGdqsaNlyjs7UX22k6QlZk9qLRhR6Ui9Z50KPWNrQMFjUi2xCcI6cjuzLtvSkUA
-dM73uT1QeFtiZonvFToAW2mgWFDCodqZp6r/tLN9PyEmTj1ZELglde1sqvrd0X/ULLlAbjllruEF
-0WMsarbrTOALWR1hi8QsF4MNNOkvjRqDUIQPjqUs3a6QecuroTReY6oEhOYLltWjJovXJGwPpWHc
-urnZqwNpprL3CW8nAImWZL+l0O73WWpcR7lcsy4ssw0E91WVgp0BL/FODfuKUc0PceG3+imjUipA
-pZLqdwAEHiPgpsh+qe1xQDsE2jnjbEvwyEZ41+QzUCS8xaBSCo+6woLMek6XbwDSRr2k+AoLe9ot
-oO7MmrbwznxiSteg44l+xRfqpTwuDQwHEaHgciFH0aIVYEttbTojam+uP+zaQWiCAoyiSgmEisLH
-g9cQoInc36zYln2wkfwDpTPcl8QWOFj6FheNhTXYktQn/m2sE6kfbflZ86dL1YkVUaxmrILiXDGi
-pAloBYe1Ap1Jxh0FKkY6AS8JuvNagy4KZL6rcXsn+B0T5UNow6GmdKXjatvHz1NAJQRvX1IKtP4H
-bOEeGrYc4rUBIUxB8qKzy+5+aPYmj4KKy68QjctvxnaDFjLuON6gQ0QW3bL5DO+i7zyDHaIynNX5
-Yke7VI320mX5l1HfEJqniK/RHIZfFB3XAQg4q1XXHQgB1py3dsqOanwz8Jk3ZbGfqmeZFp8F6YvW
-kpsQMT2oMU7FG+gVBhIgEWxGTUrNFMChyidf/2OKaTCYsGEQwLdeFwkBE/Qq4OKFWWG5m8hLjY9y
-8Zc58wdgVL9b3u72Luv0KqOI8Q6nG2J1kHwlaXJPmohOPipnF6sGzSRJIb06uQtNMiTSPEk9OX7g
-nomkZSlC74cdsv3tCFbBO8O/A4D0zRELyQ6qhqPdBDjWCaBEGTWvccWCf9gHxrnmlDAGc+uYlUer
-vGdnNfJgCE0OM4LEkVKrYocBeg2QqMVJzChjgEFPwLEqks9KCajDrgasVB7mbsbketOS/u7VF3rk
-/NyBHtt5mvOnLYZ55QknMvDcYevGdy2vz+mYrW2mbAiTdUVoRw2vU5H8ZDReTAqdEDRXzNpaoRg6
-bNuDYNcB5elU1MFFJU7Q+vGwJVGNQaZ7Qcke8oZsGo2C3ZfUfDt4Qh0ZTf0Q4TBos+yvVVhHj9pz
-NZHycv70UsWniB2CyvTGvk9GbC22/NUcGE9La6RFcZ0aKXhk4EBBLguSdYtMsVznDB0H9AJSMjxN
-KYiOj5fcnNcGDTrjzAHofsHK4YSnVYUyxJD0eEvSTVWVTa0XD/lI40MFoApBxdL+yMV5SfpsDjFM
-o3xfGHe10B9Gii0kf3HId3yQDIRiazWZeysygTz1+7nkppWnz/hbRsLbcA1xeXfspxBwWCwo1orq
-91XuvC215Rkze4thD26Iodx6PkiLx8yYKQ0MSXJZ+nVk+Eyg3xvlLsELrefRNSAD2/bzMTDpGc+e
-Wnb64OoWgtmGLyK2VYJOCewWqEsgLiKFzwwE4Zlq7fIhjIfV3B6oloQsAthefwiq1xHOk9DuS10Q
-0ThB6KFDlrDlfcLXNguesAJoSq3tWW16kJlxu95a1u0plr22dY6SxiVYPHuNBssenks98QzRPJwi
-ookAPnRvRYKphRac2mSZkixVQ9aI4gXtCxHPziDVjOrrFGOLKb5E98x3EOkq5l21CVLABe/lnmaL
-iQOK7iWLO50air2Wyh3m259xsO7sflA72CVEfx2UrMbh0agtkcG91o58DLlK4RjkUzSem65c59oA
-w2XyBzyUkntWxGlBe94eelnfTHudlWiBvj9TKprVL2ZEbqL1JjhEKQkPkwauyRhWYdf5BQYRx5ou
-o6Fj6aITo0A4jLnRGsElwqiGtG4A1ivi+iUzIoo+mnUTxoz/ACB7ezcZ5XsCd1Urn+EBrIbK+mn1
-g4I/LQJYosftmZrRhutEWXBgzVsARHkzeRFoDFuw4NyEzWdf/nKXAWdiUm50tZLGD0rMWWKPo2g9
-Nd1JhcFmoOBM2YcJM8h0hy38JV1+FZy1DgdrYm01YoJt1p9ZrT90xm/RO596Hlzgi25609zNMtnC
-Cme5Avko0Py2xmJe4gxZ4GoZso28pRwEyMsR7An1Rmr1YBQYvIP9WO9lkfph1N1TzqEGX23EummM
-jfdSOFBEbkJp96bUvCAUh4ieE2B7Nzu56DnZmJRlNG5t0vleQRMVng9EMbZLXbDpWhmTKamw+pvu
-rRPEPRorJnzs2O8lr3MYUCKgtKvIpDAek1WcNEcHq7aW9ZsWP5xq4FjhbH4KBQTxIvM7ECaxnb13
-VeoDEmYpTj4gecOhugmX2jJRPxigtceW7ASt2ZrzU7U6XT86EYuY1XZEDRkaWxifFeBDMut3dbCA
-IqgQiIKjYJXTGnBqzjwzfmRKPaRqQ5Djo8N8uQmUpxZ8nvJJFernaFjvoH1CedYqBhNAQ4nE8l/H
-gGtuBopkwU41CbCjAMeHQDKv3MmmBE67UjV2Z29zLCY+s+ChKUslHOquNPlE/QPPjGM4UdKg71ub
-WmRglEGxZG5VAhLJdMZnfgxI/NPzxJGO7dk5iHF4bOgVbXEhDxWAdUjJoVlvp3Zr6IB2+hztjgre
-VH+12ARjg1Od28jmWBVLCUABrh8DvdKdSEEpdLnI/inRqxVr+xVBZCL81lnQNwAP1O71az92L47W
-QkdhtdsU4R9H32Niq14Tm295kb1Zs8sMWn7ZWg0nsiaXgFs6Mw/UfiWpvYlE8TYs3xyebZN9yMNk
-T05io/c/wubSm0G7n56jJNoTJhCU9ugutTUyOk/uX+ouBCy5nabXBuJVkg73mpyWTrMyOy8ro3Q+
-md9GDcZU91LJ48iPKPi4ioCVA7Ng0FzGCsk7GiqWlDVw0cYfp/JRxb9uSfLwONb76dxxsSbK3vJ/
-sn9shDhGLB9ijpPIXNzMhCESe1ePb1iTNzUeokyvmPLBtpfHLsbQUV1tNvWyf9PUo9SB2RZol2us
-H2PPdWhkb+PPlOiGwICootmM02bKLUZMCJxot4m7m6c3g+LJ6qPQoRhMnhjs5xEX+gIDat57Vrhx
-8RrbT+MAJb75KKRyskxrbdkvtR3c42TcKAq9G6wslnM/FA9DRt+bxDIf5Pc0sIxVSOF9XzaHOqGf
-Zi5+cn28czJ8gWR7E412oJUYfuUkfR3JZxUFhxxzmzEm3ETaezhzS8oZa8JDlv6a9W0KjS1oJPJl
-Jhmi6tbozboC0d/K5N3SF5MhuXVlRQdA1YyXgNSVZTsvKc9Gs/ua+tijJKDKToEOSarj1uV8z0r8
-lJSIKbaBIX8nk7NjJevCNbdyfJxJ8UjMN1V56NI/utU9/GQ7l+60yuWDBeI/KsJD4MCamfv7WJDk
-FsHFYuzMhUAqc1jOtrRqxTsL80XDHbXpb46+PM2dNf4Hbo/kmaf6PlHfQhHE2uCMykcUSUnCeIkP
-DHIni/K1Eh55/rUGMlWeSWeSSDb14ziznocGNbUExtydAp0Aw/iF/sY1eWMvzlPD44J8xztzriin
-0XlyzJLMddd9RCX2kvQlLh8MCm0EzPzFv5/hs65Yh1fTizNzG9XeKBMcxscIvudIDV9nnAbaclDn
-O2GdLJpURsp0YuseUa0TcjaShZhq3ryII2KM5Lmnp7m+jAJiuI30WAQeA1pM3EZZ/vu0imU/rrgI
-HpRE7dQ28DL1Iu3zmDxW/S3Vu1PODQntrw0/8vjRdGnDTa+zW19Lc1r1zNqBtrL10evDRwMDA4+A
-TQ9BBICgV0YqRt2bLFTfBXxQDvqngZ6WzvtsSnDtkETC0tN37ikWj2WX8Pzi4ZeZft0SFyoOlvKE
-9MpH6zk17jWLTC3IkcUR5BEyop3hbOmV26QztV6SaCjRBg17gRHdWhUN+1rQbZNwqWTNcQ7GnOGr
-1s82KD8TSn+hTd+Du0kDXCDVM5L13nRO5kAaY9BNANcz/F7N6zFRqj1uVbC5MwQXEzgin93nKI79
-2PbAFtNoFQ9QruLfxpQ7t9k6wId7eyQcM4ODd95N5Y2DWiOlmFPwFAe4wwj7sYJJLwWSHs9zrjyx
-b/Ke1ST1q6D0JG1oQxJgau3Lm2hZYgDpCl8rCZU3SZ6KgNiIoIeowNbc2Mq55NHomv055eOXBwee
-d/5EcA3L19qF4qt2OzNofKe1rrPzHVvD+/9k70ySZMfO7LwVmuagAbjABTD1vomI5+7h0U5g0T30
-/UW7By2gTCMNNdAWNGFxX/qQZCWTzCxRqYGspMwZjcEI+nOHA//9zznfgSOxcIpDY8IYpYmzYW0q
-cBU0enmXmA+Jc1E5Ttbh6KsGcewgjP4MWS5yaZDBdxJMfHPuchpu2nHd/nB/hw0JzGagBT5ROpyu
-V8aDdZ0hfrs3flat5gC1jw+0b9G/bKoWOHjEstzJnub56jxYT4yQKBz5sVcZWuHwhcF8pTuclAqx
-NVvixNYAJZdVbX+vt9mqdLQbnObfB3NrId2XeH6HN75gQrQnnHdwYz4m+P/xS0Wd8sBfxn6RvmnE
-XT3W0CP5GpVYzzYvMnzUK+Aeg3iLCrXjGLlR4f2QdSRUGOOGr9C2n1Jp3AojvGgcwjmtasvfztbV
-xqb5729d/wLc3/0ADvjDsf7Tf02L7k//7ReWsPOf+REgoEvpUuDrGgLakftTgICwXFsQlCK5P5tI
-f7qEZSdDK7D7w28Ih83p35aw0FMFyXuDnxt4Pn+NedR2f05QdS0LyJSLmRkQlcOL+Kl3dPDtMtYc
-zpC/m+t/N9f/3zbXt/Bx9lWsP7kOTNjRmnhuGCT7pp1l2wfwUIeh6lcut7eihCgQgUnpwSZVoc+Y
-xyxIXGg9RuK+aNz3wineJi3aWX34nNf4Ln3ABrqlUg4f7gOcgLUVtPLRV1650RiysmI69KW6dhlU
-LVmvvSR6Gsz+XU7JhdGYPYTTn0sn3Hak3yXITDXWHXbCGX6eghulI6JnXQLMNyv2MieBX+OOCcqG
-zl30Mhf5bU6KSCj1Fum3lkgXjzDsoyHR/Lzi6UFZsrsykvxiiekTVwWblvrN9kxsUUxMXt2+KLLJ
-IAFXLvGxqErIAdr6bSDjh7IG4mQ7Zwu7YepHL25QPE9mz/+n8pJNM7c71AT6dG/a52F8g6hObr+U
-OhvhHquOb97YBTsOxWF7yHaZKlcsWTn4pjekCfFzE5prTbo/OSArwFOd1G+8pr/iTV07ur+bi7dp
-VzuPefNuZEx7OWAmScOq6BTqfgXHQqgPJ65ZLwQ7l960cnLbpanT1tqaK5mRohrbjr7N8qGmoq5t
-AcKDcFvE2LkGYzpMafhc0vtAXOK5ts1VblHnMSbY201v/DQHec2Ee8wdH88IibjIyFmGM7jV03Yk
-qG7btJFjBVqV9JHGQu4iMOK2wqnnavWitB0iMONFsG8Es+EsTQXrnMwcio37bKj05HVS0QW8bag4
-tvDRx6Siacgb17HO2Bj2W538TtVrq6gkCGRH2k03BMEK6DWWRufOqXAmOxSaT50Do8QjQOltJK10
-usKOgZuJDVv5mYfQOqruDLniIbf6D7ug9cfSqSLozA3pcHa4Q/BhVQ67+wxWfMhn40IRY8mgo0H4
-efiUBj5Gq+FMQm/pMzKBdvFXyrc3+Hg3JgFW3YB7YpgfyWiAE+4+hI+CNhtb6vI9piuVWPQi8zje
-1tHJBureeO2FZ8WCjl3OlbaJ1xg0dpZtvYrDq9fLRdPEd6XHIbqXnxKjSDPTz9hImKGkNQO8E1Su
-BDj95Gf7NonBm+n6fCarn/uWQs5ZSBD1dMTz/ahnak9AaSkbekc8hqNKVXfGhO3JdCSax8h5Onhp
-Y7mvWkbxQkS7xMZ6UQv91nHtZlHolGCgnY+wIYA4rSDCresyO5YuuyO6cFcq5LoMauON9PoKfA3Y
-b2vXuHNXYLlk5toLHJXt1HGoTQ8uJ4yU1FAOtH808fly8ioabWkN9Qm6F2sOjltdCGwvkd4lw7pi
-2R2kQbd/miK+pF4doQY5iJgUZnvDTds2W68E0+8ymdNqE2kA0dxVqRDmkuxz8vq72rVOehfslD6w
-MxblW1w2z6LCp9bBS1lxoV66KKQls223qdvi1sz3JUPsNParutMOdTjdFfiho5aKcxSG0Kh2LXGH
-ZiJKYRnDQdPjg2QHndXYItPA/lSE+o3/iIFHfOPLguXb76HHfwg9/nZmc/m/MZsDc8haVXS/MJPP
-v/7XmZxWA+ZtRzcEAXVAXf/p3/Jc5h89SxdydkyYDtjOvxvJpcEPHWkLV8cB8XdML5OGLLwRWCOg
-qP66PBd9XD+zRZhS6qY9dyTo3Or+Ic7VxxDqxr4scdFza6oceaFoEESCX/srM2g/GvOppZWkaBWN
-y2P9SLtzezRNd4VjZNeG7lFzfUhW1WeXQoontjqwzzCTLqMJUgfQpdD/wayUuMmKd4LGPEtq76MQ
-8WEokPkDaW9Tw7gaM7TSMz2I03bxINFGSmM8FRx/Nf2xZRcO3wIRLKE/RGnVh6jNnRqczxbq3kK6
-RA084EesKTjiVIuuV8AlLUtto8EW33QOy/R0c+atFvRFxLTME5Wqw7ta+Xt8sNw4TaI18h0XCjt1
-JIayOrRUzWXpiNeZh7hP3apT2uRN9F1ZOeeOvhvZpxfPyMNtnlg09Wi0MSjjJvKGg1Dlbdtgz/B4
-kDTsdKZB0LjX5hD9h6Vbawuvxwdd1y/l3I0CyszBENoS4SlHvLuDwCae1M7dULt3HOEhiJOwoEUe
-GG6ysLLqW2NiuiM6C7gpHPmv2G0YHUNaAGK6gPni5sP31HyNYg0zR3fuovpQ9uV9m+nvufOpD/ZJ
-KtIYfQW6SX6TNQQTJzkmDSjehrVrEn+UaY6pvbtYM7XSKO7M6s3uzA/yo8sOktrEE05vMQH0+PV9
-a2Xp4UmXMb6rd3M0oFjE1zZN42U+E3N8R7yqiOjGPL6MVf+qpe5WsqP22voiIn1Lefcl0JqlMyaX
-Kg2Obq7tu2G4r8PIBlINThHtoFtC5UA8h7VjVEvMIq/WGO1CVroaRgUext6qslpmEgyngk0mpUiT
-CzeeJnBfMhmYAA31Urur8ZdM9rRMHKx4/nDj8J91kZQrncJSoXAsjrp7r1fpJ5rnFem7IGbtXwtq
-TW1ZHbMAcUvk9kOOTlJM2IlY8IAA6G7qBpyX8Ii4Ve5KUBvBAB5MyBc4H8xAfw3riEYxiDqTv5nG
-z5xZxym43CuK1OE+aoLQ8KSQgLDOaTgVPAISwiW64Bo0ftkwc/n7LZ+57XtnDvOUFSC9hSP5LPEO
-AujUWsmTwB885vq+S6E2Dqw9JwP7T4E61bj+dewdll6ROpBK/8BK+GybeADj5k3o0Z0HSa92qF9j
-BJJGwrrNyrYjNRQdACEayjdhT0+syzj+gL1uG/QNdZfFexOWB2i31z53VnkwXrqa/jJiMjYJRVE8
-UV+7LPgaZL2163vExKxeuWGCw6k65JEYF2BFV6wdofBau4HCWEScmYRf7aq3qHuF3bSg0TGlPs++
-9IPp0qWgLZuGWhVln22Wys30pGfZY030fARhgW8/srRb1XlQZl4Cz9zVRfvcGzGhZXDHDdeSuOal
-tukMkmbqke/aXnI9dg4lrfk5B8AXuXTgSrrtMGlA2f0aw7mLtuJc1B2MuSvXtJaKYA3S2SWCd5s3
-zn6+cSGcHgpUNa/53sdJioPpOWyni61hDm0ozehsumDEKjKt+1IAImmHm8ajkHxAZfPHyySDPaZ2
-OM7WgL+xKlYiBf9RDgcCTXe1iIelTUlfWbNSVTZirSzRdgfZXFj8nGsaqrp0SG89m1CGMGoCeBre
-mCHol0bEatW2wJh6EdFRkEmLFhItSSU1y0uvXcWdzIUP57QJAGC3u+8c/mLFNj/UJMm0eKP72Lp7
-y7phW09jk0CklwNtv11YZlvNLmAjpekxk+4FnZzAQmWh2yYdR0Q8BvvWjqeV5uhveE6+tGH4nk/N
-c+bOypUvuoVRp/lWUa+8n0TWXIY8Id8vsgECL7O6Su17FlP4boyJL5iR3xSoQJZrZsd+DotpCtyQ
-30KVDMzQ2gqvSbehdK5+mh4mHdguZWxb22btTXfqTVDYAjIVbmswz4cuGB5nbmuVDJte57isp+fA
-JFA/+QDQWi4T7M10t7jJWdbFgei1vQLNxPuRmSjDEDsMrdKWsjQwp7kkGbFnY7analiQrCW+WoRk
-vhyaWNmE7vxSZCBEqL0SXbDpbLwt7ciF6nr11UjlttHjL9E3oBMqee9HxKEsj3ha9ZB6461r48IZ
-J2q+ouFbXJH3swWH0Ipu5oJkImts6gOcYgeJ7A569bYwY/oS+1ZbG8N0j8/yiYbYB67TbYnCsk5H
-jCOD7p4ru3/qoehtyEJgQGnnVXqVnFgv4in0Ka6JOoUEBvSqD47xXGah2aCGMVHDfAlvQp7S3An2
-uVY/QLz5nDTnIaAybUFM7epZ2q61NPyQ5AE899xo6uw0kb8bUvvNKcgPePr4KkI0Ly+bpUuPeqTU
-hfmBaz3ZDZU4dIWPDziLPxgx3sa433SDemLIWjVFjCE/xCbQeA9DCp/C4qGYUHY50u7xg3NCio3e
-D4e6JfIctNwgUiOYNy5fnWEdCxXP8mWx9mRC0/j8+GMlMA3EfPo++w0tqd3/5SB8omnqvX7LfmEE
-nn/xR28waFobWgDrZ7y385D5Y7GXI/Dl0jTv0PxlSabjv3qDYRrg/bX4FdfklsrQ++Namh/ZjNM2
-rNm/9MH+qrU04NSfzcAUweqM4MICJ/SzGTjg36iCFKGIcAyGJBQwdGHyadNhSL4XCS4rNLwOsrye
-weij4fpNdMDkAwj0Xt+2y9Kzr2oMYSPp8jolGV93a2/b3Vr4DSNUcCxhiaRh8DoBphFmDlWuvPS6
-fygL2M+dEX7LmmTr1cOXTQIxGCC1cEdsMsDwnToZdUNPTHj0cN6TeA/ulZcDhNOrtR/RSkfmDEw6
-JajVCZviR5hlO2Ely5xnpDIxVXIzuWoTicZ8YP4yuGMvTbs/KcoVkX1pAYOUJ1vjzQZPoIuUu53Q
-bi3Dh+9CbDfpcTQl4J8HOAHQd46t7tDNNCWzcEYfEo3KMWag6LmPgRNGJlxWCrKCIeHFMCBAu9nk
-A1VHVrmVZnVQvXljlS7dsQWrFd3zl5I2lnUaufuiZJ9W9eay4hloWQHOwb5cKCPfRzDFVnlmr8sm
-/RBWtXQCyj35JFoNPC+e0SaEnt3OxU9p8pCBGk2r5t0GDBik02yUuViGsXNrxjIvw1hBoVc02UdD
-NIsOTa7rYSQxMffQhvyBXSjGtqqMaSwzT33Y7zpX//AC81Tk2HKibp+naP9i2KYmZgRDPtvj9D4Z
-nGWSvPa2FN8e3VE9GJLM4tgj6pawgOiCec3qcuM6YLymDGNBN24xCD+Mls/D2FwyrG1o9Nj0FASQ
-r9pXhQ+qLDoTb2Naa/axFrxbkB/TpryX3JG9Huey4+FLG70HLJln0mAguiMQTYiNNuBFjG5amdw6
-fUFdeqNdhXReqrn5ZXxRHLjKCP16crBAxBp5pwnEKe6npEDDjdKXKcWQK586KT+03nhk2Do6LiiP
-EAW8JTipv00OcVpHf0mop6QkCHEfg7cTUb5r4qZoiJ7RgsQLLpwERx0uXhJKtjYQyStZzlmLQn23
-+Etj199n2OTHKXhsUa7Lxn2te3nT6O6VT5AdnPYYPE757VDY7wM+YYVfwmLhpOFZDMCATliJWkUH
-g2E8TvAX4ym4SfHvBm59bij6bQbCvd2UPSQe7xg06ZUviRK1Dhl/guIiMRhs8GKFI1Xk+gQqw4ce
-KzIsW8TQ8aYq8Uo++BvL2Hujyki4OjvNSp6HOP3W5v6p1YydmaVXlniceWZak38aC+M7dLV14peX
-sLP2Ad1zbsvOMaKq1MfJ55mQGcyx1Bacg0jUU/fH33nKy27nOP3e7XHaMpRapnvPwWivQLVbmn7n
-4KftVXo14yJinJFrzbIZxKYvf5w9RKPaayOYKbOn5LPwTrgs4XBppzBrnpyuwnE+PyCrC8fEZTw/
-a9McDRrESMeVn2bEFKnZSKN4pTM0Fqmz6gzAHpWEWgS214uCTVQ0hwksbTd4B19jhYnyfQ0r68gr
-3lAXdwiUvwsLFIsCZKwg8ex3J0hG0ILwy0/Vqq69DfZ9fFtt9kGqDc8RxmTTv0mM+mgKeeKumKyc
-3IRqajDC5VsAaNsy8m8yF9wKkcxY6o9VDHm3rre1bZCXaHhjGei2STa/29PBbOXVD/1u63DSdgKM
-92nFRyduGpcqYtT016En9s/73jkjNlSICT3+8854V+hC/HPPE+pI1bNZFfzpSVogLXtz6+cEJS2M
-ho6CG+2M+2aiHC33sKvBIgz0jq7mFua33GlmfLQmsKOwsCI/JlQexg+xIQ5+5a5lb3/TcwBRoYk7
-e1wRRXkDeHVQMxAWRlkrSU3OfcbmVFx6qrdZIcA374zX2JcFxsBw7XqckRK/olBFbvPYfM0afOF5
-+tyXVbDmat3oLKhTWeKNG1Zaji8dZ5ZVD4LDrdwm2BWK1rlr2Ev3tMHYtGBXNic7GhkLOeFlwUfQ
-DsNTRLIwZb51OXJIw74VmfYaREZLBtN4omAbpIYLaKAXOzQCEifs9udXn9Lx0UPuEVQFjgV32KC3
-76K2PnIa2UNMxjfc6d/nMkinH/cELA5NmO+yon9NuQNqvl7j/NVXM4QbZ++tXXnAeOJDHzKkW9WL
-kU/fmPVu2FNRlKvCD5/kxcLusqPXTpuqAQmuN/l3o6Bausr51zS3GU87CARUiwn9XIhq3YxqxSe/
-9usBNJjH/YhE7WtWEGWzLCplHIZLrQumQzxRmEiqaB6Dj7aUu5pwcmPQeta2jyryztEABxeiZ4+M
-5Q7uZ5Tn+OMt96nW/BPtRgcwzgth+9nW9PsvcwYzDy5fc5XdWVjWmgAHpY1LNiy0u3E0qnUYyZM1
-VB8R6knYqIPhUJiMxGDo2dXjuhniadlVNC+Hyucy1G8iwX10arSboU93qQIDMPrvU5LSuTOPNDNZ
-iKIkVbU6Jqj0FbTegaDqB+rUxZfZraZConnabcroQVJrBxLs2e2NDyXt27oW1lYLp4fO9XZ1Bj8V
-RYi+a302ftW0xdRFJLjpZN8HVE6clRDiYpNkfaVzjuAeTnIjbs4Kn0vhkAki6zHLFforbUhiGSba
-fePEb/U43CTBdLbxk60Sq+W5E5RP4dg9NbEDDT7ipOJQ1KMXxUlZ6mzF9o2ySV1UYf1QGO6DNk5Q
-UocUB41vrJIpbcEERS81lDbMz5glffkR6PV7YyYDUZHY3qhYhz+lzCtk4n1vtVttzpRHbfpSm1ay
-hsy2TCaOJVNk8libMsgFd5Z7ZxvYfulg8oX/jYuaoyvGKTK59ZLqzNdcT+YKt+p7x5GiIJ7op7AR
-9OY1bBtv4QrjmwF1w8/Q03oZ7GQ77KuKJkstBdbN8V7UGomsppbb1C/25qDjFwVJakKbzR5yw7+E
-lIVCjFoazvyFzV6bMDmZg7wUUX3r42FdxKHvsGj0t5MRfXgun2jTZ3tZKNaybX3reVi0tJTKRUNh
-Mh9AVNn9yqKKCpLAZyDhzgoWa2Mwr3dh162npjylM/Kpw7c/DPlOmqVDRacLO9gO96kimemn8piY
-7p1vpBzbx2GDdYxg3BTvA9BAi1CH1eN2cHk7BwizyReF8jhPGkfTG25DM30F3JwvTTYnayl7cssh
-RzCfPqgm3BgzvDOaiucor48VDUrbiUcoic9sZXF9UrwCEFVE7KA1yMtVeTYBZ9V2tq1bHiHDCGSH
-na+EaX4hpUSMVqkbLhMotu1VEeJbOAKVvabXp/IxejlIxc7YnLIhXpsOEQMl9hZdLHmNRqb5x0Zh
-JDWdeccTy0M5YkFr24zQRdMIMGeAx1poYiFwEp09XOjkn8rtT6IMX4m/nLPW2dd8qGY5nvVAomRq
-lFR5JdyuIPYVARXk9r6HVtqEd6QSr4FhjAdJf2hei2dv8I/dOH5vIsPlHhABwUW+nuwGGjkGPSRS
-PgstTp8CoV96qshKAEpTH+4KT97HJNVDOOosFdtVSbqM+uwXQzO/BlY6ZNlA1jv2gxHGm0Jle8PS
-nrqJpdZUfdNLF9IMjCkje+vGfpdY/DwKruEktiPFiYZkrmjGK/UGiOAtq5pI3MYA3Y3EAr/inHQ1
-AOMyYNaa59qA65iT4tWyQ2J190PQ4bA1wZN0F0x3PHwp1+KhMtb7oRlZMDTiEiQK/E7ykjC9sUBZ
-W5QN1tUYr3J35INp19Jh2Z818nZKjAd2PHAO/S8wNF9dNK1G0awtESj+lJnBbplBHOXut6Ny2QhL
-/8yBdhk/wrzo/pC/ff7hmP/rf/nz/8iL9hfO+/Pf+tGGRrri3+mxQQkTDutE5C0w83/XY0NXjWE4
-f2mqmfO7P3Gh8aP/wxobfu9nx30KcVxXN1gfULIzW+F+6kL7vcXm/48WG+lir3CAdP3eYqP+H2+x
-cVIojMNwmJwQ8Ar5zwiikjGzhSsdTspMj8QYt24yz1oJTDikzIh4TLADfT1+Cmkz8yeCtmZ305vR
-0QrSVyiGG6h895blbzInfHc8JL7OrJ57PT5i8rplHQRKuuBEKHSxQfi6ZqgP2MeRwj3l3deoQJmw
-t5lf3WaTCejK6B54CuYra0AONAlrmX7e7NgIzkVMybikyRwiRaUdCMZc42zMVlqSfSeTwrhOBihW
-bK46mDYIQYtay++Za2+tJN03c7yVRBf0qVPRYJo2WGRXqc24Lh1WBRmJx559Nwnx0qgpsZtOwdhR
-Ls9ssytEGa/gXR/9tPkKJ+igOOn7Aader1rtKcYqBKgD0bnFuI7Rjx3tyqawTHHEtYLhU8cR6M3W
-wGw2CbKBwvuFDtIyM1F/gpWwdMyVFuW7Cmu+xGsI7uzkTSPsS1yICjdim7xRGvjNxaOY4VWMLfDg
-YQ9nCxejQ696gavRwdZWzTZHRIyLQXbWZq3DJm8N4x9xQV05Mxx8fJKswsqNHbQQp4WF3O8+0AWf
-rjXcldlsswwS7WnEd5njv8zxYQ74MXt8mTo7ZBYh2mHAsSmJjhbzacCFG4PgTMewfYClfwincWfj
-+Rx9MiruEM+MBUKAKtj/hwQva+2og/jnc/mNg5fnhf4/m2Kuf/6Xr/c//fd//c+/MLnMv//j5GI6
-toNZBy3Pgbn9o1Bh/xGyssng4uFfdxyHn/xNqBA28FCPOCYThbD+Ztax3D96+Old/ucuUw+kk1/j
-n3fsn/XvmVjxrbl9z3FsId1/MOukphX7zE+gCrRgi1DrLjLNXM9CJZKrdpNN7dKO8CGk7AxaziRW
-7W6HLNyNXbd1KYscQOYHqjOXsgauENKmpSB7TKAObAt4YEMx0KZRxsqWM8CoxlsSOLSfiHK6qyHT
-Zz0AO3pvsii4wV18V/fhocmpI6ua4slOtJ2byzsNRlSuUdVUW3S6ao37rAt36WGfwbRb3tZxUe+m
-pCfgEyLSIjqkWXKppIKIJncZ+3ck7WE5TGpv6sb3GoFzJXyIWKnvrCo9ITRZd8SQ+gqzB9W5bhke
-KL3FMkQJCdUIjx59AQ1mYJfWBfCVXSfvdd+5q1KfWtD0IGyXZUsN3FirkWT1go19fa5Axxl0SUmD
-nXCttUvhIwrgnrwaggr1MeXwkA37pOEdLnIAvF6LxTtzv8U4oIMePu0kw+8zyC1PoP6FsXZyeni5
-Zam9qym++kX32peSUPlUwQjUUnwILYfJumc5yGa5C8MzegMYSs3+ZPW2DXtz5SIaYB86ck5cx1lI
-xrB5rSqUDOrAWIit446+kcmmenQMbqRd7hMjn++EPg8ELMoE/bfhoK16NzUBSAHOb7DGAnBvaJ2g
-GYUysVvP6i+oR/veK/dOCUcMi64fGyumezJQ0QhMb3jPQxA2xnQft0SS5fBsCGPZNf4dRzI1Lxi2
-BnQBzWerTmb3XuZsKIoE5NagAWDKQXv7+calXAa6zRqzdI3AbN2lQVaCaexWcaW/RLTmIKQ9FBbU
-TY+geGtkH25k7MZ8+Oh8zEdR0WHZ0QARggILJVncuRKN98VGWxht43tnwjy1eZYsTLOHyqMnrzr1
-tX4f0FRnEgslZx7VpybEH1Y0ClcKm/+1nTRPQUeGtO9vHbs6e+B2JmN+dCjyTGI6WRItw+KCDEqx
-KRttPwRoapLn+DIO+rWt5Is+qhcv1h/9XH6FIxtjI7EhmnIA3hDokvtW8kSc6l1paZc65Er2yubR
-y/tT6VFWXJPepPT5IdfZ85jg+0RhUDXHqVs3H7NaQWmZ2TTNJ7zEu0qzsOXPmJRJ6z8DkHgLPGFs
-QfEfRIV7ACBy8LApLWnmvhjGZOJyndY2wVpaALa6N79qcnhzRXBnq26R9rML3DAvziQ/HXJujaPO
-xRA8TTR5Wi0R+Kpu7xkx8H74x5DC44UadLHs3G5PXfwxiJu7dOblDTCL4uoToedJJARaHW9BMO7d
-6Dqu0vg2pcqroga6smggCeeCy8bZtvVnM9QMHjWNwdOwoeiDRZ8ZcONJGvDXWP8biAcJBkyWZ8EZ
-1Yp/Rv01TRgMWVsjTLFL5G6U41gvWNGIlr21KaO9pCDGonZnYU0ZleTF2sFh78OQaVxxbSJCHq1z
-lVXzYA+YrqxRvxtbPvM8564QN8QQy+Ci+u4xzeJNGdoPmOZfulE+V9wG3KA7cLQENPLsad95/76z
-WUoWeVNfU7bGS8OqXivhbvoCqTc06AklTRj7EW2LGOZErH8Mo3wtakKwoeW/lSWelCkjTR5MFxeM
-p2cRZC2jDFVXgzqD2/xAUdS8BNtY+IH6HshZHBIpQKgt3Xc3enZpRaMb43XwnU1IZFTSX+41M1zC
-/jaW6XORsRmsq/LetIsNK8rVbM+Ku1atG/1j1jI0AyAFjR2dO8COUerL4D+sVMxWGv3mtgem2c6l
-eaqmxNtWS+win02Oqqk1cu1kPdFyb9y0JS4g5IrZh6PuYXHP3ERrUxrsfT19JtwoQvqeGdz52AOD
-IP2cAOgYOImwB7ExhsEfBCY4YqpHstrBPm/6m7nEJclyBkl/PRHb9MgrkhR4sCo+Xc1JX9xquI1q
-e935Ne9J9TjI7Bzjp+8nsj52ByWmqjL6wZxNLUnRqmGHJecTD+cj68/bXCqc8/ihfIioIfb1sPB2
-A555zwwvUWQ8xIKmljGaSX4mAfBun9XaFp/RW+Na933Ub4JgeCijWvIUq2F56HG79m1zXLvcM23e
-q7yDtqVXwYcZAizwrU9eKHFu6zRUM0fID17b0rvtVfKq+ZBfM8490gWg1DYfiV5uLWXBiYUtJLW0
-XarOeRjb/Evq6rbTtdfe0PZNXmyEn+3KvCbNDEtMg+gUZv460/hGpN6pF/paplxKWsp7bfTDCqbP
-VrDzFQlLej0xCyxn5ifVOEj++IWyuJw7X72LitEGk9peWnSZNaVxdI0aW5j9ioh478XBOQDo4wXV
-rdTaAqHV+erqPOEJZKUr1ypvXYGyXPRnukgOWideBRU+kBdMzjE8A3S1TaNiG7vjqirNG5+ddhfW
-zzADFkLYG9sgTVQF35vKumRD99jp2dqKmpveEUeP3pwFbOWrtKZLFbXYQnnZ9APlWrWKFKHbMLsx
-rBCYgC8AaVu8BSBYN7IRX0YZbQp4nhFFgKuh4NswRstxZJFc58ZdmOfxvqkHcNruic5FSl91ttSo
-qobrAd7NXs2hOJahfPF50tTzJJZBvelC/M5Bl92xGl1hA0bGFrvc5MW4DGFOc49BAbTzqKfIfuJz
-QIgrocwa4Drcst5zxFnkkE6g62yKiMiSIv00QJA30i/HJmhfBvFDTvXMGNYgeGcoalF1yALFcNbz
-GkDPtKJVfS8kk1SWP/cDeX0+BeiJkdMvgjE7wdh+cuhH1aeMBWl0k3szas4dIGKZ4ZMwZ/HSQG/r
-uveqjujCGQiJNFWd8V1MbgpLW8SdszEqtYoAf+IdvYkiIMAhHJ9Q2zs+8DlXOwYoDmE8fdrViCfL
-Xk9dvBU6NsAQ2bHDwdGSiXf8aK/aBkZkfUlYiMPccs54xw6z69sq6nedwnpQKfp2arsW0kT5hH19
-3xjVFnWyWPQznrsW/GJuF2+a4xLu16gSnmz9xuhA7Ng595kRjF9nse933eBTUQHE8EvUhaTrFf7o
-iOVFLae8u/M0690dYCljUiqZxbj86J424NKOd3LySY2P9tpuklOGldlAbwb+DYAJ+oLX70sLqi55
-G5YIClPubI2x+/EzknOBmPSpNWU9nyofogoSdxweq8L4gBn2HkOvXtQN2ujEQy/MkDxqta3Kkd5S
-86lqXTgELrbw/EqDanZTDOPSdsIdpT9L8kvfICZCbSrbbzGtTbRpwijVJDjSNLxUIT0EEKeflGqM
-vc0zAQ1irbXqmwroqxIxDKSwtHeqo0dP8f2uXNBFIRwKl2DfpC9UnoJBUu9lUZ3TnAoyn+oUg5ub
-HxO7c/NvPB2PZtRdIfR9KT1/b2pCVL1CWnJgzGJLWERBDk0LXtxvZ9FucVT7Z0fU01ca/vlfIupW
-f+mMyh/46xmVo6jF4W92qwlDWA4+ux9Jm67rUtvOyRV2piM4if7tkIq2bTlEPDiOujxwf1yv46Yz
-DcmJV/7b6v3XHFKl+fOQt/ND3GU+pQpoIpyUf7pel12Zt8JqoJJTbRt2nn/VVf+cJLO90uOJnAzi
-O9BHDOolFMDCCdShKBz2Y1m1sR1zXwVPNdSHmlzMth0YUkN08sFyX6FkAtxjECjFF99xANEVeLUS
-qV4f7aOgCDvI1Dahxo+8Bq5iGilaOL/mlJ0tkhxmkD5NxuR9U0m0HsLg0UUEteyv2AuPbJoQXJO3
-/0neeSy3kqXb+VVuaJ4V6Y1C0gAu4QGCBN0kg+6k3+l3mpkGegq9ju576cu6Fd11W92K6HEP65xD
-Fgkg9/7NWt+a9HSXZBWjt7lNgIkceeI0tpPJdvE98bg7oYDhEYjyB54u6ZnbRH0k3vnQlqmvh0yU
-+v6Zw+0jcWbeCcd6/RCSQayyT5bhukWY5yRP1viryCDUavWG1kwnJbQIuwtmlED85KZYdNuxILaD
-PgF9MUNOdxx2FH/c5zXQarUZ94n1WTbU+Q3ZmwtLd5/1Hm7P0D8okZFsJg+rSqJNy1bZjgQ3K678
-UPBXQgvhmK83mpKfe9X4njLj0BW8JXRL5gJW9r01CtIiPVb64jQZ2UfhxBc3735w/liI2OLHoIxa
-H/2WT9RdNjk+610/nZotQxX6s/o8SUipzE+e8DWcK0FZaDXLOAludo0NOJlsCHq4GyOTSGxpNuzw
-DfO7ZuDZ6epK7+1tAwVTOlW8VuKOhCJVHALMp4vWHUvgQfmnKvq990njI/nwIPCJK6DV6sA5XZH7
-CpJ7USOisZvkmcjQdeK14FlcgJshuY5Fh8KtecVLe89tzqt+kq917BwgBv40wKeVFpeDW73Rlvq6
-Jw/zjaiL4Z4G084rrFXRE9hBF/nZxN2N+67e5qCwMi/6QGNtLkM66MUYT76jQDXzUnSEskAoOkyE
-Q5L71tVIuF3kJTbyc2ysfqTjFVc6oGBkFFTSvRRZ+5nn9numkMNTWG/doO6DflwPBYEpSngcxw6R
-WYVkfEq3gdfsbYOdrUR6FgA5TwSj0nYiPtFiTroYy1+NgWkkGLRncyowQwx3/uJRbR2JnYoiIlEk
-aj9UAAZLfyO96Qm6B1qtnyEyiI/xrEdZAszmqQJYqO0phSK86OSITsjfjbY6ZrzmDrQwcIElW9zy
-NMn0c9SmE0lMu9Fl8GsUhDR0dNC81V1GzSQEAR1ovGIprha7W2gj7hoh44s+OQS1jl8IFZYFuXtJ
-5uhLgXhKjLrBZAdOPtrywosDuFJ4bhyroUJrGixmAh1MggLWIPnbfGuxGum9d1PpbTU3w+TprhK3
-vdomGKJQ8kTwznv6TEC7DgrfxLP5+/TBG9PPQcztuDl8lnTeap7cbJ0CsnPZTUtD2ROiOAvlyNS1
-Nzb80g6f+Vj2O9b+H9QHB1Vn8J6guSo79zBRhI1YrvVURfwgDgo4psQwNkNRP9YIZ3tSC4AvgZUj
-/nTQYASEa/rR02jzTa3UL1WmAEovr2ab/FIwnSiT2JdW9GQWvwb8J4GXrgLV3JJp7pc57nfASZbI
-9yPY+da1uZsDlPftssbxZhTy28tqIiwIA65I2RHuTfb9Ra/7UxxA22UepEiSVhGUzQqnfnS3apCQ
-ypx8tnr7FCoAz410ZTfmTHUio4PkqmgsOIvFRWTxIRWBP9qgaekAfdkXn2EQbQg3fcACQ02R2h9m
-W1BeCSh27gzIeXAYBlqUFdiRd1E9G54HTHtTtJZzzMes9EsQGCplciB9ZtkrKCREFRwwDYIhbqwd
-t8xdtJHYJFrtMzrDPN8TYZDrBPg0MQna+bqk4oxEoiIyRsSoDOl73qkvwgKtKRUvWSu1+5wr8j6Y
-1PaBF10EfB7ENt7HVAPMMjUmejoXUPorQy2ydDSCz4GFXqKaiCsPcQmIR01fDaSTuqIjVFn/QjNR
-L6cWVW/hJhrGteDkOnDzZXKNmaTmzbQrJ8SaFvovHHPdEgM8mUhQfgdlhhmZh7QiM1woj27Y/2D2
-XwNHpcMNVmaQfeQ14jOVEJa2NhdzeEWhTutoFuQx9E0KArlKdaNFnFKphgm/njdo9C4Rl9VjlNCb
-mBE/ZsnDXUi4uL2MxUox2g+NfBdKRFZFpFK0WUqboH/EOqkxQfcaBS5lbWPcaTcvgRdfDYn1LU+R
-IurbarZsJNCedRswVfxoEijUAtpdNLlVkmzRvokKUWzbnFKaxUxnJGqpl6pgmkBp2VXx09jOA2si
-xsBUzhuvdZcGvsv0xSEDt4zCA6LTmzJSC2TNJVaFj5hqQ9LRVcTmzuHOJnn6uWy6A9VSQ/CWt5+i
-kuhOCuFlQmyWXcJbVTt3KbGaCFLrynqlCVZPUYA1hjTAOo78fmJqC1f4gbbgZKr1DE0VfsHYH69V
-hbNQ/exc5Mm9MaLh4fyUdJyB510TN9dhiFjyHAcEr6HdMsLxIHEzsvTj+O/3Rml8ZkH0VkfuqcQp
-PI9HUrRJ1Vrk2qFqe4SM8UPWRw4xnVq3LXvMb0bc7Tly+81oIqyMZA8+S9tMrfImwH8tTBLObJah
-yzSNSBKAyC+64aVhkVkZCGBkh/UyUnwhNXdfOe3ZZUiQaCl+XYvRxkQ/QWhQ6z7gmEULH/Woaemq
-IyoMXMpAMar4miTpCiUNRztUZJ1YWaPt57SFiAQlGmu3Kz9cPfHdLmIlGSsfdVG34AncfQaLLyrV
-d+HYGxLMdgMbWWjx6aayExLd4GVboX1vK6Nd/+u0B/r/V4dzLvrx3/bx1zSKv9MZzF/7R2fg/oaB
-y0bbggrdtDHB/qUzcH4DCaX+7nDxdBw1f9XdzD4bHViUDZ2fEFPT/k8+G3x0lI9smiwWW6h1/sd/
-+xr+a/hTXItsDMmG/Jv//jfR5dciFm3z3/8LVp+/Fd7QrODa0WgMLE81jb/pDKhgVJHr3cR1N+gL
-zxThmm2MDWoQXnjGJ8vW6ONl1lkMTWpyyAnDJZhvIWHJUL2wkPds8KsDaeoA992kSVb4ujajEW1r
-vHBUPhzjwHaTWH5XUpCNpJU4J2KYnja+Eg/wdVxQf82+3a05DTUM8fBzDreKMD4qbf0VUQsAGz23
-JrBiMI2g3Vi+eJlzCmOA7DG+upjlk6k9GXomNlqTb90UKenQDC9GiNMgyLWrCZ/c0b6icXQXqcVj
-4Ubg+hvmwXYdr3pRVDstRYmaT6zOhil9NGggJl2526H4jgzgpsi4l5njvUDecTnPocGb07OHL8jC
-HuIZBBSAnVaYxoccGfA0lZ0dhqc+IaBJc29egRx2UCusSiTOmxMBxQi48ypY9RM3aZxdJ3m2CB8u
-WmZfWozdvyZuZVM11iFK0kPQqA8xItkhSV/Dxj4XY3vIBnlIAf8sMl5P8s04HPUoh6zSqYfSZvVG
-6tCRh5seJdQfRpTjFOTIYdu6RWrRUD41bNbKLKzXCbFSqS6XSTpdG6KNkqa/5c2AJTtiNKral0Tm
-L3bgfmiVXJgUK6TKY6VXzkBHlkHjynWfg8seOtA2xmS/Mt1zVmMd+w3CauxOCqzYisy61vvwVBZe
-Y1cUMGxHeo054TEh+m6JPX+djqwLGrZheFuJOiMiylD1pRLlp1oInTeNsqjtYTMXDkpqz/e67qNI
-+cXUevb144omAhAQdznNWuwu2OBjzZY9QWViqkp0rhy4VpUH264Gd93r40CgjHmaKtI3h/A8kogF
-VdfGSxx/O5U7rb1Siddup77XI34nI7lkyDCWY9QEW11BDllb0Wtl184y7oEeBOmuyay33P0ZJ5QU
-ZdKZm0ivXYSh4yc4f6Kn5MULEZuoKsZ4xwCZ3mYYpdJuZqmWBNjap0oLybwU3kPmCLiXWveSTM7L
-PAlTXWSsfR3vOTZWozr5Zage25jHw3ERoiJjd0Nat8oz9mKM0T0PxoPDvVPW5lKwkjJaAqhtxMdy
-+uxl5IdhsEIo/UxBd52Q8q71bsBA0OhQTaeo4iDoHuuyuSsT9WI4wPzVGGsREPFkCOMMMRrldJx8
-92AbSsncShjNMYrT9ghZ5800qe+AaFfndsLc0inynLXTmdy0vRcOD2413QwnfbTCnGd4ejdMctGa
-KXyALbRhabvuCZ5I8+hlGsp9St8c9uQlOAhEwkE/6nZNPaqOPPYGkbLtNfDKL9yJRzMpcY8VxUvI
-Shsz/iGjGHID9g11175mtfSWuh2+pxYOrN4sMJon5WfjAohN0nUtkjd7oo/hqPnWkrZF2xIewqjd
-eCWYL43A82pyD/UgedXjw9RzVubthnEncVBGPVzqcaIsY5Kc6eIh1OYIrepZFGO2aiFxHQwUtIs2
-D5+mDpyUQfpfSLfGuJ/lkwZXvaY1WLeRB2jVitwzFi576QKNxMwQkYwcMkZIiepUbDikXeHqPi4D
-/kVEEq0TmBMbOGPTKxNiKRfkD3+C66Hv0uVsDS9svHdOHF/MAYiUF6hiE3Z0iX3LwriLhl+eaL6G
-nmjGf50KwEaF+o8HhPd//99f8c/vEtx//58fn//nf/2dOmD+Dn/UASTuGIz5EKvwlhG9w5X+F78t
-1Jg5CQdmFbaVeSz5x4TQUn9zNQRermbqKl/4JxkLf0WlC47GAAKpzZXAP1MHONYssP2PemFOS2cG
-qenYgb3Zv+u4jjWDb/48IZygcudTyfKkMxPysB5C8TUANeaEgrBGw9+DKcU+AvjD8uRFxenaIYdQ
-czBoY3RKXB2zYrGR+eC3FASKjRSvgJ7MMC4tj7L6qDM2WR4IfgdhP3ds0K5q0NaTta5SFPd9cB0k
-e3Q0KpXgNM0nhh6YJGuVGUK/qVjAIkQ4WuGrzZIlIBBMbd2DTbSVqYLW8LxNi908bWccRrhNJbD0
-XuILoCVL5UPHhY+PmB+1vJFFs3PJBLCSW9swpdBuhc4eMThhf/NHoqktvBods7+kD/a50ZNuesu9
-N7N/R06yzbDnWvAArbBYovALy+4aVJeOrBwbKUFIgvNMVKldbxnE4yWX0NnHt6awb1qBjVPJUE0W
-3X2Iyu1seS3tX/hlWWGlMA6f+InM6s4VNXubEcmFixaCWz2htjSAJE/bOSddTYzVZNTrDAByo6RX
-6cT+nJtNRM1Gr5kOzWpN6Qcx3pEjOSI6E4xWiVdml2FmcRfYjneEFEZhwsa993Mdy3GinXq4FZ7c
-oFJc5TbRACxqz9VE2EA84mKjiyCTKEi+LUKzAzVfmOaTo5hrksOXjYeH15VQrZclcokOEl9Wm+uy
-rnxnKhdDdquCN2NE7OQBd4HYgohSMgywQUQMAXSUZjUmENG7z7p+ZPCwIKmJxZV19chWZXvPrKsg
-IgBTW+RpYCDZ8sTJ2kWtUwfBY4WxiWSTtct+SVJGamiwMtbXxh7I2bIvgRNQmjGpWhdBezP6fGvl
-T9N4CxtIwHMsiF1SNtSHnOlAiBRRg3PoyLUblPvcpP0ktInIRBR/1gln9sotv0c2SzVuOsck0hLY
-oTZ7WbsMZohGfHW/AT/y1E4vkUfsr6lAOyqWWvWYOtmB7aivzPVzWbwEOYw+kAyO8hQJ2H0dRnZD
-rIRj7Vub6SzzpYWqzBBI01fD5lLOaT9tc4+neNd42Z4B7Mno8hP7f1x6cGug32+M8OhCarZJP++w
-x0XkolrEccYAF8L+AFJq3wedn6LTGIioScpg6er6SwZkpszBjrQ3MENE9jDHc1hcwYxK9Wipkrzi
-VjMCpVmrcDI0z/Fb9YhrgIZAIeWo8TOjJL5kL+VzLyuOimuv89o48pZNv9r6hgSVlW0xYyd2SUfi
-RPRsKSckPkzSD22zc5nRs5ooC/mShh+V8oyxehUyjEMEEJN+rnfRl43EzSlIdrfQ3tq1cinL6orA
-GGpjyEemrx5bFCyZvFjhZ88sySkS/hh2x8hEOieFqu/3LB02s+olS7BrKsNi0m998hzw4NXDSott
-fkf4AK3OSyeRq3YsMQgy3mZleqBU8Kdq2NpgUCzC4avK2fLyLjOSsDXnXUwWn6ThjG/yPAatLyu5
-MdScIBZRrwYsenZfkHVi4pwqyLsnguJNmVVJlZiOs4DFy23Svp5GwCtK9SR0rDXaK5kq0ET1g+d2
-xDaRIDb/GpygQYFhr3fUdyVqfpUD8TD2KiBtJIoRQQUBjRxC447s4xxnFnQYV+5TaqmKESiSvqU6
-P2L6kW2goDjFxNgC2x4+ZTSvUte55Rw0eVaIZ9QIBUxbb90DwapRtaUFkYvvJB4+l6pykBODUogt
-43vkbpi6Z5LpB0zQCwvdNHwpQz9hxS7jc+CyZiGfxbB2c168zQR+IEmpQPpjDJdKv+n11pId4c8A
-hGSPcytRD5pNvqVQ74NIfkLjOyfPNCsiJD1m9WhOs695kzDUQ/TMgrb+NKJoqYNvV6a3qd0MHGK2
-ujGiftkPr11LG6mFqwr8EhSqsxuqN1slg1l4hzr1lrVGsruS7cecTk2v03PEWD3hmRdkk3uyu4DR
-oOWJ9tFsbMa93rdcNB3FaXhWFfrmsvd73kvpqAuEbbDOlkZIyaaKrWcjHmE7zI5Xn/3dYbXN6x1P
-QqkRhVLcBtTXztBsI5tcodxYOUl55KIGUaHs6ij3jXa8KW61UBGtmF57oDK/h020irrbJLStQZue
-yn1iykVLUqMtCVBP6l2RP2iQXZbWiG8VDZ/wye58HkV2DOW4YytCLl4L3Uma1k5a0m8jgJ2x/ZLH
-3Ulj7hdxLeAV3Ub1r0DV/alNWdlZ9PlIpSw8psSiMQXAzrfqhMH/xVkWer90gseCqBnWR4+6gLtG
-uCWzflljbzZ/9B6kvxcRTs7MawJWnz9M490OYmpwYrNyaxEn6U6ge2TeGKqbIiNfuza8m1cR4dQa
-wLwqciSHRTOHRqIbEBkDamLDQiBaDH1t80vp0CpJUF0IEXSIdiZ6lj5g8Jgnb206+tao8J2RmUYs
-tmLV/ai7HCKs57vGZdDeXZYEVcKOTf0ojXPqatQRP2r9pJB+px4rUqx6p2HE3p51Hvk8sh/ssN3g
-n2Yks66R7TEpaa3Gx/mJ3d6obo1Tr0uP5FJrHeNGqIYg5wAnfyE6K/1HrnGNgckbNYclE9wohu1N
-QDdWXtV42I1psaCUWhIFsG47eS6CU2/SIbO9YD1zjdQzhdIi8fjkABauJp67rZZ/ltDCDOfFJFqo
-ijetDcIEj6uMYCa2X4lF/Lg8copRgVQnYoivraFuM2qCYS6Vho+Qp8gcT6V3bAITLQ9OyVVUmnuS
-vBkGGeW3Kr/D+qQTdaJNF50x5YR/WeluMvmR+Qdj1Mg7heF7REJA8EAAxKLIzxxSy0abqWZ7lWrB
-kcQMNw/OGG0J0Wp6QGklpxeWVf1a5TD7Bmfbucky7FhpWjjPcRtHwd3jSC/JSVR7KIHtV+WiRu5e
-E7XcdupVV4AcAKErE8b8abPXDW0tRpUL7lqzL5EommYZl/0TGNvS4VdNuNidHAVgTYA2JDBaYwAr
-zxmBupL1W5jjPR6M65TTDDsHe5qW/0I9EdKCf9wT7T8+s0L8fP3eFZ3H5u83RXyLv8gmaDiQPvyJ
-gP9HU2T9BhdYpSWxDWsOG/2rtn9uimx11ljwlWgnZkXFX12JtkYnhdBC03/X/f8zTZFrzcPPPzdF
-OA40gP3EBPGZgabwN8PRwEKlLt15UpOPxxpFXKpvnfhuqkB9KRYdD3G8uXSYC5jpk635IrAvuvea
-otKcIhUWzL21CfYEfmXXz2FPv18/t9OwELhfQ91H2YgKS1sNbuMbPdVYY29iBwsUKXtjdIyJ97JF
-ilsA6ge3xEgGzWgymnkx02/6iQVD2bOSO2szvYQawx97QHYGuzld69xdRtH5NjEoWbkHqQNr76vp
-nX0oMz8s0YIeIKPDqnwutN0YWgvyQ3yyxX29fsbry8gkXwMZvMYNgYoMJEz1WkfjPq5+ORQxOkZ+
-qqSSkqmOjgZSeyV/8KbsMmqfTK+2nvVJGvZDKtZ91B4aQZ0td8xN14oFPYSCxwQygZTBoilsm0fF
-ITD0mzVZ1EJbdlDvN6giYwuRAjWMweUiiPXRSffmuNTV8uhq8yq9OaQjEz4z2hj2HAydblJOGNU7
-V6htReetcoO1h3Fvam/dhP4AFBO4GGPHbZvwC8cWs6bobsNAD0S4qSt9I2RBvFm46ut+k9qPyCMG
-92Za3Iukj2XaOZu0r5Cc1cqQfjxS98+sxnHde8rWifRdXso1DvOTnr82enHSG3CjQb0OMeo3tnYB
-6bpU8pYMUXLE8cDXIWLr8qOh1OfzfkR0QEGjfeZqD341AHOB90BGybMzAqdn6yPDbG+pyTZwKhbR
-14CeSpHorbtsy0V4yEg575JDlUVPIOKcGy3HeuhfjQSiCNdwzpXZwAcAIl850TpNviu+bjrpcbjX
-4huzzSd7nM1r0LfN9tKH3q7WiZTu8l3O8pJFLb6/5ahemhz9vOpiSHHPrntUg/wNrCBjS/loKP1S
-b9KT3rt+TbirkD99gSP8lBJeZDhPljgJp11Dy17FKhtKs6i2iXLCP7/2DAbayR1NwEBALm9V3b8Q
-d+en0YzZgMvZvGL936MKwdmxK5Uf1QUMgAkIAta4JTfnjKWA5bVz6YWydzDpDy7xpsLaO8kIObbb
-6JQYqqdtaxhTw5zglznnIIYkHs0oW/Z1Wdrtc21YdmP2oDp7NfRFYXL883mO4p3XyOdKNV6MLDt6
-JWOPNtaWMzxCL34Z/Qa3Nga3nTFhiRxqlM0XSEkNZAZtrFZWS0kLIKN5TIpspXn9Y6E039MwfbiN
-s+cT7g/uUFMEFWuauhVsyJsi2vVAQU7T8LtEv3U0Mp5g9gaDd3MCuXO96ZdaTK+lcL21peAGCsUG
-FeVBR/8BiEctSJCnkWdxuO2RG1hV/wvEgECG2ZFUOoJrYuxgp965y8GuauVRGLyiVnIhXRdsqLV3
-2bJmI/oGjqVivNj4gOKwPBtkHYXmA1BRnhtGAMk+EANhiupGT388pixGSB66szJm+U3VrXN9R9zq
-s+s0V1E3Kwcpd+RA7sEB6XZrDfFzHzZXNs0bkt/W9vSgWtqlqFpAM0Q2k+NbTwySzeffAa8ZZWD7
-ic2Ud2xcGdzrFUMGm2PJ6TdRxweefk8/D8GwDNwD8QnbsCOcLwDCO4cj5C+B8E50EJemhcoRdctZ
-ZJY9CUHeWLXR1QdduSXB4yg6VNbQ4tdBoC3biJzcZt2UJyX8pfYvnECR9gSYirSFq0pQbcxTONwn
-+RVrN139aaG1ohAKlHXvvoDGWTnmpstOFdN+x6EMVWZLQ7h1Zg4om6XGOLDQip332LglzI5dttdY
-fRCJYelQa29VD0sbrX9D+xQVfODCX9BBk+Ea56x81B1XB/ALOCDHsjsrTg6bIfAxvy1J3iUggEW7
-8KvkzROPCMJUdaUgdZrYutiDfCsp32VH+IJAHRF8DXWxTNTiU+tj+Eo3E0lIYr9Pufba5soyzaHP
-BZg1XdJiy7bbFQr/bHbF2vNHuEUlp0PYSqRfpQTcq9Uq10j1cB5QHlJJ6b+YND16HG8F2NYJz/9C
-dfgNMjQ4qXcoxSAWE8P+JP5Jaty5htmfyg7hizpdjWjOldDVVxBNi1LpSW+9mFx082GkMf6KC4F8
-CQ9PpH5a4L8Sk+t3JgMOZXZ1Ed8gm7cwqgW5uQq8V4uTsMwnX0+IliBGUZrxKQn61w7DUj3UfoxO
-W9gJhC9zyUR96fXxpS/TWxxweZNm5TKZn+16iszOIn5N2XTW1SNqPdjB0UPMGafxQczaGGbWcCxJ
-cIuuufnLRU4TmWI7jHdF3MjUvOjsEotpXQ7QNRgVeDUmWLTvGtCv/qZ00LqEtbPhbMhE25RWfpxg
-CVnh3m539citL55c65gUy9J9bOoUN5/pZ0CylPbdaY+C1SIGipgDMWMNFBNm4drZqtK9XRjKm15u
-IzHuFfMh0KIHy7mOCEgQLxytEZ9IbnC7rLxoN7b1xQbXaU3bJI9XBfODxnH8nuaP+5bMvxRtxT1j
-oYJCZ0lSHfRFo3+qIe9SAzGJMLgxG++UKK2PEXEZy4Ndlr7anIIWKYdmrqKBOHR5DtmnBcJFjo/w
-jIS92YaAUpzWxELdpu50QgoNbRcCRwQldppCe9M0w1PQBctB8ei2DMBbKHWK+Itk1E1IhZSKB0dN
-Vj1E6nipht7eweFm148BQzw7e82wGnrwCrudVEmbRApHbji9RwZzZ9FJLvr8O6749aP86lpIUzD4
-pKrvmbzF22JEFISBHTP5oCaPCdkkGgOcoFIPcSv9tB2PuvblInXSpjukFxR1Z8ti3xtsagzZphat
-ek8iiOo4tkk8JBSmoHIDFoXBbwmoPV7kA6Mo68mRKaA4DBAkiejoneYoyhIgZT0tKwvzOoL3KsB0
-BfdYMFokF2fErWWw4cxldSv7p8q7hkyGJu2HJaxFbERb+dq4NjPCI4ntVNYerJbQeGmQ1dOZki1Z
-58ph0jgbJuS9rIydjes+uXqzcJI5SRaEFMN2TFRz60RFoalPXif9SYk2aTzP9hgvttranb7zhNyN
-ZocAx51p0OlSxqQOAyyiUHVtxif6uNFtFljWawDqTWXgapuEduRFRYCLWPbcsGNPeHTGh3trBXfs
-ESS/eNlHyeBBedfU9kca3WuDN9RkCByj40XyP+B6gfWE3CWYFvB0V17xOnb5Wm3UVUYMY/CU6jUD
-ajwB6VnBEkaBXRjvrseK3eNQMxmQkQyor2uWyyl3VCExhVlyFwRUD/zWNLP3qVKXQckRp+jMCyLp
-q0rGYEyslc68y6E58+A3LtO40SQ7+dOeNUEhQVt2/RqVDsQp5Fa9tM4GF13KIjNjZ9wAzP/X6TZn
-Hf0/7jb/I43tkH20hRz/zvZt/uo/Gk3jN8djS6Zqc0tnGM6ft29z0gIhbB6rNlxM/M1f9flz1APh
-bcQwaIbtsBP7o9GcTeR4MC1aUHv+F/9cCJvj/L/4G8u0EfyzxzN0FafAf96+ZQWlkFvimVRb5d4N
-aLonTEJCye5MigachsFqnIqD6kLXHCRWUVWy0w2l99iFNuB2DhnHtO4wGbZxSGxj1X9YgbxDjfbH
-yP3sbKLQp8H5JNSAUdScuFwd2sF6MyO6FBPifVI99BHRinr7XFflunL1HSBn4GKdh6mdDMIh/0Dq
-6ZG0FK87TS2XkxR+X4t3RnQfCZGqcNncXTo7Ok2EoatWxx0cq1zt9hzFpbsWuRIdcm10Anqbzyu/
-0q8coLht8+oI11iEkcWq3lQZfeF0lWEf+CqZ9snkLfOEwCCWHLZWMh8OuneVIbuDoqaYZzhQznbS
-dYp1Ct2WHRkygswvx8g3EaBoEaIQDpMcULdZr5w4XXux9mCWlkb3K76bxFWpCppfZlAae1cSaOrl
-1ltWOQ8qymtRcilYZXSvhNjkOTqEQjLhRviPqb5iIWonl8mhmejFexDOVLyKGGpYiltj8jaJ9EKG
-y3Q7AoW2haEW5CrnU/3YGcWzYLcGpIRVnsFJTRTWwir6NYZ8ZPE5Xocg4POgRBfXYjZJhGtK8I9h
-5ah5gqUB33twusuYnBBVLTrzalDjpgFCqDLiFp84ga0S5h6VpYYmsFbjV2iyiHytDSyTnaMnZLFO
-fhaJkz1kWzskVDJDTk8bW3ZwXSoLniJbmZbxfDwB1IziwGdCt1YwHmYB+GM324qGkNnG2jSqxNzL
-zdr2W6vAZtdhaq4pipIqufVV+0L41xc2Mj8byC9CijsjCx6dKb5lqb4PBmKjMs7YOmwQS+obix40
-SPKjil2pVRK2y95jPbbVQifzA/nCNk8j3HVVv0RWu6tQlnjFY6CMz44DTsVp44dCKXZNyqoNkKVl
-QHt1+lssCuwqwzpro3XFxFqxyy9im46O0z6OXNhVDHQ5hWTujD6ab5xezD9DRC5oZ6yJjQK1j1v5
-OtZbeI3U38oq9/po49pYhlN7r1rK1aUuiBHhC5ow4gGOhlF/2z3xx0keLus8O44RdgtU9Pu6aFYd
-T16P6DRInbVbdZdyGmevIe1lcEla/bFAik54c7ft7HhLPts65yOPhJ10aBbGvXecAOUqMZ2xQ5dk
-KIfKwQdusaMvxBN5MJido4206icWaveQOq/1AAL06O0Fo/qAZVcxOZT91rEabN+p7E/JrNPty5WD
-Mkbt9SUET39qhg8pxVavs0PQMbHJC2PVxYyI0d2R8h1MS0MdXqXuPhUmXwotdpuMzmYmlQrmapgW
-aG37YSMUlH9O+DR0xVYCb1RDbthWbKLB28y01WYy3yubFZnBuioLI6pxXNI6+ER+7Md8Mjc9fffo
-2Iy2WHGmSUHZz7XPD0k0evttpeXZyZu91zpPSWDcwwwBW5ZVpGSUpxSFmZO1567qdmNjnCnXmM+5
-D4zyt7XdPjrky2RefBvGjHV781nr45OQFq0mqdi5y8vIHsEbn8ewY0kcb5s4vpetxgJynkz05ctY
-IGCKm4GQC9g77MB5qacm3uHqpN+WpCbwvB5IWh9B6s2TG+/FzpuLPhZPhBbcUymei+lDzPkZQcMw
-wQ6aHyHGZWJ8eTMy1ezFzsEpmBBUzn545mBOJyPES1iMqxoAcFyN2orUE3whghISNJ/WwlnSW+Jg
-GMKno+ryU9XfRUr4uhHz9kUsE6PqqDBC2KJ2kjildCq1ZIlneK3MRsvO6w/TNGvmddbwHHdjcU/j
-dJnhRE1bnD5DFAD5Z1NJiuLWNsMfdYxfEugnCxB/nDaBz47cm5MB9orNaBN18zGrU2UZBNOvOh99
-k/FdOO87hg70o96ulSh8wu28AgB/gA9571SMyQnx5vWABwP5tTk0m4lPX2WR+xyIN6NTzh1cDpT6
-TAILRVv9X/bOI0l2Js2uW6kFEG3QYhpaZGSkVhNYqgfhUA4H4ACGvQ2up/fFg6Kxq1hG0qyNnJCs
-QVnZX1Z/vpcRgPsn7j3XcNHpaRjwRfYEfrvlStAuEcp29MdzgwcgyS6hiejQ4wH+dkNbPZkRZmyb
-+Io5Ow8p/4DR740D6kqaUcFsMRaL1f92HtOHaISYqBSPXPGQhNmH5UaXTNf7vqd/xGO9klZA3LF3
-E814rAMC1L1sm1P90kXsAZl/hlF2lR2HIuDrsYyAo9qXzo/2qEAPUWkgMqhQqaR7KkqEKU7Fbzx9
-BMzMTEZPGRhdXgm6TwgQuei2bTZ/071zkcIt2NjAKAhAPJJ+cRMTPdQu9jYR62OBAHnVMy9JhpQO
-2Lhy8QHOHNS2zNRdAF6A6tx3V+UCOYnkQ8akYhO2yS3i12shi3WHFMZz2JqwJs3peSyNcEMkT70h
-cAhXB0XkpO65oyXpMXEy7IIu//FJgEbCwI+Nkab44VkI7tM6S7fmAIojq1dZN20N/GOof6p1OoYc
-iNWT4ZNAVNECqjz9yrNvorSPOCh3hTY+uly8hI3zMHbOt4lX6Ig492T61k3pNz8RAfaMDH6YT+Iz
-59I3qhntfNof+Sdn3/s2GQDldpzx4Bf+e2A3uK0gQldWf4wtsox8nkjsBomneAuWj7iX1tpt/WJf
-c6Gh4LcBzVIxeIPEJ9y0BGTlTMurd0/U+P/7Y8tLHnnFk5Fx/gaZfTAXdEnWd5JIa0z4XSzovZj8
-cJNvJYUT7W1zsZfJAZyNVRkiLRllyAdjilPfqI3l6BVl7cZUdGNdfNulyaGSNQbBMX2b+5jFvBO9
-6OlrWIYtIYOpFod4Bzm+NqY7dGeQ8yECc1ygBIS8w/SetVxm+uuqBAVfjxcxRM9NwRZSxeO4bifc
-M/LD9uCFKdsnLMlahUZSHTWfhuc2P7wMQMPdODsQpfrMan5XOr3At2+fQE7fx2Nqrhmwf+mMmDHd
-0ucllpbnwB+2vkMCV2nrxzE3DqYLV5pnUmeXrmbq6nUbqXiep/imqOWb4G2UyyHKF8BvxKH50o3V
-S5yxBrbc4Mz0Uq/yor7oYvogXPxm7MYlJJVTy5nGctdJ7HIpW3K7+TW1xpkeYEQcNJtxK1JXRoLp
-NlM9SAv4J/XMidB1V9w/+56hYTlSkNbefMoQKcOZ/tV+8onP5tJ6+adNOY2Imk/P7mo8TGbwGHYY
-c2pfhC/YTsafhOfyooSVXxWOcKh5Y/Y15egNTPA3tvNchOZhSPDgu/X80swRylP31zGql6xQBzIh
-NEwf8h0SZ5QUqTwW2NNc0WzHXtxNrAkIh9zQ6t9Zs/WUxc62DNWjTigz2J+j3qlq/pd6E9iXmemK
-T8IKkXIkW0lyctPXzkaeINhorUz/xZzOvuvfOTZHFK9nU4NcBtY7MiFP7nKTULbSYnjcqA4wUZZ/
-6t7YOe6wr13/N2JI2uPc27KX/hblfcXmJ4jU79Tl+UHih2bkj47d9+SpdXtKm0ge/t9sbf++N+Ut
-d8Ft/K/62jOwv7/8239u6x9Rsx+Zf5XI/oc/4m9bVMdzEW9aoevYvvU387nzL7hICFFxydhDp/J3
-US5sUX34GC561L/2tv/HolxsL0TA+t+tUbGyY1nBq2KTqGh60T+sUf+Z5fLPLJd/Zrn8M8vl/94s
-F99nO5vSlf7vZbn0QXksetqO+ZkEhYtFVRbL+Y/27bcUs3nk6pu08a+Nch+LLNvEqj+ZFnjcJqZK
-9AwgRHQ3q8lGC62SwCJXlFZ9ZLsS6AQgfXct8jFeubo+WAjMu9L5gTfEPM4SF2x4n33usgDK4dLG
-0AB8yF8lP93zJHkT5bMZ6R1aMTB2SXaajbc8ypi8g80y4/oShAWDg7BEUQ1yyi6vANOImgzVuy6a
-7YTWuV8sgFV5yKrvSBfzeoxbVMbVWU7UboNPe0akOMO87Awqb5eUjKd8hSDAXIvK+RJz8zYO4Y1l
-JFsyqs44WBEC2qgUKX93iqjNnnjxSpWI1Y0PevrblC0QvBG8YdT3uGDsButdkNWvc8TqTjqHnGwk
-M8muqo1vWvYoc8aaMq33hg+Zrq4/I6PZxuyz7Nx69j1WBjFrFVU3NzbNDkOND2U47EOZm1rxq9Dq
-ZdAMY9TF8ptdgIbTHMuTZNxUWx6p8OjBR2ttUDVOERsCeJQg+kcUKN7dDISTxNSHQRHQk4JzswqE
-popPGyWkHZPkJ/XdUFko3Gr3TmYGv4fIP/lITqrBZQn37JNh6VtLsu8a5y4BkObe8jTCkjl6rLA1
-az2fYv/VLhHDy8a65TH5BHuGfsM+6SXoPEO5kZnzWiVMP0VxGlidrmx2wr0V7uErnvqxvkniuWYd
-M5xRDb8HiJaFi9SQ+EYGajeyS2/sGRSW36x9HV+DNrrvcsIoF8fG0HdEqg1IGWf76jv2woU6oaGc
-wRHIP7OJFZLBwzZDOGv0kqq9LBjn0JWHbfzWosgey/dQFGcziQkc7L/MLNmi+QDsssistlGZXj3t
-XBmg63W5uP7n7h6QTLaAANLZ/WOI+k+5EAIWk1sEM0Av8AC7mp5jaALM4QRxvzHynt58ZdbwESzo
-gWyBEEhoBJDLtlaN9pSxcI1TLiYcYp0BMMhDZr41SIModI4Mr4pVa7F5MvF62NHjLOXR1g4S+7i7
-IBmBkgIGsGPNV9p8uKCZiQPbS99c0agdJrnPhnrLaNBfeAsuOZ0KAEOROSYMsvreiNJdLqCY1Cka
-Ut4tNRp7EZh70d40uXVSNoLRtn9q8wSwFSpZf/C2MfQHI0bAAQ0idYqvGbWjNqKDhBYx+GgsoEdU
-GCYciBLz3F99GT94mDcbiBMNrJ4sRrdsqk/mYTulsAQwa4G0lq1r0BVen+FWcJk9Fuwpy2Pi/daA
-LrpR7gmv3ToAMPKpu6sXIoZksjGDyLBi91Iy1ag5zSwxrMtWHVsJoLEpGbt2j8B5dgnrfnB2ZwcE
-x9SO9xOi1iKPyQvRm3lhdZQMfgji/JTuyFifdRkxWTiTeDvyhxTYRy5TkALQP1im1JuwJigViIwH
-IMQayJINJ/E1hCU/16fZ7u/ArNwts88ZxMjM6DNzfRBwHcSEaGODIuFDXlmgSaiWT140/Ymh77bL
-qlwGNejevAxRNUz1TkfBa51BMYeb0Nauc5Az77GT2vc9w0b2d1Bl3KT8DcwUoyoejjYVjwYRfCsX
-SVgWw3MM4zVDl3cjtW+JNmJiah/6MdyFDG+sEEZ2ghI9ZMDmeXTKyW1jFdtWYxsSIw+F9dF2+boL
-0BsDRD+UE6oGBx7RprKaDBEYTeSy++zrn7Yz2SDYf20834sivjeammDnEE1CsvaaDpWZfehUdDti
-O4Cj5OPi5DCN2hO2wRvkyA8WL1UvsocJp42Z9R9D7z4auYk8oyQmiYG0bPvdZNaPpRGTdmfDS4FN
-nKljU7CG8QiFAi8Epc1knxVvNYuRVYvvEKFvuwuEcbT5f6C7U4iZ6n0ZIL6LSePFV36Yx+RdZ+2b
-mUh3DZP2Pi400kdb/ozAcIbEZQcwHOuBSEZveBTI3r2m/HKbZqN9tk5EG6PSRgo01HBmo2QvQASl
-yEV0k2IET5pfz2+gZ445LgG2RVyzVydpn1PEPl5poFgcNjVoERp8skw3SUwMToEnPUvjTyyZTGJI
-SsXAy7SmTPayBtOR1d91Bf9m9K/cRaw/rHUp5E1YVDGsDRmsCqfYNqncpAPgkdH1VpEk12siaRUv
-BAtuBcFzEmvX9p/8ufuxi+JlKOpd1+ZMVRM3WgfSPetAn5LFLJRbxK6M2xGIklBYnjucHgE6c/7y
-pLQ/FgXcQmgEjx7aUiY+2zCUrxD8f/qK0UGRsDLwT0aojhlgDjFMn3NZXRZJVp3lhBoiBCra4mgI
-5w100FdSBTcismFhLqNjNvksqmxormv0FVuIIgftmwe/Dd/h3+7swb72CVMFL9zEHV85grEzcOj9
-GJBYBCj4DCf7iBT1bQKDqSS7DBMJQYuIyRvHG9OKgP6RmCvnnlV+ad4h7ktXbFJuidf5nJv5vgqm
-q80XCwFLgdpDDFMXB1s1iqixoj64Q5jgyiAsvhYSiZOU7GP0oUzJDAWTaur2Aa3vEbvfTWRwbisf
-3Ap5wXpSIJdY5kW5/BqQt0rt3zKn3yHt+LFTD12WOg3snFbz5NwExHoDS9q3MzIJ5mn7AHht49sv
-SZeiIZwi9Fb9s1eiwDUdPHwsd37y1LjklnUX4JoniuUzbLpN7hX3ERgvi81obpLUU8cWqWzovGRt
-b9oYZ84MoEkHEJsBpw6GsZZOs6UOZOyuqAoH/2Qv5cAs3Kco8aaNttpHrKKwkaf0NOvmkGjvIez8
-PQjiw8Aeluwy0qRmQkhDiV/A//CdYUcReStlj0u7ZNQPIMXNhb0eO7wMrTwT1bgrQ7slYGr4GuV8
-VETceaa3L9qsQB6zmOGj/GSjknAE8pBxNqodA/Z1NXe3BVBq9dcD0nlv0NoRmHcIB8HEnuDSsclA
-c5rZVvhgAJjqHrscA6JpzmAtY9Zt4SZ0w23vtJg3ghmpfi6+U25xKyHdeeIOZbZE+NdPFRvBxuaM
-7ePiWCTuNi3lvorUawmwNvCITOwWs1e3LHL9dCPDFLgWhiSRP7YAVtF3xaR4s0PpyW/ukTsvgNuR
-/AbottWTb/WbOQHDo0dAlRJNMrx2W/TnwdT3Lumrq7JPNy64IZDAxUb0OdZNVUXHgBIrt/Btq2AR
-jnvD2ZnRudaj98fSYs+/jkpnWmk+j2wcHvl8eXmdRzETUk/WpIsyLQrweCrskCO+1npKjiHW2KEA
-i1Nk5rWy2JZ23b1v1HsPr1bMILpMfGDVzv0k/Z0z8Aj24CyF+BFab2UxPS8/AA74q6GRnbdO/Fi5
-nCGZu/Y7+ahc/mj2aUZbXvMRNZ8O02semI8TURtT5nFKp5chj14Gllx9wX8anl0QNeMaNQKlbNRv
-nKZ8mCxOiNRPFIme6OLa5lGjJ8TxGz/7pYQJ0pdPUzyhLx12mB+PMrNfvL67JT7sAzI0zUGjQH/6
-K3smMnbU4CiSF0M3J89Nb+oYSjPCnlsYrBj8u0eo46+GYezLjn1zMRVPMyCDxGRbAklozSQZCzD4
-QTuM+zUeXQ28IXUPRUJoLOvklSiD79lxd4CmCUVktmyE3qnQCRVWWX06vK3cxeW+Duz7sAEM0Zo/
-ieHstZ+ynSoOdT4gjo0mtXEMHmOGnvt6zkCfcFhgtnPz7jdr+IznYjwp0FKtIV9CQuntNDhagd7T
-WB78rj02OX7NvukRJ2gcTjOTVajycxPe2lUEldZHQ2/3dKFerK6aaHDWdXgwK3ZmsIDEaPG0ImZy
-84FOwCZUVdfvhRJsfQGF6O6l75xPO+8aAm2H1yAZD4Fff5SBd58kC1NDIyv1rO5WjepmNqN+5xTz
-fVvQxBjG80DdEScw7eeW0tvE3ODH3KguZtGKIANcAHujtHZGJzczPi3cHNs2TH9D4eqtFfv33bLC
-4j1srBiyGIfymP3kk/1Zm/1zZugtj9TGTuedJ4rwdmSvg4Zc3UaRlOwcp5WF9zCWNsWJ2E3s10lm
-7PhK+9PkOJ9C1R+NbR1Hw353oaFR97Q3tm2/hLF/NJB4je24j+YvEThE3yYb7qK9jv4YbbopMvfJ
-YQeem9FaWD4ObP7gkFMfW9Fq9MbfhWFj263aq5iImXJGXYoFKS412r8cVWY67Ys8MREZunsd6/tQ
-6L0R+JKNAGDlGlHqgCYi5rEYA/Nc9/weUDhPbvuLmmPvaXnBgrcPrOI7VcWnQslrZDATSYLXDRi3
-YM4ZA7BziuwnnBk4Gp4nW/DkkmIzgwn3a3JbTfMjN8JgPRvuBdHOXRYDhLUypCRZYBIJ377XdbUb
-Isqx2R6eHKO5zyPrIUxae615IVGjeqvCp0oFg3uyc3+l3PQ8OMFVttElkvM5IZWmBjEXsUg3evFt
-5rAcA2E+NT3HlM8aD6TZntQJgjL3FAp7bzlfJCkpjg87ozzZgBcreBSDtZ30E7i+VY05tLAePTTH
-vQO+HyK9xxMVIqCoI3EX1vHtlOZ31FmfgxyvRpfthJNeTSPBOSkOEkzjTJiqGCfAfGzQRtiXS28I
-rl9sl2eTnfNJz4j0FJmFxNCOJYLCgcN/qsNrxTlZNZgwM+tYM4gAql+R14EL1x1Phuo31BH3Nc4T
-chHW5DTsUm+wVzXQjXVW5E+hw0Hh2cj4NcCVKdFoGZcVTeUE66mkGy7EcDtDOg7wowPJdzalqimx
-m2ZLePKwAfzJixSyz+70LylGn3E4AmOLrl44vcDierWhADcj67hyIIkjh/uy6A1LwEr1bO18Udwg
-h/N3eiZWU4tTGDGEGOYQL+/sQfSL0kM8oBYCNYNDj5imiW15nuMMzK2zb5FnOIUMKCKEtkVIkRFl
-JadPgOpmpv8gseMtbBYR75zcigJnE8JR6E0UWt6ce6zt+/eoS+7CLtrIbn4QZsnHrQLEmgYWC9iv
-Ku2SkwzdFzl255z7KOfuQ0ytL/ZydMjUP44zBU6HBsZK1o3h3pkO9AEjbLYADSL+Cvb9GOMA7+Zd
-Emf3OYj3mU8PcsbHWMLXi0iWruA3C+/ciPKOgPPtUCebWuZ3pTDY/OmQAiH/jAsbMVDxkpXWdTBR
-MAgZHIvZrLnDR1Rb/ctYtifQE8fOHzNavYlFN70m/Fy2cx5tsDDRQNVfunHSXZU2NtVYhmsLok45
-4sE26nNYmpu+K6Hg45fHzIsTwDPiY1pz5st4vARWp2hV+Fs74m2Wv4OalqnBCrvDnVfE5yqz9gVj
-uSSc/SN+FwTAQpyTyoKzB2x1HUfyxh2CQ4dMbm8xlWJotBmH6C3jrQpUue+C4lIY1V02YFePs46T
-1j6MrvWspHHsyuGS5ipck6t7W8tx2BTI9dhdhiHfiBphW8wJn9esydUqIAw2PykYVS+zHjO/34+5
-876Mtjyjg7VK4qfAX98FfyiB61Voirek4/Pr422VBd5d70EJRQ8ngWl0+QaEAahYvBdCLXnvq043
-T38tFeqSYR6W+GaBaoXNqhjC7xQMzuS19wzujoYV/sjO5r8dA2JwfGMXHMj5xDBw9uTeb/n36tLc
-Oy6yjWqb6vATRvZP2BuHhOBx20VgHVf5hI6bPo34k4em71ljgy/KwFDRcHNbYQfpFoDxZmAMivc6
-Q8uO9bUN/nioYxgbnSg8HlWKOrrsjz24rypw2SWjEh+qbVLV8Mvs19SFV99HryaXo80VxNo2OhAQ
-e4ej8EIbQ6if7+6Z6fwR6N2YNJCC4741IS53Kths2xUJ0noCir36TXvt2lps56k4Sp1iYv7hhfG2
-diTXWQQqAj/8TglIGTgDqMQQxfQPcWnu5ine+3zBVAGYR2LPecT0ccj6xZ7urjzq6Kl267U5BZvR
-yy0uMJoj7UPXD5R1dnMjgnyZu9gnoJ4PJZKR1KKxoSPhBMeNT5Bx3YKND8ZzRqRrlrf42lKrPlSI
-53AiGnlywCWzqmf/3A0LIMZxUA1l3Vr6+hyXzrmMHMYpKZoligZj04ie8IQpvgsntW9aysSEiZkr
-y6egbWoQjgFPT1eC+nUhJcYXBCUnP1o8OAGlXybXNpyRpieSOyXXV6ObAufcVww2AlI/wiy11whT
-tqPMgVi8KRXXm1wxKfLMiyq/u6Q8pgXv2RJ73ttXz6y3DMav4Fc/7Oo5lzhQAlA0k9XvmiBel0jX
-QV4unT9ahDy5raS30mX80hhM5Gd/ehqT8qMRqJMIvVuXLqJNVDUGSLOd07j+toomNG1Kklhe5qQu
-WVwbwZRd4doZkLIVBuu5ebD99CeSxU0DGvnUzLBbJgDHRbNq2umY9fOlHJhZTOMmgS8SSqwepUsC
-jqOvYMheJ/Ba3zGpvpGVPzoIjNCsW+8jlimv4qSaBvUJe27fqno7oVAqgIGGOfK8nOI6FhjqE1Fs
-sOXFZ/wrcO5gRtCJlfT4GD/soWbGjBkUe+bvRDQG+jfNjCx+jMm3qQ3xoW0v2olhLM4TvNe2yAVI
-C0WvQ5zSWHSn3g1IGorzDSTnp1gJipEyvKORWdOIP7czDraoz5EvR2uCb0HRkly368uc+S9PrR+5
-+7ZoMDHp9DEoRySnsQm+uDbZiqS4IrxDj36QBzDaVVwcZktEYC0uSSS/l5AXBxirQWrNxBeYM3em
-eyIGoRabSFOme9BJ7IR0ZQLGN6UH4MygD0otcesqUqsM8yeP6luXx6631UcZfwDe+vAQO2U+TGEG
-ERnRHHU93MVJ6G6GApWRyRjfzG6jVDzLDHRdog/B7AJt9Q+mhjgsi+QUge/M82oncUZ2Bs7YyKEI
-yn8xvD9NhG9r80/iiJMLP8LJxwfs/9mqGxCGpOpsGl9x0CO5iLaDUxKJxa/So6VyBHpEJfCfNGO+
-nqEsYRnLNn3bne0Q5ejYU4HNV9+Ek+No5LaY3pLorSJuQBrqz1yHX4PbcxCUKbkBaj+pBB1iF98P
-VRkDW+aeYknz2Qq4Hx7Il4Lorib7bUOurtzAGoF+LCyWGXyFaCgdxL3b4beXYXdKHDIOFPkJ2qnO
-GbMySPVHVPfIVxEhpe2tiqfHos7QXpYrrKq7Mta3YWqfAD5S0KR4g23nMdID/rRo3hpuj5bHtrfg
-Myivq2Tv9cFwjhvGdGN04SFmX+d1LxYlzmbyKYRIyQbCVn9gd8WsTEgk24g/kV9vLeA2K7eANI4k
-ypYGdpGpPQC9/cavcQgt3LmNPcdnYsG4xzyio9yLkfvXCA9NGFTpBrJ6s+HaAwkecpY6nMJz0LBX
-gZfFoQugJOs3KUlvdXCIiEtZNYO/Acp9KyYVntI2v/VyVdyIGt+O9OsLkYlPPWSD1Fiin5laYmoW
-j/EATqP1mz09IuS7h3KgTzLMcsHzUwgsU36LckVY5Z7lxzVz9aZLp8V/FT6RI/GY0JhXfXtJQdA1
-XfcZNPWvDy+DxO1dqdo7YeJYYUNR5Ahg+x6DsyWwtzR98VEV+Yvq53JdhkxYh3E3FO4nZ/p59mkB
-SYXbt4ZG+DYe4wUlG6riMoDp5o6CySRA+/rQFO05vxoZLZYMm2fAlO9jw4zcBHe/cmiydro17jOD
-HdJg2BdhebzF4tTR3lhIlCZbH8cGfm0WkBulfpQBX6vN7+VQLm4lrBJ8Z/rUoKiRbnBiL7EhAlNY
-3BeNXgoIsZUtYktzYSFOmKONekZYO50cz+DcSC0agoT2RJW7qqEgCCRj7mI+CgfyivTTbMds/Uln
-/l1eAL73neBIwBQIb9kfVEHaZxuN313EZUzVs6nccwfLse84eZHy7hjGKGTMOBpNt3pyguLIXc+I
-E2cZvUX6YXlro/XRSJvejuiFUymiez2CYfeBbEMOf+/cApSOOW2n1gIiVhFFv2ZY8s+s9fU/s9a3
-fsAQ/T+Wtf6f7DYFn6Gadi381l+RP/ekCyZ/o4rua81MOEq/K8+4zeqPqEJyYAOOD6tu2Fm9fAVI
-950Qq7Od8L6tAtb6KzDfDC6q/Alf7a/kYBwYhfop3X7KnCEes3sXiJJKk2ctvnRQ34ajyzzAQ1Vc
-iCPq0F2QDmuW/899OWwaN7P5kWyaazvOTox7oNi4yZUV5QUxpxFxZsREWmQ5Cz6G51X5R/lOsRpL
-dipMGglycmJ6u+iXudbe8Ghim7Y92DMEKz8zjp7/oqZy3sxtkt5AcmVvLf6YKsaP2lxTHb/3ar51
-Rja3Xj2xEqY2r3B8m+ZdnzQ3U5teRtNXG+G6VJv42Pcm6L8hjKAGWh/VkGtMiPFtWMpHxxn3MgVW
-kacMsGen+5FGddtNxhnBurlKK/SdZt+8ep1DVEQiAc/RBGEJZI05DLcYc+rD2MDupSJ3pXW0IgtZ
-KbkK5uhxWuFKkO7JdC11I+YaKa1KubRhxzuLv5UBEKCOl9zKL1Yx7n0tfxE0c9oEz0ZYpgRFkSOR
-Vq7AfmVtAuenyPJoPVRIZVs5btuWQjGcLBKZNJQS/cUVT/ce4N7Pq7shMfwDKD8IObTihYsXzAzP
-Ch0wU5mHUbPBZihJSQLgmju+3liFvS8LOBSKfWzZ8+ECI92MSTht6bwipkXuPUXIAfTrjb+EK08W
-jictS7gj5jXsmvFgDl9un7xMYfQsovnds409/YxcTZ3lr6p4uIl77CsWXI4q8srNhCyAbqDeBeNQ
-0j+GN2EbnVPB82pLZa5MDZvDTRyu6yZll1df0zDfU13ctWNx65fzoc0g6JXBgFmNwSNIF21QJGdb
-PjNc1K7xGUMcABCMxt03GgbO+VaZ70ZjMR31coB7zT5aIlE6FnSpoabbwALZRJFDrMRw8CGS4Ukn
-qgvaMw8Dm/tLLqYXUVe465hx6obneQ5w0jhoD7K6ZiFAznaD78WwG77g2IwYjVe3ac3irmAHdc6m
-AcZSBtdVeVF4Bp+IzRkW7zw9mlhF6A42md0fIqLRMkkRP0gggJEgTMTx0304Je+lxEqiGmO3DHXW
-WaaBxKj4oawoa8a43rtwhcvJZ33mXLSy+PHRCkgE3C38qyWPPoNsi41urYLrVBLd4IoYtKRqD30f
-fGrVYVpPX6LEfk0sKsV4Rg7gedWuz9pjRMhrUlbJuibxg4cBKiCb8cG/KOQfULRzhPQzrZn2kNTz
-lwi3dfKZO6TG9KVDxiehJnaE15rh3ECYdVYSzwe7IbHyZ39uqXGi4alHHJ8vPWRTA9jI8mNmT3fB
-LG/Mxs0hNQYwlMe1Gw7l0RE8SgEujg0Z41dZ0W8YKTx+7vTFvu6lN7JKpvU0m+f/L2TNiHxR/v7P
-7bqXDJZN/ZfHrv63f/39nqvfv9y1n8nnPyib/+tP+XdobmD68KEi9ixArd2/2Xbdf2He56Juts0o
-QF/8765dhM0WaCig+1Fk4/YlR/q/mXajxbQLRtdBC+0i8vH/I3SovyKo/kHWHGDVjVzip7EUu+Yi
-e/7+xEeYQNq3/u4SHaHwsFtZmcVPymBcRuoFiuZNFso/oYJy0bc3Af4AsPXovh7t+sUKAQYZzn2X
-GWe/1QflBDepLIE/tcx+CZMzEtbRmQkAtxDnvLF3bppfLV09EwT44DSSCUb9mnNOwGyNq1OlNrF3
-rzrAaT6PsrTMO6Qbx44CfMRniGPrpVLW12A9KNSCCNy2BQMRTiHCPHB5gLG2HlJjLk6R6j4MM38m
-aXCT8vrMIntlvrrxRutWu58Zgyubt0wXvyJ4JYv3cTDNd3ekbegJxKzZMvqRcRxi/6sQBlE8IxZ6
-64c9OKuiiUEiNLdYGytO86e0CaGXMscQj9hNDP8jRC1gsR60xX3IQdBxILgcDBawT8tLmWQHSBCr
-emakNb/qOH+RBZM4kQLNe3LgpyfM1JfAi6E7Qbj2jbPCIFYFd/OA/sKzfsblNEpkhJ/2WA3xWrIv
-jPIfpwlI/SA9mtsi4DDzzXeo7a5zYX12EIrfCvO/aACtlMz4pzWrIHdkhrAciAixHlHoPCEGIbMR
-63PHwZliVMqSjLRnlunNJNdaaohY+zn4hNexm+bdqNlF98vRy9rvZwkiS4nEUq/p9Ai4GbP0W8xB
-PTs3Qi2L1K2TMTiEEQ7QcmmPfSv9CDnZu+WIp38WLJyKky2jr6r3P+va+wiigglMj0vLKIpbK1Eb
-m4jIlZbfpj9tK5PZPVUdVPyuZC0XzIckeKuLZJdzx6TLZWNy63A1Azjx1MrkLhJjiye7N1+GxWln
-hq8pixFnNta9BWG17pLt1AuTHnR6S9Jr4PYMYpHuFYi/eta8ScgEMCZBi4n7VlSUWXA4vPDHyEhD
-YztPBC53JptZ/kDSmCr4CLTGxJ9jD7uAc98UkkBo7tRg9vVGle+C1JocCSHSCYQPimww1iHKnpF9
-LVnWBRmg9dHOh20J8KWY5zP2WLExubwNBuMI1gDdmouKZLndi5qEuVhfSkqfcOEh/gTjtLiPNxoC
-hDu+9xOu6+jbIs6uMdJTG7ALvitiPJXJlj0L2k/8dCTIeJa+m83pGmbWaySOnpWd1TBe2uBilMVT
-UPnXeHoSXHs+eKRmhHBSghL1NuFSoZhVs+tSrKPEakl/k5QSaaB8AYJwTGEpug3hEHFKqgQsz3pX
-U+8kXk6MvPc+W/N7EOCOtPetBQ6A4sgvEnbqyUuYfBGIYfMdHpbuvm0Obc5qqRLT1XCte0gcQDyU
-x5AIK6xw1pnRwcqQcExJxx5L66iAcxZRdKkXPHdgXawYcEi4qJOhLRAYRJXan2K7/HT9cW9S5MUU
-eypwXzCVt3raWc0+duWP7X9Pfy0Ke/3QUSVOlBFh/CE1mpcIUjL06JBCUmTuPTkggYaa11x7Xa6n
-ZVmIXQ5XCekc7iPUoKeuo8YQxd1k5oB1GhL3+gtL6FLvHWpUkyXU7EJuyj6T4GuiehWdTXbC/AIo
-CHLvSM6se2lcdZu5wUda+SSU/fiUwNYyj0RfcGDysfYD+QXR7tVZRFZewc/5L+ydx47lynqln4iN
-oAsGp9twu3Q7TaWZEFVp6F3Qc6xX03vp48Ft3b4CGo2GWhDQ0rTqnKzM3GTEb9b6FgJMD1EeYp/C
-YUiNBGbMbnoyrmo3+mhH78mAcoQzcTswJhng57YPiolZmwSyfjeTX8WwhsrlH3F6GGwMwATgsn7k
-REKdUESKzRQlfFa27c1IVT/GDOicnWU+9IP3u8iKb37BF5cmIFnusNZtPcaVTv6WRjkTF5dpwkdq
-dZtCI4ct9+SMk88OOI8uonJwkXv0FYlmrdfd2B6GXklMEKsnZ208OhRNuni1vLMfg/jiscicE+F+
-gpYuvqnpWBIE2O7gB0LfVLoNar95ijIAFITEbDxwsQblbE8xjRDLaIOM/wQ+zbaPvFcp+ClxMRZt
-c3FhGngpVFwceHRMhtFjMwsFkeDpY540xCX/lrI/RiJnxfjIVOYVWeFtWlFjIyvrFguVdH0zOs2b
-Q1+mU+s0sL/r0HV7AFxdhoyxF+ThjPojSH0O/Sbi3PjlNIH2k8ssIAm/iLJEBzBfG1ZZImEQbVms
-c23s6suU5OTW/ZIzPLy1VeRZTisDWzxVbViVB40mhBiUk67MQBHDRe5Xp8MjcJ4zs6CgHea9LSLu
-kvl5sdXG0fY2l/PZ7RyEbwx3H6R7dbytLfdxivWf0BWOu87WD+jpD4X8iurlUCyfSiT3KmyxoxaX
-ijaNuWO+JdCJm2x2LJi3tFaqwtQNraG13IcpXvbkZvwJ1R8n/uOoq2fFAIsG2Pl1UJPlkox3JTNu
-Mmd+y/ocI0Cf6nDn0YFbthHMYG0JCIQaQODOsLNp10izuuajezeN5c9czc8pnLgcoZlG4pC+J47F
-Tq95tIVLH0NwdBS9+UzdDc8jUaUHs4WPcBLOLrMfyOTbjVaN3qqpNk1bPJQEmBR5ehq7S9nV26yy
-b5rRf6Bq2lHT/TKZM8waAXzJsLOxPjStgzkSoR7nRJHFp6rHwI0T3SFLzM8OCn+02w2/PIMA0sje
-e9VFN+5+ioBkyl2prM///+tyKKqwVQSWu/99Yf6X37CmKu+/ygTHYVFpOrHsHzyHf/86fyvNSa9y
-2LwICA62hbMPOM6/olv5EEgkJUyKU3ktwP8O1KGKtlwFacdVQqwYnP9ZmyvsiBIMjxCmgz7V+b+K
-szDlCvT5x+LchsojpCCV11WmKf8NUad3GjtmFACKbEgkwX+yhO9ovmsoiQgreAkMMfDQ1Rl2nI5C
-Z3IQCEMIuLcIJtjmw4BbSWUyUFFjoHGrm72B0NjGQhDgBDjnnF5bhPo2jvbF34RqmYgNXCVV7MsV
-VPN8kumlAPIeMAsjoTuT3aZ21E2YIiYRa9KpkcMDbYux5BGPmVkleUiwAP9u2i18L7Oo1zhX1tZl
-mw37xdPRacpZLSuA104VgsRslIFrg0qzcKxlN4z5ux77p0JMhEuT854XyXbpjXeWqtQ1HDJu3O8K
-oXhfxL5c9Fpbs/PlnPhp7Ao8mC8/u94nrwEpTdcaGz58YJDxfrK7ZLfMKxUuBEWXN6thnjw/V5v+
-2apcl1+yBV6BMEXT+EvauTx4LTkYi4n4KDPaCXC6vvYK7oGd6N2gZbZ18cGrsn8VJaC4Vj5GpXGT
-D+I5UgbwUMsDOV7FnM+yvpSk2GJrgpaYoq5qBxgJTQenrKq9eSOj3A8slqEbtpngvAb/arfwuOLe
-3hmrkHuJQTPOaMGrHGGxjh+mCRR5kcIyaFo6pqVm3dWPC1vELrpKsYRHWoN0j0ghO0CJeESGCfzd
-vJ2sPJCGe/Jk+tYXCsDqt2U7KBNz/v2UmhL+h2/AfkHTMxoiQCVw69e9d0qHFIo4sRAGsWQIPVii
-M/cnQd4EsqnShznzkmAeEG8QQXjyFtiwJfPMJm0pJqbswhH/ExUSYCXMGqioYX9YtDAgQeliZ1E+
-+dN0zR0Z3SQRbhrdy0c/s9CumfPJnREGDL64ODMXuD25Jmgdu9yKROcInBuuh54Os9+hh2eViHS5
-UEaJuo/K3WS6IWofXKclGbrIs13W075r4W441YeJxrTNUVu3vU0wgiakIN7OvTy4RfMSzfa+c9og
-cti3eiMtJL+EE/lgtBPTciMmgYKfMDt+4uVi1hl/nFxKk0SptFqHoiWFsY88pln2YQPQyM9xkGj+
-pvXnj3CRkHEbexV0orB2XYMQhER9F/UbIbmgsELiU8eul+c05/Uq5uhziJAG8IqnO3Z2iLGG27Iq
-HwoX8nhJltMG/fwxpv5dQIRm7GvLHECWv6a3qN95Pr2RHGMfZjTq+5ltfjN56clHWXNVlGmJQWRq
-1iUFzHgE/VbCzpPJLZLh/D0bCf3ocsSsmFOmlRvybpkNd7T5pIf8yUnqxwXwOxg4zCErfS5Uwwca
-nHTrJ/JYFIa/M4uW8tfNdoiK6HdqeSegnqSG8TAkxnUyw5PbWb9bv7/3FPljY/QTh9ExCav3ri5f
-jQq+rkoRyVXJIbTzg8e8qy+NS9ql+8avnksTIo30u1/xPDJCdsNnQ1MfzIZ17DA3MGAcPhs/OrZa
-PrPNngiSDPd0vyh6QhijfVqcAaU/hBleEk0fLN1250AktUsoM16RkxIog1zpnwbXUSaNg3LMx6kZ
-azZ5mvJY4sBAN9HGw7gv2vyaz+w8GWNSb4QgR9Gpbuw++g0476PXNanjrmD0S9UiynbvOeLd1u1r
-jcAFAxphtnzKeVuvUZsPjkx3rpEjQwox0aSQZ5LMOzH4M3cIkTZTNN7xBzUL/OUcYSXhQapmYCnN
-R1+V706jzmYlL5nrgUMrgcaCuhEOrQQ8w62QPJSaEGTROzHoCIa6wJeuneU91yr0Au3JF97qM/pW
-9C78rZ2kiBVtYx9D8YRNIuhkqCmpqBErHggwZuqu46OEaj1VrBeZMy55Slnq1jesB/JtWxWHvOkP
-qZN/pml+z136Lj1sRqF3U/bLybLrmyyPdjU/Q+zWV7Mz9rYB+YvTpK+dp8hH0+LzKOUpFJLePCEX
-uo3C/B4YOeRdcpHNiLcvHFk7Zruls7udiw5/imxEv0v54ZHlMbL571Kxi9YIEs8YXhHXYI+yQeTk
-Scm+AvEAXZgMhyBp/OsCra63/RPjvSMAtF1XlGRVt3A00eHp/jsj3MVOuBwLkFrTHLjsk/KehqYU
-8h7GGMQ0JtlRBUSNRyxAyvJqWu01lCSRVOOX34bPozMEuuVU8XIyEAfewZIRrizya2wNZ2Uz4yH9
-CDid6slJt6MnFbLW6LnlQO59LBF+ztlamHwDbEvSYWsjE2iyc5mNXx3tGJroh8XGaCKn+3AgeNBT
-sFb7+C2sCeTJCxSeKC/ibQUgtAdmXSQdGwy2N4QBqRpZjTEw9nD/NIh4IJoFTmWASBUZ6+n+0sTd
-jZnXmETzTyAdEDbjn9Ae3nNVPcfdAsyFnytz8o8KM6EDhNlTyErzsAnyaEF1i544Yrpo5W1An4cM
-olhjR0YQpL3mx9aK35j8Yh3xF6aDU1b8Dk3v0ff9BOzOeImr+b22YnQy7TNkHKb0t+Of5QOv7iNQ
-fj7sjnG8L85lVF/ljLyV4Ov5nHuTF0xR1d7FfnxIB3EuLHlo4INrsfqCx1tQbm99XD+gOmJGo/dD
-HP/u8a8ZvS63qZdGG8cJ/2Ts+bvOuZ99+65FoWnmC+FQscu2PuReRRPL69BGMQTwKKjDFoEnMCuE
-SurYVs3raJn8TkYa30YeU0Y6Xj/dNVH7Pk/jgyVw2M0DH4eLnwqtjunl72nZA7A1Xgl6ebdx9G2I
-qkJOW4FDUv49yvfjQApohLiVcCUSGnMBTL7zXxfHuptHjNWJK09Yx+wN2/3fMLO4RiiJ2lIFngt8
-unXPZahPQ7aqKpqFDNTafCxd2pywJl+1lWIf5vrWJ0Kmc2axN+OSSRoaOXIa86Acy1d8USh2s+za
-w8BXcftVNctzTQu7khP9BlQrd/NRMHIYZnBynRXoufwAis+OteKwC2moRZPC0nJdIPTDH3DL9HeU
-mo04ZaO9oqkm5r+Aj2WJFHl2LXhQNprKFt8VbcEvx4gfYrncp/lwiFR7aVxkgCYlhJ77/qYf5hAe
-TLqD1Fz/SiyvO6OMd1awWcfYNipuZRM/LDnExrU4WEbxJq2lP9ghuZM2L4xq9b7N8YKkXQwTn9gg
-Ero+ucjnoM4xhQFZxK3hjrdVGT3wkBysqeKwAX4UjpdslBu7c/7EU3ZNWbMC6LWROst3qdD9S0Fy
-aJGRPGarbrc4PhLz+cXURL4keXVXe2yo18jlthHvEWklyq4P2aLuFkF+rEgeK2JjRa33pm8cFoy7
-y1ChhcPmG5/z1PmkFUCVVhxSCL8jn4jd8Dx3w9cMtpXqNdulIb93Z6JyQLbfc1d6hj7N1sTY2bX3
-ddmSbTbaN3aEHjx5NbGSIKG8jaSBY5BN10rFHkoV71pdnCu3+nLbktkhS4XK+sj5n4aM0zmGl+n5
-1cX3ohMcr6PVEEmdT3djE38auXmd1YhsCAnbNKec74juc+bwxMiU7yGIa7IKmGevbibH/qbT32mU
-N4SsGwHGrwNc90CW8qJnuPkEo2qHOBY3fA0JBUzn+eDH/AZddhIO69qMdZ9UWFGVhWgJ/RhfqGzT
-l4Q3snb4thWnDkmh55H/SPEDdsk30wBiq+OMv6TOZPRaZvsBIBwS9B7QcHubZ90uY4satPP4ImwQ
-VhT39/aQqo1JEBaym98GhAKCZUkNXBTYM00tt4C1nDH3YKK4a+KB4KOyZ+ebPy4DHtu022JQTA79
-4F7GIn9MoBeykKZpcgwUxHHe/xYlbcxoM2sffAjCC5sKltPc7X3mvbvwo0nXLM4ibH4ls/0Jgg75
-fMuC2sJJLdgNYkqC8Q4scNPHUKoJ6zFaYzsW1VYTIoxa9s0e668+zc9a9ze8oMyREu8k8gnatuXv
-p5TCBQlU2rdn1dpsIS0ci1n/pe2cvCUqXwOj+7RSJEULZD+8LTWgRwZA57afPkA2McJJwkBVY+DG
-sIwjso7mUUGFL/KHyiney8gOgAQ9C1vcwI76Hh33p+YVtlSPzrx37Tsnn1/99bYtDcb4ZYldEhKq
-thT5oqr5pJjb196AQdrazyj4Fn8l74vpp8SoQlI2dNUJoVNXHOmtvwo/uh9U+dS3CASnnbdUVMUl
-pi43hZUQhae8YN49zXpnGDWkMYDyzCxBAxB1Fx8j2FlNGv7qOW42kRceiuy3LdYtx0QeLolqW+21
-OI1ABEK1Upkydm3L5W/CzeKT5QvYtPdZTzaHske564kVamN7p4hh4oq6NuxoZj1QEevI3NSevKmZ
-n7FpW6Kj4eWssGsq0MSN4h20g0s4kA5Xx/KlCV1jY2lWWUDWgrHkh8bi9eg7CxPMegpsRLrIaPeL
-RVpev/QwN5ZPmXu36+lYWfOTG87B7JbO3s303oimBwgRMM9s1GGss+iRI0LcJdT8WBWM6hvrQkLE
-jYWL1py7FxIKq10VAR8sXHnpVx2ayrBDNK136DHCBrUDfM/WR4SE28GObwW2GuKh//SAuCxk13m5
-vGZp8+WNFQFeyRZw6F1ZuUhRhlNduvY2CkFocO0E8QCYc7mrdf9k93FyHroKJED4q/O6q+3qQC7y
-a5zFYzaumkRNJHQUA91YbE5PjYTEyg/S5+DW896NmNF5IZKQgdllL6czY6CziU611ojrjVVeaVf9
-l1Xx2daGQwSo4995VvtVevodGDpXqfgVwxjwhoXlg7GDd0hs4pC/UE+hEvC9a0jiYFgD6DCbdlsx
-WTbL5tibTZB2Qp5E5gQic3nhozVyD1PN9+ROv7TT3KcO0eZl2O+9gW+brQI7NeWfkB8FNjMLW07t
-traXhzZpj7YfI6bvSDNx0f6P421UlofcrV/rzJz2kVm5xEQw4C6z+mFMl8CpxYtBHpwqWTuJ7MO2
-RoE1CKXFCH9vMxvzj5Gy/ZiLfN+YDi8urQZI+BTsYieoRPuw+c3h+OklJo1Y8akw8VZ/bcfo0VPF
-8lFO79Yw0BBh92oa5y4fR71hVLL3XX2ADMh8x8iRcYZHFPc3iHwksx7xFIZA9Woy8rqRjmIi/nds
-w7vJ59vrhre/TCfj9FTF8W1lTn+cZL5ksOq3RmryKnHKF/JRM6uJvT4InfFRLektQlNE5W3z3GU4
-PtYNG1U7Mvx8CndMIspDtE65lBWSKImxDe0wrH8Cb1xGE1SxlZvuvc4NknA52n2LzDNi0JJzb+iL
-T4XjM8rp5XxIDfcrsknFWeL0qkT8RP3HnIdkiMXGObf4LLqQlULZrIaPqYufq9r4YzhQMfLUf9AM
-7wgwSQKupe94VIhT4wKJf7kqjLiheZ/zlsjkHoV502LcFXZ1rDrnGcsIAGbmfclau9ZWw9INqrLQ
-17ClhTNsfCecGItaZzpOeq4pYM3Qu8u69DFFYZ71Emrluk4jOFK5v6DHKIyVxYtfx+cICwtWQC7A
-pBl2Gr88rExvR+ZPSxNLkWbJ+SeHoD9KHsneI/IvlUeezENRZI9htZzq2Hs2mop42C7SRw+aJEZK
-d8sOghfPfWsdl0CYNcEz0vqOHeSdaftHbE2vomFNgab+rO3qrujCizeEQeEju0nE1amXO7DCHLB6
-prqiVd93HY4zY0FGxBO8E7I6M5jaJPHy5q1ZGJXT4CnEHZ3lnK3DcMiVcbC14hu1AvyXrBFJZChw
-xYaNcWMNubHJDWsfR63iPq2eUTJh9qwlSYrN3tG07B0f2aYX5Z9wqr/tZHj26+jiqfLeSMvtxAdo
-VM7NlM04tarmCl7wT1/mF9UOLE4riZSJRE9lsv1ALNUgr8jR+HWGxVYVvELpDhx21aHR9qX2xa6C
-6Y1UHWyFmN8HU8FYMsjeSpYgdVLOsrqEnpn91FClvVwjCWhJTi0/Znt+mCP72E7VU0KVCmPY2XnO
-jKV3Ji0QfyL4Ie7ejYGCzWu4K9SAJSwXKLZMNrxpMX1WpCkkSbUvs/aPV6/+lJomAFzqAOfJCdKJ
-baE3EA2JUbXFg2x6nJwMIeMIBZ9riFum8JijLJfZHEzwDns9ykB4JHS+9oX1HmwaY9npemiuyTyn
-+4oY9FaGf8ws+szQm20941pBj/VsgfObG90nsQxZ+z7T9xn2sbm59g05Ri0JEikQ0q1EP4JYPkcg
-vrB0jsQZzQf7mGrrmZumR+jiZfIlDEdEzOSVkhdofYvV/V8+STkfw4yKcdGHZjbUjtyrQ8S4OjOt
-T+zVt0KbF88ERLKmJZryd+E6ZOf68hLa9XYuja2dR6fCmjWxhluSs3/SNDxBgr03hmWgmEpeI5e1
-kuvfGOzDzEOsT3CIH2u3Ip/3NiXBqEf6RRdLArCNTVId7PrF92D0WI/mIEjrEQXGO6eLdiBVL/NU
-XzUBmtpyqwftsbfuAFZ5QDn2dS4I2hmbiltk7ijgjTCk57SIZ2wsdzOXHo+weFdowmNfSwilxMJi
-QNklur2guuNQUduKTCddoKascHMTI+ZaK3fAOdch/Y5LsRX0duntRyPfzR7dmOP5ZGkhtztrTl5O
-u2Pbd+cmxMtOUdYGvVldG0iwtl8dkZ5u15BR3EHdvk3fJOIIKE/4YRGxj/w7IaX4wpicJm9y3ooq
-fhBL82jp8DpFpPXgIIngeglCaXtMC/zZEql1DvtnES5BGsgAOgmy13euLu5LjS7OT+JL4t8tDb6d
-tDzjs2ayefTIJklx7WyK6Lv10YSk3h3lVjNfEoVHeqoZ3IuGS6YMLz3ngWckCg7Ac1b1MJ2d7ol4
-MtqfOXuPDJd0jgmEj4kY0Pm0VhDVDFF+YByVR+vexEYICnI7JcYlJazIZ+iLjehpMjm9u6E1TlXp
-T+eyFGGAH+2rG4f3wak8AAUzKaXsQGZ1G9Ib0hG7atukU40YtZiZNPhq47aLIlTHeTd7jNGz7R+8
-IgHv46XnSieB70z2vmW3qj2j3sSOh2ve7AkVkuVBjKCvqoah32oCSe8G99VtMTJQBCIyvtFtmO3j
-Vh5tsXKtEj4ryzT+UJmEo/6TMgbhdiGeu1m/KcbcrI3yr2TBu+n1rPqtMblDFHdvr2LfSQ3XtaRr
-4/hYNOrZ6pLHkWAS3+cuNsS2dGARVGR7IeGmppbqj+jVL52bges3QS+HNxZg7sHU6tZWVVCCW+9m
-tiblipCrupX4RKRJ112KqA9EWp+yJsFmSDBctc6xE3bfyiXRME5glsUjo8dMLs4xwydZwRLyCDGX
-bXMEimE0tzPCESovut4NXRf5VI1PEKcrnhlPxBvHLa6Tn98467RY5gW3Wl7fdkn1YgMcgsd7ko18
-XQwvqKziu7MLjGgZ78PyOZNsvUkMBChg5mh7kTIltrodU5+zUp29WS27VIELhqtFOXBxXeAJfhQ0
-rXssS+OOfR6bZ1gIQwmibCxhthTW9r/ASlmaYGOFycb3/7RTThgtfP/zP/3bXfLfv8C/xrMolokQ
-bBENsURxWVf/bZls/Q8HZCx6TcuFcSsE4Ny/bZNXoSfrXU+YpvePOs9/VziLaa+U3H/cJaOJd1zB
-7ec5yFM9vrv/Vej593QWUy5HggI4MNXj0kHucOKPNF85HyY0bMs4/4eEtOAcolT674SWf19CCxqT
-jwo4D0I5rCL/71JaKAmAI6F5FXfK/S8W1BLmTOYW44RU8vTfQS3/2UEtPjMOC1RZhSuevBYGCJhb
-i/fKcdCTj/dqtAnTXYimSG6ixbuznegoDXtX52bL0hQYhEJKWBjnzppvcq+7TShjMrIDE2M+OiOp
-REVobSPWZyaErE2TE/itoxl9dbSd4ea3LBJCcmWSeKBJbpn+qXuJRtQtwgcZocqjbnUbcklEAlaz
-b69OwaGJYZWgIyykMnylDGYnkb72qiJmGgxOry9pYuCpkhHSGHmlF6WnWYPTsAA13dUvhz37aw+f
-rQ1sixlanOHsbx0C6JP64hnmIYtaZOT5Obb5aQnYLEJmOhG2zZZ9RDj4D1Vja3Z0BFtEVdBQBsZF
-QRKKm/+G74TPMvGfxBgfoVQQWpMBQLUeGR6+5rEHVCycSjaYE0zUGOHnTI1KKqxCfjr8xIiztS/e
-PH+iYgJ3pVvnuZ+NW/IkMaRN4nYcwGCwGwKZ5NL2ioZdsV3PV3zNTyWyEWd0rp6bfkze/JB45Zfp
-1EGCgA6/U7QNPYQX+WIHQ4943TQbAAcpkzWGrQwcEF2ANbvoFZFmuZ9JZ59sr75aE0DAuSUMkNa4
-DnscTmm6V2x42wYdtLeMz50nP4d0uDHJXtnCBAofe8ZsPkqUpi+tfeMWTJSyO7PRV21Da7Gb7GJ1
-6cFd/ahRtVpTJX5VMhPwq/YYVxcMrKATgPTiaO0TD0OdQaYkE698YTVfZx8VZL5gLAYssXhjVYic
-fzXLLn/ZZqc6GFYjbW2z9kRDZTEirEUHCgPLrQK3tktxjXnQXDcetlxmD/FmwqjbYthl1p8EuY2H
-17Cmk8LUu1QzlghsvgsrR6iM7BBdDFp2Jc5q9QRXqzsYWfG20dHexDZslhHkPo74cP6dYCuusRf7
-sf7Sq9/YVmzL9epBXoUL5EARr8nSDpPyjFkZ3trJrcSlX03MmJlbge3bcVABELo0dvEj4hQdmKsD
-eq7xQkeR9a5V/RKluKRt7NJzGX2NGf7pdnVS6yx+JFECig71BrqYU4vpOlf9YV5d2NbEegNbNjHe
-QYn+WAnkTRXGbdKhP9yJRn1YPd11064DaigbuXgJm+5BY/9OOk3mTIVxs/vNZpkKHZs4dnE5y6cJ
-+3jPeG+TyGHnYizPV4P56jRXq+dcYj6PTFzTqxu9TufHjinGjD9tdavnTwbW9YhoE18mQYelvWl9
-NCTlLdFS/L+r6z2f4rt89cELDPFm7+3C1SFfoa4hUU6vznmhSCemrxOrp94rgL6sLvsmITgNxWm9
-y4CXwpuEShure2uRt5RyACy9S7W69uHvkAkpGdmthn6fOe7q8IeFyLzfAPeF9z8GPJQCAyDQSx9N
-8ACo7T+kW+0Y+a3bdQgCeTr+KlamgAQuEFoIaVfaQBcZgdHUSI0AEegekEkCmiBcGQX0MU9haQY5
-AUnHbGSHDs6gBGsQ49/gqdxrcAeO195FKapDwEILOIQVIeo09QXvkMKGkew04ATWOAMvE56YlanQ
-OiWjn5Wz4CzR2dDq5ABgcMzi3DFUhXeGckb9HldSA7+8cOMBb2gkmVAKnIPdTXua751T9zeWz4YP
-Vwas0CFo4QgrbDATHXGoK5KN/BNPKlLj4g5ZmbfrODhj0rqaEj1lj5lCiosovxybFz3C6+AWNdAT
-caxDiyE2oBOV32Lke3ITP4gY//ZOtPXtGtoEb7CeJA0lg80BWJbO5a1mseiyTGOncfUtgQi62dEl
-3tYTKyhp+B+2qH5Vs4d2zhvjrSghpvtBIwYcyKWxF5yEQk5PpcDY6coH9GKfi64PcbzO8yE8ALCq
-cRurXWV0N2MFucpmWZWyjTWZv7RDtcvc/HMR4w7aDIA9/Tkx0fFqcU48aCDL8tHnXy0Sbz9pf6kF
-NiPLYHBD/Djtd1+Y28TODujlbyshznWGDWkYkx0mtIuuOjyMZrGls9G7NNfAozjZtNEo9EifZseb
-y7EPH72+GarpRRGSA5Wrv5M5lWRJKHTSvc119crAJmFToX7DcQ8axXy4936GhZDspWWAbrjiIU/W
-aWv0kSLAxE9KUHMo9+Fg8lGL5zDvi52yBWMRvizf314J/8UHQ71xugwRfV0wp+nng1cz6EjIHNNq
-fBaqQoHhnbvIfi3KLmgdBkUw49F2wYSb673y6uM4tuBSGPShEtwSMrTvsorGPtkp7lSHXTOjoENV
-QfpY5l3lZTszMYkNb2eyYooD6va9nVrbeOke0/bbWzV4ykrhpfTvoKZR4lpRyPrfvrdQUmAXSO7K
-EH5OKffNgMRCL0/LTEIQ78/WcmJ8qL3CAOQMFyzXyfpEv0mXk7oG55ePuxBmZjI7jzIiNadupLdl
-SMyyUIZPEpeRAZJ4LOSrWtU3mP8uQ0Fofe1sIXr+UOjzm/BOg6WewMkQU5lxzTIgFpuB9ejgOE9o
-ge87OHd9/Jq0RrqbLED7QPFFaGKMk2sWukIoqofDXCQ/9VK/cGwY25nHLrZWOBrEcyiQe6Rmu8kv
-gsjv35doiTbZ/NWPNRBX51vnzU+G6jLT8Z2R6m2ui2CUIanr/XNMPjfCq8BOxicypN/tfvzo+pol
-ORsMu+8OIiXpNhFPbWe+8/M9daZDEfSdmvyMBsUAi8ir6FroXN0ijkLAI5W1BedkxqREGF07Ft+J
-AZwqc0p0Uu60Mx337ITyMZvKb+FPPO9NOWzzCJzznL2lHnx1h/C+eb71pvKYL8U3YPBnLSg5HUTV
-rANWG1T1YBBi3XN0hFmI3a839oyDCcLO56uW/qvr/eRO/toX4wMytSdjcCk9idNd0ooRdBwxymSo
-BU5nMgg6at1r2IAemllEs0Ra9C7k+x+mkY3BlOBjNvrbZXYR/E32qW4ZaVbxwhdjJ9zRw/EILI+x
-7T2MRfxjc00BEaPoLGzrUzNqKurkJp+zlKgDNWDLiJZd5k3xReKUCit/XypBFjqyQ8tOQMbPqAwA
-8/8RRfphp+7v1S8jZEsSKPPdpbf7XeZ7nwjtu908CSuoIv/GTDBop3AAGEFW9zDI8bfN020SzzhG
-xupawXJi9YM/W0zfqWdeyqFJt70vXvwx/dXpGmM13PJ6co3DbKJUgozZMoMcoNtbyY+b+k8W5ExY
-Qeqtb6YNqkNQe+zNouGjQ2ukiD+u2e3IacJNlD3GUITYkX6UerpxCioRls2IgvzIeG6YS0j3l49C
-3KiHH7NGbRXmzSHied2VFruDgd18TWXsDPMVpewLKKPHtp/DoJx8aweo+3EJ0UhA7T5PSXaWJXSy
-2Pw9jggRJmmgsASZl6Q3yTzRuFsRp4AdeM57Ik9xOjxVAiCxbVPKcnmRK+4qnw/PujGxMTLHrNHU
-6o4XNU2Y5CWfJIXaJgYaNnEg54b0Ivo72ypuxnC45y0jMtEBo2m48tCSP+hHiKky0icGRJ79rkTD
-VeMDrS12TjkT4hyh8Rzf9+2tyHfr9NTducltupw88aZmOgy3VEQIvndSnlKrPke46ppmeDQ0Ie2y
-5+pBc1RtXTN8poBmxLx+GrNJRKQ/npusfFbe4xiB06ifARjyvbE5q2QfwtLQF7MTT0vNce1+jzxR
-tB7es+pRcjp9RrBogda2b3DQzKiuj4YNM6vpvdusiB9t7d/CdgK7HE2vkcw/wlrfs7X2tlHsf0fs
-QpF7h6CReUdwmZ68yCHd3XKvvdUHxshRS9RiLpMvA1zEVgACr3L06MtAcV66vTjneXRdgBnGSKEN
-JfYvMZKw+9QFPjiL+a0o76PsCgoyfk6aOHxMUwnO0214rFpxtkDjfXv4JPYkTYDozl2XDTiAO7ty
-Ed0hkGNRC6QdmcKTS5D9m5d0P3asGFe7UJCZEIcFGXJkYt0VqOp3bdkV28VAuOG5GCtUg5aPZhhh
-eOxfEX43LLoxHI7p8JUk/0LeeS3XrlxZ9lf6B6CASSCRr9zecdO7FwTJwwPvE/bra+DKlKQKhVrd
-jyVF3IcbcQ4vSWzkyrnmHDN7suNgE4YTm27LiTY5XgEBknIl4FndGLJwdmM6PodawUSc9GuF5ccD
-OXg0RuPFt7iL5U125h0wrY25S04TqUtsv/+y9o5q1tuaRgOSMfuWmUtN/c6RDk/A32rvaD19iMwS
-n6CQJ2NIL3ZknQV51cj2d77xNQ/WpmFigba4rSq8tLI7mHFPzszI33X95xq8IK4+IGaw3H2y1Dla
-Xrt/68ILI5C92scKb1OmktgeBYmUd/6/9uCxBZtWQ1xtGqJem1FrMEfxCPhhacWTTm4erLZ/+f9q
-xstMiiJkOaz7pv6/a8bruvRXA+BU/mM5Hq2ja6vuTwNWor8W5BlZAtWy//i7jjyAMJ6V7uSQH3hU
-/1yTl8Txe9F2UL/+oSmP9crRFsGFysfb4Z/a8vK2eCs8DsmlMc90rxWNeRhQSR91hIlDcZFteMex
-ehPCIu96jKRm2b96FOglMdWIodM9/O9ZP/z7SFv62WTl8Nn8i/UDf8Hf1g+OaXkU4fFP22HR8Hfr
-BxO6g63YuSnpuxaMh/9ePwiPbN3fJdb+z1/DbOpP/GthStezbdf1XfWfgCYs2/yf9fDsRqS02Xfw
-f99jCfL3Cwh6JcrYXSDGrMJr0EiMJNwIfsfMKCOzylhjfzSZXkRGAXO5DDRZ5B7MZcSZmHXCiaGn
-W8YfoClruQxENZhMEJici30n70kEf8N93EzLOIVtrVpTHbCa3PhRM3FhQX9V5DeYw2bmMd8B7w54
-x9gYzGodq9aQEJ3j1XfoM1wqLfpaauY7kzkPpuKPwS0iY/7zmQML7iTMTm8p86EvFpz4MjImzI6l
-FA8ms2TcBwyVy3gZMWdCWqFmkrkTFwtN8oyiMzOpuwynfph+D8mwC2Ec0kq/DLD9jwub02eubZhv
-3cJ+tJh3G6fbGcy/LkP8zWxMHyOTMSbPx3gMtjETc1MMTyMTdM4kHRJSaUfjsuSajKD9PTBxQ67l
-G/g1LYN4xESewRQymdAVNE2vS3bxMrrHeC7bZZjXsnn2DIwiTPk5bldUEwZ/YvObbir23A5A8HE1
-0BG4B3sDLfEqlfc4cIOwbNTSJoOFGizXi8QPHrEpHdolRpLXv3XqrqRWT3x/J7lcUMLZf+1beUrm
-ARk+oV7LXa41teTi1Yzdj8QoJ8JmzUr+HZcO3KJ2PNl/3I/8EFssplbuhwR0hv6rNrH1camarOBk
-LTet1HevcxOQqsFxMsIJhizSvZtRtrecxEMjYeVORwG+XY+rTb6LYcqby82u4orXTDO+PUwgHUQ7
-ioZSKqsV/SEtV0Mj5EXGVTFb6k2Wu6NcLpFUYQ09VVYZ18yO66Y5+UcfG19ui5de+cajD7PxzJoQ
-rlRgPOuKwYsPbbcKQIuv7dR5snPnnMf+xl/uvokV7NIU5EXj2nfmckXmK5COB+iL4QJgMECrXeXq
-g8tFe4S+wX/xlXnqOHALb4bmPHMrN5freVp8O7Ijzu3S92osNNLlKt8sl/rRUmuO6/MMmtsirY7J
-4AWu1yV1WXxbCiti9zP14cMCUs0RW9WcP+jsV2jOH1Iau6ZDiQrG7M4cMKmnBuZQ2BaVrfexHRJT
-yvNVhWDR2iVcRSQA7DiZ6ZLTQdvgI/6cYYzsdbNpkhqmUvCGC+Jo5i6/c2L7NxayZootAYEWQr0x
-+bhD4C5wy8UcgFckGqjBEAbNz/mwGmfnhTzmWhbZa+15744kgqlxUjfV+0x0WzTNpW7HHf5NLAya
-vFpT+8wYA87VKXvKK/9JMgixw19+Io7eLDZso+lOYD/utZ72/mBg8sVNNNokv4W5aUYL5lQiv6SB
-PbWh3Wso+qOp2nrjmdld67Y7WcC3MQ1suLmP9yGeMMCH/tJJYPHzomDrVaQU77S5yLa4cvksa/k8
-W0VG6LX5zSD9PLvc/GL3qZyLL6fAHBngrkVxJ5ka6PbQtUv9VdRdfZEfRuJT5pDd92NM4TsfP5Fr
-vVa+pGdDvSqRnlqHFH2lE0ZrS5ymiX4Vq8xggGTniB80lJ35qD2aoNrpechkiAhoPKuovGqqhPCd
-gs8Jum3kt591qO+jwibsRWKyAfwqwNdwz996GbBmHS1YhOSCFcjgczZ8UHHFuiXX78GY5OzZ9L02
-gvuYhFxayttAGHu6dJ5KBA/e9vK5mOpfpdE80290UNZw5/fJGREr5E0/Hq0eMcHJx41TSoBC4Skx
-kz161E9ixxe3jCbu7+kdCjCeP15xSYboptoHv1/CRMS1CNdxIaJ/os7mVxrl793k3hiv3jR3jLCL
-2Uo/Q3d7TRua4AYLAoFN9UBQxTunptxhKPacPAeaCnBP2d9eQTNhTeBWxeO11sAxreEDhPQ5YLGB
-LPhclQalCCACU/EohhZPph/+2BmXs7R7yjXNDbIBpzLPEaZl3pN5b44QGygcgOFLPv2XcuLuxu8w
-dETOgZRUBm0dX3UwPhswJWTdrCswNalib5UC5igj51fqcPhYOe+NHtm6bZAOJr86+jK+J17YI7Xz
-hMRzYAN1HUDr3Y9mXR/NaLeA79uQwAFwtl3jDnsfgPyGNVuwjprolUwrvD1lYU1uv2LqGmn8ngkr
-W7V+UYYQ+wrpoTeL9BBhgJwVEmW7EGQJAvafE3ngxnuryzcCs7wCt/guTGycON1bkCIj0/Cc7ISk
-x0OyuEnlR05gx2iTz5GOQyE6vGBI292QYiAdnHnb1SY/+4RvSuV+vAE9jyJTIc0vImwXruskPgwh
-DTKJVfBLC4eXsgqOmYUxGdGX+1CU76ExLSHFK6lnhg1juaBBVZzP/oKH42Tf+4YjNv7AkKzj9uK1
-BVehgaZK4zmx27tA5u+GJo9kdFirXX9r0aQBgJDbbVhhGeOyEhYZn+DyWDqYI9OXWi1WsvIx4W/o
-/Oio8mA/OdY3wdwVIfcO1HF5VTNmTru7J5hFniBB5AgfouZFhMM3TNd3KUa8qpOAzTrwpfIR815M
-t9KSDgCEHCGJZqXjroqU5rIE3qqt/JotAy0dcbpZqBuKbkoGw4vdi0NJJ7gq280Aa2qMBEoHtAEc
-l3zY0MQKdXa+ih7QUxiOD8gxVyVhEfc2+7JR3jjuW5RUGJeThtAHxKMeD3ICXd3CXKe8t2iGdoUF
-bhdXpIYq/6Z3KX2TAVVEtWnvtHhzJdzqNjoKm+uh4eh7gmo4TEuoiYPeU4V5G2bimhfARmL2Bbb7
-4AzGMbAW6/o7YSsCbm8JVZJwyYZ0redpb/ejv3KimI67W7ttqGJHJDX6S+BMhxSAtm+YTyigJ+gF
-H0xob8S+bseU9jqJRiToaYQdP8T0xZCY1RniX/Q467Pr6LucTp6xJp2asYtda0pJFSUeupi/kiIj
-5DHjoEFOpLWj6Fvi0tY+HkImDcxdnnEc5405jF8qpG40m34rP9jKQr/DqmciwNB7M2IizdhQ1ATG
-8H3N5ts0xs9h+tGTQ4cXWl+YpehwpVVI7rCB1f18itxb+AjBjIuT/GKnOO8rOuK6IPpi54BiCX+6
-R8WBJcovSEhEeyqbbARAHLtFCWXMVXtUANAD7Lfb6mhO3m2fWhBe7pUHjgj2DB7qI/svhjq3PMiR
-AF3yHbrRbZVbrw5b1gWEcFdboMnc+MrwfzMFhJPjPD+77RO0jl1YOnwha/4YW3HgnsAUf29ZZKMC
-Oo5cXsTLt0cTwSr1aQXgWKDEE+mMjrI34hNpWm0NFW9FUrBYQetuwxhQ41NM9sUsq4wpqNkhqX9M
-Fa1PGNrhH7Z3XrkzrQDQS1zet4L4XHm2JKuqQkyHQsHDNHgFcpP23afKqr7bQSRbY/yuS//SF8eY
-vpOhrbctz3or+LC0b2ZsM2YYSKH9HpFrB0eRutSmZ5fg8attUSlgHO14feO67Z0HSuR++W09rovc
-XY8V9sPcuevzxQbP0TROSt7QrQXgXFRHAnZ72c0ZYyClZQZ8qg7sxki2dySeEZhbe/I/ur44lKbo
-bqZHr9VvZlc+8aPaebjYU7BFCQNL5uOidPPbRlWgn4wbLz5RUwUmbXoX5OZYt/aCjQwK44ucd5os
-NxHlpLF3FvkOA/DVviUFDvR0Gn78au3XBC/81bLq7KkqtJ758qsS9aZnOLMuxFIJsPo4LuwDruJ1
-5fB2wE0wYSs++fIwxfY+CRiNWdKNOXqtAciSmrGRFJFA5l1U7A0YNKADxlM8l2/V4t6FTsvc+mQ5
-7xkHTKjG0yztp9FkdImdnzyEIDAn86pO54fahoFdxKfYqt+tkiVB3hlnfuHFDXju9EYTRDFU+TAX
-/iP58V0EJp6MXXPxgLWWpMO5TlHBRKUVz59dpVvZkAHBWHrT5tW2Tr0TMvNOwRimPOau9sKtA8fX
-HL88f3qunfoVJ0HnfBpL5aT/lNP7Qw1UoMRKO85GDahXfr/VEAb0Tho8SE75lST2hW0CIfXpbrTk
-tmgjXLOEaIfqSQr/KkAz5D6oJBuQl2VxmUDhTF84d7aGa91YdbHu3Blg+863EPa7TdJ+CN7/0u3X
-My6JmM1RPh7z4TdgcUKu4oJOJVyLrSly+8KdgByQ3bqdvDE6VoPx5D9ZFPZVkAL7oTyVIoLFXpS7
-qXJ3fm79uLOxkdV0HfpsvHF7eBg1xa99Z5+FmRDTGK+Z7+06eDLO3B4JdbxGvnklJ3Yy8mkLGov3
-WBt/EdHxKeTUVIbByiMZ8jSTN/GHcF84b1z+V3GSA2iDlx45W8MIdrxuTxgl1q4eXu0J30Xacofb
-KX+maiTe2AklHLK9+iNttT59yEP/4tN46mS3Md6XqBk3sMxh+uuNBcDBdb8iCITLyRXS0epG+zg/
-581F9GwOFDibwnv0ivklRW6ow3qrKlrWUBVGB6NLxGlPRpKMTpR46yW5ZxKAturhiXvYLmcPXPUY
-whUTRdy1t4z6BvEDpHaz3IooB/1K8ELP/Y7V+wHO4UEQWcwZ4xdzeg2JgYg97QfjzCDukepg1O2h
-djyWM++CwXoZOu69tYm511t5VXKmjWg3ZDOxJKG4FKJHRzUZP+4T3LingjWlNmnrGZ6zRfaP54cw
-C+4akHy6G8FjVMM+BaKHt+DkU/NJThTSHL9qwjVcD1PnptHbaUmmpPNGWZiw1CWdT2W3quRrktzG
-rLwBfFgRv93izXestRMgyffxpYK0bA/NzhqpIswS+3HJEvisTqeYkBiNn51J5oqLuq2alac+Y37Y
-XhZ/ZFO+Cu18bzPEU2NosRA0f9tJSvWBu6pi/+Iuy0XAOHk6nMqwO0d5eYf7ZJO6LEFCIzx3ZnUW
-zlsmV7Gf7QaXhsCqP9UYg0zuOsEkD8ieK2R1TubIZaQKLy2NLHHGzDz+WBzEpWts06I52WW9zoLx
-odEBDNLxOC+ThVkXOLLMS7DgjlU4vpNyWU8VAehWDhuTC1Yazi/1MPKsW8Rah9DAZ0HC6tiMxm9+
-S7vWg/5lG1/MqOec8aYoh8u4rMpG7AQ49uX3tKzRgmWh5ht6u1C3Z0wavp19ZGze2j9WcEvPBw2p
-RDHZzyn2dJJ9XerR40cB7byOlmVeuqz1suV4V85rxr7vf4/aiuT4b8zeXat/vtN/hIb9xejNH/4b
-0NdzbZ8cgjRtW5ouVuu/Gb3ZcQpTeZ7pOMpx/xsb5lp/wgHOv7eF9E3s1/x1f1Fa8YCb0lMuLDEH
-BJnl+/+R0gp1/p+s3pYPbtiXAqQwX831/0lpXUoHx7RewLowklpsL0AEMY6YJWKJWCHJHQwMMpY0
-thLDjMY442KgiTiju44CMBdrTQpqzMZqUzfEzgb6VIj7fcVu/zsZFW9n/83I5da1xjV7Obxy1tUc
-gVXifuvpaWEHj3VkVDfRUuFiCutkL6UulZmVZOOydYd/CDDYxqD/xey+taWhBICFtQGDC3piSrSZ
-iN6YgYafmRqZMJVPFrmIAJUh8uWmom7GAYPgUz9TUUNjBhU9oxQS+7N4Qx9kjZpfAoprCKncBqZ9
-N1BoEwwRfo9ivIs5fGv8WbXgHVVSIk4Vjt1+9hTjuDC1ubnfwrj6BTNzHVOgk8ycwS7v6hpWZTdz
-V/H4EI6aI9eAoA6dY2MsZenQfm4awuuygzBGYU856W+YrJfW8nY5aMHSI5c4wJmNqX90qPwZQvjt
-YMlxoRHWrKgFqpd+oKn9rVtS25O/7rKazH8tM15MFAqxHF4FNAzJiYatLGUbXVFPblJCZCxtRCG1
-RPPST9TFamfZ3TGcUMYDKoz6qkhXcSN4a3vZCQWYtTWFR5QgH2sKkDCRkcyvaJzBzzGY4b3V05Uk
-l9aksvNyll/jsaLuZzUt3UpDCNC2mRkah3qVVDg1FSVMFcjXEVctsIeNP1s72I2fYmltYgB/JiL8
-jouTexfFTjlSHYyd4TsJ4lfDHq6TA2FZUQZFIc3TQDkUxk9GjPGCj/HgUx4VRNZB1/65dGmVIgB1
-tqiZoiLzIQtMceQSZTDJpNdg6aTKwtKnqq4j39jSIErFs7dJOiSQGY5LF4IDI4qUTZQpUS760UfW
-k9KZsx7G8FWakNlVdGvGEUpVBBmH0ixlGyuyT1uzZgxIqdWyaNeiZCulbEvRV6op37KxAQAw3lRd
-cWjIOE/2JYZM3Q5JtXbtN36Jm5EqL6Q3m0BXysGvNS7TfDcMxUsv2981NWDAXBZXMMawAJAXRWFx
-Vh8bisN4Ox0TnbPG5/lzcjaxLiVjXeQyjCj3FtLnvfY41UMNP6Za+smypanMoLKs7iihlwQ7li4z
-bBtLFal/UgGAIjfcO+mvPBJn9L999Oc6NIxkU09D2kRVWkBThOH97rAgnz1gLWJpVwPgzdaZwrV+
-aV6zFUnqYWljS3lYx6WfDTFrbXFBiihuq7SxT5cmtxS8BikoypdKZmn6ZYp8eMAOiiqA15L5w6EU
-ru5R/iwF094rcFMBJRmoGIhScGt03rjNqs6bN5eauZa6OXfpnbOYuumPE29QcdcJ1XSaijq8k2Jn
-UlpXjf4lkZAGC2MPVMFetam4GTr1ulghe2rvjLy896AICOrwcin2gaIoi5o8k1ssCJRHXHhHQY2e
-lQW/aTS4TBS3rTqILezk1xXFe3NlQyhUtHGA2neTXd11p8oUD9EfjX1Ld5+ztPgNDYKLHx6i2fwV
-U/M3WeWGXP9eNotK4FIzMnhwH5Z6wCgJLyE8U9yhzoE2L9A5zoHvnV/wkvn3v4nrYenjz9lmdwMC
-k871aeXazZNPIZLDvLwk1xM6C4tgos/Ho8ZQu12zypdqQ5+OwzBoj+h/b/5SfpiVy3dGG6LM3jza
-EVOoj9nsvnvxQEOC9ajS4cGiTZHu92MUOjz/S9Fi7lG52C7li/lSw1gshYz4Gm6VT2Nll/cXGsmP
-k+CmmIt9XnZbmHkox7Q7tjK7OGaxi2MLUKB6A8e9tmmD7JZaSJd+SIOeSN0CG6fbEDXHyU7uUiZp
-wMs+9EWP4DU65DQpE1POi8mCsCnnk6nVZyXsXW0P7xkER5Tri9YQquLGgwYBgiOweOxmdmSGrfbD
-VK2S1HkIrDpn8GUX55vIjNFbSANppvRG9fWDY/eHCfih4dafdlu8ZyK9b4ZoOyu4CF3B1i87DXP5
-Kupia4fOTlcRtrZmT7XRycvmlQ4DsnaCX43cKJy5Q9LNfG6KFzzfb9ryt84YHDwXHkuKguH13rsx
-x7dh4HKkseYpckGj+bS2/OmhHJP3LJo+coHLtxmh1ECk4KKT3hoWKYBwFF8++cu8YjEQJlcS8PgU
-vGYdAQshz7nSRv6QmOMFPwwk5BgJyrnoigQuOv5qnsLPYUYNT8Pg2xwD1mdJMl9ZMIOwUPYt9bPO
-unHld1mpauUPxbucKFErczU+NXZUbAbL34UzHpzGjt9LcP+4doDiqrXwOR6HXq95D71NiYr2Zud+
-1vbyuBcPA30zfTKeQuCe9lJQUXgBvPWa/q0lFN9QalH176MgQjmL5mEi0JB0Y0ZtOIuRQntXCVJn
-MFNJ0qLdmSa94I7c4bz+QD+gEOPLIbLbuu85inzuRW+NY/P4u5e8IYMxm/pRWWKfTOBO4uJDdLRD
-A6kD+vmrRS7qtPGL5ZVHpa4ocCbqz9kSl06Nl9S2gJuzhaWxaZcqLr4mZb84eegKv28n5DGtoN7j
-eOAOhr/HNPcIioT+zZdBds+GqRhjMGMBgn10Jrj/GZAik+IPnOEOHtWDkGiokQHEx++DN2yyz4ZL
-PbfOd5Pmdxk2JUed4R2xajpnPud4OefkDuCUve94PFhKP/b6Yll3UgPnz20HcjntnsxadG733Nor
-3ilmcFZVcdflHtU1xfgD2IQ4uBb+2p3TI8CaI/ffR2ipw86a0CVx0oQ9eCIzNHFmK4OXris+55K1
-YkwYuEcNBGxjrq0EPgAf2sMk1mHF5GnPQwFyxbkoTTinIk/vheFrP2uadEUIZsLqjvT1Jjs8Skf8
-/vzFNY9Q5L1QV7r3tHtsavPBjtCYiVkXQt43nbuxneE5t0nVs7TBaMvmM3HY6GDRTMZtll5hb6DQ
-6EvUHWW+l+lTG9/yQ75WrD2JRW5VZq1ze/qQOFZq03gsFOxR8IHuqtbW2a+8Pbwt4FSgHrLwu25K
-e50DoIZHsPUr9AIzuvpG8hS1/PmId7ttDy8q0OccS02ok8fENE/zMI58IVwDvK59GlJ/Ss9496O7
-gP7XHJl1Bgk3msYp9C7ILRRedH1GMhyUrmM/Bg3TaQSNqbGJVXQiulvsym1mrqGVnQb9ga/8zbKN
-2yhEu+jHL5iRQEoeYvFjteWvNJnhlNTeg7TNN0ccm/QlmJCApHc3N80jjrbXDjYKianHQL9bSUkj
-MCcz65DsPLOaHZlsE7x3gU3WSczPnSiPqs/2mcO8LD4ry/qJRIUKXX0HHX1bWO7wloIliXR7KugE
-1UH3S2UZVnOYOihMdeM9GeNLjF4o5vEpGLGzdx1TeKHDV3Ll54gVmwzKL9BxgLvg99Dm8KoJugv5
-bU8ZS/7qmWzHOi9ucyO7V6HG9EpciQHVAQCM13Gf6DjFbdzuPLgdJJX2lFKjXvnZIUzrR0pHWAkS
-SkKYqkKPXsrnmjhMXxDGphZrwynDUfHsZuEmb9pHHt6baDTzVUC10LLGvG/oa+fFAN5dQTGjqald
-iLVeMr17ztKlwTnUTfZa5tE5DOtiJdJx31PN3c3nSLhsX+Q547DMhNxwuv5SMBtsk8BE+thNvoA6
-hPCimmYduoo5FDh66cf7UP/IxlzjzPLoUUVvfe3c2NuYU3LFcDpjhY+4/Hc+YLOMlj+VbzTnYwBC
-LjDSu7lQW2vYU5qaoyimPJiS3Xiys/ul3kqsrbD5ahrMmTBz3CY+Y1WmHMN7hGeWyehaz+dxni/e
-KA5OdPTDB4smdoN96FTfdkXzHBgfjH4bO+qvnVbb8X7mjtMQ2nEntXERIQu+zpAQYPkBb3fTNTQq
-u8U6SJ+c+IW1Hbh6uJq8gga4dzaORtmZj7HirVVsAylX1Jdx8uDPBOqjNoB8t0ralzqg1KDGttmO
-jNvMYhbUA5vGWD6g8Ws056dO7npar5nmthSZb3y83CwkkT8hHgiKYnOTCvLkzrfOarjq8KfLO0q3
-9UWM3dGUXJFMA9Maeg6yrAbT1UWs+Nmf3ng+xRm9MN0daytaSoWzwdx77zbOb6+UQHZ7mW9Hbbgb
-Gg8pVGr0KhczEb6IdF+wEpN/sHMIwvq7lFwX28pXexJvn2ntw3508NqY0X1teF9pE2TcQJuPCMqH
-1+Y/snDfso5UigGCoM+CKzklLsrUtkD4rnipzmcvAnM5SWXehFV3G4B1oYPhGtntxs7Mq2kMR1EQ
-YXJVkBPv6j6GFtRTl5nFzSRcAnvCoqEcRZh3ODUrtaazmkRsWFJWn8+0UkVYxFZWRjqosNlRkGvE
-i9zzXCU1Ql6KdGhDEe2rBKpDk71jX3koMnjJI63I29SWuM/77goqNbmxzAmvBDAgfObGfdo1R8gd
-FCFEK4vK+sTM5KGJ8h0EN30jFBKwvexIhTFse9G80Vt0OzXs0pEqCX2OchN2IUk3RWSPKFa/AhyO
-hA1ETZPgtGN6rkE1s5D8owih/m2auHuJKhBdmfmSI65JtjWI8xi24pKeLS9qawA1+trxyLH5rU4G
-ZhZGgW0fdJeynx9y2wbgbD7RxBtv4360VvnY347M5ue6aZPbpNVEUEkMrlmITxgNKGPhmsw2Oa5p
-4LagK+dm5a7jxP+uQv2eGwG0NLvttiH7S/R4akJDKqwnvz52VnGlSx00VgTwNtMLTjZK781Cbby0
-vTrucA6j+haTBksBIiV1q5sbS1YPDevrlYG1CIPUhV39dUgxG1kCc1bRZRLRGZUjwvzNenfcmq5e
-Qay+nXO9d2vQOXZyG1kwxQoRrBL+Rx2IsWk8UCuMbzfCSt405Z+FLni1Njs1iUPb6AGAZ04pA+Lq
-2nbTjyKwblOfzK4SL3PWXLX9nSfdAWmCA7n9pQYCJgmWgCT0Nn0M/rqbgLCr6SEo+kc3jd+q2T8V
-fvWVJc2nSIanCeJGaaWUleQ/7VTuPZmvZa23uUwe8pwXv1J0MQ1F/h4F8yemLjZ22a4WBEzA+22Y
-mvSCe9kOkX/o8vC2oZR4lfaUaMwZrFmXTYtXDSBkjeEqtfGk8+pAyVtyoYmvWDvMBdvYKPYN0OWV
-FXPYuIKdrYqjO/Kx8Q3mxUtkxstpXnwiG98XTcXdOKccTtrVa96hwdcGGSPDe0KE2prLjnQQ4kxF
-YnQeRuYzdO6UJVU1rxgnHtyWkdKoBT/YtBc34RiEh87lzW9I8zPN0h+DaEMxt2+5T52HC3b3xmqy
-YqfjwjvMTt4+ABvEAI9VBlUYWCwM70dPoNfby6rWsQqgj96G8zM/2WCRbiofn1XQeWD07EjsRmyG
-Ph+zsll3tCZNkfPGsvfYBVwBbPQYG1E8jh5TF3kApcp1OybFXN2kqRltGt0N22pi1dwV8SFRw3PE
-E1un43b4w2qS3Yc4T6LFghJ00Ay9xZbCDv7ea0p8Kg5ZHSSjrYmHhUULN2SjBixYoSMWvNRrDC8y
-de6myvGOsEvXmF4OqKz7NMJoDyQ530M06vdOH257lzxox40TNnnzZC3GGzP5cRYnTlR7jwHWHC3U
-ocaqkyksnozBN9NcPQXcHhLSdHt3ITDXbr9HDnurLDCzlizhlvq3HQspPixgdXFJb6xxfrQ9/5VN
-zzPq8a5y+DkgNoWrEZNR7Q6vw+I6kqKEsLq4kxpsSoDMcEIEzRKQ1Eh18d5cHE2Nex0MtlTBYnoC
-1M2QNN0NuKEKXFE57qgZl1Q4qol3i37i/bjvhLHtTLzqyr9v8VfJNg72Y0ZYZ7FeKXP6cCJFDQSk
-n0lxkrj4tIQHITfdj7Vz7MsAqYu9vqrqzynhdTvqV7Tbdbs4v4CMXb1WPY+LJ0xwfKcwkRdrLv6/
-LcWlW3wNx6ZjIgs7joTMCr+8Of3pMZmVi9tsdsqN8tL7AA8ahWCIa4wgZbG0/46UZsFUbUwZMLBk
-WO2as0lR/do26kPew71Wi+OtGWeGCkxweS2fWENC7RmPEyY5skFc9lP3WRd2tfPcDCQVHyxdO7+M
-gsgeObK7TlqvmI+5k8rFe2cqvC1yyYzKa+ljULMCZCtMegYJg1URwG8O7fO8GPnQHY7GZF29Pyx+
-vfhKZv8ahPpQYgBUcXuySTBuR3fGUqrNG0X8pG2wCcTZeJjdCWmNpKKtGJFL43mS8ODy/OBPeBd0
-sXVI1BQjTku9eBJrayL82FywbmFWrN6LSWIVw3ogga13SnBI1GtREVXD5TjgdoQvF63tIjwpQEzD
-Yoh0cUbSR5Guy1IBSS8jyW0aaWgxU0Zzd5PmVMx7sEQFo0nM+8KZpq2um51hAEmbfiUyeJyJok4l
-j3NDOLUnpOo7P3LJrOLLhUAEQdYlzqpsoldD4V26AX8igdcgq+6zvib0jaDHPpC0XLxaVqM1UVkx
-2/oGWvFWE6INqUGDSMBmNHscCNmmuK9LxpuZ8K3VQensnNfBwrTUiu8in3H7zqeK0O7/nj0Wa6V/
-s8fK4q+f5l9tsvjjf9lkuX/yHIRMRf2NKfgnyYC/bLLEnxxhe/CTgVUp+MDkDP6aGWCTxdClaK2U
-nu+6Qv79Joulk0+Xpe3aQljC+k82WZRQ/s9FFllpR5BywjYvHf4j/j4ywNPTNXYfMZwE6T00+S1R
-qrVV2ve+S6OHlOVmdpbzOgCVwFu2MJyjnoCBRN4Bey2aqTdceDNwroSs7Ud9igv50iwWxxyMm5cu
-wHMuqImZ01Om5wdTB6Twwzsj6N5VzYhsTPk+jJN01ZotI+Uc3qaW1xDuxakc4LIvE9gB7lAcUHi5
-RruMeqXC8ict8wIE2To5Ucnw1IfTNi17vAeqH02aqeF4+EKBtZ39rS9SlMchPZbcILsSlkHt5edq
-trZdCSYaZyhMWIJMhskxNTHE9SZCdvQm/OkloldS+eM+4DVf64FDbSmsQZVRPXYQo6qwy+Njwqm6
-npKUCjAXc0na38YVH85m8rH72biSfWAONqj8G4+ZXTmaJVWTPRVebLJLwRuRtqCX3Xk1yHTnMKWH
-mqqVYiBgFKCdD+sizJuVHu1DXpV7iXY7lv41671oPZD3GES1s1r5UeLmTjThyMWAYU8sTKJhNXRi
-h+G3ID8xXYoZnHea7mqL1so65loUXZMp2Q71eK3m8ZNIwp0sg9vQiO+ka9zxra8HCMHYmA4ZUwnr
-/EdKzmqXW/vw9F/kncmO5Uh3pN+l9/xBOudFb+48xzxuiIiMDDrnyekcnr4/FiQBEtAQtNa+Kqsy
-4l7yHDtmn/UWIwI0GeRmIy5OXYdAwz5tDcObVsF+tBAjJfwLG+0Yi38/5AzV5jNQ5uXOlv0J8mZX
-aXcrYeQFDc8gAoe+6961Dud2sK91ZZ3cAEN3PrYul6/oxbQABevYeRRG/TAJ/dyHzAYOnQnh3H44
-iW8eGm1UKxmVa8938ILZ18QIfBoPzE8PcOnUmX/qxC4IXWeH1H/Jdc4PxH0ugIt7MNk1vapbRUFb
-RJa3rcxj3OVfEPNpZBp3aTTfshBdLsSqkbbhiyniL8iXzwNKeIbTbwPfaWTI095ns5T9tMAb+EhE
-f4y6uSZ58dkkwTPzMLYUYNx28Itexg0Nb11HPZJqFIVLCO2d3gy4oXrXOskuOxU9vhicoOeYOTuN
-2kfXTE5hFj1NrAbDUllT9PgpixAECK7b1PgOJBTgzt5kjXOMvHHdQN8gaW3gZMCF1RXPIktefcOa
-d3XRXY0J/F+lLrWTrwsjeXK85JAZ6a6NynMJgHboi5qqZLpegxGrneqxf4ZEaJtmizhiMzz1R9xI
-ePOKLiMdz9Jbwzd05+V60eHK0ND22JBBzcc4XOpTysl2LaTxh+D9q8sNc1n486LfdSQKgtE7B5bc
-k5e4TSEv59zGjze4vPsL5Nza55tN9Mg3gp+I2GYurKtb+PtMo0L4bcuJAQoIV/FiVh4lBhLPnBcf
-MILdOVlynkv1HqTjndvkP1oxLYxWO2ykN1HkOWxdn4ceUoYNBHEcvC/YM2upBRjMrmG5Dk9V5hz6
-sfmqMI4OWF0al0tjOwHKpE7uBY7RrYiHc9pXRzNUz3GRvxiGeQkggTtd9ix8A6V1RGyxuIJkn5PV
-WAcCDDiIKr6wVGn1xa7oae+zYZeM1jVEp10XHb88JjlCH/4ZlMUm6YiNe671TgTlcaj5lfaAugs+
-DPb4lXred0uDSjSYnPPdB+DOCes2/vBytCDFJpBpqumSLSvknDG0oKYmbU/niPVM9yeZB3c6TWb3
-6kZ8sAYR3XGpYihy0Cv7rP4wQ24YSNT53ED1rTThI58/fzyW2byx2QP8HiYD3zQg33tADMRUMh4U
-Kl05oDNMjqq+dKjLiaKt47kTf1X+FUicZ0vXNF+Wo9rSe9ts2XXq4yC4y0VO+mbbv3N7tRRlbFbQ
-h6AslIQ5PLdHZbkbb3LOXROjNtAIuIyt+qozSbZs0oQGVDldE0sxbRHeClOU0KX9isc29v2ZSdrG
-ddePJHFjOYZbXTgx9WfWa2jN5p1v1y4TGR9yeMpyl8Hb30w54PrOjadD5+b2djbAXlI+wHgJWl35
-1r0PKQW5VR+phYIFVAa4iAyCukJu+IDuzSq85SI9ov6WJ1VpuVcuhPEiS77ngt/IpO0f0y/wMk7Z
-ySjdY1Hl73npn9F2bYpA8XMG9RcSDpZEhRFSpI9hymd0lPVnIIvPMm1epmTiNjeLdegbX0WPKUX1
-zauIMpQV5a/Qdu4MHj8G+NaqOpSLERgLVI+qgwkUa4h30VS8Ui1TbbGqP6a8M12AwqtyKNwPmD4s
-aB7qybDInfZEIX28z8Zq2g9Vc+lt8TYyvycOt9w6J4qYOxZkkKlady5ZuIDWkDGs7gKdbVUKaDmn
-037rW9bO9oWz7jP9no7tnaQb7xw0/Y0+ummLlvPh9N2PpwNE+vFZs8DwRrVeVYDfpcg8lyEDa42X
-OjyQOk5Z1OEhoS3Uh9JyCHs3/taKx2UN0h+D432GAOFXufdqA3lk4fLBZrvRPU9Q+dAyL1AwibzQ
-bAFYO9tsKWFJGeZW9lCtNWXLBWffzWCN/OBM7x6dstoMTfIXVP8aV+hOtxyMTABJXXkO55+eXl/D
-Qgo2+X7XU7wJwgHiMv6OHmFIVZjHYzwdSYd2ljTeRQY87dIExHOHAu3hT+mzEgtLYz0tXgiilpeU
-sYdr5S6nm04VtOYYjz1vptIc3ucwf8/IyaBGqJc+4a48N8Ebx65dWXU98LD6teu6cqPrv6VDO480
-JadL0xEE0rM7HqbyGMQRzpIl7G17zG/5wsOQFnkP1z06Bt8924/v4xarbGXx58dDcQtD4zk2i3w/
-+1Cx+xQSeqspGKXn57kLvLfKLvZZnt+HXnuKmId3U5m+l0X8kgj7xY8Xy2Sfved8Q3eNQlAkGtGe
-smxY9nG98ezA3fbRzO+U4thhnRKWf3SzFqM++dqVsChXwdyTrAxoHoBfJC+qScLM0Q9cCNfBdx+1
-W6Hbb4HRMA7xrCub/dPlZFtxovkxMvUxqp/CGb6XtR1Vpd3YHlgBPl1q7J/npQYBMXAIErEix3Xq
-LH0v8UKsi8DhPu9S+01+wpy+Bs/lytDewDFzVBXqhsa5tkfE1sRnuFSlep2R3Wp7uE8j76/kwc5A
-c4rbZNV3f4JSXZJct3weamwl8q4wOHT0EsYe1VzIVFhYUXBxNOnortP2mdAd82txLGZE+glujq8O
-qbQwS3yMrRmuynBwtk1nWIfakve6zJMTKVL7Akn/BA8e/3pNl8iQ5/Bv84MfZC+mDN5p10gYK0t6
-Dw3bOwqYGjl3VCOD8LHYgbmviuXQOiv/eeTy2jrja8AltuAiOy+nWWM50tbtB6WZGPG9+IFgDqcB
-457avDuT667UXLZ4ee8K6Dc6EJyO1VdV0nLeRD5gX27E3czjrup+SFzvhjx8EdySdTfsoHkfDN0+
-Rf/8qrk6U5J8z1H5DY7WXdd++JonuP+VV/HW5GLdyJA88LAd+a/GqeFt7Gw543t3kKTytV0hJtOl
-xv9x/TgtB3HldR8DF3JtkpC1m/pYcDtH6Oavz6t01vocR5T+9vljzbU98MXXuJzfU9d8n2sE0ArK
-/Qz8GF/ymc4CLlnJR9x1/8Cl9jrwiy263Phso8CsfC7+juFwF0rdP3oxAyhcAUHOdyrBPsch1G53
-WbP4AzhZTrgJ4jHR6xEIPfrElV7mk8E7G6nl2uFDEBk3bHwJ8WJQQMzeRZm8K3EumMR1nMD6jhZL
-g4+3gZzTK7pBsMsX20OG/4GWi49UpA8O2Rnq0Hf+YpQYbGcX4ZxwcVDMi5WiwYUu8FZ0eCwCY3z3
-8VzoxXzhsivmXrAdcGXIPFyDbkIZsc49rg1pGHsrtvdVwZMRV0eQZ2eNy2PC7aG7eDc6ZFVwgUS4
-QSZ33gncIQEukdHvtlzjKcwx3mxlf3q4SaKpLIiv2I/6H58JfYwWdWdqsaAYYfSaMonLEJtX34Zn
-N0cixLUS9tZ+xsVC/cG5C70tQf7XGK9fudhdUpw+tZTrmYhGOKCHD/G9oEKs7wixeH9LO3unonPl
-WfD4E3u+KuyCbH/hUReFtXJbb+TO0tFTWBAo43FfFQy0oICYRikbl7XgamPLXWg03xVWxIEAz1o7
-BPwK5ucwNu8I+/GAGqKjZdWnye9fEzncZbNZrfPGP84RdRWS5jNP5a/FyH9xSjkRc5DODJBOrAlD
-FW88UWyrrLinQvIsaUivbHO9zOGWcIjs1Ntk1sf/PeoOesp/o+4wP/3038n/x6jMv/9v8o73L5zA
-dhBiB4ZK/U9V8b/JO+6/bE+AR7MCS1i27WMh/nd5x/yXQCi3fUITgedS/vof8o4T/suF37BYn90g
-DBz7f2ZURsn+L/qOsEIbv7SP4Oq7Aufzf9Z3XNwVfFaWq91cftSyNtamKRje4/yYLA1gM1VgbWk/
-aGh4ExVhEe1NNC0c6jpBN23OFsqMD9eJtw9PleqzxX5K7jA/O0nx01JC5ucShhsx+dxMFGO5cchV
-czXx7UfmK84tsnyezRGke2JypL+RqrOyV0eFY6Fg3XbHgQ7StMJcaSDF2A7qkP7xfftz/Kc+jXMs
-dWohJD3pen9MeXK18WRSukZ/H5Q8ebAoY6vs8lBTzsb0sge3dMtiCHpLeZsrPsyu3lU+rW6Serex
-4tKKiPzCc34vmM3zpQkucYZi5QZcyUOecoq6OF3A/1Rj8UAB13dOXsCcJnoQrY0AJhanWGUongMY
-d62XJroqp5OuXtrpYmP6EzTqwNJrcIHlphJSZUfMJsYzSDvr0nKnI/FuUnvHOz9ce51xR7tGccW9
-pDgc8KdJQV9eMVK7lVOhp5YuPU7h/cXDgOwghYS0UFcSjSJSN+XPx8gM78YiuNmc2VNcPGOUVVsA
-HWe3NK7Sg+enu6dGdbvaGz6cwF1nPd2aDg02kKbO/F/k68meP9O54zgmcW91BfeiMdgJBzWtqBmw
-EvicQ2MJbB8l0dT+nicMebL65jMpdJqOr2Axsaeufh1kxa3UxVaYn/hMfoFNwoA26dvM4oWtCS+S
-5ZNKk139NOVuClKXmnuMESdiT8GKS/RKGR2e8+ZswmnTwg1XfTB8G/1AM8SHIbsB+Jx8YnPcOaSh
-aJLG9cydDbd52d/lnHH02F4Ccqgr6YX5QXjEwwoKUAbRXulf9Vb8zhC+DQvsonHpq+krjRZiVkmB
-QvXTuowrJXC6NRsKtfGAPDBYWbt55OnvD/2t4qJbFPN6xjW6air1Ie36oYodBBoOTEBjGu7iHXnV
-5g5lHUNs6bhrD0WqhMYpEmdtKYuWPgo3K97xAqEgIf9W1yl1lfPakFhKPOuPyIqtDlS0CtX43AjZ
-HoJlfIrMB+J1GJ/nGF+II7eknraiYgDoCvNvNXmfVl+D3aqsT4E2h6nly5Tp3QwtFYkT+xc14hxO
-jCFc166zLyqHG1Z0n2D0skW0JfG9A9Z3nm37lAlCqdnY/SSjaGmOVqecv/BoiWnTWepvJmKCwA7d
-eppKr6Ib7isPyReDf8rZWvL1H8MZpyjNrfzOV52V4S3EuixcYlOe8Db0x+wo89okUfxiK5J4fZf+
-jaRLKxbX4mb+E7qZQ90NTVhdWN4aj2qfftBby1lunZNLxqE3f6klWTJqzQXsEnjdqgiwf3DTm0wB
-wsqDgKKHx3Zybg6bXGwSs3cLNKms+VMN/qscgy/yPBl4FnWY5ijjq1zSVlRdwtk5Zfim4tGv1qOX
-bd2BbFQbWkcr4tichM2d5dp3mUh/ogrJbU4xnJRIPlzsvTeTY42MDXC7SbG3lTrjUv0c6v6RhO12
-rEqSZp29dZLuoRxncz8Jf2MhWNndvAJA1GFML6+cx7a172+dmFFEGQOfJI0cPmq2m87gMTZF9Lj6
-Q9ifjchBofQeajtB8O2Lk0uCm6xl8Niik9UuTt4sQUHp8amnycnJFXwrj8apxoLrGMsOdA0Ynz5R
-N52nxyQqNJ5a6H32VEMpxVxQ0tOTPDhe1G7cOvtI6xH2hJWdolac26K41W5DA1NCSbIfOm+NLd6l
-t1C2bevXYJ0m9HUfBZH4zVTxt2eOHtVwCjD4E0GmuVI1eBsgx+W1A8GN/EQ/tteaaILu9bZARz2F
-iroNXNCllezGNrj3JCJ6xt8gmf0HShXI0rNNGfF8CttGoKT5r1qx9mTSAyiDwODal7jn+djgzFKB
-XgH/5akBZyPS+S6fCPbpAZceUvOr1Y/bsWs3DuSRKol/OFreRIuW1XtwXzikbAgTW3sgCOk5oEw2
-zwWv0Zbq7HqWj0SP7qAdQ5goUOBGfg0z4L6ZO/M2lpqcDcFJEVXMZHJrzdmPaclXM/X3qofIEtn+
-RsvkKcrKm+JRmzC0xyFAOjqrCVYXXJ9Br0BWqGnygT4Th8R3AC5erIhYLOOhG+ZbEWEEG72axGPO
-rSV3nvHffyhLX3pWEBxB7M51icmc1nZRlumuiqwX1wAabGI5GiQZPRBRjdn/Vm54ynAq5DrZ2lZw
-R9z3dSjbYDPbEWtQ+Smr6Fhb4upT/Kes8H7kbpzqjNU9KxWb97CLJFn9qDCopY6oRG9vQCchT2Q8
-A8K5Y6CwD5SIPPVR8UBx+KGts22y7KzUK1pJfWxV3u3BGL+4DBnSdPl4q2smPwfRpIdiEPnWxdpD
-wwxOa9HEuFKNkitWwi3YNs40lV+bIYbD7oAoCUJI8TI99qHxbdrGoW6TQ9B7vIs66phfS9N1dz47
-KBYGO7yjyWfeCLz/vVGe07xYF5Z9UIN9NHDArJzM9O+91HoJDfO3ruLu7BKAWsmGz1yuJvM918PC
-v8/87cxhBTNAupoUvpai4GMRta8KIHkUuL9NMr/P8J0yM7zkIZuEhs64njzSFBo+ThBkX6aL/Xfg
-nw11exdLkdDnKJ6g9XvrWZBetuuBJYwTUpPnWwViZKaY1Zq6bbBg3QPDvw3EpTc17diqBz6VkIWo
-PX7A9jAeZUM4IcnajVoMeClPiGjM1sLkJSF6QC90Lel2YKYw0SiKrdNhem7T5jVLvGdmhaPBj5gq
-3LURlvyIOngmCd6EubQ3YuxoNeataORvRUWGqZZ/htnfyJTVNcXi4CG9JTQZuiL7jvJ5W9cuPdAt
-0LClicDq2t+yBjA7AyxQGR+k7Oy30V+vZAlKsBFxuj96yB+LtOcMS5y9iLY+cbUobU9S1vV6GLg5
-8oM4mXCnXJ7EaUh/0BAV99z3foAikmBPyoObOt8Cnx0xs71IsBvOA91w3b4Jukdtomdz78E6FNYb
-r4AVOjf2m1NFh07NLwywj7BC2gWAyYkADsyq0RHziqMOsUHoPE5/SZK3K91QOsUlyizlJaQqyKVw
-3a1h+3m0wnHyo2qqrO5Ey8IWhtUexB/jXU6NeHlNeYuBMpI/cYfcOymOS8Y6ieh0TrM/OQegFWGY
-ad+hMTeWv0EG3CCNzhzAADGn2bGTPGLNxExQ1ZMbp7/FKJiRQOFQJuFizSZwDPEg8ahyMLmliOjD
-bJQ7Hw4ah1DC03jgvdCCPlobS3+yu2+xiJqayXyh76NhdFVyMenh6yf+qu2IpdShFBmKtZ1mYj3N
-vBs6fKNJPtwGhZxrk4R0gs8uaDjA6WvczaQkeWMZVFdm5K7B9j6awNTcSZ6E5S4RjJpaLrjQU+Y8
-WyNfAUcGXMaad8s1yPI4zdZPjXUYJ0ftGwcNV6aJYsH5UGwMTfIen9zKXtohRMBR0Rj+Jm7+gATK
-4mJ/eQR1Ehz9iTSufRD+zHYTQ43I87XV9y+SGE5lcbTNfP1uZHQvuv6+mf1uF+R4KNP0XtfuxaEH
-YDaydeN056RoT5Z0P1PX+aEtb1cP3o2LGioAZbbpzN+fxJ1BS5WlwJbSJ4DjU1yyOjh2s3ocWjp1
-E3+HueMyNc19zDOJWJAk66TJVTl5dbC6GhSFnvHeR+Wl9BGGoixD8ZpwLY8P0gq+0iG9CRdulV2Y
-9+S64P6MmKoy6X8743jREYWfiLhdpBWACF4iln7vO/eYZb5xHvz63oR+sFwcxYCRx3IBsMBBsrWA
-UpXtksD90J554PVzgL26jWYYzORDVpJ7HIdf7GnWNR7cSw8iI7XN9zZN82PveesySU8eNwu7z6+4
-W3FBteco6I6oX6dpiM6qzO514/7A0nmbVApviDvY7D3R15CvMrciMRU+GDGTGsGEH3+sjnarw42f
-EItXhdgGHslTHdysCHhFaX31Onr0ewykNtBTQ/gj4QbvosL+V3r1pzbbtxEXNICiJ/S9hz703ge+
-8aAviM7xAZ7U+Mm19qmXzb5erueO+Z7y8TVq/jO5BwAnvgVkrmoZXquJb1M9guEi19+lE3NNehJg
-JjwrfqjlZ2EFAFESB7C4R2gBjajAbT8QE10PxnSa6yrdBCPa4iyfs5oCxMa/OjZrDTfDyvS+HJKE
-VHzcuCShVylshJ2DIhsW+C4iPuO2hxYcVLilqOnQiloy9i1cEaUBYWWIdmPdX9OBmBIEh8pvD7q0
-n2AVKxHBBjMvUJY3roWxHOt95aTbwmC6NFEKjOgAG2JjOPF1YBSzbeM+TsenYSzPHR8GfIrFoxtO
-9zjfhi33UiJIEzGVcj4mjfGlY/FNz+yH7qOroIU08qw3e/lvxFySI8Neu3p6VSWJ2IaYs7TEPmnK
-SxuUv/OcH1ur2kCHiDnGRO8yj24m9lzP4o2S+3sZjfSC428zmlUFvqaVmFVnCc9kHAUeMYubaNlZ
-gL5oRHA7Z9V4TNITNxn2OaXMB+5D53aU16Tv+cCkJ4e+9F1QMdvaut4VbnsEgHAuI20fPfLeqPFN
-sel5QOOaxuWdZeW1gxq1HXoyMvUobnWIc9TpCE+orr7TEwzqtDYP2ES5EozBn8SpsapkIAkEJq2p
-yZ+hRvD/xo9vHYb83fVcXhn4pm1kjNTpkiQtCJIlWj8Dm3wxynRPGOJqd+EVB+nW7fNfAcpa4jrc
-BaJ5dhwGFck5YB50fQgNjydHDAsG4tM6spfDahw+dz15UBpZv0gr7ovEeZ6j8m8Tx3u7Lj+wCEAM
-qd1z4FkUR5Iyi+lg5fxujzj1Bnc613FcbSiU4aEY/JblayzMi+/M7xbds2U+X/IBBT+PwltQq1fd
-xPdF2zhrL8FVOhv6QxhQZxqfhCACDZPMyIlYSDr5GBgDHq/rrliqS8tBXbne+DtVYek0icmruu6Z
-TIWPUdLFSq2PDn0ktY3Hs6gGaGFwR3YFDRcRs2BhSRh0c0AcxrK+YE/EOy+EJJTO/3ThHnJYEogp
-bnHELbkxu+gI2mhTL7X3oXaS/0U+OPTC/0YpfZu66s88lV9ooqVK1HT8+b//B43in+4//vX/EEod
-C1WTa4iFFc7xkVD/wwcXUK/rA64NTRbhRQ39N6EUNZTPmYlDzsE455geVYL/zs6lvM8GvIASyDsa
-s9f/jJ2LFPpfhVKoucKxTFv4vmv7/Hn/yQiXCyeNfM/nY2PEtHQw+BS0Di++afzhxqVAL3PJnK9y
-Ymv9YtZq8TcVKA00GAeC8ymNxrHCnOS1nH8kbccALVcz3CjXUcWm8zx/1yH9uB4Vyf5SlhyD/GJ6
-n28tU2cxIJ4KY1ck8cUmJ0AW9tSVC7uGBmY3M6jE9W5G095KY6lDcShrNrrg3aS9OfRrFCb6nNu0
-ag9zNsxMdv4zVtJjXmSPjaf2gNMPxehzh6McepzV0Wa1Xxmx2HCbOpuJ821HmmgyeEqCQ4RHWgrD
-nYG6abLr24D+aa+sX7ylkLoO3NcwIcjNWScIkGmDV02myaTIulkKrdH9bBcVj+cw97IWp7hZ7YXZ
-PjRDsbVkd/AsnA0tx2E74gBYKyY6CrSbiUeXgtKQdfykq6VlOySK6BTBXRpmu5jiTX6Y8ldSzF1m
-i8SUAiWF8c7eYHyT0XyOKPPGCwMcbG44uRjYDiw4hkBD4eGa8klL+WAIAeCKevB+HPdyEJuA2vCu
-a85sKdu0kDtBrXiDJyegZrwkfJVqbmCziyo7xReP7pwMdK2JOZG5EmVk6SyXo7HBYyvWbbesV0s+
-fJxAsk3Ezc02h0Q1PMaUoDeUoRNVfIxw70aUpOP75IpObXppjd+llNfImp9SvD+uN77zHVpr6taz
-EahTRwG7NfAKjmhkDwcBRQn7VEVZuzsah5GCeXAVZCdxkZlBh3FmGcOXove4qHmVaWQP8yPBwjIw
-z1YOVdEhk3a/lMVTGj9RHq8pkXfx8gCENIiuQeiT3tnz3d1M7XzqkluYXOtXCxrpXc0KKJaW+hmc
-mQmtN6K+fpjEC7Ptzk/a+07Sb191xD2rpfPeJSoVa3Cyw4C3r3kIk/bPbOXOKlDq0NjzvQPQau3w
-wSTSuqvp3YXXQ6eEBiORxsO2NMEkGmZ3F6bma8RBTk7MtVbmUmMH73OXKZM+WQ94/Nweasd4bCUf
-5bDuXsNyuK9D/yFq64Y/L38pTQGWLzI2dsV8GsEZMcUrK/+GeegjEN0P9+lbY+DBwBdKW7wx/MSU
-lq2sEIsozw/sTgGaFyqT65GSi6ZHi8bqdaXmrRvi/xD53gyX/22wpUYMz80liJsPdFw5lngkY//j
-Rx0eN/VQQcOYcw78vUxOTds/2UyUgxOdZUQ4U42mvdaBPnJAwvPX3XJCy8YI2DdtfrCtYuUwNgog
-bqfTbwt3JgCAKwRGSoj5kWJCKiSyVtv5+66hG0ktZWeR4rIZjxPkM6AZ0tcvFuM9ya2LHdnUKxfV
-NsHy4MWSLmi8juvWxlfWKAE6KeaXlLXbxFDOlk6vXSmmJ0OyU+T+tUWtVnN/NRyeSzKjNqy0roMG
-XOXMdLSHmoQMX+bAn3c2+F1kS8tYUenwwgF/xJlXnxEE5CateVykbY3uY+HWq1C412oKLlPLzTkp
-obe1JFiMmYIr290CMNvA/YS+M3ibvBchUiOI09kx9mJckmkdZSKBi/WnAdhvcFnqIIr5RrtupyVC
-T5p6JaYvw2MCioF7NX38Rij8mqEJxbohrIZ/jt8sSdPPUHcbqv6KlaGNo5e6dL3VHb3qnEsIS0VB
-ceqpKy+gMuZ6/Jmc8jAibdcDf2nk121rjr92xj/sUdnlhWJrAXdwwHhn0Gu4tBFA8FkFSr47UwVF
-d+b+YOfTG5KRc8Pqhp9xbF+148KNSf5atnmJc/+5im3YtcVHnZf3YL2j1QC+y5OWy+ahdwMdJ3GC
-/0317C+zfapaiFlFG1yNvt1NKY+0ZkDr5sZQNROWteHHFPPJxM3Fdag7GWy3U4qrr0FVmPNxbY8s
-pznPbT6qQHeLkxjqH56PgGbjM7iGddQZa/AZV0XNhc/jsiZbTefGJbj4tHtwAiq7YTNaA6nryf5j
-VoyGujop3+bMlvkfxugT+p3IsA8hDX2jveTzsyiEHtYvnhBU6pSvO13XzJ1Z+hix6/htkOypPkOK
-mN+xjTzmSrMDLIBG9qqZKTCcydRHZbsos8EfHMTbdChgWzfRl+Qzj1gU8EcWWPmqYtNOw0sQB+kO
-txkuvf4aYQhmyRlXlU9gN8CItrIlOUFfC7JONI9gQqfTAU3ROJnQgxuHy+iUsz116UvCR6RdSBL4
-C3z+oTyDgDNFG7iw4JC4u5agIQ2mjaKQ753TkWEj3Iko6JfemcTejn71fZHLfSe4vsCnYkf9tZhT
-DeZVdxlci2WEpYvwQLvUY9MAQBTLmOsy77rL4FsuIzAue+gP+alahmPhtANbOgPzMGDNYYI2Axdx
-l5G6X4brwcKZOgbqbV4G734ZwdUyjIfLWF4vA/q0jOohM3u2DO9iGePZkp71oD78ZcDHLkc/CjN/
-YDSvBTuAWy18ArYCaapjwJYg2RYc9VqzO9SVg1UXCNaQj2dnWS8kcCuXfcOeaXmpTRxWNml3FhK0
-9o+plHuTTaVkY8mWviI2GPXPKsNOYyzLDQWPFEqx7khhY3hZViAoSitnknAD2Y6SZU3C+7bPq+pX
-sz857FGerq5xle6zKnxJ2bNkx6e8S/1zyAaGMjdt6UO/jnMv+Ndwq9JlwMswS58tNjhcfwIpi6Uu
-Z7trOfWtjWACgMLih9h+5y6roAWJc9OwHY7LmqiWhTEL+I/aABX1skxyMiw2k8fXrFpWzSpOz1HT
-HGcTROKyjDpVsmCruadWw82o0muWEMJmf807sevZZxtOcB77bUniYs76ca+W1XdalmBzWYe7ZTEm
-trATHZ2oo8vEyGuVDdpnkzZHfGls1k3ovzvLqq3BWpPWhKed/6bs4lZr7UeHvGTPlp575muf22vJ
-9t6a+O64WL+RbzmmVXyL2PPbDk4ve3/qjsd2EQIQFb8UJe9UG/A2RitQi2jgZPVZoiI4i5pQ5KfY
-jYkzUWc4hQcN/zpHfXAccvKQfT1UiXkMUCDMS49awZ17QLsAvH7AHYlOrq/52F27OtxVi9aB5oE8
-slJoIFFF/KEuuVGJMxgwirdQS0yPRGyjEFCMCabChKbioq3UaCwtWovT0BuH9hJk+VOljKcsAkUP
-5nATw0UfF7mmJzUeLKZ1fByrAEWn9xy+9vLTs6J7G8UnDuWpRQEKFynIQBOqMHk2aEQhWlFaRdcW
-7chHqsrQklLwLQ3akqgJATQKDDIaUlDTwYYI5aDkalQpkY4PGBWfBtQqv6rfEtSrHhVLxO4ltpG1
-Zm/ecY3CY9xy9kP5crMZ+2VwC/i+u6m1DRaJjCqNEJGJmzPqWSyR0XwmmlaR4mfsGEJ1y0FIorR+
-DHOIr48rXeOc53wO112b8sKPSdTl+Sv3zx9beM/0dqwR0HYLqWY9mDgoIrvd1pm1AYATXSvZLDGL
-bRI3dO8CQlv3fXXBaL6eLbDN9FiWkPn5/P+pK/UljWgXxPg7TSs4IPDigOv9rwiwQwxv0wYYmcGQ
-oQn0mnnFCnd7V/dcAUMQ9+1udqqXIuEdrGp2sWRMd45XX0lL/x1r0Aezjs7096busR1BoRnZofTJ
-zqbxpYVii/RRI4SlkGPxqJnqqaQ4rnDUseV9M9nZozJKsgZVd+ga58GKecpVVvVeptG7CMWBN0y4
-FLzRK1bufUgs6ILjDhbNMazaXeeMDJgSGBd6LzcwE9NHiIA97nIgwFv87phhaJFNYVmk4Q3b11OL
-Hb/sOElj84VADKsdCbSbh885Sbc6Sx5HpnEGEBBf2aUK21PRxUt3JDjlwuNU7d/G0jpwJVyLAYW5
-B+MECSnLowfXeZ8EZxXD5KDs2PlPk0y/dc8XzC6SVVrQC9MrB1BcUB9koUCqqXQdpl/81Pdotjls
-AW7hNiEtRlzMvi8uXUkY8PakqrnA+buU5Un68ztmuFsSZP+PvPNYrmTJruy/9DxehxZtZA2u1gIa
-mIQBSGRo7R5qSOtf43/18upnRXttbCM55jCrXmYCibjhx8/ee+13eHbLOER3R8ogZ4tAEmePWdIt
-XT02F7Zd/XQ9yySRKl4HOkSCXQlbhW1xb2zOZZJ/9IH3KswJzCts0YUrMrmELRgvVbQ7SIffDCqM
-I8GDzpht+PkhHfAA+OLmUgWjR/1OJUKHwLxbc3Ubte42B5gPCEHjlf1KEucF1+4qLfg82hais1hR
-wPdA+0+1kn6cLnqLYuuyBoUdP2iJu3Gh70kfEkQ9EBSP8LcMR92kZSr1mGalf5wJok5Nf4etfQ77
-8qhl5iq1rM1YtY9kkJaDm29Cv9mPrVwSyDgUmFTH3KLulz/Uyba1zr0ErtMNHNxvDTu8NpeH2omf
-7Oo3XY/7MMhWQPl2gvOwLtodqu3SKQu259lS+O6PoJxV6mRSkBytqgcTQ4sPxgHGzyVNhA/9MCA0
-EdoDVhByRdV6zLGDu20HMkeTTwdlyrOYfjH4P0VagHmZiamz1zxJvOxxCsfko+a6vGIkPlKssZ1c
-YCpZTPvcUH1FYcx+u7jHkrpLkbG1Rhr2dGaHxC+Xsr577CkcGBVCR3xsg4VhjQh8c7zup3zHuHEG
-3sx1r06PQ4ErWYO4UDbhsdKQ3moEClKqz6WIy01qtFtu8xwTg7WktuZORcuDj7e2LsiTlSkfM5ML
-jAawvZD6a+lY5qbXgnSttf5LofXPox2QdQmwxxpMUtjOP0HE/A5sgx0D7O2c5jjR9EsIoANgYeNK
-EPDCc7Tsqy/HwGOQRPCQOqSoYDyZs1I9hU1q3yeKbTTh2ffonu3TW8JFpujmfT23XJ5FcdHdlNGU
-2RAGPVtjUH7cyI9Z04D6pb8mGn6cRCWDnXPShis7zD9VxJcf86ESrY1zAeywPq9jAIsV+6i0mo6i
-1jdGDC0pM1h1twWy6xTu4ntnPGLdQzSC1FRhUFtUPdehoU/KFSth9qLRVpMCjFdKPCTPDvpsfiZm
-sIlD+RarLlCns54HQ7uGQXKzelrNC3KarrmjdpBDpWX37+6LicBYKjfCx4zQFU69jCPxXja0eApu
-VDasX46A2tGvxD0XAqUIkNbTJNQubQrBRoC1dL21zMKtP/QvHvI6mY1jUnUP2uRsZd5dE5B2MKfw
-gDc35r+9N2afY+u+1J082q7VHYUfHOa4pqq7ia1lqlEuXoekwCD39ITyCcHP9GMb3Lq8OFwbIwD/
-Nom3w8wiyYiCO/4fsFOIyC6VB5XjKVRFs2ps/Uv6An2GUoN29HrmNWDuQXBLobEvc80h5hliDmzd
-rQXJUhUT9YidfaWaZK2vPIzf29g/18SDwT2IbD1OzbosjGMjhlPoJPd8iL11bxpyVw9Ns6OE5DCH
-xrBB0cQih3+CjeVmFtp7WbAwtEOqXwrQ51kWZzsPK2Ipx9dOt1gpGFu99/DTxNq27A3/0Hji4gNw
-Tcl5QrJkAJ5PFRKPJXwGCYx9eIzXQ2sdAxD7oAtUo1+T3NKUFIWaC1LYQSZquiXwikGShA7JYsCX
-NbjkdOvLWFXmaJ9tpeZL3z/kptjGtf5Reu5mwh6OSHs0HRvMqJtymGuC0in3GWKAWEtMklOFXwZB
-tjnpYnjLMnAFc9BHy2y0fhs65bdBGAsY6bGHUQz8kiiaTW95tzLHXsQcZ0bzNRgZ863sa9Ae6VZ7
-HcZphWHIwBGoGsex5i+NCUfF5HYEF3F0rpLJIkw4BRwXSPAYpYnRrCQYgMGevuss/85NiFSRrZ9b
-kKW84ovXLl6H9nOX5D9jBU7DS2BO2fsg9G+6Y+8d3tOLyCaHhZVxZRTPREHXaTAVK+E2L3oRdQey
-ix+231BWkZzCUqzsJPsWk3t2ZbsuBj6yY4eIZzktxcBtvimFfgpYRK7SmJMsob6dM+Rkmqz3DCGv
-pjmv7QGQWOKR1uCk1EbumUM3LvzCcUlmZvW5Sj+l3YZcogWIBPuU3sDcmntjCjZ4M6gvpMNwkU3B
-Y0zgJBlgWhWsanY5xaZNxu2Sx+DLpMV8wZ74McWsVrT6b8sU65nJtsRux2ujYXuiOOhsEaRmYwvs
-G+CIM9lsUjqd2oQ+VOl0D8P+SecKNOHBbHOVNewnJSlB+E78xFrpramGMZBNvnOqCpf7bLtI4ZIE
-VXmUZh2sqqR7bT1ziXr9u6Fk7tHFleBk1INnztwvWmI1NIlWn5rnmwjZpOho+D0Z4NoGh0VCMBEN
-6G0hTr4f/UI4ouaNC8Dofeum8VS1/gRJRuBX6S+QhL6YjPEAO4AYIXh6Cxo6Ke0uposLkoGlrrN2
-uuzGic+Oik96yv2f0YUk175Wd/8hYFFJecHd0D1encP0K3Ex00QUcCxJfyxVHGNMwlOWxsemMr4d
-zb+2FrE1jabZVinGMwTgGAtj04ptQx9AWZmvjfSpr/ZXnl8+6XFd8CkGSOpBwwQcBKKHcDqFsFhl
-rqmyzXBrXEg1gtacnPo0HyDLPvBS5K0oqlchOoOkLrKaP6x59V+p7OYzBEuaPxrvHbn33M2uBaab
-xvaBTKlTvARoPIqvumruecnrG8Mjl0KKwwFJun559evoiHr+FDoF00f51bXA3QYBb83zCUTV7iKJ
-aIqNZf7fKIGAvPQf6GrVv/5LVQDu+f8hJvgT/pTWvD9UyEAPMKZ5ge+biG5/SmvuH3AiSMb5jlLj
-bJff828ZBKyKNsEAy2BjGhA0+Ie0Fvxhur7no6zZMNahQ/xXEBOGY/K3EJmcoqpUUiAE979kEHh9
-/1Vak1Rp9TBaB3zmTs7bJlw3wul47Lpo14JJgXRDt++kMy+FD52R3EjeUs5ieU+8W5b03G9dNvpc
-uwBAjUwdRMtefMyKtE6E5a6An40F5h6ztwuSQd8WdrU1tOrkNT0cSpG+c/O9zrhU7c7egQxoWN4G
-z3mZftQknUh3LnuzfS1Q7XLITlw+c+64FreeSK0cILea7X6WGFEsR25wqWEnTbxVa4U3L3c2MYJX
-Ug8QK2A7N0F7H/3knCAt4Re6GLG8RwxXGhPWqsqcgxm7W8OuN+wqeRF7O5sGag1+cpGBi0qDfu12
-+kaO3c1nlT0EtJul0dVoiOxJqJmpv4+Mee322bOZkZOb26NXer9ymi/tTG6niVKO3lkVprPNx3Jt
-l2uy8EAxWQb5uMFiwnE4R9Wk748YdhrrklnzOnLCjdZxJ5zMHRutvaVbNy3pNzjrNuo6zpezTyPL
-pDqLezhzLY4v3GNpzGA8TV+lnux42TC98mpPawrZATazA2YNwOqhyuFV6G6CYZ93a+S3X0OkmjvT
-iDU3eHwQG7Qszr+w38OYm50rDVqkAYuDZnu4sDCgyL7bs4tfNJN5lKCqXHqTQBlzzutcaSreNlxM
-GPfWgKQOQTL/lvrwAQX+UAfmkUTdU8VLkUMyeUNixHmcPye+noLTgm+YXx27Bcef9kfLsWkLzNPv
-OMTb6wMi1FjQJZZ7ZagOd7Ohr5VdHW/dDiA4PIIJd4/Dv3ZtqcxG8xgogxTuqZ6s1zy3p7pozhWL
-9JT93aIKx1uY6uy7zoWY9zl7hkGk+zJOuPjoV4ixPGwmliuthwloAfOkr0PWBAnCJmWrlwxrsEqL
-liVd2NIeagAJXPpcAc28oR4Fm/OECgaShFnCFB+axyGlVcNVZMUPaZkd3hiujZ7BlWrmKam44vOy
-5xi3Ety2ZFRLCx56oh3dWNwS0e51lOzADbYJJj2ZQHVMc6TGKAIKQnlr3OsG/RpEpn3031lSQJyp
-Qz2QX4j/NHu5rIFhpGYm29tMeruqt5Ymt9fOjz58VjSrWauTxVQD7fdgOnQj9p3ZQsDK9XOPTcjQ
-5EdYWusCPHfapW89HQVWEbwUEzvykTSQROhs5/isU7YWmpm7GbVgKzLMao2vEfog0B5XBBa61D+C
-/wJVOcFWjeg0SchszjGwimk2dr2VXIKRq4hMckYPbGgkXtL3uLDYLWp3p2yf/Mje+im1RFa+69DS
-p4ZlTa5vIWhcse6ea8za/oQCSFWBFZRrJxmfA9vcc7xu3BFyJs1Mh5ERcikQeSsve+1UO5xeltnG
-1O2Vm+XHTpdrw/GSvdUVLITbdte2Bo+1LPZwobbd2J+m0D2aGZH8sJ4+OTg2cRYdR1bvC2mPv7zZ
-4Adu5O92SqbeL9ao7V+jXUENlFz+zSZ8H4cmWGpR++Z7KkCJsDH6DqGmdjdU1WtlwDc3LYdKk5o5
-WNxsoljO6ExoX2KnDVQRuRSm2kl6zI152SftgZXIK6tutnuQ4nlfdHN4w4GkqMTGh4tbeLaSx6CZ
-H+Jkvke1d+DJv5iZvJSUs7D0RHZSn7iouTi2kho97T1JMnGqrO7U9AIy7qidzQ4Hvpi5ZpfWBanl
-yeVjj1KablMijjA+u2fXl4/NHDdrvzPh99Pxw64xrDBZxDerql80jTmyirauR7TbLVisc3NG0A1o
-vvFluqwH415NCUyz3jkEkWX/GiZAPQZ2RJm4q8A0TrM+b0OP95uXHjiK2fdzu8hmj/5ZqS0jrKJl
-rYGf41IT0KUjLBWdcdZA4ZfSbHqeroqtx8CtDJqcLwwAKD72Vg3eD+FNuBDpEfmIxraBTJo3JA+T
-ZKCM6vGnMinwk+Ib69WP1gTfZUB6TwM9ACqBS2a9CbgKWF29jRi+S2HcIwwjTIDF7wBHhmzzaCE9
-ZuDWvYPe5+pYOU95X39nccMHsl/F4XRtfG5eeRNtWuKmsSTjYRsqXzLCUI36TRhyYZ26X3o8HyAg
-UvbgLPC379zZ3mBHP5cEOkr5KhuWRDobBaLqAYCEOWFrEQRQOtJiq0c11xn9M078kzG7FCUKi1Vg
-/V4n3reXhHeBWJwLBuHUtTfQXQkjTcbLKNz3hsysHB2djwX+ZruZOLzY7nkcD5RM4IMoHXxhpGIM
-im2tmVcRhkDeL+ygq/goFJ8I2sBmVF2RcfNszfoRwedH2l9xzVdqNns7Y2lgTx0hnOlkTnFGRwNO
-B8OfjxM0VGKGIePAnJzNoTk2MbkFfWqnjYMKtmgn5vZY8rTGHl9DWGOfZiGE+gbqr+zPbW9tAkPf
-WKl5hN9/mEKs8J7mvDVQcrlEHTzCW9Ap1/VQn+Vorsu2OFKDuxqHcFG76Fyt8+DHJZ82+JgjsUQe
-ULox7KsVU5BAot9u2i+H9GaYNqsy7faVGFZB0S95Xjk45nRjYQzA6coSnCgODyzpCtKQERepJmlZ
-0vBqC0yTBxWjc/LV1AkOwFgCSK7a76Bz33Ktvlte5q6SmE22Xev3QUIUnGFWOokq+jLWI/QLQ6bH
-iEbQOOIYgzHnFE3NDZn6WD8nyRyTIHAdEAVJBP2I6/xcMCtpIfysslrFfrdzjJ4sHEKJP24KLoOu
-q1G9NXmgoKv0mScv5YiMNiArqeRmze37r9Isn9uJiukswd5bQJU0OE2mYXjqQFAM/qheTlcjLz+m
-GUepZT7bYbCRVnsqqS+ItPJBL5EmLIy/KupXL4VG0ZOZdj9Zme5Atp2IYjxQ3lxwxEugBmHE+dtM
-NPLJHWhcTnziSiiwH6T8iKEUzwlb6I7LsJVTEuvjxaY4e8jFYXLYc7HEOzoyBEohsSghX9A60x2x
-PlTsjsQpbIILYeMVY+lLnc75AsDSFWXzNRc5nuqBzZ9N45jrVZtYGPwcO3EeKbAdPXxBkSt+NL14
-KOlXpR++IQHDJpJKnPfc4wdlNizJCCB4EWJG8wrT47lr62saFbvR8WheG9eDIVX3DxwAcRuczyn2
-nr0RkmkRr23BJ0AKLLCasRyMfufKbGP4wz6TAJhic23O/bQkRI9ztdQ/E5pujJh5HtBJgiIuUGfg
-bPCdpdabC7eAiGRIqsZjTTeAHrMvXQutmM3LIxuxpV+Hv2x/PHZwD+WYMsAADHYcA18KjUahTT9L
-SaQoCopxYbhWv9WQpCIVn0zaMj2Uevg7CyiL46VHCFYepdu9ENUIKaLFcDyHsB74udgkE6jBS8x0
-F484XBsfNWZIMiLFlv5q4Bdazp6FBNp9tupdVtUdPWR95y1golWXqNMBxtRdvZrGjk9MYj5VbvYU
-N6TEDBtYWiyh/EQuZbM+CyyD9TwhSr5jhzLHXpSfuZYwobMexesywwcPWJUQS+pc7L+56VKhUjgn
-qwqPGjVTpe1Wp6gR9kpG4swmIdpChatXrKyNpd46hxnDi4B54obztxE6B1dzPuEr7+ukeO684MuO
-xXeTeqcmbqxV0pDRolGBTIE7fjSgv6n36adtVnfvDgE6aouhjDQznqDMqXWA+PZDVvi/OptXikXb
-FRgEemkicHfIaCw9HI+nKtsGgn+00KQlR9Y+40tTQObU8UBlbY4kMB40lZEdelaKg69FdFijxJpA
-VTrPPMlaNgfNCAKmYhvDB53Oa1fTnJ2PxoR3KEdgGmluCYhxVFqVYdTRIWYXUXLpw6/U6eTWoTFk
-1Uhgyoz6YODhDhbRlhFkPrJ13WRT+dCC6t3BzR5YAOM8JOO5LANdnsC82ggWBbnmUH+FD/E49yQ/
-RvyGvCLDc1No9EBHPnEnMsmc7N17zW2HqguqQerYe6kd+MSJV8qVbtAHw8XJpfwWBiCLt/ep8MYX
-WabpG69wegmNiA6NkUsjaK18EeKj58XVQejy5688wVlFiGxFAvOxa5KC7Fz/3AWRhJRqbynq3VlD
-MSpSbn8i2f9Rp/ZdNRDzA7Mv5lBecuWhcYksTFEUbeacfCqs6pXIrC9OuFXs+POhG5QmY3u7IudC
-k6hXizF90BWJ79FQzBKHPlVgMSsxjY+J06y1ASRP4vPdwoquLwwVPEL8YEjB3EVF3UwuwejQkDxB
-M4KZ1p06zf/xIqLv/Es3q74cElpaqzspnw75oXhjCJ8eWg2etBHPMfJ6S2uX6nIgcLrUTSqHQkKL
-VjHd+0B/bULmo5D1/dYdsPSlnYYtbx6X3ZjeQsnXNtf6V5aZn10SnMMJcZBqjWsgufN5Wj0d027a
-2q1kBNbEL0RgjzeKDrO5XAa0NkZu842XiDsSCV0brLNNYtckuYsdb5tjC1rMpr71IvsVgw64+oSj
-xiz42fEY/6p944rl48or3lw1ZIQFsQCEvmw9VFa11O0Mz5RNNLWgzzOnH4b9epN2uzRr0MbJIA+5
-80JL5LepwsnajFpKWrkhtcy1/KElxTyqODMlXsCKDXrmEmUurEg9eyr+LMhBW4Oer/S/R6PJmq2b
-pPxpSU1PJkyGUAWpM2P4HklWQ4O6MaXhXhoBAJC9jnBwQu7asJsBYkQ429N9irUiGr29gIXLTMGR
-Pm0jEt2BiV2iJONdA4RWkW8PAWFR19+pCoO3pMIHg3j4SGCJEe0Qq+B4Ona/snxqWKmYB0whR78m
-/UDWPCZz7pI9z8mgV2TRYxVKp1+HSlAVVJ9UZB3np2o5/Sw6ykis6UNX4fYotrlC0iipYu84gzAV
-E4Tv+IcoVDQ+9Ke7h3kzid1mF5KepxyXE5E8fZzP3yEWIF1Oy4q8fUKQCxjuviXxt5Ak8nXs2UXF
-CdE7PDMgKYYZG4AK8Suudsdl3MSrsBAcFqUK/EdWzczfvE8jF01oMcsSNkBpdpdJwQKqSIe/Cz5g
-UCCBQiEFGgUXMJ1vS8EGeox6AvoACKZTRh8KEUCC0TKEc2m2Z6ih2FvZm0cKYuApnMHs1ac4j0iF
-dde2JccXxxSZYekAS6OPwPPjx5YLIT+htzafTnKYv1q89YtMyzcVPIXRoBeTLZe0AS2MZXsIFHoB
-fDWd1WX5qCMMcLNwku2kUA0GzAbMjcnSgeIg7PQwQe3roTtwr33RezQPpjJ6iGfnzYQEYWB7jYPu
-VhNbrvTRVDZbrkm457GpcBS03gYTjvIVR7jCK/AKMCekgk8kUChsVyxTCZYiSiiJgVPRwqvAePko
-qAyz4VhoM0VxKa5M5NQdA9NqgHhRwJaWEDA6SBglRAwfMoaFxWCSBIEn/JABlXlMlkdICpTawnzU
-4huvoBenIwunsQcYKU3Dxyt7ppyZm73ssOta3LxafU/EDwN79WgV/dfkOGda0SqOyZH/zUWfMlAl
-GtzjZWlsuAVzk+QOxeoBnRlfHhc0/slfhnR88mJ8xVa66bPsjtHqt5cp01W+8V3a88aAK+PoAboe
-W3ONVo+fVl8X7BNw1ol6OdbGQ92AvwaKx6WmE0BY3QPkkY0eUbRTTxTOKl9/RrtigteQRuF9MsGN
-0G3zYojgNVOdriEltQuti26yogBq7HYFY3lSpjFFKyQ9h57prCjfe8d/TUq5i9mZGvROg8wzf8VT
-vyM5ceG4utVR9+4SeUeRX1mNuxvmTj2tLAX98jUag11ZeEBCQgS3NI5ASWgbTKDMU+OOjrefoLFO
-ek5jdgvNqEnMC1aTK80WZ8cOv/ooVtg2WCIy4smI409iEOuRTsEwKW/ZML4NZI2h711rJH2yits+
-mA44rXBBxOEp9Osv3FRg/vAeH5zJ8pZe1N5taQL95VVHYvPSAPjSvuPH6UJBjrXQ/I5qwpTbuv6e
-iuGImZMPgOE91L75KSbv2Fp80u3S/VWjneGcxYSU6P1CcKfVTPITVt5RIsYHoSAkENO6V4S85zxq
-0JzO3Qy0zvgsmcm5LxICChivqycgiO+Zmf32DMJK5GrMvEbtaU+FzQZSx9pZcS+RVblpwR8w/HzZ
-oHuCOgDAQWZtYmFntjuNyoFFPIB/ANPFgVFzxuZe+qZ7frU0w5F0x3wtBU4rQ9zYglI2LH4x8fIy
-Llk7T/pu9IBzaDait9A+hAweusKvF0FtRY862xQnYwvlWSD5RQkBvkjvaURkseFMALa8oPSckvbc
-f2Kg/RW41Wa05B0szOtUzJtIobRs5WKu6TIpdPda1362BJkAo2HesFlbtxEkhgSWRTr+oMWhFYt1
-B7GU4R0uorczS38PkgYbkHd3wn7TBIx2o1yxar9QpQq8pWZr6Wr9a0ShOaRBfRXxT+P2yYVr3scQ
-WT1NJ5oaL6kfb7g24qJsAB1yw2DL7rUbLciv+WidO4kchiWYWqMBz9MAg5N0RfNaAJiLG8r8HNgu
-1bRM84je4Aqz2LiHTndKUhILVvCuFemVqe47ayQrjnxrM9Aue4AMU45VzSO7N1Tenk62o8bngN4e
-/nqRgQCqT75dbrEkPkY16HkeR42ih/RcZVWyRppfpV5y6LPgufJR65wgwGpn3TP4NetZsqjuLRwo
-LpsKC8LKbAuOxZ7ZFVzH2TcoMKrc42C7wEXLd11UH7bDN0FWWbnZxkOceWAIPYWuYEqCsbyadF4b
-5XiiiwJ8fkvCw+Id18bBDfII/U7OMhHhPYuV+FLhCyfl/Hd9639+j/8r+qlu/1cN6v72T/z6u6qn
-Noli8f/88m9XaJOPov35EefP+p/Ub/3Hf/q3v/6S3/nnn7z6FJ9/+cX67xG0u/xpp4efTubi738n
-X4P6L/+z/+efQbanqf755//x+QueAEhd0Sbf4t/JuJn6fyjlzXnyr/+7+3c7j9Xv/lPG8/+wDVwH
-gYV1gGuOSULtTxnP+wN1z1UxuMBEOvEQ0P4tIedYAZB40wAXbxvg4P8h4/l/IPsZFF+RHHX4b9z/
-ioznuXxhf1XxLBcgmWM7lg2TnrjeX1W8zktgIlqUCI9xSToFuZgr0TdyoM6mqKvwLzjBZuzYNtOM
-3Z0p+WUI8PR1Cx9iYbosV4ZsLt7xtzzWNutXX/cPqc88YoPefSs544yx6JgH571qvLzmNlME76Vu
-2WAeokswVRiModq2NhteW+Q3ZAbgkZG2mnVV/1Tyyuj0FuKBu9W7maxw9SuMiIbqImB/k2MAsLE8
-wIKPllRd0Fg0T8ZZsnpYtKb7mDQdwn7vZGfslxeNu/8yxJhPlLRaypA+5Tgt5r0VcY7p2ufg16vM
-KpoDJ9SKmNtTPOlsB4ZLYlRnXbMf63ro9r6Aneo31tkdUOFn9yr4Cb4RhD+NWX4qKMe7jCqly8Vu
-YLdj2CvW9eWqqcyz2bIMlFr0ZPF9LPpUh47asoRJYKVJQgOVFHhj+sjZ54ZXc8Y6lxqnO/LPuKrI
-1iyLkBta4CZn3SIto1yiWAzxK5usX4wkfNbi/N1Fz+gnQlGzmCd63d0PyETRLggoKgpGeN4J5TLk
-1YnnQHweQLJR9JW8pDjQl5X0Hsp2eBoatk9Tl19cRCzs3ngvuBjtqsCByaHzWh+T7mRFPDOtFlFe
-UVtUplBg2gfJW5hq/aXtBFY7k78gs5qcOg8/wnYMSNzIcRvMPYwQG+fkyq3UyrIXz7HNoN4gy4yW
-t+tMiGw2pLWsDbZtpuNks/mCSlAtpULJuBBhonq28BGFX7Ob2zStiS/PNNay74HegH/i6pid1JNV
-sGBYTGxHlnoY/DYEbfE9JLYFq8zfhVozqyBTluAiM3N/KbL0UpN+x1eUX6QO6XbwxuGQOMFPkDDG
-O1jv1qknzMU0aIwxZffdx+Nv2EfcjyUHpNPTeOiMwsecnVxrF3R12mK4GOjK0xSgbXSGAo9dXzMS
-mNCY5nkVxFEBJXwEr4dpa4sjCQBxrV2bSI2YdpAvAx0fmJPP7lIrLZzAsc0B2Euxro2BeNBsfcQ5
-7p451pfsPpEHiuipTYdpIfVgPnLa0SnWVy9DE+8Ks7wHhb3oppmVRBiN17QDY+cWYqORbufugVBV
-8kDWHPj7FhELEexIABiPfZRthNK5oiF5ZZo7T0oBG6Rz8JQmFvUIxohkLmIZPsw1mYBVgIiWN/nF
-au2zgbg2+hMjuca6v9uaiG9ZpK07y9zaiHJ5g+0bkY492Xtp4qHslX7HNo4PB5JeU+q7Xpdy0bUZ
-0ohd3kfkP1PpgC2CYKSUwaKMKUxnYq9LGOMD8iGNHCQeERS1Jj2HbrseEBoZ9FjUIz1KJMhSi95y
-JEkKp9YmEuWsUg5Ilpo7uUu9w6MMQWo1ImvqSt8MlNLZdeE7zYF7COrLHCk0V5po1XO9mw1nmfr2
-JkU2hY+GSjPWqwBBtVLKauAMDNZKbWWNc6MGeWf6yu+JIOsjzHagf2KE2iRtbzHCLbAfhH9xMV2a
-16TSdm2WcaNSezWl+1qRyScKKXiEs5Z28hr5aMRp0X74SjVOcofCLtVAh55MvdhWVwpzoLRmzPBv
-GnQqKwILptToIsUJhnUSr1xsPNlI1qlwt7ZJQcCgxGxE7QgUS4HIXfj63rHOYUgbJhJ479I/P0Ry
-k8vqbAX1aUAsZ4N4ChHPEWYfDS4UllLVq4RcZBEIfP76Tu0odAR4H2PtLkWS92yzWA6pw9oMIOwQ
-fXNuYd5ExhdVRWILXR95P1U6/4DgP6rCIgwAVTzoC6ksAcoagEXATOVHXA+/M6wD4aAOGC4wUGKU
-s8BVHoMm0QHCm7cW84GGCaHHjFCTT4kcPjk4qg45dgXXsK6t8i9EzfDLwtAw48E2lcOBA3tc2b38
-8pT7gbIIOkHxQwQpv0rMGUCZH24cTBMa5gmDhYAXprt5+tKGkGNLkkN2Y9KSyncBfxPvMVaMKEy5
-3fk0JUMtxKrRY9mYC2MXCbmIuKjkWDqS3rjwW5cNVg+hLB9YPxqr23hYQUaZvqPY1sSxc4wi8A5W
-Iw+Jg4Ekw0jSDzYR0/YILXyZVMlzjOEkxlsAjXs38tomUHkdMabo0CMERhUHw0rpSRJuOFg8N9jh
-KDqxotvFyKw6VheD47iaLJDfeGBYiC11TDFwfy70G6ygaZ9rTDOUOQA1atulYaUHH1tNb/m3DJtN
-MBmMERhvyEEE0LTbfYofZZHH2O5LM9/UQc7nFjJSU2OVs9i61OvYij4wDD5znW8WJCV3E+YfV5+v
-Zhi9U1wBxhN7ECjEbaj8QiIVKx8DkcScFM9muQuUtwj68YteRZRkK9+Rw5IFP+Q2xJBUDM4TWe1p
-LbAqYc17yLAudb3/0CgvU0rh9I7LLUwersDIffk6Z1xG/2ZshlSSMkjbIdWQDNa2z2qfVrZFpKNj
-Uu6eRs1rX0/vc9mtjdbm+2ymdxll02ruW5CO0WfqATeyWLOO5ECwcZKaDduU0bwe1i3L2S6Mri6I
-AfwXQ43rOrsAE1zE8C9JX6yw5Cwzv/1tp+A9vSIHANesHJRGx+lWo4wxoWQ0BZbjTaTFIW4Rl8DO
-c0no2MXXYty2YFvdkk6HqP923BxwEp4qT5PhSjjhUzQNJsSu9mVm27qog+qJIOdalNrRsoZbgCaW
-x0Qa7QhJtgJOGmavTV+8G7O2FUP0u+zTPWiea+7Nn4MR7mec2Zmm3fw+f89q98KaGQeCk2G5gWJp
-Tk6AB9ndRQkiftGJjw5W9dj7rPAHCr+spGY+SR9d03iUZne3Olb2Gm8HpwE/kw4kFjKtfB9ykh4j
-AEDTpzaSCbWAP07vKW/HVT3I7t7QVrNvkJomJu11TR0eFPsRR4r/2dFAV7BZw76xm6LiNcqspeEE
-O7ZsCd8htyuvhndf9wS/sEQmUYp8Q6lGWKTfgB9wQAvJNickipE3M+dx/UZx5o/taO6C4kM80f4E
-GFMV4XJT/cjaEXQAykZAiGY5sxRNg/AI9psPKv9PYWCTiE2s+cM0HyM1XMwjEglazmmQbCEsP9u7
-hNRXkEe5ns/Zs100zy7ELToosIjV21ZaKlAyLXUAtVZZfKhFtlnWNJa0/gESJVosnnoddKAd8v6X
-WlatKqgCw9hB/SM9Ew/yyMYVxxJu5iC1cIMQVlpYU8/ilY350WYxF2rBtPczc6eN/kMcoU87WNpP
-8TzfVdB66FsCka2uwT2kKqLV3PpVy11vYZTD7zlMjq5gmizQjjRYdKg29X7sE9w24P02np/eqshw
-YMAxgGaSF0un6Sjhuvt/yDtz5caRNI+/SsXYCwbOBGDMGBJJHdRdkupwGCxJBYIAifv0N2KdfYFd
-a8015il65r32lySlkii1pmcgAxHLaKerVISYzPzyO/7HtYIynhMX9pGyjE7dCvv5dqHOGpXsJIYp
-jL/xtMJpwbdvHRK+ZHqF0cFXSyHFboJx6LSQOuD+K9FVPi8CoFcos4UFO+P/Ty1M+fkPYK3LKJ1V
-WRApf//v8G///jtFMW/zVBQ7lqx7mce6koWAOMyvohh/GPRQLc0QWKL9KootdYCKi+vgNMvEwnBV
-PNcy6qH5n/+EogxgBotEjuYvPVqq2McGwYsmxa+mxadVsbyI/FWeoWqj2bzVTlUMzsAQAGgptMky
-ZNV8N7sCFiJ//t+CSgva2iNVqn2kM8pFDecQQAUx15mDy4bDtMhdcD1MNFOUVaC7uJd6anMNNd8r
-bJfzbE5e513qCaOULGiPAw8rdDAmCRr39hUdZkwGlyVauRqdxlVAnk4JinN6iWn7KgBJlbn5VWrY
-pwljwKKoLp1CoCfZ1pdZWyson5r0M8tvTQKvWYVYbbt5errM/KulWl+oEQVXU1Pi6F51LzUANVxG
-Iscpxilpy4HAzAjuJM3+QCOkAlQfOhAdSSapNJWIllzqPKxwNtz3fPdnje/H/spwge3Sz9cj85qZ
-wWdfNSm16+i69hY0x7BcohBkJKCvxMyYaj/iEnkc9E7cI9YhGxZZSBKiYplMZ/2LokfVFYImMPnm
-yOxLUX2PZMVxV8jyloq5z3TscKlak4VTXEIUxswnQspWN1AFljIhK6zUk1I9Ao7DOEkrLlcCfxrb
-p0VrejOdJlIVwsMV8eIAfd4vtlkfmBniySTTsDAwa/KU0+kqOltlRcMtiG3qPLyqmZftaUtzBFAP
-0dlY4pOye6uobgHqzIfhMrmNJBgoBIeB402GqkOhwjrAOSYpV+1+sLBgk2sCSFPC0NidNxdB44RH
-rTYVpJ3Ts7LJgNgJICyhETx4DIVLUz+PivgMLeVvS018L5zge4sCm4LiK27ZUTuqFhn6Q+ChbEY4
-EB9UmAlJyS2szWntNWRGqNztrWh1FQtw/62M2fZevJyeLxYoSyar7NvSE19BrU48zYXDESp3rhGA
-b03MW9U0P+PZilZv5kB+QiFoLtpb9L65pzKGZsxF20qlX1ECSjOQNQh054enZIIys3rI8+QmaRZf
-Gju6ctPptdvCdZqaS3tf12Fh16QRtm0eWpV5oxvxFwdCB4NZsqAQCQZLoHOCyGC0bzCr8J14PwUb
-TUXb0N5mP8xzZRQv0pu2WlLyzKsLxw+REtAAYDbzkyAAyTctwrNKtRFiKg4YFo5J1c/yUBwvQfQR
-7L2xFwF30E2kJNVSvdZVnz7GYnVqI+oTBxCjHQ/tdcxT41EdK1yD5liP3atG+x4xrjKg2VplejBF
-94wUaWQv0SWZo4Ng8ot5+YkOmwwxZIxLEeIsFATPGijkTXCkS9NkKIOrxh8lLsNAxTmGGwIrZnGa
-aF+w8RhZEda0YIRIqlSEOAC4z5XkzNXKe+EpwZGXkEjO1foc3xOLo6BIYpTfMKr0bLLo8hCmerbX
-Fs7N0i6OY12ZuQUDojkis3uCr2jPc6WpGnifuW9QJudnlpqeLXwGC2Zl7LWNOKAVQDHr5V+9fPrT
-wCJ9j9JrlKPls6qyi/l8BQrPQJy3zt0jDhxFe8Zh1ytwvdIxyaZbYFlX2BCimqAGaPdSxcz95Tgl
-ESOAj+KpgQgHwrGxAkopk0K9JruwBFvuWYAhs1Zc+MoCAdgVhvQ6SrL7SaGcmWqCCEGYT8IWPbyF
-6++HqS1t7WVSbMEVDWqmFYjnM4Zb3i4K/7yY0+hx9WDWskSHeb5URktdi4fTVL10zPA4bWJ16Gvl
-ZV0SbVqiVF7oYryw8A7UAuY5JmHmrAn8cZFkp2kegZZbOZfWgtSRqpCaIsNPIkOxwlkinCpxaAhw
-Aj5YLq/x1EVL2tOcg3lRJfSENKDRLszLBPK36aTYghUcDU//XBbQC0zNHkWtZCXT01kV5S2mlEAV
-sgRiZoRdcwkABp2rImwPWyhHoZYe1a55bBZ0oDKMgON5tKdOzat6wa6G7FVl8JMjUUzoJgQXgF8w
-9fHplJQlbuN1Zp8hfVsDmQEbYpb4GM3b6D5YAoh1MuFeGmqaDRtOwNBKAQGoTj1saPfhnVSfMwfe
-n5tSv4OKebQK8pua9526NSpEqL+joANj9iwqk7tcVdAxiaZ7Cq2QoFYnmkEyZluFfqhaNIOSxqlP
-IFcjDGhhO543gCGTsZU2KMLi4gPbAj22qN5H+goYyDQYxwoADTO7DitIkdnMAdSFvPDt3MczbF4d
-g60YY3w4cWpE/ANnFGMTMS0i8FGr03jpnPp2eIxE2DDQaQHjqh1MxTfsqk8CA0GSuDxDfp2abXpg
-UYjDRJaB6TxkeubOk7HNutpSe8DES4fAeeijjhFFSIuteyorKV7BTcykzNFjCLNMZIbqokqO8sJw
-DiO/boerOLnxfYDl0BIVu6j2RKiNMXgfR0GNMJyM1EGVXASsep5Yd4jpHlp5NkzrOD5uVXQPW7zL
-pjk9S/hip8jVNSMnBDGYLLHpq5bxrBAxKucgvk6TZFWOwyj5rAJg2+PPL1SVK7bRwaoIPETt4qKq
-xalbLxjVNxMj8s5NqKq6ZGi6hY0OMvpECYqJI8Bs9xkjJpRfIB94oNYaMBbxopJCUOlem6VIrtn0
-FhZOeeNFiKtnRfvQpgqCq74YhWhfhWjcSVrYMNGSc3XBYKnVM+MI5cU9Yeb3vreclG4BOaOcLJT0
-YCWCBy27V8L5l6UfHSO08HVRaOdVrGuTMGM0mls6Lpgh0HszRiml8TCUzZafcSxhWi7l89pAVHtB
-dInQks8XZ9FgK2mSNnP93lxB8PRr9E9KkR4krvu9jJoR3IqD6ThRQU9xr+7pNZYNqm5i3mnnUELl
-/He+vAgyFd9npwhOK7M8SVT1ukXZ/cSw/BK5A9y3OHuHRUyZ5UT40dPLHzJxOQxT84uCS56YWze0
-v+rDQjqhWrTG2EekVLFE5yUZuD/ges7S/hEB39Mp20AMzzCzP7aB99VKPVRlOmMZx4qBqiUYvBii
-E5jAEnBgJVbmkPAanURJehEG6memRBjOmWjZ4MGkHCK4dM1XCfbcbzkAwBBbO5j5XsTwXCIUDdL3
-/RzQIsk3JrQlohTcjUduVavHfCHXNlBHURJjc/qtw8ou6322Y3SWqZxBtLGqUSLxkooRzxoAlKpE
-UqpAKlEXoDMyryKpdVHstTSiDtEXG+fTCgoWaFAGDIK6TrXdwxji0hDLuYXEcTIR++mLqX8McKQF
-zBDeqmvUp0PpZUok6FRiQhmgjTQFWTqJFqUX+RDw6cBMTbLGvg+Alc6BlwZzH9YmgNMkKMcBANQa
-y9rGQkAHzZyvyMoM41yLcGC09hpdgWfZjOeAWQutnkUS3Vr4abMfAHgNGnzBAcBaAGHNuDg0AMbm
-EiBrWDBdgMyuWnXYmOZNbc28IL3wJLC2RdEdoG0D4JadDscjPofwcJMByG0B5mYAdPNFPAkA7KK8
-/t2RCF6KnASVFopmwL2KBcZKon3h+cuWx2kugCjgvDWGFXqT6ZzUQGKFkRz5kq+yc3zl8W1L0lsh
-zKG+VM4KYMYQT6IJuK4JudG4NXGXcgsBKANwMgMHrgs1PdYweYdM7lyG6pnREINSSLwM+rToJrXF
-CB3V73a+mgQSAs0JOHRTQNF2uvjqSZj0VAKmW5DTRmqdQLQ7nNrFA6Jy/iRP4R2kK3gRrQReV/Pk
-qpWOBjB0DZDZjLNu/Dz5qYLYBnl5bk7pspEGJ0ZzrXOj2isdajpY75UAu5+D/s5jBUK4PVJQ65mC
-DtemkMdT8OJlA3DckhBynbFHDKY8SRjagzHXgLgswZxrRIORgqe6Dxo9Rmptr021EpVPpMtUhn6h
-L85pkMRHiPCiBGcfKDmpECh3jTsCPcSRG7DLw2xYSji8AS6+triatVp8oXwTnKz4khv0K7I6d7YE
-1AsU+tE9/lEApmDSSyJUz8cpGHw3QfmMRhLGHpClpf+kXgCMlbj9knyjmqMRnCMXArIfH5ojheAm
-QPxX0/yH0S4uUgWNPhgBqIV8Txs8NxGWhlIF0hDugAaguaLDB7QTJvdyslSNUQTXoGmWIwcEXbFI
-jmO4CErufK0lOcFxuD1NYzKVrAXNHKuwGCJJZ6jhNSjwG1zdw3ijgPKQSfKDkDSILMLlPpbUiGWQ
-TRCxOw2nBE6By+yBCo+CNBK4qKRWxHZ1YsC1MCTpovhqRznXJ/Mb8wdKEA+t0kBBS25yjTYsrI1M
-0jcsDYU1+BztmtjBvE+F6UFiCF6WoZzIGXVZNv34oE0vDPghrlXaQzSt75Ilc8JABZIqvi2gk4SS
-V2KA+qZYZ/QH5URI6klmYjaz+haYOhUy3BQPkoqh6rMW0kqApVSm0DYvsdSmpB/ZGeNTaC58/tGy
-+NIyjvMgwSRCslCqQ4NC34QkA2DpmFvtngJn4oTVuJZsGlPyanLSqWRNtJmPqcy9fQ8Kjm7z7lG8
-H0DNyUr7GttfjFBTcVlkyEFKFg84kDMq5Z8mwnmk9MalkmCXBPHHgQAEA49+rn5MWB/aHupIwK/u
-SyhD1qK6MxXIhnP1oS7gFAnIRaFkGcWSbzQt5hNkW7x9U3KRVoo4tCEnNfmcATt0pRzaEmAkxFA4
-sEFhol8Rj+tYUJ7QwmXkccmx22cCq6CsbH+RxHlVsqOqFHtqiqsG2lTsqSc5NCpQDYxcqMYcybBK
-XOOYuoc9URuXtiRhpeY+BsLw58t9Uyyxdmh/VDjjet502DbpLYowF61kdemS32VLphd2K7gEA1dK
-IYEpLSRPrBEPLMkPKyGKGRDGppI5NvUX9xhEnNFosPZWRnYyJ+iexNDN8NAgVZcMtEzC2EPj65KG
-SsFMOoSqBtIFOlh9iTH5FfyXzxaUNt1vvxuS44Y+5WXMBIYoNaoaRFMhw7U1+wVynFfNJ0zw4GTU
-+oku0sN8ibmwaWLHDbFuCsGOaf2JuYiR/IN650kKHlS8kM6tMwWLnxb51xClrn2mm98RvcdfQjL5
-xCL+Aa1lhKuChEp9E5Lzl0P+0xZ5vudBBwR0IzGBs0JDRzNpHdTNyxNobwcFdm+WnNraTrWPZnZ9
-nsqRrsW4O2TG62lURFZyu5LD31yOgY2aBn7OZBi0ET7ENC08OTRWA/E9kmPkFIkhVDjdxXBhzZ2z
-cAp305GD53SK2l4sh9HBan6hYDOBlqqjH0DL4yfk8NqemjirFMa4UnA4dZ12icEzw+5Mjr0leJLa
-Rp3YTMS5xZyRS1099uS4vJKD84IJusskvZYjdUYTXF7mymMbzAVTDvehlCP4XA7jfXNxRlKO9DJz
-eiEH9hSHyUjlVwgJG7mX/6R3u9pT5Zg/AKe4V8vJfygxAATGgwZQQIBIFEJy4ASYIowAs/9QFNic
-PlACpBeNoQW4wI2Tg0or7loFsqWEHjAdrXH7soyb/vSFn8GpXoGkNjitLYRq3Qq9RpZMKn0/g1n9
-oR96bLVKLNbrN3qBurqLilUuMVyeH62eo65sa6fFvH6j9W/y3huEM37h4h48Fy1gpLxcesOaun4Z
-f/oURitv+9cavo2Go6mC/tv6tWlpP1ug17/5a6TZv/YzLz7AC9wZWLCHXXF1kz980Wz/nZXYfaMX
-S6GRZ9C2tt31C0zX86UQA6FJ60pB15sn9XANBF3/bmvAsABtGFPXHrcD3/fzNTAHumYCB9o+qWdr
-YIHpNXaHLv/0PmANVMc25RRlsw9Y1ZdrwPrAbdA3J0Lt7ZGwGQ912w5EB8ZNkMg1Y7MUiJk8XwqD
-6EBgYBD19Nf9PBkSPtp5KRw+JvO1X5Hw+VI4A91hR4Au7Xmg1P/glfFuoARLC1oV67fN6+WucAb0
-UIQl4D/2/M5gO3feFa5t2BYYs81rJ1YIBqysBZJD6yf1LF5KGSQ5w+28BrbJSEp7XIPXQQITERkw
-n3ZLT4PERyyFcCwBJnybTe1cn87AMIki8Mx6fjKczkvBLcpAF6ACCljr1042ZQxsgx8Q/cwk5Mmw
-OgdK1oBTYas6sXL94hZ6fmeIgSZ0kFQ0u9ev3mYSJlVB5yBhCJAhGlCUzWt3KYRp6gTLvgcJ60Py
-S4QfHU1eCs+3gzXA9Ilmx7M42s9A6XZOLGWOrTu8tgcDVb2dpdBVDY2np7Xo6/XpENY6nwzQVxqj
-kN8rN1RNNRhJbBa9hymE0TlQUmdYrknEBYO2fu2kUfZAt7hKtqlrD5dAIt06bgNnYIObk7S1l0dB
-DPCDM2g8bEqYHn74bXK7YTc+dbNeN6HeqSjwryOHNCx9exPuhANzYEJicMA29jYOdA6JJgxFGm0W
-xMI3kwVzYIDfBGDzK7Xs5+2gd1+KdThwuAy3fYWd3NEZEBLBC9kQQ+Vr0/bq4ckwuocFd6AKh4JB
-fsjnyYI9IHeWaN6+bwenc8LE7aDC3FVRutmcjJ3oYAxc17Ztfdvk6eM+2MStLhHSHZiWRaeBcmL9
-2ikl2A6WikgGh2bz6mugNLonTJLKbaG4aW5bbTtLIQYQvlycDvobFja/WbftoNt06rkPNl/3ToQU
-HAn0rE13e5/2NncQnXNHSgnDsnEW0kDIytfOdqDRANhJc53tZbHp+fUxSHzEvSmHM0SCtydYKCdA
-2qBhaTytVD9TCKN7Y1YGCe5HDWLLY0B8eX1qTC2EafU2SFgf0YIzDZsem/prPPN8DZjtMs2wthOz
-Hp4Iq/NdQXDQVZf/zG3qsBMcrIEDOYqu1GPPpa/XptU5g2ApLKE6jsAW4a0TYeGbYLBTNmvew91g
-fMSB0HWXBaCQWr92dgNtBnlaMCp8WqF+xsdtL6hbAmEJcmrUdTZLsdN1YDfI4EmS0dsT0fmO4ETY
-NOdpS/86/S/jI+kVLelt97uHR8LpHBWorTQ+oP7Uedk5EtZAxfWETdLbfbANWN3Ogk03ngJzuw92
-Sm1zIPgbIB+97cDKnmHH9iNUYNJGBpdv5woMsh0KDpqwT+Gin6HR/Ygj4ZqOQNTr15T2ZVjQBQuh
-P/aqe1tQbIFqHU6GzBkYVzMLfRsdaA7oTMMtR5Jz/dpswx4GSrNzJkmgNKimBR5Rm8/6KlBaLrwd
-OjB9vTDNj+g6sAJMKPRt54Wz9vJkcGgs25RHZ/3q61L8UdjsOxMLWtTU2vIbf9r6z5fCGFiOCZi0
-v9dm59Y0wUGjmqB+2qyABEI+XwJSB7i5BljKnu8Gt3NhQXBwhanq9iMgjjvh+VKYA5WmC60ItEl7
-fTC2Q8YOV8Z6KSxa1frb7Tg6k7ZqrW/Xfi+F3bm+YCmkBinJ8w7Qg4SSOZ5ubNP3Ht6XUj+mc0KJ
-FAxoN/Lq9WsnOjDOBPcE1Lzv0cH5iH3g4i6pMbl9Ov4vowN5t0nnYduV6G0W1R1bz5HQ0c2lFb/9
-rDsZhC0FiST2rrdZlFQC7nYyZNtBBwPKh9ycjFeZ5Hqn4NLc1/TJ/IgL05SZgfFYcu9cmNZA1w0a
-9Fp/90HnioJ9QLNR0KLfth14x+dhweD2gM+iAwjp90257Yt0SBpkKiloQhkAINcvvvbnSyEGus1V
-8jj/7y/lRnTuPrAU3AVAO36nR20M4GeZlFhEjX52YMTmN+u2HYSg7Sirh/Vr55YgnYaUaJBk9nUN
-nM63hLwpBWhpob89qwD0AgQKPb/eVphm59G+XAMIVxL58zs3JdBIZlq9L6vcjzgSoCNVaDZvR8g1
-QtJhXNP3y8LufDKIkLpstAGJfboYn18W+gBUOXjqbeLew+rK3WT43SIk3BqBrdLbOaRJdAAzjOhR
-XyOk+Ig1YC6DG/IzYtnzfWDSuwYXZPcXNa53ziGJkC7kQknQfTNCSpQoBCyVru1jXtXPpGE7Z+5w
-JFgKw4UlwOF/+qzPt4NB5WlYLnCXzUr1tsqWhjbdKkyWArwL1oQahdrzNdChc7uOQV31T6/BHwij
-T6oXaFaG92tRDP8Bpfgn96F/+AOPkhiv3+CZ4APN+xc/J42JNu+8EYWQ//+XF537tVbDs7981G5Y
-P2b7z7ef7/WTXzzr8UM9/uGh/5DO0ju0ztZ6FNvf8my2RFpjnyems/DTXjR/WPqz1afX8h0Soqk6
-jJV//XKvLJaetsK7z5rFfs6zcJ5qPkU/P12kM694eHzfo/s//4lH4YvEfuj6qM9SO/r9D2WhCkBB
-/zFPOkUiu3x7+djFkEIkd6zroy7C9uHv//HGN8QdK7mgGglc12dMZmkYlc2n21navPOkD/g0v/1X
-lv/210+r2f2nk9mPh+U7T/uAvXfi/3hIH+7eeQiFQNfFO0xn9zxjkv72Pyzib//7ztM+YI9fzNJ7
-9GnvHt55DHd31w9122TR3/7TX83eeQyXQdfHnIfRMire+4I+4LB+D3/761shbnuA1s5u6xgp4+2/
-FuQeI4Hy2Q8fst8JCZvzqnO7v79sb8X7J1Gf17fAo6jRW//s5Q0nf+IufJilf/k/AAAA//8=</cx:binary>
+                <cx:binary>7H1Jb+TIkuZfEfI8VNEXbg+vGmgnGZtCUmhNpS5ESIoknfu+3aaBvk3/gId3qmMfHubQ15m+VOX/
+GguFQgpRVEiqVgITgwlUIREizWnBz9w2Nzf/6239l1t/MU/36sAPs7/c1r9+cfI8/ssvv2S3ziKY
+Z/sBv02jLPqe799GwS/R9+/8dvHLXTqveGj/gkVEf7l15mm+qL/8019hNHsRTaPbec6j8KRYpM3p
+Iiv8PNtyrffS3vwu4KHBszzltzn+9Yu+yLzFHivuFm5UAgtf9hZhzvPmvIkXv355fveXvV+6g75g
+YM8HHnMY7tcvVN3XFKoQCcvi/Yd82fOj0H64jOg+VShWJQR/Xz30aB4And4CT/yeqZYDW9VbbN0z
+Nb+7SxdZBj/w/t/Xhnn2i379MtG/vHwlvc+/jYowX753GyC4H/3Wab7s8SzSV1f0aPmj9ev7t/TL
+c8j+6a+dP8B76/xlA9XuS37r0otfcO3zcP1OXwXyJz7/PF3c8Ns3OXj+jraKkraPkYQ0UdVWooSf
+i5K0r6pIhquStvqsn72SqMgD0dg7//G3xc3v//jj39YXe19NvzC9GKEjR5ffXsrRC5pdEqGRvx/s
+783SuTPf+ro+phIkcV9UFSorSF3hpD7HEVQCRlgieIWyiNbPXuEI7Njb2elH74Gug9ns9CVmD3fu
+ElIzMCP5Unuv31WvWH8MJ6qBbsaISqKywkl5jpOyjxBSNIWQx+m4qcGBpR9/vwXd/ft/VFu5eg2u
+TfIOasfTPtQ2CXYJvKP5rRPdbX1HH0MOZhhFsiJirDxCs2l05X0kY6zKyoNN7sywlc46+v23N9nq
+h65D38HuoGfGdSh2CbzTyGtu5yF4AW/4TD/R1B6DJzcv53vCXrDI8uhNVj5kc1VCNTC7T6KyKUnq
+PlZBT2voQVl3JGkGfts837vnr5oLAZ+/xV6/RL0yTkeyDo97tEI/B7skYRdZzvfC+d3ecerzW/65
+6IL6ViRVfvCYOpZY3icaKBJVldYPXZngi3vF/sTTH/+6vt5rdvox7RukA+jsn18C2ke2S2geFHk4
+3xtF6XYf5mMKH0y1RlVZAkO9UvgwDzenqbSPZRUhDOZ69VnjtekaLzn7/be3WeuHc6XCn43RQfPs
+/CWaPVS7BCZ4ihCg52/Fph8GU0R4GebQFZidkJnsa5qiKBhD/LPpcK3e5TtZ2gbi5hAdDPtC5ZfP
+3SUID+ZpycNPnoyqRMH10sjjbNucjOq+BEpVkunTXN2E8cHWAV+QBdrOVz+I3QE6EG6xko/P3CUA
+WRpGP8fzQRrGVKL90Y+8LyNEiCLLfbNwyZQQ/PH3P+furGbUszE6IE4OX9Olz6h2EMdyEXqfHcYS
+CGGpjGjvdAQnR1UUsI4P2hZM5+Z03MDiHaz1z8ieMT6G5/rJu4TnKLqLwnekID8QjKj7qiQTDVKA
+vUhCQgITKlMJ3NiXEN7z8/s/tudEt+H3NMC7wXsi2SXkBmlzt/BApx7CEsHCW7/MXt/+w66NvIQQ
+JmOvn6ruEwrxJsD7eHkTyBVjwjvY6sexQ9+Bsc8wdih2CcXzFPz5T9WkkFaSIL+uyuQpjNh0bKR9
+DRGRapAn3ERtpf3ew04/ah36Dmqvp5Men7hLqB1E71m2eb/OXCbbsQqfh0yg2AkmIDIUEZIUaZ0C
+6MMOmPqvKM41eQe5LfHgw/N2CbjrO1joXWZpzubtvIyK9Xv8HK0pyRAQitKTi9KZd0ujiJXOxLu+
+a/kGU9WfStP0DdIBsm/dq49sl+A89qMgKj55+VKCiF6S1kmYTrJN2ccSOKG4k2s7/vEvUVCEfLGd
+l37VuUncAa1vCWXz9l0Ciy1SWH7/3BmnyVTEyjqC157n0+i+CMte4IZuW2p+B1f9qD2ECw8/qoPb
+61pz/bxdQu4Qli3fxO0nrpxcOIt0WfsySud3S2f3TV7eb3khJyvK6jJSeTHRqQxRjLjhA790l1aM
+/f7vK85+/Jb/8fetvG2TpN6xOmJ13bOiupLDXupdkrHzRQzrJp8JLThVoB0ARCSt4pROJQrZVzGl
+VFI6GVqdv4OVfiSfSDvAXZy9zAQ93bxLOE1gceszlfhyFZwoIpUhJFl9nitxaZ/AsqZEOgkfYKNt
+tvPRD9GasANQX4CyvnWn4Flki5B/ZjYAAMJYg2jylWkEHtESPYQf6oTACG8qyni1tDtZ8vX7P7Yz
+1o/YixE60PX5SC9odgnDpZlb3O4dpHM/Kj9ZI2JRg//oQ4jS0YhQm0ewIiG8Lcx85O7334C93/99
+DXdvCNWP6MpkvRyoA2zfnHyNdJfwhZU7Z1kGUjZvlu58OHGnUagFUFB/6pXuQ4Kdwmx9MIgdnQp8
+fWLNXp8L/PCEXQJryvMoWEAJ9idPRAkSqKooPWRYO/keuo8IBKBQf9mbYb3niS/StnmDq/7p95y8
+M+n6PJXnBLuE3mye3hVQ4PzJ4IlElVS0LLh5nuFRFMitPibpOpbwfbz0Q7ZB28Grr/pm4+5dAov5
+8zDzPrkwjshEBovWnwuH5WFKMZRP4Uffc9N3eQjx38FWP2od+g5yW1aH10/cJfSmkNxptjoDHzNm
+4HcSiM00jNRXwjdFkyGhqqIt2L3N1DbkHqg7uPVpyBXSD/fvEmpnJc/n5du4/cTszlET3BTp9sjg
+w6KDYP0LfNmV5Cw3JzxX1CI4SQT2N2wRnfewtU14Huk74tPnF63E55FilwSIpYtbf/6pOxrUfUVa
+VmXRDmzycusQgXKeTsKGpe3i9se/zP/MBoYN2g5Ofep54+5dwugAdvpF75jkH0qbEg0WQmDBcjWF
+OtlTso81ImmQtul1YFfy/h62ts2wR/oOcrNXs6SPFDuFXnofgLSfaFsh6401lYLlfIgEO/GHAiXl
+cIPYrdE5AFYg7mh+/K+tzPSDtkncQawvr715+y7BdVYE8eJTzdmyblyWJNhr1+8JybB5V5Tu68pX
+k3ENzqpu/Kx9B0f9kD2RdgDry7k93bxLcJ0vt3W9bb5+ov8z89tFCOmgbFEu0jV0vdm0j3lBS7HB
+yxoutF4ffe4FkX1CYL8QFOP1ekEz7rfh9mCsX2jWhB2R6dPK61t3SWAmPLyDdJBTlPerfm+s+H8Y
+MkQpwY/78F8kaEWRECgw6dSQ3PME2SAHdnHuDdPf/wMqA7dKUj9y/cN0cOzbXNBPuEuoXoeRG2yX
+9g9CuSyDlSiB/EJv+CrvixT2jsiktwz2Hez0Q7jyrNbkXeherUdfE+wSZLqTFnc82CrnS8x+ouq+
+bCBf9bbx+JBfDQVisFlTelhNg4m+GbmCqYe4iFLtYaNnJxJaoX/Z/PjtLba2Sc8j/bvF55Fil+Tn
+DLbjelD8/qnJ4aVnLUO6UcavFR1oIlwi/eW372RpG3ibQ3Tx018WIawkZpNolyBki3CRffYEhF0m
+0Ltkvdu2E9jSfRmuQOMLutY7m5szl/z8+O0Nhrah9zRAB7vXs0ZPJLuE3CzlN+n8beX9IdUpa9CM
+iaxV5wvkRCQSGRL+z5GbwTLam6z0Y/ZE+g60nm7eJZxOQUWWn15QgiD/Ci1LHlZdOjaO7CuQNoLq
+u17PaMXQn6skWSm7jRHeAdsLml1C7wiyfnufXbEFJg5KpCF3vt6q18FP3YeJhiVFeViY6cB4FFX3
+PP258q1n1B34+rYGPbt/l6BbF4m083h+t9ZYn5MVUGHzlkrW/bk6SXa6T6DjDIad0f1Zgf9fI9K8
+aOI2mpdQu+pBRoCln9oiCKaaLMqwEIIfgshOnlbah2YSkgI1rL1grXTXkrtlLzXvx/98B4P9lu7V
+kTpTsG+Tyau0OzUdF76T8uAN1+6DKQJo3bVchCRrXxMKRjaDPdj1hQmk51BHg65e6Aw4+vG3N1na
+hufmEO8GcpNopxB8SLO63PlcdQq9B7BIxP7WS2RfUik0KOgk7NaJz1W1Sa9a7wduTdiB6/+V5Opx
+DB2y3oTnJ2Z0zuc30Scn4SmiCFK2nWIxCCQlVcFEBZW+WXP0NgP9gvFA15GLvmTtw527NHcn3IEa
+g7cF40PRIoEkmkzX3fVeZNolbTmpcUf3ju1locF2TvoBeqTsQNRnMh/v3SWQpvxmAcUga3HuVWof
+M5BQAqZAf0So4HsqSH9uICFPCtV7tDOH3sNJP0iPlB2QpuOXqbPHe3cJJKiAuHtjVe8n58yXbawb
+2NxQBLB94BOFBXpYq0iEnUKQBbr/dGY0BDawgwV07raSlD/+B3D3+/9+F3v9ErRyzl6M05GnPr38
+CuUuSZfuwC5oKDX6RFiX+8OWehp6OK1inE62gUATVQW2rQDsq8/62Zt52XfxtQ3PpwE6QL5eDPpE
+sksIzlLY0PyZ+EEIS6F0BVpX9He5VeAyJNvxK7WYkDVdwHp2tUa116r0I/dE2sGsr3jl6eZdQusU
+lvyhe8x9R4uDcNGGn9rRAqYekqEYgcC2hvsP+EKb5lfexwokktYNELstwFf67DmLf/z9x3++xWQ/
+mltH6wD8+saxV7jZJcyNxadvwIUFZ2jmjp4M4ybKFPr5LzuM96fjjT/+/se//VfazjwN0AHxdc36
+RLJLuF1mi/wdO6d/Ymy7LjT7Ce2n4fAQBdplPpjgTh4LCs0URVqeFfBwfa3MVyb62Ev/+Ju9t8ps
+QNuwP9l9un+YjlD15Un6CXdJtGY8e6Pe6yf79IcL/9PXCOEwGhGEqt/03B9Io0KpzFrknovUIX+b
+oX4z80jZEZy+9ffHe3dJVnRncbN+Wb3O1E8WFeheC3Ffs3c5T9/edfT+fA74KniZroHdIY9KZtOK
+4X3YqgDFASrops102z071WLv61vs9IvLc/KOzBz888ukwXOCXRKcQ8gczPdY5C+yz93vs4zwEJKR
+8kp5O92HTBy0LJQ6WZ4PMNQPXneADny9U77zEnYJwGXiZb435fH27OWHU3RQECVBHeuTcd+cd3Qf
+wgesKd2Gafcnh72Dm37knlF3YOtL1T27f5cwezxVYjq/WXxmtRRMOlmGWvLlNsj7D0yu57jBHnfY
+y96ddBsHO/z47/ObP/51rU57bUk/ej1jdDDs8/17qHYJSZYWYT73t76uj009yKxocOjHcn9Hb8IT
+MisylFiJUEBw/+msZDy0yLnnC1q5bGWsH8cXI3RQ7KvHeUGzSxieLQLuv+21/MQQbjK/gVkKzYHC
+/b0jONCw2Arbx+QJVIKCoasz5Mh75Unav28sI3XPmXniCfqqHjXZn9IJfYN0xKlPsfeR7ZJEGVEw
+bz+5790y4wo7hEQ4ZvG5TsewH0xTCRSUrPBFa+HZTJUvOfrxn2+y1K8RVkm6zSE6GPbF3y+J/m9G
+8BXeNgs5nt3y0ZNYNejRBG0nwSNegdSxy9AOD+wydKV8KjfZDGfA0bk/6/R1dvqBW9M9Y/1nH536
+up58PGDUmOdz8/6U242TVbdfvf+BcAZvh/Qh6ut1Ux6uje9+/QJxCIWNzyoYy8cTdJcjPQsanzXK
+6lAtIH0Fw4Dfq2gA5DKBDn2eRBivglPf7q/AtnkqwZZdJBF4EkzSMEpz59cvyxgW9mpCslUDLqCC
+FoiyqFhegjkNSdplUwQEvMGZgPjxrOFZ5Dd2FD6+lIfve2ERzCIe5hk8U0JQfRKvblzyC4vqy2Qd
+nPgrL1stwCI76IL4dn4KJxov7/9vtaolleqriY5CdeSFhe5khVFIGLOUhywrqEErfOy3jcNiXFy7
+IdFlT9ZTpBmKyg+V1mZ5kxiinE0ank+tGh87TjiyQtUkojPX8oqRPJpYXjPK4qknRwPfjWyWeemA
+E2ek+trIj6/koJ6JhB/g1jOjIj6C4n4zyBWWF+4oCtph4SY1E+p0FNPchL4Qw0BUWR2KX23fGhSJ
+w5omMEmWGCRQdTewTxUs6CWdIuGbxmMWllLJCPVHOZm1dJEikTPZDQdJtigqkeVxacIhTkMX+ReZ
+ao2r5BuqPSN0hmLhDzUtOeC1aNLI85haNTGro9QUqGdkMjfFTDV4ko/KNjBacktSPI814dZS8fdC
+KAw5n3mWqHO10NNMYqk9CfMbVJ0Lin8WE3ifVXFUyHrExdqwRXrE5XERf8vkIbGvXG/o0ZTZSjq0
+25CJ0lxt8BAJR63sGlqFp7IwswNhIBeGL1e6lB5GjTgVMpUlaaY3BfEZUopp3hwFfsW0+szL4zG0
+ur1xkvw4ymTmx7XDNF89rpvULAvrGwVA4U+B4+meMEbN3EWE5UQwrNIziuiItNM0DYwoHamBaDTO
+RUIRa7UTqyl0Ei5f0WlJahbG4tfC9k+WwFiCfZIQkCRc6kGunYlJeha7IdNyaZQoB74nHqSufdhq
+3jCrR7Tmg0a94vYIV76eeNGQFJNCxjdhfup76VmkDGUtGZAsMGpS6Ll4Wrh4Eji+7imJnlljmIC6
+FdxIeWlwfqLlQ0E5bFOfBbltNFaka/G4RdPYc00ekAGyPKMVUiNSiyuHXmuxMM1EfpdX+XVVctPX
+tGEhTbxA03PlNK3OWhrpRM71QrF0XsuGbA8iPzeiiJxlljAKsuxSEowoB8CtIGaJNa2iJSLBICfZ
+ecKrYUKwoaXYY9irjoLGN5xggJDFWgmbNL60+GXQ6k51h7DBmytL5GYWyDkL5ZQRVOqRdqZ651Ao
+OqgFPgsF34ybgyD0joTcnrQl1al85eBmpoRXfnwIe950xZkXJTaUtDqA+uKThjdM9m09rwZ+eCQm
+gGcyTu3M4FVlNJEFzLZDXgZMcSKWFAMtOU7wQS7kQ+wrLPG0EyFzdC0Y4ibTfctiCE29OmIKLWYE
+eZMgFE9c3z2IcTUiXjVoRZcJyrCm80SzdTlJmZ8mRh2EBopPrNrVY5yaXPOvmtjRBTGBoeVz6rd6
+GDmjEsdkEDXfmmKsBBVz86FVyyNUXlU81T00ECmoKp6ONQHEzztBKEFMbA4s+bpJrmV6mqWejkr5
+sIjr80K2YMorZgR8I5K4jAjNXanWem1bppvQG0kTxmFVmV5BMIvsuUtAbJKmPnOVrza+Q36hN5bP
+4Jcg3B452DdKSbjkAUhh7hg2ci9iNbnWstSfUHTqBWbkgMTT714WGUUamCJJWYFOXdrciNS59NPU
+KByX1dwd8yVibTIVY+rqgnTihoYQTtRyIBSRzv3oa6tE4zTlp7gKL6jvHAscDbSGH7hiqrd26DEN
+BcdJGImMJ0tZU6aA96jgwoEqkBOsCiOsXJDsTMp9JpTqwHKmWY1s1vDouxqV01jLLm1PPG/9O0GO
+GNTLsUjFt4lsNDY1skQyhfpAtIkZqpqJ3PwSDqnQEXKHDkWm5mIWF9/jyhlD9Z6OK2UgtYTx6Fqp
+W5YkKgi75QzCGl9yTzTSSpvBw6dRHut1foCJM46QC9oxmLUkiViN4yPblY2Mn6BWMlBpHdiezBQi
+KEy1bKO17SsrISaYNJME2SnPCdPcb1l1Uvucldw3ZKc694n3HXZfHlk1P4G2B0xzKsN1pWHl3TRF
+zizLHqo1Bc0vGAjsnBJPaGDNI99nbnWUFBFDVTJQAEEVO8eSelJVN1Z6KwbujeaKZo6lme9Lhhbl
+uiOHMFGaRI+UmeYbJEG+HgeOIaDgQLOysUrt47C9deJ2iOOFhoNhQdKZ54BqlDKTuwaVTZvoinQi
+zwSFmHJOD6RUnEQB1UmusShozhXRMdOyMbnnDuTSm2SpNbLT0tC0QVnggaCG48y2mVVFQ0GKK+ZF
+wrDWhmBNo4HMhbEkX4o193XaKAOC84Yh7lks9crjMmxOUBiOHXKReN/DyjuIvEFMLpPENjzNN6k8
+qG1Q7KE60KR8Enpzp2hZi+JJKIpjKWpOojS6qsJ46ojiLLEbeHZhNqlzWOXkqySdUh59a4JqlITz
+gCejqjz1IYnI2qqpmUiFU0tW9TIdyTRhWEgPaJAbsKHWzG3la+Ikup9mg7YdSFnGytS0nXJESD3k
+ksbsugHp0pKzGG7x+FSL1EFT0EEihEd5IxwUaiMyn45dik4sR2FEmZD2a+26MykntiFK7VByh21Q
+IWa50wYAVKX0pCqlhKlleeSrlR5HeK7kZuEr3znO4YnXGZeZZ/u65F+pimvYlqU32hFN0Bhp6DDz
+FFcXa8m07JOMGpVQGWVCJ+DjZ1OvjTCzSm0c5X5k0DpgNhXNipRD7g6J5TuMKyLD/FIm33I+UEuu
+i9nMpdNCtYzMo7qVpSytlLM8dq9xYete5U2hrc8Q5MREyFAU+6gOCVOz6MYFPaW2/temzG9ED35Y
+ZHkjySt1JYQbyR0P5QuXKtdaUxwljXyYJrWJw9hAanupNkhvw4rZyW1Rz0u5NMF/YdQVWEGGEh+q
+WnnI5RjcC//IccNZlmNGLH7u0zOqge0vpUqvI3uYV4Eut8dyBVLsjVxOT5TQAllS9KoIGPcxy/I5
+FwNmyd9qDrMBPONvVhuD1ayJmdjqhGP5yErkUeF7A7ERTJXDi6eNrKMqPyWNf0KsbFRTNzCtXBz5
+rmxqmWqmXmJkxbj2qUkURw/VbODy4AYOTfeZ42Jds7NQF7x4FEZYYODFsSjPv9aebAaWeKopYBis
+g5oGzCt8o0Wt6avBKRG42cgu40UAZtN0iT0Ii9Mm9w3FQ2cFl6Zh3Bp1PAqcwzyIdLfCjGpnsXOj
+oitVpdO0uVRKFTwu5SgRMfNz+CWJpRNtJvmXHGfg6F6HshIxDP+nWDjy2vrQs+PTOMG5roBaKoiR
+lt+KvJpUXDpPykyv20lAplmmzBXtKpWiAyr6gwSYkBVNZCUJBlZjnZGoGnmiNGzEMy8duVJ4UhRf
+yzw25TjVBZeYYmlIST5MqKIL/kGoRuM8sUwvrG99+k0GnzLKB6pYAbADXDmG63iGRTxmIW0iR2OP
+tiMru4qprUNDE+aokenIfAiGCowBP1ASPELuoRaNwAM/DPhAKH1TRnrmi2YJk5iTVuc2Nr06nwj1
+uee5hioPlSIdSLk406J6YCs+o4Wqt4o/9KwTWauvUGaZWPxu+YpONf8s1XQEOqnIcsAVmcW9c1Kz
+1o+GHi6GEa7NQLQZdzVTzcgkF9BlDP5NDg5sgEe55hgIFYdFKxwoZc4yMTFtzdRK3Y51LcwHhRCN
+HOcwzSeqDHMSsGrU1qxkBzyQs0zxhsT3Dx16kVHQ1SkF/Z0NSnJSaYKRpgs7LwaCAl6FduM12pDg
+kuUBGlYtH6ZOCc6NpqtqcBjU35UYzyXwIaEAkhW1EfpqzBzQhlkosLB1B0J7q1HTBpcpksG5BYdf
+qMZJUulpSA1RsM0qSw5JcpCWPvPUaqDZNVNFOixCl1laa5TuiehGE+SBQW9MLW2MHCZh3GCjxock
+KiC+GBQhRHbUORQIBBgF1l0bIqv4W8Tt4xSCGcnHo4woQwFXhxoFjOzvaj4Uo5GAC9PG6EYVczCD
+nEkZGgVuKjHbQZJRhMFAtUKILGuNKYV/kNvaAciRbkn2SELNsa1AbBefKMW1FebjAoFzXiaX2JaG
+itVOxOBbFX6rC8pUR9XrZuxilYm2NeT0ygKckcvEehRepCmapDI2EcSYSQPTpT50HFA3osSq/DxS
+7WGR3dhealLpOHSbS0+0JrWaGW5QHkDN4kHqqRPIuR4TlYUWuG6KHzG1cQ2H56MWi6yVzzQKvl17
+7AoAaEwMIWkMP1C+BnIAetc3U+dMgKlWJiWr5QkEOi5acBmiWDv8RlvEVBoPVGeo8GJsF5FZBoEp
+C3O3AuNFpYuoJBAqq0NRRw5nSs11rQJNGcVmrMwy5S6SW0NDsV5koA24NCll38y5ooeKNsD1N1UI
+WAZ+cQyWLAWljGx/Ujh4mNYC87zYTJGj1+7MS20zo2jguNpJkHhDSXXMLA9DPUjdgQR2sxK4IdBm
+5mmg8JwyugrrE4ua8EQDe4EuyseZUhlOEehWSDW9rEwrdQY+lseRoDeBP1N9ZMLefJZavpFqMxJP
+iRUMYqnmzMvoVCb5acaJEXAIb7k3VSFMbdUpxINGIjGiWiMtHGB6UCvBYWkNIgHpDiADCnYQNJVZ
+quASh/K1FiTDwM2NNrd0zTstPdBUmhmL1lnkjJUqMMAnG7lk4Ip4ENpIL9sLMSrNQjiq48BQ7cPq
+0i/NNiyY7YNfAYZTipgbe0d27FyqVa2X2QVOp8vZXLTi2KlOK1s658qpkrl6kR679AAnxKAYvNi2
+OXeyRJdizwQ+mIcSZkuB4YHr6sfObRNSRqlgaF7NLJWca2VmJHV+WpbyKAiuXD5t6288l8zCqnQS
+hzAZkIFccOZzZJa+oPtKO9Yqsw4PpHLkIWmg+bcqxGgy9fUqshh3JOY4zRi0XyU0zK2HCIV67QuM
+4lC3SnhLsrlU8NSXRqiQzMZJVD2iqh7w7NzLzwl4zk7gGX47IY5oikgxUSPqmGu667kskG7rNmJx
+HJ1m1DIFLlznQWw0tX1T5aDHHCZVI81jEoR4rjcLm2OZzsscHIDIHhVCNpIS0bDaxqizSA+tWRMb
+IYhhnMw9Hh6mfgYavjRpzplaKyPCp3JJTFXAkzQuwAWo9EhKDaGgx4V2nbbuJLUyXaOx7ljqcZDz
+U+K6F04yrRvlXEIztb6yhVRHXm4ImWS2mcsKhblhPk1Dd1qiaxHCirjwT1PpK/ezY4lD+K0oeman
+AJFjVLTRZW4DlIHue7YeoYnbTi13qblnbokvLEm5UtzmQBKCAQ+vUgGNJQef5WEKqZjqvOUZ40Z+
+Bf4dTEKFlcENZHuGrS2dVHFQs0YSjxIp1eXMm6iSsxR5wyfVoStnZhGOfflcEC+qotS5PC3EQe75
+A0u4IVZlcmJK/rAERDjRG6dh0PaNhbk2DxObFVI4QJnC7BwZpAQ/RmkbE9maxJI2GSe+cpcUrsGR
+6cQXeVYwjyi23oIixzVTFGcM64dDr7kMOITEUWI2qNFzSz3zoEGkjnNlkMXVWBbxMCmjYy473y3y
+PYNfISl2wQQcn9bQXFsX02Opko1UVMHutucixNdR2Y7aMhuhAB9qTgbJJXpR4Oiw1PxB64HgK4eV
+L+tWm99wHF3akXaTuz7zsxxczlyYVKqki4U8dPiwlK0zP7ZnLnLORDUeiBj8sDw8j1xnGEGonLqU
+NRGdujCHggxfOLQGP4yCCylLhwK+hPPBGIqzYVJx8ECyK7WSIJGlsSxwdak6FxV86Cb2QFFCHdfu
+MFKFUyG7jdXY8Ck/oFZkwsFvWhFdyyUdxn59WcJ7p3k1bgQXvP3jOLtMy3neloe1SEeR4xtNHE6g
+F8nIAzVSVf6I0ktImZm+67DaiXMdMj+ZIk5xyQd2NYoDkQkZeL1qNcy1FhQsAXt57tWVzrNTh0e6
+gjCDs85A0SPDBTUjWh7L6zFPFFACptVmJ5lmVlrInDSD4AhUfRNMygqPOCRTHSu5jNNwKGYNOL4w
+a52oHnqONxTSkFVqDcnK4CiP6lHiAh5pdm2r+TQEMxIU2oVVYNMv51YkDTVBg+gbxEQWWCxYEx65
+OncaMwUfPZW/gvIE61UO08A7sdHSkqlguyDla4UHTh2D3DejQNTr8AICu6goLj0F6UlVGveZ+Ie1
+gmfJ7tsoblJuO/kq9/349Z+O40UILY0Wi/xwHt/3/3q69vwrUD6MvEzyP/vyYtnhlYWF00VW+Pkr
+Fz+26kBhy9Lrqw6rdbJnJ4evlnk2ViCWIzysQMiwmgutxFQNDiyExcDl+WYPKxDy/rK7AzQYg0UI
+BFEB7Kh5WIGAZQYMqxYyHDwBlXIyVaFXztMKBJwqoioqbGWF9lVQaveRFQg4H+jFAgR0B9aWfbLA
+G6VwZsLzBQgtk+2wittCj8BvrouSRaF/EIM9KFFpRpAiQYlyHIu5ahS2U0OmO3MMRbyLW+nCl5bx
+azVs3RQzNQfXLUkvNCGY4dyCKOg8DqWj2C0HNcJDnM5UCeaUI6NxpvBBhiyjkCEToYIeTTWj0MJL
+r7aOIL0LeZQKfO5i7FNlVCrhd4snka62PGBwYM7CIv6Q+zZDif1NE5wLJffvPKudNkE6KHkGAWx+
+VvrFpBWaE6H+nnrx0M0dXYKg3K0yA/alMaWEXABWh3lYziB3lXPHkDAd8dLSQbubqZWzNiM6VWxT
+Al+AZP6Z6/0f8s6tSVIeTdK/SGOAEIhbTnHOiDxn1g2WmVWFkDgKEIhfPx5t0zPTu7a2Nre7l91W
+X1VmhJD8fdxdsHgt1cHrx72zQQ6ZpDbv3B0PQ/cWzadinVM3msE73YRAj46jiPG+pjSAczCpZI1I
+XkLRV0Dqm/eGakbc4PCIipN16CHs3UsYPUXdgNEDtLmFTncetPNTS7kvGy9RA9gicct8dVrYH5Ap
+Ho6IVezVoH8Kf83G8XGdpldf1s91t+TjOmML506ywIfhdfV3leKx3hpsWL91aOIgbHFAjHG4jHEw
+LJkla0xxCpjgaw5ZavFB1OWar+DFhsm9VjgDFpo7Y3TdohkeSCrCLV4WjXFvSMrha+vfI3gs/lon
+oQliUlW3bQ2aXWF33ATHaKseFMmwt+rG2ZuBwpFpcjAgHIP1oWzfNSwdEdaQWj+uOLOiP0xsSl21
+wjwKf0nnjzut6Tyv3yr62vjLapp0AejCCswVrCzSkWMFSSQdETsYnuxYnXgv7tNORmsQ52jZQSr6
+CcOg2HKVDHV3p1f6Bka3myDXvRWSl84/TIt3immaBH68qM9Fuzi/vRisIZuDOh7ZhKlsO5OeXXGv
+5GEqvx0CoMFp7Ml2P9T7bfhhhB8lG29T5fwBTHuYihfu6oe6uMINmWiRV1W9kyy66haEns1JgK+C
+S7EXQdrNMnfBjAR9WemS800kHB5eZJ2ckibRdgcmwOEBrGvKQCMcTyRjxZJQRpchfGqbnW8gn0ys
+GE0ZCz/X6dkHbgjZFC9rkPTTm6/EvlowD9qkHvzYHd+YrBJepg3WlI/pUcw7iPLFFXHAX2yN2XI7
+usN3seU9gDeZZaL6CaPTxbXhTtdOujlOjBEKfJjGAhjC2O9uyrind/XoJfU0ZuP6bqsyKaLpZpzl
+5tLlJspzT8Q5WFiyaLMrSn4QzrQrqzmtjE0WXsUdgdEyz4lacxk6CWVHPeuXaYOP42J0YjbtaEbt
+FfNVTGEjrW82ME/MfsyRm3Wbimf7m0/Hvq8wtb1LU6fjtg/hODpzHIBX1PhLFYN/9Mmaj0LALlyP
+MytPm3+eFMk1GH/MGv1YVL+UB12+HYsgLOMBdJVoHKzs2RL/VyV1MikHuE3n4TymJc/J+DZgYuCO
+PDTu7B2M2jLaw47DWBnTHgtSfopgPGw1z5izPAfNR+RVz6PisdfYo+bSjRdrdkNXJi27dT4EQVHG
+2/BFgY2M2M/D4wyV5tQOXJtnH+ZKu71U5EKUiAd3jRv/Cvop+y+u+5jX+k2V26HbitiHsbiOKisV
+xVoALm67eHLrs+teDXWyuVtiTt/gBgrlnjRPlpKm0OsFfbO+ffDKJ8cdki3AbDt2WQgObdXrYPXZ
+IcFRqjKuG+Ce4Ie2T63bgFvy2F0PC7wC43+60P9N++TbFuODhKdXwWLMfMUOeqB7ap0roTMmqSUJ
+MSpSl8TOeGjrh0r2seY7UVbxLD9b82SwqqJVPxPvY+3fLXYqpCsPHQXYnTCq4RAbgiVVYf+4VVCI
+9UdnTbqWXlLqH+YtiU9rEINBJXR4aPseZt6QDuppEywrZ6xsCDi+bgm82l199xDVbqiLm1gttjtM
+/2a4nyc9aOAvj5HYljSu4Yzqysl4A2NmHRI4WnHTFviCyNmZsYtC4oVrCTuwxLsNymSk0cHt1osm
+Ai7Ch1vtWlokY/PLMd6tY/1pEF+UC0hsd8plB//2vv8VcDim97Jz45WUx7B3+nhst/208G8mwnwF
+FCvdNlWLe8W+8ABVAvuD7DyHPPVrmDi1Avj4U+DXi5Y5VcDtesoUNnfRvJmyzDY8KKETnli9ZWHU
+7kxU7Hoq81WBYTQP3obpZcNI1fhhZuV6Dcol4bpNo/6y2aMDV6gGlW81htEfLnEM6cz2JWgSdjFQ
+4zhq27iKAAMjuMWLCZKAj5e5g5XXl23igDrDQJMiMfhzsksNhumZyvNSvreuOhTm7+qMT4zIG1II
+Phl4PJOmihvHPmEUf6nNPzR16yS6CfZtC89FBvFYvnUFewG4e9wU+Zgl+NjE2rgd/cf/fxRvhPTL
+/1Xx/st7o/+b2L3/x/8Zt/ECVBgjj+OilRBdgv8Uu7hNkLv/eAE091FR86BD/ytugz+LSFwUeYjB
+4I/9d7H7Hzfq4zJJDvTK/idi18VLif43tRtEUM4M79FE6BrXG/6r2t34pIH55z5RtE1thR259EWZ
+6IrsZYFHvNUnAdOuhsjB4XAsGu/kFGd/ATkPJ5hW82no599b6exF6aTlBOgSLK8rWfdrePN9nVB4
+4o4eP2pnysqlhtMSJXhj58V1131PSY4ECYUpxnTccJv2hp7awFYpHoSdcH/ziAHRhxdW2rQNg4Qg
+FWGFSaGM02budhx8/86VJPETC7Azs1SP7pL38waaPsYeCHoHQFXYBluxxx9IHZy2qEtmSzMPkYRQ
+l4d2Jr9V4OWl1KnY1Cnoz1KGR5d3+3FrYLcpaCjM3J4LworfhvUSgtFcpoXMEEIaEho62YQjTKrp
+iPcg/vKAYXgBNqrk77BdvsX0YUOTehhnuY1DondrPb73xKTbIveyWa6eB1izRFnVvXrlgdWf0pJL
+W2EKUWMsy4NT1Ye5efTp8OSv/NVAZQrBDwOXSeh1ab28V6IIY22rcwEAPUuGYAOLR9juPX1h5nMB
+3qiHKdZC3fqgTb3y1YUyGsIudcI2xrvKknLyDz5CT76xcWNFImoAV798D1u4Fc10cGzej8Oh0sWX
+awgyFkN7ikBu+sDZLwuiF9sxkmsyreyzmfEVRt6ezeuhrKv97E2wVOXVQdDJgQ0noLGLCVmtxg5H
+Kou0YiBA6xwz+x4G+D2HKaVddRzUsxFfEqkjdyGPsqcJLsg9m55dqvE74kPu6CDXxYx4BsQKBJpf
+NpmEsLLjuFcG3GGcd3B2jZWx9pfHCb5mZx+q+qFFPsqLCij05UwpsgEefjS9iKzasI7dNmYDXHt7
+mqFmaURTK3mI7bn9LIcRHp1YdgzGOi9xBG4mbsjfgUXZSqkTlxHdWcM+pm78YrSMea9e/WnaLZhk
+avlaOD3yJjLZ2HaF9530wBM2UI8TJ8lWVZ/E9M/9eCf43MNEOGPykk+BR3fdWj/5kUykd39WKAhR
+uYexGyxb7C/2ROf5NDbLCfeXnlmPleTrdOu62xKCZ3ahH6vKpIJ0HxqpE1J7yTQuOOQX2HtBHvq7
+pbB5qMPH0GkPtLYPITeYT+ihke6jCYKbV37Avsilm9lB4fmMflsxHrw70OMge5spsFrA+taKY0Zq
+cw3E0oEF9oiZrZhpA1gfIIXRuIPJF+JzK+afESyxCXMRnP12SQrnlTWvBv88TG4FAundreYBxAZk
+UoPtbSCV5o4s2wo/p2x3S/Pt4fhdwKbFm0wdkE5wwpcZ5BPe8XO7OAfZfkzYwDj4aNMVH4SC9jW3
+mZq42s7LeFQgquEIB/1OWEFaOYirBnm1ILA1Q0ZHzNeRvbtL+8RtkIYSMkSd22g+G6DUSGKGDrIe
+Gl2A8YYwA4cb8MZLNZx9UGAkSJ8qUOEeEqilU0JlfTTRr9L41/7OkMGS6Tw+RGDL1eRlmp0iEGcG
+8sxAHFp/jJFQvAzDl9YCaiTd+kdX9YnnAo79g2HrfQimvYBth/6XjKD8b66DR7eLg2U/4vz3nV2g
+5DfexIKpRHxN4OUDuLkFP5+73zA447nliQe6PtoAyMxmzXackFrRHh5V9uJ180sLMr/eET1bAxBf
+ttdg98bJCEi+D85psQOzqMFYsvO3LYbfEpntIOECwE9EFKtGEq6Oi/rHQR4iMHt3OYEeN3ARpEAM
+bnCy3myQgU7qg5QWQHnV4GfO+kn9U9t8QBjt7ayfkApMMVi+MB/DOfyLgENTws/AV3j2IfPuABIp
+qXga4KDA/5gC52VBxo7CF1H+qfGuHF5J1T77bfgShU+z2g4hQGhTYSG8jnRJBLwWBc+FYwggULFE
+ZQ4cmQbg50XRM3B5WjgPLsS4Lt80fGMFN0fRfKjWfQCPpxUHd+bPLZgn/J+ePTpwg7x6TAu4Q4FL
+f81wi2q4Rg3co8mLji3cpLnIXVlfZnMq2nwz0d66+PbhocKEghdVw5NCx3k3waOqXP1Uw7Oa6H2z
+kl3uw8zqHsFX0tCAGyMKNHTy1hMEQjj0YQXImxVVFCVICiRjZFI3uM68SQzcs4Zk3foYieZjjCjw
+PFtuCPGlUSvOLbw3QOgWG57IWrhykSKPE1w6pQl2wpspSlgRfUbaEsOXt+sXeRwADSLWQzpoZE5a
+jDmfHZzAGY7gAmdwXuixCe8+fZ+gJZDy4c8Q3iTcxBV5JwJk68FltPAbuwAwCv6jgg9p5+8FrmQ5
+tYhbzAfe7eCz5AuiKzM8TAkv09R/tH5eMGxhVCpdthvB4qcma7GDNvBCSxjLNbzRFkC43NwrX8zb
+yvB3ILPqj29ILoYrzqxqR6NkdeAhu+NxUyqZMSKYDxacS45A7ojpHb6375SffN4V2Bv8KGfFc0nV
+QbuHgudl+3u1FdI0JBlK5IZl7vsrRi5669p0ma5D0MABc+Gh/XiT2dmySrHLrTxIGTlvcszt0icl
+huqWtSknbhSvBkJg/MN8cvJG8IQeKMkDSFuGw1jdxqq526H8vYCxr8rmeXD5Ae+rx+O/uQkV/W5s
+u3O4BjsVqC1u6yLFR3fWHSKkZs1ksJ3bBcRyfZvr8sdQ5DfmCvjb2bdw1rdmjxcZnjGNZasLFjER
+iDiRSWwTcCViyKNkHTCOj89mmuLQ1iec6A/t/EMrm3NlXpyCxIELSz2cLoJX+boVecB3Oupin+Lk
+NS88COJJqK/BbVI9NE/SBLmHjEEkX7wo61wXCdNGHSTcX1C31XbP1FYPblmeXLF3qN/FdMPoj6+M
+T4cNFnChwfn7X0GU935O/R6iLWtc+TRHQeZhpdB6O2z6a+yrTLkwnJvjfXCUCHf5mA+ZjarYNyUy
+FuL+c6WjJtfajw5mgz/JV6g9Z4/sxnwIvKHDN+ocPfdLYfAN7PBSVs2hn14l/lsOgOaGPZ5bzHjs
+WYAAsg3CBrE46QNewJv1AQE47DtkxcGQnC44YahMjSjSLrgHoP/Oy/q+aPVUdxF+J9YfMWCWMZVu
+0psfr7ZpUbipQ9vdWFTQB09u5WA1IqTBvjDqAR9xxE22tInUSc2qQrwuD7CgXIRIq8QNIUu/gZZi
+hS2+XbqsK7q9N18IFlmFSNBlcnYaumb4rK4IbyBUdCl8ddhslRcui8lwMu6X0UgcHzmM2Te/VPEm
+dsUIPvli+et8UhVs6RBH/m6CVHZyTnZRn5hiQOz6oezOGLb1sJf+l0VqpMxt8Vd1T3edTdp9ydJ2
+utUmZ81uqN685qpMFv7qnVc7Q6yYtPRx1jkIBAP00d+EsaSmR+ojLbLsqLg6MpPiavhzhwnaf3Dp
+lyNeFdlX/o0Ou7K/CIgFLzM3rCCskM3GS7ij275DSF/ul+r+kwL6eeF3kU9bQvw8+qsQkeqygn+b
+CKmRvMQTATcc3/HfPoj9K+d7RK8qnYUcXzDI5bmBk8SqWGIPsr8tSRF8NnPaFDvzav0/Xjgl3J6B
+BoIPhIPdt0bEhrzTNx8K8WlBiBLj1LFA6BPMle3wI4i37jtCtB0RHPaA/7eaH5rguCBV3junennR
+CK/2i8ZaOEbOXw+n6crBZRCplT4yvRzhk0SYJjY4293nmoHFxD3ygs4jcj0/UZg25XkAb+xuOD+H
+ErpZHYDkC74rkSL6DhDql1++SGcHiypXc8LdBCgagLT96QYk2VPaHDt2nSAK5G0Qu8bHQpaZ+iTL
+L9teZyCVGg9s4qu8OCGyD1I+qb01CXZ2FwmKTwkaLhBEA5UJfiOvV1AEZxLjHmeCcNETQfSk4dDd
+O4de3OpBFF06InwYnFewXdKxJBATojFeHnXYXQl/NMWWdN27dy79rAFhm5CxDrXCSHRQZVaE+qXv
+MdgVv9rmgGz/PCKREMR0BV1FRsjR6ihD/8i1xt65xi5y3GJS6VT0sfURjLGvXR/FKtT4bsMsDMbf
+I8Exy48+LFA51vvOmBdWyWPkDxmZ1SPvITmt+6yYPRD1XbTAbz1u7V7859Du6fwQmK/O9gkre8SU
+Xrl52LoTgtUZrPJ4W8ej314G9rtCE6YV716tsgGHcd3XeCayxZJP1m0pur6YvXSmjEEq0B4pAzLq
+BFZO62asMJfN0LOa56NFB2Adi9RgfEWgiTYYSwezD7FH8mF4M9p9Gkv6B+9p+9DYYnVlXwqQYSFU
+Ftbl06yxo9DwUNMuk72XdE6x8+YmG+y3oDtMpDGhCAtK76kqLbQ1T832pas/SPa8sGWDwPPvA164
+5wESQkQlZQ1jQ6awqCySrcXY5aZX+UC3lxAjbcX1zvPAfGW/p2F9MNGYYQTOeP8YcETJMKC2a5l6
+tn0pWuez8v8IJn65LCE60HgKf5EqjFckJnz8uhjgYtqhLgRF4HGDsxKrHmHuAEPZgE2DzN558utn
+TwwIjC2/I5ddrHYR+4PvPRRTq5L/ZzjZv9Tu/tnK/EdRC72t/zMf+2dr779sYICqfyKx+/vHEASJ
+8KKNCO8corBy/8P/9f4NJd/g/g4p3K6DvDwqhv9EYu6/OXjRJA/D4P7ysuBeg/un/8v/jTG8iht7
+Pt5wD8eW/k+QmBfeX9r7rw003NiIHhz+Ivw7uMP+f0FitlSc4N7XNql0dz9F5HVct2gfRBTnO4G/
+aaMhthJFEl1hutBz+DUoihVv9btuURmpBqjCmkQy1RzdCvVYDRWCkg3OZRB+x4+A4B2IXtN3GDEm
+/7J1rH1gfnQK75pbRyrxiG13bOwO27gmvqHYEsb1hPD5vkeCERWnTDLYHVF30WV3IYhUStFdItb8
+Chrnp1uKPVb6X+xIlxARU6cPn4Rn8tnPRP0moj/dejLR27Q5e1Ycy+XYIvPl8lc10AfMEDYeMLI5
+rY3hVkaYyAbKfqL++577MOXFCRSGNCSRm6q5TdGaOp7KuKyAqhFhaw9WrRmfc1qUp5GNOKttIrfn
+rb54FWYzVSwxIz9SOa9bsB2WaHvgESpsQ7Mn0cuCkxDO/FXqz61lSV87SIQO8dYY7InHcu0u1k80
+Ar1h8I3jyM5vZdPv8DEuM86b6rLSB286Ds6WTPcZbmR/SElepsEZU0uK1CXjiy6/AERjt8Ce81x0
+Iqk9uXeHNbfoOLVBcVvEliE/lXLtXITf7zenxJwJO+/SjQjoq/VH6nXXGI3jdIU3DIAUOstVWFTj
+KL+r399wYFf11fWKxsppMB/XcYvRyvN2Vdk/2tbdR4YklFz9SUL1L4Brnu/IxxL/rED5QkHQmJv2
+3iQE2cwszvZbPR0lfJ/WGNQK4HrXIhIHMXdno1wY4qSEo6+fANsQyrkVLYN9TFO0em5lYJ41V3M8
+MLsbKQRKL/G/iG0+EYwHxgvsY9nxEzVOHYegNy2HKJ22+zzk5/3iPI0Mny6Gog+62inxWJcgPfrX
+df747hSmXmcuVr45Y7MrDUb9EK6see8pgg1TrxLJVOpIcKbBeq8jArK4/jpe4OE3Nowt3KnJxGxq
+T5U/SIQcu2tgLzSY/8pwfRhRYGk1S/nU7YoZUER9Nr1OzbykI29O1YykXnuy4lkPYFnehKLoF4oA
+r7qM9qUs4npu0N4wt1Eix9/x8zhBuVA3C8YqacVv4W6579bvkzc/F1V78GoDhcRTQvXDhBy/X7HH
+MewTt6+RvSD7BUzKds5PVLNPYV2sg49o24+kT8Ey46jRB797mzp9Mi081BbzBdQv907GW514jVBk
+dPwbHNk9R3K8MM1fUQJ7DpOtEowgLtY3Ji+PPYAoTl+hp38i3R3FP76NKW+Fo+PKoJBE0AYIxHBE
+GPhTkAJBAzwehCH/FiEX4DnQGdxEWY0jKyoqOFTy5KGZN+sylWVzizYBtsIf15kMecO2PtmUg6ze
+sj6HEhESpjackSq8EovmGdnustDfEltam1oOub6K+rqGUYculH61eJD0il3BqffO0iGr8bn1WcXY
+B1AURvj9UBSIftFnDL5ugYrM1Gxp0EKgoo3g8uFBhDb2FoOi77whkVuHUIOEYP8p/O1az2x9wk66
+pG5ozygGoY0g0FvgXb3FoXfy6nBAwJacK9/xD9jY/d1gX2cc0ZvvGfR/wo/CbYbYdP6zwuAagrBm
+/jSauwc8QP2NzxbCtAms99iM7VWuQXng9TLnQdmjSaBD9OZcEuSbwDMZzosE2bmb3+OpQ/Vs7oor
+Nx16G8gNd759YY3zrmuElaU8yRBSvR2TwgdELjd4G9WfSZCnbSkg4KPgjy48maxKcgTgEXaIrOdn
+S82RJ/WbNW3YejMzI58oXWEKCwRSGpZ5czzeC2NGyyEPUIgLLR4jnxTnYtn0QzUM8LpNOca9X59D
+Vgz7YrILxy7aTg/TgEJt1RRerKIZQIUGmICIOXi8wyzU09ewL5uDLJzgwKcoeCaazWhqrsjTEueC
+9kbxMc3tmAfBWr1h5FgQ0Bb9IxaGzMaprM4h0pqn0o9YWo5+tw/qe76W90NWl2SIG+ysKfo9xb01
+gMiJu8F+ifJh0/jSCB67WexKSqC/vR/mLHPsSg0ngvn1yVcIL5S8GDIEHjjy0X13cDdoX6/73U/l
+s0vIng6kg52EMHdHz4WPgq2HvG6msV/dcPDimTFR0D5o6k85FZP5FiRCrqn2rXuwIUA9RAnDbuu1
+D+ECVblsZriOdJtRtXkhbO0PqwyxOwJFoqT5l95PvdL75aN4lgqw+mjBDIQgyLqreYpPGuMROjWx
+XZU6TGGLJsYMz0FY9TmtwkHgnY8xicR7XdYxQk/ncu3nAxpxz5Wy7cUPpfqZHECnnoCuFWrD9NMw
+ngxyRdTZhWD3hwiOb1WjvjF0YPhNBTWAbnIj5QAjxMWqDYYaWaDxBohkMgYIlPg9mTLWN1PeDPe/
+jc4OamC6ubat90Xdet2x3kM4Uoh9M/CXhXpXXJMMTN2xAfFf6IPw7f6KJuSHLUXCFbEA0tlvT/bo
+o5YrYkZsKVAV43avgs3fz+48JGS42HXngPFW299yQlg0ItpJ6kC/b2372wTlo0ImOxMc9VVUWRGk
+ka+0GtEitBfRuI8bQVGQtvuJzS8exkfXx3lSbD9rqH51A6Qa6RG8QfMdQSJcbrAL+BxXa1745xW1
+aLe7SyV2rEaERZVORIURzV3SrimSZRTHrblnazQszgJddTtcOqaO0dpcy2hO6uU6jAz2OXno+h5z
+aQDuDaZSQKqhuJARhefDd/sHfPbQD8/El9Gxr9vwsytGc9oMCqJJJPAQCMe415qgHAyfRm5xEzpj
+ohodOcnm+MUBlyHwnSq9NdetWdNJdARt98Vvq2waNgd9fph4mb+N/RDT0bB9eU8Gk6qrEBfW6D8N
+PQ1PUMrBtyLQjcIpupPRgUpECaTT9Zt4hEONc1F4XZ2PpiEp2QoYBGWNykYDrG4MYv909NCIAu5J
+2mjYTkagFumKSO7mZWP7GUGYs9Gd/GWrbXjqOuReBNmgkcZqK8DWF0Rm3ABmJNI+FMRrWM2VeaE6
+DD1z9rJeh3fto4nrIwWDAdxUBtZt2+6R3rAvcrPuRUdsPo7+xP42ruiSDv33x8ghX2zBy5LjepDT
+A5/CAfnDDmqmGRzyIHFHQD7ztnpxcIPCgeJXj41wwkdcYxGm0pTsUIPK7ddoGLKOgF5tBQZNhwqa
+BsuKyJW7NEddeTg6woHaHPsHRQanp/u1DkqYNtWHN46rn7uTAzuo9qpkM64AhJjlLQpWRH2iZgSD
+DkQoUNzgxWtg5ujgk3bDl4oGb6kLiBQLo8ttRnJq1WLjTUb0ncqm+GgQqjxSuiCH1jQbhGJvw6/N
+QA+TAdATmxOczCVs5svaEvmhcU3CYXXZWuLwbNAlbOve/N7q3t+vBmY4EdMvFkwONkRclxCirHDx
+Ov5UoaDJ1g7dUfBnHfB80DAZHXIcStNiTl+bHT5JEtOSXIq2e+B6RTxuTRe7PHhr52MpmXU9QbWj
+MmLaLYFNjaqbKn5RHw1+F0Vtqtpz5bjnSOAYtLw+OHP3wpfmFfw1l1OPk2nF9tS94HA9UjQknRY2
+0qrXOmOl/CSz68YBcfO1CvtscDp02+R480Cpk2Fuk5CBqyH9RwGhi0uN4H7voiwwfmENwltRS59F
+ASIu6Lb0TXEdB+JB/iE31XVCHCVXgDYeSNhEZJk0pf++LY6X4UoCfPghWvwe/47WwOAcEG2MJEJ1
+lNbvXzxvQHti3Xx00uHK41L5CA4bxj9ful7eSVenvdSvoK7Rk1IKmdVy48lUBzA9EOatwjIvirq7
+Dnq2cQ8kH/MSlWcnLGCA9ORYhn7u9dGTdX91SC9SZPGZ0cCMLVJpaxY2aJgIP1l8kvXldPYQ2g0k
+VGXk9Qj9rLvVKjA59re1VTZEJp8QuVRSgGPJy+C+9+4wAGSY3/PIJKpFU5uKGlynrrD0XeYQdFqm
+CpmsAB8AJgL0rp1tRkbMdKgmhwr3GkCU4twgzanF1Q7cBccl44zW9XzrBTrLVcj4ro7oFFej2PW4
+xIKhm5OOMhBbXLTjirR+A+pY6xB1KtmHF2WYQva3rPasovTd0dgiRhEgVOqqMcj9xmEP9dSiCDvW
+w1XQymSuW1egqCU/jbOHh8ItvCb3ylrmnVP7e86oOJKqbhFAQSfA56641V6NZJ2g4TutZ4RFHa13
+gHgViddtjd4HXm63ALXiVxnY+jlks7d3mEHNEqFnhEDriL17uKbgIswgL3VLoue2JgKgqPb/nbsz
+WXIdSbLsr/QPIAUwzFsSnEknfXg+bSA+wjCPhunr6yAksyuzuqRactm9DIl4L9xJwExV771HiQyD
+uqK5QZGB4JK/DMQCnqKsyD9GN+s+e+qNYzcr7ag70iC3VRvdH7931VWlRXLUpJe9O1GKQNAzr9tZ
+RYPxAh3Vv/MHp3vtbBGSkU2iB0OhIa96RNQZdEGcPylzMt9nx0KmAMmDWWEUNSNYvxr3KkmRHAUK
+p93UYusV6XiX2kyJZyOmIXN5UB03Nx5DUUMGiRtcJlY0HfLGre/CNLYFyI6Koz/JTBKp3Vw7Zy6B
+GQuoRQ9HJL146VLuTcOepkV9sR6x88vX0XcBSJhyal8UwXyxtWb4CswRRmgeiYUPMC03mp0c5k6L
+D2MUN7jfukY8jIZGaVdQ6QaimFI+mp6L2msXl1AMliKxrE3tFNHNF738VVbPGLyNLNA3YTkTsw1d
+Ge5mu+7XIhTGdlYufaKrgSFJ/Yg7wier1459iEu8QMpszU0yFGfJUxv748Egvmq288rUjXYxFQ1M
+CJ2nXGtu3LvtaiA+Ryo0XCXKetRzSTOTEo4KaWuMEfcxJSd5qWI2vv0cl7fZhDgqkFj6Mcl/JhV3
+d30GTiNEQC5o1zfKNlZRqHnEb9PXMhTZTrhyO5CjTUzOcDeN7/FJ+8SWsZdU6VtRjugtk3ht8vyu
+suuCd12PnjwLFIhuh6gGRYM87WLhrIq5RwlYYDm/MyMTy7VXvYJ7I0MMoLiXLUOtRNv3+D3mo6eH
+IXlb8zii7q7iYebPZcO5FNm2Z6a9wp+OLTcPaE2XZvLec0Fe+PPQ751Q+fjh7535T4JdfcJIkjJW
+8sAPlUo+6XHHqMAsy4CK9aC75d4mB7tSgxHR+hnVBeZEJ65zSeVljwOGGDxRnAbE43AgyVEviREz
+13DrauV4WEFPMXgdUWe8Q/GSho5+EqPYJrn7U0GQ+FPk2qUdURPcuqXMykNrb4iWqlvQZKVJdaW9
+OvBRfmumBxhAhRrWgG6bRuOHI5wbhxxnfkcQwKy+p77Y6NVrqM0E7hieJGE/YCyiM+jqpVNLeo8D
+IbV3zqzz4xuK41LTnrsIO3de05361Uk1szrpqWNsaymR5xx/03jRGMxpjmstZ3K45C70Jtpa3tnM
+8Jwlb7VjXKO0+tKkPwSx4g6NtBQvuhZ6QV6U1o5biPhqVqSbhjU3WykZqdRThbxZ5vW+5hVa56Js
+79G3k1Xdehwt+aoyiFKW4zlUHlVmWj43UY0x1fuwLMLkJGzjnaGnlz7d+8p9JNk2wgCaL0aDPJbn
+a4l/Pgp1c61yhJqaHNq6CokvtmbF8MWfPsNMPys/dO44s4dNVLQnC1/rykBh3hS+SBCvfBw08qwz
+Fdo4kZV8RHPCQ+jUAGTK8RcDrL2dl25Ub7JkE3niLu2sox/5AZONjyyO9bMVkTlstYIxGoZs4uD+
+ZRzM8Zq2jbsbyioQcjqVVUgcWAluJftXd/DKZq5/cXgOCBI++k1VPpvD7G6sjKHuoHUDHwMAqrFP
+mpUuKw8hdrTPGvOnR9Ncgvb1IHFHdXdNOu9IXt7nBSW+2YvniQZ8U8/+nSkiPq8in3XmM21KI1Bs
+8z7laYn+pCWBHL9QzskR+P87TCHtjAMp5Clt5Hgzstx+yhegkof/McpnVLFMuruyrN2tKKdklxRA
+BqjrvXtNpl/1EJHKsI78JM/ciRetxTbneh9+VjDlmgRHYcLdGEbxwY4tvEFWjDYH/crWylsd+gwb
+CcKuvDTeiRBqkFN0S67BO/lUQHUxTu9cVga1frzpmQudVYqPzhc6EUJ9am59bFRXSoOL0bUnZ3kv
++sEyA29I7lNfc49tGP0YPbpQ78xfjh0LdP/IexwzAuYqxZxi4iJYNaPaRllT3jsp7jGZleRxSgP0
+T5vO4ljZlX2eMj+6lpqI963hx9t4UAxopqJc15aJN964ZU5YrePKeTZVuhsmrwuEW1U3Lp5dUev+
+3pg9FEg7lquCM9i1k6vh5I+ejT7Zm999Nf91K/GNhADieETTdUZpExRJ/cd2x3QfWZyoUwfGiaYi
+EUGn6mfTeY8h4l2jUTevkpw8uqMr7nuZbTL9Q2Mo9+iV9tLwePXRaOZmRSdmPU5iSnceycunAi2L
+PPmorqDqNLRODCPhrF9sqeDnJN6b8jBWUXs91wzHmLZz8KoC4Ik5kOnKEKOrepL8piOuVB0KnB/y
+L5WQ6UlWYVDo117Y4zHRyEo1KU2X229Ej+Lc1BvdKa1NKhfzuGP6lLxTRqHCiFbVh9QHTmZol4EQ
+QY96URGNFfEfimAB/0bsEReTjW13m2SmQWYI+wIxsL3IFleXlbv2uq2VQYCeXCVnbpoYFaYdrwa3
+BEYk3zcdQxLE8ah9TetucVOW9qkoYfmFsbL2JPUlEwTKrrJr2wvXJbJ5P3EPJtWvJH0wlmm9iT2s
+bGmFl8YRith0JjX7qKcIFESe9W3b5V/Y/05pXZyZ25kHvA6vzRTpp145zTFNh0OeR9U+0XMQFuHc
+p9jFsgDpgqiWao0fT8+wZQp1zpaPXct5S8y2PsJs6sibT5teYBLuG5T3MEHfCccQeX84k8QRqzh0
+j+OQNNvcs/rAbER0zI32CzZP+5SEzo8s7KCPrKNinjzIQtv2SnIjRf6wVgloRXLSOmbJNG8/a8/+
+SKvaX6d+bz5V3vDEY3BTuRMHlRn9UP0IiFjd0Rwc+zTa2inqE8AHEfNgfxriTWFW2LDGcEOeQSeo
+D/ZEweKIKpPc8ExDWebmJU3GG10DEYXoRVMTIwgr39lzlOzqhVgXoUc1NbVAlstzZulH32zxZgii
+ER6lLX4AWtta89bmTJ4lT6ipSn9lmhepjm6+d9OnIr10VXOlbQ3Yj4Hj2nW4+51s69Yd52IOF0KD
+2NaUYnFurxgkbr2quVg6Zg2QSAoSCynhdNM1MzkXwmAsXoOmMYwjeIEfzSN4xINf6lAdyjFPQRS2
+e1PvbmOXPNpdjldKDVejqY/NUE5rS0x3KkU9qvXv0CGRtIpjGz9JBxGA/+DqqggsFQFjTKUW75mJ
+S8x91xv9l1J770KwQjAClTJ5j36dnGmrrl2ovgsrNs/eglaJy7zagAQZrpMWnRocvKvKnV+6yNZx
+/JZc3He5lt37UbdidLiOZ/+omdO+6KwkmDHBOqN/HPzWD/j48eQMJFrq6b739GvFnTfof2pyGX0h
+oUcOuzyF6mhn0SZv2ke+1hWFEryLniKpDf3btMiPFSbl3uCNy5v0apXzSYFScfk2o4gBWTFza7ih
+/BYyuhgFXbCA+1NNWXmIbP/F5dpckQK5cxusedHNWSb1hvai7NjZjCDH8PtOgWfy8quknK+xwSs1
+mGUYpOQjD8xYXv26vC97fpdx9LHUI01Fu3rWcKyM2i63/TeTv1LxTA/QerROffeE711MrI29zZw7
+38+3kSO3EPsvdViD5gPiQddYKd574w3z/bjOnU855yfl7jw6xw5eXKZtupJPYWouTqFdrFEdEYrX
+nq7tVe9e4zg8laFXcx0nCWVgvM513dg0zN8eHUiJO6sUXiDrmpGcgxs90+dHH8X3qW7JslXuBP7O
+jIwnoEUk5MOw0BCIjLg80TDjx4AkZ/thvvYc9T60eFBUhjA3WfYQmDzSCc0IM2yrDUTdadjjtUNU
+atEep96PX3BOGgi6q0LMWZCVklu8n4AK1pAYUlJTwppQiBMcRUtHVKkiO9Q5GJxeXdO4obzS8dY2
+GebusNTuU9UctSy6b0gLFZ51lVqGZ1rmOy3F6GX5gO2EJzGjaMN29KKXtJLXqUkPRtRkAegAd8Ns
+D1gDU6Y17hVwM/p4yhkw/knK+lfXmbdOLk1oMvM/0Ab/0eU4DOIS1GBbZNYOX3V10nD5J1YWgFh4
+yPGpeLQt931rJfeyk2hrPhyXVRVTWQlfO1c4qfK0u861WEn8+Vo877rpqwvrq24/FGW4V3m/tnOw
+DFTVd15WbkUrdqTlHpYQn+ig6KXfbSe31Pj7zks5ZjjHDnGSQMPqd4TGtzGzuDqqUb6drZ+YlBzY
+eSo9GOxzAr7SLU8dnDFpPTlpezU52yNZ38VCC0bIhK45VMu3Zr35ZgELY6GedSoVz1rnRHA3Ixob
+cg+hu54Vv53ui23sPEkML2nzbGXTNrTTOwIU26g5JH2QjWfblTsr+gK8cqcme11TGmjTQpITKzv7
+FRhpekyMfupv7DR+dbpxa3Zf0trqZvWaJc1HOGk3fVjcB2YQ9XI9S8ZDoB2b7pyl0C7ijwLiYUXv
+mXAm1yTlYHh0CfceE5rMecvzjLOjjwOqe5zu8dG1+fZdPQN1E4dPVb14vgzGeqmFS9DhcT7MHn33
+KiTj8ZBkbvQIm7O+FTnTwmqu+wMuSX+H2QMmh9nEn7ofWrtC8URjeTIxR7SDsUG9L9NVzZwBZTLW
+vVPqhdbiL+BXneR0qSrVHkOzADLR29WmzAvruYjJnxtjy7mfCIaNfmOlGxAVVyspjDfb5VW2q6lj
+qptFvy3uyIOecl4nll6+KKPrJ4pXOW6axIMEkoXO2uzTPyYifI8jzpuOo4s3LxHtLaUsIFnck4Us
+oCXi/nWV/Vr74d7Ny8ek0cjTkzRlxPoWTqCPSh1JLOMwLYW6b4k8c2k9I6OXu3LCURgOhBxz2oUi
+1nBPk4FgZh0ewZ/XQYoDXiTODSXvWfTWQUj5O9gprQbJ7K7JGBfS0SvnofO8I6hGtatG++oTk0So
+NK96zIvS+kA0KmSxKnzltI8D8IbMisEX0cf0NhqhGxIoAeq2swa5r1A3LFEO2LG6+4m8M8ppfmsG
+CFK+eRdl1rW23XdN2A/moGGh7s5z1hDFxkoo2iHlW5y1fZQmt6wkvyHi6HHUEzBv3avFLcuxS4yg
+s6S9rzJty9yUYLYlHyHm3XJdYmNmWl2a5noYESMV8o2RXsKQ6H7sqk87/W0Mpa11ivw13SrGEka/
+Zjq2KzrS304y1woHDvfIxPlsVIGHHX49jRSpWQ9gSJNgmdW915GWCOdwZ47pu/IJNFRR9aNC+Wnq
+JWW2Ex+bURQ7vnziMjapbwmdSzOInUHUnKOj7yAHhXaJzB2dktB/pkC8I2xL0qaJb6PuU3dOd5bu
+rabQHklC5efE5FotTeh+XQNF1l2OY2zMTiiDcJgmspRMSsqFUZCG6Ws1c2HJ/mhY4yI0hquq8AO9
+rLIdGZBdEXbvU5Vfk7ClBvBwr0sHDzlhTqcPHxSeST0T74U1HaxOXbsigZvAUEpWv8LS9G0kCJuU
+OCramqGvu2l0QYxC1Tuv8My9OxXTtsshGM6JwLtqWVzbmQVzCuRubt76vD04SU6IvY0+DJkDMnO0
+d0NNZNZb4zcxJn9dJN4RSZyYt6fI/BrX0B/vhB4RqA4Dp+1ehdZeix7ogDs9uP6nr7Zxpt8hI1Zr
+t0s3tmPiKvZ9Qmr2GnjzJtV78Ijxj41MakD1Nbj6dJzXsOgMzbhkqNdWy6glF4eEIdtoZA+TevTc
+wxSLvVfk92P+KFIt6DpnMQfYYIN0m9ABlE++IiK9/niqJzfdyEEs2SOYRkkB+28GiVYb4TWJyQ8n
+BtOrmYDUuqTDZbJMkat37bitasDbrt8QxXZOUgMDPLYVJp3c+dbm/Iwn5NFW8UabiXOXCkaaztSu
+a02EmmTaypH5ec91tjaiDubxdMxc6ztqQJVK6wGdPRhq58Ks40jbOmEjRe+kz1yVTlOuoz7HigzE
+zS3K3VTZO9LVOLmTBrhOp8SuIEW6igmI8cihTFKOQQQGl6s8/dtKFDw3qKlV/hm6+Wny+x+V1d+a
+Fu50BafWwWOwFqr56rzkXiNDE3CtPng2VXfvHGIorY6Izn5CFj/P1iOgcyV/da0DhOX+EMT/04zp
+nY3Xgmz/KAjBiNOoV1c5zDqsNozIPQkgv+QcVRhXCciRtBuJlVdJ9kqxewC0/ZEp+Tq0obmjgzyN
+g/E89fVvgcC7EgzyGINrTzqvtsEgitf5t59nUoElp2QkvLXynA/GyDUeJUttYlnfuIaPwptungcC
+WrMwd0MzyIwtYv8QWLmc+BXJPnh8o/YkzkmRXxndufDbyEf5Q3XWcvxMMtXKtTSm31ihZzVUrOTH
+QZgDXpRZWwWRFp2btnKDgskZBvYOzhX1Nee9hle211cOjhme4vEYR7A2e4vhLUYVY1s5/pUEsH4O
+oeuu+XjyP62TreF8fs4wPitTPilY1AZ4ayAhidyYqSdPsQRtX1YIZZEwSx5F41SgPaybOirXXVMx
+8uY15WbQdhVen10D/GkdivjXTvzHyVLMpxPB6C7f+VH/3gFjh/dZVKgwU8NnLAlUuH3zXjTj2aJV
+kKQlJjAIFVYNx372u5gggm4z6Gj7zdRrZHIK+aE1yR97tOSpGH0RpCKzP01N/3WKhuPU+BgGWq28
+qt5EnJzjaQRLLaJFmPrsWvFW4om0EVOTDkOu4xu4i2oOt9cZxFcwZJROpsgh9dd4G+KD5Ykb39RJ
+8/GmoSrdkswKKsCslUCWyLBBZIsHW15VC7/rDrtQF8Ko6RwHEGN1jOZmX9f9g5dl1UHHYL22jfDJ
+7hz8EgpzDPlAOCfD0THHVzupnTt9FG6AqPs4VxPZzfxkjP0dHMOnGjSyb4qtK5utxVBsNeSOtus0
+apvIfAvL+0bD/Fb581YzQerXCkkrlw8142mmcitL+vcGDscuGl8iJ3uvZ5zR3ZA8tlr61eNADN2f
+JcXSovsOtokEYh8FfPhhV6WHya4wMCDEptlleSOIemVyXkcJqDIg6OohZiQA9NEKJgzqsY7OQSh5
+ZihiTngPJ8ZGXR6LY2Er/ehB5pVAbjRP3/yR0Emv9iK65wVT5/taOpK0ogwfGp1ftLJagi1TF/+4
+KSSFXJnaT+piNs9kXzzO+CF/TelxuYhua6RcQvkQy7s4t4cpELZhob5O3UuKY+sOd22+Kzx9wmSg
+ktOkdd5hmmsT5GTRnieqn3NupxInvGy4zWldzbBxaJhGfQv7ttlrMJ9WAzLp6+BEH6GPvcVOPtwa
+OUkQrkVu6dB6NFds8AdW517OzQWSWXrnmrl+MNr+uS34GPWQQejG1Ipnt0pt9HKhzKORwXdRKv0m
+67nmuN3ISNvOhhWMyglkYbCPQL5MXo+pzXluY7ymYLnrpXW6uYUQ8NA52kz09ifgZNq98pl9mh8l
+NcW6il1gvfoFeOOthpIUqXCvMYPYM0rSdojM2OSt2YSu1N3q2H3A0BY/DE4V4FLGRyWKkbArbxkR
+cfgomborHeM1jrtTKb4SBcq/p+9AnOkQoDsk+mUtwxStRmQq+Pyvnn4ZQn/VD2eDdQAuskvk3Eq3
+36OTr2pqOtf40QbkRUnEn3DFZNbvZvI5AyVP4mfe2zUjYR//0Ixrvp+2SmPgF7UappEWV403zR+m
+G546nVbXdkpM+WjuFIruMQUPxbAEWnp1sAU6LiAQQELxS+MDkKJnqTlVAKYn7cYaqZjAyotGu5Vk
+IhsOPhFDrzyUeX6rXavfkvfbmJkevqb4HbdmSU1N5nwcMhkAf3yR0Diq+FTG032yzJMGHomNNLOG
+aINPXztCPmr6x0z557D3wHN3fhHMXjweyOZFcDmatyZ3Pzg7MAA35DF0zXtmPCi35uxT9FfwYP1B
+3/bFIgbgaCMXSvMPkiHwXW9jpEvB0sTOmgg+HuKRgFmWAb+15SVK520/Gi9z15zaDrtuYe9iwPW4
+pfxvX3BIMmPR3lxjNKAm2hGkRbh9njaftHLY9dm0SzVnph9OwX8kY0+RJQZ4NmO4cv3wWwpkwA7r
+qwb6ulby7HY/MWsi1gynxN6yp3mtxuyD+5aXZ8ASV46vxUzKq8D16nGfo5enq8EvK8AtVGW58eUm
+X03VYkYX/mVwKf4V/2BjIl3ZVNhZ1RBT16H0hVmWcJQMHujHSt5hr1txOvvIERBzQxCykR89TV1U
+bjzPdH/ypioCnaEbgXoA7S14l1h/RuaWa2VlAyZsO582acb2DLC19er/m1jFvyyfWsh45MC76e8E
+EVt38SD/T/GK/27Nzz/+1P/mjjCyc0HpuTDxXN+CYvf3kIX1NyEsC5O10BfKHkGKf2QsdPaouZbw
+DbgjhrckNv4RsWChHzs8WNEFKMRyheP8OxELZ/ll/jVhAfcPhp+pI7EavmkuUJJ/2vEjGonbvQXc
+NPYEMKl09Oxbsu6hZu1Dqg3EfepfhqwwRJuzK/xtpmH0bB9FSVxXYzhr3nesknAaEu6slpCsmIiZ
+WzLNLK8azmXuQzigWXoimbS1JDLQUPypG7isVX1AenpJClDa/TYseCaD0L5vKYmhVdXn2tBvEwsw
+umURRokjIE6fi9b47I2HltQQMvQGS2uQszCoYhdDCw7PeMB4lB39tnvX9OTPSAxJYmKc0/glZieH
+PRp3g/URE18TaG9Dxm36Qqzpsdf1N2ssN9lf6z2IaTvs++hD5zODC6cQY1xhfOvLYpCCDSE2zIYQ
+CGDH5hAUy0vHJhEnfRzrd81599wTECpq6PSejnvRkg7WAl8lwGrQ+wwLfJUpxLyy9fllCJPnGmZ8
+BOdgrp5MMiGRV+B+xFPcHTsPjBmxDZRM9zaj21a28T3myyVS+1fPPhSQ8Bbhx0++zcrdFHnOuIoM
+QYYdSn+Lyq/S6fZpy8aSMSghDZYUboU5UWwE1oi6UIxk5wbGSEP5lOWE/4VG2ddarNhBgfBwOCy8
+6KGG32vvZvcDEsd2mrfjUHUrVVfhmkzZt48rSnZ3dvsiJyw7C7sQmzdzdbJtnHGSRRwcsa3zThey
+jkycv4Z893BcdrbvkalbgqZ6dhS1/4lM+1GW9js4fs57NbhA5zNSxsxs45xTsv7SnWlT6MzpNQNA
+6bHLXSZmM97L1zKLQFGVgTQxIuuuu4087BKa3aIqE64dGyKvSn/uvYllSd6LzAR3i7ZWSEuQMaLN
+tAgUpjG9RvLKvppkI+BoZHW+VnbP32XKdQhTYsyJ8xU0WnnFkfwN7Hi/0An1lB5nmCS3om1ux+KV
+x+IouzzgoLn0/FRZXe5GO6HtBf3V5m8pfuVkZjySUJEN6HbQq4JWzPeTzyKHmgUAeXkQSY+6YwFe
+nk+NqZHcwC+vYaILal6JdAFsFC5OlwwZMwmHSw47ziNtPH674wTYKwsGyjFrfFMT5ZH/hRsA/7I8
+whXxqhv2YyqVDWu4IWVo13YZDhjDbdanqxcbL1zbthGf2p57wr1oefbkFs41nMDwz2SJA7MaVwnw
+ghSvkAfxcKUX1baT4LNI8WGFj3CCrqYa719zkCmwtapg+i8P2AGRkbdl2J8j4I2wWd5YpPDmujiW
+4ZEbDouV5je2ED3bKnr2ok+jzTElSJyU5aap9k3Sk7tJp6tmGffjyBaHpLXjQHn3OdC4+C9DQR2d
+wd3tx9w4tGiZjDsu5dgPK9e4GKExYbaPOWkEKAHR3znqiHHtw3LwRGdiF8ZLltV6HrN9M0xbA5Ox
+VX8L52saUGVSNTwwdQ4mBhRe+F4zyY3wCk2Ru/bYYJHG1n3T7t3BQhq/KrZcTKRnE0Bk7FcjC0C6
+1IqeFqKjkWa3SU/uHFlBG1YXUlRISyabNPQKmjw9dRh/RO4nDtVV2jFNZvuGwXScSAF5DutCa3AX
+s6VDFs6fvvx22N1hNIqWn2UeC6HRcetPny0fGFkJXmX8PUDM2QKCX6RiJ0jIC53RiahMris7em8H
+91FrG8Qyc90DeunV2WhvnrXgG7dO9WbEz3lPT+xn7zLZ9WaPxqBvyohFJXTCBJa9Q7bsMEmLtj0P
+rDUZWKnTWIEwbkg/H3ma//ABn+zaOMTz3RCHa5fAtZW9Jqzt8IDSWPF7ggU4b6xfjRCyMX/YMaS9
+vr+DRM6UwW7u46ZZq+5sungZnGTHQ7qzlmUtDGpvTf4i3KPPJpeYxyK1DqCdSPlAz6jY+BIDnbJ7
+f6s355J9MBV7YaJUzMS3AaIQVNeifk9O12KPjMa6GP6TmCGTYsuMA5CgrNogb+uTzRYaQuk+O2kM
+C/izpsbVSDwDjuBDxvaaqvhwHLWP9OzN7x7I+b6MjbwkgECraFp1s7j1bMIZrPrVYjNOkwBezBvo
+LqTnjXdcoMcIok8WQsbQtwne8ootO1n9zGC08WNIrD+R+UdnG49iK0/Ndh59WdMjlgmIyeaeeVnh
+Y3TPzhQdjWW1D89ywqYft2Y5VlgWuwaLZtLnh4ZhiOdvJVOijk1BLhuDEjYHtWwQMvWIS2R6mk1v
+ZTUmkYDpaLNxKGTzkH1z7HtIMzjuZRIoqyHYz6CcbUUerTnzOOY9u3z+QqC+emw2IulzKtl01Ax2
+tpYEs93bZAlwrLxFXtmtUzYktcK+jQT82jn6DD0yhJ+Wd+8uAif3ud1UkMOYOoCyILJncf841VGO
+OWGlMHDZz4SZejsB+urTz942YUIi/dM45VN6z3TzbhyK36nExb6w64ErNMO9lxBHhpiR1g+mzhLB
+Umx0Nkb5NEKaS9k8KJs2ymOWZgWpedNiJxjYOEVXxmS0zW8Fu6hyTIRDh/EWoBjZlnrwb5RLAcXc
+s8Emq6nRcFDm+qoW7w2OI4ONVxIdqMRIV6pfm/99RFCh8rGkoHPYXf+MereZIzhM5alhm9bIVq2K
+9AI7tv79GvwSfzWEAH67fyVc/wWm/ir/Tsr+fxaN7f3fgtBtGv/8rxUMvPgnKYf46+e/lPt/bfX8
+z3S09TeC0bbwbcvQDZus6z8X7oZuQU2jCGfRqsW/+U86NlvubQ506mn3X0t3728OlnjThZFt/nu0
+QB6f/1q3C10Hjm3zw9EGuGJJTv9z3d6S0JgnEqtJc+iWJA9hU6qGXUr6SariZoTeu5uKzwxksfD7
+epVhNmeWx7TdPSRe8TE7GBOXvGmmqzPE+wFIsEVi9FRgV4V+9idfgLfteB/b3q2qmhvWv/1foVN4
+DLyeDNk792PqKl4exWjhH8lT4zZg7C1eU34gr2e+UqhPq8Ro2UziAGRzPZdY4ZcQap66fyJWP0r3
+d8mgNqONoNNi2vIxyKWBYWPpz9ghaNevTuX+WNr8Y3qXFvuHMeBKnQMLxa+VxSasOhYu7CMsj+RP
+UxTcUO9f9LI+8oaPZLOXpMH/kUHlSw9I9VBXlTWXQVadstmGq53d90P3WIIKbsbxxYPrm6uDYP7T
+Jdr9VE9vudSpRtEzrsI0nzoDAC4LNbezl33ZMZYtCLTbqJ3ke14NDMAb1a6bkjlFFgMVNMP+zgJq
+4WrkKgYg3+Q/Cy3ocUA+TBQS+65u7vvMeelwBbhufQb8+mQu9UZbWUHUym2tYY1jTrUVUxSYnbbB
+wY8PEIRuXYE9BAK7HpYJe14Hce5c3DC5Uyx6XQu/5dDE+2e39T5qmVNiepcbewYQ5WrDtx3mt75G
+V7c9DaC3OQ+UEcO28RIiaORNSTF6sPy670620Piy58KIq/Xg118JQZ0WM95M3BU/y1Ejq557zinu
+NPaOyI8+i670udGOddTPHVPRdYnWvE0QgLZaaHKoui31ec+6BbPBVlGb0Z7Zfr5tK/VZ4ZInALQt
+vOhko1onGlMWNIHBYydNbD12YnxIFjBUGse/CsqUJbB7NGG0UWb31kXoERpLd3AfsI81e+9Cku8R
+oLkwEhMYyvhdS4wHr6tgJDXanazB45V9sbekjs0YkVXTKDwG3fsyLQwMmNiYNeH3ZbSYcefgxNLs
+JjoLdrSWTviSUGSHGvASBacoqE0LiVv+aZS3pxQ8uL2Gq0SNLNDNmkPMo4xNZXyONPYQCXhF7Ggl
+ec+SNH18NEyybxYriZBE+CSkhW5CdVJb+8aoAT2m4mR4rCpra4ReGiRUNHJFrnsWDilg2TyYU4p7
+rERns6IHB3uQvtjkXH/j9Nqz0MSfrPO3OHa+3Ci1yb5SBRkVYd9IZg+eSLFB4Awwc3gsto7ZMzQh
+DKjy4jJ3BsqUHfz/YO9MllvH0mv9KhWeIwPdBjYGnrBvRIoi1U8Q0pGEvt3oZx74Kfw61+91P9hl
+Z1a57Iga3vCdVERl5tGhSALY//rX+tbUPnW2/hCwvkd5S86svjemM27SKQT+6d0LK7qUAGUG+Lf1
+gGcg4qOuKj5pjULbgFNt7O50GKHbWu93UL1HRQenGt+CkpqfMsOELic84h3M77ExngPaVe2qe8O7
+uum4qtDXv81xunSc7Tkgv/s1SJkQ+a5InHMcEOp3qQaht6bwCmedQB2NuJIr+LrwrT5wlOwtA0NO
+XJnY9jDZ62Z7C9rqLYQKIyqio2D/JGVNErUtob4P4502Q8rJsMkG5jwLDq981Tu2c+zSXI0LvrHw
+8ZmEzb8x1O8YsKFDWa+uYiZSxbZlgKsjm6MiMkljNF+Q18cNV+017Xo2GYK9gKV/9szNWh8dFD42
+jaNQpucrR/hYGdFzKcij4oY9kou+CYtLQ+OYOYdIrJj4PyX8Gj36bCsOQw4sGOXhPbE2dU8BQsvk
+ZMkf4WtLNGTgqAqlnXX1yKraLr07ve/OWhWTitdIDgk854m4tm63bfRiFfcw3fFT9MMMuOi6ZWwk
+wZboNHebPKPCkGlUhWcep+nazFhsASNfRkZ4b2aE9h3aQhNnNYQsTkZm1oGSyX1k+fiejJOeoQlP
+JQVgfdMQEJq71MBxGxwvvfvRr7NNHbvZqqtDHPua8A52Gu3jMj4wYe0Mjet5CCaap2C3VfmrScCD
+a6fg2p6pVEGinsFw0nvWEjzxvPhzaBgsVSpOaRHkm9wi6O8wQuN4Pc4hmEkYuxAuaFQ7R5PYzqKm
+DLjN/PdeOAclxK8pbh+H0MKDpB/daGBfHGDQgea5GYbZs4MpmGyttm0xRVUpRDh/blEO4j0ekXjD
+wwT8jYXD1A67e59Ji30a/qa0AIWf7VJ4cFNqHgvuJ64CNlUFeFiUesmrFtoPmgLKNoZBfqGiK08Z
+y9NYeulhnNq7XqAP+/lpzLulUeQ6pvZg2mK52k+EZHia4lB2TrXZ4yJsETh6JDOAmbogyefnLxP0
+gNLMqNIxofxgyXRJRuopc0Dcn6yaYbaZHvSApe+U21t6ptn3Rl8DsBECX3xYvX4hBD8CbSMFLarx
+cUCDF16KT2HYu8Qf27q+TtOICG6x5As+RBjRXglVPk7XXS1f0M1fAqwR6wHI+HYqsm3SUp0k1EPl
+DHdEL2e/MHTPphx3sp/e4km7ZJ5+9iKwFbkZi3VfVy+MRMNO2MSu9ay6uL21IA97q32x92vsCWFC
+45YyEGUiJ8Eua2ClykuagMwTj2RsjdhluC3Vek4nc7gGpbdx0pBwPhFgXgd9chZoXXJkgXKWxMYh
+eMx7ykl/LKYUMMQ83k5fw/Qos4iAbWzs9FG9SqOQqza1MbcGfLWmUqwpmD81qC69yu8a4I3g54hf
+FCm1hj64D1xUoWweqTK5NxLtoBr36mr0HBBTbiUGVCqQ/REkJchwugJ89xJyg3FYRsWrOOdlGr1/
+aQbnXCoS5K1DibdfTXvG9WOIPGpbObzK/DFmD+rH9cV3MJbliiraIqtpWWkPzEH3Q80rBqnw1CF1
+pjptZiRdFmzHuUDCj8GsLcLy3tbRmcjpEp03bU9SuQ6TNeNMNz47PvOaYTnbcWqOsQi/6nY4eEa9
+n3SmR1kEiKG0AJlawNpMo4hkWDKo/0oz/dgEJFa4qSt6h6QDdDiVzn7Mkm3Ulsiu8OCG6CQqTjJt
+ctBBO+Ra8kPcb91zBqCGsTjyD7am6a9tvn+LBIQBXXSzSRSNk3zxQhtMjAu+YDTnkdH1TrLqpDxT
+TuRGSYLXfLqr5uMTzWqp0nt4Dy4bt2EAV/bdBXJl0/mXEaeecu2baO3c27kg+YPibQafkRwujebv
+EvD87TxVYvFQeMyrx7QiU4kxQEzQ9r2AsFeX6SwOjQ/in7SGD/n72KFFDhVq5Ug54owexbrSMvVG
+MlqNTbsdUHnHpl6bqUFAKGo/JMAUp4RMZKI1hwr6qYE5gBA4wOpqUOeEHgqXwwLmq5WRoUND4uQ5
+osRDEtMHOr23GAnKFZ0+FDK00bFnlRhyNXZ5A05N3OAm/JSFu7JDRtXR2XRK3hXWa+kPr17rPOoG
+iOsQhW6Ri/irzMNtPmgUCbuY+FOPgwGKH4LMCsgbs0J9tDl4MP3yjWuHi6ZhWdNM+h0TqDX/f+T9
+fTk1T6vz3Pffs78uDLkfzZ9Qb+uP/oO+gQ/VFH9j5p1/yp+XVfI323AA2rsAWixOEb9D8uVvhG2E
+pVsQ9A2LLOsfZ17PsFxejcGyCIrYXzRCOYyolrQkbTJUOf1d6yqp/5exl1M23kKdE4Pp2LrO4P3H
+sVfaTqCNwpnolttmbXht0i5aWM342sROthgtHCPY3t227LcAVELCjgBhsPWGXXM2iNqqtCdtGtyL
+wd9zaqPTaATV7UUHX3I50kEi6leJl84vf7nsDPwoPTXF+AEvGpcShZ9euyUnvnIob3BhhcyzHSKn
+gV6Xl+bsSvnwiAyQoXtyeDS3Ql7bQfyiHcKCoNh035nmvnUFOy+jsa49El+P88Cyrw423Vhvz5h9
+CVusY9NYSrv4zHGZC0iWyntxSu5BFjgyh/UTVhTTeQsn5sgGWh+veBHoL5NFiWUwS7r1ujB3PaNP
+X48PbaDgifbPkLEx8THb5a71IKRN08a0mYkYLX5KGjM6Dk1TtYMwBDy9WTqqx7fdsWO+Jiq9Ysk5
+JPopSl9b4tTx52hxPT/06SvOeeIPUP+Cx5JQtO5C5iN5Zz6ZHCOBJy/86hjq+H9oi95aDMTga/KD
+zRuZ7/XirWpvkLtM1k8Ub5WPNAPBbhLdnmFz8H9aKPNYuNjN+WvcdDLZQPOhrTR3dgq7Rnvv0Y9s
+bXzOdoCTGGDitWVGB6N/sIP01CPpjtmtBg5NN4dO6BMb5ZqCmAkiYc3Y8VO7ToVNjMl4wPnn2b9m
+Li9Qo2qI4Kg9G3N3+G7Kr4Pah2pJ2D0dXvXkS3fIUuD4i7wzSoXI772+X5BpE8VD3L5mcpNX8BMd
+4ovMqBdL7kx3HQRf0fBep/5RZceg9+7jtDnWxmMKtcEH+wntKMPu3ZnZaojfvPDJGvDCo17YSbpM
+wi8ZUBgiEFXCCSsJvY8EyMqnirHRyQ6uTL4g9CybKvsWzWvYH4luTqKlgWeXedfcuuusD7s82bij
+Iuwys4FNZfcudjNaq5zxhp2HpgVjrcSqNw6gwD1yUfQM42R474kZN7m+FVhHGp8yrEEjfLW2K/nL
+Cfu7RjgLM9w0vEXNPcyRzaTWQwjjWjsHc6CQiLAdblz10oA/qcuXdGzOoCvWEmIJ9DBWFjbN1Tnv
+5hhwoCMmR2tx1GyjwmCxnG0KUFY1oP8J8wJNWDKgzQyk8RTB58umpQdPdeg+OfQQtEsWNUlUH45V
+6zdQYp1P2ZysqTl7RPGpsmNFweXjsTWlc3LH4h0SJ40FhHgHV1sqK9kAdyKtGTFdsZJT3S4O5d0o
+hqVnQcpBxhLUpyq4wr3lP/ZE1nNxhE6yNOgqpuQnY+zgHfSBvz17gFlrvXl1A+RgsKzdqLZVSAu1
+exwdeOzaPqwB0ZJ2h95UmruBQqKg+dV1F4gwSbC3/JPGejL2tpCZIm091O4eE/jOhBkiHGdRFsYq
+ZyPEvNst/epx8N1NPafR4f6xsA9D7+CZLb1WZJlgvYqInV0S9Q+GoV2rFhP4Uxb5hB/iU6hriCIc
+e2NWsQl9e9j59xFNxv1oWGsf834yjpRC4fsZ2R+wOOHvI76ekMAfsQWHLuEE+01zoaVrN7ufdnh1
+F2ZPaZJPQLLYWXn1EzUWRw3CV2Cz2/MQMuGo2LoFlEqa7XzSltwZy41mY6skfrpukBc6znggebzE
+3kGH2MT5dz5u/WEjxdbvi/cGGzTa1fjiGJSe2+EcqDU3BE8o5DjFEXecsv5Kp+ADwOvW7A+EKpaw
+M8gZ3jrzrQSiLqbuZoEsTbqHwTS5z0ZnO783WDeXCY7R3OLwyRJmJq4S8TCQe4oMd17PQE4SIA5O
+g73LuOuNBg7hWL3l/kdN87DRX4MSqLeJZdqVK6L8sYmLx1dvOABWGZ4us92rUrEFbhaEX+alYi3p
+gaA6QwVgDjE4xBpFmNa4j3B4ddlZyXs4cAhojtc+9dj0K/FckpBOe2pmO2NfTQG5kuTFAwomUQaM
+Ce5zcLDSfCmhIKDDEC5bGwSLoBfF/XeVU+MCpMRjtG5R7BZQAa7FiIuZg6nqoZy14P0C8zl07zwS
+0tJ9qGHmaJwtIajPsgQeqND/CqAIl0RtJewpUC4mEHWu1ZkA32CWGEwKhKENq2fBkthrVowUu0Kr
+nmLrIWEowHq4kNw/qLC9QAw6yITNZGFjzD1b5ED1aJ2J7okzJ7ZTpAPAXT6rsYB7EJUNbf3qePqh
+wSYcWLvBcB5RbR9TbhcSqa5PLQgQHg2J8QfdTE+GyLfSY3cU3Mgr7xozfxLt7JL3AYGNG4yJAAcZ
+xfu6vrMHQMWade9mdDgx6vIo0u/BPkGnc7l/3vv2qUp3UaZtYFZBCSXVxOPeQtsq+cV7W5KDehoB
+sPjtU9jYC70YL637nXo/8Lu26Os6T5vBhr4xjh8yPvVibyabAd8Vt6tax46wsQKUIfI6LCXlyrG3
+2FZr9mHwKxZpuWpxaCTuoSPDz41Nm04xQjoyx8aIXoPggyTCkkenO1KRt2Tz5Td7xXPH+Zric0lQ
+yQsvCRpWkDziu1wOfHD47vPwpCIkiXibWDsPDnlSd1heEhjlfo3DP+fXr7dOpr3XwVwxtDUD8wEv
+z+MsLGMgXtLOuaq6+JiE1g8pax6CmIM7gg1zYH44++5r5fAGd035CoaVgsgG4RTUY5Bvkxh3M+lp
+Qqaca1LIdTSvQww+9zRwGXZ8GNR7G5xSQzDKZSsa1RJcfm1DoyzJXeIvjmUdO33cjkKCyafszlsl
+lDT7MnwOgmxjo1jNG0K7aqMl9kcmUvzH3bkEme8hINcHkvKYSA+aYMKdqPHGjme6jCrfTr9vtFev
+gWt4ceS+axu6iW82UbM+2+q4MQA2Qu6i4McBVeSmq9C39/74JPqrjkQTVfWKiN0iLNmqEDsOqWrP
+m/uU+r3WPndxunSoB3SaBgLSyEt7wxm76CMi3Orepe6FhL59rRiAETON/t2c5/8nMW2RvY38rNmX
+djw6+hZn9NLzzll9083LqD1oc1fL/J5qN73adsMLQkyMczfBic+S92BoawsDK4VkLV32phW9gmGO
+kg3QOU5blXfhfyNrT44uhWuPYdIh7MuO17plIlv8/WPa/6t1vFTc/g8D2NO//ssvVo75x9ef/vWf
+Pj7/zz//jeFr/gn/6RQ0LcDK1O5Knbpm+btT0PpNSgYzj8O+EJgGaTX73SoocQmyOrHNucH3D8OX
+0H8TrmHrrmXIeZEJ3vk/Kog5QowQ2f69FDn4Lv78//+UU7hTRHmj/vEfMGv99c7RoAeNjaPOj+Ro
+pM///g87x2k0OW+VkLlaO0ZYfwjyX4NvAmYLcAeLZd7f9Baou4VM62FQILTR9uaKxP8ebMIpluYu
+xDzfZcMWouVGcyp4tb9szd7FCZZxinX4JtqeuwxcwFngHX0eF+pkUvpA/oeQiH+ZbTwtV3CVcxvm
+7Cct3IXQCxWnToh7i8IO7kTw6nQzlqC4pxn46IztgkESTjnbDjTppAGgKINdwpWV993CdG1gP91D
+i+sOfAsvtbzmbr+X5H5FfG1mec64FhwOJv9kt9l27Gkmaf1tG8CR6H0SeP0h7q6Z92b3gKDCXTp1
+dzOxTHDG7spjULYXcrRtDbgf40hgyy2uFEojOURF433WwYwc31ThXFElYY2kzFJF+0TAcifwU5XO
+T8vpzMbGIKdHXpFdPRHTWrOcpK4HHg4Fl9T1rAOLThwOXrjKYP3hv6tpoJ02SksunRttq7zcagaE
+rlpQ40WSid6E6ItZlfYfs+C0BRPZbtOlhYMMCtR+tBgC4pXEH5OZionEOPVoqVg1SS6uKLYwY1Yp
+52rCyRaN1JEDBPI6SIxfULNo5sHyZT+6mr1GTONYJVeWpC7CRWHmaE6aMK3tdVlXW3cCOJ1eK59M
+esfzeRtytBcE9zsVQR2CTeu/WMS2RwTdpP2s61ujD4sW7kQixcULo7UbU2McFPZukrARiLQUfBFk
+FK9lCobD92+VObCtU7TGxIsOArYRbBuObHPywGa1x+G7o3OnpGOr8JurxVJBZI/TeA2YHudm04Fh
+T+n1MbOZsqdxZ+h3HmQP6Zd0gUBGpdXBRNFDrDgNU7eS0IsIj9Zokq49ewATvNU89QA/4URnl9Fv
+osShKfYlnL1jdGBGQ7E0KqC46bEOg62m8ywoixc/ExvNowxAewzzZum3OuHjHCuNODSOWoLt56PW
+3AV53K0eqHvgqxwf1FM0RXvFToCM/MlqMwyqhEcKw5rz8xwr7qQ7sOtk7CcWHroFMzqP/34APn4s
+RyYxv0V45+hGmiXG5SlN8wVAL1FmeNPNVecLhjEYnI+zdkxqdSj5hS11JytGU1ut9ZA9oueyNLqz
+qHaxXe0gK7VNrXJfWIeue+47+rf6C2fjVeR213T6aeprxiHR0Itda2v7mBlHhc9COwVIioZ2ZLKU
+SMWKeoKie0mCj0p7jll8BXRIcyiJaDligvjlmNrGLbwlsLZsyTL3viyrC3wXcFoBX5m+ujXppk4h
+YAaf/RwmKmL+cfxtMWTV5N66vj+YU7YhX8vOI1xLrJ2Tee3jZ58Lrx6InbCZkqJbNyZvXRfNfxp8
+SZru0jI59jb12RXlU0wKwoAKVbk73l46piifcd/zifyjM5w7Mz6PfrPtqm5j6Zzm8rxeDZzjnBnW
+OdkNYI1ovAuT8k0bOcZWOUJ0SpwvY4c5PY60pWnVY24mb4nxCnZtEZTmkX7rbdnR1jL/GtxB/YLa
+h97V37VQ/ZREjTlA+wWRyAj3pg86ZeCU2q7zLttOkX2Xyu6AAL+qXHbWbFn1+RIzIW0sclZQgYnT
+g0TxZxcC1zE4kbtHg1VhjEswaE5JQ8WWCygVwQDjmRDvoTc8l7p27KaNL2vMA+8htcM1y62Nk22p
+vSKynQQvJd5IdSMCf/blMumILlocgyM43RobQsoomBOWAKYq82rWO9GBWzaGk9Eh3uuxfjScdm3n
++hMLSbxxX1kZn/8N3ZDb1c1mF5N1OAw4FE3jtirrT4tt4Mxx0Ka3qWFVh9ZOQgtTcj+gaLkrGsxX
+VRqvlDWeZaBfHV27UXZ+rBNvWRv1MtDYsmU51u4akoBvHGKu+ZwiqJkCQbfowq7CA2jBpSiMdQ/b
+JGnnMqizrk3LHDmy57PsXJ0cyJ1DMslCp2PJhJ9wyRSO8lAvoCjS313t0L+4EkrjJGSB8NQt3EHt
+Qkoxncyi9K68Q4fFR6LtZ6YE2udVkyy7BMtx0BKuMp9wieAButIzsrNYXSXdIbapOOLU60C9rXEM
+FdmDMXiUyI3rMILYn2+9QuHMTe+CbiSwAzupb4gKd7bYd4INMHTDJHJesqg9GZASQh4LFbGwsP7x
+ibdPDcBX4lWZB3cQRH6OA2juy0beaHPaEUeXgQ4/p38rWPfYqryZOb6VECWMG/28RqKIp0cB9fBZ
+28UmngDDZg/T+OT4EaBNxFCMvFGc7PP+CoMLsXNTpGSVa8u7eoR0mwarXVyts3BYqLQAI+vNVTH7
+EMdhMMun5tKxf2ktAktXrWBast+By8fcSj4L5nD81iQjBguNn4y5Zjb4AEf4qGlqE423ldb9gEmT
+Asgq3muj/lFa5wR1x5Lfev2oUcil31X4q3rsiBlwb5NLPgudByeY4ZVHjmKk0zvoBNyb1HaAKuCD
+yL4qt8YJeBCFWEc6aMXBx+ZDbQ/1yFr/kRk8xljgjAaoHlzPDr4oBSpwKi860amRJRBHKVKYcHpa
+jLL+qYc2RvoNf3ZzCfUzByXEI745wA6rietuZ2SfZbWsLUwywWWqok3j3GcwDiUpoLBofsUCoEHH
+Gh1Nqa1O0jcvjaXvUs4Ew3xUGj4CriIbTIR3p4D61eFXA7OltBmbNsL7BtyndySsT2ZBTc90b4JL
+mFrMRO21i7+77AMbUoivIHgPtdfKfxA4w4vszE1qqYxXnHgQpaAmdNbKUw/uyIRorVRPIxqSHj+R
+l1MBX22pZWxJiQQtxCih0+XlrkP/ac6HlmWMMaNae82vitzG0L7Gerlr9YupsbH1km/AsORB1MGk
+eSDHIxyXl9qP111UkBNm+/vtW7vS5VeNebDTnhD7dDAVErL0tEgs7Tn1BfYVGjCydquBVpgy2Pfu
+0QEc979nJsLb+D/MRJconfK/tYWa/9ifByEKmT0QE9QhY7yU5JD/03lp/uY5Al+O7jnUwbjm7700
+tvebqxusP0zbtFmn2H9R1Wzrc5jKxbIpZ//l3zUIWcxhfxWasthm0WDgYf30dMGL+OMgRGOrmVT9
+CK/Apss+6GkytLaTBac+ie6CyT1bdrBzNDYkqQFAIYUJJzG6Z9qhMce71G1OEQbmJNcOkTaifpeU
+mvik9XFWGQ5otCrlQqmDkdhPgCTQbpmptngfiCF3ZK/VrUUNJFS2EJl/cehvnZtfBWttBLOc4kD1
+YOM+8BOwCD5HjRpjWg1gfBTxSyuLTx6TrMnrYxxp7znAd86qzoMEgaBF1aI3PcpnmgcPa2JudMiF
+I3xnksDoJ6zFFdRjMyqPLtSOJFCkm9JDiF/Piaxr5qtlGbQ7pTiJ+p13KSrmMx+BOA6KTVW4C2iW
+QE9F+qHFKbzmyLvpkFHSTu6gFm4Kx7zWXf6ShpxQJ3+g7TeC10VIwuJdoBo9Mhhc7O4nJDoEqv3V
+xTBQgBA81Mp+bGlp7rWpJ49P7BbTGKSclluBAH2nVxocqBIh3DRveevu7d5+gEr4PrjjJXLzL9LS
+mwh7Nz4zrIEuTLZ0suDEkamiankIMXuw/iRLX6MvNW35lgiCm1FROMAJioZuT7t80Ao+gSFBu8P2
+kcr8dZpxNbmdXmRsv3GjfokSsYskZF1D7JvRvvFIeZbUyMAA5+Bm1lsjbPYyrnn7Qhu2awSqOHeS
+73S0v0abLwCM4gSRiWwSw4zWasTc03PaGUBDcYvJydiOHNK0EJxIDjujS/BNgQ2zLLCqNg6nsHNe
+p1xRwRbUkMCrfWv4FY4RF8GPZWjoP4ImBV+l8Wh0y+kXYZJ1Rwmlq3krpTnrGneVntRvYWLnKxcH
+WWzp+A8TfAxxBSCrD7KXoHXeAnK2XkX1b5LRtUNN7ywps3Et7kXMpkcxGEmqUwS0r96H+ctZyg7d
+VZ/3+8qvr6II3iMRvBVx6+I5dW9GQoweaNFzWii+t0m0DAacwY64ZvOj3iMc1AniSHBKrE69Fxz4
+faNFN5cLK4MxLFqujVI9m5RhJyq5CrPaW9D8dqk37rrJMGC7lQQ8sHJWqXHQBxA+41xJPSI/elBN
+DDJDDvBM18XXFxVEeCoqy4KIPQtXLL1Q/Wn2JfaSkm3Kb4gCRP4FgM7L2DhPQAJhhuvfYa0IEJiP
+SmvMAxDELQsMLLtNgarIks+yeE4SmFmayoUiruasHedT7GNtx8Yq0L+rhtQX3GO1SbP0Owj1bRwT
+xRjJwxkDVrSgt6hQzotkhbkU1BQdngVnGP59sZRt9cnEDYMCnKjKMV+FZMS8uYw9iNax4r+zNOhK
+E+XRaW6u/ImgGBTYRTN/rZXdYiGuHICf1lnxDpDBwPqXcGn2PQK8y7uHKnPvCe4n+gRP36xM2pzj
+M0E3ihiCJ1fSaF8nkc/WNMwgz8w4ed9dtYVxSkR0E3GxTuRwY+g7JD3GFYT/cSheyJ1/th0mYKX/
+TJWB0s24rDxxjnVSYlm/S10rWU+WgR7v8i1Hts/xqULtqZeGziFWJWZBD0jM/S/9LNWEINrd4VE8
+Ab3tN8rFQRA7uOVmVLMZFs+tR+pOs0k/pVV1kAVXS9nX71Dc1mNcHGQ33BXlEGyELW9Ry24uzsaX
+wtY2cfjWzy4EgKQu4RxZabMPy8RvVD0bSKhx9DOZAlRTC8s4Ea+lhnCC4c4Jqw1glFtdBJfUdb4n
+O96H/bCsAJdmocdNnWgbengRJLtmGp4i/P521G4nI1hzK1xGEAkNMFsOxr8hnu5CtulGmewGq/ic
+mxELngjUFjbzuPYglPPWWG0NpjjETIjJh2BjADPB6FhNiuyQdSMDIieznC2WZbrDutVVCzmbVs+Y
+07Fl6rtkdLaVz747b+2lp/oXQLa4HdgNoz1B10fumrz7SidFh3eUKpGDbjK9m9BmIA42sEF8YdPh
+gjet1urNNBm7HAwaXR7nhF1FGTsrC95DAQfQHfs3yWXAWPfgJdl1tFCPjIFYE8jabTbowao0/B+X
+9yNF5O/xVC15kJCG98YTZMiX2Bhu7fQdBTxl5cQy2qO514dDvVDUpybduMUFtxkaigLaCBXFExtY
+sGcbPGkSK774nEgbeIlD7u2bzn8yctEtO2xc+dQsq8g+6gFdyuAyo02qy/uxFcWKv2uZCEVTS77z
+WQngrsbKRwyq5tNihjRgtil0Q8GaPLLsez2NzlEfwmzwKhwjBvKdY3PnCkFPR+rCdpO7LskiCOuX
+oAYLw2FV0IqxIPi5twqdvGwQrAuUqdHJ93MjC7ieYeXnIBU0y/gVJc26U2BbLdYWY1r9JG5250Th
+yo6M9xEz4GROtICBxFOqvHJQWdlWvFOOR2MxD9OMLRoGcpYlLzIM7+nk+8A9uaUKEiI79w4tn7mF
+h9517hxdrnxIbws/aF+BO21LHsukFd6nNr8WVUNalMTaFJOQc3EL+8mG2RLVs0vuUb1fa49bkB2E
+R0KZRwe3z6IsUQQg9b8NBmKKO5soIWddPReQvV6ccaBvSfQvLVYg/UORRo9lyTbcju8nPOwrEYSb
+bKY0TFV4T3j2zcHPPjK6iEFtJgPpryI7HgOhynLurHH41OX6sUvTFbf2x9xQHJTwM87DloWJQWW0
+8PnTT5nT693nEL0d18dyEBP3ZdVoTkBFuAPnKT5J6SUvYx9/txgNLB2hhgiZv4wbDSZdsJRghFSV
+PWk5vSu4jDVfX7TDeMQFisG2ytba7C0Ijb3ml8iqZS53mSru8hDCIcNunkAQh9D+lY6Yd8BPcj23
+AJQ8o9nMt+uR/vISz2NYjcbKQvFpi3EVO2KDBHEagdngyQOWOQOI7D6HnZRTIP4ryykI9dW3p4pu
+kYmaSFHyEXf5c2QnT8ZYPHIWZUHovYCo2vJBcitz2yO7h4LRX+Kj0II98Zt4QR8RD0Y1YGQtWEAb
+bv2Su+q1aDAsAp1+KrV4N80nRW98jovsrafWK5w0NBvxmXv6o2Yqqj8S2PzR1Smrg2XUN3bUsy/H
+oDqL4ue0OSeoBUFfnpK02tD8My0j33oqDQ/rrTqkWnWO4/7L7mDBgXWioqTYmgWy52hSmF26e1OI
+jTThjPsujzjuRGETv5KP14jfUW482e9eCzKskhungY/L2zW52bnHzaAFMb0E5d4xQLKQ2J5qjA/O
+6F8TkpiOjqGlcItVa8pHYiGv+M4n9GcEmIjvHQx7LgEsDjp1c3nRnf/3jI3zwPbfexlJin+rPzGK
+0Aj0nSdF9zdWafNP+PME6dBsakqdxRghXSHF76s05zdTt3QpXUcnhefNDsffs3u267Ass4jvzdPo
+fzA3qEmlMkVnchSSP2yYf8/46Jn8DX81PnIKwkwLPgsbNdu5vxwfmyQdizD1m+WUJ84DfVLEk7TK
+2pLwOhoxRdcefoC2InOFXAZbKXZe/o3LkgenalbHumwXNgF4meShle3riDGs6bKDyCMAwmIfjT49
+Fu27DLSzWafbwU2WUTGr2DJcIV0fBKtoFf34BEQ83HV61988p9zMexKj0shm67P7w97XAwqg76+V
+Nm6HVBD6YslNcBiMyCokmdR7+qbxtFdFAoEqKPeX7re3tIxeepoomOFNcH0kNXSyRE7ttEvbivbS
+BRDQ67C2WI3F9J8FNZqTzoqwR1rSi+zEtXOMWAxmRgU0mVxblWcrlNhHzTNGyvDY6o89XZxBQ0mW
+Sspio4WEtsRYRFA7CW6PY36Sqc2kpQ/0eBYW4cACQNeYrHzTfwUFuSpMoItljeQYDvWLCsuG46X5
+00pObEnfYaM3XapMCmFQWxwxOjjByZqbNDxCVMtyKHa1GA9dZn2HEsOoigBFGOROcpAWlM6QUU6v
+nKNYX1rvJj0heGPi2XBX+HQ6ppWzEHOAqut5s8m54bdgDYObBIQSqbw2uDc9zrid1iB60pm3LCxx
+KWzBqgCZMBcuzozEWpQ9tVMZT5qyATHhBxmJbcmqxxpefEe8l0O2ZDew9P3xZqnmRnDpUGbxZox4
+5HgxDUbZgGGFip6zXfTBzo/xqPn4d9o0hRmo9p00yZIkJ9E4X2WWvNqRj/M7XjWtv6gy84ArdCtE
+9+zIxzrJKTQwT5nDfS6B/kV7GU1spcQrFm6NEkBZLxgt83f0Vxd2gvktU/Oj9UmHawplXKe0W++c
+fB1X9iO7gMeORCVg2JWdaDSIeNHSd8K3bM4UWebaIj+h473UW6Dunc4AK3H8cc3twa7dCqymqsLb
+S/CGGYiI584jrdpn0zk3ipWpuyyvk18TlSc97l9YaJwEFWsgH23CKJ8L4ZwRVABn63dq5K1NY2DI
+A6p2u/AssdHJq4RsuUoxbnQOlQHLFUeFd/HMIjcgZ2oOY38CoYNsTUUgxv9pZOouvYGtZZgiKcic
+7faY9Ltk8sKda2T4jrk4qWHhHU3SR/ofmNCiHXVnX6TPj6aL9Fs0sEFqyhqZSP4veWeSXLl2ZdkJ
+JWQALoqLLl9d8FV0PjrZgbFEfVGXzZxPjiIt5xULPxTxlQqpobZaYRYu9+9O8gHn7LP32i9Qud67
+yv49le2vOO0NjEbmqmDtWkiDTafs3kQSH+uOsD78dAaiCJGKwIc3ABWZPAZg1R8tHTiXUe6zrD01
+GoNMIr8qb6SRIhf1SjigdQhdzQo95Ya2jCmkaVcOH9MxgHyFn82rtjL339NBHXuK7YmesgDje7MI
+0Kg8XDtSPcbKOnEAeGQr3sA1eGwR2rO56Yw4/BTo58rN1TKOx4UbRrskt9xlp8tTOMQ3AGKvBmA7
+TI09ResZhbZ93MFNwCupsS6nWrYuEnfrYrrrApsvsOHvEglKY+56bDPmmZGZWbO7c1USv8f+EyG8
+kMhksSZGUfQ83xSppEWeeu+s6OtJ1su6EQetnDhChxzl8LZzFs7AdAzz7hOm7buuDHDxgpBeB8qc
+MNQIOz0yxbJN3Fe6EKi299l3/PIejeJzNFhl87qHroM5TF965LFzhQWoA9+OLdpEt9dqhklwlex/
+h6oOf8O6/mrjdF9V7VEvid/GkbvT0wEX8JyOil2eGtU6htQsayKVBiVCqE5flUg5vaSMjvwMDkDS
+Y71em4n/qCqXHuPU3tft8JbX3BQ6Psoy79f8G4Hicfagl5R0XJbymMleVSDWpM5/8Ro9dnr03Vv2
+PPHeTdlWD0Vri5OVji/0EoE6gGnOY4mS4gKTrimRyWT5id1zhYq+B523Yrs4THPuu9QHKtFgn/Vk
+T1js1yN5t6wbvuh6OHdSIWrSukfsbaL43VQFSXAiXXHg79IM7+AwVktkqTfIhgsJJESDq6sH4Zbq
+s8cy9u9ti+kj4KmdJe+C9gUCPjznOK4uKrcGdIfBko4VSaE4tl6MUZRGIZThQgsEISWSZh5ukp6n
+HxeGmiZCsgkAfLNrWYCZQJVE+kOjK1hxkBAoeMZWChWR7pqoIPmDWBUSAC4O9HcOyyJ0nktQh9wK
+gUbJkKS34h89Oc3NIzfEgxGaeDsRsExXk8nhvJ3aR5HALUzdR7dtHnJzfLJ9onI2XaU2r1otGC5O
+OjREih26sHzkWP6LYK15+LFeI3+V5mEapqM5cJwdm2fMCvkSGWwubXUObYpNHBrmL1goyxJ1CS5s
+CmBSzOYzUkrOohPho951KDDBR8vjxgTqm6rpJYnLL7cH5wfUTovqk6I7pJXdrlC2WAT+LDqG9Rog
+5cKdTkXVPok2jPZdgzae+ffGba7CrtbO5Hz1o37Du6fzECOPHYQsMZNYGV7F3k/7lkOJMbEkigfh
+Yrj+eBs6eCGtM+DMc/YGi0NR8V7RDFwPIm+/zJxvb6Gx6raWd3LN+ku51avZUIZIdCqkr8ntqFDy
+tSVFp5gouvTZJxP/UHrulYffxUcN7IyyRsOnUlOV29Yo6USkb1dPoLyjSOEqmQ/wWSe+B3u46xSh
+Uzkxcs9We70I3HWk3Ds8YrWqlRugxZP+RGb6EeTMULzB9kECwCjIfbOM1KoQ4Wvsups0LujD6zFq
+1/jO8T23p94kS6Baiqvho4NJYwUk8A3VyTpaLIobFpu9HGxeT+he7Fxe8YjUUHKvz56SrECWAGsF
+O3rN0bXcarp7x3j/KMrgYuCFqUX9W/FKjTyrwSoKY98o3lStBfuMvkwlMRGZUSj2yiQ2QE8SBskK
+34ffyDuzAxJO6KOmqrygv9hm3DDICaBKhxVgpmwiT6El/a/A1FmECuvKRP7TDGi61BdG29FiDtAM
+V7uTr6CkeSrwh3PFQN7JFHtt02gEMVNMkEODmUzc4pGQWILmd/OFdrPTcetA9SALIG9p4sGoZUx/
+aGT+8L+82gkUlqeWlLNFlxGkHdp5kSztj2kgn6PDO/IczGGgi8hIjOxsQ3/rpqRZu9IfFo02EYqI
+jy6cLbRrhs+MMKqtV0ibkh6cDpymW+I5ZpX16e2xOQlaZjSswtHfqUFt3Ypikj8kt+Ec5Jyk04kI
+S9W8p7mONuEeKOvFQdFDZmxgaAtdu0F/3jAB76TUHvVx/Mlcca4kjxNZ6HN6Lz39ccWxVT/sPHva
+RyVyYZEMb7qSu7IT7qIbkQO4Tl4KKhqoUift04NLa5uYn3HhbTz24MSkhzpuaRRv1dIWxD0octig
+In7GDZZcS+rc0WFiBrTyFuixAsIYfXEVrW2RXe2qihmuNCpI7mJHMx72B2D3Qx8t9W64qpnxNcg9
+xXI6Qm/7lnf8KPd5/m5bKYgoXgp0rZ+9oXmLHOz9EUkAKccFOYrfbv6kMwwTJ92XCjcd1bxrAGoB
++MymfCjslNLvP27kuPozndb01twxB+1K7FY9vqO2oYPVz6HAkenk9J0V19KD8ybcYYvWRBa3me7g
+5NbGOLyNs68XxwTw6F3Hmb5sq19kGi4AFvYERfhrRi4/lRbE5MKf/waXtHcOQ0biiENMa02ncZIc
+eT2oGAwknN8WcetRrNGT0KeRwaay1qRPPbGspcKsJ2Pv0UrMPQ6efWH030MAGi/Rhp30ml+ZbHFw
+odBbufXL0uluNpjrm7Q+igK7PLi0AkvMdIxbDmUtLRITWWCMN2VLl9YwgRzzg3tMUvoh7GO5tU0E
+Rp3djTq6O1GEQy/S++QG5Manuwo1VHo+1Y4Wn/VkgFVXwQFGxzSYpEBY6Hcxpo9yQmyN+EYi/h5M
+29ogDaFxgIAFaBY3eCvqj8oGkS/L7sVyMVNIdh9Nc4pTAdaMG8bnMIRbO9dePF3UIGPGj9qqzrXB
+jc/tNegYKC4T82Mx+vAYgquV2rcQpd0o6m3n97cpj5+i1Do4NIW0cKMnA9dkrzGlmnIzGh8xkPp8
+6nf5VLxaJvRW+HvrPGFu0cvgNTJ+PNrdBt0oVjzR2KIYO3u9oheP4OxDZhDj0g2SS25Emw3kMZi4
+y7k7wqvEKRMBEZT0MkXFs9cAR2gUSf+x3wx+janRfnb0r0KqEJS66ZyLHKLzvOD1Y/Jp0pbx8O+j
+2gisyP9ctSn+M4G6/66/1f/9P8k/0Gzm3/9Xzcb9C3d7w9Mtj8O+6dj8yl9Bqag5s2CCCuMKzvsG
+as6f9meLWfRP3QaA6V9lG+zPaAyscwg6IG4lLoJ/wf6Mx/TvZRsaB7EdeKZAOSKAyl/vb6/+IM99
+EaX0deldjetSDvkpqPVh0RaQ6Q3HvUJ1Xs3WXhoJj74CCCxfHGdc+nRiwgPHEyqxhpWM3wYuxzRN
+q1NQbPok29Ui2I+4TB1I2gZNMyT8QYpWm7DneTcVfBhqZjlE/RCTEkFVnQUit2cXW7s1LOvZpM3K
+psc+1SJC4bS/R/D/a0WZK3vx3q68X9M0DWvLBwNhVCsFsAcmmhMsu8w+ouwfNBKptEef4EHZfDxt
+ZtzfQdlYyzYgjxLVr2ylPfcB6NK2Imfn0DHgux/5hNsBoGZl7ydG6pC+XmLnDmXwOqK9zWmykB8G
+qzKvuwy7XVtmHJwhTlZ4bSxaRNigA54sVohfJ3ZB+8cg3u1tnlbLHmAdJe/7wBo3kR6e6OVAIGs2
+tjhmfngpU9xLKCEWR43Ib999ixeoEPJO48iDaf6mQY73Ibcm3T/bDMdrI/Wh5oAwLSfGZY9/3Crm
+e4DPzbqJ0DpRVbSMiuDJj9ONPnyn9afhXYTTrz3U+UjgiONvwrceFk9S7IfpRwb9cWzpLnY2A5cU
+kpo4i26egXcqHfirEDWTFzydKb4loJ1BRMsroZg0RIKmJdOdPMoR+FpE3VG388d526bQfqOPv3gt
+LHWgMyUTDGbWQwE3MWno5K6M715ifB0byA8mFUm1a/KThge4H4QD2L+ZL2Jq1dF6lRveT1zwHxO6
+QC4XC5Jgv6XDwhEGEIYQgODv2KuphlIg9ZtrNVdzENoDjd0PmHbRRvr24EQRUAPrbHXtwWq5rvpe
+dcWg86lSZxVY9qOa9I/O/7Bsrh5TAPkE7uel5pOhqAKO8Tla9DVXbcLvfnXQMh0ErjgD92ABpvfB
+FA7BHdPqOqFJquopKxxl8DQZagsnB5w7nC8aU0sHwI3AHGdywudyE+MsbfaFbVzy0HxEEKTm0Ndf
+DAtdC3L3BMeBFUEa6xFjWW7DiYovA/+/MoNKIBTJ4prr+nIOGeY10aayEk+1dyysmKsNX/NA1Eut
+F7cidO/AkpZdEQIqbC8G1CZeKdxORQgtLNTqrZbCcDL+YPjquxCrJFd682j2jPIiIqtjIjDxd3vS
+oOiWKVGtAACvrFkS2GcfRnuWlAKw6bPf85rlYKL8/r1r6CrTxMtAhahUCR/taRuaxRF79Vox75p6
+clC9hXpVHQ0OzcAFV2kzLoMh39cBh6ai2kd2+qmycOHGO7MuVo0NCDU2rgDJMookiYA+mG277fm4
+miSglfbUFGRWaYPU1d2pokvVV6TBGgRACx7TvoUEMdIEomvmj0e0sWlc/syIS611lewYQT49Uoy0
+ndWtcrJONLA9uI1cU/OKnzcsNzBFLlYVr70RmTJmFhi/ZTNLVgFcFr7sDoghUp08Qpl36C+gGyYE
+akxfDY8BJz7LRK1wVu/sLLmMSYEEiGdc33ZYpjrPPJZRubSM8W3I7hLxzHfKG8z60eWLrAycmYB7
+lhLoELfD5oqY9xTZ5aomji3gX4Gh7J1tSBwPaD9JeBD3gX/SzGJkU99TeGLAMc62ESMhHW1rakm2
+uS0IqaL90QwY6fZF077GnPr4mCUYvGwJ7j9t8ovOl4GiNRrL6yP9Wd+uRrbPLNeeIuJo6a9DCmde
+8H8azBj5aighlKiM8r6qb0j7Txxvs9+RoI4yGE60wvNjaL/l+XTraDiIS/8dHyJPSFyWCId9DFvT
+waPjnQZYsXknT3VCL517aSouKpc4fDFDj1aFN0AHyxm4YjjpcUrWBttaYYdLIdYclS9eXh0nPvhx
+gfCBKOmmn0b5nWpbNXLXLWFCS+09sJ4hYSbUvct0WofEFF2ENCOn1WpQkEqI45JG8cfoMMTjphpe
+uUwurBr4CoaHiDriMpDriV5v4YZb1b35Ts4zgrBbiGue7mW+i6tIu8QVtH+Ks0IXfzTcG49TbqM+
+4R8EMJd1OrYs5ltAoehMCVme8WGy0yN1MMesw5lalWujbZeJ0e1d1iDbVY82VE5vSDH0NvBfjKXr
+zwm7n8Jpr9qQ7DyG6M5nyydNvWw5PQbVB7A7BF+MMJweuhQpeWxr5uPR3Zt2voixb+WT8+6k2pG4
++q21PUAoaYNVyF4prV6SCXwWuXYvvWKtNz9l/ZIIDMYBumFkfpZKXSknLNlXgaAl7SUdnNfR5/1Z
+GMPBleLdRPgNvJg4UuafQhBkSegf+848w664k/Gbq4QfSxZSr44fnUhbt0X+9O8zoM68/X8+oP5N
+Qu9cpdHnP4zozX/En3dFepUl7lMJ5ZMc3N/MqLqwYX8isLvcjiXj4Z8zKlOoI1xXUjP3Rw7vv2ZU
+TKv87235xyVwPjvKf2VGdZz/wUfhPy4ovpiPlK5HSdv/P6PWvU4HzBAzq1GHdei56OlNkABIC3D4
+ayWrPsSFOpuWtqRhaSjCA2Skfj0PkXYIOj1GGsU0YX3rpf4UeRNHq1h70zI8dA7VpRZNsQPlsK2v
+nkraQOs2udUy2AcmEoIxpQ2RtfxX4gzTvjReClSNh5B9/MFSw65/c2dWfG28Ft5t9l6atCV2skF3
+boZfpRlyTGArp27mqkoJhnsKcMJbECpR2MwciwZpge98dN6MlrOWmRuc1lCf/PFdD7F7+BbXSoMp
+IcNFuGDT9wChWJssx+lZ+5fIjq8CHFTSi3ViD4dJiH1iglem5A4wh0mB79DsUxuanGGOy9povhMz
+SJYNuQFFtZjK6v6SO3tMrm9MtlgrCocxatrQf74Q9pxPguq96MDTm3wRaPByljEqNzLlMvKDZ9HA
+YqA5+dsP7Qt3jLNeTp+eDW8zirI5PKdOpVN8i7bnjmghesTY1ZZtq//IYsKTAArUMbj60TMvqSCz
+w+2om9iTHPfgdv2tGq2TRc90ALJaUOWBQ6T8zHv3Hg7yXckuWTltsx0nP2E8VfshzI8eReZJmx2D
+AWPN4ACA73sAHZ6xM/yUSnSvpLNAnBMz/vJzK6X8zOTtpHsNfcnOi27qG4p6yL5FcwoFAqvpvqF1
+3TSe3EOuVqokBWJF9VUNk77BdbE0sLSImslIh3nB3fGRADl3AuiDgUvGSJtHmi6ZqygAR9Xa/KD1
+5xGGY/ZB8613v3WuhYhWRdhy7aYp8cEs5K1C0Sxscaf77QUHJW+ZOAIR2NAl5LSz6m3wmg7r7wY1
+YWyj5tTx4orI0YNg47gkRvZ8zDrgcFza4yyHgRBz2GtcgA0bjGTvV+aB8tRTYdOI0EYuXkfPeimF
++Tt0Zle0MH40K7wmCowah82fpMm+Wz4jAzqQTHARKhMXZlPSz0ncMC04TDdOemiH6nGWJlwJQYJ+
+q70H5LSkYQas6nqo5MUJcWcm/AsijJh4fznyC9SrAPwc+8xyMt171/RzqbgDA8UE8CuOAS+7mFL3
+pJFoMBaDj/Bb6DjpOp2vm12PcVUG0d1oh9VQ46k0uDVEwZcWhFgFPGQvR9/3LNzL2ioArBcqPsh2
+OKWpiSupYsAopvBmSNznrolTMKMJY+DbMNHtNWl2uApCwP4JApDp51Qphitg5F+6EaKeEwlsUTN9
+Wnu6MHryE3WCKXCOBon9kDNJ0LlHIhe8vlyVEjEumn3ZV0dSG5gAOyZdnxGmSe8gBVemTyCRXOac
+yuJonaKpmcFrY9C/V2M9y7V+EcOdyfDGc0qipzH3jWcbl2ytM2H1obZOuOiUevuT294+cYAcdtEK
+Z8hZM5J7j00PB56/mDr1Fub+rjCgA3LSaFgJh9L9Nfuq4Y7jeey6fu2HUNV8+tzq3F+NY3VqGGgN
+vZ//SVDPMCCwpHtPrZ9d68rZVgUkVB3TMrcjCLq7inVv4zvzAxhLLlzyIiRUF765EmuuN4w3AMz3
+MQQdHOefhk5Rgu0ug56H3UgsppiWlcjENnOg35dsiw9WaxS3okZ6zjFdPAz1tHd6tcVhfKFjbl/g
+KqDpjSHMk79UMWC8jhmuIIItoYXSCJEkjL24lDK8iZmg/taj5LZWj26pUSEGMKS48Xg+ps7k8siL
+3yqrWUN0XeuDdSzj9G5ZP53VrKYo5COAmhDljyLyCpiYbrY1CbgtojHcmAVTjZsNl4qmM8AyTEbu
+V6jcV5F4DHGuY8BDML76YjgW3ES0GVdlIGfTi7nHtXUYNOCeQ7VXgXl3E7nVR2D2Y/ebB8aqsejy
+oH2h8rs3IyVEG4cbDnTrsraOfH5WPaGCdvTW/uScc5OmBE3NCKYGYzdZXphbPAoMDcRSw5KcB/yU
+dVW07vzsSxLNslUD5Kv8Vef1th+1c2KIC3A99tF4qXPVKn0etpqgMkQ6LE19/Sa5cwry8VrNfXZK
+3iweUrULN0i9aXJ8CikHFY21bwivmWGycYz4lCXmGwfnC7bSGUUT8uga1ZsjSs4CXb4k47n0LXmh
+j5MKLIIgjbA3YjYKyvS3a7j7XndXZV8Q0ZhQhRTpzQrwKidInZ4rj9BS4Gi/auotYGVsS96YuCew
+00XI6ktfy0ERT+5BAr8cjfRsOMWRk8wuTcTKxBBR0A+zsGdQRkckgfqBc+OaS9r4FqWQSyhOSxXA
+JnGMckXBO79ixW863/Oa4oNRmr9YMvBeQkEOG7GtR30//+sjYgMH6Zk4+CJvobn1Tul2t0ymYB2Z
+zmmCtY0zyeIxBZ0jDQK1TI3xMsx4yyDS1SFrMWrynsp4JZrzo/yjN6gHicRd8yUMUgz0dS8XOFWW
+GWgnE0ycyMdVr/hgyZyAW6FBJNMQUWDvZAXWAkVI3A2xn9BxP5/v7OcsZdVyYkBErJ7e2Hb7aJyM
+RZONNKOO58KN13ilv8jOYX3Cu9yXOvNXsYsa/szGpnyanwhnBBnmjcEuoHTmIU7Hj2b0zr7DgA+p
+bTmvnlx80ekVrB3y98RenexXroJtVZa/ZWIcS5WfLXiPpKTxN4jqj/SqhwWVJKIlKGXr5FQsbMIw
+OGeCbzyjJxtQiCjcW0f44SFKh58KmagZKhpgW+3Znzw8/xXNtDJ5ohbiJ3X7cyunMzIJTDNxH3Tz
+PRbNhjfvQrTB0qLGwWXXs4ZYo5I3+RFBRPuyZzyWrnPW+NlJwMWgGFQgytPSJhU6g4WsDyMYzoWl
+Fjo3F/6uFBCWDrnLbuP15Zb+4wetMra1Di6YLnS3y94KKzpn1rSvRfadlkHLNyy21gGluGKCtzJJ
+bO8pFTFpOpUYb0I2RO2JcuAPpWF6LScS9pVGe8xwdnPhLE18sZbr/WqHadtn1adbI178++xKJkvL
+P9+V1tX49Z1oj7TCf/8jKX/+3X9dk3BMYu6wPIYrDr4zeeS/pHz5F+R4Nh3DYjuRxPT+e02aA3w2
+/SnYBw3dthz5p5TPLwnPBEvJU0j3DNdz/5U1Cb3+f0j5rFzCYd8yPZfSjdmh+Tckk6Q3kmlgaYHw
+7qLvxcOjn8NGwLknQwfLBH3TDVUiTEIPlU4APO+9q1mBbvTGt97zVk0dbk0ZXE2kQzyI0z4JYDOF
+U10+cGa6lfT2cJ3smP4NnqUqIQ7D5xrJqOMtrRIC+TUlMZVwsa5Y17alm6R1TPL9w7WeBj5StnUD
+SPE6lswA+oSXwWuqx6yObpk+oCoBnxqHQREZ779CyEvgXne5lO26QqkF0TTfCjpuBwkO+zkAsMRx
+hhIchHBvQYyFlfxWgO0XQeT9DAwaCyXwV1pE/03uk2NoPRFIBik/5L8gV7PVNC4cKa3FKaCcd+Eb
+H0UHi9qAFbrj64DGUeM96nR0Z6WMF83M+5ttT0sMOlgHeqxSwdgxYygWjU6jfdFxt5luH2LZXomB
+LlKR84YzBXvObLlQhvFddvSGhlwVEFyvyimPrTvfFKzg3azGW5/COHaKeMPGgRlu2Fg16yAHvjjD
+3C4CDcYkInTdwjWryezAtB+SAZoE7Ud2VTFGF5CP2PwIht0pQSUKk9FW9Qex1tDpwbBrHRSuvtSH
+Pl+UHWDGJLbNTWo4pC6hQz544XhJAP/u4GY7C/rBTx2JrUXnSBiAIvkO5PTRWeY5b4sT2+FrZjhv
+rUzeqFs4ADFPN+UfAai4vgRN6yxc2+bPHHUy3yVGJnTQXaRGwU+eQk2K1LKNm3OTkL7vqHRIf9vm
+dyF5Lfg1lqyJ5FzB3hn9jIOH14hZV8Z7DEQvpk8lUeRe2IkIRjr9nMtQoMe43tNmRFu7FdZXR5vs
+ReUOBJ4y6sep5EkSU8fBmz2Gfvdcs230XbjtbxZqajzdxkQeRovFHf5Msm9j+qp1Euhy/kpZXA5w
++R/Mmr93ZoV3HKVPrkexVeSsJw020JCMPVOmIEIXDmotcM8ehoY+YjPn+ESHGCXvESaDREs3vVad
+qq4D2ib9c5Z6DAcI13BYdMAPWuB/tk678Yz6EfvSSLypuIZDfudb+e2Ty7K7z4SwYeYktyTpdokl
+z5kyDyXvdVMFeyO3TrSo7O0WHyWg04Q3HRaD4QTqkY9WyTpkjhhJilC89QE9Az1twpxweOshZETY
+EV2YrC2O7HrEl9fZ9ckG4+pm4l6n1NDjCxPruvt2KTIYWR9ANcv3ONKx7vlYZ1oA28TmszBW2zry
+nmk0P0srhEgTW/o9kPVwDjuuC52pyj2InkNPkK41KWciJD+ACAPsHkvilTn6fp2Rh+PMz4xs0lZv
+fNoByr6aLmbAm9cIOkBpPT+5Ybo1TVwXwjJ+9QkgzYiPEGxV/KmPE01hXLitXW0NPYd+eElxfnCt
+/DNI3GWBC6dUwYeYhuqsJnrORjryFqOqx3XfG+ZC8wM+y8Wu6BRGy6j7yoJkJtZyD7XhWQucdhNc
+thgHsRmiywczEi4GDCIHuJDMpX7FNJm6pKbcCsdaC1LAYIlIUuA3DVgZiDfxKc/hxtQJ1WkmdxzG
+vJIOJz5xyl43QfPTcv560Mm3LakXBt0TlXOn7MCniigS1qIj2wVHQQbXBweKhhs0H5omxT4a/A8t
+n8TS1tTVK8pNb7SfkzZ/LYizxLIaHhS59Od/n1HB4p35z0eFXfD//jfI6X9w759/31+HBJshwfXo
+RDVJ+QvCGv89JNh/MWeZlPy/sA37j+alPzMaM07axglgWY45H/X/RkvVpckIwa/SnooO+q8MCfgL
+/n5IYDzRmWEsiAIAr+2/q0atQJwOXZPUMwTiRbhwxNrS2MiR22svmw8XgKkaORAkHn0z/AwjGd7a
+tt5KP+Lm1h/7DMo/JCRL78j9iGQzpvaqmfTn1DG+rAAdX/kH6fM5HQIa81jfA5Z56R55r1FAzY9w
+52IG1B5wKx0lZ6lVN5JOdzTKkoau+3D0+fBTImWa4YsjaTudkA4Aj0RH3aerCfqn3xT0cmYXg7Mi
+dOMUQppvT9CO1G8vH9Bg7IvsmueimK6BJM6VmhLDQVgZYDmobgriZ2njHJ2M9Bs5bDVynFaRubQI
+IHsGfZ7wytyi2hU8CPKEnFcG7TkUX/gneOiEQG5tt36KpVjHNuWF9bznGgszorMEoqmrJhIKgQXh
+B6acj5hpDOLVGPJDYLyBupv9l/42lN0jvCRcRLm8YCTbB+g5ZEKM0zBySkohfvR5hi+WcEvhGCu7
+IeKQOt9pbK5Di5rC1heY/vk6AojNjmzne4TwJfDwpeVp9LG0l0gatzokoSkJhQa9fRBRfawMtWrd
+4S4b55aVwY+XjbvKd9Y0wTxg0f2tuYhhhXns4Dlm4EM0EEwGqfm8QfXMyggXuP4mo24fFP1VnwAq
+g19OfI9azkqBbBncb8fRaWcOykdei4Qmgyvcm6e6pAHVqK5VYQDBrDZcwBaFh/onc+2mKDLn7Bus
+8VXlJFXsr6RxMI7TM0CHIq+6ydvoNLXEDF90ijCvdXwFplS7pOQqjUIDHV6CRBI21LAGb2q2Tepi
+3RlQt6DHu3rzOLTqe7A81DI6crOK1zTb+bWW5cZu609biqWa03QZqWg+HG9N4T3GXfw2lnTsTZZz
+6SGmNIb75RvGgWPCZ9ZhVfOCBn9/SHkQ0NoaU1aYFuse0uXCicfPyFJ3q66vo6eXD520fpxQa/jm
+Q2vCwfCaJsUnbDSEjNY+NRBwRuxddeivdRANk8aPp/lkCdz12ngM6mTRKHWZUvQ43/dwj9q/ec58
+hYOOwZVOJ8dH7u3Y1kMXM11abYJhgNPafOaO/uZUxrVsgh218vmpL7Jf1T7xdoAoSBMchWZe4RBw
+3PS+Ar981+tmQx7xGSSBgrMtH5Wo0AAjg6QIMfBMMApFhnuP7ZIByfJWVdjh5XeKRxyMD+NoALGF
+rZlb1ALBsYETInn/ye47SIW5iHm2PAARojK1fS9sDT919UZ68Kjc5pLr1npqB0ZYWnGt2INg0yYh
+M2n8ONJSFo0MX21OenmKfNpmq/WA32CHAf5DJe2mr/GgD7mBmJ9U24o1KIywJpa0YD0QrNx0Ufcy
+CLTdBgZiwHeGyIT6zGPo870TXu0oW7quwtyTNI9x4PEZNNZ8u2l+ttZjG4DVNj7aIFlZXYWGiugj
+OTXAH6p+D6UNSC4q11GP/MfmAeFAO1uJAzRB/z3X7TEJlKtIAoWsfarN82ljJSUGaYKgaY+I5c7w
+rBHPDvXKr1ooJ0IB7GDV4IHRtqN1VYzv/HivpjY7RxE0vYEyx0Jku57N363hDkTx0nX6pecMI0do
+nMPwm9cJj451E4HaZdM5GDDKGqwpizGjFKcaK4d2UJAIE07mh8BulyV21UAfCA6JZJfV1a7Hi7yh
+xqxF+I51WtDcZEvKWVFu7PfLdiyclZGX53Ecj3VmVVuA2zfV5R9FH1JTnGGuKk31AqV2o2WatQ+y
+5nfca99hnrzDgPqNfwfyv4dObdbm78gp30M1HtgFgSKa/KyR6PlA8S3WlA/N/CoA8/h/SVXTOdJa
+4bcXxF/TUCBLN/lzlHEW9LGuIZfZH2Hs3/oMuBhpILIM03VkkJ2pjVDrqmpTFM5G4wuw81uMOTYe
+W72tvnMtOPMefKdrDIuKHj2PmOZJ0YKrcVQK+LDFMOk6mJNk9w6TxV2NjkXKK2jIrlf5NSPhHbpY
+Pv0ac4Pbs+WWE8U8faRinna4fDRRPSUK7lrc1+NBmcYeOA1+tDE8Kk/u4R/rS2V6hF3wvq+Cur94
+ZXSvqHVI8uqZ6/iE04yDUDruMz2/NpyV4grfekpfrcbPeKuiH2GmfOpUPLt99O9E91c29Wqpct74
+yA5rqkrEEqLIpghe6PZEsOfsMze10TblDaJ6EMmH0YTrJJeHHs9K13bGwtAQlJyC6IIxOgPcvfqP
+l92ILIqPPB29vdlTwUcmI7E471XFa2+Nn0WSfqYm9tvA0h8rryGjXmTkElfeOLfuuC/EqClai7Zd
+ZO089Ez0k52tweQKLNZ8BoulkT0ntVxBPciWjVPe9SwgBS2sNxIErEsRPjFCjlHy2YzOo0PfbTb/
+6A0111lBX0RnVdQXAW302KCXcZju44jCIL9TR0p0aDBv2rNpTgQX4ElE7gaAgkHEpn6o+np4AM9G
+ZWmT8GiL31ur8pn3G6KF1jG+UHxk7gzk9qgkfe325JmS0XsKK5wzPd/AzLembep3Z7oHwfCX0YeZ
+QQoZpuaJXP4qo6VBmNwTJPgEDqEGL8wHVOiHeOSx2mrspENXzmZ1KGVMcZQt1u0tj8er73fEtP+D
+vPNYst1It/OrdGiOFlwiEzckDbZ3tcvtshPELnPgvcdQr3Qf4YbeSx8oBg9vN6kQNe0JI8g6ZU4R
+yPzNWt9qb6qEo5FWyl2RCYFaUIXWSq94B1wN5JwSpzx1GItAu7TEys2zY2vSTOdh/VJJrCiD/FE2
+aU9mcIrrYcLmZJRbA5/tv04voABg/XkvcAizr2oaP4P/+Pf+b9vqP/6dIeIfNAbzF/mtMaBClCbn
+PS4rHNJYsX8VAtt/d5jYuWCOTUXOjORzfjYGjA0t5Be6oXSUEb9rDBSDxd/bt8VfaQwYFP5zY6Db
+qIAFDYLrOOofOMhenBtFiWN6GXAXLILoqRwaB9nrD9stTr49P9hj/uUn8jQY9R7kyznETLko0s49
+ZtK9S1p2bRzWpj9uA5MXkuSRKj9wmbEFw52iOxXkRYxrplcQWQcZgmO2QAOBA1B3fuSud7WCtSzF
+ZWyDbZmCQKktYmAJM3S9kCy17iPWuo1mTqdMFGvuqXuNoSuDE3rfVLAbmAhLwZI7PAJEOMQImDT7
+NjTN54q4JmSzc5RVTftcsehckfY6thDKue2BZwJAZ0dAcufrpFe3uTSBoTJebKfXEWUqHXv2AnhR
+LI2uehrny3Pwb+q0u404LsoPHTa/qF7Hbl1qxUOsP8U0Kmnak7Hs7MLm0/AArTTIU7oEdO0ZfcqH
+ocpzgK4LnW9S6qCip53vZksfOG7QktoYJ6gX4hxWa6IMfuJRLAliYC0VE/TYeTndlH1x8qLbAl1B
+JcaRaaTZypDMizLKpLDLto5gy4JO8DZuupOTp9klrqZspdUTp304AW9vjWdjFLs4G94L0T11mgU6
+1z8bQ1ye0qp8Kobq1RrVnZd394HdHnVWKtAa+y3P8Tda25I7YXqq8Cw4GbV84gR3hKNB1bcD2CQs
+dY0Kr7Jp9luvcG6wp/Nb8NnKJlwWQWgRvW3M6nEuVdu8VgpvXwehyrCTg+y4qfjVL0AD3Jg1j5Vu
+j8cB+6YqW4ZeZn0cjfg7LplLOua4bC33FqvMoweEgBAvSla79SEcsQRcDSOIM8mQetHPhX/ua8My
+qgOmN3FEigWhHstUQ0dQDO4DoZr9SrZsJhnNEOAQE+7Aza22EEvfhTY+qoLciYILBA41o7TQpfjO
+UNSxv4bOU7fAd4c6KjdOiemyNSXxGApTFMxmTX62ZkXf64wBuO8WM5OqPy0okJkbHCHnOSbEHQ8j
+P1iTwSYUldwyOwGDQF1PdMw4Hpshfwwbe+eY+l1cYTvv25f5ok9cGpE8+xFUBeYcO1qR1reJs3Rb
+CY18ish4c3DDFgnpHq40Vo5mH2WQb3HqdQsgnJtWIxc18c/8ujZTQCiwCASdbiF2TFhXRcmb63fN
+7eANCJPkpm3qWbqdv1QB60uH0lxoKDRNitzZN3QbpT1DPsI3VFveRjp+TtSQfjUt+ZLpifrkEtYS
+k5ncMPd6Kev+FhH1NkQBBPttAdBnXHT4HxapHn7gTvhE4np0BeLHxttUZOr6KiQLxRnos/rxqwi1
+lr2Adm8TH8jzQrkv3X7PHBTrLhtK4LUti0cMd3dUwCjU8SGGgEQ9r4CD0OUEV1IU4GOn2yx0+aFn
+3ZlWGPkGzKXJNC6GoMFp5xIhnqKv1m6akxhSqNuYBpiaEx8sdDQeOCGmEXhRLvJrbQ06b2QJaCfP
+NtV80Wa196Pk5kXM8tLNV7EwkMlaNgxQOOg9CRDc2YNi/TBf4tF8nYv5Ym+QlYLw5bJPuPV5Ti8F
+VUCGOMqeywLTyhQzEPoONhAVNQjlA0wbZKUUFBWK2JEKI4L4k1Bx4CZbd/5wLzNSSEZqkmouTlh/
+3raQZnbRXLgYaH8p6B4zwL3Q7yhuRKU2On7lpSL60UaxUi85xz0Gxtd8Lo50Y3LoV2aUKZVTmqQY
+iqmlfHJVLWqroexvkahlG42qi8nmtLf66IBrNQD7a576uUSr7HLdlAN20bl8k9RxfNMbQV3Xltic
+qfMs6r2Uus+YC0C2F88ZIuJVQm0YOJeJShE+Ar+idg5rnqtIz7uTgyBQO9xR/JBwLYFF3nf4AylB
+rZAAkYCiNJ2rUy9qrhFbVz8CykrpqkpIaMEmSRiZcFBR1h1Gk9F92KXjappLXxFYFMHaUC45PWZD
+bGksO2plOtCjKPyNHX8IyUtjUVMX1NbT4Lz0lrxDRFVuMp64ghHtYaS1XwidbMtksH4QSuYvkxhh
+OFu3V8PpvYtX9Pz9LZbrvvPU6+yxQqjcliD2qAHNPdEWTDpcr0J/J+9p2yh1qHOm5VqoXesCJ23d
+hVulANQm3rLxGMLj4nOXVpWdiGekDUc212nxqi/DOziQFiFcnBC+L45hxFgsw8JoN+reR00zNMYp
+VWIZG/FOZ7ZSyeacd4Y65IHGFYQkoZGgM1sTTufwolXlSu9FtLOJQYS2ZGzylEtab7Q3RvQbQx8Q
+SSOO0gqERtNQH5CMlbtKa9od9btcs9u4D62WEtY4uhOxOCaRoiVb1KWWOTcYZd7swvqQAjgX6jWk
+OkAUxyM//XaW76SwEc6RU00bVhU3IgESNo9UGEcKmhrGacz81AhIbLBrUrQtxpoEygrnu5LFxfcD
+cvEmZBU280Jdaiz4pu6VXE3m+/THAeZmJ0fc4febYMTR4fPU+eLO4ehEhUFKGEAFJ50fp3H4bGS3
+82zjddJcNgjOe8JcqRmAAiDm5L7pjlkMw5n016HIVrFTPYxavSViE1gqxUlV0fl4Fqnj+Q+dTeQ4
+28tTxeMTpdsijDFXOil00HQVcyyCa+iPdjWRQKxIiGmXHbEOPmQNqyQB0Ozlvih83l7mXHqWQVdV
+1ScaK7XrXJLisQ0+VwZFXg6NvBHFk04r6LIN04HS2AnHctPcyDjg+7rXHjd1phkXUwxrMWU3SZFg
+Ghs4EcfPtuJmq8JwpwVQ4gy5o8rbMfVMMCB4g/YoVbauTBLK/HINI2QNQetW9v5XEpQ8jdXwoBM4
+xKo4vJoFyHExQ6VoctyxIvyt+VETku4Y9e3Y8zNBkju4aftSZdkB1EQMDsIknmMCvzKidcORzpgY
+EZyzVaK9DXmT6s4/xX12Is38ZJA41lrI3WCQEq6G0DZP3vTeJYqL24gxE2DALQP7tXLqvWlqKH3e
+faihBXhUweRZCW6SIAS53/WUG/nzyGuzYNKJJoSxDVIUUZdb13R3dV+vuJwIdDK6tziBuuwl9a2r
+6x5HQ5OfowThas8Rw5PbrxuftzCNBQ6sQdu5lRC7PiN3oK7aZaPibwgAD7qNjSOur1YoDj1Wcg5+
+ZgwOsLlFj16lA+ZGXp9n6k+CXPREI+GUnPSQa6cgN33QwgRDRXgqAwY2zmvOWZUn9UGT5o2H8hW0
+B9eIqYqdYRNAhMuFx8DcGU21UZa5VX1I02gDcBi0HHR99zjFoAyJeW+ZBsB8I36WAPixINOEneFe
+sxoEmnNK/EBcPGIBTCcBvEdmK3OevIm8nIxVBuMZlBD2D96cPe/HFrBqJ9oacy598ktC/ZxVD0fl
+MzIAYLAqfMzJdWJGn+5c2x3mxvustzwXfmw84NN/90YBmyb2l0OWYlask/dABuuJL1z7gGnavHrr
+DNuHVtGvi6I/IKy5n3L+V+Bm1ObSqc3lvtYB9NU6gD4/2Vh4BKUadz0pALj+D36pASisVrpREeOo
+k2xbgg2eunBVjSFaC+wz7KDRdmXwhTbZGIyb2hqhdRN5hizM37aJf1v3zUqM9k3ostvo1THKdURb
+BABzmVUUxaCNQLYCMvdIHY/H5DngoEKH9oV+Ge0XRC1iAJCTyn5T5TyLjtLgUeiaBQ83uUMa8WWz
+n1/4KgnWWkWRljCrs3DteQbi5MaYz1UYlU7Nj5CWq240T7aVJ0uSrpi1BqDzowIBrrf2TELWVbgp
+NAZHiDUZPRb2quLe7hzz4iDmHhqNja31Iorifhh9uWuHLnrgu6NHaWAvO5pmbHzDIcVxOMNacNdl
+LtXaqVpKmYGJq1aNwTs5EBs7pFiysuizzFl5uBPZLL1x6XpT3Lb+wAEpu7fWv/Zt9SDnwXBtd+/E
+ioPsClsAdmV4qTpFnjhFLjeCfgoFEYld+uNfZ75hMoD48/nGrym7x2vFePKPVp7zp/+mi3IsU7Dy
+RBpFmq7+0z6i/o7s3WB+YVF1McplGfpzssFLaWHq0IVjzHvR3688JeUGu06DP/CX7SPyn+wjFgFT
+8/7UtO1ZgjVPPn6ni6JEdloLDThpANrd1DbHfJaMBCZPjm3u7MC9Yy+3HiBajG7O3hGT2nRpcNd2
+aE5IeLHlYzR9Y3gzwh85Cj8exlUXY8Tr7FXs1rs6L7bS6CHLfLugY1JjD2ny2NissMpwX3ExEr2J
+K1EuHE6pTjlbqZNx2zb7wf1QhP2UfkI6SYQ22Hm1UrFqrWkRxfLoq/ytGJlYJNqn2wHE8NWw6xJz
+RzO4igqfiMtvMVEHlEReDEyaregtUrjjCox2eTceuqpB4QOJNJZkWTcXsmHuvPSFnZe3APB8gbxE
+aiL2z5EwQCThYwB6xVQfjWmfLDe/RflMvFv/3eAyzlHl9n0Bvzd66UtnN6aQz+NknwekwaTvctpQ
+kozMIJtnz07Ju+LQs7TXKueaIAILletuHCFkkcnHPNrWD2ZFu6aV27RvFqbbTvR79aGdrl0ZHiaW
+RpAi3vC43NpqWMOsu7RwVEzirOzxTh+8Z+FD8wQdESqO2CgDd7VWZr+gmI+7ZNXoLZJI6h7qhzSS
+5AleaRTRq+KO1aY7vzQeUJauQzDrHWtY2Ryc6DOIrXuvRMbt+jcRflK2g8z3i2gDQfE0TSiYAsPc
+a0zrZUYqD6w5M7v32uRsI9iwIfcIAoCNwOZDMysngh5xbRLcNRrCqR9pRrCFnbTnri+4Id2WUBWs
+Q34FJETRpqAZhU4KWjbZ9/YJvTb2t7t6/GwQYBHP07O67YW7cdhoxKK8+LWzCSn3zLJml1Gsho7w
+WjvaIPk91PW+oWGKRbDA1sCHnmqxrcN33KArf7rHMJS3N6XJdKl+JwL3F5d5dCKWZFF1DLlY6FPQ
+sa3UqyeXq1bO+RR4gaLgdWyZXZ9NGNuj+VwQxesj/zZp1jPjgmrH7/ahfjdxdGPkXia2CRL22fFx
+KRcQi/YJhpuuv84DGd/INx7CuTFe5gpyP0VwWzx54k0j4MOIHwv5okHARWcMc34hxi/XvSKwW6ag
+2PWApzpYGca2iollmyAU4Q0qjZfROXXYtV0KqEEVq0Q9EtpjawWclW0MClfm+4mfqUb/BBtQujdu
+IrfK/DK0ZeIWd2P0mZXEcg0YVlTN6pwwFs+3V+XYPbTe+6CzBBnkJmPbkpfN3vPNlQ8Ra1kwUNSB
+BSak3aMC1AQGFe/Mejze6GrnsQcvTAvTd7mbSDCwonly4xxsiyl+ba9U0u1yVS7rqjrxP3MX9iQY
+svGl31ymsj1EVM+FU22HAhJuW9DUdkjcrKF5sSp5AplOmTK809Mv0rBhh8JNbybsXJozJKFj3W+i
+kK0Xq2QTVmKWgUimSgxw4sfjcygpr7XxGb3EIQKWJLRzn3ZLv/F+KONFd/PDLxE3mJ9sky0jaEkg
+WByVdIasFumOS/NBztPCodwASjtKwWmixfXeychHIEjXLTtaIeEux3DGamL8UWH/5mk8z01nrUMX
+w1JU72OaWyuK+W5i57NGXKRlcpMQ5GvJJyc+6Yb2gNbvPpk4TKUiBknT7xXWM584YIexj5HtLW77
+cZ5OWZeeBNm0nPNeCBNOEmcxl/oeAVw9YcMOmTTuxjK2HtKQSWfXu7erTdvd+R6LLwmlbAeLhYiL
+VdM0q0zbDyg+0vFYEHLMPGQ70o04PvEvafUqWItr8XPnPQRMcjKLyFGdJbxGLz2Fpw5nWEegMmv+
+rQu7YmACXRDYHfrDMiSAuSKIGZXvyiaYefTmICyc5Ai8U4KbbQKcSUVc63CWXReZP2kG654jfigg
+1k/NWTY3LddH6oM+7CdAirxgDFtxla8a78OrIDuSJAYWc6l76BQ9MpmZ05My3TEMz36ZWEPWIoy6
+BLdPNDW+b7oln4QFVmf9oXW3GaZKWT74hFrHhFuXiG7oJh2MvjCjXR+0sXlQ+tklLYq1eh52m7C5
+LeK9FYAmmGGg/ckqKdantU+0duCWa4PhROGN25xghNTmfcJ0Tb6Wj/S+PuCJthKTNj86hdqjqj5g
+Dy9ihPV+voQvSWC4vrSnm9a6Ts0pwWwJVoDzpydWJz0m/uswEsYDP8khNLz06IKR9RZPzB32GU4R
+4sVx9vOOQUoMviw8jYK7wySMvEAzSD7pbEtsAEX7e9RNqxiXgUaPklAs4ASp3UNHYe6E75qG9kMj
+0Gid1p9TgUJhSwif5V/T7i4cq03dcO3gKNrNlmYe1lY/sOqgnEeal0b3oynephbTTnJrM1Nj0b7N
+ANOPRcIlSVURdTu9Sa6VGd53I/I8N2byX/g1KJ91xr7QHv1iLheevcJixB7X23jWnJIUv8M7cYN/
+7VgIcM1FcMhcUq34VqnDuP6W4FPd3oJgYfYQbXOBWNVP133gEom2KfxoKyL2JfQYDOmL4lPVR8qA
+Vsc7J98jrdxM+bTArbTEpLgZNNRdYz0z6pAGqbY45IljgRMhO1mQgEKQ44p3uWYkbPKf62bd6vfp
+p/WjPILCXRXoyTvzqGODCL5Lkg2taINiAz/Tsql5bNt+a/kjxwk+ryrWgent+PkyAhzK9Fh28VMU
+I2DJ2m/dR9mRxoeGBCyO4J0zS39B+17QCq/+dep88X+1PxzCz2nM/mBzOX/ab5tLabP7ZUFpkpWq
+9J+bSwGMyJ7/o8n+Dpc4lf+v9T2cIkptF3cDHiYaAPtnfc+HEDTySb8Ckegk/gLCCAXrP20uASsZ
+AloiGCXDMv9hc1mGXWMr9ObLwZJfScVSsmSGUSXJASbpoZqY8QIOY65S7zxs41Eb3ueyPtTBREhX
+cNRHuDJ4maIo2yNq2jdtu43MxACyIh9aPWxWLI8Y/xb161DU18BArmh0MyfTuRvd/uw4+Vfe2Li7
+2CbZoHPceRr25RXJ1gMPW7nDyUQn7fnunVeFJ20giKPOp5cez9QiIWYnctyHFlUfudnOshhtF0pN
+c1fAT+VbQfyHxY9riZBa2Io4B2RyaKZuI9sZlajtIYUtK8W16IgdfoWNjxcMreO1ZjyJAJ9SRYFc
+A0V69AkuldxeQysfpyRcg1NcOSwRFqWl36jcZoqFA6RouUibyNlXsfcq9JGDTuwRpcFizOrzQNHu
+jKDxQyjLsdHuIyd6xr12rDTbWtgVywZ9rF6DaCJ10hUQ3tJ9BABYb+KVb+drL50HwoSnxgNy6tmD
+4nyhuwYpE5xDW8fsVvrbqc22dJWz8Q7npyZXAUQXiocHG5BxAscFsfxSB1sTk0xVFx+4qqntkNjH
++vipUv62hvlpGMPZzJsTiUubIJGbwMFTW1MZTGSEe2K4Lxptp2XgQ3QWmTZp22mj+Pm4ftJ0mZeK
+vZz70c1eUt+EIaIjNMkZm5PJ8anrw5NeDfdRT95GV3zZAdzLyeVSqYyDw6RHaoogbnlSibvrMOwu
+usQ9JygyKgY+CFa0E5HdPKe9vzZGuY9KAqrj+B06+tpiBbvw4QU0hLBj+MR7WasOm190MpphVVcf
+ASk5DX+jHKv2LKYDxaRvGyT4CxesKwyym1Ivr7noKmIdYPTCCuiLzzaY6XfDTe/iaOjT9DhW8lJY
+uA/seh9qA2iUVqOdwpJKj1zAn3LZSVbqhxVylcka3LJwgM/RjWSugDSQY7Qm1nOAAlUNF702jj0a
+/MZMHwwAM1OBPduiUIy0aF1kkDf14h001o3pJuyf4xChjY6BqDSh5HVHAwf5IlP5kz06lxIrRhAG
+2V2lqLKn4tUcBeVy9GJjjPNcEu/z6ASrdVV1AXjcST87osDgQ1ZBG6HS0StAYDEz+pR5sbWCF56h
+rgOBaAnvNizUKW7x3fbj54idevIlQubUfrMi7YNK+jAy8FzYnXWJqpZ6bDxaE9s3hQ1nGPuTrrP0
+GAzWAj2HwkBW71JzxX1rD98lhkorsT8qBIk9NyfW06EAbGtBIZLCAGkfspxhFFaSwT7/+FltkCpc
+pe2yLK0bzcQ+3RKiyRWbEbVJfN+qq3NMpaWxw34LIocUxWlYWxIzUB1fFD23x2gr98Kn2KoucZvv
+M78/SlM/9779lJngkkfwYsuByOE+GV+7obzalrlLQhcben7rdyb9LbG7fe9c5ZiuUYescRIuAWqs
+SUc79UbVr6KKtq3Rwy8ZDbeYll6tmIWsJW7djmQQHNW4dguHUXbE8083AjMHAR9LmVRuU9O48aZg
+pTSFzxjUfK9tyedZDYKuG7UVq1sXwbfF6w9EGtCnc6wHcqKqblPOmjPcTaPuPVuB9hnWBhG2dXVI
+cKHCyQZ4CbdMRsTiTiUqb9DGvqlnzNaBUxhD1zIgb/ZJq/gyZbm2OrfYTkGzCxV24MoIOAdTimYr
+fqq97FgDAhdOuIPG/shcdZmCofInuE1ec6M0YwI7Gj9bdXqJG8YVcz4KiotVGwDsLO19UVOGArTK
++o/G47fVEi6TtcYGn1m8mHgYVOw9Onp46GTxoBHtSx95NBtWHmh7D2amH/IyuqMhWEkIBXXZrHU0
+iA7jAG5eCi0LizoYvZnKE0pxcfToXQ75jSa8z6yx0auZKXx0xYqp94i5TTIWXUM1/7rUxTD9qxbI
+Jy9vl7HHSjkTBjm3sxRwwDkeffa22BroLIiY2+bA0pVxANvLoyP1I1I9zn3+Yc5Drsh495XDYAFZ
+OPyKe7YC2ziiGRIw/Hhz927ay53A30On9qxkAEuWxZqv0eEnQffdE1zJaTVs5MS2EWozyICltFr0
+q/Yl6kH3uT+aKd82mb9SlbnHbWaEqEdAl9adQJMK5NMv0SyDRUo68Zabxh5k8PtgWVcUxQc74JBj
+2rjTuwgkmH7Q5/aCX4hyS/bHI5rbgXOAhTVphrQEbYTwmRa00FvUL9OVfd+nFOEJphnmXokAibvD
+te9lbPfrWgXfQgjCoNhcwQyMGnNTOuFWSm072IBcHR94kw6WtxuBouQQOvqG8D3TfeJeXk3xcD/q
+Lm7GoT6BqGCIwrpNw7O3IPz6vivTd00HKuh2L8RlFBvSX6+9j897bI6BniJdL9/M0ukZ8nWHTGHm
+HGCEEp6AxCHDz2U1p5wG0vFqPGUtMz0nQ7bQMZ0bC3VOvWkneiYlQUJieVu0a4YzC9FU+5IJpi4J
+RB/FHmfpoTPy5yoi9kbvDk5q0A1GzbeFBaOkebfzYOdIdzvZHT+2C28uizqHWiTddU5wxDG1rSv9
+y4UiYyt+b1a6lb601o5dXMUMffeUOOTN7ANvoLkMUGuU+5mazBLxLO4HgFQ7gdtu6ZVRt3QYtBC9
+aGPVQOzBwoFyIl/jtL4kDS1xVQY7Ykxf8qB/bFxt6ybOmWwoxkeRf5IBGIXpCdMX/sip/ihi5JAJ
+C41Ayze9smZewbny9N2/TqMwu47+fCFwk1y/rn9jD/hdJ9fuDxqG+dN/axgMZ+4KDEb7CqzUz4YB
+qSODfYOP2LxA86f87Bf4s6wElKsblsMf+W0fQL+Au1oKSFOEp0JK/UtJNUL8c1IN2asGi1e2Aggd
+jXlf8Lt9AEO6ssEXgaCb5gVOBJqLVCvXBAR8F8HwYipkiWmaoMAKb6bYv8GmHJKeBvRG5PFjXPfY
+FJIS+x7OmbWhOrWeJrtAvCEaFG+oYgzS7rj8EwZVg4tCoShckMvBfUh8XMU0E9XGrqecjxC3+AWU
+OawqdygxWuCV2Jr91EqWje1vSJwBueJu0ZdsR59cFTPpMRmos+Vqj0XQa3w0qqBSlt2VcjQiTpwD
+Up+FJEQOTFOzF3l142bJY1AnNloh1gdFn91WOs102rgPykA9PzkaMxGD7Ua2Zuy0apl3IW7HSxA9
+Eg1H41TmrxmnxZTbG4/agxPitQimvdsD5EOs+eoRM2AxyNVTYBlFVdOVt+Es5dxy+4pFhZloyLIf
+QwSdxEveG6URkM4RRbrLewAjkbR06E8DLiDyM/ahia4qcL4orr1tkdvPQS43kBQO+kiHJRqcvl3b
+rGPZZMuh7cnuC+JdS4Lr6MXuxtUxfsLAEKQDtSDEq+khaLGy+LWmI4Yqr5L1uwlqCQ3hTjOGnWX2
+Fy/Dfety8kp/2Eknf085kZGCcFn1ebgQnNY1p/Y0H99WMt1XnOesMp86znfPFxxQzM2n+eh3KLj7
++TIAU7kruB00OKBaU5LVQGqrgmPILQJAifLKc+4b7hebe4asPwqs8k4N4Vc0mtec+wjW17rjfjK5
+pwDVqjOOntkpUZ+J08OoQcOCTp9+iSkcuMMx5OKdrz/JPThyH8bIFQrux0Ez3+z5wpxM5svIYZXn
+7DVu1KEatu70EUtr33LfDhJsr/tDq3CNcxtbrBwibueYZa3itjbVuOnm63sQw3cwX+gTN3vtoTpN
+uetdHGvefPnnkdg7VAPgMElFy+xt78EBiPst7TLeDd16t6gkws7gd0tZMVBj5HOxkbXWwa6+S2oQ
+0Zc3HTWJNJJPHtxrnev7OcR30NkTFIRtsFB/ZM1LH2JeCFCh0noazXiX+LgEEOB8Orm7qXWdwZUi
+WE6zYRabd6GXLR3QRAsRSn2HsP4N+tqmc2kYJrO7WFpxH7nGg/Irc9k33lNgsznGkB8SlW0cTCaa
+tR0cO0velhWLg3I6+iBAoPSv3TmqrY0/dQbemHf1S9H2ydrp7E2Vim0fHEY2ST0UWxG3L1qJ/d5y
+jlALDibaaOyCvFDrsb+EGUQtfxslxqNAO9dajJ7JrkBqAlJYu8vd+I5cmvMYRHeu37EmG27ZkGxi
+K7jVNX/HsmJXxvF2AqwQD+PN6NDJQYLHotQvdXNEt8RXCpv40E8M/Wv5bvs8BCnQYq5uukR1m0VY
+4QuoraGx9+r8pVcwlFx7OGh1u7I7dZ8jPMKEtyTmaBOIDjGtE+qo0qKLr9FzpNz6pDgYPaJqzitJ
+aCggmwzA/8iBwAHZnacItW+HB05ZwJhqaCteUaxFqndE+kA+mY/Hqum/08m8ehxXSePeCjU+43R8
+MTv8kgOFB+EV+j4iO3fgXU6xXueTsXHi5IRXx9n0k7GK+/igXF8uuom0Jn8SV7shlMjrBnjSeYey
+je5t3JAKG82TaeccjShkcxcxZTKPS9wwhQIryQKd/IoAL/WqCrMi0cQ/xwlkAN/zKMDyZCemSGDJ
+a98And2pxl0ZpnuaKv+SkMuwCnp8HznEOMb+ywa6rGgrHgUhfoxN8kbP3a+1usGWPlknm51aEc35
+e/MEFZxEzNiWZTtyp+lSlazTPJ41hCN3HTMKV3g4UMhMjC0DUFqAfNmd4Lch0rAgN8QGvec0vbvK
+v9hNhEodwYoNcZnErnDflD3ecBMPZUH7XIR3NgMzojfZF7gw8oIJV/qcspAzxdASf8f8/h49NSJg
+UWAXJn3AyQ9FzwsYDiO5LVRyKrxOLCHD0PqRk0iT9P3bpLMBz1OWOYhjCRT33s0RRUvozAAfjXdy
+lrAyBfLb06ipB/zEy7AfX1U6HsDxsx8nTCwhX2jgDdGNZCcD81YmxCkOw5YEZxbcPB6eSWwpt2Ln
+P8UFwKKClFHZbeOwWHpTu5ZDeObSvi8DsamL6RDkvI3xNebKQ7C5RZ9IyOcQEw3RV7MH11+S6PwZ
+ayNI32kNvQsdsAjubdWLTaLcimk5f7uqKRDRuBYR0/7JisRDKd5sH+F24iC2JFaNhZOHXxXZjFFC
+/QvsaFua0amy830zxacSlXtHXHk9qnWbFC8K9Z4wzO+80jZ+iyLTzV2WrF55GQHIgOfu5aZvTEQB
+Y4vINNsGkike0NhhAnVkJV8ERT3XWXq2tfFOk4CHYSABw0JKK4ONjMUeYd2nUp91rGGg6E+OBbJi
+Uui6ulS+OS5JTRJho55VSbsWmf0q58O6MxuHE8k5IF6ip/S8HSP5N3K5doWlvXWeffGE6f1/TNpv
+ws8qr/MfzX/7r5/Dv33mxViFftD8MiT++W+3xXf2COT3u7m5Fv/4J//TJ9b/45cP+9/56tpc/9O/
+rIlRbcb79hu8ynfdJv/nm/z6J/9fP/i371++ymUsvv/7f7l+pYBL2GpU4WfzB2XyXNj+eZV9rK7R
+3/L/9T9z3q/w+zMO/+Qr/Fpoy7+7s5+fotmSTN/Nn8ob5+/SMB1LKUFJjd/op/KGcvrPwgUgEqG2
+k0paytYtMo+tvzKZR8XDd/nHUEjL1skx0F0m/sasDPp9qd3SZHauAigywsrCFOetofnN4Y814C/b
+npDUew/RqG9Kdqi1Ed65xjSuW0vC7QEryZjB6eql4eM8J/aQ1bLRPStoh2vS5fDYOOlawuIMgnbl
+sjYnIy3fGlp+kmVnrNImegtH43YCc2nXqE/MjgLEcZ9ImX8HqI+O1152ZvWSsjZKkmyLBQuFH1B5
+N/KJytZJQTGr/dTmLmbCdlMUAiJXKBkZIS6HwBfkCZLKvoIcrZaAVe4HFd6EvbmKZXc2gvbej9gK
+iMhe5bE4mIHDlKWAoA0en0KJOdyJYeAujQ1ebIYQTk2WwFDfKVujELM2GJtvDbQwfevsjEjtfWOi
+qIifTJgE5VQdZca2g2xbG/PzCIgo6MQqNam5UZ7a+FMIBUFctBxVs6mD4ZY54KHqETYM4TxuPMcW
+i1kBhBB7rzaauz7W95Zu3Wkscg1bbfyOcnyo95GPb7vIWWAq6XqLOsSuFFBSjONHpoe7wms2XoYL
+MSrWsYE8BTIVHupqJrJSSuhO+OhwAqM+rD56n1OR5hy8m9Q2DHOv/5u881jSHLmy9Ku09R40aIcv
+evNrFVrHBhYiA1q4Q+NtuJznoM17zYdikewmOTbDNTcsM2ZVZkYEfoffc8/5ThTP36qUKV8QOSWI
+zz2t2oaLAm6Z2C/7BvmXvpjJPneFfetnkBB6QR7VZPtQNZodb+FTO5AqcZL0h3fm8D5M06mWNjT9
++bGyZpyQQ/I6sUBm/f6UUBO/dtW4rfMbz2XBytrzjKM+Xtk5/p9w79Y0xfSGvzRY+1AQYTXMlrld
+eLe9aR78KepAFaQn2+O7XTsuNjL1AOx++Yq4HMa0futLXSgKP5td6jI88Ca4JT1NmP+qaOdjnjrc
+BdMjVfWQL8ybygx52Gyx94z+CFXz0RjxLHc1FmI0EBgy3BFEPq20FK+h1uyESqLtlLjsbVp8aVL3
+15OJ8NZDxHHs9t1YWg5oBgWrVPwyezo9Y0FFqLAgSsw8JRXWpLbHBGrDr1yxU74unZj3tnH24/Y2
+QRAyexpUKclO8Kt0CfJJCiUd1vKt8NqRp8zE7FOJcU1f0vPMEsqEl75KZPfpWM6uH/z1QOqZjw7L
+hKxjIOgZHiR1IEH0Tha/JG9ekz6po00lEIKbkTTBTM+Dys2rvpqPltG9h6WzLXDmg9V57afx4hTy
+uZi6dDNmPgUUzVbP8ZWZZDhSM3/ZR+9bepPJ+hu8ojLwzJWnydYFZwco+o58+oaE9O2Q2AoFGOQJ
+fMND7yTXcmxACiRskqA94PKo07cY7GjcEGkq9WMQufsAMKLj5IfGb/eQobZWbu7ZXtzMk31VQ3sN
+uCcwnm0cid87GZ+ki0Osa6F/cjNBZzrRFss0DyaiEtlLQ2HhBvt9trNJ8HNlPTdmt7U8kRzRlpcY
+IegCbfFYd8URQ+++GfsL3pCznSGahWAAeHHssDSfxx7bHFuHb0HhN+di/uamADgCACdD8TnSyHSE
+Y81iTYVv46Cw+Eb6NRBlQUk2GbXAO8eVPtBw9VJZeIFsx7sYsiav3d66eFm80Zs2RdEejMG+uOjN
+kDjSc27BAktQ4Iv4BWDHNomSLTXUu2YOb12XTmx7tt59jAWzkzwwIt3HCQyWWpx48q/trLsugcQV
+zmsrGNvtPFLX7JDZPwrjLUkyBEynuai+9cgWGcT+QPi2hCHd0rmGbovlmcd24C6VVg5gmrp58oPu
+Qc2x2gaNnW4c+IcrUyERCh3fMmY+g3vaVMxUvhg+Pb8gLkOvGjMDK6h10BHKH6y7amJZrHrvJCPH
+pc+P2cUawnOX+FAXLWb+eR9y3XJFeuJVDKWTFHw2ixeTmpR1RMkbrel3uFawnSXBVess7G1vWyRi
+3dlUArLmu/I03nIBATZorVPa0HRFLQ07lypa23F6VtzQwfIFLJqH5H5alm9RPf6qbHvfdu3X4E2/
+DCW/mHYB3cFpcKAUOzVYBFJWTlPvIzLiZWvdRWp5mtviR4biutM58q8gpqb9u6bomCcqyo57qCMx
+uSXZb+JwumFlwGVdRTutxDEmc+K5FsJ/iMG6iXrUGvxBEyW28Qx4zdmmHSNxPxz82d3FdnJVQoQu
+u5dOuVsSUnuDOgEZ+1By+00jUcAC5kVcGqTuzQ84YReEdwXGmZVmXL8REvsSSXjXzkRHWweLk+/u
+Cvp6sRtZz4SP31S44Ow81gvaEhtXTby82ltf8HqYLPByJD5BHnPBphvy5MwcReh4C89i01bxuRVQ
+ukLcMGNUMzyoJ2c2z7S4/ercz7jmb2qro5vFDt76hn3RdGEHTSq4x8RlBfMZ61S0h5PMdWBOruxB
+nRUoxA3b7Qk9hoFLTwQV446nles4yjY50oFdfwnfjw7s/kr3Djwhc+ek9lkGw2kKidkLw3tVJrCw
+qToR2WTBlW/rocbLZW9LXZyDwdiMQ8hSzthP2ruH4senrdxAOoG8TABuCViixm+oFWNs05+eir/C
+VKHDN0eEdcxQLGqF5MXBMsCp6MA02cnNsLx5YKE9EFlZOhpUopmtOdqkbfOgBuAPPlUNbCeI2Y1W
+lf6iifA1RxRxROZvwO+z/q7Nu6FjrJ0rHpSEf7ItHM1qY3XpOQKgGke8xrpq7VH8BshB3HChwhwc
+m5ve9/q1TLDs0la5mwvuSka4bC8Q/4KG/iZ8oykrhmDcFWzJfR+L0TAJNJcqfeLJS3lFRjsRUa02
++lswmC+dXT7pqXVXWTLtjIJWKIu3yTQMjw2Z4AHPMIfTDSU279Nc/syO/eSGEnOgvpQgfSOjvDdL
+JVZOJ6kYitESWjirZzttfmVleqCK4DL5xr1c8MKxDdIWEBzvX/aMbtMd8pHstgPvPAN8XLretmoL
+CCQcSjAbqG+r4uAOnwjVvjk5P28A/G7GZ6/Didd3it7Bmlxh2ZzTuq3OvYFJQclrGhrYdtTPdQrf
+1VPqZrF45m0eMJy6FauX4ckX1S5uWZqWDUwj11yPApBb5Le/DLO4Bw7Ltckld+8w8Vd++JYLflC2
+OreBc2WK6L411AsxjadG1zdpVBxGtEdpjXiLu20coAhhIB28j4ltoRitDbvdLUREhyJGnMuGtR6s
+/uB3dKsEwzHrkk0e22yk+2ldx/G0DUvzg4jRlUVpl4KXnOC8bGf+6mPJV5Y6r/4wO6s2Ds8pxdF+
+PewGRamOzhuAH+ZDPnBg1OE3ogCuVb3pxpQLDOUqHuW4I6MDtPyK6RQGUiSLkXCQA1gmz58j3DTr
+RJfpqTTDn2yxWnLonb2yO3d+81zMaUiCijjMHJK95OfiYvB3dkZip4d4dKkWCqwKB3LGttehcckH
+gjgL5wd5/kMvZ1lVN8P2n/WjTWPDJyaxHysfM70CM/9bCVrcYfaIfKT0IFinyGGki1u+Yo/CTGIw
+H0ujmVu6CvVwxtut5aMZOQZXDDVt/6HBrHT96hKp32vL8jaMQPKwfpw1FiXz95IyKNubpaHMCr0T
+/uOPTqFfJcVTI+TnX3rIKA93NqADOd78ZFo7/viuXMUrpeunfVZThwaBf5fMdG3+1iaWebV5XorE
+siL4bqi3o/zJuf+tNGyIsoGt5aK945FqjWwvW75pv1WCdTVdboXCltybLcKKzu/iDgnR0z2iG/nT
+fyz7Yh2pToYlJbdi4LRRXRlLUsg7BB7NRA6oE8JBv7d4VUaVHSKgrHDZouSamq7Uazo047naUN7B
+vpWu6L8UcnEFmc//o4krZ4VCPNF9tLIOQKw0u8sop99acP7ct2VL5+G3rq0xjhKOyPDqt4ItEQUD
+UTeCi0XSvP1WqjWbDWUcscAGj3kmEWVHDKwDP9tn/vnPFVqTfCMmMT53ZZq+coTja7aieDvSnbd2
+E3arYYMzzMobVFJ23XkSY2Wn84oKh4dm0eQIkjw1EkB0j5K+NFlhCBoPVef3F0xp70tR1ZByzizt
+VPZQXv+1mWqKInDki99+KaFqM+eTN9wm9gKg0wOZx4RayaVqyk+Wo4WOqWCIvB20iD+3So3YgDd/
+aZQyBhS4JOCrzVNdX3Op4BHiBxPkxV1bUUiWd29Wmhh4bKp2Hf+lFSpqSa4kPOV9yeZ2KYAyNC/Q
+pfyJS/h0rw0gHFaMOSTqtDg4dcD1VdIAiiy+CWk9cIrprpfmiwJZvwoF05k/UHNMm8vKkvOIvTa9
+xdUNKKo2P4G7fgAcvSLzx9EwlTeyY+YTRj2d0walT3dcgY32W4+j4EQxNyQm1zLA6+6rL3xGzEiL
+y71o7gErv9tUf1ADvc+jgDJ07FUicl9E6bd8BnjV2MteHDzFdx1YN1hybzji7Y2iZKRtcO4P1I4M
+FV15pptdQgpJpC4urpmfxqWpRKUNwA9FXwIlJkPuPReUmtgeCQZjpuaEuhNF7Qlj+T15hzOQcvSS
+gE7S0Irg0BsLYoCknVj6U1qKVJzBzDemu3Sr9AoESVL+0rK8nmzMRuHSxJJZw9dINUuXOLfc0n4J
+Y+ygP0ZPkU7ZFFBZDiHIWtpdhBlsmoEwUipI/ZqzglA67SOW+TRU8dKhJKb2T9XSGSNgaSxG4XRp
+k9HUyrD6nzZUmaI9tqd4pHkmHZvvLJ8Ukop9Sr3xjISOOy3cxpTW+JTX5BjTKspsYoNTISR+v+6W
+ppspJIpr5vENqN8PLB9b25nezY52nCh2GSHHX9bSm0ONx5asDSoq34hi6dYJgwmnBryv2Fe0Oo+P
+aUgHrkUhT5zPX2Esd2YH0rFOD4QB9xZuKe3NmGsy/9ts0Ysq3hA9DW9GRbgReHBRzMz3WXPTMIyT
+f1OrlpdFGdHIFzmU9HrqbRoZNDsiMOXMHdxurqexpZ2P2mRiZZjTZWWvi4aOIQXMYGV7Xw5qxxqb
+966tpg9VGZdMswArMd2PXeghueqrMUbZ5SVEv6tE9V5qu2ZRX+I8ukyqudGadGock9VxNdpYQpi+
+D+MHzUDIT+iV1eSlG+ZPbUr8kEa+q3J1Hq0OekbCvNjQCVDqkzRihuncS5ETygfsH4TxYTXvJ5mC
+U5v66xAG79oz5UfrpifQ2ec+rq6Za5/NHjQXt7Jy7czeKxnha4uu81g2tzW9J5U52sDiDMak2lh1
+kqVBoQV7MPCaMbq4oYk8jc783kV4rBK7Pi947rQzm22UeHQiDm+6BcPZNzg68o1bGlfGPJ1lapTb
+hG56LkybocDOwhquE/OxCdEvYniTUwJtAVmhkytKMwjakabmZnmmimlPqemNZ8S3HEHPXkPfo4EO
+MHqYAv2wo7S7mJnsu2aVDxBXIm0eZ8Fr3agenKL/nDzvqkE94DU58v8Rr5AW8SZg6O9AwXdMwUyS
+zFBID/RokRpgQONb/jyk46OIm+8Cd3ufwTPIwx+R5S8mgkTgE1SjrBIBX7jmdtQ2O0R9pX1zW6An
+EABpWXvU1n2tZrXDHslQs1jZQv8E1Gdn0tIu66lft0QKR1LgfTI6KCreMZmWxL5rX1utfMliLh4h
+roSV0US3XaWOOI8OBddyeHTUKdAaKoae21lRvvVe8JKU3SFGM7XyqMF/Y3/HU3+AJcviebglg/Dm
+d+N1qXBGkf4b4CrztCIKBuVLNMpDWQjWgSF0jDSO6KIydqCKuU+NBzpKf0nlXMwc5pAurBuV2Ndd
+695khXXlueFnHy3p5bIESBnxZMTxhzOq7dg32zApb7NhfB2m4crBr8iq5r0jygax/hRJYAQwLKDx
+1Z+Z0wM9GIg8ehPrRhFpFlb2qZo46tQsrpWF7e4rfpiuw5GoghE0j7JNmdbNt7QdzmNAug0M4n0d
+2B/tJM7a4ZPulv53DeLN6LTFuc/uih3i2rBZWzt5A7yGD0LB6jouzF0Rcs4JqDAesbwhcFcBIrOc
+KcNrZ4b7oHosygloZfYjLDIZTfVl58BjiXwVLgqkmQEIYC7pFlyMno5cfj7dnJGplrTlAHGEIGTb
+hCTKhfpGgS6HE0tUo+Ydm4v01RRBtbbD8eg4803ZVovB7BYVlF1q+82Nl8OYTndBRH8UtHsZbnvl
+tsZ728n7pgjgcdVO9GCipngZKhSOPItCQqywRFbSKFgJxTshrtKVnPFmjXnwyIX2W/oVCM7uToru
+ZSrmXcQUQESHg27xgBQmFdP10mUIJKt1ljpFZ6sJIKXYH8d0/GWO4jiSaWmwzXJ5pxxRHGwa4WmI
+ZOUu7rwQD6jkajfC9q/y65bUDpMTqqVv9C9RwjQNoWET8a3x+4Re8/J9iJwlv2gsXbLtZlKMjeNI
+YhRtMGLZQCXQzpD5DbyVq6azjtRubkBssn8NBogL9oOvXgrLPcRk3SOvvqsqGt7xa4fgGTSd5yoU
+F8AQa9eRb0aRsi9PvzLVIXHke7fFtNP3+jLlqdgJjM8D8ADF8GXwOfAmyR/fZvs+rGk8LfcN9alR
+7REK8x1jayfpFRXglEPG2G0FNtFMPlU0k+8IZTzWwrkDt5RsZ6iXsG9BdvooFU4DR8BteS32dMXS
+93VFMcXWrPzz4PqntirfzLZ6dz2+CCNNOSCc8RRnbAdbsXRfcUuqicdNJsdGOYIeoja41TU3HM44
+TSi6NYZjlOGjacO7LF6WL5VgKd2c/30cc4u17P++y6sy/av5j4P++P719R9n/ac/4iz40//6Jwu9
+5bf5faHn/wHKX0BSPiA17+OR/Csk0PuDA9HJkY5nuyAZJCmXv1nnHM+xfnPa8V/glPvv1jlT8mum
+bfHr1sIP/BeiNuAF/2GfR5AHPCD7Rsl2Ufxd1GYEkJkaAqNaMqf5MfBMnhLryzXSfV32uyBILjV2
+m071L0UKQKaJ0p/KTC9t4LYH3YdgbbhYDraPUSon9dFZ+X3bzk9eFR5M5bxMFS/eyqb2tg6ziyiQ
+auugYTHY7t15OFuJeRdqf98x/eeu/xlRMpALusnN3vyOZHWbSXNeWYr0iMSoknak9gDA5W6GG4Bw
+ua8hUKUStQYrq+2ytMu8c0H+Il+8NxS0PQc6/BWa+ZmPKgi3hMsi6JNG/5SobkYL9qaq4cja6UQe
+NvtMRmolc/85o4YkSgkdR3hv0OOKzmaoMvIXkpwra2zuJwQQynzhgWfRngBDAZsYkjNvtXa5tydE
+HlKuDC4FrAPqeS4B3OrhkGO5XaM+XTkmd2NylglcsjjsEKGSTJM97m/cYTy2sEtWQcR3toOflpOO
+HroU6Kchrs0yjKCatVuH5Umj1IlUFItGnDvamV4nnpq1O6CAZcp9MCI7AdOib/rA+4HPgQ6roWfD
+Dht9A2QoLfJrfO7jClvYxcCzVCfzq+TfradkI0P9rArw6mNbHuhngvaEPylOtNjWNlbHrJ3MV+Zn
+d+sOANulrpsz2YUfLwWxkJniNq1iWrDpJsgt59DDim0NmKWETUYLcqLgebzpmICO7MReAsE+YnJx
+tGiLIMB8AEqBq4ldi8IrxUBZ1ei7CRfiocj2Kg5PECYdGEfxdkqch6oJPitRfcxQGdwhfi01LSUh
+t0qTXm9aQoKnzCdLH3X+c9hSb0tz2Kmo5tNQt499YW9TX28lvYyjPXz6tKMz1fbs/4a7WsT7PkbU
+TSfe2FgCS0m3Nd9xTIkHe0huGGi6oiIcLd5IOGDiq5tbUcbsaFE9lofZdza9i7eOXpR6zS1InWIX
+8rbifh5OXbCxsvLedWYA6XjPfP1BXdEmz/A5Sd29tR7DXrwEygHzKhSazjOvIj99qjWlVh59iz7y
+Qpi8BVH1CvOGP7OV2Y7bLXhZ/P+mnBFglmQNWw2jBphB9Y2Jo9y+eJV3tFruISOtby0+nxHyUpdf
+CB/sISasos5+Vgp6eyvAXPoAd5vhsVJyK8zwgNEAE1p1R6vGJ3v7tVcyevtjcufAWuduMR15W3+J
+VB+QOg5B0h7qOVgKwZ2t6IioMYnY1JKtwrR+0sGw6zqBYwrXbgoZaLTm05zHr3W0oIfUq/bsTely
+rZ2yMdnZcvq2R/8RzhWQUoyhOQb6hCKUgBuO0Fz8q/oBRxugycTc1GV9SRdmp2T2AT5QB5iXak/w
+KZ3uHcO7I6Qk1nbLxhyL/Ur5wavV5reypwAtVfuGwBZL7bu0INFSE+VKTVg28bDHuHpUCPtJzVnl
+Ef7CgAZFDnlb1OJagAyCTynBBokLKhh5C9boBMnM1kOpRgxuiZiVRMxM1d9lTf9UusOXt2TR3CWU
+1tu7YUmpiTH6cpXY+Oif9ghRmjibS/bBWvJtELRf8ig8GATfMPSvCXct0kdIWJwqQSJyNnkX0xqv
+meO/2L+QGO+/nBAWuIkPQtefKVG7jDayQuIJJYLnEcVriOTxrlg5Bn9qhDvCJrTnFMVeEuIjGol8
+36TXNXTKmpifX1BRz3HsEf/DDEFpPAM8uktGPHAmJthlqb+xTJMPKwnCgc1ys2QKHcKFGSFDs2iP
+nKFrvwFvKAXb3lZdW0su0Rbw5AkqOlP01hFcVEuCsXKSQ8Z4v9aEG8WScqzAhpvEHqdOPDCub5CT
+t7ouzuiVNhNBuWmXxGREdNJIyw1z9K7sALYTrZyJWNZELZ2x3nREL2cimJQmrnIOttIYbyYimp4X
+XldENt1R36LfyJVFOWK/pDoz4p0FMU/Xw1HRBMMLJZLuRhIFLWJxC7t8pVgbdV2zJ0q/d4OvgQBp
+AawkxO5cEyxFsv2eCZrqwL3F3H1oTSDurVN/pHXz6ijEw35JqfKg3vdJbK0bAqxYZ9iolMeaYOtM
+wFX3xkkTeK2UPiUEYJcTOrZY8CsDRxkJWddCozXTk4+eViwZWqh2320/bSxXH4W3hPuZB7riMQEf
+v5DhnnqLuk6jwKMF/kP2mON8RKe1XRMADCXiN/BHIkXjuq0xgaPQsMuTayI3z4aVXo2Jt/O9YoMZ
+96EP4hsHlWSlq+rGBufZhMjirXoISmddoGE6Y/AwhxQcQotEhsNPOoMNafUpHQYGRbGdFUfWrPyd
+Lq07pHeWB2Q6I5B1RrWfGk1SU5MCnW5mFyFr+R0iTA0D1su2IYUY29OypoOFk23T2VwXufMw5v2D
+atqHsc/eaHdaDSZ9B3BEytH7sWcoNk3enYM8si9lT/LTx2E9NqWkW6caqRJMsASU8kBnxsZJIzzG
+Fi40Rr00tG5nW3nrdhjRayB/WTAZ5vxxMHocNBh8Di3kRNWFBx/eZISlWFkz817E9CpniA4RieN4
+Y8QF+/8WQjDgo01njTsrb9u7f5+7ufz/uJuvfpW//vcfq3+aZvnbnXzp7YHcTU2fTXZFgo/6K7cb
+lxymN4u4yhJo/x/cbmnRshO4wrXwvUnu8c3iY/+v/8Rjx+9m4e+woW07dvAvXcmDZSL4O4udWP5i
+dAw6wiHswt/7v1vsWpgnudsJBVrI4X+s7Ip2qo9uiasEaX0OQ5gZfo8GYalXz6OWhVWlKYdd0Mdk
+AiJYS8ZrKhO0M3sidVhxWOLnGajPGyhrCeyCvkyKMYugeRvyeotDGE/DeO2UxSEpv+SQc0ULmeh1
+iVVAY2b3J8qxDLFO5+RcZdmOvhd6WJtHrzQpB3I+MwK9Y48ZwIi2JDPOXay5OWNH4sgcdo3l7Tre
+DmVTbEZa2vMcUjardfbblLjxvh8hwdVgtkRSvcySCnPlHFKMeybr3kaHF40COSfQxSEcLz6uqqo+
+JAigEDyRzW3T90RHRlRsm6qGt8PQHs7vJMi/Rk1IzwpfsqF57ge1Spsry68Bl+NiG4uT4pZVWR4v
+dYJDI9wXcqWTDHmvlEtb57ihDfd2zowDloL7HmJIGI/sSXJrZcPgCWZFvzMoUjWAWLFgblTurUpo
+OhVZ+sG35NQsFy5pxx9yqF91Fwfrkfs4RfN7yxs0YX2YvMaS1J1Pof9iL3UXqrau/cr4gB121LZ9
+Gpb3VGLiyDfndUNXiczyU+9yMtkqfeusYC8x73Qj+0S8COvS7s9z4r4JFsqZ294SvtuLFipkG1/s
+udtVwODh0N4ILe/atMXrgImf6M29G/X0Os32DY/3sbHUKQswBsWT+plN4+jnWm8TAsxGB0UyLfIH
+tvPpmtEKGBjt8sVbgO/JjMKrCdOYmeCpMpf+HUa8aSsLdP/BufGX1ELRKmI17Z2V7pLIxuE4uz9G
+Vv0UhfyYy8XHI+ObwYWPZJfTU6iDZw1EaAsY1+bdbb5EU/YubAxGCJ7mWi3NVQLCMTWOKsH4o911
+6PBoJRaFRAGUGECXT6DsjqVR5yttBWdpGjvflg+zUkd7oF3QC8HuTLjB5mRbtLhPC9rj7aXjYxxI
+UIp1GerTpPbtYG1SKUZWayWsA/8jT7AsTRM7MBnvAJh8NlW8H30+WM1o7DNh7lVGR6xNp5vuHrF+
+slrFNuDD4gqdjLuKvMbu/xg7+Sehhe1gyIPCzNn7lFb0sHrISjt6uJrn7sZX4b2HPxIT5rpO6aRn
+dcYQ+zE1FPcBmYJJo4+NZpYt9MHriCiZ7qHzobvh0ou8X5UXP7YjTrnK2zpt+pNOSzVPuEy2xX72
+obqH7lVRGRti8CcrA7Wkm6NWBct7Rte2feglXbbkCAqOH2a7K0A2tCDNqzwNzyhtm3khuxTI+r0X
+fSh3BL6PoNAr4giCz0V6H5MrSxUOniBGULUhDQRVfi8pD/Pc8dPCE7AKpuyzDwp+X58rbHfrztVt
+ZLh3XM041HoIo5hWgvaW1PfGDvIT32FsXfKeDOLJk9NPSPxUJ1zYlSAW7aVFgLV/IhkqxUuV5O9F
+21zpynUOMEERf2P7DrIAaVW4ANwril/CjGGa+gxOcfZgDKSEXFFeJaG5nYJwDYSPGh/7GrzWa1rO
++yDno53U/LCFPtAd9FD18UeRR8l6iItHqsnoPE/hgBOa4Q9CtsPpX26BYa9jgwpWWGSkqwacRiD/
+s/Xo4WdoW2ONCRm0Ey4hx2t2mUHAiRbKp7rHMoKQmsAO744m1pZQEKTLi4OL7UI5I9hB69q18aam
+y4aLnNNbUCe/eJtlsEYVxO/M+IK69lCOYPEtRyO/goIChbIKDetHhFgRudhhGrPxeTUz5Aytr42K
+ATohyxipm6QfWXxnh4wLClvFfBsZYKvGoDxaPnbJdrh4uj7g2/iKzBwikKEa/CDBnlomuBpqb4Kc
+2JB4SLbdkgOrMAQi0ey93Lzv++xhsoqL2cNQCIy1MtiPDT7L++lngkufT/2TCAzcbSDIM3sjTMpk
+5zTB0QGe1OAAj715a7vZtKspXRottP1krl+yxj2ZvAaOXkcQgg4VW4mXpEuX/aJ7VgbxoKi03kE0
+rjGUkGsPvaOOC+q7hnGnXIeRfXFGtdE3HNWLjIKFfL8P4p82Hm5Am5Op1CLf0oxLNhDrpFfWj21T
+w6J35I9pAjbEQru2Rh8UrYvhgdVug4XVfYXdQGUM/HQaqtCNvOgnCcGH9BYvF1TmrI/u40ZJQBzj
+i56s+yQJzxG9Ep7P3hZSM9/y6rbKQRxj+CkLPhLhBAlzvIXqilNyapgzXTwRYI336QS5Np6wMwT9
+9EwL28LRu+39vlxNabpVYnwY0uJkCUgbiaw3Qeu667JSp0TSFmUD6Q77u9KLj4OFuUJ5Byoxn93R
+hTwy9bsxH5hnukOp5H0k2McNvbdOzfbkVs05drpnLaIn5K6V7+hriGUXpzKwgnno7zMXer6SPFsF
+JjPd6JvXSos70qn+hlz4SbF7XZtJvBuxo8tSrLpInxpcJZOVA7TyGfYTapFkLI/cpA5VhhRu9KcA
+rqWtyk1apRDZ2FFkdbgvY0I9FgFMfElzxFRmhF+ODC8Tzotw4M3QpRA7UlYGgm42ARE6nqGit/Qa
+hdAm+z7flh7codi7aD7BXcsqsoviTU2+TQ0mxsNBngYKgvmQi6tyQoHp7EPTDesKaIZTO3s9Vs7O
+b/GB52I6eBnDnWMQUkJXBLzdygc+eOumdItNUZsvXea++yXWV0Aa29EBVxOau7ixdk2IL91oTAcS
+3/ChUvEpp/y6xAATesWdWkqSMN2ua3aFVdGDdMNrayL+h5O6qZCxYsF7se+gjLrXo667vZ4MiT5m
+cslg/qEJmi1pP917fXU1e8GN2Y9iSyUdyP/6jDXsERvLLS6Xp9j096odLxm1jj7+blyPLBS54TQ+
+fAWhBaAEjYDHigYj83U2pq8ZZgdEnuwO1x7wFXjLvxENOz2xIKsvcNEO/CgeUm6IGQm7NTPexaz1
+KazwtBDDcKwAf3lKwKQ0p3VepadYzO+p7Pj2a66QRSa37dSC9gEOuUQa4TzyBJnqalIlS5TgOivU
+T2Jx3FMDs3P74mw3AWWObfwlPaiJleIMKucbzDRvYwzQvgbLZBifrl5mW0ZyEijaGtGPqGzsnPZd
+w0MXRX6is+I4DsSje/Ond1JKRsJ4sd6egRNej1Q8rVLEiQiw/4iZqPXD0wwnyeQKw+LPAf8Pl5q9
+8GponJc4sTqku/jDszwMfiAdFW0bU3jfchhkw8C/yXkrVHeqveAQYq7oAS1rronuRLVuTriQkLaj
+WR8nKCTEoC+1HCDR10c0WXojsl1fY3onQv5azLRwpvb7QKY1DcFVBrhFtR9vncKo1oBU36k32MLD
+/LHm6h60TUZjV3jyKrlu4PTJbiKR2X8U0YTyZe7mEhfw7NwYKtiWqU2ZdfqUlMQeZxnuyG1sQjs9
+o4wfgIyeq6g7U4t3LKRY4cjL142Yjn4L5YGulpUsk21eEpH3aQLQAKrA36L/oZBOnrpr0IpLMX3O
+Q/RhleG9LimirnnzDhZ6kvFuksxHGvYuZPofyr49BmTnJBXROET8x6ifT2lR3wdOvXebRXXyKBSp
+UPtk4rJD714croQk/Y8WDSVhDPOrrfZeND+WubXtzTCD5hvcppY+u2FwKcP8pppJ1XnlFz1ceOSy
+AJMwbr6wvC6TdmvI/tYLMwhH7ZYi0m3ckroL5Ik5a0dV3NnOzUcYGjTIjPJkhCEneXPyipg0DbkA
+xV13lumvOoddwsJ3qQX04wgh8xwuW5aEkL9DZHz+GXz7Neb+Jt3hEtdsahuXSHUCIas7mUyKdKnd
+5FG7tz0DBbYyLMZDfLVNJKxtVWE/HBXIrSFal7q9yVPIf+5QHay4PrSF8/3vo0J47OL+XxvC6z/9
+8Suu+Kb8OUZ4/P6v/7R8a4ntLf/1XxeDLqk95E+qe0nnLWP+7yqE9weBSftvCL6/qRAk/VAmPP83
+aIb1W+PY7yIEv2LD2YDDIbC72vCx/6W9oPdP9oLIICwYySD6KJt/h9iexsGaggQHF5TOX5Aobnu3
+hYCNEXsqjq4XXymD1gv8wJ2W56Tl4tUpWHZS49rICthGlLl0pfNIXvls/R/uziM7cyTNsitCHQiD
+AZj+WgtqcoJD4Q6tNea1ilpDraK799XXPKM7s7orBzWtmIVwBvkTMPvEe/ep23gIkwnDM7BWE+Ht
+LjerCg28/zSKOl/p3vicmQ7x8WZzTi17qw0IUbgXNbcsWSqSolM51VNMcmefWhwQZEstegj7ox4f
+CYh/00J4xKkTfgmS5W03fPSzcmMF6YeI6TrM/uQxBGyN4J14p9dCsyEhI8SoJ0rmxoxssE/5uqgn
+tVrTqeTgrsbEamhNvNadkOI7wi7B/q7F9IvUAWnK2M3Ppes+CMGuBfXJMY8p2TLLeKnIpEfr+gKd
+cK1ol22B+rxsYRKBA3MAaPexAUy1m72lhJQztSaUK7kN83nP1BJtkQdsglHDL+7393GsT7jTwCoE
+JAFbA7ujgJzZYCTnlWa+bSFhR5DQEY5ICmYWZhaiOE17jDk9SIlAX9iLr0GJwIAwvMvS2/ENQ+Ee
+v3qV6VUr95H0HNZD2C9md0bl14JBm8P5TXQTk2PimswZCFdiJWcULpsaybvhhgfs40shcAs3gYkc
+kv+iAmxBarLxRiDeRq+iiyS7axlbwU7vy6ujJVffISlaQOxLDZrEGJmZx+j+z8zTTObzRA5DGHtn
+yh2L9W6ohB5Jsi/9xl4PFoW7KJJnP9VPPtE3iz6a1mU2watCM3/zW35fPXEUCxHzmaR2eNIDCrfC
+MV1QL2W2M0sOOEPEV8Lf3uI6+10zXqezvOJw0whZtKuVQUeGl8En9r5O43XigVcafXSctaZtxhrD
+vitO5DA4G2UsoTp6Ir7915TiMCIPbQ/RlFarkjc82NpizkYAvFjG+UyGNQFE1TLyxEcbdq9pitQx
+q/QP4POIRmlqFJR60Cyk/2zO1ikga3ZqBkBn87NOPEwsIsMjOCEq0RjEeRbMNc8Gls0ovanKAUmK
+DJdxXx4w5LwlY4kUNLnFtnecXFbrRSqwv1bxI1xPlkQVRWxTIJuTEWHOfcirxtKsbYNjJqxbqZvX
+KJv31exd6OsjmAwQGkhIIqqZ0KajCFG7FpZNxz4wAcnSa16Wz30RgaQNnp14ONUBGVJtcG007SFp
+9Gut8wsEw0GQVRSusQvcqnb4kEA3aq9eT+Q8WGPx5oXozdxIlCtRI6MpTfpIr0muBNq9D1xH1Txu
+pK49hBSCOrbTYLA+Sh0JU+Kl58arLlUDjxzXPduX4Q0VJnSfXCkUdbZxFgGaiwAhOTqla2P17xOn
+0cDrrc3yBWZitZxTa2Pk3br1nLVmAfKCOfI5ednO6fpL0jRE+TmCH7dAyhOsSnx/S8+xXk0/bNbl
+pFypPrmH8Qid0BlestTed1n8qhdY/+qMxWDHSCBjgW2OhMSIIToL0D4AVuI1w8/XVBTGmpFLtMBl
+2fHwa+eoAXLT0ectilljO84OZ0Eq0EZLYrpQAXxa8iyyFi+q7reXFj9wMS8quAf2GWDrsN3PusTo
+i86Tzi3A41k5wx71IoNcobCXLS8LErXjZIPKzsjWYb2xnYBWZJLZT9yb50oxIrpY/yCRaePFyV2i
+5hpm7F4Jdj5oPgbowvAa8e0hKAOPgD3OTepPOQf0DsYykvaNHvcdMiGJZ81DX6Mi7itxh/nxXMqK
+hW+YfqCYXw1J9UXE7bpNtN+TV72XSfg85tPWmoZLJ7oPBjLYbhiJTSz8nWNSWLsOdD77wJ3nkI9g
+D/ykWnPOCFRpHL4OwCaQyeyy9Mg4GqjpGTjkAEF8/JIZCY+NtWxQf4yIVvMY6brhr9yMZLI0e0BN
+AZeVJ7B1n8rq18xmLLbGZV9oyx5hIgI3P8zfa6Cbjuj2me3DsKmPXp0+9Fa9Kd3h0pMombjZ3mVI
+Wbfzm0uqtzf3pOnEVw3ZxFy3G9K/1uHgPpnFb69IDvNAzFTW5wcknRBJQnOp+TER5Tb0odI7JYVJ
+PhkfWKPzqGbFepbTyox6+n/iC4kfqDiykmNYFUdbN1jK0fnlrrVGtLh2ExeyEOsrLZk/SdHa6jHv
+CFrV2fBQybFE7/hIGVQ8mdnwM6ote+yzks2Ftaqb9q1iEd9P8dvAYt7qTDAcdEMd+S0Vq3vfyZ4N
+tcu3WepbrbXy8b0VattP1ufOzSMgzgwlm+FbIguoB/iq0UQTqBQDJRfAiISgdKp73RlbibSAUQKn
+evfEnXYKvWlVKg0ClMEXk1c5U+IERAohYoWMZ2rMUtp0RAw2Ux5EDbNSN3ASc9U3iGtmMznNSCCY
+/ZOuq+7pBnWE1qmOHcGE3aTvNoPLwfEYHQOTs+PnDhNwqJQWOLQ5kB3ttR/5T2wBM2VG/uPDnYip
+/E3UN3qfVbvCIafUc+fbXKrUIHjn+cxGvMvxDBDQleJ1DAwCHv57FtD/SQWsYM//vH7+Q8vIivqT
+jKtC+1//lv7PfyXs6p98mb8KafdfXFQxlNJU2J5uqtyZvwpp518MIW0Ca+w/ALr/CLO2TAAbVN8Y
+ISxPh43993UeUjgw15TZOuU0a8f/gsLOMBy+1H/c51nYFy1J7I3pOcIWqtT+BzpdMhgJWXV4/MfI
+ITUpHs9+gU8zRbMSSkatcIdaSscBo1StJx4EZe9u1s47muiPwWOqAcPZdIO7WeHQaJL5QJ5gweqE
+oXmUOA8I1wfyWvqCJhsBc54MOBkD38LXGzr8LQbtxmsfass5M6u8dx30rk6ahBOM92Ye0ZfZApk0
+V2JFvrnOqAI8Xn3Omugh08ebXlTpbhpHVjIBg1dPx2Aw7guX+rIWPTiPLBgWs/IQJIbtLzVwd26O
+fM6Ch4XAlFla7f7KNQ0bVeT9Hh3WkLnlQQPBJmAWAsiveIx0Got4LJ6gq7K+aylHa42rx8zlp+Ub
+X2XfEqNpGd6ez6FZdQ3ZeRjGhhWC/VfNZP3DwGelB1SM/sBGKwCL4Ho5YSQ98wdMN7tMt4+UxHeG
+dKD0ChuIp6Wtyon+PzeMX1Wv73H5Mi0zujtA3FPnRAxcRfBpgpkZgIYRjBtvh7J7dcTI3MD4MMEH
+E3kJuDfQzn5eXPIGGZ/RFAw+0gdOUWxgmVjbdX2DCKpsz82P3Q0v+H/hsWXVS6E8xin2TqYpjc5Q
+CowYbMtl1eczhYRtblODwt6uGN564XRLJmYSrDPlUvb+pZ9Q0vWSDj61EsJoZup581p05cUO4vfM
+kB+dm3zMY37UbC/dVnoxr4e4uQUtdb6DM2ThTTqjsKpneGKEKIYniyeP3K0cGA5qtWs7d88q4qjM
+/GtMvO6iypt3FWgEDOMYGB5jJ5ViRIAxh7R40YV4/BNdhBjv9iezKJTzS2wTums3eHGwW3HHmeuu
+Nw+ESNVLFUsUaA2YYZVH1FbPKodocooHr/afPBZ0BC2SOmSaFcG+f+UN2YN4Ni34SjkY9GSa3qGe
+s+yRDhqrgfAZCwvEn/ggkCsrJpmo5nkeQnKByrh+nocMDUk43Bh0Vev/k/yTJKp8J/Nn0J2D/Vfe
+DwSTy5+gH0AB3I7BJihwUZpCYz3T608mS05e3PzspNQdCctrF10HJHcs0CNxPRCoN2bpPUzGR4EL
+xoLYrODdvs6l144sGZulRwk3wDgsg/ZkoreR8cg4m7CGThu3I+zFjqALM66XBSTDfCJTysNjpLkH
+FZSjM5OsjFfiI9d2gdZNReFIvGZzCjcn1CrQy/2PDLRkz/jOXob6eE2hZP4tysYMogkHVOAcXIJq
+OiSL8MHdZ5VMU5rap/d/E2kkv6JF4MF1Vjk0YWSxzmkvtl5fVABNJgYLJRKhhn0R8PK1bwEhM1ZH
+9ySIlmmH4ZwPDTtoqLWTFUKIbr09L9x1ZOoaI7VknEvETeyQb2fbD9AvGUnpyZltu4malvRNAmg5
+wNelb7kLNnvbUsP83Ah/FQuewp59cmDDWGhmeaMETaDWNOPaRNi5rDrtIvTKImekPaZzdrYQRCzT
+2skpWFS4os3UPxnRCihBVJFmL2QIXLsQPZdnJp8zH9GubTNtDe2aTV5NNg0Z1vVUkvVi9JSvnDYs
+JtnpmHIT266zNBJsIpTV9mVKItLqWDa2BSb83L3bMUu3vuclMJvuK2qsY06pucBNjn7Bpg1zsuwp
+n/FwFgEb/bAbqnXsIGlMvK5dVWO7Fy4MR6fj1QjMx75DlycMhyoLNj/1PJvx/qUVEw7IptqEfrHR
+M1r4QmaEEc47tJQcMzU7QkHTDsKkMRbUxgWCQPEwxjzVUHyHhiqnkOif7Da54alVUVcl4JzeBr/e
+OMjX7BEnLpZT0ds46OfiJ8ngbLiN9O6WXjeriTdgxRZQLnV3XE1Tk1J8jfQB7LhEOh75fcAHSNrn
+ka/re+OuEvM2mWEzeibRs9V3q2sEJxf+QmNtnYz60bDQITs2uxTd7ttNRbbkSaKNXsZ2sWObAmOh
+2tj1tEuSYK0DcYL6Svi8zAkg9/1kU2r4PkXzlA7zRjafLl7xYXZewkgSLTscsGxufImLcTRZkLrr
+sqzXflespJ+fCds8R4gCtRS8BcTzzgZp7cv3oclOiZVTk/cXMzCPAesleI7g92N1MF1TZrReWAEx
+n5dOycso/GbJwbmLyhnhiorJcsH55KnGHqkb6F5dkwVwwyBupcdDRVaF5e6KaJxXeVmpSM0t+LyV
+5nQEXqdsgOgc2HUtAked1MlQ3RI+dbTD32lKmd02q3osYfUDzC9nImnZ7BbbkB+mdftp7aZoT6tM
+GMioy89Olj19W0xdUKH1T4vqUccXv+Cf3/Q/8bQmFljpXlOnuw2jPHtjjAMQfH4RXAUBviamwQUT
+nG3lOmgekS2v8cj/NDhXWMIxrwgww09YN8tYFdSgJ+emrhaGA2QmdvvnoCCxsunmX3OtnVovkuvU
+b5hamayY3XpVGdUVAqdNHd9Y+xLGBeuAnyjIjj2LVVEhvdPqbS6TX0bzo6XhaxYVh7xmuNMZ16E0
+jWPa4LhqQdo9MqPBfFgi35gCmz4ge3RCGBtz7riE7iAhTop7R7Y0vzi7XKF9TJegLn9ETrh0NI4t
+Iqh6W3neR19Ma5BNW39T6RUuQ0y25hgpj7M4Ryl0Qc4IbGVhdmPy4bAh75LzIPpTpetPc5Lhgbaj
+Hsl/aGx593ZdSUPkFiSzoXJaOVLfpbV41YppK0P72fLKcdcpCKldMl2ockoq5khYDxr7BDOEaAzn
+q4AKYLrJHhDJpw4twIEaMGrjSlfljG0dNCtAcO4w4SduPdj2aCgHST4Ux2txQj16SxP9EUoMgHZ2
+6GsjAFzQJs4Tv0qQNhEQlgS6wewkn1FQMN1V4AOL8n1JPPWS4pusY6i2F+5G+ME0uvxCnhwICrLn
+jG3LplwNTj8ueRyLS6PzDuYKvlApDIOG5HWCy6ArQIMOqWGY3GBXhUNBVgEapnnsEE5CZW/9AbIb
+kAlkORIFqe54uxIe2orlR6zwELCmf0fE3R3wo7L6gyGBPwCYhJp+CQWY8BVqwpPe2tB0TMFAKExG
+d+ifV1ixj83k/CRKnAG1IgnRPIxwLKqk3yQILMbGVTMSQBeG/jYo8kVLXMqEsXgiPtV2pk0II6Mz
+4ESHQDO6qJ5Q7VNgTyFKlUHpDzai7HYWvI1WcTeYti9NSBz5DMBYiOfR/gyS+hYoXsfcrl34HRMS
+UJ70XQ3Xg5XucwPnY4b3QfrFuUWFk8ABKarww1VgEJqciiQ8f+HDDGG2/WtQEBFjMnAqt+dW4ny0
+4YwU4/TcmLypiUKQCFgkbd5cCwUnSav6RUqxMjPt0kEvgWdVHLGLH6mNNrMggMXrIGwyUzuOCn4y
+6PXBkIjZc7goqX6xJs4g1C7UqzQhz7UjUd0i1WrzI9NZ5ByiJ/cY1opTx2+Boq/4isMyA2SxavsE
+v2/nO92v0Y+jY1szKa1zcEuz4rkMYfUw5xgp2/ZkAXzpA/s5aivys/MPgA5X4U8KkkXkzfRkcqM6
+ZM0yvEfrLZmNtUBl2lJ7rXSmekn66AOdMXwXPxwYml7xaGxFpjEHG18Ssg9kKwJ0DYPAXQbKxuA0
+WAOZvxOjuykNl0eyNvqlHc0rW1cxmZG8CsXG8Zg7BcBytJZSCHiOwR0xAdPxEp7ytFn1irJjlfp9
+tLmambW80r5J3qzyzg36NnjYJRSnRyJ7XgTjV4dHUyiSTziGmxq0j1cZODCB/TScFRPwn5rIRjIc
+wAH11BsDQ1ybwKQcYBAJ1HuNw01iXBr89sua41uttVRNWJ5M8YFyA/EoCKJmBGCA2MiAkzKAKIIY
+QRZkdszwabARPE/kh7gY87u4OpQgjrTWfRsV88gFfhQTJO0rGJIhNjpwpEJRkkZ07xoCPIKQQ/YS
+6JsaxVSSiq7UFBMKHUVcypLm6IJgwrlCJEYSBFsdPBNlJAIYNVgvneFkgXCyKAWX3ZtTEPHB75JF
+RjEEv2YCXGRYPbdGvmNxv2kUFco2tIMOJmr+w4syS6hO7YHCMFjkIKUkRCpeVIdCea5vFtgpz+4d
+Qk707yozVhUCiAk6VQylKlW4KguYDM06mfFsdqUiWjUCkUD+ngBN1xXyKoB9Zenm5wwLK3GTbaMB
+ZuwDzErQspzGWhjQs/j514SZz0GGGjY6V1LBrYadRaMvYG/hgz5wq/3Q4CA7H1C6AOnCrBfi2mxW
+1R9+V8g8EaBXANnLdPjqpE8zjf9ueueJlBkBDV3euybhTwAHw156oVP+LXrcMnNn3VnFo1Utty5c
+McB+GxPOGMf6ygkk/XYY/PSQyOx4wO8HwzDUf40dqDIJsyxV8LJSYcz8Dka2ApsJhTjLNblzWuMw
+teEMrmA4tNDQ8Dj3iqO5TDqxHqeSxFJJexKwXsq9O6/dsjFLDfmw82ojXtMVdG2oo4NHczVBYysD
+/dRCZ2OpeewnujFXgdsqj/hKhXIzRuvuKLYb8k6lEbXgbQrYb7Kfv4Y+3AaBv5qRJWllfJsVLM5U
+2DhHAeRKhZKzcUHjTnvWZqb0wRhtbUOHhQt/zoJD5ysgnR/FP0MdXhg02OCtm1PIoXvCIfIuFM4O
+A311aRQdJ7XeMgYqndZfUgh4GGihzI13t5ofLCd5tPH6sSv8sBQ6r5mDO1YZaNXRepi0VQJjbx55
+XpDWBkN4BLnIvmc0T6asd22mU1ozcWW+fPPh9rGTPYkYnHMP0S9QZD8IfykDW9cH8VN37Vta9yRH
+yuAjsQvS0xUgUMZkZ0EMVKJZHNjvcgYl2MIUJICkJUU9gFLOJB/qYGdgMaxm91jDI5RwCbsgxT7d
+bgg9G5YlCpJrPbH+slGSpGZ+Dww6Irt6yYtJZfF689Eam2nRZsETJmYWLAwtghTjmJ7Ij8LgPK2R
+PbLs8eJVbIfuJfVBQrpsU5e1HzJcD1RIYB7eNIDjpAS45tbqkPG4IW+L44t5ZXbWZtD+Nl3NFvwT
+RsoDAQCKyUBvox+diNN/xBNFHmMOZhmbOv6PdkmEz28vb77HQWvW+Yh63BM5+jxezUVoe796Z+S5
+1UOY2CK+UJRnqyaJL9Ike53msFrrfAspx0YbtL9xpuJGba0OVxNz8BEbHsBAPhQOxu1UJqfEI/St
+RRy0kKaxdoL2S0NIDo3b/9KK2VrZWn73ShjhRvcNuR43CXdz7EIqzRldPv/3nAvjMv7/pBHKUfHP
+B8N/s14fi/R//Pt/lm2o/vBf42AbGLLj8Zf9Nz/GP7o7HEu3VU6IYFOpBBd/91sbtse/MTzyfih0
+mFH/fRrsYhTB3GFI0/YcKf9L02DxZ9pbpFNQ5EoG4uim4RBqSAy6K8CHCPP/mQbPLk7wkpwdskrk
+JjTmfGl0T9o0boIBdoskGiInBhA4XzlfEj/alBMYJuYptQ+tjcqI3dqG1beKFiciLt8La9rlMVpW
+P4UOTkh20OLhUJYCbQ1OZpuNIFDEk559F7xBSZCtknxfdKchkQ8qUCgMzDWgh2idiIMvkt1UQpOg
+zS+sYauxKLLxG0NQJcaM/YYDOqfBWxeM67h/anSS0y2yFYg6hQ0zHdG5bNDj+sJZzBi+JHbt0Fz1
+/ReOyEPWYOLG+dVlDDppSYjtWdVsx5uY9R9+NZc91LBmlLDTUnKGvEOgu3D3lOR9eAryGWO4u6u8
+owEDEEljWysb3Y23ifDWDOYQmmruyfSjsM50ZdjBNcpICHzTTBtcPJaZvDHGRHoQnDUW8nVOgCxX
+lJfZiyh7RSe7Djg70vBGp2QRgwIXZQJjIlB/qZuWqn7hxShBmT+YbWldRhfrjeV9VOq9/uB958DP
+H2Fj7BP77if+fu5GCvCv1P+ZObGtEEdIVXwFQf00V8kGuweEIJgkbf9YpgQ4eBrisPF10OBaA6Sk
+GBr1ch2E3OU1wtsoa1dFxP3QefcaH4IBvQhmiRwfKr57Y3rNRi4BAiKZOlgWZnikCw3WCxpuS0fz
+OuOf0bhD++2YsK3sYwTVyVafyz2BB5syY+5BHlnor1KNREx589ryIkoWcj2ycC88hjRA2Ed3BVEl
+siL/xVkFDIKa9LXLvXdbxyEw7AspcMCyfiUqBCzJQhtOgMEpkwsueqZGyBUkAKVZHkhheG/mlqEH
+3FJZrqO+3OhRebGqvUwKKBpM0izfxHQ4EbKtv4JJwJn/nJfjKiQfwisJqqIS7wrlt2P5ichNEwtT
+f3VmfWcB/YqpSbzxmHYdN1W8M2tKGbOF93xvzd9JaSPcDjYRlbCXOCyt7W3G1V8PDuu6Jb03Kjt7
+NYPdcotfwkexkn7AKIlnzBGhdc484ir5/8W5vsrHc2MxCCt5wn9DfltnzofvPCZqK40MO4oNViC0
+FxkA7fEnJpW5yX9PBndr6usuJFSivtLwMeGZRn5b8mwxK9lEVkTblKMtwAtGqvZt0t6qahlM7UOv
+5ye/sXaihGHI1DBvgv2cnv2yosTHYRIH4LGCTezJ7ez4y5R4HUYuzCTAMXXfprZ3xEkioGl05ol0
+tSNflggHt2kZE+TLvhm3wfgZ8sYDQ8O/HNJi83nk9VpM5CdJVpt5iYy0fplsPBlNu0r7CJWkfaXD
+3JtzcZdRjPWYSL2qFu82dBjcwpQqFDB52u2hF/AwZhCydK3aTYFx02P7sfBVpgUhELT0EX8UrMvZ
+qB4FjetAknTea58zqQoiKtbCfLRI+M6qD6Pul654TLQt54SNPsOLPdSj4bMYcA8L/2pp2Wro5cFU
+1ivD95mKwD4jNbV7KdL25FrVR0lh7MsMkw+pF2CPET2gWIlXYgrZyiN/hGyfE949uaC42Cs1hL7O
+O/y564oODKc5Ku8Bu8qTjeA7rSEjlAXejk+BGcSgcTUy+cEsgm/3IgjAbO7zTBJtccoopwPm9Roi
+jYz7wAvyNznJddhf8B1tIkIjpdwYYXYZ24Zsn+roBOGmynd6duHMaxMYU5X7MPPQuMzZwA9s8eVy
+nI64bTmt7e8GhE/pfrnAnIYcNmeWH7KweO/kB6wDwGAHs4cENLJ7TIeTYIs4+GsTF0IsZrg+GkWd
+Ph9VJJRmKnFRv3YHzk/iSZrQvJtmjI75RTBuKUPl9jF2LsZagsV/ktBDHIQFXBzTCohGJyWoqTvj
+p61v8LDxeLdxsm+BpolyOnuZu7Yw7sS9v5IA61zBLBYxQ2mqqs1Bkqb5vyVZUlOcXUKcYEagNNEt
+Bh2m3J7ALtRsO/vTzlWyQJIQANWyVig3nZ/u00CsI+YoOGkYQjGtCOQGiMMrJVrTPQfze2cvE1Jf
+8AJm9Vdsf7TN06S/kNto5y9e3m2H4cgObzGK7z/Tt7bdd3a+sjHsmu1J2I8u2fKd/ThZjJXo/5C+
++0yuCNbqmu+cZsTuCN+eLzNrRJLgCUWIyKoMmffhB8artQsc4pW8+nuOB6QIhvMYKFoaEpvZzp9E
+dIw8xvUBWw7cxQMETQuxiOXHJxOmXoT1OJzLlYmbaKT7nzAM+XDkdNMEmAbQoAPa6aWPbfK7g95W
+NTw2bXw09fGJDcHWyV7N/JPDZx8GXCpFdSVgbStZGKyIevl0sBlyYhNXAuyce7u1ns2y/SR05uhV
+vxrBdZMx/a7LV01/6tr6PvsIaXKeIfclrtpVnyY/bVccpekuJ4Sdiw69WOI8evLgdJ+dpp/6bBfK
+m+kTVl7hjMiXM/4XCO80ZT8m1MHG/q49d+GRSoxFa4E4h7FVRd/+YJcw9i5u/rvR7x2wA9qozwJp
+j2X0JAhO50zfdbmJ7B/Mm/NkeBcqbthsr2ykdnXpoAFK01WBDLSa2l081Ustt2G6Fku0tftRuNuU
+XTY2wOfAJ7HQ35pK2YJ1aiAzC27hJI6cdZjWnZvZJ8ce2Jgvv2PubG4G1F3EEAzPvjtvaxPWhD8a
+LIa1Rai7S4EUVvgPWgLThS4Uc5AGa8cWS075TH9NOGtMMJD63fHkeW44CGeLCUriIGsVioPC/R19
+GY2Ps3drkYWUxKZ7yKJpx+xOrXDw0mgBmDHQxbL+jswDJtVlqe91jZRkzrJ1YxfL3vruWdTn6Pyb
+Yji6sLWqyFqq5tipoVxqHWA+uc1p1xejZkNakBsLUanTECGk9lQUeIIakffD6r/i8sUw50ODLcZH
+nDvpYpsqg1FzzzFZ5Uyu1VrXsa4yds+Y6R/iinG1+eRhluwrY+0bjz7+Ua9o0SzQ4xLSdW3gk4ER
+4fMx9FMZ97RLjJ3pc2V/rFggIpciJPs91L/RAHKkhNcJAE/ae/vOx3gq2pUyzrRs4YPEUlKuVWme
+i/irEcR7hcMuwA1hugpOQKgXVzTE9BbhhIKNWHb3nSTV2tf3nEwzkjXw6dvMlfsGWkWDmRAGf7Ky
+HJIUHJPhle4dzIEtjp7lX/z5NIXrDHIyabun2QekYbybtbwUwT1lLRBOJvEn2S33eW8759PDkj2+
+CqzbkTLHfcR4RNTVINvXrkODWuvYMrfl9JIpS3dQrey5Jx/t1StRUvg044VJalL1noc1qccWFXRV
+nmO23lY43phPHjsXBka2KTzttZBXNZwOh2afegpBkEOLI/HOI6KDQl4E5utEee9H3nrIo+ecXEIC
+o5oerSK8Bz4IJnfPGZ7sg2voO7v4mkP3Oc7fEjKFIT9URvbtjO5r7yufC9iP8OgWBKG92ZRZcfLZ
+WsiQJUmFoTyZg7kJkE428gxsaWHzLkSpdeT9PUxYiqm4MiPdovthr52tM6CMwsBsJ254KTeVdyid
+X8L95XZvpvOZQXkMQ0DBaLiRIYpQoirZ6pw/C3QABxiZPBBineS7CEM9MN+lo7Eo9pirOEt4DruI
+yl+OWCoMgg5md+1gtW963J1luE2AXPHSmdGTPuAU8+O92/THgAUK+g2QgSzV52TFBY+O8ApXtq9i
+8vyMXTZ9eulbqD867W2KjUPkUxOnUXtoqxdRutfIvlcQWMRUP5iUWq5hQzu2rl1cbEhleclBcnkt
+w2A81NDzxuy3E5Urwiboa1rSPTj8OeTz6WloBK+ms3Sr+uKpAcabRGib8NKDi0F2QffQ80yWX72J
+GU35P2GIqjmakqIuDPvoVMl7y4PuePt47Daus+9KpDOY6sFrm6uOGiECRpD01q52zw77hyzHYHlj
+0MMe1yfHnSJqQLighe2qnZWrpdu5AcWU5bzXzLSJBFiwqEdi7WKuRKMB1Mh+w5M3mYyzQa1W48Gs
+Oflncx0Z+lME+YNMs75mUMnSYcBXV/WvBSs59o2rul4qtleAVRq0HXSjLaXygtmSMe3QccfTuPcS
+bVVbxrEkbdAsn6J4Os2jdUr9x5qis6XGl+m7kzwXLhnG66akLuDINK3x5GpnpnPIczw6TwbxpbYy
+Iue3BNKiFhyPkQf4doRoW8BCP7ExWkl56ge+7XBJD03E4HvN8aMzBI6Y11c68FmPDnlgShlSNzPj
+i1hO49N/0BAkx4iVjRAFK0CCkiRJMlBmwcIpu3WZiyoCATyT5LreUrptHX/a0KWep87aa3CSGvc+
+mNqxkERoIhsw9WOsRwyEWXoU0dKbpmsWfGe0fyXRY0X4ntjEkixL4a4GOMGLdLrziNX2K1lLcCU4
+I2ftQMwmVw2pyx16JKzU0DFb96VDqmUVz076CuYmb9S4FGBPzznVZEujqfeVFu+ywNxF6IY1KlR8
+2Thu4c5UdcWbb+B+soYznxtcwnMqRxZw6SVs05PdZoqDsk7gHFtj8Ksrq10ufuU9bcGb7g9gaa6l
+OSwdZZClqnQccy0YMqISv6dKcdwxIyZEfKoeZUqrz5RZ+OcoIQBJwThlssw8slBJPI0IEnGbu65p
+hzb41ILfGtWnWQoq+STdBAA/g9JaoUrBsLDp2xg3JWEBw16kAg9M+Ui6+x5w0tErabFN59QAfIVs
+cfbrTy180IENZU5/rubinHvynkb9gYSGddnJSykDxE74LarqlDTW3TKsR6NhI64G5vzyjO5hkvFJ
+2m9e6y5qABdsLZddzrTfwo83MbShluKHDhLnI7FukyQuaSajqbgpv6ZPJrsdHU3je2a1EtlESQfR
+8x/ucu3i3XV+cy2hfU+uVfLQhy3QcXnAuDKBffrjvFnVcmOTM1J4zY1RwClwt3p1anGn1v52iomP
+YkU+vjRjC6aeERM0aQrs9ZgVp7R+cwyCVYy1q/l0ucQ27ofxJwywHGDM4Dw7pnDdC7gGDdnlxVyd
+e1hjWdfuW/FU52gedIwQkkkIZJ2+3yEmWWq9hgBa39a2tiWvfRNrmxjLXrOeXZDb2hHVyTLQw1UI
+yS8ZvJXobo35K08uOqVXFvwIBQgo2mXE8UDAoEcsD6zbDXDo3CDgZm4X2hisqjI/m161kwP81SgE
++xT5n/hZvvOZFLyo2qWdvAfFoyHyjVFmKzVij3GA2DN5R1a0qt3xGcLEBQnKe5FiqS1c+greUKsB
+mebtpCX29GsrLY+P+QD+GWkeCnxJSLhct7n1HenZUdI1hoW3Gz0N9p93TXWMKFSxQ+K8WM7/Ju9M
+kitHzi67IqQB7minr+9IPvbNBMYgGXD0PRzAsLZUSyirfdWBSv+vlEyyMk1Lo8w0C0aSj4D719x7
+7oDasd16yYMUZKuX0TkV2MgjG/9Ve5v7as2V/sCCD3ILeRzszOvQ38kJoKC070QiLhbVm+o8VkDx
+s8yytyJ1drYJUJfOhgaOFRRc7RdtoffzoLUWUDAkxluM/UHMyVGuXc/dEyzEnOoBXusereB69Non
+Xf+eSu8l9nxIG+HGSH5N2daZfxU8HhlJrdq/cZJyVfETB573JZqvmkFmbY+7KsHJQ2D46O5AezlJ
+famhzGiAunEcnUs0I0neHAFfbiwjhZtgH+oRJztBa/n8pcYK3IeB+ABHaG6rParIAyIARPKb/5wx
+us9A+f81Rn/sms+0LOKvn38yh1/+gr+O0u0/hIedkAKWVZyw/5ZFKP9wwYYijbakLYNgmZf/dZS+
+wJBYIzo4FF3XRXn9d8Jq08dOyBtn8mdYc/47o3RIqf+oq7akTxYiQ2U8kcJ2/2GSDllVjNShVP8w
+QtNQPsnJeoWnwmFnx/Z5XHKjXSLX1kSJiTVshJVKtHtIErSIkm+RDp+kH1nC0BX7PIYaZs/OSS0r
+R0Add3mpnsCUo3euGrHqDBA+8Utbc/DK/jWuIwyIudxV5rgxHHlmurC17eLgZuVjadJ2G0N/cdRw
+B74igFTT43OOFanOUUIIqn9X473aCqKKh9S4mSU6H1suVD9Uwhi/qG9AkVtGdpPYw40V4eSe7F0W
+VM+YqLFzAQq2otReuewLGk24YdXG0A05m1niOzbHKfYjnzY+yL5MKW4XYFGhkyM18XGuKjDXUbjr
+wPilyuLqDpBmyaJ8Cvv0rqiH62S5B0iE70bSHcdcfymMabVCcdaiYjBIFa+pt6ryPNGqQ/bcx0Jt
+6sXGzi4f4be1K8Fxd4XJFMZ4MAX47iXwLg/f6jK5Cdr2FooFTP3iUC7et9g1jsJCXqBouVV+V0vC
+gAIixlRHqnP1kRN77Jlo1aA5IqM2t/6YPAeTj3YjZd7LJrSBfW9pqp+qYqlYdxeClmz6Fro1WvrU
+6j67uH3rJ/elIeIauvIKld3GU9CYEVAQZMLgHeSOJfeEubbYPou30CSP0MOg3uGlstmBOr8af8Zi
+aS2BMx5Go+bRkuG7JfpH5uw79ASowIdNxs4/NgFpeOHLOA/bYvJ9hrpIZdpi8lYka6Iu6N8FKjPl
+Vc81R50O+11sRW8D40mrD2DADYd5AvKMaBbrfjJfgpiUAlec+oh8DJt5LmCfWwJanvAioptQv5CY
+vjYCAz7UrS019xrt6i4OxzvWly9RSH7L2C9C5uE8ZPapHej1RTuRgy5HsW9x/R3EoHcggY4l2VIM
+6O5i8paIQt7hn8dTCGUmZMyxvC/Y581QbKeMn5/JJckl9jqCeJrDqlqNQ78XY3hVIcI8M0W5wuTW
+FxQqZBWE+oAhnkiv6Bsd6z38ctqP7JBYyPKaUtznZoVePDz2bNRJoorWscEvPSZyigFYhv6fyRYg
+VnIKm+xIhDezJty1RU05glsOIV4KZ50Ykb2pp0PsVIfeQiEriLMiwioHJqgPIjCoy9gcMdywvB+n
+Gp+i0j5IZWzsOoUYBJF05XXyE0YCcAY+abgYFF18umAaC6Pm0otuIhf3vO+zb+uccWv1MDwynpu1
+qpgpGP3J6IAQd6xhesZCFmITK2VDNu+Lku6vJ9TIZlrd2sM+b7pL5EFjGDk8Antvy+Tk0/mtCF/F
+KOJgIaALmyZ1wQL4oUr7tsIUmoT0oma6psx9rwD0Tjo6mmn6ikhkQ4QJVTaitRk84ghjxtVvjZFf
+fN51UjeY2nSH/qYBhJyiMGtQaPhMzzGhwuRw63XoigdD6DcMh+ea/K+ClGazz98aJ/09+hI/QHht
+/eENJBlyXHl1sqWyI2KmLqEa1vnPkHVfefES0vAWHioMZ85PaQ73xJERQBzRsCGH8G4HP4D+f/ww
+ofy2njncbkBmUtE0S8KzRahGt6T/UVQzxPPRu3Z5+g66eWe18iGgjlv51tQcJ58N1OjClJrdjiAj
+sdUEkrFWevT77ISN+6W2JjQbyLcTqGso76MkuAo2nTFiP7eybhpGtyLFICoy/aT8ZjtHEyhsSb8f
+PWWUWv2kDypNP52sg8XhwYQr7/rZOyJ3ZFWXHk2V7GrPeRYEt26x8FxUYf5wJr3XtCfL/irGS7tJ
+4/Y+AdJLakj2mdlYlSuEkIOX73KeTIB39FLau3Ztx0Q76g99xn44lg8R5mlydk/+yFrMsPb9UJyt
+FtdAnJI2YyXj2mRC4jlMnf1ioJUlJcEwnqlfiWOneyxctg2L/XVWn0PfkBAZbcOSNEkneSUFaSM7
+jlrBdjBl7F+ivSz69p7U1h1DXjIoKf3iZN7aOVsRVBpd69+Von1MUHMJkhEaCVMs6feGzWw5mq5V
+RvmuXORICDuZ+4m1TfvErGA8LDMykrlg5bY3tAeXlv+OfTp6OZ06d1xA0XIjcNlp6dwOzEUKZ9p4
+Wu6TtL9bWN2JG1No4lAOKryPhKA64I0FsOsh37f800X94pMY1bMKcWv311Q4+yJ0LrCwwa7qbW7F
+gKzoMAIuUBTn9+TuPCdz9SSU2uXoQqviqV8SYWDzswJTvJczaRXgWDEVeTq4ZCrdwDw7FzQQ+A+3
+gxsfdByepODENArzkaSzu8hhzOBAHerbO/aK25KStUNubdQNGcLiVNMQrvGyXoYBEBKGJVRY1Xct
+SRJ3sRN1dIjCOcyOcS1TurTC/ywCrXZguza0uw+wPraRWe1dJsEsaeaNrod47fsMemBwo3kb907a
+vU5NxDpg2Bey4XdlX0K3+nKX7UfH9FciLmVgY7j6gVjQI6qBE+r9dTkW8FfieyPiAzOM6UVZj1Fg
+u4jMYTVZkXewcsbnNdvf2A8enYJNYE+ee5JfSB1YVVLsarosNG3Ys0hOVUJCno15go3HzEO9VyX5
+UUdIpv3+a6i7V6NQDymuT7wIIb89efA6pHHcIWbZH7zW2ZEnTgOUHbAzXzyrJBpkiZQJ98kccAU3
+9SHgyGVey6QRBqDW8hgRxepyZXojX1VlN641711S2lWRgFRHz9OQq2XGb6Do9zPb9ozVJRtdap8K
+1WEKyE6EdIjDozY+Db3XXn8n2uLYZOwuOWiyrl0oabvAYbESmreVbtZTjvRWMPqh4S1uAABwBwYz
+9G41kis2oRTIX2xRPYZK/QYstlMFznIjVExwueC81t95A5rvAmINZUjGpDl+sFNMJXoebvygPfFS
+bgdwiYvhA1seQjKkA/NsrAi26laVWfxInR4IxcWPT1jEECfPFpzMdEhuDTvZjlAAZ3ZxOdC0CQ11
+SCUR1+WhZyvfomhaNSkrYANwCYLBdJWyOD5wH4QbPdH/eYN7GxGYstK6rL+nSNwRgOzhRy+QiU2H
+Ack6nI9rMFXo7Y1Pwn5Otu7Ab5d7LdWwWdTcxB0dwyo6xiHadb75WshzV8+Ppex/VbF9F7X1fqhM
+Ngik25MzHK2C+hs4yk2bkr8xoqMNJZOjkTRfaU2PoICJK4nw5sK66tWpY7jXByDn++SG1cWlYB8L
+qXtN/M65YEVDKNSmGqPz3DGN7qD2+ZNzNUhhA5D5k0dEtMHCUsO4C3rni0CiY4ZuxmLdEM7OjsLp
+WDHY9oNvQdYJiQ0re9CbyncIdCt2sv9d6hl5LI6BYHgpyf0oLbkNE7WvMWU1Y/jqqWibtuKZm++h
+tUh0EeLdMhtMPKDDRH8bMovNegqPob9GmXeM05AwaXJYI4cMA70Z45w/qMrD4BdXEqj2zTxSLhhX
+L2bD1aG24KbV7o/it5iyezH8/nfGsJ5M2n1Z0FQM7UfIyJwpW7LJWnfveMU9eSyP2TDsA37FrDfu
+i+irb/h5Ymu8JFnwC1rmhd5IE4qjKkyGLGDt2ya5xLp6QOt36vyGcRFSgxipIXzJrir2tQ6uTRQj
+s6n3oRE+WhNNfTH9MuqFIcKoynH2ZMCgb51J7An3AF1foF3vItsGYf7bGsQlZMjpSP0fJImTtLz/
+upe/NvNP87/+p/4nPfzyhX/t4b0/Fg8zixJLCsfFh/wndzRPGz266doQXvi3PzfxHq267Zk2Pmif
+DvvPejjkc8LFHY3TGVvFv8UZ4mv+sYmXixbPMh3XEbYp/MU8/SdzdEjqa06OFGPXDBygQSyPmRiX
+Oc9v7dZGCUWmAgr9O9govyIV7rjmF1pjusa+zcPjkK2VigapVRmwoo8OgU2WE1Jk5v/hFZrmjrnV
+CVrdlcDyD9/wqZeIPOdSfc0SFAVRYtP+JfamTJ0TCPu9ZVe7DH2xN+BINgrjkLMPQP8ybN3W3OHh
+vbJR2utAsjSM7pp5vg/Yh5FI1ZxhkH9TBAJM6vcTOeNDR+aQZKTVKpAjVXeaybeqa3mbSghuAJNI
+37vTqXmUpmTIOuws2weiJlCeM9WsyoIeg03QqvXNdxwb2YHfhr2FAYuOKKvYGLjxo+uU/BB+80tH
+EFGsBAa89AzQYdNnpOZvoukSvjfnjpLuZvDzU9VPkHVm8A+TOPe5uLopTDPhBaeybagTWwS3G93C
+Zh8XRRCRcbT8mDDAt4F6AYW7GdIKa1llrSqXmCYnIeqKvTRmRhuF/YhOKJbuXWpN4WG2zG1ZpJvB
+BOA3RYgbJhQnzoBdWJLCJ+rHgCUR3+55kGo3z82Fs4NM9XbHJcN9Go7XMDEfbdRW3XzMEhTqXUKc
+RbwdJpNcujBCl8Ls2xiOUSmf0CwyNa8I9mPkQ1gyEr9l6NAEHim/DZatAge+X6i9yGp/nyuWBqZ7
+DAYHSaLoPkA9UPCW+q5L8x9zoMBUHgmS3iJVn7GTlzaGp4EtJVjrgAUOKXVSUdwbeBG6a9w1zFbE
+GoPRPvbrQx+zG04A0hMLcfUcHjk1mBBYkHyv/dF/QYy/Ye/A2BNgMguBHQyiteb2W6XwX1Zp7x3K
+gR4dI2TrR0QkVkydDaqMqYqwzWJzaUdQTDNjmDozbwbm7lAYP8JCghWSx6RN3vzWvg8r/5pPoCpG
+dp49w+Rlw2TG6TYUqbsbjWDPaAxjN1F3wk3NlSodZGGJf0aDke2madqQk3cdaTiOLRGHq0HGt8G4
+ZJLHGaAoOtRVXiXvCn2oao17p2iefJ58H2WdlEyT3Q6HHDRopvm9ZZ9Gz7mvUmQbE8hY/HiSOtGJ
+x2fOm6PRd2gZoWBqlDljy44d0QlPQ/oKacfZmDiSdoh0Ny6k6dbsWWV58VG2ZJsVjn9rePlLRiZQ
+H8fnFkH7FLpnkUK1DZG6L4grhfR9HDSAfcTw3qKKN6zs3UYmj3doW2taokU/3/YglkUdvo+6ZhMR
+NW++xzyetdWKOTjtEzJ85PilhfQdgvvFQKifIdinkt44Iy1LnncHQ4sL08oErVpyzhD7DzC6M8T/
+RAsuGdZbi5e9RWlGd1SsxWx9uNgGWCo8BtgIVDzfRxXTL+wFIu1vC+wGdPAtHSomBGexI9T4EuLF
+oFDiVKgXy4I9Gjeijb6Nxcxg42rQuBvcxeag7WQPrQk1CA4I1+8f68US4S/mCPT2LMUWw4TXqKss
+qxfDCDZlGe3xA/xycFjMZr8uFyp35pCJiANDA9le5qP14OB7wKRBOdqhiglZArkb7qDLjJ+DtPKN
+7SUn8HLERgp2xzg/GrStCDobSmOAWvbYMxDyjHsISN9wGhHeZNMr/79zYfFiL2VLoxdgnOzeRpNN
+cKHdBxUMl760vqxq2vkFmrRWsho26IeGBPtq12zAVYFfF3Qe+rHk7JTK3WSJ9TEpwlgQLZegzKFa
++5BU9UMSqGyXjQG2QIryXOXPo472AD7ehAJu4U63XsQKw2q4diSlS+v1z9hlnwuj3zbUV0SdrHr/
+IYr6axkZVD/4zognLSeWx5NegR64dyw6/RghdTiBpAThFaKNMQXjpKa81eP0oabFGZX0j1NooUcy
+ppU3G59stV8z7jcJxK7Fc54lNAQN5X7T3QOFyDdlY2znaWK7Bs4rkohHf/fNohBgOOwgGiVs5rVT
+36ZGxJcWJW7dEAMGGSXBfBpZ7hM7sIKufojoiBOcZv7wUHCDygXhrWkfGtOkFbdt5KnsgVe9it68
+argyhh+wR0eP7mjERxGKe+ImCWQdBFY4c57WldMcI0nPX9II+Y13R/cY7tKQbrchN1a0nXcOImUd
+y7xEB9Zemp7kQWnyaUdPnlPswWUfvZYbx/N9lJRzzi98+klG+e2J+mDk7l4S1YxEx71tNKdBa52G
+ufsOezybSRm91zl3bBIiW0aIAyf5bKGYWbgs7CsDspYRrE5hiH3SuvDLfUWMzeVmj9U6hoJMc45J
+xkZAGU/xG80AZM2ktmkwaZI5Y/2DUyfnpvUAERLYUi7TTqAcPNKcD0w6ij005ggdY0qcqCxeDctm
+MqgBVATg8byK66iO/Ws6U6OYXXNXljEGv7y/OgFPRJr9Yq0rN+4UPBHRYrFK8FdFv7Al4vCllnhc
+dEA3oc0TEh+96QL7MA6o0kXU3kMHR6RDqKsDkSTzNDAEJ38xejS/Bk1ck9mopoq7fiihQSdkDlbJ
+XQ0TCgkuraSGV2Xn0RtA6V+jml+sVty7ZnFv1ngtmXzyUFnXqtO7GKQ5i41Hr4VAI0qGD1LoCyj8
+zdx8NR4Ai+ChZ5h0JFchY94gvxu34SvDW+lNX3GJ/KK2hxR3ofdmeuavuJZbw4wRtTuHQlWvdhA/
+5b1LiIH54DfRGXwIajRHfni2fQ8XYc2U/+An9Y4V8qK3Qm3bkYPjZAnIDIYmveBhEydnJo/OY+aG
+toHgLLfe/+fsByUE0n/dU9z97//BdVjEP1//rKvgS/+7q4BBarMZlAweSIT622rQ/YPNn7R8cm6X
+FaH4m8uG1SCmm8DyBdeh6QuTJuVvLhubt9DFnWMKFnfgmP4N5pLn4f75B+QSvQsGmoD/DbYrGfx9
+V1FBAE49VyE0Qfuo4peyy9ngsT4AGGbx5rUug6aKd7HojU09cEhX8eeYmk+gUXZVxaGKvHat2vEQ
+sCUXGduMmHXbOOYbL6sIwqjzz8GmN+5N0oJ5++flGCil6PeF3zwUxZgBKABNmuNZUVmPL305SBAx
+41fnbFHLIUMmJKNEzp1iOYAMg1NPtvrVR6o0ckaRv85hxalFPISPJ63eIMk/s4vajIuY1g3GB9mm
+YhXDpow5+oLlDGxq/Q1u52SbEzosbxvDHytMDm2PxOSJUsbTHj8L/FVQ2X0XbyUD8DCyfswgvQA2
+ZG68nL4l2Hyf47iIkqeWRKbWn1Cn+U+zVWyrCiQnxzf0tmc7RUhnLac6ug6ocZzzQa0gCrUkO1Ty
+DcjqXcVVEA1MAK2iOwI/4JYo4IIqkmrWE5LLtGF7i9mGnHf7aKDqHdPC2hg1VVVaY2f5UdI4uloi
+1ud07q191jKXjmxNMnmsVtqzr4oaKawG+zbnEnM8xFUIWEMb1in3HE0l3SLULO4/yUlkJvWdtVyM
+vfqObflaLBemgamE2LGf1iSqNyUSj4tV4jGMcL8AU8qZnQz32mZOTaJFw5U8N6BWzGaXiOjVXa7s
+5e4msi/nqUhL/RgvF7tmedRy07eJeiOTY48tZh0ZlAJZM+5dagPb7O8jEAXM2PaDQa9HDVFG6l5R
+UxSwCVrKjETprU/Z0VF+xCiCV4KCxF8qk5YShap+NxbOG0sgOPf5MwAjahmKGlmXGbBW/ZCSXlss
+dQ+Oku1IIVSZ8gON5MZmiuhRKCEvQZBNMk0/NZuYrd1UNPuG0gpNmiKaZ9otENiY4sub/QfL15hy
+Mv3WLvWZQ6HmcaFsTEo3QQknUXyTRTd9Q3l/sIcleGCp9+aSKdKI1BD6g3FfOws4JIZKIutdOuKS
+RgvVi3qgsShvHGzFtRdMAIAtdD/cuovzmBEkGj3FXmpxJeeLP9nDqDwtjuWoGn9KIfZd331pLM1G
+HXwVgaCDJ7ubzNOTrKpdgAlaYoaOGq7VzrqP6qWRwS4dYJvuF/80KpjVgKG6Xfxeaek8ZUP1leK5
+EwEmJSzY9eLFzpAKN7W3EN5JL8EdgzqYGLho2IWhRWJS+20qaMGcG0nvIGjWB3e2dwoDeDFkXOiv
+fb0wkKO9ofCroBRcSBgtwTeo8HKSh6tTEpufCoM5LFfgG1gBalW9V7H3hZLyHis7k2jJGtC1d/ni
+Vifc7wUY6HsdLpQxXninsTz2mWwDx+7qeshrJ4u9Q4mlNR2AjllTd5I8XeZfzPK45ruS2ehiow/x
+049RdfBU/SxnHv8y+entX4q3NxD10V4M+TbOfGucLmKx6k9/Me3j3p/iItqrMpTrAGe/0PW5Xqz+
+5tTgZVvs/82EjF1hiSeFgO8hhBKgoQUUCzZghh/QDBJuOjyBRJwD+ALTAhqAafJW48URU3nyIBG4
+Y7atIBP0QCYLSAW+NjajRqDrGnt2/g/A1ei0CsDSE9ZqaX+krI4ApWxmS13tuvnlwESgptsQPnUs
+YSUE+UCYSsC8gF23XGgKkH/Zkqp7c2LnDm9BRRMdFwSGrKOrXZAMPVSsMv5VV5RPvkLgWpbNVwDF
+IYPmgAscT5QaiXGE9qAX7MNc8qAwy53hQYxsoy34EBHLVQUvgs302lkAEg4p7my6qaMVYi7XASMU
+s8tM4E7MeXM/GpDFCogUym8PdBVEAXbwN8ddnkMoWBAWeoFZtFAtePLQUsC58KLkMR5djM/Lkq94
+bibmxSkXnEF8E572eDNp/YRdfKVZ9tOYYqwsPkjd/j1L8UxMAykHzaVgQh0ZxYO5wDhkT2SsozDx
+d4arziJpf1LYHZ4pLxMsj2CBeqgF72GEVJML8MNu+0O2IECkm51TmCCF7Wy5jp9jELQtzBCZIbX1
+7xU4rLXOutPk6IVyqs59T6xk3/un5YRv2f0COTsnVVeeBwglYR3curg7q6h6qRaEiVPXdxKmSbbA
+TVLc8KCk0OFjH1Mdhpyi7W5G20S/xv4vcrsfA1ZKwZELgK9eBQtGpXTD9wyuiiPqcwdnxYS30sFd
+4WzIN3bM1ieEPYNpBNNEji4eauNNZNRQT4Z3ZbQPfdXeTaW7lQNy99ioDZZQ5rZ2o5uKsFWID0yc
+nIMTOxwSJEn68q6CElPj601RziNQUlfylj+nVDyqYej2erEPEVyIDo6MB5OWRdYC3nM77KivtpM5
+7rlL4pUW+UtXoQDvDFx6lC2R3mfTdBpYK/Px9jhq2BUY8sENrC8w35TGoOUqC00ULoeAagKkAiKL
+1Ou5Y/3fscRIEgrS3+KMWGG/vUFM+0Pa19EHl+jV5XEGAdRAIQTUYF2CIup3Azwjo/CSHQmfHO3Z
+8oR1ypwfZe6z6M7jndvT9VjM35xlezOjds+Zn41DjWAEMHT0lcYRhhbvYk4YL4maI+/BfK50jr4j
+stvjnLtw0od7YxiuNrtxFNMM6FrJHMnq0G5VIAfcUMsVE8Sjiyw3KaggMJMgMrguCCR4f1dWk88z
++W8QKgBBJpJ2d7D3RLohCO1r0sAEeWyEUPk1T0bQkJjjO6S7B/vUUFdrGm5DRqJrxww+OxsgsaLh
+UuUts6sXcyFg8voVazk7b3YxPxiBJomrxmKMRvOaN2rP5f0ZuBmC6Ag6neEij/qJnGhbhJQA0r/L
+iWxw8hKTXPRhzThf2gDvWnXNrPikGgnMxYFSoG+Y5l5xetISFx8A8Dhp0cAVKGrgg7KMPQtl3wqR
+PXQeWYAO89UIDH2rFK4ZjEOgDcTd5H1WPsVSiLFHe0F60nb6WqX22Y9CQjTaG68PmdOhNlENIW5D
+4HV7FZkfbR4+tTHXcR/5lxiLpqJRrTGKGLTSq4ixb5QyUDAqzX67dZ60qDdTG6H8zNB1GgNaKVJ5
+A7jIlND4g5tpP7TVGT4Idtggv/Es70xz+K1INlWjU7MRZEDriuku9NndQRlERMsmSgbwjSvjtzn4
+7zAgvHvRBeMqizTafLvZZ7CMXGB+oatvW+Wa56pjmk6eRTdiJ4y9QexHncP8hK4NMUrtSTH/iIbG
+PGhv0bDrAmSp52FDLL5DgPuYyXiPgGggOY5RaVOioB8p3PegST55kF/7xPo2tHearXrpqasX0Y4Y
+ehvgEXk9PmY2azA+zeMIZ87O8ifPQqSFRCPnKTN5LzJCTXPohH4XvdIApysXMJkVMjgmruNixFCF
+vPhmkNiHqN+ZopnLqKBmZpBhuHHt/NwVD/9/Nrn/pFG1aEf/dY/7F8YwRqbya56Kz3/x5X/tc90/
+bPrVwPdoItG6LswI/dN25HnYf6Blpfelo/2/atY/b898Zqvkd9jScm3ThXbxX32u/0cgPXiQ7LxM
+6fGH/p0+13IEf9XfN7qChpk+XCLUdSSJ7X/f6GbCTkLWdM3aNqI9jD9/lRsCiiFuTy6gSw7yAckN
+2b+eXPXEBdqNvx9zdZhY//qiIN3AAgnL5sJtUOjx1r115OghsIGECnO3dV0AS52F37VRjIlBnaCL
+QeMJnKKJzfuciTq4vl0eRxfCzZnJqVO7MPWorV8dojP9wr1F/HLLzDReN+SGbIzWfzMlbiCvcjBd
+VTcNOXmHOdUz4DfvKZTmMcvTh5rdQZK4h3z0UHi143qcu6OU3CGk2m/I7Dibsf1Lhlh+Mzx2NeDk
+VdMMw8bWdb+OrHLrw393i+rZJftpWdm/BCDQW2Dkvi8/2MEMg/toUvrXWfhjsSWUAGI47TrUPI1z
+CM0SS01zz2pga6n24FrAkYESr2XI7VhhX7BkeainLEdrOR7Tlk+a3FDe556k+ZywOFDjkfYXaZr6
+DQJoV6B2od1nda8Rb1WV8aubk6ewHD50BapzmGuxGuBNrqweJmCjnbVnqsdBqXuDw5yCwvnux3Gv
+tNj4U/HRtvXZQcQCg3gn+vajrjFgE19ROAlsjk7hH2bLNkUYS8h+om9nVIJWH1+mn4pir0Zjo33M
+vU3bG1CluUHHqSULmtOIEviGGCEi3Xr85sbFq/yHcEacjE/Sdxy1dJLM6cdfBSua0CLNDgOb445v
+vENop0LyvnS3bnW+t7RH0iUVV6DFI1xOmpAUWfTIYqwAn9MjUPSdZo8zZwvBuWF8Yd9mZBGsqKEI
+jDTfY1+udN8/ozawdwG++x6PoR9bh6kYv4aw/nTiklQkuNpg6xfn35ktKRUzn4szw5N1rN8Mp/OV
+M+AGEUJj0jbTD/C5m1BHFz2JZyiMOy9urq2iDizbDrtKCoDPSdvXaCi5JvSN59T35Kx+zRaTbb/r
+DrWcrzaqtbXNg4lvaFe1xnFcIAruANM+ifS2MMGuGiYysISYhwKFxsKatlInxguS2ru0Y/vYu2RY
+z82hso2HRvEog7XAdK6vVeDdh02FP3iAeWEKhrwhar3SIhvF37imeEE6yiKwefdF+52bxm1twJro
+SeddzYb+jgQ9shWwuuH8WMWlf4JZcGKnDz8Gk7ZlzSh3O7ZwAewVke3NYPm2hb01mHkPTgfOi+uR
+FYZ48Gb32wPL2XrdfTlGr3NG1livSOhr+kfJwkHb4VmFXFndaCKd84cjg7lzlLS3WZOsDRRwWVJ/
+V7P1KvHl4Y1BmJ38ssAJsEC8yei56oSP1AbrqAZGFq23b2skZV1WKPil/rmIRsTjRB+jmB6erdE7
+m+MMC1Ce0Z+U25iphRst8LkQPWQjlwVZJ1B2RfySUoJrjc7eWqm5K8T0aOBs8zLvpnGtLwDXNwbj
+krVKs+1cWDd6mHahTX89BMMD6RNAPbx5JxcPG+sZNI7KfTaGZtxUbsVoGncP7QjlXANKy7Lc6FCC
+/Fp3k4/+PLLYGrboaytjt6Te+dIBhiU3OYm/gdSspXqBWHKpAGYUBWJk/dy1jCiJAosWNgkDQcpb
+DNce6HSWJ6DhTAytYvo03HCPcollQh+90njcpA0YAQppzyi2LPfZCNUfwQBnL6cdw04FFgzvH9jN
+leGSKZJgZUcLgC/4MXfiu2wYvyecC+NY7irSnchjq7aNOf6WKX/YrauzGwhq0fGE8pxhQ0cPoTz6
+kXKVw9DxphJ4+Qx8SzL+CYLEvoWT2KyysXkZbOc3svwfS5oX1E1PZSR3hBy+V1lxnTURThp/u6ss
+MIG48VBT7qKYKrXrx490lqeyQYuZYzo1+ma3bC2QcKN9yLdDWU/rztPfJrZzU3sJ5Ln2ZCAdmEg3
+SWs/gIQ9ruXoH9uMc5tH9RKiRMal/c35iA0hOmsKsLA11vnAGEqZR8QVGAzgOkbRxb946VYhki5a
+JFiWhoszyS+z7Lg0ylPnYYeAkPpujDSgw4TRUweE+Y2yRYyZhihbsx4agWmjL+F1J0qTriRNHmgf
+z17jx/sGK745zG+FWTygNtnx7vsg/IvbGc5IMCcYu+HYrqrZ/xobAqp1jsO4Dj8Vz7zXFBhyg/wO
+H3++aYiH9SM/2TlsOrymv0Hgt9YjE2ng2unW92vaP5Uiah/ApvXxj2cAN0VTyIL4ZCIGZJpWrSZy
+vMo2eY55RBrXh6YgWcBF2yyVCAHDxXYMw4VtcuEBh6LayHP11hKviLR7NaAv8Ar3nEgiu+d6n2cK
+RS4lqh0EG138puU4GnbKB+vkxzyNqPrL+cAo4KGuqemFH0Y7x7I+ndm3bhgHwWLgUxBpdkItEe0E
+lEG2aahetK6R8g1H03cw+gtv1VdMBUglGbej373OilwmbJMQT/MWyAv5mmsQItAyQ6F2QTruGUPl
+gIm9ap07zRNqgHcPv/Gq4NZBfBFdffT9ObnMDhz8dZnNF2USHmjPb0qYF7t7qSz/NynfNCouBOgF
+aT22cOQHKHmRcQHGsEkr89RaAL4nVBx2VbxPNLxmSDcR22RFMaRS82fXpzV5XsGTwbxim3AgZBH2
+RxSzlPV6qA4xE3HoM/mamdtTLFWwY365z8ry9+DKrd0GNy4Bnczm9mkZPANmeVItT3mbsFw1xrP2
+wPjqubgZ/w95Z7JjyZVl118paG6UtdfuFSQNXt8/793DJwZvre97G+o3NKqhvqNU/6VlkRRZTLAK
+xaFUQCKRCZJBDw9/Zufss/faU0uJQO6MS42qnsUYRxwW/SWeI3MT2AW3+UF+VH2GB0rSvjn6wOfr
+4urUbFnGQJqgHMzL0FotTybYzrHkX2qRT+2UYlW2ynQ1Cj5muddZ+9yPjl5ZYhkoN4rmWtQXylt5
+oB9E3sNJjM5xmB7bRr9NanOD0nwuAUqJGmaBh/oWt8O2MUjwjANxIZ0xbFEHLuweLeNqjI1hAM+B
+jTtL3K1rJM86SOYw8S4l9h6bIshFZ9MiNyV7LUy+ozI70QK8HWyg220Gd0HoT20CDX6AvYIVjQeX
+/WwyaXIyvnhO9aOqp/eo1N4iZ6B3fbQpsyYzJB12cI+3sZneNQ1OKzsujkE04EnSaExKDizv53SU
+nFRJr5KKn6neth2vMakuhMFDaJArzdZPreld0pYPg3VvYxAJgN10VndOhvpcF2qTa+Wm9jk8NSXn
+zObi5aB4iuxYpeax9rDmeilJWUEauGxKqt7GrF2M7nhx8HYXunirXG64ZYM0455pYr/PG+0eAMCR
+TTla+e3AyV9DSvOLi4SHURrol/RsbUju8LEPXoXh3Vjwtn0VHCpEWpUztWrF8IrUtSR1faYe7kxh
+MR06kBMEhVvQjADPv5TDeDaLitd1cz81wysne7qFpoA3Fa25SryY0UDMJ7/v62nl5sVzKIrXVrXf
+pk/M2HIHnPzTRraDsTQrSZyHh0A8LatOXiSfdyciVxxCMbYrIr186bhjrU9cgDGwY3momnYtGTtg
+514SAjTGNP7oJ/UwuP1BUqw5JTTs1VXEC9/HqwsSOsRZbJnioeCFMdQk58yfmXwwN55V4axDCC8o
+sc+DkiA4+QofxVMvQw8VMj9R0LWcDGOHonrNMkj3VvlR5M1boM3XmC5e6Ibc2YEk1w3Vw1PuiQgf
+xLTh5wEmGYJzLFBa9S+kzJWK1W0YV6CV88cUjGWCwQu25IDPWxTUw6RfQwF/YOq8I9GQyNlXwzA/
+0XZwvAnR+qdKIw3CU2HVmNF7hDcu1xu6Tp1lajf7ivfNaMV3jYZ60eX1rqZyCyOEvQTO/JJF3oup
+zB1vGLWiqYXCJOACDSWoRB02mq72Kq82NarKKodTvjDwMY4jnYa1Wtj8HUnJcpXBGG4qrF2RsW+h
+f096fl9V7QaZdTfayUlvsfAxOt7XU/86hdGaTMfdwDTOAHJXe/EpVxW8NOry2J8XPdqe01OWmxlQ
+zUgqUUMqW7muHNJDiXfr2C/jrBBpeg8610o+y3D8Llo+YBYOxYibG7dMDHq0Re4CLBjrn1CT6I3v
+OlRRIBqGHq9JIF1iRlxf50rmV+iBEUyFGLuXu4lYnqgTfnFT/RJS9R4SRQyofreogJ84VDL6xfeE
+eJZibom37fyr7ibQaXODvAkMK8xxRJZzu7ynl+eMunkUs+eGs8XGnpvoRQNrAVktWHpAHVTUfzOo
+MI6oO50xG93/EPVyFUnONTZmN1w5o5v8jKlYEwY8jWS+Evz1+Bba6HsYOk9ZNpc/8HnEH4ktiFtO
+dCdMiwAMvbuLztIOUDIAWQR3WigAIBfrlk6usej3BA/eUq0/6pT7oUAyzbbySE0Wemt3a8b62SNk
+pMXmKrKgIOfVPWagZS8S3PDlfqhgTNMymxIkGhLrPAp+USfeFmQHV1qPNNtE30CmaXrODoUTPNj5
+94CL0VOYKYlzN7wPi7TaIfDTzgd0rZ858uKr0b0NvNhlpaKFlXef2PdRt6D9lFhzMnnX9f3VrPpz
+6BVologAndpOvdhWoAX6Ue50L+JnMXpn8H/wNXXRLCammjsbr4Y0s6JlMNKZVmTXLAmPcQbYQAAf
+igN4+D1MRi/YhGN6G7TYXJtYvNlo/O7M1guB57TFrYtO4VRMffqwDyq1MCzCavEUYEVNQPfW5ygy
+WfeK6EgRxBLQ1yxTesdcA4Ff1M6+yNrHrAmyTWRUW7Z5XhO9RUH5dOsk7Z0kv1Kk9Nhn6KLCZIHR
+hvg1bXVu0+RqOk3RU1jJp1TrHgdbcaZTwZUQ3LQAVPI2Vck3CW00BpO1Lf5OmhL/sgEIqpmMa1Bp
+F+JOtNe9U424orptrSIQHja3N3MqKxwS9MvwxAdRVXpnHMebsotuMD9B95j2xVSxPDfpRRcRoymz
+YUkoshhgH7KRH+MSdl6m3Uu//3JCgKO6cw4rb2V7yVtacdbUgwO+PGIK3GNyfaJ0B5kEPSrKx2NT
+6ODtOGBgFzYWVepAePN2wW1t3AcRiicUkkNeMH3kHetQ39FLpFnNmyE5nVKMUuPbXjZJfNAn8y00
+Fc0n7UvgSaaxmqSioV09Fd5YXbzJUxo2hAk8tOelgk/DFPt0DO/tqN00MmZySp2Cs0nzIwNeQszn
+HNvlKuEVUDj6tcwdMPKQVcrwYWxmLW30QFoQqRXuuiWvQZf5k6voBQ/8Y5jXd9roULxSX0M923Jw
+2PRJecP8t3eH+G2oxBPmiKMtrJojkzpMQWGsKbmj0h2fgig85ONWLrvx1YJINmG2Nti63MBbGwO9
+sGTIt/2EkGRAbBNtc7Z1YAjCyLa5A6+8ocS0tPX3VmKP6q2R94bbMa9pa08pWplSc5loTncJPYHK
+g5nO5wLCANqVkLjynju5Ba80+FEF8lzQj4YPhp6PYSzXWcptu+lPnhPeJn3g4ho32l3Rl+XOCtvD
+5Bn9ZsTygtG5Z2Y3NlOj/chSBEPbo30lVVzU4yDeuW1B9ml4rnULScGA0gQROgu0bdYZkrN/A9Qt
+52MS72bvmjKnUz4ofBuSQWIgcYIZoq+sowrILikdMMZQhnBd41UyzwURrCSzohu36Xn30xLL/KLx
+KinepElrZguixAu1tyqf50spD3h3t0Ghv2YuQIrB20OJPJqOTUpJRLzMNWqbfPHYlHSyttr4Mc6F
+J53wy5PeUDHKxYpybiwB8WB9GzqtAsoDr+1mAU3rg6TWjettZ7k3WWI/l8xxpj9d1TBf5eL3Xrt3
+pPOMCZRyALoyDZg+C1HgljVGgCijqLkQd3S/hCPG/GScGWPtBnrxkdLXVVsVP3p7/CjiBAMy9Fzf
+1mlTbagtobGkDmDwPmKi/hry5NZ3w13Hz5/y5I2Ox8bhOY1/hnvViLPaSB/jWq4jNaarRpRPxLPr
+Q8Lp3JblQs/Ck5dxyw7jj2YUZ9FW67TnI8sZB988wfnOrpJN1ugnkoDoIQFvsrCc9rxDTqaJvGc0
+hOhMMqS94mjubj2HN6U2sGf2NfVOKYbMrIkL0GxvrV3RNWRBbknsU3QjV625N0aFj4k8owvlgDpc
+dR/g1SUgARMMqWaXeB1cG7ZLfgzezRRKDjrxfZRDlan075lTMzHZZhMcJ4m5iRcyPyOoCK1m40fp
+uD97E34QQBNkCev2Lo/GW8/rHuZDE3fdTZWAhwm6EUOzP9v1JVZHvTLnYQz6EMfBnPu7hisyspyV
+yrNjaxZ4qMP6uXLNpTu432WT9vcCD4ET4y6lsBQrhDWwdTr5G6x1E74eLqbJ0U9G5y57ByFBjRGv
+cJvCCyn9TxlgYqpYAAb3g8TrQ17JEbRyM7smLkqz4XuympAAKnhlwbJNq4Tm1XS8iMljzxydtVPH
+N7zx0aj4pEfs/4wuErZRMe/+vUKotBp1a+guj85+/AzFAGZGePir62KZNB6JFO9E7diR0P2Ho8lr
+ZZEwo+lvUdXsC1Pi42KVq7JqtmUxUgNsPpet3IwVjAWZPehBkfIpxizkBrvOhpM85lclqT7MipZE
+oX0lXVJixeHLK3hz6uN0EElwx0ORp2KTPzdNbdDv6fKwBpfYNtfGnz9DUbjil3Z2TQdYTcTXFKJd
+acsf1A7xFs+Soz8070Ve3nLwDJdebrMUEsjnRCuwwsrCP1Kg+oBPlukjeyf/wqWWiOjcPbTG+rQI
+/Wx2rCT7/z/van/KaP83A2m/MtrbJvunf/yHHSWef3JbU78n05xfHLJBM3ddYv78GQ377bYGI4bU
+0RxCY2jV8Z3+TmrHckqODQ0ZY6c+c9//721N/SKUhZnFnGNutG3+tWSazs3wj6c1w7VNckuGYZgW
+V7759PYvkmkilpoaRoi3kpW9mLVcCQwmzKYtJL1dO8iNZHswKP+YAV++zB9jx1kLtowCUiH1wHPD
+XLAdjNcKxGLjEv7wVbFDL6DDoFS8Bg0CPSVbTMU2YxNwWURCdFDw2HSM9EfC4qMV+UGxCBksRA6L
+kZpMeMTqMrAwNRPru0cRX8YqJXHKl11xZ0z2d8uqNbJyIe+9dq19X9c8MgeWMtdqd0ihm5FlLdW8
+izPCOp3vemFNU60Lq5b1LoRJM7Du6ax9vcfqU82boMdK6MZwWvg7xPxB9Qaw6CyPlVerVVrau2nw
+f/Rh9YJRlcpNFk4v6WtErfJzYBXtfODcabfPWVF9pyOwYG2dIn23WWEDzzC3PKoSTRxS9tsup7gD
+WnxZsrNsLCGP/bwMe37x5bAd9/OaPAz8eSRszpZfPQZs0k6q3cbwV3IGYPZsWo1W1KPhEa+bZ7a5
+Nyoo+oUeejs17+qIwqRRmSXD/CNnmY9Y6rXAAmlJZ1JcnmSSsQDO+39i4ThDEAg6puPBdvC3yp1F
+ndhCaDMJGxnBoKzRRlYQBBFMZIYuyYmaozvwm1ZLFymiR5LwXe0hiIwfMVLFgGQR11h5kDAyVx3m
+Lz5x8vskwSAvbHnvYM0I25/6LRFi+dlm8c2Y+KfJEAdN1vuQ6THuxrcppYKyYa8Po0NruEstAY2i
+xdZLp4p3P3NppzDPPYYFTjFEIvGOkrLmXeoB1SDgIUjmAVHlbLQxO/PaksfTHQlbnz92Md9ZYrUd
+XAwoHNiO3Jn3XTS+jFhn6xIKAljgZTVndofhROc07yG4uuU0M+1T/cbiab8gpHMJDfk2FRMkOjps
++KPN+XHjyZ+eIFfvaKepeTUmOUll6a+oJxi5v/Fapv/zRob9LsVLOVTTRu+rO4w4e2yeJwVc1akF
+O0GP+4lXa08rB1t1+d4R+Sp7QutccjpsJGbgvPK9OnQpr/FptE4ufP+Y+H81cSzgArx1MeYVwnzy
+m4B1mai7zrXRSWmP1i0YMF7sfkaBdo4M48alMxGn25ssOC45CcnP9svAihzpDGhG5BBp9+F6rJU5
+0vQpYuTjKt8I8Oe1PqQk+EOTzWnct711VRqT5KTlT75MoSGpL/ynu3ykFqryTuTGdMT/6pWpmfRH
+pq3AQT7PBZEGs3kL/r1zutdKX3QUvpPvWw8Ni2OBT2VRYUe2Icp7jW5sYzffzdpLSv9gVDuArgHF
+4YnYpRwSY1D2UovvrQwHLFt0V/BzXtFChdzSNzuHYp06CzYdXnLZHtqaFX4E4lreJYo6a6+EBGx0
+S9HIcwqTv68QhsL+TCaoXSWOdeECz3lUlhc3VPcSzHkD7N8a8h8JmcSYPoCOg1oIyLWjesICaDfi
+wFxQnI5RTu4SzPa1Co6IiRuq73ZFXl0aw77poaQSHQJ46b0TULgjhc8UO0y3jYML2Mv5vHNt7wsY
+R7V7WzCsYakg3WugyHErb8ZuwiwMHiZh84vgOUgzea+N+M5U01KnrwEaAkXGXXIf0OcwkCjjI/w6
+z6dWU1iXKRJnrTOuA70QOgQv6Hq0X4jnkjsYUJR1FwEVbdPnAbhqJwkgaSUdM8xXfmd/+3NBRa3M
+rWNGxKHoroCndByrK8VLDisQd49JIo5gHuxwh9ZGf0UcIhdXe9vKQ9mYaE2MKDuD0CvrK1EEI90R
+xmK35ueKtg6fvCYftO3A2NMnRIUDAmp6BCGYE2AyIJqk1VaBN5DUg4wlUUbOU3Ny4a4pGePwdWxy
+yi1qD6ETvAfZhTsufiuHKIHWUVIth70/95XoZgtLNX6v5pYNkddXR6vvO8SdVIdiHAPw6/tx6efO
+3egRwHKq01TwoxnCLw1GXHqJ5HOEqzBBV/Ljd6vWcbN636OL/QDBPoQ0qCRGAigFYpiIc+chh4mS
+FkQbiGHPK2jRCgsPmH1157Ed6iG1SmubH+4BGmKK7LRIudQ2tc0fn3uE04GXXIh1yklr0sNNABlN
+8e612v6Z2Pla4eUr0vDGN9NdGLOxuzNjq5iZGgP4GTf47jx/V0Ti6tb2qbPURxPh61UgIQIQUhtN
+xrCWADZM8GlbspK+Ob4KDV9FNZG7skltGaX7HPNH0XScmmvSFVFtH8Yse+45VFD9wUkq8uiAcWhp
+1qhQGd3y5E9RuNRU80kNyyrRxVZKjVRF8zgxDpvjNzrXstCAOs08/Klzj6GfnAq6eA2zf0UvWllJ
+mG3FLF/YzraPJR0vLAhzdGGrWfWjU4A5r3AdaBMGV2J7H4af89EbT7qY1kab7vsY9Akcr7Xe0BM+
+pPEOUsaPSFXXiWe4l9PqVFVIQ3RIlyQDEyn8jaBydOEl07fVY/5Pym6lW0iVfgiUmIsziZEPkaZY
+iJSMV24RfvVggmEk2WjjzClNqF/GvN9bMKwaAdnE9bY1loM2bGnlk+TCO/y9EWfPSIN2PxHBALv2
+4KfzjXXINTYouPo5NG7V4zXXSLXTrkDJB5sfmyviJdXEekN/4+iatwrv0YJr09xRGT0kCZEUP4jf
+rKi//48z9Fv/DqLkY/BV1fE//a9/2FVvn+E//2Pzv//nnwz/86/0W4BsLluSACbYTP8WE/t1+Hd/
+wWtnw2+gHcnVeaH+NvwTIDMkhjvX4pH2N/bEb8O//AUWpEGQUxnmX65pYqP4++HfmvNtbCeWLaSD
+g+6Pw3/NWFA1VgdMP8gwtbBlpug/GPQouES/RPZw1GaoUaiTArdsZ2HeMl19XRnwhk3BLt4TXv2B
+LHZf2NhwpC4PyPvoroM+vhDtQW/ugxvKHbjSDVAi7cFEhpSUBaM50kgQMX1jWN0yfXMMbpIbCAGb
+1PQ1qhnmtGZmTbjkqz3u1q1eTxfdyz8zVGgywnw+XL05p51z5yu4Agxh1REoEL0qVnsF+AGvEXkV
+e8pTFdAYXanZwiy/sfvCmSMIpIFDN+he6HQqmQrA3Fiyz03luQstrCiWYQ3CvlzxbXE3NnZ4CDjd
+WzPWik+a8dw2Q0zEIH3oXD6AUDghydVrhbjhzY0S+KIiaOfJQ9DBxzABwDU8in0cWG1Y7l1sf66A
+QNvLYZcnGjXU7YC2xu0zGKr7npQR48hJ+uIwOIiQ3LZlET2gKK518Jx5XFxNrSuoHsYxl+hY3NoT
+3vRTMUzrJo2+SuZ1JNHXUjp3nRrtVe11J5hZ9x3c9i1jf442F2zp/b1aMJQwtpjPjEFbtxUorONb
+AJ0gczruD6wTnuNcecyT89L0WyOMT0qN+kLo3OeVs8fgiMga9YS5Cui6snkakoFQhPbaDwFtj9NM
+GBF1vsxSOCO9mfeLntKhpZvmcLl7H/F17JBGbA/qbfPgJmCwh/jdkPotBrpqnSQ8My0ONXu3yO5p
+h796A9E7YZFjN7VDWfMjSf9FiLVBgyws7qI8evfLAHoHImNnk5nTXW0XGPmqsfJmw88LV+tgoqC3
+nOuNuNjgt1aLka+k5s7qMeqiTOX4rOKTN1MBohI/gPkuMnIlST5BwTYABM8FfglgY8mV1aZPKrO0
+CzSzx8rm9KA4IppNfpf4clfl3QPmZ67jchd19AibrXtMQVQsfDyk5ITSFukJI96iiCFwBCAoz72f
+ApHDSJ1zCkcsFESOQ8RrutaPrurwapZts86tCV0X3Jwrwyvsi6uqE3tLc8Ot6eLe5C5yi40Ph4ZM
+vcPQRZxfxsLaxvz5dKN8q5WBi6WcORO70U+ffRok6I/bpQ3YfUqahjnLfaOKjss4mlEIWgkyJ9+h
+NPrAGYtE3LTiIDxuVUk56cuseBld78t2sPw7NlsFRK6WGBHo4roFL1kNeCuxNSmujMup1hFjvWOt
+pYxC/JXUIAsRmNwu+nEikNhmjDtMjBMmuL6dasTLmHykyZwHCoy9IX600/JRUGmVdwG1RcW2aq35
+4jYuGVo3DPyYR7l70qW1xg/MZmqSHOLooMM+tL0WjIoW56ucRagf6nTRcV4M+vYY8fuZQuReFVlw
+K7jmLizgthvd5DZgj9QPa2rc4y7daYO8C3ycfQ6a/ymAkjM70fquwjFS6XTVdUm3rTRRPGuJcEmF
+9N+TFx5Fw7M25aOuVRFOiLjYD10IFqSHsejKCMqCAZ83YLyLW1A+tabjHNEF7XnhShatu9fS/Kz4
+MG6mSH8b9eCMGA7yjNNjn2za0H2S5Xda0r7SBC+OxsAGjyyRE1cvzJFaftcEbbw1+ZJw5xHJ+I8z
+AjgAnv91Q/3NW/XZvv85TXr+J3/z0hPE5gwiHBcMlTKQ7n595Tu/WMKUOtFwg3e/5eJi/13vM1xH
+ODPDCtGP1/Tvah9OekvO/zWLc8r9K056XAV//8JHhORLA2atLF4nsKn/oPa5QoPJA2cXSqq1t7n6
+RtW4DnTQo3XjUYYTrDXLQXKS1McY8mgqOoOKhIYC3ykfIrA5jUW418v8x6lv77NyhO+E5hIQTtR7
+bpmtLNeNFr83FdHwkWVDKb1bpGG15l6ycSd1EIG7qC1/ldYdbkvMkyLbVllzaurhYRzlMZ8GUqSz
+s0bTTnr8OaL2M1eMO+EMN2NlUgJEgLbjtbiozfRooXlAoy3IcpsrfJ2X2rNuUTRxAOf2qvdN5Ifk
+kabuGwXEqFT0NLnDLaVJK8dr9h5TQucaHHY5Uxvf0qQvBYmulWypNBVpQ15svCl5cmW3ahKFLqhN
+/G5y9igGbnZ67spcuXk8bT2rZzOINtxjCt5lAoA+ocUVBPlLDsirqPWF1XMCYZp6hZGaLSKUAr5o
+4kIcmJue5H4enGRAcEYaG7v28YH42ZOlJdu+0vdCcsKk1K6ZvjSfFFvD/gVYc1shaPJbLA/22HBG
+ch7r1sGqz/u9xGYAHSxpwY965W7wiAhSJR+AxINZYvLHNO3beYmxKN4ou6Pno8q14DYhJrqnsDB2
+OfDTJCb5SeCY05x8i6LqUilscI6wOTHk4VoExFgbbrtOkCVsm5z+42xVetqyGYL7oEZxdQZ6w11x
+dFR0a/TU/UkbM53Dt6J1Cd7lA00BY0p2EQ+UvppryfvG3xtBfJsGJZjosHj0zRJ3Po0okffggEcO
+q2A3NESQQi0nOxW6NJ+V892LWHXT2iudX9w167WdE2aIkidjsE+9Nmws1W70JH11DDRCgmEnTMd3
+ufyuDf2t6THzWoqLIhTfHPqAwVnEDyN0YyjFkGU4qBcASiMlH/wm2hod4b6sIlLWxjciSbnR6Yes
+wmySgxFg6TaKOxGBraXgh4mSOpOdVkyrqUNkRc/j53eFAR1jS/mBww8fv3wKDP3OshhEiZOBK+dd
+t3Y0ryRHOjtFS4YUnZbdYC75UJZ2RGU4l71/V3Fs4kinAtyuEVhp7V23CGXilpat6CPm7bB5ynTH
+2bjY6YEEWOo6GuB6TQCSrZYdI9IdqWHtGuCimuLEb8e6eyMi41Fp/DTnfn10AK8ymvT2OmlG/YW4
+N2kuAfp1KocrHRtYx5tsV6Vwmj2vegL/jPna+S7D6WUaTRZyyLKKe2/XEIEfhYZTg2OzlPGb7gzz
+DuB807Ry9cmPz8GN+9wGtDZxt1haRf/i1h0stwRlqywPE69BY6zXcHfgI2vurCvSfaGwpCNF1CF6
+VSESqI49Jpayuzo40FZNjTgScU30OPqZer8Mzfbs5CUOxarns0EYGTiVDb+OH5jyKQ7FQyD8vca3
+mFUHeSLjW1TzceNKi2wExHeo7zKsHI6WPKc5Ge6CFvrJXQUY5rEb+UuRiKfQCFDm4nd0gnVROPU6
+qtCl+b1defJ9cxak9QmDTQPGJoixPHtfIkue0rn4B4r6XnTW0bApU+sxP+ipRzKJSsyoYjhAwOr7
+tJ+/EQddpVSjpNtI8dTsvfTG6PTPwJQZe0y2wz7ybo49Ty1na5JlciaK0GrODrKmYhNzjcqjUz9w
+qBHIwQjS1rOde7u6mR4hEN65yUQBnoNcKEABQ8TyeDrazc7XglPlw2Oa8yxd2T0nKVHiLDgpoFLO
+3PVWTB+6GG9GfLr7nEw3xibwQHhqtzFlhQ2lhQa2s6hmDBFG8OnXfGZH4E9SW4a0H1ZR/JGMfCjb
+Lh63NV73krg/atMK0t5Eg2uzqWlXrKk+4uChh+u+CC9VzBituviHCHVyVi0QQP1Hg3MtUDpAxeYS
++eTxJ9y2roOgbhAkK5vwwFucfHqhce3QHVTIcjlW7YWY9kM78turBmeT2PkxAZBC5Ti9eBOzeD2l
+xzDpL33TXhysooEtX2ugeJHbnX32L7cwZ2EGDzgjqsaWqvcFjIfgYBrIef5Q3A94OVdjTMYKQwam
+Q3lgT30xHFhFeEzWbkRNik9DFOtLRwlV6fE2K3KTdBMmiwyrs4VJY0Hf6KLQ+q8Qrb6ua7YZ602g
+4Ydo+SGafgvWdZpFfiOgccpg3A1g9ecGk3Tsdi/4x1eV44Jy5VQgk5Q25OgGJeDUzseEMK0OBteF
+yLE/efyRnBAXe1aEB0rurQSxtQqWWCcxMnKtyLhaxAVphKm56+drRuhuUtbtkSuHz8MHyZnp3JpP
+IDa3EOPnVaSbUui52YlaFcS2OKZhaLx2+UBWnjdOH13M+cQCpeSmTHEEYTaggCFw372ifvEHnAXj
+2Am0RXoZtB5dVwv2OehkLaeQitoVahWjHcMaeHt+Nmyz5/xEc6zlPLa8YqsKIvhfH4DP4UeFPvLd
+/Nf//DH8l4+8GKuQyvmfsJ/f/9+1+Mrum+rrqzm/FX//d/7hH6z/+8+/7H/lq7fm7Q//Z501YTPe
+tl/VePdVt8nf/iW//p3/3r/4a035w1h8/bf/9PbJE2YutK3Cj+bPzuPzVPmvj8movV8f//w/3vo/
+Ucbmf/I3ZUxXoFqpxbCFI39Skn4dkwmjmqhbUgFYUgYpr9/GZJQxHUO5qRviZ+eK+S8GZfmLMMTM
+VNINm9vhX2tdoQbl7wdl0xBcCQlvGPyH4fyPg3Jrl1ZgjHOPWxdiH5dEIZLY+FFVTG5pR5xJ0zsd
+YTcGA9NQMTHY3G57U11NQX8GM9aw0iX0Sew4wIKColxr3IGtrNU3uCUPCeie5SBIysTxRD5dTnht
+RP6aujqX+NK8SwYRHVPCdLSgJzThza4aSs14/PMq5MJx03oeu74C2xxS0heX5ibXhVgmo65AVmrO
+sc9HCgfjiq6nGFRyXDvLYZDtZ5DZCYmAljoylXeXwpyzUKYvjmZF4VM3tBSzxmJcm354qFJJCEXp
+x0DQUolcSDktPVmuLNZ8fVdVeUdSYcfRGT8sSUt25D7ifBIXbL39YWrGGAd1/+Cxp9JzRzRSeFQd
+BNu8ZYIVjXr042+tGE+ak924IUNrHRnHVLY3wlccyAxznbTVe8lX3urDMiy5dqb040WwrHEbwvDk
+zDgK9eKGjKNT2W7jMEJBMSyCmL5cTI040oy8bzpnh5SEoiNelCA1Uo68YVVtPHsTrWyuqb3BhwT9
+EvMVGL5cIvZReef471ReLR35GYjuGZTWqnXg9IL5XHUKH06K7VTJbyT/pQHxCxBE8JFoLqEGr98b
+urHPmhS76SzNdyI9GpjcbC1+bTpK79ze/GwgPC3rzvhwXcQIQ6TXzosInMErxCgaEXtcepITZU9+
+SWV1fUiNT9dCCpwmsTfzwgYBi0aZFMxFWBgQYapk5ZvYlIpcpxtMvrD4c5wDEYsqehSM87cqsZ1d
+NwJxL/D+ihHdzIVPw4IVzgQRe2YC8nh3wcNis2rGPd2ZNJiltNbM/zuhxiZIP3wcYEaekm1h6sp1
+eN50qA219dRDzHZZlpaWFe55q1LqpsPuSjSflrCeoY8kbuBpTwTA7gvd/pAOnIhaaS+9NW18UowB
+PMMGR60j6ffzzIfaHBBK1ToBNOtpOenlAedoSTGy7JdSFBuj6+8xeW3neukq/BaFsySVxTsWbG2Q
+R0+ji3mlShC91KVT7WtYqY1mO/uG6Q7t5hBW3I1k+9Jj+PQbmiFoSS7snKIbvGA1yTMLdJbBm6kp
+uTsOgb3Xo4bwRsHFS8fdgUWAbRT9/3YAVTUggNMeqvSVqLw7UVXhViTjTrPoB0py7y4eCyycrnE3
+SsZ+XshLrQFnYpOq6SiNgCWfFsq7LyIZvI/VnC7OmD5VFNxSLfRsqvbDDeXEhQ/FGHhtzGOn4zlS
+JK+GlXxXKsEuR8fcYSqb5Nx0xHXzTA2HLMN3Dvris+m7H50N5JNnFpuMwO0oz4iczAOpI0moDsWK
+1WAkZ6PAP9QTallk/zDa0lmNlqJKOcSbDvM0r8KNsgdrXSM/Esyhgc127cXEOQ0TX7bV+56f4HJb
+6XzriujSOc8Owrk3py3A11dkI9ZBLXaWbvKBJTpIgld7J50b9PmPvANrVNgCw838RVkt2YE++Qwn
+7s0QvHqCE+HFVMbVMpJhO0jq/xyKIoNgl5bywWzCO2JhiLBwNvl8ZPifl9QWHLzCgMsl5DvO4yfc
+gxtHlaSDuhce1s7WIIBpyXyT4cJsRjBVWUQ9ak7nRBnYrGDNMQUAo0ekzEuQQjmx5lx6SxlWtNY5
+PT6aMJB8+QiYUdRNu6JRDLSEUEVdYjM4auWZ3gom1yan8CbEDraC3wUgx9EfHJP7vu2kt4NKYOoy
+UrFQ8pBIinMT5o8WxiWCU+cgNW6Jgu7JiP5orBTKVXwovekj5U8bRFOyrwQGqrIwsYw46XEy5cEd
+5cRuWC6sqn3oZXR0aE70aHTlobrLMu0yooAIrVtZXUbjQI8JNsI9/dcnov9XZx35b0qCf7MC3lRv
+HwHdWn/eM/e7Mvh/yDuPJMuRbMmuCCkgBgMw6cHj1LmHkwnESQSoATBwYE9/Fb2xPsjKyiK/ur/U
+sKWGKZEe4e4P5Jpe1aPiNxvogmPyCGe++VMWdBaDIMhsD8gkolrAn/ytZQ6yBgOIz9VsUjLHKPRX
+YdD/je0gX2dJxAoWLc6/Iwx69n9DSVqs//gXXE8E1C4tPMu/twE6JFT6oW+xehHii1zxKLvhPq/d
+fTrU4SEpenUzK+wY4H8JHONZi8kD0yeLdl6+wZvbYllckvvc/bCigFrtqjm+TVWHUJN/8Xo5UoB6
+7Cj0drK0XbmddRyMeGuBjhpacdsE05W94Fa6xiloCLP09eM82mcnMG7dxzq/deEnGDjQbLu4hiqm
+zAFzA2j2MfJZ2Yv6Qs4Hk3FsLgmLo2qma1UMO9eWjA3O0Y7KXZmVdy7ubV7GJghqTn3kKLP8lx/a
+F2kJsUKEJ51WN5s0mx+6ydoSNtvjloZeWTkMMhMu6lJdzMba0yJOYXd7hEAINm+JfIP0ghgZ7TpU
+y8qhSB44yakLFqtKdBtRXo7k5TzzGd8VxnQKlL64A17ljhAmHcU8Q5Pk2ECyFBHn2SxIL63HUamo
+nVPdkY6YI6xayvZ3LZsKFdckftJtHho0nECZs8eehKNF5fEvI46+qHu9xyy4bg1BKKA4dKg+dYxG
+AfD9C+s1Jir7XdlQyOmBS3aZJT5Kh4c1ktmldrq95gBNHpkFlLg1KX0bW+dRmfPOCPgVw/xcWQ3q
+a1312LE5X2HN4iTNlDPlekMxwX2W0FDVqX3UWx/x3B9Ce3yosg45rZNXRTzaS3Nr46AiBMl8nxkO
+c1+Lgse/SJ1RNaYnxRI2FsS1swCYX+J8Z1CgZ5Jd2VywxJlhL8nJPmRG+RT0xERdu7z1SutHvfSR
+lMWtNp4C4US71s72AVscekuoCis+uraVdMT5+ALRp/3K3Y5Wegtk6LlB5NNTwNE1v0JR2E5RfGOB
+kw9y8zzRyjrG76L0ubqE3iHPrbo6P1ngVai4fTLoM8XYxGCaGi/YQR/pcoZstfhZwW2GLKOkZTwn
+UbuxqE6LyuzOTJyntgV+moMOVwb8q54JsE2vPoabbMH983IF7ettzcF4Hynoy5vqMSuDN7uf9k5R
+32LY35YRWZDGym/s8VMP3efMPFKH835IGQ399LEY/GeRmldc/vtegVvr1K4VHU5A71nY5rofCspR
+KCuKFnnFNLKXVIQvTppvG8kvmP5IkxLhGTG0p+ypr7EmtuYuGcejCFgMhsy9o/lEoaq197RESxzM
+u2gpTeCQsOrovzN0fiqWd2tEFFx21r2oEVe98YoCtPYb4wxChENTctG2ok6ahb8fFoSewaTTL+gQ
+eN62ot829rCdceDJsCTJmR74lo9TVs57G/oAUIxhrcLiOsjh3ur6S98pWLMIIFWPn435UuWEMlIM
+/eTDox+N8Uq5Le3vy36/Swxyf8YNIGyFACNOxdKPGWU2bdslIAiQ8xwdN06GlSpJB3kocM9DYEUC
+8kjATUv3Jl5fEB1LH+es5pc8dJ6Eseynh+ewA65D40uqf8X0v4AdAAsx/mB625NLu1m60QYXVc5Q
+dxH5MzUh1OEOJDf3pOmXaeiZqYfgbozVnnwhsabtgBWNax0rQmkcUVwfVEr7JmrXJ/a7ClQXbTZk
+7y5Mu58pNTf90ncjxKdp1zwRcF/BQ5qm8VFSjxNzmQG+3aiA3/cCOC3n6UBGZu+CiIiIL5OKIRyA
+30j/Ijd3all/O/Z0CKnl0cAIhOPtB7+447M7EGkHLoyShC785MpomxIYiyn66fvuTlH8YzuseUfE
+MmwElds+qgJdDtFNivahSc1nHxoIv+WX5Qa2fWMHsmbLRp1uxvZHCxIlQlK3u19NpHZ4GphWBjYF
+HK7wpnnBN8nSjd3zMGzFzuxHbHHGVlJL4XfuV1sNu4wDo2qGT7/4FbUljy3KkXDbYv6mLQnay9kd
+l7rjcR1Sp2Qt6wlygYWtLqkTX1tql2IiYSk1TBEHfwzKEFrkWlDTNKRIfAvcpAV42S5NTiojUia/
+66XhqRJUtqfG+MPAihZk9m1FGVRHKZTU7hn9DZIwoAYfinvnHpMiOYxLm1QQ6/1g9Y8Mc6eRuqmQ
+2qnKUXf14GzS0jyweV+seN6K/o/bcWmsGuouWPm9vOEVBQRYuyEpmsDY45rgg0QrJFdGtevSg6XS
+eJ1SjKXsbsVrB+zI/O3QW5E7WONAKmUVTxPI+AMFWxnOk3BxBwqqtzQVXJFXEvhcWrnKLoXhttR0
+Uec+JrsKy6Hf1OzY26u79HqVhGetoXjHW7NrUQoQTLOVcqOb0mS/QcqO+roEs3AVP1Pe2rLBKtZj
+SW+GY781GiWAvmrnRB/ErzblqQvw9NutOGNDlr73afaYqbfcqBzSsxmbBDvnlDIC5Pk533ttsk6x
+zdexjUnZyo+lC5QX1zqlI82ekyfrn0pxm7CE78dzMuP7AOjkjSUG1CUQK+jYNCLuJFmAZVJt8wqC
+ce0P1R5vKk1xw2K4g7gbLMprIl1UccvisAmIgz0Gv/vZ02tjksdM4LMJ9UQcsiDnqPZcg9ykZryt
+G8lma1QfI23kRDD2ZkdNbOXbR62rrbmsRVnlZKm+7xzTIsXGXe68TZE+y4w9ksRPH4jPViIpjLH/
+qXW2JxL87OvhA8zBXgfp15ATfzJlDc9HW0eYRIcJP6aXdzd5nLwFCQCLKuKQgE+BNq1tW1E4Ior+
+1MTzc2gmr9K8ZluoL0dljEuYjEXdU9M+VA2eT9d8dYVB2wjd8tJ896r3aJArwe4LaG4SvynP4v6x
+rPdg2VpUmksoaoxVa/fv+YjkxHZW83j6oCHlw/HCc0s/+go09cXIeDSOHsmF3glploF9H98RFHlL
+6hWYuadhpE3g0V6iZLxviVT0JOy857a8hCUoEtOlthhhgs2WPtSCpJ8xXcSYrtI63thnVmhXzkPw
+WbHnBOxoQkM/SXVNNGfdKrtLaa70k24be8beNOStDTeD/YBBQ6K0frrwXisSyY7RnAwzv+Rd+myO
+tKNG7ov+MQ55vGmFQ8HIGrLITtr6LcxNClXlDQW3+GcaymxcDGy5/RF3PLazg59XIJtGM17V/SM/
+9vuY0sLkGYG4iQrJmzGof40NZ2vTSlAN4Hco76OOkWaiIZmPYEtwbsGA32Gt4bXUdDQVVfo/yNIp
+OUr934XqvxzeLmVXTP9Cql6+9g+pWvwG+hBzRkBXmOk4HML+UKodPJwc2AL6wRzfJTH758nNNX8T
+AaZ7aBh/CX397eTGH5nLgY1jINZP26JU4N8pAfD5m/4pwGVTeUjzGd/E78fBfzy5BYHWY6bpjF4G
+3YY21UpH/qY0y5tJCOzsYIlqaMz0ZXmVt20hBriCbRWPtq6zAW9W3SVD3bapjdU1ndmD6DawBD8T
+t/+Vjqhlhv9qKDqkrXEzdTy3W+vWHLtt2BP9qdtznZBQdMaAU9KIfCksKonADVUIXiurIsPr8JCu
+wq3hdV9m99Va7bnBcYpQyc4rHR/KEO3EYY9OQn2exkuUeU+WrX6GAb5zHzgpuVBau3c+y88qj6hl
+ruzNEk/yZ/Fa0F1QJ+rK/vQZrekmNO07VtX7cIiJUBTj3aIMQ6RYaUHLU4mZxbff7eajt5t3N8Ef
+6Oib1jC/nSbfJFZ2k87WOneJaWoPt9vsQaGDqzFiZlgZIHhZom4NZZPgJ11Vl8PO6/q1kaRkWtqv
+vMyujSX3imYfIMs7NUwTxcrewXHj0xBhAPHA3JCzG4/VED/qvIINyAuuiTcldJ0u18m+014OAXoq
+EDPDdcgjxsrZSYdt+5xnTNXMWDwTfaods5BGNP00w/3ddEmwt+zuFE3wiEMKRPuqoDi5ZsjuJQHR
+mRp02DjvLDxOgF4e3dzoV2MVXHOV/BrM6N4Cn7L2ID3wZpeKoM14qjRC8kSm7IwZcQOrieYZmknS
+inNkkPoPlQkaQFRs9KutP1t7Gfcfohj5zEP7OR1YlQDmpqwzfVRqWMuxG75odH6hdvl2cny2HRqQ
+SSqfhokq1ZkoujVeyxpjHUvFkOqcVvuX0oWLzQntYsn4mwrHhyGS/skezXthqneDGvfQopiJ9i6f
+uB3bfY+jworcl9ymnUx2c99su4iTFcJiPqFGB0P5jk/2iQQ5yC8wfx70siSIb3CMZNBPENFBBQQ2
+QQMLsU8jOGa6OlnFc1r4UNbj28Ci6razb+0p3CU56ISO5lRYjZN9BUC6aQaGVdd+5bPcjsCkGgfF
+28c0qcy2JSyi9sNQ/Oi95pfullLdiR29XpsFphY34IyR61PthVS6ihOx+rMRcBk6qiezqNVTF2M4
+iAPoyFN031IjtopabWyqWFCGEzjx2lDOWXcYhbyWXY87HckWQxqkVItxRUdfYYacKqati9UxlP1d
+nMCcj6uDU4FH5jPwtH1TiJqNc78BKLVZaAeBCZqSjkLlfKUFIolWl9CuNqXAjdLUmzEYTo3bb4kt
+HavR3Cx17WwsjwsWLhTpbmbhrbNuW/OuIs14ontrBVyLLVhaf0izfSl9BTBp3iaSe2NU2DRgDQzA
+Ucm/NO0EegU/U1Ztpc45ZJNSlHitdLUrNY1N4eJYsIInUyuwA8VA7hrbSM3dOrGdY2q+anDsHmEU
+K+A4D4UJLDsmTR5a4sRkqtGqfu92cpVP8XLb3/d5Tk0d1PkyprZkUoTRrPYuzgpaAeB0QGcaimQf
+UftTdBC8fFzr5fA1sbLPsVxirGIzZ1nTvhcWJPzqHCL2KkJJOuy2Qy8RsPBrOZYHM887gk26qwnj
+BU1yrQxxMCLio473CFR1k1vqLKKJC8/iFqjA2+tLbH8LKz1a1bTzUv84zeYuD2EJ+ST4LXfvLvy/
+kCpCKMyVBTAHm2dbhUdvhn4DenzKGGrNpVmBsfitLsRpkKhH8dS/WJzPyLZA3qDjfgisjcjK41LS
+gB7Sn6PlgZhScjgp/2H27AfTrubfqyItjzvW9iCC1rivsXvVDOmINOuoH7ZlLHfGYB2KtsSGN1Ef
+m/ZfdjF+RIx57HmJskVncxaACegfsVEu6EFbtQF1u5AIiHNtEmJu46x2ZfAgKWx29bRfGCAFyMsi
+OqStcRMDOdFTcq3bcF91grhmnh7oFdk08y/eYh1EmEX97iBtOglr0LrgCS9nWKlR176Habvz1axu
+XEsrFjomgdAsTNZjTZqt42D+HPORRbH4FajnDhyIgIVR8TMeWOsO6zbip+14JGvFkWWay3mHA8ND
+vafloRdAVGx2tnt3IMGGeElzpdoZklgxNZaXbPT2kzsvYdaN33J5NqyOdAiqgnOZAXchBkPTAIzj
+rPFYi47reg42tcl3DoavLOPDHAjwOTT5BdlPLw7uTM3byBQgbHWcIEc0/aPvRKc6j87+lD2UCuq7
+OzzM7rSvmuohactTpPy9dNv30ihw2pE7Uq18p3aNYF+ep2s7TJ86ZWJb+TTN/EbYfMj0y8DYXDcj
+zRpLEExxWuftIXv7y9IfePFuHNDFMP8eyry4UCXyRcHQ1ufjzr3sLJ1xZQ/M1oQO3bZh/HXvvPq7
+V+ZnUBdovtWpTtt7lLQLHBkax36B+dwbhsEBvwahxZLNj8GtuA3ewNbGG1rqko6vADCn6+y1W67r
+zl4PtX9j9u4NcBixK2GOs90lrGe+OWyM0jwkPEa6wS/f/IHlehIB4xhqjmV6y0e/EEqXmRx0kjPu
+usy5tIaxpYm8oagZzyVVkw8dljyLA+s4m5hznGNAbXitDDyE+cSChR1VpU8mMV+Ps8YQy88ank8x
+JwfdhkeKvG4ij3vaBTMXKsb2UV5mWR14RzkLKgIodE9ziC+B9Q4FlaeBv5ZZccV1iuouxbdd24dK
+l1/u3Lhso2OiOqlmpvpOsMzn9nDnmdzzcf0cWj2ZuOi1irqBdnjryUBxCiKfHGmRnEJLfk0m4EGS
+Kp9Eyqq128kQicPU6y4EEd+KAVkUUUnoV7/S37MK2XP7CCYYFB1Cdn3bnWHe/ShFZa86mJ21/dLV
+9ZcdwkcKXCx60hEPOlnwnzjW1loSPVeonAMY4dr0wh2rvfu2RcAntr6xDX1UfcKIIXnmDAA1V6Yw
+vpX2nlx631Q0niYqACeryNdJ5j63hU0vopuTyIY4BsHm2yhYQjjJcNd51kviLoObl0/AhFnH8V7b
+NY53W7IziC0uAoMtghEmFSW17sWO7MsccAn0HIONySL04kHb7sVnOvu3YdQeS/oogqQ521CsiWzM
+B8tpSWbM3rqpbTyF+Xjk5jrEab7qidpirTOeF8JZq9TRn9QTCwaC/vKIJhqueYGT4uZV4dT11aFO
+QgC7wfbHS4XOac8ln4CvUfDUrdAkReWeRKaplHB+CFD+G7uIzgGbVXocvJVblnu/6DJqLbn08hJw
+7cib1BnZK8YzNH+F+i65/+ml3iZOT6Jh4u3HSsWob/vshxe+F1NMZGV2D7VJwlcGO9/56XlECSNY
+5SsYKz9cI3gPbB5qQyGv3QBjyDb3YV7d5z3lFTx1nNCDEzklqEo9UE25E7PdrnynQnWO1pEu9yIJ
+dhhlHun82vtkmbOO1Wxon+fePFh0xJSd8zJQkbJqxFeh5rPdzWegYv9J+0iao/+nI+3DR1b2xf/+
+r+xfHGt9vv6PY63zWxBwnmV16C7xcMmi8s9zrRNIFoEikAT8guVP/hZUwJXFaZi9o8vXmvx1f91I
+Br8Ftmc7PvYr/kbKtv+dcy1hif92rqWKgNcCy0jB8dr/J+a/ohoL065frdPuYGUdd/B7l74sbr48
+SA/GlB6maR+BgoqyuwLVzOkxyU5r7T7S4cXFvrerhUrAw3fYJ9O1zP0v0n85AL6E/hBsXLU+BOSy
+Rp6WjjU8qrLZOuMWM6KB+fQtDr/S9pVGsXVNmbQuf03sumw2hEFPL6M+8/rDrXyrgSuMTX3Bsl7L
+mUhFh8+0Ovb+9IvO2ENmYqhQ4UGR0QfiRhsphcRzCACoOEdFc9auYhzeFXP17tjgjWVwiot3M3gR
+87fVXdNIvhAbirDK+2KdzJjtC2fvZdWVwlEoACmDlaPrU+XCtIBG564dViwb6lzqNWsQ+kAob9Lt
+87jECUpMqpNInU/2NAdtzVc2ux+RGm7aOsC3HO3bkROb7P0PuAO3GVkQs/7w7PHoEF7qIzcD7Tjt
+k7l6AWKwuMeTG0erYq07yBudJvrey11aedOmUfRw95zjjD7hKREBrrbbH7bJbqAI3prIYs+b3Xek
+182shQ9QrivKwi1d7OmWAm02TIfRYmVUmZ21bWX9k2mChVQb0uYWGnddDFM3ymnnoQwLejP9XBP7
+gDoDF+/vKS7YFAlRR5sjK/68HUSCDRdCdRNT3Vo37u1cBafArm5skHBxGjwJGMieDVlwII4Qep9d
+JS920lwS9rJtPuOhSVLmBwsfK/hdpZp7/IJvFFvfua26G9LUX0804BCpVOj5ZnLrCBO68kQzKD2p
+/hT9II/JqxTyGRF0Iuc283ERXmZvoKNNVxvRot9h2BJQRyeoqT11nrjLAlxytd1ues/hKSgx2wYk
+44wvXC0MAVSy5f74JsL0ZUz1Xmk6XgdruhEWWOxF4XS99sTfR3fopK7C5Y/J9V7bSu5dPEQG57q+
+l49TJ054fAhCspOb8HmnsGsSqmBXc2Es5zf9oy2Nn7Y/4eqKnJMrs7conH8i34copUREZlsZ+983
+ItJ4pDaSDU+dPChQwvji4nyVozLZwKvwU74PfXgCankOicdQmvtSpc795Da0iedHVtpctcFXRm8W
+1EGyEpT0VTMXVpBm/l1Zjket8vZBzs23Exnv2fSGfuSfjLl6sBEIAg0XYFEMqllewmk+BkgJFZJC
+0s3EhKHpIDVEmXzykR6kYs0TOcOtMUUvU2f0X2FDGRlyheNTupMhYIyF++wuisbUNxgETbwA5XZC
+8shRqnwkkCJdXGkZ28UIbWhetJIcDWGd+/1pME3FlhlFxV60lcEM7+LW+DkhurAsG9j3h4+QBU4l
+ssxgk7LO+jE/T4OzrnPiQgEiTjmScxwxFnTC25uLzhMj+ISL8jMjAeU1eoZRPksoklwOLFEC5CJD
+IXUs+lHnm4QBVZrsxYTDPhBEhRCcNMqThwLlL1IUJxQTbYATuuUemGgnFinBrkC/MnF+KPSsKNBf
+IfqWg3hitONuChHTl9arHCVsLrNNMHAMd9HImJ58FsvsExf5zKCDLEZPE+hqBBi/U8LXAqWjQ3dT
+4XuJCudGzTqRTKmoc0nFHF/2d2Hki02PfteZ4k6j5wXoehp9r46Gg4feRwPDwRygtqJOnTgwXNK0
+2GkUwtbwtwaKoRumP43UI0o2XgbzV4SwKFDSHITGQZBrbZEe3bg5m8ZniCCZqWDbI1BWLT8KrYzc
+w2iX9ISck0XNRAAkUYK+iYXibPvsqRA+p2G+lbxpLBJfdSR3URS8FhpkqNH8mhFOewRU9vm4v/wG
+gY/7gSfXfV8wOvcOnrKRJ2yd4V6lsaTMaWSBDlH78ihS4xiGku6NfIkdF5hA4z67F63Xr7TfniLs
+uUgu/mZwivPCZzYd+yhYDwEDx/5RE32bHqGIbCN+IJWP9FkON35sn8ZJxIcwNsnVOY9AcMp1GvAA
+EF3DmGpvvbHBuUivodt5xMAqKFIj0qCO61Xstj+sHLv+JKFSSnQfFp3vxOqxIEPbSdroF67lreVr
+tNycnIwpCSqRkdNTfQAc+iW76uBjbFhV9oxXeHDPKDAUgogr2t9t0Oo9zfN4bT2P/Emqae4ER8bc
+ypOSOpZ9wM7FpApKV0m3iSnyKb1DIBZLYS85e2Q32dSQmqjTGzdt8ktWSmelZXmVs/HUmVCSeYKV
+mOOIFayzx5BT5qqWFUIBKXnzQfWtw7esdq5n77yGx7OD9WOdWezbg+I24ezTxkTdByphIe49RhVd
+el19jRt62Nr2w6vKn5I8FzPATjX1XWY+9yNaXcILLU/R1yP1WmThM4bMPPAWeCJLrSiavzuo6FWX
+vyex+9KE8uTQTR8Vpxj3pfKXKDmv2Sk6dOZdSedoFIL4Sa5WJ9YFZAFJPCWqzXVt1TsO6sfaG49N
+Cpa8p/N0CVU1vHzBJNchhGSt5DVo2K5NPNBlkHx3ERvaiioKYk0b7VfPELbfMA73/0Ez9tKj/D/N
+2Ifyu2TELv7FiL18+Z8hB8kcLEybUdZetj1/jtj0RxN/AOzH1iYgAvG3EXvBfziu6dPG9S/wH2SA
+BaEEl0iCtQSF/43VkViG9X9cHTlLUkKC/nNBCMilT+zvTX+qF2JK3KBby6rVz40aKO0ZYmdF5WeI
+UkaGAa8zb3DakujTI3i3L5qs385eHR3HfL4LyHCsSYs54N984xKF7DmVsGdsIOiLBISVOYKydAxa
+P4jKdsZbjTUdGhWBNYo8lOn/8AxzW8w1BNUawqxbV7+0U4ZrOOBfbRc8aExGJnLMit8x+9h4Czg1
+Ae7FMGKEnJ9pqd0DGCR/WlugY0voXw6td4ONgcMyCiCg1XznNahbs1UWu8ygycgt6/sOYoJ2knqD
+qJSR3+c5RGWtWdinspEPEW1QeU9Ntm/4+9r2Mpfna7iy6cMpMm5kMWB9SqVeNb3iLmoJHJTMvSsZ
+5cHOZrJYMRqgG/bBvdPYdDJ2zgYEAB048fg8T0G0J1hA+Ci+G0ecxipd1NfG531T8droqI3EyhLd
+S3MOD7qz0m23JPbxvz8ERPhjy7qOuEck0X56Cl47RNnM+2k74ocBAMBWKZblYp0ExoVA1kc4QAqI
+CpABFewAyogoMZZPLL2WPhvpg+eGNFAtzAEf+MCUecluWngE4JBRjhGnClAFOm3gw4zZeYznX5Hi
+QNAsXAM++24/L6yDcaEeLKiHYBzvZ5rPzn4/SrQ4+YDz5WDb1nR0gSfQzGtCUYCn4CxkhXBhLJgL
+baEfNMBb8Av0BrAo4JXcdc9YpaggEQhRFtAGE2BKvFAcBpdn5sJ1oLBjnYry3cJjRwXOtG6I2cqs
+3lcLEgKYiQsigpbUR0rPl1JwMm/8Ao4jge2VCVjCXAgTEXEGftr5nCuW7sXCoUgXIoVJ5jMDUVFo
+DAALsyJgeKfSmo89mN7DGWtZrx1unoV14bpQL6bE/6mq1xjH+tpbuBhkA+Upzbmv1BR99Qs9A/kD
+TIoH3RywRlEWd8otuV4W5oar4JQA4ZiBcWQMPPTynnEf7SG/f+RAO5jlnT0noU1OBfmGM89Kj156
+DOK0uffjYZMAlFhlbaLWDnmltU0BJPPjspTK37Ih5oCXuxKrZkNtSdO82Za+92zrsYYDJ5LqYW7Y
+xA79YmrHdRn6/XucdCkFvdTT4VHcWNhX1q6bbcR0SGNqhBijYOgeGlUdas/5mJQYiA5H9Myq7KRo
+UooB6LIhTzdQQmcavwusfLm1TUxeanl06xf1mVr0o2tifh25flxBzC1Cup5mmJqCDZCXpFQzFDm7
+wqTmdObmAIYoKe1aJg6yElw7+l1liFIBtnVn7B+1plMNmeqiWPwZAtXXYk2g2yxai4pFBc6e28HG
+htYVxlE51Iu0LB0Sg3NSmvSfCWMHqx2E9CjvmNUctgdiyl7rcUDqj11/NZgzodSJbaqcfknb89cV
+Pbd2G31zCT/QZnvWTXcHjZJr1J2/eUT4a5xY7zZmHZarS8wqWs8isVZE2Y49WaFsCQ25TYjGzi0h
+aHqLyBXlnADrOL21yRupEY1WinITkURq229qOtdJS71Y3cabeoks+b+Hl8yAIc34CJZYkxvNL9US
+dEJsHGGcyteBDJSbiAN7DcyD8kzAkj0UD6/GBBczkZ8qUos1HYmqlmQVmzlKRLHO1Q0lPTHpK3pG
+ARmQI5PlZ5n6Nv9GcIRleleT2+oDxudIUnk1DxcjXfp1n4sl6BUaWA9IftXKfDSWKNisuydzCYdN
+WdBT11bJm0aKZ5sEWZINX5pEWcwDZMA35oBrHZfIWdwJnDak0BTPD6dz3HU4pCcSdtO2WyJrxKyS
+jbaJsZVLoI3zRn9ThFQXREvcLfDr/jvlO5+x/nGNEoor2x7O+hKUMx3rp1Oh/jSDsyMdt6mXVN3v
+I8IS0iRqeVfmEw8JUpp/n/b8p//8X/+/RiDc/+c4dEk+f9Y/v/7FHLR83R9zEOQTC/oZIQfTdRFH
+GDT+kBoFNGMsMrxyoKH9xVzzV6nR+s20bdw13EPAyVxBJOEPqRELDVkI1wqw0AhoJva/ZaFxl3/+
+H+Ygy6fbjfGHSQi5k7/2H+cgAHy5JM/Liq3iPlOsTKa82lVGt69qcucVN0XVyBevoqRXwAlsg/kh
+jcwIja28xhGIKQ8QV6yRBCnE45x2q9jauqyJvLE9qP6duf1C0d/B8nhpzEn4gwwrcTP1ODvIOyH3
+M3vkAkRjQX5HhIfQI5ydsHzHGz/VGeWF1S6nOtSN7J0qNKUhCuMbJnwbvqo7QjqdNkYx3niCk7/J
+YTqNiTH48y6Q83qiCKkqERNN81SH6U2eGNdJsRKK0Q6auyHicOSnYD58nCZ5MF7nlv2inXzRdMYD
+k1Pkm2EV9B8UvHAC+nMWJ1zE3tWsuy9gEgPVKMswxxPZ6yZKFkI6MKGXDn9BTO66iva61LzEbb+X
+HT5MsmzbmAz+DOhtzbJxMRUwIjaOJP0PxoknEQ9IdgpaH1NzQG6N61eC7zm/WlbUbYbjsy6d+6ZG
+AzWKYWPq/oZK4utkZ9c5bVhi8RLKpvQ0DD1DnfmTR8lRF8N9lI/B2rDi+zyiKiqsrZfWwajLTscg
+7UCYHmzPWY3k5LXFftE3y7PvmDSXpdUhWLpQdBLQytRTClD4hyocfzpzeh37+Nt12T/hAWx2PKiu
+7kBxVxZFPyuZ7HVDh8XQWztoFCSzRoeqCjv94ec1VM8EjWegHGJli+Hqt1Pxq8j7U4akuu0t6yhU
+T3zSa6ON12VYd5E4SBs6r6TbCecD4o6chm5anve8krCrw/8kRyNgYlaPHn0rxaDcN7+pFLQOX5/A
+P+5tZ7qmWbTPxnLaYx++dI79MrLdSgS/3CqnmjUX1osqJgrg3XIrfShWY1De+j1Xfmrw/QwkFjzL
+2jlI92v236/pWN/GRJbPvgaGEHfTNklprO6ab+TkTWKPT0AbEoRd60fr4wlTmVyAwgiDMhXYVBvS
+GJwsuG5pF9kWC/QiJAxjRVAB2UfRASHfg5DrD6gGj+ocMJ83rjs3vGtCEd/XmcdtYtxTcbc14f5s
+s7gAsEO8HApIyTK9fgfrBzvASo1VZso7uuG4PnXyMx/p/uoV4QZY5+ZytC/OAQd0lT9xzT/5iAOq
+mqINEdNzm+N/6tx23ZZttIrwPCUNE0+i5SUmGMH4oI50ntHPjoerywpsXtp6XIxCVFlcwNKta3Zi
+MILg82BeMh66Ml0V5vCKA/o106wW2rx9ZjsxkGX2qREtdgUPpY1TVT+wFRSwi38WIoj3sRkTVDKF
+fSn87NZVXnykzxznVeuPK8R6PsCRHUe81L277lHAAVs7XkTIQBebEtlqFQ3qJgiMp8hU+R6RS8E2
+JJBe93G/zgeMvr58KR1Faja/C2R9Cl3P3E1F+lqo6Jns4rMXVcMh67JXqnnSnW5n+Gkd/2OWDcfC
+YP0nMUxuuxCNZpXVzI2pY8QPbsbNbgPCIu0psbhUJAwQLNl2FvG4YQPJOc/6YHJc+Z9dSMiprz9t
+XQCUt1dp67CdhbRYlG9W+m1k7dvYfjNyfjITbqZsqjfOwsrm6mrH7gly6w1piMvgg6MmsnpqLPxO
+s8Ty7ot+Y7F3oVtqa04fg3Sxvtc3TuF5q9RuKVUSTJImQ+H/Ye88kiPJsiy7lZQat4Yo/18HNTFO
+YGYgBjpRAeDAV875uHoVvZceVe2rj0ZmkErJTJFoMuiqmqRIpAdC3OEG1ffevfdcMR/Ps+ZpmuQR
+9PCtM4ApSrr2sxoLZ1NnSM+BcxbYp0tlfBjy1oiyi1Hhbqntod2YhY/q0vRA6fikhyZ7meHuA86n
+EDfINqjxtas1XEYdqZK6lo+0zT2IfKYJ9EBfEy25FvRRMNIBsBfebVunT3UwLIvCOLiuvSms4c4j
+TAJtmS0I65Bv7zyX0Ahod9i2F6FrGwbvRxJx2FEgHrZZ8JzGYh8MiAmQbLSFVHy2Cu+YW+ZNlcP5
+ouwDv04P4qs+VRlKLC5CTF485IOISbWJnxojeJ96eUmmN8/BkjHK5G1w6pakA26W0DH6rZ/25O7I
++qaKIDpDGmn/Tn/u9eKsQEFylJ+A2yoKhY3oA7Ms+cDsOZjik+N4/gGTdYF/5DFpeHm5QWBu1Kht
+3HS6h0SwcaLk2xDaE+TIdUfcNbPbi9tLDHvWc231Ry/C8BhVt4Zh3US6tmYfOVm0B7uU1i6ERXCx
+yWmKhfUHUsADvt2P4uiU1mcZOey6kqCMRjtalVwzIDIzxd+EnUClOH+4XsRb6CW8udlRs/7QSY4B
+Hh3gzWDu0yLfCYO6lZzvTecGqx5trLeLrVEL/DUjn+D4QFhpNZmMvkUAJ6C1t6PGKhjRMJjN5p44
+3pZ0AvGa2RE9ucBH3fQAloppeHe1+FbkZDO18FY4GrcXcOS0CzcW1GvfBwNqPOTc91HVh/6KbiZi
+NKXQ2GgqPfDhOnIzxFrUP3eNpK2h3HbBwZI4Zkxnk7d9snZj/TqR28F1Gn/KpNwQbKId1lnJEhG+
+8uiHdi6VHRzTFuBMznwj4efTf+vgAfWJNlKvThXAPTC2u9Hsrq1HxYLju89/fJL+j41XEdjI//75
+8TZMpiz/G+P2/GW/KvsCd7lglLUZnHHZ/Dpumz/Rfg0W0OCXTcE6+Xtl39DJbOm/XBZ/Gba5RwJo
+sR0pyAUbLrSzP3J0xJP+V8P2jD4E90KRpyVJQs9x598fHaOhRl0koI/BKD5JNdwgjj7gRfug+3oV
+Z/CheEzTx1EC4avS8pR7ziVIgf5okbWLYeuujXHYhbp6krY4d+Q9eFpPJ/jq3+lYrhgOP+h4fnaD
+8ZEs5sLWikMc6A9ulK9jQz20gXXqfLGq8ZasAy+gZhklc8F0hJ3U5u02xQ/aSPizNAFt9Fz6ffoO
+wsS7uEW5yBGxFl1czLDkdFllEP6j0uFfdp/iaU4S5QaWYQ/h2DS8uxTMIHU9HH0ok4C6AUNMhbCH
++O+1yQrYUrgSekRnAIKv15YfYe7mSzot9izx2wqkzN6qdODgCn9uXXHtSAhX5m5RbTyc6VnfEm41
+r8IIn03MSC7J7aCnu97k3qSXUU77EYThZGAlyLlAMbVP5Dxl/4Vx9CJt5AOmYH5fyaPqMIb7wadw
+ObWFjc/Y5Ox1BujA7I81Qrugslyj791x+mMaPJt+c5HYuo3aQOcLOBD2Uj5YTbMJlThahn+wRbnF
+E7CtQxDNhfaVpAw7IzlCWMHOrZGqezdFRcyMCNLe8On74rXmRUrn3/BEpvtF9Q2A3ELeTU4OwyF+
+nWIQWPGQgN6NMSTlDC1n6eJtJq1MEBR0yGS9tqN+Csf6jHyDI9HHHQgV/5Uy8vPkivck5xpqJO9e
+j6M8xk8qx1ztwrq/kU2xYY97iXCWIobg8wzcr2wy9/70nQZ5xtBAnwm2rd3sxO+bnKAunfCaFl19
+Mb1LbuPUTXlPlQ5W2Gw17CnWhWbWtwb4/iKz9Xs74M+jdwkTTjjgVkuiQ8Jf5C7oLcqnwuoO6T5e
+dg1KPH1p6DW1tVfMkLuBv97VFGTnPJVcaiZIOjQXclt2ClKW8U0k8mHlVQ0fVK/e4wKo55xHv0Kb
+5mDO3/FYL1BTufihdxNmX2adzv8IypFdBNYB/l8T8XrvuMH5tC3IoHsc6+IuM7pkZRvJKmGZI9pN
+VwffISoLJsTU9s6PAa2VySYA6VkZ1qVGkPcckgpZP4uEdMOktF5MSnco16w/9IQEfJjQDB9Ehb73
+C88+dZMXbsqiPnV5sSRbyMjf3OK63IR4QyXaWonGligOh7Pmhvbmju4D4W188IhyoQslBpUOn/TW
+nmU7thya5VDylJFuslnaK6LxvqHEdczhryH9JQ8aq66SlKgQDmjQB1nNrmWYnfTe5GtnCZEu1XMy
+i4o66qLRipU/y405V1ayfNUsQ1LmtA1Y93UuhQBRbD7VSJZlCFdIzDIm/uGAbplyOwXyYk7uSaB4
+arHgMIUEKmYxNHTL3Tiro169s2a5NMLkTiiDlnCW6AC6UoSyGsEs2hlorSS+yNzlq1JrScfOcmwS
+9U+0wBFrRKn1TfHuztJto7SNVhacnVF1q7ZCV0fn9WfBl5n9wc8MykuGYBf3+iFDG87QiINZK0Yz
+rtCObVGfFd7FHivnhLY81wXZZXGMtZ7yZ+5rFSo0ffYdd7P4Ts4CNZFBTqqzaG1P6kAbw95GzbaN
+9NCgbmvUo4+o3f0se/PN8xcCJZzSQQikaOMWkaPaS1c2ESRIswOBFv4W7NmjCZSbsNJAetQnvJTV
+3n4izKTc9JzYAAMbYk6BwnqEN9DCI1i5+lHPftiWzY0gNJ6dtKB5nqws3sLYAIrTVttW+6HS7MHB
+gqhMKiuxJHpYE5VyYT6ymGVsLWbXhhgw3FMVYMo16WNIsjt4ZNt0Kld5a5+KASO5ixHS0vOnHDbt
+Qs4eST37xkq/KbFO+n0FRR8zZde/iZxNx3FvUQ8+p6rYMsvCf0Ew9/2I5IxBTEtrbvq8ofpxoA6y
+t24MYup1l69iJ/mcdMy3Yh6iqs+B5Lco9EPIdqdN01ub/KjjaMPl4klOydoGVSBbjT9N/dWmFONZ
+WP8lrjduPgWFFPxuCGnZzrEiwlsDvZsbiemrgGjI4423rUYGMso+jYb2TfhKi84tbrp8eJTCpW5V
+tmc3aRdllqzDsHkZi/x5SIMQCKF8n/fUUgoOFOIbXyweiZpHnebotxyaMLeqtwgdTigdqzPBHL8z
++MvWrz7s6RXHlZbAMuBZ4gJS9x5peMUI28TVoSnSVSfbcSuKlBhVZH1Wsr/qMt/VShyoxuNCAQLS
+Tgg1G3hPM/JeI1EkUez6vuat1MPtoJxwItDZxPnOwYomgY3bYBimUmxzbMIa/MVc4MsPjWwd1uNO
+eOkWk8LaiuBUTc19VGOsR5GRAPzF1L42QwnczVSEfH3rYjoNw7YfcmjmqJW56xJr4FhND5imKJex
+zKVpB9nKACcMN6I7RgHdNnymX1xn7iAdvsakJ2NTU5Jg37v4bNdF6YpliuFlEbtc0fJ8pZEW6FP3
+WTaQAeiROHYpVugCq1adfVci5DtByt6UD7hzciYTrDlDOM2dSfiYbfsBvNyl6QwUxGeOXLxszenU
+ZilNwpjwPILEQEXYS6sOUwT2JLd65MGhgTfwF4EJxqQk7RK0xXoCcU/D8QYwwOtEoIzz2o8WoGUX
+2V9VUn7HiG9xFZyJ9SyTKt30rr+3VHsNMIgRJeC5Xo93hLWI5RIOKokDGtkpYFO2Y+vW7zlbjilL
+sjHQqyzzc5uJk0W1PDchfkboNlHojEOzsbv4YhGivZvs4Aesna1lUUZdZze2CCFaVQBMhmojhb/W
+I83AyuGvh5yzbIrDgj7rRe3SQRo25XMqzEU1uVd4sFgqKh48xcQbne7pK3xnnvg6ZQW8Mu2C4RCk
+96b0UxID9N4ROHC4rZGFcgb5NYYQ/SvAUqk0dgNGOIypjCi2eJeW86GQsBwjfdHmSI0mifFE1F0O
+Kr9V3mQvhaQ2AaBNhEvUpNMIFTXnr59e6oLgkdKNq8rBapq4pdyaTFcI3JVikHxHq/Mmjtz3cqrP
+qefcAj3o+aR7O2q4C9Iu3qmjIrbI7fu0tZ8Mf2bmcdiugO9Lni9+tG9Q+I06v4YkURrXu6eOlspr
+0TE0MuLhRNl4TCZo0dZb7A67rgFz1UEBJPOn+InjFDeUZNgLzVyrxv9Wvei2nu0+Ypb9kAUnTrQl
+m5dGc3HtiQmdZrUyDvZVkw5gUfAu6lwrB3eEpN3fIA/gO6TJYFeY1nngVc/uSUJKw4luBXMkWogt
+1R7Q3OYfdaJVlehC1k6n3/zx7fL/B53mb+x/5j+kch6r9+hPUxL+27/Ucfh3vvov26P8yTZInngU
+Us7sKfM304r4ydDRcLCgIJcQekZH+Y1U5eBjcaU556Ft6iR/FWvs/6POGuHOYsyf9bX9j3/+J+ZS
+oPqso7901rCO/rv9EQjl/+vOGmNI61uaPnhODf+XOmt8hWVEb7x0ESR03dpUQNkxBIKKdBsk+NE4
+tTXBo8p0H8Ky7hdG58SnCgixNglr6ds1gO4gZ2VmXAswYPJs9b88XXvvJROnlZb0e9QrrXKuzMZr
+vevpI8xPumY/FEVf72XD2CBL60TJxH05uRfimsZL67qErJKbtASBM2hQMrpslvBzg8IYDtirMjdP
+ZjWY61ZTV4vunUUX6Zx9eRa0IftlmwYvedtQA409fJ8YvHuxNp2LMcDVbg48ubsKNk+UzgP3SbcY
+/3NaPEcXIow04VMYof+oBcmrSx9ON5KGnRo82qF037KyVjuy7efJG1rg1TEzwOiuogLMbz8kJLed
+8CmK8TrkrbjPqv7al0RMxzo5uzowzJSmML5nyY7zAQ8bPc3WA5ZuS9G9UWkKcamwdkPiqgO69Qsw
+oA6Zu6FVHnF8EVtlQopHqoMsa8aDhGLdqQPmbVc6wKGclarsmsfAbgxitfZ2sMSuxhypbMjuceVt
+K4gzGL75DWUw1YEKocuDblfFBMNl8D/wjtgHqZoP/BfrtusYpFFXFhTI3UjakHgTovvR9rjUfe/b
+YIlcdSkWcdws32kGEQuFW8YhiGi2AdKxESwhk5D2mJxbnRN+L4b+gLHrywt9hy74ECCPaCAl91q9
+5rL72QXD99D0Dc6kkCzdXLbiYCxZS6pGCzfVjxG1iw1kexwUE4BJh3qC3KRwqM3NjYX9H0qNgpjU
+YvHx6SffKhHqi7jQLqWyIqKPUFoRbwOWmslForPEeQjsCHI1tTWFQTtePVlvAR5TLFGs9yU5MYBR
+1yri4NLq2NzzfExWvA6f+jKAVsMUzqZVj2SZEl8NlwjlBQ93s9G6UZGcqnZVxgcS8lm4r/R27cTJ
+kUPUSndVvGliCsBBZjy3AV0pdZhweXUOYgCApjqIIba5d8PhkaPBupktzeO0TsrkbFU2KDCadeS4
+HclZy6FGPEt2sdLIdZu0J1XXpPTuwtTama56zUxthsglFWIxW0JrhecyIx2oY/Wqq7jYKju7G6CI
+mt6QEDHhJJs7Fe9SoHWFhNifudAXNG+LKO5sJig3WhmdfBfMDtO9OVKvZKbeU4uzOdPUSwLXLk3M
+tam1b5Mz7KtEP2msyEu9zjc2t9nVUGDk1qidoqEhW9W1/2p5KQuavUxasUtMiCl5h6l2Mhw4EfYm
+8toPI6b/u8OI6gE3y3NUNs/B+SKdhrJ2pW41y9uZkhs+UEmw2t62htEfNBXdhhV5cu1I7H+VoqKY
+rk8qpGPssLtkOUxUG2nob2QITH6iunw31NFXVLcXTHbIDmn1Jjvk9TDBHpw69EGWUHGU2uLJm5Ze
+xUyadc6L5pBqUx0dQtwj0ojS86kCnqvI9Ntat48ad2ubjlr1o37JA6zQ8NOx121Tqe8d6+T7wwOq
+7S1UBCpV4XkmbX6yvOKmt4INi9yNT44mNMsHCHfkSTt2ijA8lClRcAz9O0XVCadVwqwlZSkWRYm2
+mS6BQKG90e3bq0/eW+g1Ebs4cYVFDrewHNYQjCIKNJPHYc4p9uFLHvT6op2ma+6ZR+6CBzNq34Ki
+/45LccDXQiEC8ym7vl7CC6KghOSNvgbhdluN5lGbTJIb9b5IM9gz/ORQHn5I/ARqgHWpMo/jUNn/
+sCS9uezPZqS4PwK1gjLbfgiHEnXdVA9FglzhRfxTaE4IptJHWSnWWobPK+o2wo920/ihgTJeEsLh
+bxptrswzwt2KvaYb6r0iCqDblFJ6jOW6ddvFOHtSktFNu1Cjt0mI9ISdwZGOvnKaV5uiOVTBgO2S
+C1VAxrqNXrmGFj2mOpNMaofOxIfEicE4Z9gIevtHMVVH1ksKosLHwOBcq9PN27o4y9WhjNRl8KyN
+3voEl+pbp9Y3mWiJA80MHdfbcYW+cXuxC1gxdRtSMBVy+WihZYLH63NrqQftHbD+czkYK2TCU+FV
+d4L1O/SrCnM/7qLE2XSWpMdV8FAwqL5zgEK0OTQ5s9pH7VAvkqDn8IAZs/ASfm7Z0cviuWytZa6K
++dD7Bq7+sWxxleTK2o1pyttpupi+euXMaxB3zW9w3W79sNe3NLWuZFjftQ72iMnMSKcFMZ0PzZOe
+KwC5ituQQ4/lQOuXb/Ni7Z2rb0xUpRrh7VhhAh31Td3J+5KUJ+o61cdlaMLUDxS5DY4EiV0fVSGW
+sa2VfGj8O9uHrI2FnCKgmUuFqwP/fm6TD1Dlc1eMr1NGQruy+XOW42urYnCWXfVmtuo9EpxjrVAj
+zRDzzhtnk30V3cV8iolRcwj31cWdSbZ92VO568TnMIHxxGVzmtSqgE4Zy+rbjuTGFGlCSxcNrJQI
+OU69GtpArbTYJYc73DZRir+fNAm3UNbDGrBb0QzbqnKvLsS0UHWfMKQB6oKooPTMXzWOf1UjSS53
+qp4wg8x30fxq1eG6ybSjhYrrWck2Cej9tRUuzFw7EaV7xgTwakzatunVd4ZFtPHaS8Jpt6eqd1Ie
+lErtVnb4KDGrNTmGIBsjZGFlBL1Hx1v5mCTV7JZM6+attuwNIQ9SJ0SqlxbWSjqSHlyslsRfcATX
+r4XG08FBDYapgi8z1rLXHqNmO3BbM2fvJq2KWILhvwB4gtfYt/VdiTi3L+nrGj3hrf+rya39rya3
+/8RNbv9QQ/0z+et+/AyyvPtT9v7jT8fsX//Hv/1Pbhx/YzWesV5/WY3dnxBf8B0Kgs/Eow1+5S8+
+RucnT+hUukFqJmdBXvnX1RizIjo6qurPG/PP4OffbIwY4WkA/iXoYfwRZZWv++vNeL6pSKkbhCH4
+zXkzKezz/T7MVP3P/2T8N2GrVAdX2i1h680GJIxhA4REb/CuteHdavQLN9ywVe7vx46UseVzUee0
+P2npk23ICxWRa0xTS7vSDkRvv6MOm1GgbWqdV72hw/71jUdARtEmrdDhrCbfQDjgCYjTvTW6mzyJ
+XrXEvmo+gA3gzEvDr+hh8zgaN8lT4KW3mlPcwK6Eqpc2NwRim0MnIDnwCoAm2ImbgLlugSizrJvs
+kmr5uQ/Ch9aSq0FRy25Egkdl9KRP8Q+XPnUg0W9qBEOcWziODXDS1gQAU+sHZ9G2CXIMRQBSsuxG
+91bHtOQ0WDy8djj3RR8d43AwQN/6Hl105gFGVLVVQXAmJvjDMUhTFvVKp3C1LuOntidoHQTkNjWE
+0ArMIBcKroWNBP6fJisNQ0jQOzf0qi1qpte2oSmrC/ynwO1M4ir6YTDHW7tLqR7VPcQzQpOln1AT
+KW8rJ9pUA2IWID9f+unBlfaOK8emGarT0GTHuKCzoap44/ei2ufwoQUkKgbKHk4y9qqk+PKAWH/L
+pLmd3XDJYH9zYZhxiD4yRFbBR64JeInR5laXeqfIAUESTJc28PemX99lMn+RDHcgjOS5tbJd48jH
+EJ49wLLsHaZHauX7ISvRa81o7eT21SzGXd1yCnDzTTEItr7hhnhQixoS07eaJVuHyux1Pq/4aWEv
+OPwybxe6TfVHcNVDBIIeEKTM+i0X782ktZeBbzvhXLFg0d5UU3OaHEUpICzo0j8b0BM13fPOox+c
+hhFNTOKKTeKaBqy63oDBoiIAT+EyGPR8Gdcw7kePtQC7wF53QyQPXaF6/5zUhZ2JYA2vs3H39QD1
+hajkvRFbl9SIMPaHOO+G8UXMwV/luKciygTGwbyAlBf/0CxIqpHjFjTq+k8+QZKljrjEgsLF37Q5
+MqRERnk+rNoGT6NIqod0GA6TCKgjYQYJw47vCBgvWENr1WNB7wJSESmkD2vOXBsFYeKZmuHr0XOQ
++S8UWBGa7W6gJIODSt44Tm9cGTzYNoA5EXwILy5WnVm+9Hp0rBzzJCtJPjjnoGrpwL9EeU2nGe7q
+URnmNd5DBU41tUj3+uUpZcpcxUb36BlptrIH/5qbmJhNTgQ7CL3zRzjmmK3iaFmU2qFVxjVKR8pA
+4vTb6QVWX6SjqMGq21VkurnZVlr2kIfqZMfJvqb5V8T1MZuC27wevgKDCbNMHJ27r9h7bE751K/q
+3FrrhQFNRE63VAEXS6NLy11use5ScXz0k/ormJJn21a7fgAx2jet9kz+ZFU78O2q9jWOlVhwsVw5
+3EAbDEu2Gn7ocXbvja1cpSUVeLRQLk2o9YfWRWtubRmsC0GRFv1oJYd8F+iVlte3HsINDHLxSoHi
+vo3fTZ2Qip7sUqrnIvwSQdB3SyeCvkXPay6CrZAjc1nN1jLF90bYfhADerJ+7u4ygPA1V9McDn4e
+QILHwe2oFpuIRYdeLB9JNiWwBOU5rSDIQsR6HrVwl4n8PavlB/7Nhz6AwCBnYXrSDrTSbzlSQGFN
+CAijZY0lDJ3EOWA8PgSQmwnALUefBUDCO60i/Tn1YVJk3EiWKab8TTW3AIp2LgScGRoTFYHpGHIJ
+ivbh3B1Yzi2CBXWCDM8nzAo3au4ZhMt7Z8zNg70Iu6U9txEmpKjWfOLgcARvedCcEstdz7Bwn/Yf
+mijqrdMD8aGBrwSIRtnRmmF95/v5nW57D9yCdho2DUJo/E4KNmegxWcZwx/3MYF7gbn6j3nR52X9
+RcqLSh2u3JQ62J7UKXX4B06wP08x16ptmGL+zlf/OrfQSevwM+A4Fpxc7/dzC/gXy/QkswO/OuNh
+fslf6D8JiusNBpSZAfPzF/02uFj8v1h4mVz4wj8WQxXzXPLvLvrG3G8hDVdKUhjWbGT7/dxi420m
+9koZ5kAlG7Uw2W3hypfWplagwVdqDL5YmppzN5T6fe6IE/gmbJc8lCIvhCEp+RkuboqQ8lAHYRL3
+yINKpveCYlgvhhvuZdEa78y6I9iHM85bhmV+hMN7hLqJKAb5b2mE3Y5L50pHJ4RjvRxmnEc9GYuu
+8G4GixxsnlW8T4E5ahzlsy47YDAJFjKPD779pXqJZbpd61WzEcp66azo4mj9To/MA0WKL5LHTyLT
+PcvkMpf9eZL1BnDkfVdUx8zxWXT7fceDyQuyV2kBCiw+ALyzPpJ5xFrpOV/00Fxj1GuHZw2Eq/s6
+blaZoc2ZKrgGybIBWhdnmPHFOyQAru9JpqHjU50+hVRqifuxCA5O+VUJwqRgvnKtPiWc8Xlfe4s6
+MXYt3pEot3YlwSthryfHIp6aHKgLeJua8Txm4zaPA5xBzWtLzYTD9xTq7AeQj1UcJG+lOxcMWtVj
+X9p3fYXvI8zb+7Ih1a/nr9hbbg2EV7cLL15cvWdDgwOkBLlK+sEWwaXPY3ONA+/MbYPLt+Xt/Si+
+m+tam0h/GyfgA3FnnlpFTcKAdU4M/tZuO289OB3vFrByDajm0J5NPlYkltMYDXSnK4N/THI4/bRD
+hQEAL25Za97o0OCL8yDLH1nZfnd1g4mncW9qtAGVRNtsgO6VYm3OJi1apB5OAUigBCpbbIEa0Tst
+46iaopPM6vmzl9LFkbvmE01dJ4zjNITzoG5bgpepoMIiBudlDtQ3cb3S3P4pHk2LityBGABGNssP
+6nWRu3iIyTWAaluVVnHA8GgvopouuLY7o7vvnNx7F0bLBQjfs5nxWYNTWVoeLADdfVINSHRe1QDn
+XvmjX3hBr7mtwADsCbWQrOF/Kh0Pjte/DJ3DccSJ9tKqz4mXnEodax6sxjcpxxUPDzyJ2n3ojJth
+wAQQWa/8uS6lmZDPrKCSQZkoVn6Afj7F6YubNW+aKNcOBuFRNm+44G6E3m2FqjC+ccld14V5gZ93
+bzTq0tnlSUY9oAZuMF7WukfOqU9pru2aLIBlQVxUAx0nbsksXgbTuOVgeFsKOz1XRvKUl4a9UykN
+xa3tEJRKyBLZkgtXPwMLY0gxS1AtPxjYEo4+Jbie+MssZcItMVpFdXgtc+ukBfGnihXJk1A98WY8
+4ZrPbyufYSJ1cwNTvdMuE0V1hDZ+mobNobLI6AOx65BauvrGMwc5U+wL5PQQJNLkNzj2GH0Duls5
+5g/7Ia4ujUwpt8kSRnrh7XTwhRMnXjVkr5zTP0uUj23X8EkRfTHsRi7kOC6R/N15cpw0W9uW0m42
+KUkjjAHGVSvJlFux88DlqVra1kxqKXP7gJFVrc2qfqwGRhokvH7J073AwlTbVzcuY3xFjrZFNUuW
+hNeCdWvp9qaOJ/OQ9DqLYuQG3AZn25VVkB4yMIYmuvHUpjYMY0rA1mnajasg4wOtpzTBalGWI4C5
+y7TxcvxOPlbVdi2bbDxx4fd3lUuVFyz77tRnyEhVSd8qNTLHwrRXopoqbFxwDQuar1inSn1Fv4LI
+vj07ev65YxYzH+wsYAR8xIcGtymJf9dv26PNLOK4dN+xu/C8bEySRnzPMEg1s6EuMONr74c7nR1u
+MAkLtLhUOP2lMe1X9bBPKqq58u6Bz8i0GFHSdGpc/N7MXznrGzSvGRhj/Ivhcysf9PrJjLSPNLUh
+7vNjGCbppkiNzzkiVyr/BmOHfwlz2NoJvFHLys6mSr9jE4Q1lqoYBYet2b8fp+waTDrmII+xDXuS
+PgU3cylZ7w8ry4qeTWUfvKl40RqO6WHAWy+WR2t0r1VcPeosfSTduuMksEsCAEx7nx3Ho46B6toT
+4LI3D6ox6/C6kKlajEWyGYrqQCf6vQrSzVQbVI4NV9ot1haeZAvEN04RQKAjio7rLix0PRMO31JU
+8jugQnmht9iZStbksEUZoowuxO5c79GKHsvYuQIIJuNLnMryu1MToIi4H0NuU61LdMfpqm2ll+8g
+C0+y0DaO3fOKxjhnEg/IAjCXju9sVJp86fJdbwaqZ4ObAtGTTFhqkUXZ/ueZ+qgu/QdT39uPKXyv
+fj5aPbxzf/7X//43Rr/5P/Hr6McIx3yHkgyExBa/ZQGcnzBXsDRTlDLnAWY4yW9uDqgkJug9YRuz
+34Nf+svoRxrAxB7yv9mz6gIF/OvZb25sdZmAhDDwlsw3rd/drFSftLBbvYaL97gxoN/s3Cqul4YZ
+ECEsiPekEyAjUR9ivVxJXvKjKK5EaTHrN/KYqYGfDAlzOxDdozGI40x1sHwKeSSjXEgozFUBIoUf
+DcvKctHt6clYRQqAMG2TodZQwBAjHJnjgxYQEEzEqXKNz2ZqT/CRwmUQw47OjFPfkX63ISd3Xnc/
+ZLP+LqaNVXGuGn0DaSxwHzE7QLOCERI5YEWjAkkkqgq8HIardjnxo2UzypuxYioJs7mghJ8TbcJI
+aznrBmsENnUcqb27SloT0MVcKzPxJjAHXm4gUChGdwhHonsRaIxXtahX1NcvScsyQ+mwBc3xXXP9
+baowo5eteg6Y8eIq3KmOai8tW/uTCeuifPNwivBYJ1DRaSShHN5TRY21rc5I6bGGp4dWZg+pExJj
+Gn6MdrYjT0HzM3/oairWlT58U6WcLV2sweSq1wakBxu7ISLQpwYkeamDuE4zGrDHGfaCkM04Oj5T
+Em+fDdmCyB3oN7Gd714PvwxLv1FzgRppsMxOX4sEgAAeYxZOQhkBoKIaObIP/Q2PSFo42+EtnqxD
+DnACzKg8aW21oQ+RxGSP3EqYIy/HZSP6H7pJ6pi86zJuoY7TbT0yF8YlAYgpGUiMyD3AEA6RMzN7
+Sg9mX/zInOilzNWxb7OlX2vUw0gedPpeUIhUZNPKUepG3giaK8twmXF7GrhLgc+2PvW8eeq6/NAI
+a84ni1dt4EVOewqzCevHYkB/WsrY9w5h0r7nMxxdRcByKL4EHRNH975rHXkQh1ss1jiXp5dMz+6T
+Bmhu0EnoOdmZ4pqlN0UpyTxKrYtJfpK8Wkc9W45b+u8Bn3lRcasLvfRCbJfm0rF/lEoClQS1I6r2
+5Ict6WPggLnI4rUkqruwKIVaCEiJ3L2+hAYuhyKfPtAOOgNNafM+GClhy+vokfKqRQWQWuFMEfxL
+SQxAf/RXWCsoVUDlz8S01aisTfEE1fiVMIQSCY1W+GKPEUlyfYJRmKC6mSwHEI5WffZt1JRT2BRS
+KErh0hirv5bTl84tpSwlFxvpqw0kpHdnksYpMwLmD74LZpwcMCZADLerfllaFQnqvlwVQ7fX57ri
+ziTpWBTtpjeoqRpk8zwFmti0FPecmrSm043OcyrwuI+PvhlsvHjYxgE/D2YpqMhyqmvXN68iBARH
+oNhGwVS3UiufUt+D6sgeQKbyJqD9T9rTS2DqN3bzVBjyG7sl8Xnes0RujjbEjnVARYYDrNua5CrG
+vF0b1jEbebnaRfY6UoSs+9lXFtrXmCFtDKb3po3xaaliAxeV8te2/oh4KCQq83aw29hA+67Y0cUA
+kgQkh2eW19AKQOkUxTbJ829A1Gu79k5ul3Plj7YUxj1GXXcNaj7pdSSOnjYcCTGOa/JXp2FqTb6M
+oUqLfUrb4uhqYIonG21uAruIlskgP6uerVKT464fFVf+urjQbgMUf/DHFQU056G1Wp5OVB3E/4u8
+M8mS3Mi681a0AfDA0GPqfR8efUROcKJF3xsMzR60AC1CRxvQTKp96QPJLLK6X6fGNSWZkc5wd4O9
+++79rsdfajr5MsONuhBZ4qxGvr+nLnZvgPszSOXmwVThsx6OmGNRF83kM4/j59qvMIJNG8KJDO+2
+vw65fGp5srdGZjc1RtdcaXwpnGLXxwSpWpy6HHDTqlPNwTfbwyAjzFR8puMeSs8UjB/ulDab0uQ2
+n6u9H0RY6JR4DQINJmkzLGqT+dOsU8jMEv+5ta9L59A27b3tEOP2MIDHnnyhvg0fmRqOWSQ2XDM3
+NnJh1JM1n3TdW0CXx8SmnpU27Fn/rjEtoN82ir766NRH9RWmH+3RafYGSPPAWL/hpD5oxlwFiXNg
+8tNr5iQrqg+pJMD0wMH+3iM971PGzzEOXmWZzKcLuZMxi+68KDlTq4msm/jJ2sjkx9gNIBwdm8ej
+vCaadbIEJCQ/WKIzvmWRQ6UYcqaW4tdIPfVlZuDdw4wPNRzEdWhTOYHrgKLGiTxKdS7ylv4VC8u1
+zVFa1/ZTZvLgmYiBw0FAwMjNBh6ic47mPFQ1iMc0bbdRUL+BjEJuJb0a6LdsWU4zgiI7OIdyi5MX
+RdkoL3FI/VQ93ZYV4KQAWwl4BClbbGMZm6PxxrExBuQGNhlJOyabr08nMF6CwduNGapgVGXXCNRT
+TZ0Tj1tMTdGilQaHIyUceA3R4lf2aF7aoZ02aVp9mE7wog3WuLAj8tVNbHwPPmcUq/fbyCqekHA/
+FN3tS78i5spuDOSe8USWfFxPetKt0xyQUhk3zOta/4jlfcMv8R4U91vW8EWd1D7GOIXh+pX0br2K
+YvEY2ckdRaZYVfwdfrPDbKTpBooYcodNF/neTPhPLB4+ZdTvNMNdJwZ7DwnptLKhQpSgn2IDyJqT
+3rZF/eQa8hxxvuvJRLVB8mpi2lyUvf7oIQEoCyqDwuLOPd9W6a7xtU3WuOOGHNoanl+3qVlCKJs7
+T4SPb3RjGhGyTx+YPzDei2ypV/Zwxq1F0DZ8mE24aBrqrqPukyg0l7JCEAhA3zt5zz2rddiBIXap
+1Py0Q46lZgLozayuaEHl/nYeIIZyv8eB6Ev51Xlzvg2tKjT0tSNZ4ugfzLpyHWr01JfZStjlRsuK
++wL8x4Lu6pfaN29cainVbKE0h+sYuJt21H64TJWteE4q7x0TzyJLonPZs+TLyCVPJazcmC5PFzsp
+8lA28+eDGbGbDs4qCqe7sG+YYavhlDXRe9HgUvET/4eR6B90qa/imWraDfHSmu8YQ8m9xvQ2VSV/
+pG4yYeNoHkiLkI7M9e9A+461F52/wA3VgQfsshudl9YdXrF4PqZ5wjGDtl6Fd2bSbImlQMybt172
+qF+sITNxerSP+N0f2nBYSc988LV6WdjtOtHKdW+SaBC8u44NH8aJ91PDp6Z0v7OCv2hMKbVjYyO6
+dokMtrK67ss2dIIzwRXbl1r854xNJpbzfx2bJtiUg1Ed//K//8m4NP/R38cl9xcPEZxrqyd0nWU/
+88rvG/7/0vxuASHSoZ1YnsuTixnrj3EJRpGwEbaZpKj3df6dFT9mgVkL/xut3HRAH/3602YXvjEj
+Hf80L1lGU1V+ZallTu0io8tOTs2pYg3VT/129gqJLtoVwvsxcvdonIykcIY0ZjxZHp9ms2tOdJ1u
+mpbaAjJNpdPetgNHWvfDCy41bix0pEclywfM3kdJnWYQy1MZw5EozQ18B6p3mnuzBq463DhtXC0K
+9dUJ+RYQNqx7PukCAjuF58KHnRQR2C2fZBnfsjM+qYRLoka8TIPkgCEbBjqfZ3Q8P/MYy8yNHE++
+d5eLrSGt98I++dZ4TTNxC9XtUTo1BoJp51ZotLDO0DqoOw/OrUl9YRjhEeCk+LXQB0RusrcVknUr
+1lF0nWCae820skyd0lixQfJb+zDDF1NzO2HAgnHxWSTcU225ZnG9HNx3P00vuWuuW83G5528woKe
+mlflhq8We0gaCYPcuHMNtc6HkVtGsQv69LmrKZsMb/w4ufpDKxaMS2SzqAqDcoLNlqdxPkvuAKFJ
+lR5FD6Rl4hlJNA5L+mnAj9i3dJfkj2Nx53b3M7U2xE3QjC9h/ZQCN8ZPwcJu3abr3riFODd1IcZb
+8L1p/hVmgC+Ueazs4DjotDJKtMSpe5ty+zRw5WPPnIeY/uI0fSJODHALYD0h6h/zDkHZw4W96Rn5
+e6OM8EsGXy4ezbh1Vr7K1qXHztqkzaJx4A/H9UEzIyqIMfX6wOw7gbPSBWOrDl0BrsO6doVap5LC
+3NTI3vpmk+a3nf9MEDOLR5rmEmpTwDfDTgnK6diyH68+Q0qioUxi/YDywXYaIkYtv315nJi6Aiu7
+US4KdsvwbDcWCTtuucUc0NT9pWzg+lFmMf8mBo20V3rrZEfhsT2ZTkn/iVtmiet5NVnmTeU1X37o
+bmrvYNVjt67MZFkKeIYta2yZfrDD2COXsMdnpCnMW/bFWQUkucHqzqG7HSKxCybG4KgUR8jUE08r
+fCLus+ZCxq5Y4zYdBaF6aGEbJZPLyNQlX67l7mhfYdawFgO/zzBPbkJagcLopiQiXasPN0q2ijCj
+GzM+QRTwwQa4zuMEPdEQH2oMKDD7IOtNc8cPZyTWgUne08ejdJs7wx7AKFsMdwxO5NbSRLv0Bi3N
+alxD1ltFKPZFVQA9XXdxfggMtZvoFGJLgzfozsNpUA/4bqQP7v2NkpEbzb8R8sGjts7iZcmx5nSh
+kxgCPkV+B1Pzj4YFKb1OR/qn0oQgQD4Tz8G8o/G7TrcVAdixyNvHLW24CVs7wmUJj05hPiqhU+mE
+kccM8L9X+9CdV+eokrUV31bU7TSW8ybrdqmDbezt+6nmgh8F3560PjvnZQq45xNrCdgM2ig3E7QV
+HopL/BDnyDSXhc/bwXrhCAdpPfr2bRvUD6nPDsrO7x3KvcOA6HaRv4c6FmbjPWsQd7AeR+NDbNV3
+VXJ2+a2lTrMMLfswsv0AcYK2spca0RvFdDxd2VNN8B9DYAqlw8vQ8R5kmYtsJas3Ot3uyH+e3XFk
+KApozPMDimmMV2DLJ17IbVhS+0wZPVsfCq6EudXlN/UO13hqtlZNFftYvffC3hiR+9QBvcRVVSwK
+37hWPW18Os4X2sKpbxf9kmlF14xzSmtKw0ZRgLd3MFElyRWJal375dlon8w0u49GIphhQBOeJjd1
+EV3VVDIyybUboGT0+TmtQ96w5jMn7xxDS2pcuBIi2igYbsmIM6K72MX0ahXMD/WUrVQd72kRwI/v
+PUTWsjbudY8OVd5SDLyKGAeJ+Pq29Ddi0A5qclZV15GPpcDeA2VZ+M6ugmxpdfuhEjTUtUtc2XyE
+aNpIHG6WBe7eanibMEAxKSuGuDb3lkLEPyQXSIUkUPTpe8jhiYF76bb1IfGXqrOWKfJPlNMjUFQP
+Sex++/U3PVw7qzj/jEvoCcjtGHfWIfSTW2MOMNfmxvNnbMKRz2Y2Vgcr8M75AGlzhA5FksIdwegQ
+To61vcefrSb5OecqqPji/SjxYzjXqT7UZXPuCY2ASqbfiHax2PWZY/5IWxQENFX5UWQ3HsGqCBia
+Ge+ZNTZ6aF//HMDQ41sAc+8/IxiClEGfJ3zxsMnY6WmoH3VsTJldkQr7suHbEeFZGHT0/kxn8DBb
+9DHFeP+/hAahmy+RHTp0qFFsVLqXTHg4U3p5I2zS2O0qA7E0x6XbIxsqtgXVIVHOza8xDid6g2TL
+Fgn0vxlxUGHi6B8IvqzSuRUYsAQo5eRK3kj3eYMo30yJpzVcDratTdxJnHX6vP8h9uGOwwfi4rrl
+DI251tcRzwk4SpIsag51RbLYVEl7NcaEmkYs6Nh2ThOP9ELBIO4RkOzfAiIs7d4b5FK9mvYBwCI/
+2YZUgWENvPhGe5iXG1CwVnGts8KDPECApE0Bz2I0m0MkGN/PhvelgpFEDM/yP9IkaXYRoTMb8RdJ
+QOCe6D56F+GxjWRBCoxPkcFrw/UcM5HaPaVMa2DHEc/G1uK9OgVkQObkiSWD5TBydxAXoJO7fxZA
+MWz3WnHH8qkOi90L1XyHP+Io0Rc0gxWCJpPEcwMOhuCQY1nQM7j0OU52QlLTWKbPZfOGQbIdh2Im
+V265j0Z2U6T49ANGtBuCK2WmTgbU7l/DK3nxocekfweFdkAl528Rlqg82GO2k1r0I9Y3jn3WTHGe
+4yyJ7+00EmnpixntU+cgvLlEQb39TLfkoNvmOTHswrNR454qW1aDt9IYEGPdQw8LrrOudho0bNuj
+Oz0kpzDSg76QLCewbnQ3XmSfKK5c1emPsUVZbmsCfR1r5jkTU4fjLuN+8ve5GBMxA9/jmLSPP9Mx
+ijuRps+t6KtMj2AFrtOsOXvRKRPa0at6FAT4PEWxLMIHX4Eg/xme0UpeSc45mRmbsgZP8DNHkyRq
+5fKd6Qabz3Z8iRx5ZaJ3F6I8ho7xmWQ8dyf6VMf8kmdqlfonSS/rz4xN4yDF0sdOzma+8qgy21PH
+uLcCd41NYae0+nbKX52GnSIRyD/CNx2wT1XTgIOmFnRfXUHh3tecwjHNmO6Pe1dzVi5ewsE4h3a/
+/ZnJ4ZauyD16PRgKD0+Yhreg59T4HNNrLbeVs+rq/dTfzFkd5luoxtC6Zc1zDDNDfRiDeF1Pl0y8
+VW26mAM8dpcvAhuDLx+434M8UXosBEFEc/0zzlM3LwxMy5HGIkI9PlGPVr8mA0M87lIC+WNrwcYm
+RHQiwL/hUjPnfYbmE6H27BVvyXQ/et8FpO8OhhzCo1U9ZLhaqpCFNuXAYfIKDC/wKRc30fAHcL+v
+UUU8kfPR7HdZ+R1FX5E/9+W0K+lz2yAm5KltAmdHB2M4qWUUxhtdp1KCUKrTvdgsYCxuuI4Oz/nB
+1r+IiNFNgmmy2s8xoiTVlrELlIYoURy/WuH06Lfu/SiPdfwcaCv0l0Ug3inUW2LKxcj84KaIEjMp
+ghzgnDUy1amK8EU0Z829wsxfq2w/6ERqvY8yudGj00j+BbE2V9lJb91VVbLjt521WT79TCSN9o+B
+jU8VTCcq4JxGP3ruh0EpaQeFFJD8enDvDApmGSTaiqU5caVMPMqYgzzVFr1JfzLNmFhQYh6tcTwb
+frdd22EFIZjm8Sc4/HF0/hpo8sQh0Q+GTJb177kmrdya1X1THTPvdY7PVKizcKNyiB+VQbXqvcL0
+3Mz5Y1A7rhOu2JeAVJcbY8BDLjh9Xd4kijSL7Frp5e3oZxsvbh7nNFTfJGROMcsK/zk0cJsD+nfw
+UtIW6IV3PLKXUWudfkalKsAJGs0/wdp2T01Qb3vlr7j9yomuOQj8sNZPIWWgQVcDl4kPo0XEy5we
+Qo6OUKPoUHJYie2v+apf6Sj5tP1zxEpy6QR5PTlbCLK8rYStRCPXuFdm6/ZfA1dBFK3gD37G9a0W
+rGhPfIxLVyyMiqZYMmFOt9O9BpfXW5raVFVzg5nt0FZySTwN1qsP1Oa3ZFZRa490gy4ot1+2Fb6g
+4aiX3XrOaekzX6a5uMaeXrZTwtoncYb9n0NbWiu2LRUqP4NbaYNn2Suv6G2wie/nCBce6n3Z8K5Q
+VUqi+bco12jrn+308dcwlw8KG+0UVwfrzGqmgsarOco8L+IANaw6o7gzAI/+jHlJgzVADgMTC0KH
+/YAE+tLK2k1dQegimZt0Jzt4+vv4VxMUZyuTs01pE1VyI6ZtyzFjlzegbbe5oG7B/pY58dF0M6fC
+vJ6dqq0dW+u7y/3LnA9zSsJi1B2GTMdca+OvuDwkApZpE61d9VpP9asNnOaP5BhtDlHWP4Cn37nF
+tI9dtNM/BcmK1Nvjclg02Ty9WDtLoSAmAttUS0W5P+xqz/0hI2rlpt+jZS4KvDT13d/Hy6ADLSrz
+bOdXp6soJo542eYqnF9sFq+9EmRj5s/g2X/InDUqPzHjrf5Z7qydiruhoy6M6Bnm540FTifyEuDK
+rBOL8iEXjB1zEk3n6Na97iJEeO1p6uThDlPJ2ngM+qE8a/xWzTJ70kAYOcO2St2LR0YWQ/LSzelN
+qNO9p1GBrdBzWFDQ2Dpn1zLvqdXV2WyKnRdpqxxP+Jxia+nTEUgNrU0gI1LvLUVPY3UpGxK+RXfp
+2XbP0Tan6C/ML8d4fIcu9qpn7n+Q48NBxfvX0uUplr9ql9P48fVPxMv5D/8uXlq/oD9i2DAcjLnA
+gP6qXZq/eI6LC8Rku4SzeKZz/G71sPVfHBRFMiXYeAkPgVL/qV3yr0wD8wFhWcf+ldn472iX/My/
+ly6xeRi2aZkIl/Devb+z+Q5YkfyeCAvC37YbXOqqIvRBEG3sPM1C39QK1IvA0Wg4BQgm9Tn280cq
+pa5DWw2smeu8eWEV/NnSHWGPMl4LDXpGk1gv9HCvEkO7l2X0bQD53eod8s7gnROXlppC2zGK8ixO
+Lbqc/OeZoKYy41nLy1unL9cWGHL8lrvAp6ws7/Y6CWJr6O956B6ssIb/EHwn6XgeK5fhEUh2ZvlY
+5RmMKoN2G5+aSUBBdrKtcaoRcrmLOmAO7P3JSFlTsOmblO1ouMcN9hn33tsoEGNEvXMbcrq6jRWw
+B3gpMr3CbhmeQwNRc/Tg/xneZ0nKn//3WwkbAD/Ch+BJ5oI5IBtOFKLMNwJDl22wrcDuZprymOIV
+S/ClFcGYrBqHVmBpE1DJY9e+el2wRgk4uHr64mXIs1k5/5+pG9vNXhxN7tOZdT7Zr07cb2mouPfT
+/k5M1Scu2gObIUyWago3uYPjo208gkF+PTJDk14SRXDxPTi8Xa7OLfns0RKPZW6Bpu82dK4g62nF
+tXWzs6kX2xgu7aj8l3RoSJtAMytYBtrK3Wl+TegHqVPLEXcMMzvaJROU5k4kvwuSXswGWCpI1frm
+k87B3yAi6tJ/qywDlG3/yvZ/m7bjWSIeLNngUV8bPHWB8Lf+hA6iGT6bbDpFU/MuECxa3NjYTp5O
+j3b0Es5aji+5u9Z3pqH2I8U5ml2/GW3xmlnpbdNHXFSrK/6QlWdlx34qn6262BihSc96BAur2Y2N
+ODoZbY8h4x1F3jarPh+gX5+wZ/Xa4kmX+osUHvU3eCft/EBMW0BHdl61Kb6EmOQ8Oj0WRU5tNfd8
+4Y135ZC8ZtH4I0chmkl1mDCa8clr04vGAm8ZDta7R2Qur5pFECY3uQw2Uew0K7icqwADjNTyu0Qf
+ziFC9EDp8zCZtECGoDbZcprQSvCZ7MEj39lzLbQyKLiuy0VhU3shsFuEotvZsf6RzfD6usZ4iQ5E
+A2wETRgH4jQMqB7D8OxU1IsCEKUP2Xuq4WMujTBboWAhvqrIwAJN01JdThOJtYRgi/UYGgK8ROkP
+ZHOGHxSxHVpPf9J1+7UHeOrUXHkNYxOX9qoaS2rOteFSZ9HKj4dvx+v5bnn3gRYdqbxeWBtfatsC
+VBxt6INO/xw2ZtwljcX9GaO57lW71k9fOqFtpsaiIMe4w2cG/vBcedVXHNMM6sH/EvV0zgw0AFPc
+NvwGBPK2UfK0i601XQvvoZFv8IS8plFyTWv7IS5QCJ2QkhKvOnWJc+8VxSPm7YIceluvOqsgwNTf
+4PH4zCMTGq0ExZ+EGIRLppi0Dw5JhJXYkOJ9spjhHePit+ajo4q7ZhD7yUmahQxTaCLAgnp/vgIm
+d57lHDujvtGq9kXBjOci7dK0xJZ38K7FMH3aeXwnDCzDQw0u3FRil/msdJXt0M9t1ovORuqk37Wb
+8LG3AMxkSL9qX6h9GfBPVIzN3ohzwC8Rn59BZg+l7tNc725UJs+Fa91aCR7ttovWzcRnRif+CmyP
+bUhlVu8Z5Pa4gxdv1h9gAC+4lQ8qfvbZw27C1lr7aDhdjrnOSQEGEGbALHqKTYNPR90/mAxyFkCD
+LIxu+7Rm0zzEi7HwLgm7Kn7cGhrDbaghgSd2e1+a9aV0A3FG0HltDPo4RUY/Zp56gFPVxqoRZYg7
+EeGvDmZa0mlDTAxNMzZbXFmKHtZRPXOPYrtQWIeqSF4hEDmLIbXx7YXBu8POta2CPYfQFr323HNk
+dJRzWNjGWmFvTU9tMM/shgkTIf5+gpF8b+O9yD8tj6NMBzpMFUhpqcdU5MeBj7GkKZKeNdO9d2fz
+l2btvDY+F5ymBpIR3V97Q1DsAUGGelaqbT25zgZ8K7MPxK6Orq2vpKA2XIeWOqQdYT9No7Z2/BAe
+OxraiyLmwFDNMYaSR4g6gJHlkcZ/jMHckmwiZo9ZEjTmBhjdrUX+ZYV3LUBYYUPkp8WhUPmRa8Ra
+TyfOP/eSzH0d+hYa/mlQ+krrSK+C4l9SqbCb6hyDb+c++CiOlmx4SuUYw512m0cZgkHKU7daO5q1
+bOR4rox05heofp9ZeNgjEL2z6Ms6p3q2dfkcJM3bNEj6ykLwdHF3mJlOVdqtxzE65H66mXCpu1oI
+0Eoh0ohVK6x96/br3u8PLVWM9COgSaBbh+VJ41HR5Z8h4A1PNxea6BGXw9WEEjblcm8q/VLSCmtw
+1gQocGHMMsNRV0kBWcX4o6U0O4Ufgm4TGx9fFZlUsFhwW2Y5vfSOfkC6xA53ZspX2zqFogQZRVXS
+ItLoA1bucOTQWge6ftWc7w7x9ORk0dKC8LtisxLwMKAzycnjreHTs9TbCbjCkaTzzN+QpDAENKGo
+Cy+V1HZpYJv3qWewhirQ2EueZrm++c/Z/Vv/5QX6t6Dc9SuL/vI/YjIT/+QSPf+A3y/R9i+WZWJI
+Ntnp/61h2vrF8zwBAJ34P89tkwvs77fomZE+7/11g24jmOY6P+4PB4Axb/65gP8OAPh3btGO8Q/4
+O14AqAFBuSsebSGICP7ZAOCoquhMi4xaRz4lUn7woMv+JU3JRE8+j+h0ML+FDtNzqOgcKN1QHsA4
+kdLN67nndF+Hz03dbhqsktzCYbsCdVwNlgeq2t5lerCeKvOLeBcCUF0BpuLmpo/20WyIQ+dym4bl
+KpglzoaNUwfGxZjyWysDYRRmz5OY/BuZAjmNwidP4vO0vxIqFsi77o0hfZuMdJ9kZLUHq56zBcfI
+L86jhIQZ1T+SOUcQnwSqRZTftlSj+dYu0e8HHLmygvHNIr/p+yfZtdBnyOzBYC4aKn22vg4wRYVr
+aaVLN3mwx+8yYwKlH5W8nhHJXRl2NzLYY7bMrWLR7UZOO1yH7UJoLEC9cdhbfJO5C3Er0tvxkNjv
+VevUyzbj0LUN74lG8i11k7daBN2Mo28/JoI7HqY21z9rnnrTyFSpzqfPvdkILb/0uvk5ZeaxK3lL
+Jp3BAy3sUZolJj1/r43FeTKzt9KNwah3XyY95otgjO+DKpLbuRZCzX2bLk0v7TalCw8W4zJ1m8uk
+cA05rgt3zAIuNm46mxLlJLhzGuNkJ7DWsGsSrbFwLiqrxSZpWp8g5BcdniGjd3YtGR7l1vFaixkk
+Mp3rSYCXXnpjtdH9/F2n1cJ/J1Gj+PDQDxLX7rLQh3q+Saw86ESLhoYIp02eer9bJ7682J33ktoh
+QcMSiH3avtS99pg74Af6Sb00sXsM0+qrhRSkAY6gwfrVVIozTx1tQS6uGB7TgKpuLnl4u2iQipv3
+Nu7uUjKeu5ytZeZHb2LgIxK6lQcUb8LLPhdbpRpm/BKJYpiaQ6FZ+65BuvGscekAS7Jp0ogM7zHF
+kL4m6oCPw7spM/me586PDNt8Xtqv+CehbY0QYlmIauGJre1DB9Ft6U0pw2B7cMwImJ0RPHBBWCUF
+gW050cBrk9YmcPNNrI7+70E8QTh9Df3hkX9xr0tX0WKO7AdTkEUcRhTT+jGa6Z2RaMXSQ6sfotkz
+69v3qsL2yLdqMQXiIPQhWvs6ZMgJ0Jcp6xN4vJU7YJ9PsN3DizrTpvM+ihngO+1Hj/i5WbKE6ejx
+5q3uMuq7imIGkKf0TxdX23FxOPve2vXDZ2NyKfMaPwZmwTKeXpLMNZZFYi+LOY1YeejgmvtYAgxc
+JSl5Iddur1NAAFHI4iS5BeIOeVSl9Sq5/Ru9f6eTtRRedkgAiCSevDoWCadQ8Y3gnfeNW3Mqr4PG
+D/GhNnrprT+m70NRzTWGw3vVSLK2yZ1jmFCPsLay59UOMS8+y6M7Leb2L6t153UsDvp9Z4dvuQZo
+y2Djnriokp13nHCkjLW6NVL9HCiQuanBrd2ENt/cN7q+7NlKBF5NryRc20EcclR0vHhn4JP0laXb
+Sg+4b/fqyhP5W6PHSpuKQ2VHD1aJWTTfB366CnRrDiZuq7yhw4ckW5EfRmRluh2/SO9tOkj6jc8Q
+VapPrresqJo5FbFkKrhTfX9jNP05Bo4SMNnTer8ljQleWmGc9wAwJ2uRJO/kUR5CDUET5rnD7djo
+8eoUOFOiseQsLm6KLD6mRbAdgf4uUmhRqi/fwyCCGp3fRt0EqDF13ixZLl0dS3vs0axR3bpDdbaZ
+76Q+7KPG574515fRh0jdw25eriSJAaW7So5sl5e9BsEaKvOxJK+/oOJxz1PmsZBRsUlEszWM+ebS
+s6LIDe5QLVEUusUqwp1RkehLxyBYow0pQ7T+XJA23ygNjzI0+KdcU48DYEWGzeimEDj8KYx6m5qM
+zJ/4jrieLrL0O5NsBhG2+qWcxE3UYGHxcWiU77YwKNrxd5TzHsra+DBwhCwnaQWLcq6SAMN39lyG
+IpVgoUDEaac9zDjcOjK/6E5CYoJpuS7qRTVwm7JC65jWBP8K7d4L+y871kiz2Oe4CVZWkL3lEOB5
+mw+lbKxfl1OlDnNOdMty5h2WGG4qHYwcp1QqYN9Tq5Ti6tlFPKzuIyCb3Ot4mRVfbu6VjGsqLlaa
+Kd8E+1utk2i2bJ1klh70yXiLDbbCQUejPa0XNjNfL7SbwI+vpko3Zc692TF2td8jwTawN5095q97
+C8OAnPk5bc6CKwrla1EXu0wS9LHqVWbQK2TrN3VJdBBkaVfHD6PktWdYiEo+V3A31l0abL1ePbkE
+NSlbOwK7vtNG7gJZexMjzXS09uFkuDKy7l2e2UPjPFUtCUzHbDHW0OkQUbdc1Xjqsa/SHB0AmoHF
+pcYfZoErrWrQgiCTRsFaDLj9mjja9hO7WAFFzenk2dIZEhxRbInyiwVEnlVt6e+dJ9Nlb477hrlt
+qXxtHfj+NfFodc00W13iAGNV42zNcDwqMhGKGUqVM0bdZOCMXpvIO1dAjXEdk4Wmu3hd5OJYy/4U
+2PFt1kcuzAqUjAoJY2cyWXDk9pvRIsAVqZ4oicCNrb0W+UiaCgeTA5JlmaYRmwIU96Ibnlt80jX4
+T/q/kmURoTYA8D/UrgRjA7uf2ibqYclkTKdywBQgvVuyNoTSI6aTxsQvxg0DVKq5HOr4miTga+DO
+LZIRKa8pTqbsZ2geEZeavJrXVW8w57deFwFGibW3pmyA2HjeITPkNqr0H4XrbHAo7Qe4MLhIU0au
+BMeWRhg5dB4lCYf1f9B4gKj9r/X138aD3ZvK/s///L//Pf3L/1L/jfrIz382JfBz/jolAGGFqPGn
+hOTvPmH7F+G6EDMYAnxDmB4q/B9TgucQoIefbQoHTNjfxCotx5sbkYThQNYQxr8zJaD2/4PWjsT+
+p1glL+LPUwJKaFVpFWZ9DfBnxmRrSthEQYFdNd+LySazwJNEq8sb03GI6I9vkh6/dvBn6YtLVRij
+qPta9xoPzh1dc/WyotuMi0aV0OJXX5Jy2np8xSMP/UITzdozLErSy/HFTJ29GP2b3vU2o00KuIzr
+TV/jE9Cd5sUFe78dy/G2xCyGSIow3lvvWFl3Y+RsNDolK2VseBJBm5BnE0FhjXy5GpzotkrMFHRl
+8RFx3VkYUSMgLBe4GtWzneFfoMOHl81VtQYYm+tps+tLAB4tcg4mIDI2hG00N79WhG+SgdrmiTiO
+TyyncMKjMIo3Rb8Kild9Bbt4MgjypBUuIS4j66bjhmqoZ64MGLzI/mQNI5VDHAjv86YqKGVNpqM2
+54W4r7ykc4KI0oWFxKTXEC3yrf2QE7CYE0djxtClEUKipx25hVhSpecmtOR+X+F1K+BmoSSJj2jO
+Mrlzqqkn3hRVHfglAKrEniirwUwwJ6HEnInC+bSc+uRqOVU5jxpoXCRm5hxVhN9BJ1gVM1J1Mn22
+kk/w7sBeJ/3NdeLngkBW7FBPpYhojSyZT4NROis7xRClfJ/Rx6zz1eiQlywDZe7LMDkGdLJOeg34
+DRynVcYR3DbCPmV/0crkDI/72En9NmuNTTc255qPEpcalhE6tAh8p1Lo8XIcDEKi0XyiRW6+6qmC
+NdoaIhjHJ1pOwW7QFdmzPnCbybCl++6LNfH4UlZBiD7ba3H2ndQFo6LYDlYFDqIIbzNHxzJpQgAb
+VjzUHS5R1rOB6Tspw0tgN69NO70ntfaWzKxkY8R2Msk3SdsBMZj+WrG4BmbC4Z9WxygZ7i1Tu5JX
+P4R2eM7RZaLR380MuUzjKmSl6wwTmENDxTRwjbT0U0f7Vt6RajTvrVzuKAJdKlOds6E9t5W/KbV6
+04YIpLOjRslLUPbLviqOTW4c2wAFO8gdaNU0adWSAZkJEfeSSzs50lKlO2+NS3NUjY2yds8ers4S
+b1kaSMrp8a6H3XAY8NYvu7C6eLgSa0Hnrxdbm86xyA1FPxwRXE1oyaEfHZoEJg73J25/w4+SPtM6
+8s/EBM7/j7zzWpIdOa/1qyh0Dx4kXAIKSRflbVe7aneDaAvvE/Zt9CwnznvpAzlnhhySCvGaFxMx
+2/Teu6tQmb9Z61tx4Z8Jv1lKtA6J2W2Io3ypsC4ZZY2wQD1MaoARUm4xJYXIYiceEufFiAcuuuKh
+bybEZeUzXrK31mt/jMA+BaYc1hOiTrcdwKOhmKhz3JzJhKbARRtAKxULpJWjgDmIcoN/+j7CZRTM
+N6Ms3EOtgEs4CPBoNFMSuBBgvPaT9zjI/uBW1pGILW7NOsa5HeQbM02fIq/6Mg3nsZwH17jBEEPl
+CMQRy4S+A2mDyqgM/HMRVhAfUFQHlYSTE/lLeC0nqyC2RYgdh94lz/GUMcEuC/Ueav7GDdjpMebh
+knXxKQLa8T15CiAi48JOyJqaVomDtE//bhggYmm/i/AgTlZxxeN4SSFw85kd4g0f07NfZN9DGRIF
+3flMVoBaUPawCtESAGD9RrbNcfquURKhsyFNy4g/Yvbzha4eYGAvM0vta0bHc0+ptPzL74pm16Do
+FgFu1UIUL3nsvxiescMpjLVNBhu/zLdSESVjhsNmFoF4Rb0ho1StipAtrFA+E1YK+cZbWPyOtGJD
+CYBjj7qeJkXs29i7mfTioa45LhvF64g0qS1o1yfnoZn6tymK14CA7wdb/GAkv2/85DSj/jEVzklD
+zoIMmzXIuJshFzurVEvaHKoc9neswJLUv7Otl9Eo20VXm3TNOf6MKhp/ypYPmJmhHsqsEqQeAx6N
+TU6YqWDdoEjy4ncCu7ZmiwoVutzaNoObxABzqGc04/UyFPEWmfMSZ+8mrsQulNOLzIj3dJPXKETU
+4etrUzKMmYiyrMLkIYnIjdPZVllW8d108AtV7JvosY27qCB8D+gKeTN6dc6j9K1D+q+MEdp6nKEd
+U0kLp5vPvY8Iy4v7n6lqyfi1XnVfv9qku+m00uPcU5tWexvNXXYwFP4qoPGuaMApYYG/wBWJ/tib
+06SnpNh1pfgUNO9IA5/5J6+Jv6KrV+Wt7qSrgo45GxCdWlM3e7VBE3XVeWI0wMBn77jDeWRk0DI6
+0AY8g/MsIWGoYDBcGBky2CPaYX2eO3S9edDYJE0JPPiG0UQ/zyj0Lv62ATMulXAeB8YYvTfdmGO/
+MBwcmNM86bAYeUCSuQZp9uoxCqnnmYhjf/PzGipNpiVdyyIgQ0/SM0gZa8CWuA4POHR3foUIJmqa
+x57hi4e7wGMYk8HM8k35mjCk8XXzLWdoUzK8kRA4k5KlFVvxqzUHpc6bcMY9RgVESnI9CbwppP8g
+eZ1nQ848JRrtYas5zI3AQlhLwoPYa/Keijh6jbV4vii8aylIUCIVbJ/q1orugbD0VBw6J8i3aVPv
+UZXvNQ55/kAEsVa7GjXWM2aDRyO3BzKf8DYvw0wgzxfOZWjzI7MuRiKlIzbY+6dNGVh3rjOMy3+e
+etygHP379XhZ9NG7ogZn6/9//yv9G3X4/PW/1OHyDxJ/nXA94kyla1JR/1KGY9fD+2xiuUMiL4VL
+6f6b5IXZOXg94HZo5X43rGe2zxTfEa6lu8SU/iNlONC+35fhJopr9gKu5zjz//5uWK+p3G9MqcYl
+k4p+gTSE/aRtEYrpnzpzPE1oqfHlrVn+EO6Vo2Lta0SJfWCCd0zubB1lZWthfZr6/hggQLWc/sYI
+qW2c7Etrr4NUOzusz1af3qAwpDYdN717k7AGLWNrrcqOhOP63nXTW4W4eagbrtA6urZ+KxExDrDU
+8Hr7ZfE5jPhnEqnvhqJfsZy9DHwsu46R+xRlTEnCoSaksP3s7BZJhduFS5lrsDUmPcIGNAv6S+9j
+NLQr+6mV36W7RiOWgcGEwCZzRa3/rZUQMUhDQf6WeLgfDIZ+taEfCh8X+Ths7WDYmIW9jfp+3QxV
+v6/bgWQt1LSINPNdhvycryRt0HOSDrlby8UbzaC76scmQ23pSCuGNayTZFhdrUxsipGo5bwiAyU5
+ORMpy0nc3o8Mszd94W9RnA8L1eBkghh7N2YtfBfGCpVqntpygLVHjHZm3so+ICpBK1YhvTmXfP5e
+B/WT70KBEBas0iHoKY577YYQWQ7OZCAUxgvWxdDnz2hvUHIO7lbp3R2hkBzlc267CWs/ICCaZsXM
+tmYS3ZnNgK0/RTMI6f7khv0hZvHtO8PRHQwIAu66LNkkApRzEE2WGW4bicM8JezWIDjIxrDuO699
+k50SE/pECYIgMCD9810S38B872qY5SXNeRrCajPbm+VcoliIRypIrxEVdFEY+A3xjy7yucBtAR5j
+mzSwyDeuoDCNQXqq1nR3RTRMK8a41yiytm420lKhIndSXDrADwvWu4FkaZInfXWbJOD4K/szTeud
+rVgoDWV5mGBklRP5Yb4i6SbkmwGijNg0nSh9Mwu1YFa+t4hJKHVjea6qvNukRfWgl02/4OdvdR32
+9GjgIXQI2pYtCkfn7A340zzU40VwyYyZesh4zBdfXitBqUkq4hREReC0X01JGqJBjJ8bAJIbSeIs
+Y8bdqcQJ39TVQki07LHLjYZwyW/a6XuqtZPyaANTv9mkmqEBQGHWK6qLHidMvIzG3JdEAjmW+oqC
+7Nh5TOQr4v60eps7ybdovrSU4HXUqRRkL3ErLiRsimM6Q5mVbfgPlKdICkoaqjGwl1qTPWAJrHh6
+sfGTe9uzicFVUYXhuJAxpj6vI19nDI0v9ubZczTQKHVOva08760r2FwvxdYHzlYh5OGhMoYIsbth
+nakrFAN1vVuoMLtNGl0uB7dNzr3VnfI8CA58kHc24QKxwyNBYUh7FU+7tuSCRbM6x2TOxkR9l9bW
+s1aMWye0r6SnDLt2zg23sbzwQMFjKMMKwmFjn8xQfbqZ/Cii7IpkeC81+1337YP0p89BGwA5UH/Y
+lB5mIEifIzoW9RITbkSqvZNbq7oYihOhdEtb2ps00R9ILAvQXkEwEQEEW1A7j7ypJLNHE58GLVpP
+MnmPWM8v/YHYYrOHGqFcd8lFQWR7RxlrWNre69n88NY8ov56ZKMKB2R2LvWyGxB758VNo9PfQ0Xq
+UTBEHUPc8n2U5o/uYIPSTf2ZAT7hGiHaQarjdjGRZbKDLLVRPpKvjt0KzSwg9UyX0CCc5inV0XfH
+5oEKuFyyzPuhaIiIS0WF7dO00Pd1W80l28HKwV34EAnXnuOhb9RR4TYoIu3gG3bdynSHYzPKr4TM
+0dDSH5KQjdww7wIxXSUp72fjHkebrptG+4VedFUqgW6kw9lkaLyKGGVL79yKAUxoODI8qYltDA3Y
+TVSFbr+322Rjle3OJDxRqWGJzstcGrAM80lfjZZ1Hez3IKlvA5TQ1qRIwsFpacsVzz1S6vISJera
+aNXzJIP7xkVnFhMfK+tVUYVvrsnInkuZso39q69n95qtvnuJxINxOsN78DyOxTBcFptiGK+Nwec2
+UbjDaVSeWTtciphDIq3qJyZSKyPTbrA08uQm4Fyn6pgkin4rMyC8O9oC3OWR3KqAjqw+CAdNTB66
+dylypJFDibsS1Au90rWWzjqekjc5k9YHOaLL73aJoMczhvEzMDB6+iNwoMnR7s3aPqV5vEP48g1S
+LDqid6nmFHCIo2RYLaC+3E+oqFulgJB5G1LRrpGqfvQ0f8NmcrF8wlpc6Bjm+GikEWwk/OExvpfc
+KS1G9vlVldpzpUvEJ+kDrI6N8Nnk10V87ZDWLWwHtqBBelbpDpuqapaW6PYib3cZVEbBybCG8U8e
+VbWBR8RjWQsMVxHgKp3suDRyLlZWlXuPcFykjltNEQ/VxkfBpSHNChGfudTSZtW1Q78yS/0OuCqb
+hqAnUBicBazB8s5tnBeacSzLwBCdirYrGD7agLcIVgGzl3BTR/XOqxDMZGm1aDg0RpD0tYF9h9nS
+suuiTduHIBcB7+SKG5ouU+Osc4jI7X31YU7xba2BaLOsC1u5t3pEb5vhdGuG9DDUNqT2kIBX5DN9
+sM7q7Jjp5rroyzPp6gjr2e7H1aEkVF1T7svgT+RZutynlnn0hb4xhbXRgVMWgiH74A0nDRqlZwQh
+Db0CNUZ258KBBbVoCjzlZThBSoNgDsPsnPqcok4yJ1K505FksoynlhFdKfuTOTYrM2EjYhflPuKt
+7KwP9i3fkzYenbC6KkGYjw3URCaEEAjwWppAg6RxxIM80Ud1YEoZsLy12XuyxLelBHg71bdmNWJl
+6uSK9o1bqwQIopzXeBRPaTz6xB2w74zYosxDTify75rEO/7ztBlzCMffbzP+NPZ/Gv/ffyV/UxI0
+f/WvTYaho1z3EAZx7NJp/NplOH/gtEaQIyxyQXgLf20yUAQBMZOMNtCrghGZ/7TfFEG6pXs2HQaO
+SkFb+I80GZa0/6rJcCwkn0II23R0R/CP+PNZPw/tZEeM3Fjnu3vHhOeVi6/S05sDcYTtQnPVDjsS
+w3uOxkm6OykwRpkFotQpwzRtfZbkezOMTOWhbiinXO3Y9tW9H8dfFZwJbLje0tDFjxqTt8KH3qZC
+G7xQBjjVHJMXFaC36Em8XmZti4wAmQaWsu6jwk++EHDSYDCPxEoEh85oqdxD+xJ4PlJFlQSwdcNL
+YOP2903IdkZzqia941MxPMDYWPolebRTVL3BeuQ6Qv4cYfTJ7dQ9xCo35qAJBkI+VsK0SFG7opSp
+gsgGMDh89/Ws/MSqnjgQ/PL6SPDmJSIF27Vr9pdBviZyHm2TCFFLzKQFbzyASDn0DWP5ISMHs5Hm
+O9KXnT0kO09XRzBb97T1pA/nTA+02y7S7gbioWxlvDdee5EUOA3xUaEf7CK/eGXkR5WknfHjUfYX
+0dYHeiyNEUKGdoxVPJv0H3PRceR46imcM6tawqu0usRDphk7Yr1YOxNwVXnBrqmdR3KhB5Z//jqd
+s7CUDyKvjbPDlE23PnYoVWf40rFKWRyPJlwqU2K3DDxnkxK1NWsTui7EBPyO12FRkchFl1Wu5RzS
+1TjRxcz9ZcMudJ016V06B3oxO0Jw7ms0hnPYF6lfedC+tXWJYMzWX5HINbwFzZpPwatZN88lysWA
+2E3sBYtuzDDLM0+UhNNZrF7sebyU+gW+9Hw4RYncI3EVq5BZGU3UDT9RLuhEUKvG2I7sgrrEr97a
+In+1KvcgCueY2HJdubjGyKJe6pYyZswxWyUO4RoNi94SvZdCm1lX0sRgLB9LF5AU9/s1ISc7mnO0
+En7VjGJEIKa2DkvYGMrXH6SVb2sdMo5KtuhP9EVdhzvoHch15V5jbTulMbAusmtsZWLMK7JtWrXb
+2Eo/4xh/tOm9OrJZ1r485WyKaLZOSRrg2xzR4pZ3QmlrU4u3dYbyurQecMEgy2nwgsXpSrUC4Jt5
+Dvz0kgcK8B6yFsE0MmZg4ODyA4iuVnZH+nZAqvI05W9EH9/0CR/DWF8FhVEwgO6em4bdVAvvYZFG
++Y1D6xxl/dbxu01UeXeTCeERqjonFkPhaKWIQ+WAYEMvYSO33wnkETNSfI25HpBx24w60xaPLZrm
+C20P+RaMDoPCQ8yWTRs7H54FUWY+8S8QEb+8xn+kbAIrNJH0nlLU0w7PqZ58BykJ193BNenX1dzF
+TG6LzM0MHlxoXVDSvfvCdd+moDmL0WCpOOKmi+JuaXIzsqCjkfxSjP5sBMxMgk+TM1x89MNCusWy
+xLThlwr6VwbrzWvpsQs6m7aodqRdAD0DpjiIjTuHqgA48zX7o6pH2PLZxirwhxh6smqT9liF6iRS
+mg8z/XREsHHd8Mc3u9fULR7DOXjd5ftKrPStICzEapyNdBnYpH61SYOJZA0MGzALFwamR9kxiB1w
+0dV632HPructoMsr5nxpJa1COwL/KfV3X8h7dsicaIq47WJ8LY3wHHjNY4smauGd+48J1kt+z3nO
+m02xFHiECOka7kRRXvCxv6VJvnP69qAJQuxFus79yD5Abl2FTrpzJXKCnC31Sk9ctVR6MtwWXgK3
+MTfXWWWsYxaXWUxKTO5NtyIpb/PQqFnAoBZBSvI5yvm4SHkMSLBHvcfWriyHSzpiTQrBzDC+fbGZ
+FLC3UDangRiQhfN+V0H+NpQmAUFqE9jhNuCD03YEJbjkN7UMhXiRBENpgoI79RQ36ZZ96qFBxV5z
+NJtgXpUdvljK+Rry5DwJ0qomJg9pejRMe+VR9KxMKqtdRTZUOiC1ckmCYerOvqCAw1YpeYgRgHn+
++KAVxrIaMDKU5ltqDs+J4047yH/mwrQbSAYYM+fJL8lA5iKz5W4KW2udsyAqTfsWrIyNKoqakA0v
+p1obXMqoWoQZqICeKZ5jqGzrdr0G7RLcVIZhZdFEjvfqF3GxFC2NWy71txR4ulfn935A+OHgesdO
+dGt3zIDjuSzDlf6tVYzABrySs8QTNVyxohI8w40hWIoN/9IwpL+N+3mZ7BJGYI3Tj5OqaEkfxX46
+JQiVv4p0Imv1z1P3ef9jEvqf6r6bMfto6+RvDJfnr/5V5EGSGgMPU5e27Qj7t+myBTtbkotie5bE
+benwK382XbY8U3iWzYRZuig5/n/hh6GSmbJt897MRkvobv9I4Uep+PvCT5AzN/8NwnF0G134XxZ+
+8eDiLZqXaTnm4lrn+jMcUMhpVr8WXFbCRnpIMMiW9SUsUCRgFld91bFVrxAfIvUlbwAXYe0R1WlT
+UTA/OrtN8xKirXKVs1JldRe12XpGKRtttEITuLVDeYez8MmAKbfWcAElaXFWRX8UWvCo7IIJBMj+
+qp52Ay7KGjwt8pNxh9rQPQSZ+5zJ97zstiBNQBx4G92k4xobCWqi0x90UkWYQ93HU46ry10ajQbb
+c2DtZki2Wu3JBNfRM5TGnHQcJnlLTNxOl/63mVtXG6LFCFfLIM455GQgXHlp0iPXo9p1kJSbUsKr
+yNVzAwOpgVS5sGL7Pa6jcxz5Bx2WSWlEdzXjRnMAEJR6V5Or37CmO3cSVzMw93XcgH5siyNopq+m
+CK6jP95nraLtAswUlNXarMRRj4Tz1cew8mIBpLeRpXFK7O5oksTCYNj+EX2y7XRqADLN+45F5NAx
+Aewe0hSPB3FfZp/iijdWHoTxpsHOSVI3jCRML9i8Oq5rrngdMSUOe/w7DjQGqJxnrDMw3hyOR/Nu
+rJyNyViL8pD4U1QwsslWVTpe5z+hSNpnrdfFqjb9h9xKObdobFX10JCyanJCa3V2iQeVL3o3vMRS
+fxhJCRsjIqQIX2OE9tQN3rJlddeWJIygaxuAaU1rw8dYY5bZ/QjFchmSlbFoaU2ZCj30glx0nyQb
+J6vEYmqzR165g2t3cHHUvuWQRAKxs1t1w8n/FmkFSQGo88kpWBhT82EPLDTi4Enry4NthafCpy71
+UwcsFbMAVz1gvHjWNG2bUU0hdkwfJ79gBxyudCSIS6bHyDnxLcCTbiHUkVg4hqG1S4Nunxt4GZJM
+fk7Y4/NcjfQnAy2TDdkoCChf8neT3Me1w6i+kMadC/dK1fpXoJkgIcKjFpMwDxRpU3jzDEAbwWlL
+b1tM0a6eXVKOWlqx+mYmwLI/xTWLJrWGJc0m6wDkizKGIm2ooYfV+xJKWtiW7dqL+pXTTxQLrKyn
+0r0xco99g5PzOLYsYmy/uYAN3SjVnUyROwuJiDAZRAmaLOHvI/3OMfoFWQ2vaZNcAw04Sa+eWmW+
+W5X/FvftY2AMu9hodr0Nbt2t3gOcdSsvg+zb1dN9jN1tOd/sbGBTpAGR7+LD09axGe16xjeIsBUq
+41bBd0Vc62rChc9QHRQarqKwnpIekamovkID9rkq2n00lARNd5ELUirHiACHqwME37rag9HGb31M
+XHSb/GhyXGUtD1UeWlsbiyDhHwASJ9oYgouWmHeXTqg9s31BFYFrA+bni4YwZiysTc2rV3rpC6K9
+AM1I/JCDd1KOzRvagi3M13kxUfdrHDRZSZ/g3Xe6hPLb5xdkecMOXB1u3ZicXlBeedrsQ7tfWTr2
+DZWOT6IGo4BopHsPkbLdMPpFjuNpDzHrtizoNlNAKTBiktN1b2v1TGSsYBNSTy4FVlIwagHsdaHd
+hmXWsDyuVx0May23QEoQKiLkxR/COzX5297j8LV5c01qyFI436XdztgQDvlKZ9+kl2yDEstZa8Az
+ltg2wEAUCfJjEiEh+kWgRXy8aFS+jodkFlIcs93ZCRoR7dzb4ltDONpVxaoAaLpKhwDqRgD82dl7
+UlCwphOAo2lad61CA5csgRJ/uqhxAB6DFoYQH8t8WRfNUmrWdgpTQIAsSPJ15ORrroHHTBFHMIsM
+2etjjObTgh8F1Cg7dHaBbCX1pashee3iQ4TH2QacX1jla4+VCCe4QR1d3VtzCInXueNjSEL5Isyf
+NMt6n7KSM9T+aXJisIBYNjJ4aux0ZVc/tHOYFXs6bvdRgVIqhNrVJeRC/ChELoarpn5JyvHWSMJ9
+w+AyYILBzCzdTEwaO8YUYaHePJ/cFgMdvK1neG6bu7A0Uf9Kexu75rhI5JwLhPZh4uHHbP2BDWuV
+B+TXsbDDm4yirRQ/fVU2S2bu/SZxWPYFAkFXwgItKKJ4Wbvi0e/TWysOyFBE2eN67Fuc/i4Pkruc
+6wqo3H0FzZypDNtG2+GB9Yn7Eyp9M70e6TYDVK0mOBWIWuYfJmPsSDXLV6mJB7eIdqL+Dpr4Kx2D
+ZQRHKxP6OdLipxgjkgP+uiN1RwuatWtHp8aM6VMS1ot6t+7pU8AB+c9WmXlgVT5MJImPQ9GBohve
+2wxTWMNbo6znAE6RlsYrv9LuE29CCkcEBts47znL4i+jKs9ksdJcZB0BsOkqsNgvoE1ZdU3ERTPF
+xzYpIUljiLHZ8OUJBGjVEMVetpJ7KNnoWfMoNXZdxvgi7L7Yu0awNSTnf0uWQF1E6dIR0XXwh22M
+2GmceGT+eQpf+T8Wvsf3Oi367395fq/Hv1H3zl/8S91r/gHdBLvyeTZJX2UycfxFVWHgc3SF7Ukb
+yYWhU3H+VvaidDCwPuroLphHIoX4bd6J/MGhWKYk9lyLUeh//vvn8G/BNwQBnkUYt7/78b8QDHZb
+REAf/uNf+cK/KnuFQ/ygqZvoKkCJzKKLP0MgT82Yzf7NnPugbxjn5xsV6fVCtq5Lxnv0U9bdNjMY
+69me0yLuFOsWzh563HPYaPFKhc/haBBgMV2k5zz0mBWEYTD0wT5BkYJ6Mnb9h7B3MRYzNsqqH8WW
+Vyrv0dXlUc7jgGByn7tGHuOpdxET8dm3A99k7gT1vB7ab4xWmE1qSAUhMrMpWufNcDRat17ULpps
+h5Bf8giYzfWMSfV64+TOehT+UdhomBPXvkw10cwdURVD3AHVndpXPUx3woydRZiQVkd5uISsuXa8
+bBsFw46aMyfRNFnV47SqwFDK1t4QHwBvnZiIGohPUuy0AAY7rq80RmbXN/pSynLXT9W6nw0VKQDa
+NjCf9dE9uDkDFMN66jwuaDfLmxN9EAIKX2NBRVPBe9OSQzJlKyOh18/MUxa5azfQiUQW/jZJQE2T
+RXurN0xG+BvUImtCRAa++x6Eer8tbbW305aYLHXDvxjgrH7oi+Fa9/VpqgguVBhHkvzT5D3FQ5ql
+6GHlCkV9vaprgZAFYr83dqepiVciFM/WKJ9adzwnNlIsAh4Lq/0eu+Be17N15rc70B/3Kv0K9OlN
+Sm1bt9xA/pDeQjsDQaONm9FhOGgwJzcCxpK05yWLxcYo9n5YPA+yXKe6zVyuLrdN4F5xsD51KNPr
+uLoEwn9RLHB0BCrsKfFSCpyTSURkpYmOlz/cnSmGeLsK8hDYhS8Qdt+MlnYrRdYvYXE8oadnE5g+
+V47zyiO/rRl223X5OkHhsGpE1M2wbZ2hx8Pr+8u6cvd6RO5MT52bceEBcsACVsyvCKaPOS6GiMqj
+a1JPqHHn9mxyXRLpBgOxsIU8ZhCElsXyQ2rSY+piXuA+HHSPuBJHT28bu9lKXIRLHaz2KnNDHCwj
+48jATccV5gZ6THTVFoY0UDkWWdhVTAaDkteJtDuY1PVPWw3XyZ5tK/ZjMeUfZo4JwJ/vH7/UMIKp
+Zt82MlxAb724VrYfGJfqfXrXIWln78v3nCm1ItCKFsd79qzk2JjsGUvF9rgX1nEcyx1m+xS3fHoK
+eaFXSTQdlEOKQTNe+xRQRoQQyQsLIBszd6az3iO/xXravFeBugtzg+EuCqbagyPNzGdihuek7mpU
+lP6sdc8ytJlyJf2bW6AbrjL16g9xtleaulOaj64XA1ghb3xL21WTeoThyLOBiJO4ja9Cq69Dk+89
+0d+6XXzSkJYigRwOgl1qYmaQDwt5EX1wjPV4RyvwHRvR2S6QdhA0flswsyD2CBMmQR2u19y73Tw8
+ZDwLUY37msKQ2MPnziICpKr3fPtYhzyxRUx/zVrnOamNi9MDLSkNEAPAPLZm5d6gRqLQjPYVLo11
+aXw6zNZIlPB3XjRcKpU/mqJ/68yKJCQio1lYlhDKtCjZi8R6sHq6Xt0Nvo3U2TZJS4mne0tZJ6QD
+T7P8n1My6/RhK6tpwxOGZsD88rBYLdzW3hF5sWcmmm5TyzhO/nDVAkQs1awBArXsCV5KMNMFwRiJ
+ibxfoErVOydCTTTaq9EtD64EiKsj+ULGom0iLvxVO4GbzvxuxAbtfJDBqq8boyNmMaduDKmpAg8G
+eS97RX6mG+ZbHTDWSdGbribSHTY1+ltcWOKFarR4ZsBHA8pJMMvLURl3CA4PSWyfHbs6WZHxGead
+s0YK+x4MZIO4GgHObt8QIz4mP5YZZdTySBi0OWBboBGNMcPbnrvQKv/qG+6pGZGoG8VTTInDf5vU
+kau8NreZlqykj9Valh2frOq+8NWjNWQ3AwqvVe53b8OY3HsUX1UtE4ycplhotHOj08FqqQluylPi
+CvuJM0UURc+Sz60Yz3d4X3Px2Ee4vJsOm1qUf+nZcNvyuWFPyG7PuAxTRChttAtK9zDG/oNlF9+j
+1t4lOk8rm06oSSWOinbbULvx+P1MNjxooznbTn5jx2W7TR2Ug2bnO9sIGedSDeW6EeO+G4Lvrgfm
+qo/h1U45juE0mx68isq8WPFdbeGW5U2v4yek9Kg1bgrjGoN7rT0Yp8Bh95V0loKlEkHh3s42Zzvq
+kJH1Myslcrh2vJQb2zMGckmajTbAg7HEzdjh4/Xp89pm2yv4L82rNWj39ujddWHGjivYkkHF2Yxu
+EAcHY+3O/25NcSrNklTvadtHzKkL8tj8OQGcZ7bRnxPi6gepkR2CPEA1D2CnOYBCxILGrtTiD51A
+3zIB007Q/VAczT7fBmV6M4QFMihXkbAgRk4zJ9MORSJ2mhZt9Xq6C2wq9bpOdeiU3p46/pF4p2M4
+gbYx8pECo5vlaOFZG6O7tis2jZbdjQMbtN6p6WAmG88gimbEEfg+dPzY9iU1WmJ5Mh6Y4N6Z4Kta
+7qdU9Y2fQvPuwk+DkUcRNpuAlSVEJmsblzlCDSCUVEQO/0TamLYvQWT1Z/Yq25TW2eRjgfG1ebdq
+dnaI32nrUok11JNrazDWIaIX6LvM/qHiquSqd0zkdTtbBA5M/MIEnp6Ej1J4uLhCrnSfyGQnOrM4
+ua2Ee+r7DrTKECxbigZy/w4GVYkLeypGeTnVhkIyC/45zb6zhHTUVIr7MTVdlrLc3SzdaUccRna2
+ojflTV216fASBmKLfIu1NH5IMZpP8WRUC93jVuhtdFjVYrKdU4GNPwGUBGsp47jXj108Ho0xvVas
+Raqq8lbOiDEERsiuBQgnM29pReFzBTmAHdwA6d2bR1/OuiRLAJu48+OGqbaeV8bbcaABCgjqatrh
+bBnVs880pFLDqajY3JKDqqZszRm3Z4r4YBvmQ2mVSPb7FdSmNYCt57oTJ2nwQe8DQnmsx0jDrADI
+YJWzCa+DzFlEKJnYWVz46m1X1SeGl2uI8sxa0x7Qa3BGbLTGJn4zpcZawRCtEl7Vf7xHOkeftPnF
+j/r3/0Mt/0lyUx0FofpjJf/bjy7ld/6g6u9vdX4vf/87/+IL6QHmH9MUrN7V+1/8YP3HXPS7lviW
++++mTf/0l/zyO/+3v/hLuvrjWH7/x7++EyyWr6JG1dGnYkD//fvkdet/kby+SN9z6ua/89W/tFIO
+eTJIzSlX7D8N/X9tpZw/0FmZOgOhWSKOPurXXuqPNBnTsIHNoBKZlwh/3ksZcBwRgbCZYEj4jwnU
+aZb+qpfCxeriRnXnTQIfm7/spbSQqaKKkW0Ac7/JEh95I6MW3bS/mRURU8uxBOqePR9IjBcPm382
+bwArVoH0XIQn2eV37TDYqaDPwTpWn7o5P6g5kr8yrlk5Trdthro5Yd2IFH5tzPvHHjFYO28k3YGx
+mGxifyXnfSWf6J2B2zObN5mQ1jDnT6so6g8Zq84pi94bVp+s9NbOaMol7IbxkMpBboagaG5Cj7Oj
+g2luONsKFkGtZ5dh7M9pP7y0YXlLMjQ6Pyi8YfiOG+2N4EjyLmVMwIPlfyREKShlXUaPFLFMXEQ6
+adwD9slI/W/DHJC8hrsmCAkKDDal35AslUnOIDhjTVE993xkrQZhnlU5O0yGK9nCqgua13Hob9EW
+3URjx0ra/jLSAKSGTF9jVHtxpj2PWf5q4iFiz5hvnKQICeD0Ls3w3+SdR279yp2FV0SDqRimN2dd
+XWVNCEXmWGQxbKWX0Uto9L7644PR7mfYAw8bBgx48qS/dEVW/cI535E7kiz3YRteAbQQi53ps3/I
+f5ls8zL2RFPEwtn3MYirdqw+KoIfg2pUUDq8jSv6TSTFoQiavUqBYtWQcMknMW4F/SWiGvSy0tHX
+Afhznwzz1h71tREVpCLXaI2NISNhoXgZNQbgfZred2668SIJinJ6rLL6GcEt/GiAzLmn7XTIEIp5
+UzPHsY3FO/wkdDsl11XQkRldM78bhDibufpMjIfRlfRytb5Pe0ZWtYEV1wS57BSIfkbYVsvQqreO
+ZFFT5uWzjdgncqa7JFNwlCVwHawQBjVAM3bdibVBwIgr4ewsqufYdNsDSQFkrLikTZhpmJ/RFF7/
+cAga7EOmXn91zKnbEl9MiYpowJPNWmZsJpKWC0rCm+krsrnB1W2Q/HP5FHw3PsxzWYRXHpKtOcdC
+oFnRg/6Y9kQot/ZnNKT3SYFGsVMYw5TzxptGBa8T7JanDRmHHphQ299SFT4ZaFJxtJYXrBBMzaEG
+yFp/I9OeOMQKzo+Hx45aWI9vpcx3Opp/ckO20wDDXZXHrPYfpuiQJfaXxyCw83JqGrxy/EVYO71r
+LcBU9oCldEBDB3zuIEx3xZQ8dEiH8CjuR3P4HnJhratCPrR6b51YakE2fDFYakTgukNHI2eeGS9m
+ZAJpiPCRTX4oRfktJLYmxXCiNN8zvkiltISRi0HZL4++G+67njk9Sz2c3tGXRmjT6PW7SKPpG8YE
+gQuc1iyDnM54+S1QOMrqkYniRLiEbf1QH64aE2EZHPfNRE4osrJ5JnJsxniVjgOxMBKyefASoGJL
+xnHrR3x8QqcpAvOYkkTqkEgaelB+ZtwH36iYE0tnnazNz+whu1CRduj5jzx+uzb+wdTNDDqihvaq
+riO7FJu1mqNR/Rgu+kRQU9quUh3ElSRFlSVlTo5wdmephHlPZR4d4n00xYgJcBMSce9Lm0NZgzme
+dWTHFMmMFQGduCi6jTtkt4lEV5Uw+ZkjXjslgK5kN1BlUOli4jdsegpGzpTBRR6haRC2ohpACh3U
+HENeJI66J1ddIrGH+x95R45G2xEh0rfdtkCoGnWGQILX8aZHe6BMd0EP4xuRz1cg8oB5Vrz1EKpB
+LeDYdMJPgj1RQrBly1gRVuZOJcrcEwnMNL9Bhaajsd24hKP7XXTrdO8yTjVsbWs1+ONF6eE+hmxb
+u2WxonSiye5+s8Zctem4jf3sTNe1ZSBzjgv7IpBr8RxFm5wQJDsvT54kK4BZTjoUJ46KD/KFdvBu
+kYB9xyQ5sZsAx+slgMQbWqjEBvJDygeLuHqgkvHBeujNj9TYFweIxnSjPvRxvveLnuMA9603kD3V
+V4+BNtxNHSoiqt8EUHp6qhRHE3+wcuqxDA7WunAmY0Eqy+Mk3FfHVh+63r0oRT6DNzCwYNu+iBt5
+7DPn20Psn/sxh17xqES2tTFYLglb4JOdfJRidrdLSQ9kcQBSt+DIZ+0CNysguKhW4xLfQrwOnADg
+PT1TKlmIxHFysmlwJ7TCmYZDP1I7I8kgNPAByI6yfFzmWbKVqlq5qXliIbkvhHOpjep5iuLZECJ/
+QoZjauyOGjb/MEu/TNKNGnpolU/YbNEBgBRCGT5LhmpemN6o1yPbXL8y97GH0L1VRGpPnX0gPvNi
+V8B8LMaijE98J3qb/HhppTMi3yUbTbc3qWk+xrX9OMEcwNMtv7s6OvzrZeX/14JxFl/8c63x48dn
+2fyDQnH+qr8WivZfUIwwUceROMs6Zg73X2fu9l8sdCbMKPif55r6n0TGjmnonu9TSuJatP40dDf4
+Zv/LI/zXtCaePReCf8odNFwwTqZDHcvc3bfnQvL/DN0Dq82cwKuwosTdnW7hwyvT8c0pI45QxnVR
+qu0cWW/bnqotgtavCYS7CW6wLH92VA/YQd/4IsBfxXleQ5koWctaPGRtmq78bE8ueVywA/LSY2Yy
+okEVG9aUW+2Urhgnr/q+pKuSuBBCgUxZByNtHnjzwHr4l7hL9tCwWCP564orAakpfAmvXtv1nBpb
+FAeTNPNyDppVFevikV8h4Oox+99gbHDUoK4UFQVNoa/JPf8wrBrPQzNARC4ITXT8r9KVd5ZZrJ2w
+XiuyODyvWNuSAik1HyJb+84D1gUEaahmnvIo8B1yYNuJEnMqzpYY1qVmPA4B917s01XE27YFb5JR
+dnSoC5lYyFoupKiewm46FxO27D7Knju/5vzLsd2RrP01FQWsOplj3wqik9WjoGWGx4g4YRWf4x/i
+4rE8YlxxfsdUKKjswGSRETSW5zLmrsuaYlt4iPSsFA80Ljr0jb9Am7Z1460hp6xEyJYOaNvW89rb
+WKH6CNWqZEmYkWitegRDwqgI7PPPwJzeFfHxmm28VsWw04bhy80dRGsVt5hWMqOpCafVnCtFM1Dt
+cmeH4JYcMHciWwdVXy/c3mKE3L4ayFcXrd0YOGFYnEdh9GFF8rERzo8lp23YWPt2IHXWB8Xbutaw
+ttPSozOJDzRJmzlCYgjss+rHaWP1jbnUfP/aw4+SM0hqgCilZrRUY8OYgjVldzhKHb/clgP6DErF
+M2PF+z5UhKEzLdVnZJWinTdZC2k5WmqYVm74gYSU5wi0Hcx4MMVYPfQZgxUhTRYzGKuGkDU2zrOF
+QxTp4H6AoNWBfo+ZpuS8MeEktg44gBLilgd5K3WHZ4VIQjA8YhO8ranw2M/GjxJuVwO/q4bjJcxs
+ncD1AvF3JngI8pR68+AAUvuBAOtxI+ZdCG1E7FtqHsgzCw/gegU7DKf7JvfSaz9FVxu2mNGEasEQ
+/DX2A+LUxIecKWTg/JaTJBcqJafEbj/CsShW1Ywuqyrc/+FEpqNN0SaMB/crB8/RQXXMZvRZpCUx
+WmZ9A7//WMyEMVrIClqaxotTtQ3VDBy1Ap6agKtWNz5cNXHONH/tw10z2+gxVQR0G4KqNhH0i9Rz
+lG5pWWKdhN1WTkDcclcHmR9iecmuiGo2VQoMd8a+6S0AOGsCBReG4gtt1SFIn8H6fqaFd3ZT4h/t
+V46YpQ44piCjcKlFyUOouHyRxy1dCDtrXdf2RtP+Zt7M8aSMEJa5bybzTiBgJySgvRlNDUEtYVfS
+avduH9yFWEqtqduM3N1eC6i0Fgy12ytyNrCU9htu32OE4YgMqfoUkSTXGt4298K33qYjGPTk0IA7
+SvSJhHpmtMqolrVpHtIi3rslhK/KuFg5sVi+8zL0E5alluGp/2DCUFozBtr6RDqFAkWqWWpbS6BG
+aCtHX0pspV6afMQRJR94iivDX5MyvL92oVrrY7XOkbTpGXE0AU0JeLdDFlk3ZflEbooruRwrzpVV
+TWu2CDzEsZa+nGMAypFVAUD8NALvo5c73ak2BVo51n9JL8kO8V7GZlwhesC3Nb3nKI+asjr5GSJ9
+SemKMfLJz+MVmetIb8oPcvSWIiq3KOQX9QDLQfdOUDcQ34C7q60dnTfEmvLFLPm0kE4uA16yP/7G
+WLTSrCZ5KvrI0bGZuYAcgo/L6je2RRXcRg3CKA0ToDYzYJ0TuMzXpLA+/ZbdqQNeYiJ5Nk0JnU6P
+s1ADoQtRkyOPWDtT/AM4IVqI4bX4wsKxU/FwiTH8DRkfXVu/jSPcRd1J71RlHO0054AhDFPPi/Ng
+jgj7IWGM2qvqw4OnSOQy/B5wTvpkRHBeivI1Z76x0IKJ1M7iCPyZB3BMPywD261LzkGXW9+DWezQ
+OuzyhL4e0Nsd3rZl68OcxtgGm901mHgwWa0n9HS5Rs52xbPQsDR2u+ZOlvwjgTqAmVkZg/MQVs5d
+pcZTDPSyL8VrkJq/ZsycIEzPMrrq+c6NWJGxFhy64Lsrh1VQiUWUDUzaaP+jkCzGqb51/C7FAH7L
+qV7SXrtigVglpXbVo5aAK7CHQAUxAyNHc6cfNzMnGiOA/QkOi75IHotE7QXDSwwlp0iTe3ISH7zM
+44DFpuf2+7JSOxMbcRG5K5Ch8ZJgxv3gt4+Vr13yWu2A6e0T2hkc3BFtZ7ILlb3XXbTUCFbGDjaM
+613brNih2XmEDfxYldY+ciI+m3FrK2Jt+P+0QY0kYwtLQfTUhiifynzV2eTXe/MgPD70jf41By7F
+evAElPvecsDpJRHCr+En5QMGgXqvIVtrOrBFzUY0mA5iaH8Vf8cu4FV2zTUq+zUaOvq0ObiU5B1c
+1E1qL5PYOCMHvtQ2fZVNzu6Y0SI0y4ycJqqXq/SyzTDN6pnu6hnG3mihvIQJ0xNIahM+8lDbpJX+
+zdOK/NK21iz3oJRj2teRmHt1QO+PAd9gfOaz8vdMCgJZ3CmRnnMWXK2RbcuOkV3XUBqhit80fndu
+MI5ITQpIuUMB6XNciBxKXPODZ/XAiuyGTwaoLVkOsIcPVfMBG+nVssdD3rh7Wr1NW4HZDZSkVY3P
+LvetM6WHRgzPwnkInO6Agn7k6+Xuj4fVDh4Ll9O1zq5Dxks1uvZqquXBRJxqIEZ1OmMDiGNvJ9FT
+tBPo8Gj+cFOMsDCrTidLV18lSp76rgOqyyPFRgSve0QudXf0yQvLVLK3Cv81aCtyEEKyUCrG75NT
+vVpWuHJV+DH1w4rU7r1ABCAbeYc7ZNvZyVmm3lczR1gHSKlMLs2xdF4CSfxuQqM0kfkAxZ4RRb1r
+reAo2LpWffdmj8bF9DKaO/0IVenec5sbzpmlWbPrlC4Jb51PGgSWWug4Wy0RNzbD58HBCOvy9k29
+ulgV2YWesw7DEjYXwWC94ExOtCWF3u/kIX5Ck1gM6FGlv6MmRwYNsT7+9NSwU2L4HFI+IKO+Qs1Z
+WXmzYFoMOVKueraiRRpfBCayzspXQUREKTe2G0YH9lZY7PTPIBSKjXjPbLy76c1scpX9d1lQrGls
+a9sY91RabLnnln5gvRKruJrHSL39bU/mIWutLeSfdxMRJmOmHSymV08jMIDRho9gHOaPM6fsUNIi
+OUxTj3AztfajfhuKcY+75W0yu4ccJfRCFcaa1gbqbKX2sXI+qD2wV3R7TqvCLx00OYTOuc7WcrVl
+kTqXDIOs37Adn7xZxaFoJKarOf50TccekHczdIa3kJ97aAEy62W3dSdtXeaOYEptFgR1qrdBzs7q
+NSl3u6nhLeTtZC1nQF6CKYxkPAK7Ww/A3YygeMQczpwwvpque5dPEdSngaAfc1N5BK84THpcYSIN
+757ElOydCDPTkNfkYuZXWw8IP8n7jNbfXrpmaiK7y27QXLJln8JI1gCdYCOrv7rpV/n4YQYP+4hB
+Ia8k4gJXdw6J/GAZjTVQTTeaoh9TwjEOh/HkNYK/UxoAWo43ruWEYOXQqTcOSk+bJyMm1+c0Dm15
+YbMQLP59OvS5Of7nHfq1Kf/7P77in+S//rP/B436/MV/bdTdv5hs4FiW4O8F1zoL3f7aqGMGRp+D
+aI7kGc8F4/mnjY6LRVgHAUQQwB80or+p4+aumhMIP/C/nLJFTAhRA3/XqSOK499npWTYc8v+5069
+Q2iBbqvql16lkb0SHREKXVycZnkQrKXvEL/6kQJWF92uh+ScD8l2nLMs6s58CnCeGvf8gt8akYbp
+FNyScQ7mCm7Es690og/9OQMR9QE9nbvVyUYs3zTi0jOv2zqKq4lpPiTQoz5gR0j8Lc8hgye4Rik1
+DMGLg93cawhG4NqinyZ4htFciZYHjdUWf36Jz9HK5dZxT4QJhvF3S1eKAetk81MGhNFpErV7sEec
+s7IzZtLEVTrMyVp3p6KjcBRAv50cMPrbLpdgcfbR5NrVZ1sAtnP3Tl1vRftgxJ+miayVq6iHl8vA
+oMdcaNbLgKq9F0g4zJiCGFvFWSTWLQOdz/vqDj+x+zTaahm29aYzyhW8Ba/4TZLHztO3dpI9hh62
+gyjZY9hdUfOCGU1IuscnU+MejlOMNPkaRdjSau5rSEVjb6RrJy+Pgyv36LK+6ja4SLb8ObeT17yF
+LpiX1JKEjsb5JfBvGjYwy/lKY4uQ4vE0qObgxGTBw+WMWpTJwVG3wX4mKL0tSuFiQsxCyguTE38c
+NpUwrnU+zp4WbRuzAMKMivy3uLdaiBcdjL5oeu501L95SP9UPED9WTRT/2kQMOOYaLDi9muikcj0
+btfqt6zLCeKFm9J4xR3q+WPYO5dQRWJpJtXz4MCNIKuHg7y7TTajDkvZxzwKmB3I+9DUtm3nP0oy
+Hhq961deZB4GyEl9epHNr429kl+sTl3k+9anFaXbTviXcbR2g1KrJv4cprfIeMBa0AUYEXMW5c9R
+BcgcAMdIqrh9sGTwi3uAPzFAFbYVkqJhIoIdLtzSUyG7x3obYI8p3LOhVc+9HPZpkR0poEwCHVVi
+fDd59BI0yUcZoJ+sEQdCV3eC/snLsUT11dLJ7ddmkBDiPmNw24uwchdNTrirYnwgvXIne+SPuryV
+mksIGItPYVpnOyJcKVKNvmvNdKXacqP5DS7fKNrOTRp0S2OdWeGjhSS7KmPuIM1Zmw5S+VlHh6dj
+Z9g6KphCpygtIe+4b10Wb8tq2aQp0lLCvxMmvri2AZtE1cs8wRrVGR+7Xof3Ao5Uida/ZPlTYlgY
+dlXxUPsFYfD70e5ylkYMRfpDb6JminiZGeS9lZX2m8QDvWt+N2npydcJ4g1inUZ2grh0iAzMjeSl
+NcNPjk8/fQwhxmLarReIXy92EXwz6j9WGYRR/UYWx1IzWkKGWBzyvZCh29E5wNUEHYoIjl2fBRuf
++RCCW9/xVrFePlYja6egwsTy7ubvPEz4oM1tR6ZEnTV7Yi8+hAh/A5/toMNSaGpWID1XVqxvp0ei
+rfaJDI96M7ulNfSX9C4mbTHm332RgyIlW6q1sNsH8cYMrIUKvVNCDornkI2el1flP+niapPiHP46
+yQTKEENDvW+EtXA17UJ5dJma8oRX5+o07Qme+qmz/feyy1bkAQJeTo7EcazMTHCgBSsvjUkdr89p
+sHHo2CEzYHO2j/7EACrNzoQSiKg/dhoi5t589xuDh4VslwwZc10zZSbp2LWOgyED3r1PAmJOfsV2
+l1FkxECkVhlQsFMRPNY1QyT7kBOu4fbJQeEjCxkdZdpXZpPgUH4U5dWFkYD+5marBAEN8jW4zNO1
+FWeDT3D015z7BscNnkIb57Z0JbnSq2pmySiQPq1PzRKsG5iN+X2RUI3kzEPRVjnBHXJE6HFrV/+o
+/ActqHeu2bNfdC+K0g7U7YIMRyCpt5webKTBC/WC5sUH3valmS2FoLPpnRuCVxaoDMSYejgc9S4K
+gsS5TCi9XBQIvjhYPQWa9cXBk836yPZ9KC9sx4GekcCeuauQCPiSnR4IvPkPymK22LuTtwmScMs3
+j7XxMkE6A0Hlg42fdU8AOVPj6vrodNzyaKYtB1eEgwcOUOTLa9UWd6U+zy9s6y5t0TayUrPF2u6f
+w/AUgbpRT1Kkx47e3gdLB09z2eRgs4J8aSXNklA5DDnfIyir8maQYanZF5gvexedX0a9N1jTO+si
+w4r3JsZfP9pY1r3IJ4bD+G8ogSMSETzkdOB3fEaKjPm2OF1G/TrmXA4xWkA/QnHMp8u/No7pG0CM
+JXv9N51pRYIVsqAXf3FAVHVc4OScW96DcDaDOFbFuLXkRuWfXs3SDD8y6LylTKKd0dhLy00OJQg5
+WSFMRYPFDnGRVO2qz70LAgq9W7eKn9s+dO60L9CHC6l2orpPGbh4I8A/zuCx8/F+vDGGkd1H2zBy
+icU9utyjnG6kNSxQsS+1Kl4GoDsFy/8+SchON7d2F55sk7c+RXLCvlLjLMJe6NvlxuGwKtnJkwh9
+9XW160ka60h8xjvGDDxC4ptVeC8H3rnhUGXTs5dUq7ABC40m2/Xf8hLgxXiYsh8jvRK6XQGFw9U0
+mHym6BaS3N8KTtAhpmWQD6Y66ba59ttbGOIBvFj0CACdUIvdM5qiUdv1zD55T0ASIwuol6N7LTnv
+O29gwLnNQfHq2mMGmTZIP0RLO4B0wuvCZYKeNFL3SToPffJ90TNpjrexqlHUYuVCLFiy5/cqDurM
+YTmJhAFZaW+bcyzQvq1vEiaGqdeHVP/OXbT4GfC1TGFhyDkHgRcgqUg59CLeUlrvQDtYw62Np7Uz
+cVr96hZHyIzidp5LV0NC8anC764PNoY/HISZnhqN7W+DoAyTLfjGdUP5QEn7KDA5BTgZOpWviWRd
+OmAtChS+lfkgaM+GiROJD1Mjp+BsIGD1LDB1o/OKNAJ+ki9WNdQJxmVn1rE734LEK9u91/QbkT/Z
+9WdYAWROH9zxXtDeA51n7T+uxqRcyUKjOHRRSr7l4V1ktOuEA2wiPdbuWdqnK0+yyfdOQ8PMmUj3
+imgnNd+FAxMIV4LI46Q1ENTM7r1AkukWZKlAYBvO+AiuMkKXzPewiQ/zMrT+Mgf+szLaCPNInGAN
+3FbXsoUP46q02W5Z+1pbt36F+AbYszopSSmTPxaVtU0xaCvhvfiWv26Nd6oz4GySwSH44rA6FZ75
+FdTmd4eIvLe3BYGrxS2cXvT2l4VwwfMRGp9Wgt+tCLe68akiQgPbcucPFKcd+Fwsm97Fj85W1C/0
+5q0YqM8nBjwKTZIZFkBwymM4+DtMlhjj8iP+nWXYsILgAxp7BLf8DkFhnWRIoJfzLdIvlMGUma/C
+V8ueZbaRPWfVL5rsOTGD3ACYL8ZDCzMMWp7TsUJWbzD1b536GLFa1667k+hcClr0PrmT7hePO8S3
+G+Q7S+ERfAbKdkpz41yb3r7wmCpPZ/r1d+lB208MddZwGdtkxrcr0212YQN/P/gtegZbV1s8l0w5
+tPy3NL7j4tUmUJo/ildbzAj4wcY54dXaRWVFJUY0cIeSufsoRLGPlLXqE20z1EQvEfqRRIdB4yfi
+Qyj1GrpGtDWARw9FOyFZ4anW2GYGoICKSL+Hi4lsmfytIE2/YscG35DjqEiFjn/0GrNCcMPmHvPV
+QkvYQKpoHZUWI6KHvD6lXXZjcHvJYsG2h1HbV/QwXuySTt0NIH872Jw7Fvzy0RDOkUiPVR8jwcgf
+NGDFCXCQxLU3piSwZ07IDVD0fHOBnc2YsBxYIqPAqDiKnQ1ghNXn7F2/OIHY5hy3FECMSVxnUYvL
+GPbLOXCgD6t7C05JyQ/gEcHQC3WvT/0qoJHpdh2ZweUsX2daBFhm6F4RdVR0HVhn2P19TGi2GxoF
+j+zSNFw1BAy5xqPO5CEsNz6QFA3aXBYm6zz09jn0FH26i6p38iphVl5NdqMDHUHW8h4VqD1AraA7
+w7FNt2ejCdf2JhSWumlOhfh203xjAWhpqCr8sTp6dn3NYGTWxUOpnloYRe2jO7ZUnssGpKk1Pc/v
+nxW+z2JYG7Rmlp/H7ssHAIPKZIG+CBFHuQOuc4HwWEwnvwWXstaD8tzAfiQ5F6MLgPS3UFDAumsT
+bY301mRSMA1sdro1LmMywRIYSl1sIFCr2E2qF+F+xs2FrW2U3npzr/tQcZntc1zabM68u7wChgsi
+mipqXxFEZoUp3uVjLz1EzTo7v5cGkLfjUpag1MteopbGuwpOulbuXWA4QOOBAJlM6zkZDebbINfX
+g20sAy7z1rpNmgtbiZgy23+WYUM8anvUEcyjQN91xUY5/oKjKUrEe4euDz9s7bMEi6eKAdTAbX7t
+gHL1WFhx9NMcn4ugX2qMSJssfCXWYTNyusuUPRPakJ5OFNafX11ySN9F/lBIwbIApujw20crBSMo
+Z10JqHxisBeC7qUr94cWBU23ACna4uQarO6+0w6IsKpIrV0ePTO8jUCFIhZNUt70wlubTbhvR8Xw
+y3+hl1yUw4NpTWvSypcV9Rak4MYnmzfEKD7BqKTkbC2+AfCihqs/gSzM2MPHqOyHzZMO4wjz01rC
+PGoKCl2aarAZ6BfUholyX98n2g6IGFqabU9p7MmHqIHpAjqp9gFeDCxIy4wWAbaSrGJMwiOLFWUs
+E/RS1biLPEzrmGB7cVD182gyvPd2sfFky31PMHDIs+eo+KIM8MSedS6nEIQF4xZNf5AhhqPpgeXm
+pctQLdYWnu8aVwPKSYCcU3xFVP4YgoQqKeJ08dQMGwI4OFu1da0dvIGsDtINyEF1uGnh2vutYp7P
+A2b76IbW7D6vdZM9aR4nEwKMqNqMJpCBGGnki0pXJlSqqMbgL0dyIVHrXnv9gXBmMr288JLylNfN
+tjPSLSQBlV8qcwRIiU2BZUyPZQPsf3UxuBAwSnJLfWMjJn8RMqnBcx0/5jpLgiT5SmFlFVWEp3cd
+TljOHHOj1fnSC8Ing+CFGoBPy75ykVvqxycCwOWq9msFt5cj5a6UpHehBdPNvSVPPj9Q5Dgr0hm/
+EnBdRgJ3l6jaiDwaQ9+DkWD/JXKMOB8dWFTIYvxd2fVKO1jr7KjLmQBGJBPwkfigUlq71LoVBM4a
+bnHJmvTMMofsCOueqpmLTQfv28FVURa0977dDObP5JP6qB0CAJr4+JfWSFXNg2WwW28ono3ws/J/
+EEDchdkZ9scefPJah15mYOAsjK0R4VYngXBjkGNQuAC/9GKXut5jo2Fz5yRVOQFXJCSP1nBA07zT
+sGgJRfIgDhxkGBhlqh1MBmLc95ENCY5O3MmPRvs26gLKy3AaPCY1bUO9ZKHCLfwc+NZXHF0mx9+E
+OFmnsltn5bHBGmDE8zZzmH1cLHSJmCSS899oYIwG6p8PjB/AlCBu/0cEIYsv/NuwmAkxgEjdNhgA
+639zUjMsJurJ8jzBtJa58J+s1KZto/13bMMwONTg/vxtWOzqwiR2ykNiyoT5X+LT2zOf8u9nxRYU
+StdBCiHmsKo/z4oDcp+RAg6McU392a2R+4V+ee+YUHM63KfUquGqU1SljX7sK5y1qgHOaxrak2Ho
+Vyj6SzdIriKDK5Cpazx0HxWjTKjjFph2Mk9bpg7SrjLmZ2TBWy6bWMgyV81QuKjg7kK82+Mkq5f1
+ZD7BseT0pQUnq/Ikq2hrhl/YeujZTa6jnKXs6GBGCFcMRLaxacxY2ngzxdxIXaRPD3DHWE2y1ivY
+oETpxq3NLflC3cZAfCqBNS8tuNBeXe4lc2+/CfaEYP/UnjxXMUYp0LhHJ00U7mbvVw79yW4pNUGz
+0euneMQVNWaWMEuivx4n+yuInRuGi52NkbnRHeg743jwS0j2Rbz0CCjpKmA7YfUcjCQGjj5baey3
+iEs3dg1sXY7WSeFXY1Ek7lUxA2uUardOZT+4XvxRFMmVxBKcyIGBdwtgm2bcVeA4W8uBV+furIDQ
+KBvyOLgwP6eRC0Ztlygq4IkRSw7CP9bkzalGwPA1GGX/LBM6gJ5YSSQmFtB67uTSybnR890AwtkH
+5dwbtKGe+27H7bUXH2PkPrmDwUg+Wtst/2A3I6FZmPWG2jmgosEk71PIUBk/oDmhda1mqnRQ6B/x
+LBKL2B2M4SqmZW1Jwllg/sAWYr0Ct0GPEAVHSNlLp+qRq9iMfZnghECtCetjdxF82zPsum9W3ZD8
+6AoKthBUQSwxtJmPTRanRtkOMxtaAJtWMNqhhKcdc8cfCj34TX0/53l1joiwj+zBn/MpCXZ9oSEr
+CcB7RwaN0IjhVYu50KIBzUrtkXvTxxCGDUt/MRwu+Ansd1LLj2bmgJcsS9eqKh8cgwzAgBXfSuRo
+0uOx0U8jioltlHZXmD47vXO59ovqPpyLYx1VbiFKHU5l/TwQ7kgCROSsjIxuYYoBwRmErxmFN+yF
+TVzRNBJWaUL9bUO6lcklWEmUO95fnnO1DouQ0QYla1DgF2PxHtojC2b/jFoajlOyFXxUjKoYMTin
+PGQtUk0sL5FAw4OxKRr9bNoYdbpvQ+JlRAPwZYILltKIWe39KLqHWkBOChjx1PkljocTmbQ0CzUy
+47EjgignlNMCQ0MY5MyVJyguMAAR5eO98vWXera0BsQ/bp0eVFgCwstAureUQ0KwGj6AqdI/0xRk
+auyfAwJaWOQWd36Hmc/VqvGYSF6UpvOXmtZ+N8MAWwE0UYp6yCcjJ+Teb9DzrUjKXNu5vNmm+262
+7TFwYHeGhFpNJkn1of3iFvgQrZgTwcwN1BFa+F15xt0YVnc0oKQH+Mae/AdCJx0i1kqm4bqdYoC2
+D36Tn2wd2vSEt7BO5I40BgyBg/fRZ+I5TxkGiHxcaBPZQU29rkf7orFNbxz3OOgmeB9vYFtshMyu
+NdiCpVuf3Ao9AZL9X6vX2aPZaL4SVSvCY4qfxi8uoxlzjwu2xaQCfQF9uOti62rq4Y+rDd0yoVQK
+oTikQ7kZ4SAaAqy/q3srcLPZEo4aFP2pXnLa4kB1AFrjciV55L1yDmUu+6vbN9aiqr6wB9JPGUDX
+DRPnJtoBD9RZNKAeTAb5nWZjTYiWSf71cPQqc2OaJPyJ5N6RwTUr7fuS7JJIw6kVhAkNgxEg6Ago
+mTEB3YlgRJ5FcWiN7zqmgmUY2e9eO/zgTcbhwOTKiOxoLf8QVniEiHvjvQu2kReh3oHdeERZFiwM
+Kh+rit5rBdmjG5dllexi4WIQ57RHl5NzK2UZgVCwcL711ljhoQCRL3h2yCfvJ9Kx8snGvC/vJDJk
+U2C0aXmzi9DGJ2pV99CbMGUJ2FNI7IvJWxSmvLAuR/AWEsYS+XCafMiRuayLZS3oaEzxZdUFV1+i
+Nm05ftSldkq5D0vyoOmQg3nS0pwHWFecRAoZgp/t3ABi0ORWJ6DDp7GWdwgX5CKKgnhhN6xJY7QE
+Kogemv8h70xyZEeyJbuV2gADJJWkklPre3dzN28nhLfsW2W/k9pPLawOsxIZmfjxPyrHOQog8OKF
+NzTqVbkiRwbCvrn/WnMFbvvps6Y8EmZEukHtQ+NvTxkZ3dbirjjk9cHDx4gZ1I6xzrCdQ9ZfRIrO
+wNi1T/85Y5v7Pzrx7+uP4OMvFvzzf/X3mW124vNgeCYfIxbzHuPXn05826CzAfs78EdYNv9Y8Nv6
+HybQR1b77NxtTACMgH/ObK4EOujyOkQcBiD+7+BvmBr/Avuou0KargWuYTYi/OvQBpcHtpVJPZYW
+tzQbBBlqUfsTsKUhO7tUxrXlhMeFzR5HTD8CmbIkqgjSbKlx1JepgUID9zCnEqLblbMBTe7LjIM4
+NbaVEV7CBP9yd6OcfuH7vGfCD9WaSzUaD66gv6isttD9KfJZuUHxZtPUE4NaYQGH2ohYWfMGpxOz
+oi7CCM81Hpxp2lrylleK8QLqYxLfRjfbyNR/GqgxclMoeKFJf+AvWL97a/ipW2pzQ6uhIhNJE4TB
+IqvTCzmWAUcBJhi8VeA136aJtWz+22s15u+5bTo85QayJuyZHpNqDTCgrm+WX0E7hh4xPfUj7eEZ
+k5Qpt57KKMX7bFkmU/R+lQ4Xby24S42HCk50h/mqBJSVdmcDaa2gmZRyxbJMqaqL1jJqXwYHci8B
+OWHFm5xcWeLL9VSBYyWhKKMvU8/JBsUYfSTI12cVj0+a4d0avr5afwjENQR8kprQy70iOFqUAuds
+EGS9NmW3Bxr/7OcYUC2QnYpmTk9bRYW3k9Z0YwV7bHPxJVpnXVTOxSxa5JEeET6Pjw7EFjIi+6Hg
+igp0J47JXLTexvK6M+Whb0lUXrREfxr53Rl9sYpqNMTZtAgYgzNpE7gP2ACuXgT9Z7JuwjK/au6z
+Me9e2SOvCq+i9KQ8SySqGIWnNiiOK6gFVdxiofMG99F8/BUN1dc+D9l3omvILJck+7WxOPLvIq73
+AaBfYmnMkd4RD3COJWLCNbgJRLQRLJtUa2xlHd41lDn33W6k/pt2JkJpxVrlDvxymmTa/VRVq75W
+56Z2liWV6hlXdSeyj5YUYAyQVYbvoN6T3/c0Cqm0ae0axwGcTJ+dYtR3l3OT3T61NorQ/nPcoEzG
+9xoXhoGJqzr18U4ocer96t7B3k4HPMihTq0iCENu8RimzqEPG8qqHsLkTm9mD3v9i4J97eZDcbK0
+m0NluU5/hDC+8JRqmURESUk43plTs+FKg3H7GibynUcPmXfV1bQzAYvjwkPcKl/mDDxQ73nBv05O
+fBqch5RleAgjWOHKsAzxqDf2tQ7USUWfXpKy+m1B03PCZlF3mKR1rWSGStyeXRLVtXn16o/asM81
+YEjHlCdWSRS/1EdP4IwsHwNz6pc+pVtKe6ib8JqITYr8DwJvFShjYyTpBur2tJt8uM7hbzi+YwqB
+zVJdS343nYPOgEdkAGmVIeDO4YHyMtFeJlMqDavHGhde7hqHrEpXsVVee8x8vDSJCrEQzP3TPNr5
++J5RgaLppeh2U/GT+cUudrzvlDkpD4DKNtkyatKTKEGQTOMSjPy5z7it9eeOqbeGRETFl8goSPHW
+QQ0cO+THGJi7qCJWrup9yoZugFzoz8OTy+fXWuXTCwWdLa7B1n2uCLSTeETJghEiD9IFKZ6iI8YC
+c3K7VPaLTipvvA6MYvxvPaaLpdLWZfhWefXF9CqMlV/uOOIwJdbEHjDH0GfoR4ccQMkvr+fCQyv4
+1MGl1oz91EVnkeibvqUGS1fbjB03/FEz9JZjdj9i6tSq+Dybqm3wPWa443vhes6TNtFDYICuNAdu
+JHxPfbh1PUH+AjQIr2YjdNYK7G+avVt98hSpaEmnGuSLREWrsT1NBStB3k+eeQi75jEada7Unvcb
+lOys8CiXvb/Vqfuh5lmI4eRhHa1LuuLA1rjr3Lo50xuEmoWax5/q1hU2m9Lp1Lj1rUq/RC2O9C+u
+MNTT9rQcnJ3lLB0woAWYn8ltFhopVRujR0ddBWkTxFjHfbGovXMckJoun9d4W5a4DUBbGQnclnFD
+0oXEoVgbzm8CMcSRO0OOd739aIGBTGCuWWAhJVsXrmJEJshkwVDNNg4O1Sh/Bjr10fTEOu2xXpqJ
+hyOHkIrOehnRl6eKJiHczH+jU/b2m4npWLrl3uSG2oXcK2z/OQnBkqviUUWvEUHdmBcXfaSbVgsZ
+ydjaJQ5u2XKXEV1a2Li3tC+3fBqSdI8PhLUi1jF5s/iEDqO2dVjnKi5QSuwbfyL9sC+UuyNYs4pk
+sRZVBt3zx6uOtfeeQ/gQXc2Gl7vP6PLoZe8xGM4ETTMITVrRYD+B6ExrnSX3KuSUK6fPYlhr+aWx
+dhLcu1Nu6+K9w1EXzcsu19hm3KuLD0rk88Kd3bF7N43OGRjQuO130BmuvZlfOQId/hrrahqf9XRn
+TdqS02yhPCBsxLPzIN0XuFsnr3um4cbseU11J5nwXqqDhwojapnl7wD0N2T76Eg75Fm6iUim2Nxy
+iL/eTN9npSOweIXrKdd/hhbHtcZn2W2uyrzoXr8kxbvOQD8FjftQ1hXtdQBngQXP9qGGsLEFpWtV
+RNg695TpXcpeW0ziCoLqWGbXPhNbTfi0m5k74bRvIetPgPsEzrkKR271OqTajrvbw9AZBM2tV5cN
+cLtue+d3DGsa96hkswOsDfKN0uRdkdhXKbhJ+GzsDePbqn6aBG+++h6kBMy1yc0SfV/sXRki7oC8
+dd8irJK1f+eiiLfTETVt4ZvlwcIPWPxYc6ttfOqnbmk21Sr1Z5vedmjv9ab4xnnOkrRgO0hoShZb
+ty4WRfXQOzB+FZZHAWEfuMm2CCa6qPTj2DpnwudbSmuXfPs7HUMDXK3zRI8bNVYfdjNuVFWfR3wL
+iaw+JxrdRnqIYdmVsfM+ae5VG9UyiMtdZ+AhpN2teWus6FgMB5mDUgK3Heh3Q8loxW1O0ONSBs5J
+1fRFCgFIlxLnJNiNuO7FfKPNP4cZ2Jezzjb77pTV56Cbdk4gj1nCi6c5wcIHxEGVRTKtm7miPLHZ
+DXQYMlHYCt6Y2MVTNb5p0Q6tJ2ef7scEMXreeHlgr3TPX5QstUTEKrA7B65zqIjg5PKCF4i6S+MI
+FnXVl2qFdyZyP8vs0rF6SmjNNVSxdmPFVgiW+QhLVbLwzwukj13O36Y7/tmlw6BML37gHMzuacCI
+abIMaSmQMNtho2PD0/zvXieMxlJb2MbBm9datU9sznmj9W5LjcOFo7Qn16fUsWwfGlrH2XumTrMx
+K36W1EWR1rmrgvpaKusQpuGNxZfPenS0+pesrlG1Kl4ZIn7IHONsKPEyDT+Vwm1n9PuWOyPyzchT
+6Q/ig5JclM1n3A9tYr2OHZOV8tmr5gzzH02nLqaiSXSXxm96eyOz3WPHlZa6z4yLFX1woNokTT1v
+OzXJrxf7J6OlNCd+rCuHfHy/EqwMrQILA3opPY94KblnIIp6Jhm7ED6b9eIYV4dq4cQBykfRd23L
+RdGG63lhXnFiaOwDM/ekFTMPJl/b1FY0+rlRgsAR78YqwBpRL1u1Lnh39t7ZJIeFTSR2xz23YGmO
+V1MctIYQC+WOLSNL/piaT41eXixsuS6ZITKSPOa86oqDYlGd4HTqmi/SCHdB0m6mdjfwtrKGjtZ5
+llRpsqkZQxDfhmE4A17eJNx4ZDEQTEZUDHJuQ0lyi5iqRx3bA4KapBYuvx8Sv2V5nq5qnwFnTghR
+km5jmZB408q0WOGhu3gdcZIZlk2kFVpLt3ZSfEyv42S/9fq06yWhCM9agBBorGDHWfbjxD0Fdhga
+8evGcbzRzKfOPPHc68jss2uVnD6P20kbwXMPpGGFeR90DJLCpUF22MvqKawYwLy1pXVfoiC0ygEb
+1iaNmPmwSq3sHFdzNoI/090hpHBvu9cwBDU4kaIWi3dyGDgGa2ObZOHObdcyO8Dqeqy4g5X1gwqe
+HMQaqd3q4lCRo+VT4CUQdlpCDYn92Lcem2prX5INhoeHV2jYm+0FxY/IrMtJpG/M4Z4gHvZrjD6h
+sY0BTUI/Q4h+FFYP+B0gPDq5haAWVHdOeicgu9bdowrfNYpy6AcNg+ZUd/dG/xjKs+lf3AbWpTo2
+LMV8GwvWtyQj5LFwBs3DNc0FhYn5ZINRnVH1gkc2rf1TG5mgKymITNyZUD+tY/yZPSYk0z+y7sVf
+qT9wkJOBa158tKKpGOn5tAnm2Zw8EbzVxMY/KFq62EW9kUm47FNrXbd4gSrMRu464S3lNTrGnJIM
+fNViMk2vw9Q9WBRRunnCeTnyaucJBJ6zC03nUgbQ91qTlCFEcs33X40MSERavifD+DBQgEmO6tvs
+mm+93ObmtEmbHaj6Z1p0kI7NrXCGrV/QTCkOrdldwD8yuhACHAKXDlDtbAUTgW1TOzeMloZhYlFS
+uzCITg4QjFWeCIxD17z2o1U/SAwflnGtQ/2uq4DYVxS0cAITexmiCjtK94kH73l0vSeoz2/5CPWk
+2zb42Oo4eK80+Yb9fQez8FThVreDZ0Lp5H2Ko8E8mSf1fvSe6KvVeXMj5S5VqDP/k6OTA5kwRXJI
+m3KKWnijmwgEdPyO3J+cO0q+bpU8J5DbjSLB475POvFCy/Gdp4/3ruLWP3l3YdfCAtVWVJC6/l0l
+r4DUDibH5tR++agjYnjruGtM/MI73r66uSiOssZ+0et8WHv++mSfSQp5Y50PRol7YALvzvYdbq9F
+MWsyTUcKhshTtWuRFXuNVoeBDHdtTteWgFSnum0HdxetmVyoEa+V/gZisF9R63wsx3Lb0uoSNuM5
+aDJSYd6hz199W2w6Wgiod2WJQBUqPhqqQptv7k9wDsu7PkMMsJBsJJ6AhqaEYWT2IHvRYXNfhxQz
+FP1rJAMcSI22Mln8QEvxCW2Rye5epCDhGifjc0JD/HIK0QLg8+BUiPiwyU00YxUjvqo+JCLVvFJT
+s1MZbtniUBKPn1CWJwcbmfxkQ5ws9ECt4iC/hIWBSuShWgArf+d5+8hM5zMw0gOPHZs3QGhH2oWx
+K2pvIRexoKDf1mGZxLtr4i0Nob7hOhGvPPNV4/3hpY+Wegka2F10Ravpu6tKvoUkwwnhbHCVbzT1
+4dpbesqoT6Q4FdMrzy9YdeluVAkNVMkKwTdABy9uUvkPWT5QHjZgQ4lWBYYdi4boMsGoo1YpvKFM
+JTtbnHuFR5njJ2T1UWATMyAIpRlXTyoESKAsPZuhHN0lC9iBRNO31ibrQt67jLySbjx3LZNDYc0/
+TzaNNSgZ7zFMwlUNeC8wwmcvMF8Cg6fYAtOK7I4vrYkpiOZyEr163Ii0dOvwvxvafT6+tfQTbSSc
+pwBBGmf0bXL5jZF5jvr41dOrNdXGLAGx99Ls1IKDqYj6Z8Gyh4iv055Ei3Y1bAoT/mcaH5kIGdqT
+g2ar+xiWbgi6mSHOYMIL262vwuUYyauB+5eIH8PKsQzu6nbjAK4ZPeQJgAvV4J7Cvl+BL+NWX6C0
+nIbhonACufT1zakM17w6dc/cb4A+fc9Zd5bayclfPbO/DxrGELKvPqSqPLmk5ZGiLea88B6iOEfH
+LRi4tmHEYGGaOFi9TR233PhaDqug/za5SEXPlovj3lzrBl+4tqbPg4RyewlrdjmjZaxYUW1boW58
+nGAJ4R3zT6HPxwYbB6ISv2j1TPxhlxfi0cqZf5y1M9hoQEBrQ/qPKanLk8ehe3Arl+njwJ5wW3B5
+tLXqHcI1dzftFFjvudu+jhpjSwS7WaNOPJk1RnSTvWNio6c7VWMS8uXZzraOeW81EO+zTz46Szc7
+xDyXKTZik55hxcEiWnSbbGV7NLPKLaUHjwRDG8f8jLMDpXTc/alkDFipvlp442p4Gka81Ti2wh6H
+43hM3HOFAaqKzCvlD8fSzfFUw/0PiqNNKkTZYITw7Mkp+4ilc0wAikhvouhsWvX81DKdmLsBC8/+
+KmwXS+R7wTtTT75sdWlaczeZ6YZQx9adaS4tSkXxkkcJZRWwvEcNj+mN3XCSn7XoOWFDDAx8aZP0
+qOD4Zemvxw6jQ3oEcO2K8aEAJQXbwUXlYJHb6vc2La4O8xGsMXs6SD5MFlfFOIMRIPpFXzyHUtu7
+WOEdY1zr6ll4yHlsvf/GduPm6j4KpspAPaRYsfxy4r7eH+bmB0JnG4W/RQ1Azo1LzhhMkwbh+RXn
+Vk8KKsturWdsHScivKEwHvOjco31EFD2bhxS39yxjgJ2AjRk2MepewUFYrXEqPHntbAr7BnEGS2N
+Chct498wHqsyRjZf9tqpZhNVhHeOuNECu5WZtguw+WMiXpjipmnYFvEssb3pW2rVWmoODAMbPpY4
+QXMMqnOsGNGixaCY7TyuJ6/gmHY+CByPPdNAGsshneXBQ7AZgnr0bOeBhhcQ9jii9a07nAPVbwmF
+Ulbzpo9vlQzvvJToAQc4jcngBUqt4GOIqjdkW5s/5zGm9dgDAsWKrb86UXWHAL3oyKjRr7YwEC4s
+Vqo2r8HHQXULGvIWrt6fmmTcRLyKve8G0gU8tC1vIiNV6zz/wtFwKYyKsibWiMYzNOqFDxhxkea4
+rKDVxMW9UNXBx1XRuBgH3YvEVGbkAI/zU4/knSNKcYf77UAq5BVtEEL44MxWYm4zpFXZ5hT3iO87
+j3a8LwCe80lO9QYZC7e73Ln5sQWMQH4X1QpiD/VV9QJP8p4/Bj15n1Skqq2n9G/g+ZUhAa1buIwD
+b527zLLxTG/ZyiE/dtaDR7IvHGnpmJK7ODhOZA9AhtyA/cGhvqeydEkqdAFca9/QgkM6SmuR/a80
+mayFj/DDZtrpHNDMfbrrm/3AYUVU9zxrhkVzDKz+LEi1VfCMpoZ20f+chd2cYP3vfVZ3Sf1//nfw
+v+4j0ICUpQL5bP4KuTr/JX/f34k/bCk8WtuklJZju6zi/r6/E3+YtLbRa2GQ4bMc98/9HchVdna6
+qwt3ZrKywPvn/R3Vb/C3bIkhy9GNf6uu1xH/FbkqHGGaHuF102JfyJf3zyStqPc9BhlKBelVWeAq
+JitYkZ3Z+5E65ol88eGOSKUvbNkc+0HsbJ+CwLOByjRr057OYYuGb49iKbxs1/oEk9yqOY95/FZO
+4sEInlCreQtjJgnlqsBiyksgrqBPYeHGXRKyaODekxj5qmaedAgrBojaHGbzqOmVq5Kbbd2jXmLE
+L9rnem62HD/asuD8lLT0cp+0eoemIqRs0o4s4Icge6FM8idMpquQ733fHkHGLbGV4DTkY4BSDKr4
+0jske2gwGEFdzRNoJqeroa3K5qp18T1FO6KE6P6UIA/H2tvIm3eqDyaRpmw41xwKU3XQzHrpse2r
+07ckUyA3Hm11oAlqmhzqLs2d4Q7rVtKImETWVqW/PkdUMNCdFK9C3GpeDmtPXM1AfDtu9m0lZJxk
+kC+6Fu01wTASWlTQZYRc2qI8qOZLI+mVDfURMOeit8udj4tzSHCTJ0SujhRjbdjkLWAiPHbtS6aX
++4Ec30ROq40BuLKwYHOqkwUxBm48inxXrbYC+r5N2CZxmfL8irqA5C2VFy7HqFHXaRi3Bq/rTHuy
+3R431hzLQ+FzQO6jlUU+cla1zE0HAqO9p8qHAMqqbqw9Re3LokIAgOQ7CWzoWjMSpdmkGO3a7pSS
+DnVn7hV/XFb9JuvzB8Cvd6ZR36aB84OY4HkS+n2qNHMBa/stNyaw05gd9PesSc9JPi6MQbuGTcZl
+4dCpxyDC8OaQbvB2xAnoQMHx58ff7NQXtfvQRpjcUDuyTttKs3mNdOYmXyq5sK34QugaRRZFZd8I
+ueor4xoZV7/8tcJiY3HOT9ETZrfAfE9gJQn7PFnxqZAGRn1CL21uLaMOzbp6TYJ2w8E2BMmzCE8y
+c7ZmV+h8/R0MOmwwHjM6XCuo/P61Cn48bzpYamPFX5ncRRajOHSy8SlxSapfuWNyTH0YFHg0rMc6
+ytvYKoGer9aDiVoVyV3IuttAhQCcMQRHRddnEV0Ei/PARwzgMpsh3/o9kQQ6kMMe85LxEfFZj8qn
+3KGTMPsIJgivxTsEtLWnN3wB9iHkL7YFS9e6WjpMorC+1+14P5COoMAGnhc7HW9YYrB7CPxpZxJe
+xH30q2tA8MpNUIqfYIzfNd1+pS13q+XDvZbgV9fvRmPdV286KhuGtVOZDeR0bRrq/fTRQ3aL21cA
+ky8Oqg9dg8sxGFjdsUuorf2IiCLG6Agd7kNpPNJhdnQdqJuR/VCC6+SqjmdlaYt3Sfpf9QfMD0e9
+6n5S/0XLHpkM191I+5QKoAIPuyjCc5+d6w7H9mRdemnuCykoJkHZYPIjIJXa19bxDp2Z8OZL69XQ
+lQfau2FSv/Hj4DQeN5kTXcBOXblbHPuO6wXZcnTFFBuWinb8dJ7zurwA2cDGCSypPuhtddTnBMPw
+ZTnFr8WWm6v7BAtApsey9ndY5XGHBQ8ANhaFXXGz9xZBN55N+CiZvVGT9VN5BMv6TR6XR77OMzfU
+bT+xVbHqVUgC2NHdo9U0mx7hOtCrfRSywzWVoVNUR6BXguKPl/DXQzTpNGTZ+N4aCy9hFKy3CY+n
+n54wgvNbTwmtOctYr7Ylm5qGwJKKUXvTbauf9HkDZ9/1pCJ1YtzYLKcAKZTKgtIPvzxYgCkNMRDs
+RchnDuYog+cZw0BMFmHSTiTRBeRiXSCP9z+uc9XzH9v8cCHNZd5sF6WBjioz9TDqNaQ4bkfQXOaN
+GNIM626SuiB3BEUwQ3xuBn1lo8H5qbFzknHNtRlHmHXL+nY7yCe7hTRUI32R8nPVfY9V5W+J4NQX
+X3VZP7rY04jIcQ0XMW9GrFCntm6RnU2y7r+tV+5phoJQXSIKnWc3lat/h4lYWLR2pvmTlXibAtif
+dDKW6u12Mk+DZr0z3y+zJnlGGImBz/rebFr5dlgOD90rPlT6PKTmftDItAiSV1LIi6a3wemCwcrL
+gD6zfWOwfQr1n6bj18P8fNf3lERm4MdrytyFkqCWtaXbNw99eteL4lha32bKXblddxQ99Ox+FOyh
+oI02OhpnHVXrmOTJrFrq487ItUU+864HCnzriJygumOORHjoxLvlsG1OzVviga9N38v0J7Vc2N3L
+WqOfT335I7USrXPUQeHGGoyJYJ3Gr6FJKXgj1opAU3mb8Tcli0zNfzPQXQwCy4tC/ERE2IawWwEa
+wr67rtq3ge3gFGm/EQ0uvrk0yPC2+SyTuGffIwfCPnXQYdty5Y6IZmQduxbzDV/trgrOom9XvCs9
+vpsk6W5tQyKZ1U1CfsPEh11od67zXsaSVEyp8wjkQGywOmS/XaDuQ739paZ4H8rwWPg9EwV5oQLT
+DPz20cdc8OO1+Hq8+M7kUuBWh4jYhWe0BKX4w516D7AQKJLpGavhemAWOIL1uQNGvbZaZ9WDTvjP
+magFPv//fqL+fwXI73kRZ381Sc//8d8naecPqtxIL1j8Y44iUIrw90na/sO2MJ9hMBc2g/a/kG7w
+KHqGKxzbkq7NtPwPI5z7B6Y1JmxgNy7GNU/+O0Y428ah96/hBZMAhadzPTdMw3BmYu4/D9JOkdad
+NR8ek45DOEX5bubrl2dd7SpmMUyfSRQeI+8yVeyt4/xQ88i5/o4h4RSTFGK1+YN8wDVQXiYqxVFa
+XEIFVJXOr3LEytw/tlgvJQA4CmlvCYutzaDMx2Z+NsM5Wq/Zy8EiW+4a+FasL7P2rpSBWYtO617S
+IGWHJE4+6DKXbcMmrhlA6U4Ejv04GJzhesVYpQ+5d9DKCtrjUPyOZfoOYgYKpjermAFDW0fb71p4
+7ZcjSQcm8TVJIhSOGnSN0htvH5hSe54sStYhRUc7O4l0bEb6r15aV8Di1MVqSX9TlU37sMNmCG57
+aZDhqKe5gbRg7TuGdLMPlC9ojfs81Wiwjk1d5cSYeIT5Kw6FSxdLq9L7QmnBITLK9xguT+yBqKyL
+8dYI9WpDzrDIkAWOfpaa94wigFmsyOHAIkUnVr6PRPJot6JaRf5UnpXCyeINNlhSgnM2xIFtTgg5
+GU2uLX7FAOdvipa90WCGxJlYZTa5nZCRYPeF+Y4L/MAWSoRvNdWuFlof69v0MRcdX0YdJsvMjX+N
+iTk6wTzNOIf/uHKtZyqpnE0z5gdLZyXmNM5b7rPz6mpv2TQwDPG07+l82gg1LNmv0OUppnsVqZ3w
+QhZ3TfGFj//K6XAO8nyb2uVLmaCN0UdGMiPE25EnJdiCaWOV+hMlLicWPytdT96F2bPBnaXt3iyw
+TWvjrxb3yEFZuq4M6C4hsp2Br05iFNchl7d+9cEK7wvBZNcY2ZdLpXahsTYY2vaJRlLSXcObiX9x
+sFk6VgQo0h4pMMFEyGy3nVo/3xgozQaosDJpTzI3HNz++qPvm6jSxGyaPqPph8eoV/5l4GKZNt1r
+1IJB6ofHIuTyZwyf1qw+WrN0HxurFsc4VbEPAwc1F7K9b/UP7hSfw1GHLqyqW5MQ+CE5raH940dI
+STN7EDC2AQ5FwzVBa5jFWjKCBmNwAjhHGS+InMKO16xRNzwYO9Gq9zwKNg6qsavhT6NTwmvFqnVG
+qoHsbxagNCmH8dXVw0fV28jaOBAmEVHu42Umn14n23pF906N6g1wzadm0XVO0OK+FsxbURBt6AL4
+od4Rzm+YIcfm92y96EQYqShQsxMsG/aVYlDURbErGutGzzrREI2s/dwWUprVbmT1aOj11Vf5FjIC
+GfWGL8rlMCytGMqE/2P48pI08UMMZBhP5XsT17uBYGbl2s9Sh1/saNmTV4YHwCf4uypYBVEF2EjH
+n5T5ciXHWi2Jnncr0xl/YZvse4dHspUOD7Sz48ncZlny4BfTvgzlTauKiU9vUO/kUJ7tBM/RBApa
++varskhzSBeYbVDXF1IRFwP0a6mKF72CWY9Ge6hFccka/yg7f5Mx+alIv1rldAkl9F23HlmuO1zl
+G+z2iTbJjccTvNJZuA+YPED8vMoaobMg1rTsfYNGeK4ZXbdNXTi1tcsXam4SiVXEw9aScanyK+1k
+AllepBo9UgGv2N5imdOme7ZMXDJLZ9FJ4N1z8VTDr23R6vmnP5Q/IupuXhkcJcApLc7x95D3L6zT
+MPevF0V1Lbzqs4Xi5KqOO2DhvGV83yqWG7QBlotQDlPln5v5glsVG94oHRJCsa0wrZWevipSXMyV
+6y8GFNXOcBmAtWQ7RNOGMX4V1POlsEt+SwZkKMKQsdULTO33UYz3YyAAjxWPLBSPMmUWi92eJvnE
+OJRj3lzi0mOdNxmH2uJKrJXDDq+Os7BjDxJJNnwV0CA0lsgQTrZpUR99zV0FulduLZ+siKvQOtAW
+kV8DaxMPxJ1kd2oCxFlDTgtohK9+SXUMJzULPtOG5iQpzQo1gA3AofCITNq0curYWql0aNbROMbr
+odVgOyTBV8KSkMXWtWAHI7k1sjdaFx53G/pBYY7eJcpdjtUVLGa7qkPxGXcNJ0SqCqCXgElKUEx1
+oB/mLji3QySaUXKYzmXiwJPrZ2ZWYS6MySTEZaDYPjrOuPMTijqmmQXCN6q1IcYGwCKG+dXU+lmv
+jSO4Rj5iDQ5c95ksBjyptj3iWLgrYYzWnnP0Rbkcc20p0mCfmVj7wBK5hgWOzd/rg3andVO3HuLo
+JbBhXWXB45jswnrflv5DaRfUhZ9jPKptwc6A5pylKJ88Ge5G88HoGPulnvEetNjydJkBlQFoQmUS
+1ZcsFBvQwpbdo1sPIejYfGxoS2F9T8GPqV/ailvXiI7Pd/LmWqDxvdo5DQ0PA4xkPNfqyIaT94lL
+HyrQrkxzdgUl7jsZsvOa7Nw6lH7PozGKfNMKLrm9loLIxVjOpGbTnpeIQ81LlxcdXunmUPkI7l6e
+q01rFNcKm5QAcxAamC9R8VutI/oevzosrIFTbweYbU7P/8en+mSClA8za7BeswIyMNRfs/bxt/4O
+MRpO31oX6NS3Fnsv/24KXKSB4fM/Z8x2/j/GbB67rG2K7i8iJ/N//qdkTWuc1A06Hkyiwv+Ys02y
+KLpwdN1BLyZNilj8Z+Gyw/ytS8cWru6yc/vHoD2HUWDnmLqNxE241/63FGvbmgfpf+1+MB0c6fYs
+gOvI1oz0/zxo9zHBqbEHCFchsmwq6Tz4tmRV4+N7M4P2S5kvLQl9xjXwFmP9PHZNezQprWMNBMfZ
+PWq8UqGUfXcpMiCJzQHnspnARRpSvVoa1NqiS/FhUGXxyVsOr2RN5YKIDyQZSor+AK0bxs2Ys5Se
+6QEgtIsnR4fZaoz3BQ4zTX9uY1jadL7S60yvSqNVOJFhug0SsA76GSams+m5y9kURTKZLnTYfOTd
+LTz8gy3uoJvvvAKjWoYRzEYVYeTFwBle6sbfG3G3pTWFu7TzSVybusL5fVEdWjHQ0jIeqkzjw5XJ
+F1na+xEHZYkJpQOG4PTpg2cQHshJ1i9bDam9MU4RTCXRlOdW4Vv00N0VC4BpoDFRAexIs4EzV4P0
+16xkXb/9rTMGi6h0u20roTiOfNwHMdLIUsvLULsXgQIPVgwrjr0tDVy/VlbdKRMBMq0AbkluKrRR
+830Rhl0E6AdFUW/dfPhNzfco1k55Qmwhqg9lXz62mf6Zy299gAzfKByx1Ur0zp1Tj6j1yTGBOheo
+Ya0n8VeZ5qdJx940hymN4mJWH3ZnfhXs2LuMHifc3Tq7z6nHwexb/5e881iOH7m39Kso7vpCkUAi
+YRazKe9YLBaL5s8Nghbee+zntWY1817zodXRkkbSnbhrrWQYza4qojJ/5pzvrEzBCWNFZ3P8MEZ9
+p3tgM5MkWmYV15Bny7cmRJOPWJuruX/TQIVbbnFw2+oq4fh1qr/6Wr2EnX4tEzIUMo2s0eGxgiDG
+BAJtrl6Cd5CBdpEutFy9hP5vvpljiOJJO2mUJLiG3VUJGJv8ssdaYpUkcWByqGR6c+lZEb5zKhEB
+NLUiOHtSs2bU2XLCn2z+u5BxsRJdg4K1mrWBzqMok68hzW/dxAJfRd4tp6JhC3hM/TZbMDh9yiLQ
+9hOFnERYy0N0qrCS+LhoFmFJggU7gaUc/OmYj1ioDV+8BVVI0toI/dvbTONXpsulnfO4l+aaHfRS
+k4lcTCiG5ww0Df6OazRn6biHiKV2qius3Pz+lr+58twHILRMoh3Q7qP+2cmPLAkurRm/SBMKSCb2
+Ha3oMPSIouFnTLMuoHa829jbCNRD0Dh68lk69qsySL6ARgxp/+wyoK5sYukia2/pMWslM92iRd10
+kIZdknXRjaAy30n5ZKJ78vs6W6T5Rx0UB0zYtz7DQuCP164KLgwN8U4bV5m/9L5azlSntDd3fU/6
+V8rGPIDGBzg8CzFS4nZdDZK1rWnuhgnjk86+2inpL9/D7i1jV16lcUKsoLr2A4wYY9KWdc3ODIeM
+qigApxeRps8VfMRRvvdY40ITVVyHv6j/5bvGrsrbV/TFZydGAlrzLEnIXRowD3WvNc981/YWz2Nn
+R6cue8iIXwodpGMs880iJ3im+h4RjaWkizhJd9BZt0kDpombIk5V1xAbNmTw/XxwDdI45FO+cOsf
+KJ3IR9Rr0E5XpSGVrNmIdAy4cMyEhvlYSPQq7XCqAcWyo78jmfY6Wf7eDkLwAiag9KBET52otSiG
+Q5v650pGA7oMMAFVRyersgINASSGwaqv0nQeKpK7umRI7lzFBl/qldiEWrargKQsddBGW2WiaWBm
+cvF67GcoJ/ZBSpKOEbRvXclJ5hhkxrcxvnSne+xsfmMJ1jzQrFuIDU54eLl70zwlBHZAQKebtgaU
+yAjWCKdRUBaDJDmmlnNVNWoxrYSb5sWdyX7OI0BOoVWBUfMeJ/E3AJyfbKpfIUjpGyYLUKwQV22b
+MLP2k8T1PUD7QmOdDqgJyU5sEvXIBGslDX3iC6ZnhLxaa+yT6bEPoWkx1yDwvbUkC6XA3Eq3TqDI
+2DcvSQ6TwANOSN1WqZaPMhlOfk6XXcdMi6EPHDp/eJ7txGU8bHpRlgeRQK/t74I5idpreUysOZ06
+dmJEUURx2PizHRthsCDKWi/7EA0TKgSrAIqT4X8p2bnasbyMhcSdXQOcJG2YW34XB0rtvEKmjE2I
+A5Odv+kUCrR25EElM+amz/nbIvqWPUamoAS3T0I3pJ896V5PiTveOWpWSE3En8GMiUqbBYdknl2q
+bkcQwGuh28yG7XxnEAneAlQmVYEcyb7VWE9OjwY+nGbqnnhOt4VElZWAyloOwsEz3b/0c/S4bRIz
+nc0R5eQqXOgj6ak8tpIhNWZXhDsxx5rPmwrmwjtvTj4XVnAKuKU5CfYZ0egpEekQq54A0gEJJDzd
+JUS9pfsDQ7oeXOeh1poHuw69HT7nd3vOX3fF+CYD7GWkidyNLppgRVi7aREJGe+GUh66HNjtlEaf
+lBjvY9RvuqF5ocha1XP8O/3dvVW7T8OcbGZyKcaEgI6sblpy12pS40U/HKp2gkHackAkGB5JNPju
+SJrP58j5SeZr14ofEAVz/UFinQZnVfZ9uvz3KYTngNr/37yZQNT3//O/kvDz+5+UwvMv+KMU1h1T
+ulS8jlBMmJn6/j5zNv6sLIPClrKXEDLXpnz+vRaeA3NNe7ZWCzRZNv7rP2phfmQ4yjCFjkNHug64
+9t8iikkPvvylxiV4+C+5w7//7z+xYrrkwJzr//EfaBL/sRZGU0KVbipeonKouv+2FvZqMSo9E+my
+D0Kue2l/GHGK3iAoHxpLHjIJVjQrok0qtaeuSKOdTujZyjSLLxNQgq352d7PkM5XzrHN0UGO5Rua
+VdZMAy1ujfK6NrUnP5juckw0IbAzmafnalbCj2GLBzkPmfzpFgw+T1wC8I5Zna2dXN5wpEUo1D4Y
+Dr+IFkESYTSveZn7DP1Qw0EWFwPhDMJYGajuvBQ1vogPbg83wcvqepkOqK8wOCGXLu6YFEAFIegv
+sOA8eDF7JDlh3Wwhn4uG0EKCEHZVRYUR+PmttlnTiHYP3uAuKx9mnIQoqn5tdVgTNLoXVM7mlTxg
+xtrllGy7Eg1bTSxOoOoIC0pzZ0fkG+kaUxR3kRjPMemsTHG3WgzPLNedX1CxLyQVr5FM7otilNsx
+aPdw/pCeBECrG1SXedt9DUl9z5r9qx7kiWnLgbFzsx8byckgr+gWnlUQvsNW2hiT3MfhpzCijz5L
+FIJiAO5mcQPygbkF+22loG817DfhHseG2hRhsHa6Gs9z5x0zTz0OMQxEYGfo6NOvNkVPIZz7sIrD
+je7bDMwMdSQYedkTzEKUM+PcznvCyrzXLPKPHMAy3C0LxMerKILeyYQq1Zr7sYmbuZrdxOmwdcZ6
+xtaQP+dbWOOmbBPmUBK76Tvru8coT19izvzCMlo+K2dcBohn56Woa9k/3tRBnO4cEPZYaq0RAUSR
+5VfOsgeXEs0Ze7RCyHq6ZFdS+EZes6+8CLDyjF0xdl3cbEZgIQtNzdaOinQszmHN3OrIb3BRHTo8
++JXAVoveErrz/RRJQMRmtVbwyIKgfcH9bKJaNjZ1rramwTpwToEepUmpWLd7qC1E4un91R7xBxDk
+u0RMexyTdhO402cL2yCwtOd0DFftzEG3ausXi8wHmXUnfyI0uMCQRYzXh1HE+C0CiLDTKYRhaHTQ
+YWsKlEQcFJ8Fi5mfwJmAp/BGx+aohzjtWfIz09zqTH0wJu5j2/quc/9il/ajHUD2b6NtCaS/Gu3X
+qaWWy7mq4vCnsM1lpZfPAc43u9SiBShvj1E0tQ5/H4PEtd6d3iyJv3W0tqEqn2nPN5X4Cat0WfnF
+0c5dhNjyxeNtJVryzgatX+dTdGsGD2wfu/ZFhDrYcPxq27j8KZTBQDcT8m7ME3/Z6vA5JVXEwNYp
+SJsnraLKQ+eFDz9e1zosb68Knr3IfsCeC8nPXPu58eLAL00L5EtmBKNeKfULzcLCqUIY99EOq7m/
+GEnCDkc6r0gP1zw57wk+Ldv1t0Vfv7pMYx2aYSJ55tzSirytEDtG6r7kFRfnPCM1DZiX3UASU3Cn
+O2yF47DdwKqpMPvm2xqHSNDS1OP0vAxg94IhRCNTpvYGXguBWSBM4BVJA4GVHx/qPmAMOvLcWxl1
+mOm/VSXdCP+Kkow9xPF7R2uY9jp4SfNoXFHZkDXwYab5exF738kwbtzgw4zHU1dNG87Ls+nY73L0
+D0HVIDsdkXCvIgMGzojIYmAp0jcaZL3plsh6XTEPnCLinPUgXbH/QJohEakP9SiWQ6owR4/jGb4O
+u4D21Z6N1uNcJ04vsTLvGEmsvRCrcRT53toMG0qUlsV6eEksbAmGebFrjGZugsE8zUs+SUzFvcGi
+L+pBjQfWo1Xf7IoMin6mhTEl95FKYRmr3+s+/AnVd24h4UkS8eq0Jv6CNkatIHEVt5HHVH34Tpq2
+3A1MJBFj15swDa4W/9ljUoZs85AowoeDBAV/Ox1yjyAcUPgxrGW6F56jgb6PSlsmt6CqH0Ir43XM
+r/ao3MeSkWWSEJNA4aRVz3GPHKpn9vmsLnoK5sYy70XYbGbQkofp5z0gSil8MuUT+RTgihhzbsfO
+gImx7rRd2hz4GIyO4Fm09eG0l/GOPXS9jJAQ876c4ep26SZWoG1KZN3je6F9MSGNCoRwqhWHJPEf
+JnTkgtdXxsH6Cc+8fh8prptRjK9phvfvoSQM7BaWARkmEe77WKG9N2tChUbYo3bUGWur9/BRJJTd
+jY5JQtID865gEiV1/JMEXfaofL97tcPmRwYOqjx150Xo3gmMOiWma53T2XFZZ/goJ7z62MVYVTol
+IW5Oz9Yi5SNXqVayR2PC0EfdFzKomxECb/RRotPdA2uA3wX82FgSC0FPZGf4gOPhyW/cZu+OzUsR
+EOZpTt4BsFuF3NvY/PtUnRZyhH9ddS4ByP6LanP+B/+oNueoHKpMCkRHoVj4o9pERexYFtG6TF2l
+ssy/ShwYr9pcUNQJCiSzwQ9+J/3wA9NC4uAwySV0i6Hpf6fWBB/0j7Wm69goZYUtUDLPL/tva82A
+ojInMJv5GbFztSJ2096JxsNyiuHCWuY4PVXzahusgIzoqeYwGIB4jlhvlXvKowcDaHMo3X3sgN5h
+/rbo5uAyuzuWpXetSjiGUYA5haWuOfWnOOrx4KniRG130NV7HbWb3ux2tlZ+KOi/6KmJ9zmngiQz
+cLo2JYejEeFoPZWzTCg4ZrmApG7vu5LKyDhBYNTr8skvUUUGYG2oELFtVvd24R4cQ1ubQ413YA0L
+CF83mRgsLiIb0/SwYpu8z7DoOpH7gJ5gbcLYkrLauaG+0vXzzP2Fzrv2+xQGN7hcKKYWRIOGMyoD
+h1UFR9vWD3j6lzBE9qU4NKm+MqfxLu6hQqTdqkO/AfLWVKwg7TdJpqNJRS8Z7AmiJCeX6TTbHly1
+CJYBkmkB14BgTmsD1YF1wTe9exmqg9Ow9Ie95ilx5ku8CGPjGoMdEtHjODy20SuyBhIRHAgXNWB7
+lKPaSlmnQMTLsJRr/uDbQD86nXPUZb11He1Fs5h36yHNN7T2i2kTqIQyvE2aOx/bXm4D5J+yW5Ow
+LWyi/IgsY5+hNVMRYlOJtLtiLLcvupey6d8qAA+xVwEYhiRDkei2QIAlE4Yf1n19yMXMYpwrOR8F
+n67OTLc+lBGVF/NTUi0PhnaJBVNx/7VyBv7fT7SizARIZ5CwJzijYlZTKfyShF00g9xuQFHLiDYN
+H7Qcpizh4k3/iZXQGXGRBkAljJWOnqWJnUOlvyIHpPw6z1JNdk6+9hr4b9SzeGX79L2PvtkyCFgc
+DEgXg3cv+Y0+bvjuK1Jflvtt+9uwwD0fruvgq/HMRemeTGKOkbqm0fvYE3KHw7OVYld7gCfS+m4s
+BwIjTqEiGMntPl3iZ1oS3GvrHk/vxqwutbRfdGwl6Ycad105EZGEFFffdVjk9eJs2w1RMOhRTHAq
++RlqNhQaho6M60dQ6VM47BFPs8qYlXOLMaDeQd8c/+WgR4b5bqWY6PR1NQAICqVaWzl7WvPg8OU0
+57jNnd5eW1VvGzI2aHsK2BhddQzhl/JdeJBjsMxYJBNNyx6bhFRxStxVbN5M57s28FrJ85TI99Le
+uQgK3ejdlfeu9LY1espAOO9uQAkfcAY0KB7beNxmevLLH7SDAuyQhhWKdkz4dbXyO2ge+VfjGjjS
+HNauJE8MgIU9pmz5quXoMchHHEIT9/4IxsS9QhRjwWBtqt7HuM9tG+9dbEQmPimbxOtOewLJ0Ql0
+KeR1ZGmw1HuicXIWiiahGGJhlMe28jf5UD0Wegg152aSLOA2XLRIC8k+1AkXizrMSYqKnbCkjqAG
+0cSb1pN0Oz8WtmbXGLYG03XD6u5E67wol8hw1QH0xsvZERIb5PRbQTfuQzc9eXn93PME0Uu75tpg
+7rTkJdYRPuVxum8juTVZt7oEYFryZQ4kobo8akysXeVvILmeq0I7mMEFIfVa8tllmrcZCBbvNYbN
+dBNyWKCeA4KGFhim7ugNq2zOSPJZ66aPafQW6hoO8K3tvsTYWWtI/33t0iWjlp45W5W5nUBb+s8t
+VU9ftDuZEIYABBAPRt2oXUXyo+rONfO5em4uXO8uFcMx1YKNO3Z7HoJiMpepjWyaGbAIdrJU361v
+rpjF4slKcFlUQAwYJ2DEw2wAQQtZDFRNwVM8i6ATPdmN6HhLd9qkQbEL3JvWFCutmDY4Le+NBqyC
+9aCV9yqQq2ByAJy0L1PobscCCk3veQQiQiGta3pT+BEtwosWQGesvVnuUw6EPSCKSEv1rcE3cirR
+WjTUh8eidNaR/tQJAaHoK5vElsmDptNUvY/efZpKYn9WKQTzJl0TDOp440WD9piZBd5k8+yw2u90
+XpPz1EzOc8i4OcbYPCPFrXRvZh8hzBTWgeuu9nZVUi47MrSqYy95kqAVITYDdpMIDhPCA+pzhyo5
+QElrmmevw409FODdxgN0mEVpl5t4tLe41Ibkp/POer9UPAhOgfyY9BAyZYxpNeGTM3Cv9AYZCqvc
+mrapPAnvCj/BJD+ePUSS/DTUfXGcvuc4DOxJvzfs9lJMKGV84lr8ebVHHkxZsOvH4lwOQPjpaCqS
+Izo2sAPzHwsrH76Fdlpnd1F/mznyI8siy9nZEYu8aDEHtI4eJA9a1Zbqoa13fhH/tljsNYuMXE61
+1O8RbDBTj0D8m9YvtyVEoU+cO5e8PaAhJaeG2fAYgySrK3TUZPaNVv5skbbSptBYSjwKxamgLwjp
+zpBUa2pWUP0IuM0+6u9Sn7dKVP/khdTpvaEYdMjvrL339GnTavDOrXdXgbFIJkzLOGfd9Oy3h9BC
+VNa1jwRy0na1j4lVE/Cb7mUYXqzY2OhG8yTNh85gMl6t7eI7tmclvVph70GHj8EXqGhJvlJQbEP8
+2ShEd4bbvSOgp4ByuFsDpjV5ZW1G3NNAzHiaoyUKmKVRxVvkk8Diz0mbgK0YlvEEC3f6ahK04egm
+qpHMowEoLi0rb948tDkfglFfhbnz8mYhiDj1yq3wziNDtjx+CuLkPFr+rmI/G/rBoxv229gxFh64
+39YErdOx6ruMxkfROgsrkIe+OjasNzI7P8WdxR8GD3A4sH9AENo+iJqZK8nDIEF3scaQ+3Eo/K0R
+ZTwM2UYGr5UQcMoueZyxTb5nTbEyUYfnIKyyNILkOBR74R0t91Gk/XEsWiYTwJsrVrdAWvUy2qNL
+x7VUi2MxiDVopcwdTyx44JwfvWFm56zSpDpnrFQqDNOCOBg5IJZhEYPT0vFb8BgC0kjIKpWLLZsZ
+qL33PjHd94zx0CFgMwOb+CZzG7E7sim3ujrdjSwqRws8QLU25+1nxszGoRZ5IE5+0r/IZtTwO+TA
+wgWQ+87a1Vqyk9DjgmZVwxovhtehvJTtk02IUGVqBzIglTNsu8ZdQNRBKrNoEBxxzOERaeuOuI3j
+aFRI8rhavM+oP4eUTkndPiRzL9/ctf23PYq1UhYDORfZjvrEA7HqBceMYPry3eYsCN2j8jjNqkUT
+NUuzUifHPgj53OAxw9ERN8caFoXlYBoAI1gOKzb0K8n6OfEPVv8ECe9OWPZXUaXo0mZu/zMaRKIW
+5dpNfKgPZJJc7PBlBEIYaRcXC2CuvqjgCv6NaffQ+AChY5N7eLo1xSVwtLONUURoX6my1mOsrSO7
+X/nq5NJLkIScRTB/R76mFWzLkg11BpGX3Tu/uqxPsEDsBe+GJiIs98w+ejI27EguIr9cB+0AA66h
+Jk7v/JQ+NyQdRCDdjbhySZ0hPCTJrEWA38nBSqXza1vrs+dxTcJXTTyh9FgkDo5w313hJ9nmBkft
+e4vjW84eAewTfI/GCpmIh6nM3AkSP9KdQVmD7tnFVqsRzeEOzJDH95oQtI4RVlsdDWcXOSQ9ONGm
+cQ/jPDNtwFzFEHmyH1GhC/DWEuVHy9A15x7webz68BgiadAibZtaIGui7lN2nFC58+EgKSdtRTLL
+NAZKlq3ocRjTpCT6QWv79b9RH47D9V/34Yf3Dzye359/yt6//nQe6//9P//J/sfiV/zekeMsEBgH
+XMk8TEcUheLp9/2P+rMuBOYCZUlIItbsRvirFopCUZr4fW0HhZL8Oy2UhTmAxRAuAdRL/Oj/2ff8
+V/sfR809999qoXSmBaZjutIyWLPov/388/0aZj7rIv0/afVooB1UJHY6nqrCOMXGzmbSJZItHSbQ
+vV06kPmMG92Mb5a+zTzr3nBf4xn1EsDncZ8aC/PibB2rngFWo8p9buCVkoSw8MGPMiMOhL4aHHyi
+xDM5tbUhJ2oxdXI9BifMw4xFkaSmq04H5jPWT+DHVwUYy/gL0PYiadUZ1ujajO99vaG8Hp7mxB4Z
+rw1i3ySp2GD7oQUeumhE7vBZ9/bB7xKw4Y+JhpMN2WbwnOv7kR4718dtys+M6lkfqW28dI3O4wJP
+cpe42BgEwunxEJY/8zzCCH9VFGYFVixAvHIW5qYP7pTgQfzQ/Qx+y0cuk4c4W8NNJWWVro7AUAvd
+g8q2RkIH3o97mbyrhHV+/ajZH3n6VRBZ02hL0443fj3RGCtITOl2kv0SOfshxgTlcFAZojg5urYY
+i5qCjx7ZJDURs6KhYgiEMUqgc0mOQNa6q1Q220A+1aTC1f52QJfETmQ+XhoQroTsPBRu8GQ1+ga4
+/qYqjQ3mQ0DBsADJpIutxwrHmXM1VYu4pGFZfE4m/dOn+CnJIAhZZnSzXAZ0DikxdgAJo+jWgZ3d
+GelrbSBBq1F8edXaNzQ6T2j0cAS0tMEC3mw9pGeVz+6qwAJP1YZ1BGHs0p30j1SAxNO9QwSoA9V6
+9Iw8fO1Cp+/85KBEtPNsfIPi4o0og7tZf5vsfN85Jp2Lze1YwphjS29fKY7WQ/8qo2LZQ4RPaezq
+YJ/QBICPAGD1BSnVn6DG+gc9vGYyulnQ43JmmYbZ3Pe+u6/IrKWl3KdEWgzxWynEEg9xDUeypdNX
+lnN2HErc9BfKDvBq3aPU2MrUMZZKZ1uVkmXPd4+JorqLFUMd+6ayO1JwMKUFq1BwJ5l5uYu0uzrU
+KbabYxI9Oc1l0ON7/lRVj4Gy3cYBcmLBEqZ+DRp5iItvxPz7QvsWRIUiv7C5pcYdFe+5H407Vdn3
+faYd7PFgDQ680Ewd7GhEvNduDFpV4eq7SpId6mgbgQ2bXFvQkrOaENhOEreHVEd3D8pLcJ37YDPN
+ozXxPIOec+sOaKx8kUlCCKu9L5tQX+o0m0b+I/GM5iwvmQpM2boeqk1l3aeMIwgJ1seSwZ046urE
+o04/ttLd/jHX6q9p4BKq7QNP+HZwhgoWR06pl66Q51y1rFkPpJFNJil7plw2ts5iAdmkN7hX2+v2
+jospOJ9ei8xx10qbzpWfbVgNslqYpYRbkbvnxIhAUwCwQOMIu/tHc7HnuOA0HGskDAiLghWTRkWq
+aEA9n+EZtRWevIhAa18dHDROCe6ZgmMpH++tweZOLs4S8ptPFV4FfG/WYRwdvIx1NkB9A5jpoO9J
+ZWuAEUi6Uh/PZGrs27B4duz6klWEyjbmMqCZwtXt4EXW+4E4tvqS9z7u+oqIygeh9Puc4VuPDRjU
+1roiak43n3/T2CXrNGg+/MngLzauJLS2cqLr5ViyiStseeBx3RvnwRugDxwbCgofZDGuoHXeIz5K
+X7zMvTM5qWog0DWg39hBt3XLMmvjlxsDnpJ2jQCC4h7BZpm1a49K5beQtnpdF3ea/yP6F06gQCft
+DrVqcxHe4xDyLRyepu4z1K8GxlIEcz3FtbbunRedYG5C/drkbm6rbAI3ffTyhBTv7FmKxQaklkf8
+L6H9FsorVVcCoSZR8H3cO1oWUbmrilpbKFoqlug5D5z/g0ArGi5hChlU7Lk6mAHtLOMEOEmz002d
+elsW8dQxh8QHO9Fm2zL65bLhsJd02xpLLNb9CLa6X8VoL7uWopWRT+59DtSLEaHgOjiGob8Cb7Zn
+bGiqvzYEsMTpnJxZ4eSGV1Y07T5nBIJ0h1j2+RFuKP0MiLUIaEsKMYOZIFSfxWg/mIBabNtAaa4/
+uhxvOco5qNUohmzeQTJj4FwSaVl3TcUhjsJvgPXUlmZ/V0DmgaZ4kQHGH9sQry7nQQGyNhrvTS66
++TDSM9q9PFuFXf3sBuJDafouIjbbTjOxHorkAv2l0RgjY7fxZrSb+6o4CYs5vT4i6oso6M4M78Dn
+vLa4taqhonvk8ILEbRIwy0INK3V43xfxNZwtAHDGMUQuZxuM1sGqD19jhFdV+Shwlidl8BByxuk8
+iAmYI52QrsI7WwHAnR+yQpZAJ3YDhPjsOvrmveFs9HxaF8N+YBwHaG5Tc66N4IOS/qqxnPYztbfI
+5SSjnEz39DTVm0bRRLDDH7n1sxtxEIAJCuexhg5sDeY2oYPXyM5uThndrYgOIQdiQoRNCBDMIX6w
+NPAR+t3VYNSTjQfIv54ePCgb6lgMJjw+qbHjcICqC+UqQFJR3VsoptS0i2bSmmB1aMOWpFPjvmVh
+GR+Z+uFjAeBBKw/gs13K/lYhfqQG6sHocWPWJNZozVZDdBV2R6sotqK+8xqy/HTSP/Epl90Zmxjq
+FDQZwYsxodOACwr7H+EC3eeUij3riqPU9z4gjcDr7lhGbFgg3LwW9q9GEqcrt1lUlps8/LRJs/Wp
+kOLswRZ0KoiCw6Xw3YOdclpUjx4kCCt5TUS+das3v913AmwCDaYzUqRh35TuogUUXaZfYcnbD9IL
+q26d/j+OEa+Y/Il3Ofkp4EE7uA8DS4BoQA1CU++V4hg23TZuxpOhfzoR38PpKQjTNcF/SoHo8jaV
+CVUF/1+P76Vg5ls5a5+QxyyncmvqTcYlhFY+BEZiLDp1s7sYqMdwKHXItGh0yKsMcc3bZCqXyj16
+DZZATwOZAF00f/FYP48xOuSIaVRXXov+VroX3/OWk/5dWvdKO1QNsQ4j4xeyBJmDaWu3tu58+VKr
+tdJJOq83OFWOjLSX0HwTgebG3jjOzQH4b0fonXuHnUSMpn7GN8bzWFHc3LbbTswk41ADAky/2ehr
+Z/pKI1B5NRbAozMLcnG4hvfk/CxGClXHmmCbjBuD9s1Wrx66BcEK3DLB4bMyX5Qhuwtu2JGx0wQ6
+fACP8zT4NNJHN3mfA7e0N2xD351sX2duBTiXRTj+5Db0riqLl17CpAcQDpLGlZu/jm0KcYxOb3ic
+vFsMtsCecP/GZ00HmVlT+rw5rtoMLoeaeZqZ/DO0ngl5zB2Vd2hFFS5Ij+qBdy3i+GkqBfgCjjjN
+oJ0Nui0pwceOCkBrzaeOjRdf/Bo7YT+a5JJ/WNQYGUTr0Kpeg8ImnhUoQ9+ps+Sii02whGZJ6sGw
++vfpNp3/0nRzAVn0Ub2n/6THnP/B33tM88/EOCrTNegydUfMhpbfe0z5Z1sSq+cSlQdCyrRYyf5V
+Yzhn9fGPOAbybXSIf+x90RgqoUv6VmE40hAscv87Pea8Wv67HtPQ8ciz8XUl62T3H/w2Pu+x8ZMU
+v82gM+tuxJYRzS5GtDHEP3lMyilajY5wNTFfZzZjkNn23MCEJ+qao7Zw1a0ZOWkNYd0AjCItNvdK
+dXDK5q2Cf2RKvk7Yt01s9KSRsUcsrr3wDkVOvkqnB/eAMjkFh2+VwuAZOFdQX9cp2Whdc9GrGuAI
+uQhDWyzdyn9s3AwbJaRKDyv2NBns4lhhZeVFtf5nkKY7aUIMRY/fGBwtCJdv2sSyKRtQHOlsJFg6
+95fGqVfAcsFJcZZbrf6upNgLIswZE4Oy1b0cWwtamB4PfUwC0gDPFJXNsRV8td0J3J1OShTtCJY/
+HJuvfRQyLzKSrYK05A8xLwYzQl6D0Rpg5pjF1jLKQ9MbJ7NwXvBk9yB7YLxZYD3WSejs86JiVAfJ
+p0Rvb5r+3pN9wd2EkV03qIZTtS5q8g7MkvBn62bzl2g1Lg7uvzpA0NHOZtEkfkqlu0nK+kOl4ugn
+EzHGwxXYws6psIC4RMcryFDhpOYdMFc6nOaecwt3Tp8PK49j0dUIcC4i0FfGhZzeXeeITxCjlzwD
+vBN2+yyZXpUctonBnE8ntnucPiadPXKcVe7WEMbRGZsnHaB/MJIcEBcEjgAVeUurYuPYjbGZUmjc
+HdQpP38aTQ/hv7HEGLIBpLbpycjrpLMvc7DiMnzwFLYnvd5Hmv9hgvVK6uLRQv3tzkHhSMbOCtJv
+GbQPOXwyPQu3IwkZoTIOiapuWhHf2T1Vgaq1m7TsX+WMEBl/NZi7itASqwlVILO4pWZOuyACRR7j
+AO7D5NeUvFeW9dJZ1qfW6/DOFR5gmJUB2S4tg3nxPtnxbB/4FY/lGtrMUvfjI/kB+44lgY+P3/HA
+6fCCc2JxiwnSVhCslDZACSxeMTpC0f0x+U1j1z+mLk3txPIN3HVRO29Vb51q4dz4C+5ipT37z1N2
+N+TqY7D99wbi6Cwe0HC4+3IiSi9agy1Yhrr+PFUOuQn+KSkIrnOqhxq5Qz0gIuum9Cl2+cTcXFt5
+Fn78llW/IOgawzAmipS3P5LuSz8BUJFRs0yzDucNVPKqkW+dSu4j7O96CXqUbEvNjF+HKLlvM+/S
+UukaaXIbDQ9/VbZLbNCxuf6jCcpwr7gGnbn3gZg5rY0Npgz2eE33rlHUEFnYYOK5gqVDq8bveckK
+1B92vwd8u7YxwJiG84gJa9+QVmZq4kxw6L5vkDRFhOoKgko0U2H6mL69sWJ0PTZ7DYGZMMAcZGQL
+x5G9inrtEqT1i92V1C+zGL+8YklbRrOuP4EY2VKVdzz5SRp8419eJmG0EnRFeWIz8kq//dKqFwrw
+pwskIMzrw2RpSA/cg6cB+JaJuAWleeQVb+COHfzGIwyeWCZkfYmkdPa6S8oaCsL5OSBvu6rcTW0z
+VDHb9LPAkJ17yb1veKdYZ6AsLVSUSNTszKBo17GLMKrCzPJ/yTuPJNmVa8tO5U8AzyAdQDd0RIZM
+faMDuykuHForH0P9AZTVGP4QqkXWvGqBpL16pPGXGdvskpb58oaAHz9777XLKDhmXrqvsRXEQn+t
+Ymc9cL+uHYNCxYYXlvAIPPX51VYHsxPPAdPp1iXV54bNXk8r3jrr2IAwIIvr3cfBQOFDKXenhZkH
+j9MQ/qx74wMOBCDk5qYqh8QBM7zFr1YC6gaxLa7L0bq3cdW6bXhs3WnfKChbue8iTIl9qGPzcbqH
+JII3bMYPNoUuFnUqURBTLiDjl9iwDgF6qxici54jhNMo0gXTykcdC7rp0DodvIpg2Yng4DaCsmhV
+QEgHA9U0XE174x4HAjkak4Tnk8dKgmpZgAXMY/OeNd0yyNP3oayQLpx0o6NSpaLct+i3Wo5KgpPa
+rmE1TzoCJCT/onORs1lLUYgKcJ35jBQZaD9E07XXtKSRxvEt6r3HlCyNR7yJ1ezJyrR7GOHZKELj
+raoUDG1Uv2iwdrqsGMF8/y9/fUrN5dDaGwvm3IRllAYq5xyhGJB82g9WjL+113/NVEGXHWRvxodG
+5rusGO4pT0At0LmpDtSZkf0Y4vTkVP5H7sSHQRIIsqsf3OYv5EqOZGLxYbXyM7A0PqJ99uB3alM1
+FMno9JQZhQeIBq9+05wyTrslRe9f0CNvhcWIh2OTdx7xDY9+4vM8ilx1z4r4oNs2raozVVvrQ8UG
+EPKew6KVyM2DI8SuhiXbGOCzuu61jfxbNJIpD/KHoaKyc/S+ojynusj23motuFLwexiERnFFkG3N
+YPgGAIu51eNr3mZnW+DngIwYOiyrZaGdp8lA7YnE1R6rT2oNEGbbAzkLSP3zBi579vncjLFaAneE
+zN0GfAz1Y2TxHFWNdhwBoabcXdop+FBJSindPNLE8cqlK7itOpzMQXofG8A8QfVZetojTdYnDQBy
+w5GfMnrovti1afPuDcZnKyivqi17q0n10ns+Kio2WluHkjfoEmNITWFqTTyCh072a9QKrC4mOIfY
+RL6pdDJLPMO33FKaWwv7rnBLYCkhzp3K1+9NgzFcJtpT48Y/AdYdk1DdnE5OOGw6zp2wfJNT/wZJ
+Yu0UEakol65avSiurd3e7Jg9nuNz45L1C2mFF21ScK1HzPpJADJDpR3GCvbjkx/S1TYC+BCfoV5/
+NCaVdkkSO5s2nqXa1nyOhdwPdrfVSgzQEDFYqtvJutXAvSmfipvI5FhTGS1o2JrPjoGPjRriwAou
+fKgx7zrZ3HtQLyEwIcjirTKs6ldPfKnIKKxNvWWuN7ixMZt4lnGZd5VBhlWJPi7g03BPKpCIWkoX
+KVFCq9Yon2xqsU2x0Zmj/pS46oPm0EWaveRGQKLC3isM1HSn84XN7o1MruYoHouoPmES47WXASu1
+LtgqI/r0Pd7RZsj2omjR9rr65Pt1SnE07D6jpZBznM4T1zKbNmaq675CgTPAIsQ7hXOUPND0tWrK
+Kw60ddOzPx9HKr5M1qlT6vmL3GGR3WK84Yb3kJjeOTBS7AwTaPROrQgX0kdgIjLTtNXzADFOQe+e
+eLDzRYFCRubowfTHkzTTuzPZ+CBJaWLQG16iQhL3Cty73Uj2MigdkSreo7x+qCgR3iqOUDb52crm
+87nMsmjLlETeHbqDrMqbmSTnGkB43XGEjBiiepb8ooBBoWsxUL+2PfIx+czb7rmtaCCA288HmWrb
+Kuh2tpuxfZ1oaxnjtemWkDctkhMO2/MQwlTw0FBrtcD9SWgzFodymv1ZqJs8bhpr47vTsuqccCkN
+Vj5kfpEhvlpvuM71qtbMXgZ0XfOmmuV000PaXhyNnma/pIspJBDC6lo/hQOiZ9bIc9XYz6FhsEMH
+RJnXFhz74KGfpl8s6vHAxCQL6IqD19xA5QjGHEcR74UWp2+hhcUUL2jJfkQNclf44imOmhvrD0WA
+uVvhklqxhf5haOb3iLvAmMeA0nVeDBlvijbbG7b21isCtKq66CXoHD6fvpH97Kdhl9CjaEThs1Rk
+giDwGYK5oploDsPAxT//SUQWrhg8Z4l9KGKXiiVI5q2xHW3zVhsTCwLvtdEyokL90xj22CjNde/3
+j5PAFF/RL82hMtWs4thE6Y31GBKNaYBSJkxvhDWBz5GEqZC+c2/ijenWgnbEZcbyRCXGC3nSXSqD
+b83yv/tIrSYiBljL8IY0ZoYTsgBCXu7+fS73grjdfy8l/xVct/rz//rzf/7pv/J/csWff/z3K75w
+TI+sqqubpos+8PsV3/5N52rv0HHu+Cbp9T/IyMZv5Adn1MU/lZFh3REx5HovDCgP/8oV35kF6b+7
+4gO78k1hCaziJtsGY4ZE/0FGbofJCgB+NEs7HEDVw/tyLaw/XsG+XG7bGXvhNuqR/NveNYKtm+jF
+clAcOkkYfOojJh0Rx+oCrHqY72vnQSlChI77WZQ467wh/+FO4KWLzB9Zu0pUV8Pbhtz3kUKiHwUG
+UsIjDzlNOrYngdwDNmC9+z7FvqS73PmJ/XnbQwgecnvbx+NDyKPITOawlgguro3FzZ35SzWKVNn/
+GG0f4JRdP04F4ltHDWSf5syilDC5IcBMncz4hANIB+BRWe7W6Nw7vCJcpB8WUL7G+ZGRWM4EliXL
+vMJoO2U1DZFKb598w97FPMVpLLzbHZlKonJa3nw1gbnoWu0rMkOxtDse2Wnd/lSGfep4jiemsWkl
+ezYeSFtuWrj6NHxQ2GZFdGum2S/nv9NaXq2mHPNqquuY5SL4Uvrr4HYvmu4/c8kvQCD5T9ZErUeK
+cIgDvIPpZzWhu7dduh2lRrUitabvVpK/aE4KLYyYS+uCgq2B52uaOPQ5g34MpfDQqvha5bm569ji
+Iq+/G8bVbdkvxxHNbH4Elt71ia+ZGnSuqL7Vnt7RIw2VTFpusIprPN5VWD1ZLa4xKtOJJQpweDEu
+O2YJ2jsgmNYOpSAE7ZOIx3Y/0iKVJvrKiCFOmVa6xykALJjDTeH0LzLrVJjZZQrCmxW5eMmSycbA
+VU9bBucDoLR83sb+bGXyKFrnUFf6Y5YkrJQpNJG5e1elqChALbnp+crdIhtxmXaeYDHdYRQsKl17
+cqOyOhrU5yST9xCgthHc+aQFiwfhyAyA8EYmEX8XtOeq3NgTna46PT8D4PBFqD5TKs4WeacBRqij
+hhY6jaIGb+4TwpL31dryZrq4ZvEtLuqSDGFJfPI1wXrsTvQIteBGF6xQOw8haSw/VQwTu27Lz0pz
+jp1LgC+y9BTHI8TuonDAuzQtqmcLhX2KLmqIiXM61JGY49rPufH4xrPquAOYk3sIRgGiuWMznbch
+rvEM9a/cuEHxMWkhzGHPoEuHuqEeXFTSjVjCkDIWVcxA5Zc/Z+nEqvONPdcTIuGvauALAkRJwXU1
+A6flzbfLMKmepB59TKl5o1X2gN2sAu/V5+zHhrxcy4riMip0eEf5Vrb5kveWLC9Q1CqgiMgKbbIK
+jKBOsKq9BjQ3ZfeYU8yHXD46pvzFHwcrMRl3fWTsO3WUtrMwffeYVgx4trsW0fDlBxYKKIiQ5Mk0
+4mHnZc17Q83RsoFJ4NZYcMNrb9DJaXazyzakPY0LvRXgxMKnbYfdm2dJAC0dixDMZsm88Boye9H2
+xsoP1NIOkqudn8Af4KnHHgs/GmE/B6838kstvMROWZ1Ygn+6WbdPdBYCuF9Sui5i/1hS26XZtIWO
+8/bvZlCfoZkXHAtnp6EwN7rAlFgMsAVh3sFTO3Qt9OAOhpkXrFhTsVfv+avUUiIsjna69zDjZVG8
+i91+0VuskCpnDV78KUdDsCkt7BpwwM4mFcASMariaebhfqq494pKApYb12U328N+9LYJYx8fS/Qm
+VfbQueBriE346WaiZRIGxIyHAEaRcRd1ZLPxjCP+zDb87rJuhcx9ske6g4mbejpwhN6FwCaPLeu+
+TrY8fmDxiLkVsrd1Z1vx7lgoBesh0YGdWL9E4RrboUfzHVE414L/yHKqW2ow1NokxczgvrQnJO6M
+PHf7WbgEVpqS+5RhVD+TyiNmZ4G40+Wt0sRHUmOjaNlrSmR+0WTfbu68p11gPsyR9D4NLn0LmcUe
+wqe053QROKyFJDRAr1sEHmZeGNGuNXCDN1P9omvDgYmLykg/yFAeu7sBVJFLYTCPy6xJ4KJU0z1g
+xkbS9fZREb0UoHUieKxop3gu6SrHwb8sc3V0Qx4ktq2OdjWTsc0SKY+ikcanQM7Q+nNnhSZlv6O3
+7nMzn5uiI4BGwyGe6tOUVbPngFKCwI6SrapGHRYeL4LPxtXK2m7BYm+v68UutKOV7bxWvNSxC+Vl
+uFbJkxh8Qsn5QRJd1bS7GnnJobGEbABiB4PiJKiggbqhtSdZT98TId20++Tuty2ydumwqmAD/WlI
+fjpgKZF+tyiHBS5cP5zATiE8Vg/KBhlw6/DpEKvXy9dUU9SNDRjC4Y3Dub7WqYfeGlIOjm7lpDz+
+6/o4mfGTtPEPtfiag6HeSq7mHheUQGuvktYYtkegArBljiJh3Yl23ho9H3wk7NJjeeDhnB9dgdTW
+DxtKEt8sxcGnD7W/hAWMkaQC0xQG9cNo09cb6Z//PtOryZT330+v52KY/uMQfarpn42u88/+bXT1
+fmNsFbbnsbu1BUnC30dX9zfhGfpfdCHfRIdi3P2DOmVavhD0nvge3SZ/p05xkDAMC4+R2LKtf2l0
+RSD7h9GVX+GidTEDM0TrDMV/P7qOGsjSzOzQaUe0aN/Ow7XjSfy+jv+dpdTnCiMiaogTccOU9CB1
+nj0V7Ite6NSX8D3LfMrdovFsydlVGDeQNbtqM1lyV2OaUAxTlAhhwo/6L9jB/YrWB/SG6DakAjXG
+p3ohoi5yOZO1drYa60udhx++F26pU19pbf0pfbFy+A+09jiA9rHxFeKm8VP3FAIONiPIN1HPk8N4
+BiYLJRfPuZewgBkbPu0h+/kgM664k7n6fcppQu11anwA0j2XDYKZqGlMzItqT5qNZY5yuQBzQFoF
+pUGm9iLC/EtamHhYfqLL+28lNseNIdPVaKtXHzXNQVTxLWgdgHs1kVA5YBocdNpehOFpiHMDz/Sj
+X7BEGvUKgS9mSlfuumTtmVU8A/FwIIpcVX92tBxKDZk8HqMEEkZ7YuHoPMg4eYBUcotYLY0xyPtG
+nAvwB+nYUyXGXJvOkwhNwnivKXagvxqLv4BKq2nGUcKR5f8zbxP71sU4J7/buj15NcCOvkGjKFOs
+07FW3RKOOeT+a9MVuJeGx6wZcfpLYv863Y199iboXTKoI7CrEgwUawpc6X6ICt94PXNAxyINFZ8q
+OvFuWzp3hDraNqwjEQm1kc4acRla/yesGHLdlCji0wSQUpUYlQiuRksAeutk4mhppuYZ+hTzi42h
+QGdKlJRNMGzzppVATUhepiRj/czf+l33s0j4h+n1TN6DWxYqAROlpAuQcwvzaJ0yFMrikKuqZDtk
+UBlYZQEV3ZgnBnMasZXaJ1XFl3AMzxMnBQ2aYs6BfvFoVGu/pGTU6/R7PaESWvEl7ViTT5LIkamx
+RKgd+V6J2qXfDyxhkOyblOuP9z0ppP4y7uyNNIkuOnL6ELRUp0V/8cOewJs+m44tDGPk8Ggj7WwW
+SiWxM4HPkgqbOifg7+Z4Qo3uLVYuEbhyqXssf4Y6OvDYIFartmWoH9uIr4frsb5h+euFlv1V+ZBr
+JmZVY7RuLr6gsrYZtNTCIoxok50SvfoYekITYbBivfiqlfFVsQBbm93I2r0xYzzIkiCq1z3VZfOi
+KaXD9Yq2jqGTo5XIfbl1DloyG0EUfw2AFcu+dRa51RxllLTH0tV+QKHH1ZeG1blVSEKQS89pq6j8
+cA9+ON68Sj1aLgzxMOM7rO6Wneag3UIsu+2GWsj1MHeAZpK6ZBxjBqadgaoBlwBUOJpHU9S7NtMn
+vvYWFOr2GvgcwJZztOMSzbUo3sKi3oHLe0gZbDzwFIu6oxmzZtA1RXhPHHTLwS5AwcXlR+PRoRYn
+65rSJaGMgWlh/DLiFg93Ej6Est34JZVJBjbwak7HjdB6o+hBDTwrs3ajud6wLK16vNQTtw+Ha05q
+5rfQiHatU73mBf0LLYUPDxZ7J8JuITcPrHFWzj8KNxlOE3EHKuDwJ+rtXKIdr2JSb2eET8HQSJlr
+HQCwLkMr3iS5vGoi0hdd4dEZC+d96UmSKG5g06TXWTMdAh3fo46C/4XBbQAzNMPbCoFiTbHnxR5b
+D7exnm/ot0gWQwsyvJPjLz9vPsdBa/6NohCzleO/nwD+ur96/j//8/vjT//15//8Jwus+ef/NgWI
+3zhfCf8TOKDIbN5S/R6DAFjCxdbzQWFRcfb/9lf4UHA3g11zPPcvUQcmh7+hCWzvt7mmAZqARQOD
+a+j+v7K/4qD/xyHANNiS4bI2XddhjfUPSNjUtOPAFW69tLVwCw7QW2SwvGccHmA/7ZjxQXIi8rgp
+alHHNtqGAw56eDfBBfdMorBwwsO2N5di9kxKGOJtO6FtFgfHpiW3EcLdNK2BoxzwuDsjyJmtuRFC
+Ja+hk3OhYKWBvy0Kj9ZYnWso5k3OQVw1xZuTaGCmxRln4TnXOgIJMwIduva7bnn0fZUOvrGZccUX
+XiWD2lUSFCB2k5RAWiXaLbwQLspQVmfk+qjavakbv2owetQS9s0yhc9ezaD2uga/b8/wdvj/a9q8
+DiIvAdNykJZw3v0oXZEp3nmedR+9174XT4RHztWMhy/Sg8XUtJAzOV6rAf/hOzRByldDtjZksxMG
+J20NdN4KsIOUrf1sgKOvJpISLYD6pOEVLmZmvd85azvzuBATksAIz4sof/E43LAm6RaSrJgL0mRd
+ltoHK6jnADT+MDPye1XhJKSUeWF0yAj1gCyMp6CXJPVNFPEI2D6i61YS26drFImsekAhWMeZ3JhA
++qsKDwvQfqTQddxD8VcsGyRYfwHen3K5tT7z/jXc5d7cACBHbTV4KZ0/TUf2IeFIHzm1I1gPHMUw
+KakSwDe0H6gWcEvvMVBQgKkcANpBHw0lBDggP3IpT+RFn2JKChwxvhtcv8jynlnGU4ZBnYExMAEG
++Cn8wXwSc+NBQfWBM2pAcfLtNHcieA5GeDL3jqOocJ5rE0IMoBbvZFzpPyLPwp/avRQ2oHWfyoVu
+rl6ggmGiiqGnksGJKDVOKGlIRu6FlDYI18FBw+vi4CqZHONXb+IYdno2e6ZJ54Oi/EGv41VAGQR5
+hBf00o0bgRuY2yIK0tz8iTRIOLDkKbfYjsNwcp3q5kf1pzKQEL0Wt7+lrrbAxWLzgWTNsykbjcoz
+3FRibq6Iw2HttOKHPrU//Fh/DXLxLSe8AkbisMVD+tgkrU5EQ9QbqepdaWuPteST7JfYo/PhWvru
+LahLpKk+fcl1FD4z0FZWYZzCAL1FN18z2EmFW//A7/lFPd650mwWz/NGVWnDV2hy4YQ8jP4Nn4r0
+5CGo1YEgF6sRsKUG8Pdl0aq14xerAU+W7s9/tWmvtdDCzQrtIIUksbAN89FV4ssNGlwZ7a0YwzeV
+lqx3ZXSo6u7JKlno2BS2B0zNRAfnBnMW5J54COPmnLKS1Qhpp3H1hcXnzUqo0mBB2PTxh9H3fErj
+U1rQmxfzipKfyCStWzXdTl1N6qZeZcRBi0yNGxGB2wKHx4MH02yZ68GuaUdeQwIdnhXe8Cvxz6i/
+lQIUgmEBSxIqMk+jnM1EgThndfO+Q0R70WU728BXYqvsEml0X4iWEADJeM96bqKBZlj3WVTNizNi
+L7cn/Tx1vOeAHuY8QLP1yvCxHfrXNIs3pXRekqb/0U/iveIx4IX9wdMNSqHefe0Xrx+FcOyI86Z+
+TvELkCOo7pXlUU3GnUXiZ+0E7lzGr50LltmK9c9xYowAWUfrYfCzLHGzKrq0w1A9evSn+jZFb2VE
+pwbdF0DCOpey1GiWPzc21NlhiNZZLE8t5r+kJC8ZvXs5DNLQv4+Bu5HWeBWErnx4LkI4F4pt3osM
+TbiuyicTAD/i9EqCVIj7DkC9/jm7WDRDX095xrs6Mo207Td1jlSmx/gRcO6chshadyy9uI+ojeFQ
+XJJYX02On01rxNrNBskCc9rQVMkKXIYz7bUl1qZhXRfQGAwUf18X4Vq2AL58MzwHQKjDMP1SbrQz
+GHlYGOIVoD43DM1uo8fTOqvdaZObwUb0yS7J8g0dGcDzIQFABQkd8wWgoYDblP6A+3RiYbzug5rX
+pIJJlt1iM1gMKtxzdISYJJgpE9MlCOQRlRh3gF+/IIW/InyfWOAeuw7qLjvxlcShTxBwN5KL8U35
+GEXGS2xFiBXRj4rH9lKpno5lKsNN+bPx7KchGjZhOL6gGwhOMfaiuh4TVHHMae3xzHR4rfKePmG9
+Cj9NqfMFsr/4Q1mf2texggunBeG9K/3T0CZ3LSBDk4ECE561El3zCQZma7f2Dd3XXFDM0i3b3n2Z
+uvxb6O2p17X7YBC8zYuNFWQ7eIFPY+sSD08qOHXBOqMO00r960C3oEj5KGkpr/Wc8smVv7VQ+60E
+e4ZONwxgY/PLUFwV0Xr4eJU4xFL/sY1xhSVs420aMZoSZo6BQFI5d+xjT34c3kK7WvlhdRIA57DY
+ud89Zm9OIJtchl2ePMoltGK4uVF/0Ohcs6gFWQwVFeN8JGq93YJ53M7ZgopAZ4CboZf1e5y4CzZe
+G8dQ+7wKfzWV/ZiN/WuvZ7DdmuPgWg++S4NgLcNnGF2PVdRdLZ8/u4pWOZyDqO0OlsyOxBG1ZRtY
+7Ae55a4lpiLRWN9GGW0KYeCOtORqpFFFco+fJiwEdW6cJVvnfQNhDwTUVQWUzBk6/gT8dIbn53hh
+7+ZIDZ0UPwJOmnqexLJ2vPQSqn7YZ2dE8ZXZGhgYrV1u8sd4DGFu84Q1lXqKiZUeRJivkZtHmbAu
+dYDOl/VewyGZlwMO+I7MhLkS7fBcjCO+0vTbdXL6bcL4Jc+gNcja4MPMBFNUPXpBMdIqWJM1VStv
+bPeWYJLK8vdhhC3BuwD9LnIHkBbZtYvyN9eTB11lSOPRMffxQhHPD1eTKd8sc7atGTit+v6jqiMQ
+MrMS0FR1xncxORYsHePe3RhVS0Xj3KfjHiMQc70kBiq1vRv4oJg19EoYibH6cqrphTgSVMN4a+nA
+piWGsx7vbmdSiRRE+xYahj7VjwlWCAKg7g1C8UHQLWAX9Yc+8DplUqdNqe8W/VS+mY6zb4xqiy8N
+ZouFjbm2+EFKoX5yqaN+SGP3pRz9aIBuHRyUA3+i9bm3cXoQXEG0GnyG3wYzgWk8FzO3U3Q0mOX9
+Gb7mhzdSQYo9vWQW4+OX1amxjLLpLBSVWKhra6dJrtnc24LTsI/JHeAu8/xhX9okPgafDIvVgn7X
+MUU7w/QViZE4gyBH32DMYIG+GfEuJrF8qArjM0VdijWLoFKDEqE49GSG2aVut1U5XXLgkVXnbSaM
+yhTuPOtwvI/FSOknPSm9TTHkVFzIaU98YrpLbNsXA+bTwtaE4GsuHyuJhhK3xVvbNsbe4UzAfUIO
+okXpoJXMiqMVvxL2Xk/jJ7sAtIdNpuSysr0fXsj+oKXIJxzbj5JinzQnGBFQ9WPwcAuQngUVQJyO
+D2bUs/rJvlsqgpoaKWxoMRW5Xj0bUgkn0ickKRb691lSe//fJfVfr6h//h/fTfKn//0fD3WXsWD6
+JxfV+bf87rRwWQnbMO9ckg8zDu/3LAXiPF2AmKfI0RPL/+O2miS/wT2Wklefh+gfttXeb45DJoML
+7EzdswnY/wtZCleAC/g7o4VJWwfLLcEv5Gx3Hf68PxotppCnAVvzHGGy/Wz89nmyhiNBjg05A2M5
+ReUhHUaWfu7WDzQXHzwkrIJ5TvjW7OVbc4vVyacBCwo05XMsNus+rhCMosdBmxhTcR6aGARk+ahM
+nPzSGy5+/wEVigMwaJ5FWr6NZvLemSSwqxF8al9GfOlL9eWn0TYcwXM1nb1rc/HZ06VNTs8+MS12
+pKWSYEOI5QFVC3HXJTJPDBefaDSubeL+ve/TlEa3SB5shsbSuXO2c4K8OGk8dmJZzJz/e8Q7sFIx
+32HYbDEF0RZuQdvcxS0Xr3EY91OpnwCXbMeZaxeb8caDxq/oFp6ScY7y0h/oUGs8UaTl6Po6E8nG
+m6xXiwNtAZWH57+4p+rbNqH66nDzucAhfPJoqmvg9rhON56No8WwPph9UC6zcq/j7zYKulI5Ia0V
+/Oc32RqHhvj8Icu0Ly/Uv7MeB3mZD5927+8SQeffCKgrCnkxou88fNWr9gVz26Gp+50zETE3t11A
+u8Agz35PLFUQeCyQ54tk+BVVRnWADRHfSMis5rmwTy++364dOSzYIi6Up7+5Tr3vxbBJJflGPRm0
+tRbttaTJtqHV3cMwgrrVqqvf4zK3daKEsNmooVg1lEUJkhSZn5xHK+Q8HGfmSRdtVZ99+Sb4HsK2
+ztw+8GwM/XtuvdeGOE4TAerAo4qFXYItfzEiP3Xku/0ifBu5o7Clf2D7UtJMvg5ujuzmD4Z7Q0zk
+YpFRNJcPFknIcpdaxLDN6pzYIRb+fIS/xEV4ZTmMqiU/70cEVqLup5VyM1NtvZ6tI6qlOzd0V150
+FkBx6L860OzC9ZR+tHB6jXgHFu6Y34WmxMqPjZ9KmucgxLbQdgnkhk5bpc4xRZhWMP2wDgaYqNMi
+wQRC67A3XsmrfOQmZxkGVWa7tRVGv/KxvzhtsA3fqojmByK+GipHvRquPhNG1NhE9Lwe3jLvY8SX
+wOjVUavm8j5ipH5ydXsjWXWKJsoqF6w+yTBF8/Jf+Hw3oVfPXoAlwwoSucmMjtu/KvOHsaMuJ8vh
+JNn5ryakZbNLDqlJJdoYnaKSwT7Pn1WWbJ3a2/vCBt+DFTrz1L0L/SXqD7nC8GvA9ZhOtMLTVDDC
+qNNzDnVd514SGExNXn9IHPlV5f3DCCjWDbi+5EJ/DR1r7TYuBnPTfOFEp9ayxEyh+1ujnRNbkXaP
+HW3bxijnlMdD2Rmfh0J7YQIGsS6oIbb7gx9A+IEl8anRDQ5no71CCN+GQ/ns0BDWutVdVuEDYJJ9
+5zf1umq4ZLHlPTsD0CQSy7iGMDiVW2oFrwks2yVbCXr1Am3be97K1+kZ9IrvUVZXM9EO/uBejGh4
+9otoP9D+TCHGRqPqAkmmCzeYtY8cp2uZqFOsSmedWXCHTGFjyGTrZUzNe5LGxq7xwt2knoFmfBVS
+nUuVbhxcmYWP2OQ1VNI0AnK7JPOkuNjzMWllcXNTVESjHzf1bFPo0ufOdHaQk695AgNE008UC5YL
+LzMeY5EcsPcUqyjJKZivZw5e4Ozxrz5pXJ+NrLoiiVR8ELhmjXX1VphENBy97Ilq6+dEQTka1I+u
+nHaaEeEIachA14JYtuhujbKfbE9BPnxxupIm8C4DKao/qbDdOrF+ygYc3l781NOmB5t4q4MLpAPn
+wxo/cI+f8xAuRwKU2MzrC9Rz6vz8H0QanibX2yead/ci8Cy+jfM79LdEaFYSbPY8tpuut45SBJvR
+9h44bJ+1PLmWleCR1UI191+0SqDIswMhTrHuDf+eDM1Tb3pvhSRmXfNuOZl8xvDwGrjEBGaCqSo3
+TuGRuZb3MWbpNU4PiAfLMUSAidRad+PTRNit9t0VWLcX+EYX9qPrpjIQwTpvneHyougr+VnCXKFu
+YOkQQKe/ATiK9ky966UCI09Ly2srsgu4U44trXiu4Izi4XcXqQIENXkwFahFjCPri6XyJp34nTnO
+cDRR/K/WtqrQgeG7NqD3HDnegI3sLJP669wB26fbJ5Z4E+11/WOk+p3sjZ98q7mzmWtnKm8qrUDd
+W/QcOF238Gb7BcEAs4EDopC0QvJVtE7qm6m1nnQ4h2KyL13N+dQnP1jUsI5ujjbi1baJzJ8dBYzc
+9xE2jeTn6OT6UhfpZ+/22G0w0XhxRsEu/J6kZk5Vt7r1maB/MUognfULEx897n4I12OyzmW97hoe
+BAT6ezeB+N+VNQYiA/j1/Djx4+PA389CxF1rVPN4ApNWO/HFHxjwHa8+kjo5GIZzLR3rJSxHbzmV
+4SXTQCAG+YHuW54+fHSqEmxkoYMyC+zndORpWGbNvmRX0sT6ln/QMRsR2v3a5tnQzbkbGIW9ztmu
+HlM2QXFAyIwQBNDewDw2xjdY070jwkMn9CcjiuCOJsW1S3GQV9YeZy3l8CN2p+mEqXA/SI4Vk5fY
+iKrjEHr48sMKnKBcBZl2NfDdKAw+NkvX0bSeJ+xnJgsgjwtQlQeAeb11DfW1b+0Llh7wgBJHtbGv
+HSI0bHZxl9J4pEd4wKNPUKi7SskLZ9CmHz0I4tDhTMdbmajydpT9CLXwJTRorjcSuLu5xzqwrC5x
+znVYG2IqZQDVOd1ws5XJ1wYCQ1k91Q6fkarvL42cwyKR95DZMxRicu+dx2OP02w11nioZEDKPZWe
+vh7mdksmsS1PjbvmcF+sU/NkRbSTwQgxOqbDLlrDWf+QiHZO0e0bMREMVfzVxhtnMAAZop2qOmnM
+x0va5lbFaJ+zYN+Vp1wCfxqjNUKmXOX5RFR1vBa6fa2jBx3Ho3RipA+3u/u9sZ0FmCQkWSbb7SD4
+5FsWtq+KKxmfFm8xxYWG3lGcHZE9WblYJeA067Rf6dbrhO2Q8fwd5/2p6uTRbamLR1MXmeKDkAFY
+auFhZn3PsglwykQPRt2a7cLByT77HPH1Lv8ve+exHMmSJdlfaZm9tzgni9kEp4hAgGPjEgAyzbk5
+NSe/Mt8z/zXHq2uKtFS3SEn3ZqZq9eS9l4lEBpzYvap6dNQqujDQRumeDNJ2W8yZiZEypM41D2qa
+pWLrp2APsJAaVRq58e0l31JyT5msz5MH/ojVoLRnv4k3vZu+IBSBKUgPOChItILfK7nl2vB1RAZx
+a7b0QjfVinepS4bCe7CjcR9G087vyzcf9QN5YdWW+QYzMn9tQX5UG9ClC6qfSo5FQBaZMA3x1rKp
+68GVmDShyjqy1xkMjiown0ldy7XKFfRfXh5hWu/gfXongrIFBfPqZmk+aqzNE0yRJQb/7a7ZZr+i
+q8M1FL12ySbzWnks3slSwrbLh10MH2pRGu4uy0n3/+NMoTPW7T8WSs/xL6oh078xd86/789zJyKn
+qesuCHcH08WfBk/7X03TMH1YcQx+hm0iTv7RJgWh3TEQP4n42xYZfx3x9I8KKf/LBBLn8rVmuJzp
+/10hftxQ82Qps1HIYv/zP/8HsQOocw5RPEt3EXF1HbPWX06e4N4Blcq6WY7p9Eaq8mq0h6BKnonS
+HOKofcy94eL2p67kKDlo3UZLQKtOX5l7w4IsnIZ2A4gvyUNc8YZU7kdZQw9PEJRq6xDwQO+hgQvt
+J41cyrPAInGNmySXgw6NLH7RhHuosofU4EjlhudkdiCWOypvlz2r2dZyliHQdYSwpdMimXjsEPna
+8N3RnfxoIwoCAYw25WgdvYJzNd4n2ipl5x9KOCt8tcpl06ZrPOqdVdEzammJu64BdSHrTJRQePrH
+UA3bktgZi+c4du56SZwsChRkOH2dTmzlMdXWFv2TcjUa/pGw7C6H8d2rU4IY3Ds0IJXFl1mpdQUv
+xk7FruRslVmsvDJ7WQmXUvOYPjb9V88eV5aXTGDIpky0GA5lTVCu/VD+rseeIanFEBMrs0hjOeZ/
+8lluMN6dcIzolD2mxC1YIr21I68jKdaU82KXZq2nTuBUVySEqStFRzZ5ZfdfMgcILt81kLaQPfaF
+1y/TBOpLk9yqkddSp+DS69cKaop9qtTdy/cwq0jlqnM4EhuiN2ldzVLaj56nD4UfnfLAWoXxU+Lg
+eyd/KniDR0Q98n47DtZ6EN4XoaiHyIkefVfjFAIBqy8vxExXjT2b6jhhD96R/P5bGrWH0rKu3UTO
+uCcHX6pN0r2nDCKdOmWuhn5zLw1gvNZan2r+oLVm8ALEnIYzrqFlpwLl72yiKFm15imnHDvEbiX0
+b4i2sOi6tcx/UUDsV/UmNM75+DWmHLogvHbihZQwJ0ecwRzMsd7o7a6ojiq0VoP+kEEOk964Ywha
+5u6I3V3bFJp1Cbu9q1/KVq0yDPCWG2/jbmeWWNB81nahWyLhmWubHtH606v9szeukLmWhkLMcOQa
+NKnloFJgPZRAlqnW4BeUfn9LqdRMy7UBhiVBJ3UYyrnOrWZ2zJpHgvs1/3XWL934S7Px2Moz+LZF
+RomCNsdEmSmtGxtRKq8OBlZAu8NmSGQBlGHNCJxinYJm7cDTqslddjRiq+RlDJNjyY8vxWJQho8+
+FZ1jhQ8pWVpETbSJBo/w7HU/DoAwqEg2V4WMh/k7U3wo1CpVFsKij0MQlYRx++aojlJD5Jn+rE8P
+qFSsbPeCDUuaI8VEBKm5jaYo+mIFQoUYcfJWB2tfvvBKv7ZjftQTJIkRg7fcj3QxZPIug2DRziIY
+7jtUWiLN66b9xtSI1AT8v6GeXXNWpXbn9j9mhMDDcV0UAL7ct4iMCq1LKHPEcVaj4CxJ66SHaCXS
+BROzE4iZyb4a2huFSxcBOKOoIo4E4yZMvyh2vFGgtwzJAGW4nqKcnispVnV6Y+F/DjlDx/oaSQjC
+EOoubHDcBl60giaxbAac3KBinch89wk0eF56Gn3jCuZ9McpoWcbNG1u5YujBdJxrnhJWbzOnUEFg
+GyuPlz1tF9CSWfYIwZFbd3aeIZe2uiORiCaGsZetUhibmuBaKW3sUVW/i31y6WzUYdC1+O6U/hp5
+06bwUXVmKP1vg3xBoj2LtARG1G+D5GYANsxY6c3IbDnskKgWmCouo0x/cs15hK7bDPB9J3zfE4vp
+tj04onqt4DvLmoK2/Kph7e4B04ebtu1eQWj3RXPSSR3E3ZcwSJg8x6ztbPOAKsABI//dotwtBuOl
+GtNl7/82S4xeAnramB0b7zbO6fYqZMUVWs+Vb7+6ELD0WMNxC3iOLscQDpoAS+k9jbQ6uMFI5t9a
+GSjVWTI8FPa0tBoXlYEHYPBlmKBnmLXpq1pFkKRbPGO6rq1rUz4WQw7mndQN1Rqu8dvFiJFmL3aP
+Ac0s9tK6UXLzSNHnSvAXL4BlZBjbK4fpEEddbNMMpPZTWa5RoFCRThTrLmSA3S3tCFvvAZ0uOjgo
+PofLwn+XFE/mslkjeBWBvbC0q+JCkhUX+1SenSiEi2jClOLBTFDYKnegJ1iOxRe2TmRPpmNI1kXL
+n4F+rly0SNQTaEwQqLHUqbTchVV0EAMbU64ZmuWmbpWTvk16FmeHjEcVGIAl+dGwehtKc+8Yt5ry
+Ldc7OoNadbgRPXEbkbsmhzcs3JOpNvamHZBtUkid19YhRFJV67b10Td0cCTW3sC8ooZxW4+8Q4xV
+LMiwxCeKD95lqi9zLb7Wtg1lCvNf6A6b2I3QSviGc3A4g/42JjCS5ZfDyiLg1sY93Qr8/6CneyVg
+QaxHHlCIWi7rID1ysMOKHQWsP0Pv3kx2Xl1F6ib+3c2VmDMH0+BicvcGpoeWKxm2fsZVNJyZYJeF
+0e+kHDc9DGThUHrC08Kssv1U/VJ0qpgUzgJuvE74bfL61cYCSnfBCK46s6Ol7VcYdHskGfTFeZnj
+jmxNzQsY8SNoz3SdAEy3wodY+4bXhjE4eZJJ/ZpbMH2CZtlEyTryqZZQ3m60yo+UVZxRvgRMZn3l
+/rTmAazLIibeb4Ltxr3TBI9pSSiqnbZK0cI7ooNiv3E+KOKImrsqf7UWsBeaESQtoWkDvY3VpLO3
+EnM5Nt0JC8DSypl08k/bMXd20G9JZJriS/Ks9XmwgvInF4UlS50d33nsrF9S+XdQDg8mzRKKwuJJ
+pFsfZvQ45G95SCyxZjIrZ4JCKFjU0ihxzXgQLF08Lp6mUxmbHiz5y6zC/VDTcZjhle8Y1ImZm94x
+drvtkFgfJXXNQr86Wru3hbEKI+cQp+oSpeXVSx9Mkk1s0yTa5dpiySdhwhtAZURb06gdAqghqZU2
+xO0QcK6d00ESckGe4h/8KPmcozBY07JGTXLL6hBYZtrM3CK+hlq37oZj9SLBlx49R+jGSlLuELH4
+8fKPrso25fz+MrzNmL6nTTvH1LBF1Y8WgunQnmlEXmqG/1O15r6uWVVOlGQPMaWZAA8iao7h9QpG
+MEzVmwkWeB+HcNW51a2H1jrzzvgRWcTW0lv6A5cO50v8NM+tD2P/HvX+fbDcj9zdRuJssIzyCcEx
+IJPHTNaBd7VgvVPyPqZhvAoLfrYJL8Bg9BZ1bFywjN3KrqONm2s2xn4+0BNpBgtDPKe4+WtcE+Rf
+bROICS2MOEhCeqjhXiXrNB3PVukcQ/UIR37NI53Aon9whv6piejoQzLoq4YPKVtFdk1CdAscYekq
+ZKNCEmsw39yM4FiGXfs6dMGbjpOO2lqsZQpzYHfK2qtm8eRUEOqqheew4c7HBYhqhBuEreLTU+ZF
+Dd2rb7Q0hBJna2T0m0ffU+rpWBDt90Lm7+409x6WX54xw3nqaG9Xdzu3D3mwTGd8oCPf+/nO4d1G
+wrGI0n3Vs8VUP45H+U5urK3xJU7j/VzJnNsUNFTLTMQ08v7OKGpvWrEdx7eGHXcKpxL/MQSMamVz
+vIP64aTTOxhYv+5e2VUP/BbNoXYhbM4mZ8GweRgq50R1HpUcJo1F0Abxtj/p9D25wlgOEkfGeO7E
+nA7ZtPxDqKfGcWC3E5/lcRLbNd4lTNCpR531e9FRszM1NIXQVkrLFZDILtE2srp4BbVR6t0AxWU+
+RJxTNZwZ8nlQjEO02gebySuuUVcdm3S212NGgqlFXRM3E1TL3TS+W1j0qk9ptltoKU7v4efDxRks
+RPOhTC4o+ZZ4zwOGSqf5lEI7uba7dL3X2qOGDkENkBtcR8iyPPcj57HPb9mc4KrC4pbNlMaItmFV
+Noc6BW8/yZ/CHG48Gb6GEMhXA/JaH9F+RoEFk1khDg8FbniLBkE1tbeIPYRdcKyJDnn2i0qjEaHA
+qOIzGZhFZVfXxqRQCmBVK9IP1/y2ycAaUEUUFPFmeAhHUome/wpnU7O7r1GxPIleK+pyzJ0ZokD5
+/vekJc8pRkHLs57TbifSs0+MTAY2SubTlJpE4HhVlIcu+40wvOrcfhcYxqkKuLAybQlN4xD6tMmy
+yx3kuBUOWziOnQUw6MihTbZvN+iQOxfbSMOM2qgrLlLe5v7Sxn0CkGVZYNYgJ08LJI1dPKOKQd80
+oocwpa/NXuyELN/gJen0vhti34mz5uNws23zOACMzNUBLtWybYOdRsNYSrqRqmvgulw8Bc3rDMg3
+v57Olak9mLw5JkF1R9d9xphs3Ow1KR+tijU7jWEV7rjce7Aq4S2q8dWfmEaNd7oK++Ep7nGChHLZ
+Wae+3OXltOro/XJTA2MUqUv3FrNAj3g2Ii2MyB8q5hExxOKs5E7WD0ixG+mpjS7Bm9FAkUUbbf7z
+aatBUnQeHF6UfnOkCm6V6w/COw/pU6WuGZaWggkJOGAbfRbJk43s7WWXKagvJYk/KmHr0ACZO2CX
+ebKIv/AKWKvK3DpeuyqJCODZE5S4BSUGtd68W92DkU37HLqzLPoFFSR71QWnxHkqu5T3Fy+/3N7U
+YNIqeXC1Z8eXXFovmXWDrDSLw09KHTxa1ft4Z/lbiNzrjC6aRqgVnBqPTe1gxVfwhr26QGnBAVJv
+SpGd4Ydw+KrNM4F4fDjVGhL9dx/AdRsXfvVS59Pe9k92j9GjN+2rP0xbEpgrpQcnnYyUIeIFJkX2
+EB5NFuZLnCQb0GN5YWdLJ+lPvkx+NbbYEbr2kY+UN5CzwgWe+B+29s6DGnFuXTg9Zkl/M5gZKfIy
+e5DQVXifM/LMbWG4vuj+rYC9CoKTfRp2C12VV6f1jjzu3OiNqD7HtfRZhjQc4xd05VAtGk+bOYWb
+wFZnxC44wwfedxtYI0trIDI8JntC/zb2Vx90wuR/J27/kfJRe/LQmNo8rMK+Sciz8VjXy4fUfEm9
+G9HvrhxgvjaozAfL6B8nmHv+uE8QogUh6wJRiptnXHd/eL5HhEgwISEx4go+t8Mnx4M1LLNV5p+A
+0K/c3setjNOWLXaFiiIYPBK33JE6ZxHzONhvHCFXUQVkCvmVrrdfHtZ4UidUf1hbE1RubQ+rqnK5
+nZ904OWEe05aXvwezK2NbRLSmRzu3GCW1V0V58sx+J665zT5qMZdOPCVuwcnu2uYaYMmxLgRrdrU
+fnf4JqNZ+Kfx17rHEhNvNm3a6GnI1b7EpTEOvyLHectc42wZ0U1jCGda1Zb/OFtXlyznf7x1XU64
+fu7/corL+9/YvM6/90+bV7Aqthc4hqN7MP3/cvNqsW61aO2w9ODf1qt/3rz6xFmc+ddbzpxF+cvN
+qw2ZLfAwD5mkLu2/a/Nqu+xw/2rxSmJG53sglEJKxDXtf5dNyWvV1aaKWop6UphJ04aaV/wm5qPv
+lFALPIk5gCklCN3r3KDGFurQjhbvOiaeWdLP3f4cp2x1UoGBZWiPccELPGrFIQ/hmlOYa8IuWouO
+zsLWfJwfw2ErrlrYfQSV5Hg75jsR067W6A3JsEnMW1iQXGb43iIqLMEQmRunL+jlZArgzOXz4GVO
+jYPKJRTL8KaUAP8LX5gSOsX7TQaW2Pl2IL66ycdPgzWQaqKDHM1VJymGqtz8hON9gyF/xbaZCCD1
+BY6m71sbgdHAYNd30bvtj5RXa3j2hl2YwXhp+19WD4R16iFRKu5hjQG8aOTsV7Dp1IbiHDrwn1L1
+EJeYU+vRR7XnzM4QxTzdswPDqniOUpSzOnGID1TWtxq9Yxgg7bfwp3ioxK3cFw7dXET1OD03PwT8
+ziyO10ND+C4iiJdkx9bqj7yP3+IGixWrNs+BiZ+GhOXitywofpeJufHy6RaN2saLIBXmLaDoKXxh
+rVOuXGgChxgGbCOqN30Ivg2Zf6UCBlZh+RgSEW8Hnpae0t8sfzYTmaG+SoZ2lRNUXSYs8Wimc6Yl
+iJqOBFHyGTo1S4/oDsjj4iTap57EryIhRdryVohqdP+MUcBUFSS/np+WjR8SEE9hmae2DI6plb8m
+Vc1PdHBn6L2zB9rxVpf+QnGhbcpseikjbTMT2Aq3JnBLeDjka2CCnGsXywJKljU8UmC8qUqKTN1h
+mZvytfeCK3rDvhU5RtxMPo89x39a9OJ5HfjUNv4LNTGMwg3HoqzXPxqH90A+UemQOfuIjKaesDMo
+235nlbywyCxSgVGnGtNSCXb+Wgvji4QTg53z0ELQL5re2aSq+844D9KYQKqkcFZK2AeBj61rvv2i
+PcUZljlBhNC2ooum6ScxMECHKVFg6jToBVDhpVHW0a6ZtRTNIWwsgzFdGV67SyJjW3UfQ60DcAv6
+WaAGX1oa0VUVWXzoZ3iOB3tGq8DpuKVFljXLtiGkHc9PX/TIfwdHCjAbyvdy0ix3D3SPgZWhKY2p
+CoSvDr/HnEE+U8upHLIPb6ZXH9JPDvFnmtE/msFmtqw/CFGnBL7EY8FOmITLNRX9RYceFCnyVxk8
+IRr9zso3QRO1d1no1EyEaOEKBtGMeBSy+aEwmDbU4MWEVaSaHq4HND0FWj4H/OdBNdIs/Qq06C2D
+dtTUHx4nsty7ZygOOkSkKgq2E4SkgT9VJJoLrzO5cKFf4LjO3T1txiTk8R2Xt3EGLrVu89FDYMKA
+z1G4Kvc5bCb8sH9g6i0npY4iNLdJl91KaE5kCu/DjHdKHP19KvFPS/bdU+uTYsqPklVmAxlK4BPm
+8eHjDfLoWDT74dnS6TP1IErRfECMO3G+1Qyb4kp98LN5+Krs8eJrVr1Jq5k/BanHnXFVeQANZeDR
+0E/WubXEQZvHOE+dwa3dTBgyIrJWAvL5avYlh2l0KVBxdGwOtm98hQb1vV6TPgDIeq0GEvRQYLjQ
+o/HTjqMPjIqPtijXOQdQryZ91lv2JpziBweljB5NAjlldjCHELc2T0xtePea4lUlnDIZZ9cMFARY
+IIBkAR0IIyArgxGx3kWaBgbZgtKRb9Qk3/yMJgMIb2NQXlWD/8nOH42m+ACDfKcImP0ArSsA9ZlY
+Ge1cBhTtzYLQS4XyFsYyMNLUuuEbJyZP4aeB0teGRgBgKXxNancZBTEP6jo4OpmxLc2e2kVjOxF5
+r+R0bAJ3Db3sVcQhQ88wr1wIAkYRAqC5DXr/WLBmMz0wWKzdSHwVFkH/AmaV0TbL2JrObcUsFqhg
+r/IcvgD+JlYWWCW8HN5qAzggH4jkU+uhvHhLyydxwNKiQVSrvmSoL3sBtEbZ1OPkLCsDoV+iAKaL
+34d7wygPo9e9xlGPBZCfdVZ5+ykkKhTlxsVts9d84E8cE6Qmj42ylpNCyq49S1rXzNcyza8ZZXoR
+zlXJ/s3QWU+ZgB55/SBo/AOZtb3/FHb/b2btY3YneDb+jSPb/Lv/eGSDax8YDjlVDkeGZXkYrv/k
+0tYJLViBFfj/14r9Z6aIQ1oYn6Frg/twPbT3v4gTk8ZzOAW686/4+45snjdr4X+tlTuw9mmsMS34
++V7w73B4maT3xy858Out9tIN8VM4sT8vtOwlN+BIxnhJxkkedR/C9qAIDeqKtb1QwVMnXNRrpGvP
+dl603N/Fgsmu6u80hL/UVbodI/+rc1FLpsH78uBOVMO8lK2O7eB82BHah03HZFI99hHTl9m+1lW5
+rnxzzwYOwGgXEG9mTBnye1ERLomNeN0ZeDUnVWz7uvgMqvGesHXBbIa/b8722b0WIp6SE40xuiQu
+nYihydZauNCdel7yZpsD2uzLbeUBxm+bd6/weYNEnLX8uUdckXlUog+3OrJXMrvOExBqhgVZBdqa
+HnafetjSVAGjMyHEBel0z+NarlNcKdoM55oynLjR1ganYUQgLmjOyBcAJuqVF6ew5oxHu3TYBETF
+T5PgDgzz5rcdlsi6WNAXlDd/cEM/6lBni5LFg1NGL6DrNjxGpqXkObjIHEG8Googa+PL5KEY9MUn
+hgJikyiPM095Z03BJlGBWApUFHipEEKJVrKf/02O9Kmz5GuBDz5KMQY5FhbdMGFtLPs10WybbhfC
+sSGIKF2LLr7DqYxTcMqAa+FFt0SIKlXseZ9fxuQMImbR2VeLQqc0ZF9QRlTWTBxKnBLuLhqiYSbb
+Wo/fI1h5XelsDD3de0j5njFts6g4u0O2c5F7osxZSTrbyg5eYuVwEGvqZYtVOJ6AakdxuOU8u9aI
+oGUhFQh+tuOsvPcbZ9Poipgn9CuOVo4kcNURb607splVcuur9m3yu28CRdtsKPbl1M48Puh4U8z2
+zwQmZxXU+g6rWjSbChkOXy8Zl/yko4C3WnIGpvZUj5j7zdx7A8awy9OInFXFWZQWsgpORiCfQm18
+9TyWUV4bP0pN7psU8A4wa+CUe+H1VBjKTwC566yN1pXZk4ksv2MkZIrNn0baaSqcfm7avuneuCWN
+uvJ8zgYCZAf+PweTu07RD6s7E2MhNmDKpjSgUX208V3Co6l70B3tird1F7fVqaBxrLaSk2XVP27P
+hjTJxbLOs9MYTS5QHPNAx+eq487r4fWHNMn7VXcpp3FOndGlFl6S1nzCIF+x3+12nRvv0Mlxo7aL
+CSzGQLu33wenCVi+FlMD500YSbRjhZ1OOVa1kMWzafrEXqONQoCjreBFUGrEmYW1hlC7gjNzSCGG
+ZI6hzvXEAWPrVe4XJxtecOXKg/Oh9+bSUbQNNsNdqWJn1tkx7KgnzCVQwTikM4CMpFJg7Cx9eMeH
++yxtfivEeIiV3gZ6zq2gRJIzPT1uhEwKDY6RJ56HTu4UAGcdO63XFptoCDYzcR3j8WfFGCEtbCmZ
+iKieYtYyMcrybT/hy9v0lMyNsPIsQsZ4TiQdVxxO+SZRT9ofJ2XGyZtDwFk3CbGMZpzBs6zaRH3J
+xAVLOGsfuqrbj431QDcRvEn/MY9giLvtk1dWhyyIb8OYrYXVfNXm+Fwo50tMLM5zHKxO8tEGI77B
+bgc2etfE8UvZkinIPT7/vnwbJTiWuBmCZT/nYDLMMoupiffk+yiXU+QguF+PiDFwELEsaip4c/Pm
+QkDiuerjl1QVr3K6MyniEGgQSt2w+YX/cZlY33S+rn2bgRlGJ2tamS9jYoBTPJ0tQapMjni32S3P
+wqkBAG4i5Y9KyXOx3eSe2WI+jpplOuo+31X9I1P0GQvJWUYeDfPVSaMvjzwMKfS6N/diZP6uKeyZ
+I3dd0B+nCXMvrARBnIHI20sap8uMTGLazgNeBE1Px82gcnPn2uKXPsZvCRwMyJMgbMpwG7dpsGog
+uWuuFy7YbJ4yRq5lGE6/63zc2nRVipEC+KED/2y2a400KbnXFSUwRxjRL51ORDXh6FwPHS1g/cYe
+ms3E1Vc5rIbDAg+z9tBBaGAzSe2l1IwVQYhL1tMDk8XPVHDUvBJ6my2rGfx2bO9GUQIkzlCTy1DR
+wVHSITfqTCiamYPejI8q4l8s233nAXWhLp1J1wnTOfT9MA3RLcCwYjcNl1x2E378iYR4jnu57TrK
+0kjbLirDYyNK0/BE2tZDY3HideLDBYvyLWUmdz+IL1XLQ5HyiyEPAKSb55YeX5hWuyDXVn5Z3Aov
+2loRfJCJjIM9gBSlIFKnZzEGpc8tMYM8MV+k7bqOp2+q6niRkmBfmWAJRlnuS0M/hUKs65buGczn
++wyc2qIj2CwU1uRAu/DiA56tmjWRrivrKbo/LHIMlLWv/KC6xdTyrfxaPIDyumRVtmRFwaM0X854
+roSCL6Nv2LWI506jVpuTQiNoGeh4R1e6XIVCbbw2+XFZEmO85suGzpNy/WOa8j6V5BvIotKLhXze
+jnge+sMAbXcZDT4PxOJZc3VajdFhmiT6SuJvtu17iO6brNc+2yR99UvrNrTWtz7QxgFq7KC7xgkw
+60+AxlV26qfTfYyzvPS1YrLY2XR7/s3adi5uBSdfDxNp7Mz98EwSET2tEIXR7UNDu1qocXbXnrEf
+chfMH3FXGUu7drMtOny3LCKT+BgnBkdBCZ1Kiu4DEmJ+8eGkkiR4Bxe4OwZO9qzFPH+92NzpM8Qi
+7tqKrTdxbDZgFI1R6MGbfF1xcEImLM/mXJM38LTLfcoahsrng9HTQ1c2K4MRk2PtSm88vqPwoY0E
+tjIpllyL71OHzphawWs/fqm5WdCnhREzxrrF/Yvp+ErFMAYYWgF4XMA1gsHSYxvH5cjip8BfKCWw
+YBW8lBkRnCYcBpZc5gqFj04iSoxMFznYWPiaKPY9n4Zjlz/cDBSH2GG8C9vgJS+TTW51KQlu80Dt
+xCMuLH2JseQL5Zr0fy2gCRh9dfRctXYtPJS52T8NibbTbboluCb7+NxKKkaddlWhl9djeMpk9Z5y
+N1bzQ5QfAH8jHpqv7VC8hnGEDm97R6o6+0WSyXOfjZ/oDyeIutgbwJEuLLwGmxb5u40MghTlL73v
+MTN6TOaqD/ylETQX+i8jQlcdYQdIGBLTd9a2Fzfptp1jk1/gQCqdCQwwSnNMZ6sr7mEQn2snuZsc
+p0Ew8OmZLU3dmu49+a0JW9VN/VfNUcOP4Lo8NylhkoZsMLaBAYxtEhxrHRCKab1kvr5TQiGmyOm1
+nAI4WvYvSyte46zZ0QvVQ3eh40mA9pmTT7Qm1E82br6hS68jnbiKswi9dldjMp7j0FrnfvPUC44Z
+FTbshVdI/otcAWedqBJ0DfHVY8rzZPUkm+itNUW0TD3+Xrr7qo9HFNorHrt1wu1ZSlwIAPtRhHxx
+TXS/WucGTall04KoiZN732kby1Zbabu/Atz+3UilbhdM32n+WOAN9ILm19gmyQ4beIBKCpXPpTKp
+tjuONkG1+/9Ti/jL2ZS73Nb/8xDysb4n//K//1ctf1LZy+9Zloj/5pf443Dr/KtjObaDHkHyyHQN
+xt4/DbfoACR/bZJ75IBnDePPegSxZP6HH/xhtv1vq3MjcDILDn893boAOCFvYvLSdcSPv3aC/7PP
+zf1nn9vw+599bqt/9rn9v9nn5rpUkaO9rf5rfW4dSYisY+yYXmhROhucysJq+t275ns0GAcQcKeo
+dC9lYz9lMQ69Bgq6Ub33Zcgp0dHA0TDdLEaTki86GAzC84zqA9EQr0fGrdsLnuUQFrncGVG5a/EK
+Qp5hH2ekZ6DC9y7Bgeon5ZHZ69y5OPhyvrrjkMNr8xc9QLBREUAzER8m7T0JYnoaACjpRAM8H4Ne
+72PHnuFDtCaAzio4rCLAZOV6DGiGmIHGRb6Li++gz6YlFR2oCsWxGjm7KZfxjDwsy7z4SOhgI3LW
+U27zPAdM0wI0wlS+D8o/GZpY01N57KKaAIAJWZ3j76YxHMyDHFibfMXJ8ZOZ/iGiJrNIYI9FnO8H
+d2mWING8WL5NAZ0JlUUMn9o1EaMzhad6IHWOv8clzqG5MMqkvAdauQ4pbzYT48V14MWEmAAbWZ4w
+8y5Zanw2mvU91OxNjfCNoPGr6lnGNGfDpegALro+5IfZ+yQNZ50QIvcGTO2cGseAOlzIhIiOBFUt
+5zohfZBYv6mGkr6IZLyREduc5bGpWpsh+lXVo/cZ5qaU9rWKsbl4aXLnIzk0JcxoCFh3lqXvdRch
+PxOGiDR9azh9vRZT8FRojF39dAjdNzOfm75K44HL5A4Aa1+b5qE3StIB9ILG+rRsBNvPNDso22L2
+owC9Q+mCtHfoBnkS4SRheajjFNsfHhHi1G6vEZFRFmqnqo1O5oRp2cXd01OBUgePbdLORmZEkq69
+2ULhA5vMC9GymRB0SH2WpdFY/YalsXdZPKzjViy1ruLUnmesc5jK/Tp8r6E9DPmHn2ZHXYTYKbsv
+PRZr4A8rZnd7ggefRxenty4s0Ptl3lYkPtpHI9nEwoSUPNm/tVT+zvPgPs3I3iCIwAaAiDKL8QUb
+6it7uHQ9DaFJd73+xq7h0zMB7cbFH/JeDr5YiJOyB19lPEq4vyEFUdRX1gCx2PnKonsJfGvP8ipb
+1KS0Al3buGbwNFXVbPaWCydsz92Y7agfXOctmmtu8uFirOqHflu5xIMHuJ9UhSi5ZjXo6gW5EQN0
+b+reMyo4oFHJRy2INklKJZqMtoPLvdUM2hb36jatT2UCHMTEflh3z3WCk8nqOVUrZx1adH6GwUNn
+ts+RlX1NwCJ66lMqOvGU65FyDrYFNj2r7s/T1F3cKrw5FdcDJoyS2Fcc4lnSmzv7sE1D/H3BrmXf
+sICSeb1zQHhous3uEX9XkO+F80s60XM7EO+Vztpqk9/J2BLNhZBYsdmY3G5phPY5Z6sheZoZKZme
+utnXFag+YlaMV08qsDcC8AVgs6OV6uexHh5HrI5ZEtIZ1q8IUncAxcejcsS9sgfW+nRDU5U5lR53
+R3KLihJMZXRsfdqpEFPkypcZqPBu5dgDkMOmoq48/VJ+ztd1Gba7qz3J67z7nBADJ1afse1igm/x
+Qgcr088OfMiL/0PeeSS5jqxZeiu1gIYZtANTEtQiyCBDTmChLrSWjmHtrffVH7LezXwvu59Zt/Ww
+ppk3I3kZgPsvzvmONriPVMt7y5W/fKx3pK3giBUFENc4cxYdQ7r14IqXIkrfs7Y51YVpYMXmPTZC
+/doxbCSsGqCFGRAQoYZgt+1mWYfJDds12kuRnyIfD4LjLxm6vCnARCIxMTHVtx0ia4fhjeYkGzuo
+iUllwGYRW2EE51LDHsjecJGMPBTae91iaxAyWGGA2mbSAVNcueRna/gKq44mMiLouyu+6xYv+6T/
+0Xi+pal/VcoC2buz0rgmrHK2senbtnHPY2av2sm0YVJzmLr1Hggyhr3yUeOl6pLoUUbxSo26974z
+b0rMlnJCmS4YSFd1t5ZqccsUn8RbHaU+lNoI133KGgaEwTqKmfVhTkMctEJ+FC0QHrSeX9RrkSg7
+nT9htyC8/LHYZAKYgt+48CdZTI3B2xDVr2pAPgV00qufDs021Kvv0UgekV6wA+h3BXrlwOpvCegJ
+q8w+zbL0yHUEDc/ghonssO4LiKNusEkKlHrK4A1lCNY+KH8su4SjOMaAJNgWcc0+GEH9FCY1om7l
+moDbL5JfKQ1+EU9e4M+5ShD2o9D/ADDNJCbyt+DImdZkwaYq2g8tKr6KnHyi0X7gLmL9oS2zpDo6
+aU6mR1ChVDLSVRlWXthX/mk0rYVbOVtDpqgZFZs09waWI+YldGV3e2q/9TR97tMCn0TMVDUwUWxV
+5mEQwz4Qyj2MNaLXxtXotuekAeDedqtcuPv5w6dWccNEmC7IVrhZBbu6WSfrVC8idL47WBoyDVgZ
+2HvFaXaR0RySXn5MWX4ScBaLKCbYWCyVtE7h/hivvVt+Brk4Jq4OFXEeHRNbz6IK9zmT9MFf4e7b
+Dra6tWvnDeHVWkeE35Hyo0IkQA8WLWw8mWCCN6MoLynI2APE5F0fy1cyghZNxS5DJSquzvKNNY5H
+VXPBv2GmqyYwFmamXgyL44lNypmIvY+pnK65kA86v9hinuTk0NimIt0CP2iIG02Lrdk7gZcwsIEo
+C1GDA5p9zLDNQnLDAWaqQ/2IhmxX6GxYUDVbjR1wdQJCxFw1RCzz3Lj67Ek4rAb7zJx+3Q/iWw+t
+d76rfc/OaYGf/4gU/pL4yaaeUOkzT9sIMKalrT8HLVKsVLoLtcOGlJXYGRBHoxIW33GonOI57wpL
+CuaRD6dsAZanVzfrfmCHoWwgra9AmxwM0D2rQkeojDRuQosyCNi9IDR7lPqVUa6oAxm7N1SFvY2+
+g3JgSsy7G1jSG7T6Bi4DSq4M9xPC62CwHhHSbrA5bnv2sGBnSJScCCJ3qq2W2e+20a8pIs8VilPM
+bIz6K8bocaIvx7bZjDU+gNFaZw6eBJn2n2M17Rrifixyd9IabmWFaXMp3XivA8A2En3m8Sn5mgH7
+Mp/acwqeuPnjgMSwg4uR0Nyt08/UEcLLxzIC0qhCerDR6DHV3YEBIspUnQAc+qzbHNCVzqozCOQi
+WbYmPSr5CrnFtUBZ2pI7lNmSpYXfOdwyT+eMBYC1SwNzFWY4Id3mJQNdKixik1tlROgzL3JtNMtO
+eCYjgZc0vtWAhpZsq+HGsEPp/PnSg7gD6nRUiIafrPxua50H+cZryC1V9cpaRpC79aQ79CogDRLY
+F1kXembuboHD4qHs4hFWTe7uBCVWrEGhbwRQTeSUB2OKqNlH65c2JBv+c1gPuLz5PqKxv/H98vIa
+N+QkS2NIV2asey5uy6aZSdGo7AoJIiVnBpyCtU4j9SHX2Ja27dVWio0VtCefQXSGYhMR8lVCyjF6
+HsEODXSSfCfDbDqVT/MPACbzogyqxtvs39CEk6BK7llb3Rq81Ab7NKXOHlAHIqRzyJkS6k3qKIAi
+i1M6PPWx+0zc9LJDOdRB+QajOXugdMKVfBezbpk9EsIeLUMbHlcnYCvW5Q0LOvvG1n+yM0zjU5fd
+pS/3jtWvw7zdVZH+DATtbLb2O4xgmoOyAQJpL/SJ2PhxIFwjeFaGEjR6eETTyo9KwTuhEhyc9gbz
+7kVBtkRmEToGmd4nYhkClW2JBvuRSTI4j6DgqveBaJiMViU17TYNCI5nnYxyUHxNaKdADhOMzGxZ
+cSyQeAEVVpZ/GLyt3MXZhpioq1MSc1Gr34FiQBsJ2U6ReBcjPy1c2XiGwmPM0HNTTNGWWh0Oebs0
+Y7Ai5YxYS8d9E3fLWqmeHUPf66HYaWLY0Fhu7bbeIfCkli47xAmDZw8Tk1X44lPp4GWb45zsmX7X
+0YXiBXsYjARfYn80NOhCAhN1Mmo8rROXSNzTCWA2dIfiLW0Str7Engztc9caH3gCyzUghheCo7bC
+Lt4zYV0DyH3kJBXIE7T23IzNcVLdbm2k07VOaWIUIgepO/wAT9ZUU3rPCmHb50Y1CVnLQdqXeNaV
+TFsrbQVoD6WUAwfBCX+cxBxWmm9f23mFxXtYav6iVTmUx+g7lvpHoXZPkTLAE6QSC6e1laTOGX6Z
+sdSb5uy6VcXOEQk/6ja/0ilOcAqwXyedeU4Q6/bSMD6SpngvdW03Kjr6PF65Sa+Puq4/O769U8iF
+Gutx406fiTB2XR543EWbwf2lkLqYRubdYAceqxjANNtz2BTpDqd+PJMBrfFnTuTRdWhBjZ/lXjY1
+z+5Mc8gGwa/d2tmh3KRxoC5gcG0Gf8DuPmwUQXKUooLYLUoqfjQRPo8FMIhD0fH3yDtjb9Y/qDk2
+1lCdetPaCC39Cpv0oynUnRJhmlBD4AYSVDbmzzRi5wSZJetTj0ZE6glPrsy8CWC0XZDdrqrvseII
+1J/mCdHOJUIRS/4QUpJIkAc31W9Fka97l3Js0vu7oZTX2NUenaDWlwMvZGjC5kttqlSAqHsdt3Rj
+hofeEA9V7Z7cajoEmImKxiQ+qForXfKlxoSik8d5LzuOKZs1Xp1ZG/IHCMveUChsrPl8qVRPNcCS
+h9lex3Ga45SGVyeHe4TrtQg2cardrNxfdAYgd9jkFk+Ug4CiAHTnFP5ZhvGFOuujr8YHpY3WCeJa
+VQGAQRxNlRBYRqB6Ajda2mzQxs7czL2hqstkNT+b7Jz3JILS25BbHPAQZACdew5/WTgPOedkXhaE
+TGq7gkEEePWc5AbMFua4V5rOo464FnG2gZC/hNi/Dq1eXxREiCyjNL47BgeFpacep3i7kMFAAPO8
+oskNgU2WbjhFLj6hdBS9iV3HMLxsVpT7aPusTEVj7rChrx322cjPCTv88JGjp60LPUw+Q0p+0ZGr
+l+NMxOvJZIhh4Y60tRkxUQUSdztJj8jh7PUwEa2NCN5xGUL0yOLDYLI+zBaFqz9r5uGaIp/H/izZ
+lsckPxqxdrA1Mo2lw4DCzSnpZv29G2WcPrMif6L/ILvh1SlxpHWzbD8lvyUAEo6tL93iS8MlOIv8
+Efs7retV7fSYqBlfdyOISwPhMrvvm9koMFvtK5wDMfdRPFsJcjwF+nx0IOrezXZ6YEr72UtfKuZF
+ne0IilOuGiVx+Qj/MMrjXAj86PrbGa+jkPxti49QTo6JdShRUkZ6uvptf89mqWU7OBQI8cdsdhdo
+MSM0mb2KggF97i6d5ZqRP6La6p7HDD8wes7WHqF7xpJFN70mhj22c4g/Z+t52RSfwywLzWeB6IBS
+dDYolLN0dFCKg4OWFNg9PHQbJowYI2Sfir/70zEuZjHqbBMvUKf+zSJupf4hj7TNbAwPnMne/eEA
+15PkEORajU2IlAffrY6z27tFJrfRmEoxNIIZ5b7+4eOGztmK9JQq+SXqYzhPUctJq29HU3tqKmXX
+YssO48ZZzobsosKdnyLXY3eJBTu3m3Ef91PA9zVhcjBSkNTl92y2tiLt9ttoPY+2Zpe1W5D6jcMa
+h9cvSuAC4y9y23/4qfNIWP9kowbXHXt/9063Q/kvdmm7nCPC8EqnvfP12yTN4G732x2taIay0Jje
+6dAbF7FkGDhZ1cau+e+KTN0Y5HuqOR4r5wNa8rfTKdvZ5qybE2rq2dwcdPRp/ydXM7fVCiEieWSO
+1zMGtfHXL2cTc1mLX393L9dZt5udy7kw2SX/q205NEPvt2FZ5wpibQutVUyX2ZtMG7Mi2cvc/N2M
+DJ4Faqdso1WbBg/25Hz/9h5rne/9k/GYF8ZazT7jyMVqb+YYPf/JXkx/+Ohn6nqS/sbmF0wVQIyS
+bxm3NPC3URecVZBfFnW0LMxiqc75tFascYHRHA32HNXeaAczVlzw07AcIxj9YBiRjIQajQ0dCSf4
+Qo3H5VTUAMTFeIiIdY/iusHxqxXbHPEcHF4lDrY+vUsx2QeonhWINNwsE6DNyh4OfmYcwPswTgnR
+LFE0KF6ZdGD0pX9xZLMpa8rEgIkZeaJ3UZfFyncFT0+bHYiJ21fCPyEoIXY9BGcjKP1QjOs6gLfO
+34uw+oVs5LkI0k2XM9gQ5D84UQi7IAlWYxWvmKw3jV94ccOkyFJPTfaFe2QXpslKr7k+O/3BUosV
+g/GHKHfe9fwpxrybiJ7iXOvWpfCXWSDBzPNlRCBWqzg450BNhsx/LhUm8pMt72OQvZcJ6iT03Lh3
+EG2iqlEIaFsbpWmvcleiaWuqljFnTP6OxrUhZISaHBoRYzhzTwDVo26H326VHktrRkxhpvXltHPx
+Xpa13EXddMp6ZhZy9ILEvjtVAqjOJAvFGB4IVXuRhIV9+Q3OEi3G2epiFBi0tzG3nqyck0r2zYda
+qZu6gRiEQgnPNcGDyPNiims/AckeJKk3MeU4EK9Fah9AVzqxjB4f5q3eF8yYVf8StsoPYLcT+jco
+TpF/80k6KZTkfdAtF6PMmB7kQD5nivfLRSpazD7wMW33nSnInPFjL3Squ98kFCOZc6GRWdKIP9WT
+45InESNfdpdpLrFzOmq67rKY+S9PrY27uk7LfIMf/yYI/3Ea5PkmBRNbkXBfada2Qz/IA+iuwfFh
+fbY2WZGcArf6muM+DK1bKqA8oBMxeoatk0YA8bGKubjCmByg4wh0Iot47DILgrtCHxRqOC8a8MaK
++h27xdmcjQp6857578SIvVuInSJ7xDTMIJmQhqLoL37gmF6fojKCVlip0dkNk6cqIogvGLZiMl9J
+bdmqAx7xKg32bp0f4zhfVzi/W8VBVmtQBMU/CvZ5KcfjoP4KjGRvYn4w4vFxMNnGtNCBycs9qMqn
+LzokF+6qB0ND7LNHHEdBB44esUnUQ1SOGIKIg2oiFINd3R50B+Xo2FGBTQ+2KpesVZDb4sMP3Ncc
+LGClNL+mwvnszY6DAH+VcJqNxKmMpte/9jlZ6r3BPcWS5qNO6kVDyFGREuJURj+1w9UVKzvfRz+G
+Y4QZfI5oKOyTq9kKqN9Ouw8AJqkNFO7ByA/Ywh5U1gSo7pGvIkIK63Pjy1taRGgvgW3D3M384eyE
++h7rPgVNqJIKaNzcoS+WsTut8GOh5dH1lRiZkYx5ANdS9Ae/ZEw3uiceYvZ1VvusUeJ40qYQsnVI
+WmrxDkMb8k3eINMNfrmkWGsOthoTb/7shdMrZcLNXm9HW3zZXbmFKIH6RZ/8Qz1YMEAsQoTME6i3
+B7edPUV56JFRhgUvruRqdDhLDU7hSZTsVToyPaSAwgxhNyTzqxBb1+SBKXvScfvknMjG2Yd1fLbi
+Jj0mBfiDyi5O9qTcO7XEixOv8TzxfqLgu/k9AUG1XW7oEduMKHJyh/nI2dqidBPNPOXXKFcSLduw
+/HiIzMFrQzkbH507iQK3gMY87+pTSKBe2bYfoix+bKxfkPXWWVNfEvWpH9lQpJCTVl1n9BsgopQ/
+Xfqep/Fz003ZMiM4eoBP3KfmB2f6YbJpAckH29TKgPBthEY509ma9NRn8YzAIPghgflqkw2pT/GD
+EtFiVU75RMzm21gyI1cnojEMmqz1UCvXSGGH1Cv6KdEs3mIYx7Q3GhIlqQ+7sVTBvYuVsJvvRnFh
+d8XXqs+AzDVYJfidDfsSRU1lCgKOW69LPhKN+6Ic5gIiATiH2FKdkx1lvxBKMSGslXvDUjg3IG/l
+ZUB70mTrvKQgEBVjbpz/iUFwTAV/AiSzvA+RfYlTMAy2IXZEDZExXnXbJi0ZjLrjV+tyGVP1eLl5
+aEmm7FpOXqS8a4YxoMl9sCSqmd8NkQKWZobDkUIclRW+a1hmaxuNtGqBPcBlm7jXYYRIaGfkiQ/J
+W2umt7BXwXHUEFcgRIFWYFhiLbP5EjcididczARIXykez8i3NnWX6/A79GWf4UotSv8RaByzVlI4
+xtT8ytvuzh6N4YHRszh28bn7+O5hyy+FbC7ZSBklID61xs7Ura+cZWyv+Iem5TzXBSAbN7b3pYQI
+0HUZjoyGBZJLEkDVWdQQEJxVE1quyL9JvLiwTnuHRnbNOrGrR/Wml/KqBkDTSVPDBlJ2EEFiH1Xo
+SG8yYMXNmvAMJPIeaJrk4h/5hMarO/qHXspfDcPgxUi/aoWlsZwsYj0kvIRlOeCTYSLzEhjq4xAm
+65JRwTSE28K1b3HUXEOcoJ6rd14J7A/q65um6D+jSaIGV86qFNaTFs4vXLbTTOWln8ROn6oHtXRY
+5LbgvbOPXg7bxOTfR8E9nIBeB5yjdsXCWt61hHqJv/7NjoxTPITgk809RueL2o6rBJgbzLJrrc1V
+nPOMAXDPvug2cryGhr7q3f5R2rwtVeBCXtNkvSP3kpKjMR6DpF03WcLQH0F3aUAHzr26krGXO5Jf
+TLeyBUP0rKHeTLQntUwJlfF/FCi1fTR50mhWCLGZtDc6wXlJAW+63P4PvQ51U21K6Lk2Tt9YN+9D
+yuRvhBdVDMyE3fArt5RzVLy7OZID3cfmkLf9GrjvSz2pXwEBKyvpl3hoWOsv8KgzuMjju9WEPxUH
+Y88o1A7p9kPmDP4YXcnJoDMMnobkcwDI64xwJzQLVXGawP6qMDVDnMal0GW9V5qRzo9k01zofrRn
+3OPiCwoeWFGeEHMqLmeGDx80AtHoMzzPs1+NbRCRkLFTYdJIpI/h09u5P8y1NopFE1vW9VafkoJo
+MwW283MjeRimOgiP5NKyt05+qZAJ/bZ8CAf/jaD7szGyubUKyUoYLlBeHkMV72pQHmUdnkbVBppJ
+CAVBqQx/VFN57B13A6DnPe/BpEXSPztZdTOMcVOFGpE9xM7B7mm/KyU/t1I5IFhXF2GOvlPtyher
+BW8UB4A+See7Dj1Wcqfvzxhziu1Y6ldJRW5W2k5zNWSl8KTV0eK0wpVQmXvV1JpjMhWzETLk0jba
+DyIEgOOw2NSj51iLT1o6buyh+kHQzGkjwLdnodeHAJPD3EywX8EINL7TKIY9mCOVratxVdcUio4E
+wwP6JFSHT654uneBaTTOL32g2FvLYlgvaMVTEy+Y6hwadMBMZR7BquXzUJKShLhu7vjC01J9A+XM
+APFaXLKOL5doVW8MHDnjo2DDGeaVImRLcuPRLqYBIiqOp6HKLrDnH5y2HLdq/2l2wbN03KfEnd4s
+XYFHr5Ep0AJ5zf3+6HfYVzSc6TnJH55EFkA3UKzF2Gf0j87Rqd1DmPC86hVwU/Cg9coMoKlOZcgu
+r3gInXhDdXGpx/QMB3pbRwK3i+CcdBk8LqZwUCiSoxXfWUpqhfLhh92KuGM07rZSMnAGJam+KaXG
+dNSChCnLjdtzwbQs6EKlkWehuduQIicrWETbFZoaKyG0iexqHgY296c4kc8JYDiYlu1iKHmeJ4GT
+xkB7EIH7d0XKjYbvRdHLmX6EbTwOAKMWs8uUHdQhkj2wpggrd2O5zoEYPKg9JAtP8qZiFaE78CK9
+27rQ9iNSKBZ9VfpLN8kgatnhxpHBW1ZhJWlKZT0PdcDWDoQJNf5jllPWgPTZwBknDIV4Ecs4DQ05
+MaBUUpl7HIBemvHoM8jW2OgWjXiQGTRJMyEohWCGbdeJj6FpHwItfHYD/SXQqBT9CTmARVhHF9U7
+F851kOXBsoCwxMOwaGo24719apB/LDQnRkg/0ZoNFpJ6PgTxIcFHbIDB6TKDtEeC2XR3egoZzvWW
+wtyHoLY29AItfrKnmhrH7e8d4vh47iHLol2NUbyLdHkRU3VUS+IzNPa1TjDiwMapbyQ8SgIXh8fp
+/1ABWFooIX5u7vRyozZWeKxyrgA5qYf/FrJmRL4of/89X+UUfTRt8R+3tvif//nzNeU//3GpP4J/
+Ya0gjv6vn/InaQWUiXBIMFINV6BW/lPZbMK4JqqasRqUa83GUPuXsFkTwtRJB3Z13L5/cVaIB3ZN
+NM8O5GvXRORj/79EK9nG3zkruiaw6romQcRYik31b5yVvy7RsccS05Ljmn6HDMYrt3lOlOEYOdUv
+B9DSoiPKAH9ACjZfb26QLDRH2QrFuBKAcrDrgawIcQyrbB2JmtkvsWJKwDo6UuulhQE/LvW1GcYP
+2pA/EQn3aJQVEwxAa5wTbs+sa583nm9dmxbiv82jXGnqBenGrqWkGPEZ4th6zhvts9ceG9SCCNxW
+KQMRTiH89Lg8COXWHkNlSvdu074ravxE5pwX8vqQBvHCfNWzRu08mB8Rgyudt2xIfxLxQirrrVfV
+N3Okbejg8RZsGW1X2fW+/YnpfdVhKhK69s0enFWRZJAYi5U/KAtO83tYOqeW99tObthNFPvdQS2g
+sR7Uk6vDQdByIJgcDBrEFs0CcNALJIh5AcBAnV4GP36uUgCCSehN5d0gDT5gpl7ULYyRPXndtnJo
+MIjl4jL16C8s7XucT6OgcvHT7vLep1jVqGO/jVKsSPRboM1dCA4zW30jg940TqzPtknD32pEElJu
+CpUoC0MuWQWZ8ObS+UBEiHVDoXNHDALiE+tzy8EZYlSKgojcX5bppayWQzVsXWsziY9Ay9dyWo8D
+u+huPnpZ+327oDTCFt7pSyhvwoIrpr/6HNSTcZxxwaG9MiJwV0SVhgQT0h7bWvjucLK38xFP/wzE
+Q4X1ULmfeWd/FIX1LtyUCUyHS0tJ07MWNB7EHpLLqy/VhmasMrunqgsL8idYywnAmOK1SIN1zB0T
+zpeNyq3D1Qx4GT2Nyl2UjDWe7E597menneq8hCxGjIlEIE3SQbXBSnYJADVNvgbhgzA7Ogikeyni
+r441b+AwAfQVJKGgiJOcMitjReV8K5GylWznCUPlzmQzy//QWI/5K0/HPiQIG3sYULjCSyu4g9yp
+YqJxaLK3RIeVioQQ6QTCh6bf6KxDGn1C9jWnGoOnzYqdHvczIMNLp+mAPTbxVC5vhcE4gjUSUtVZ
+RTLf7iQ37WJ/INlGRWRHe/EtRjm7j71hZm+Pb53EdQ1Wpy4gl4b7WrALvqQ+nspgxZ4F7Sd+ujbh
+NRoukwoNJNJe3AQwbnRo+vFUi5OSpXeR2w++vCdce7ZgUz4SrpEtk87ynLlCUfMSmhfWUaen5/SC
+rEIaWD0DQdiFSQaDDWKFH+5sKiCSRgvqncCKCRS33iZtehMCd6S+qTVwABRHdhqwUw+eneBTa+BS
+qOF27u7rclvPYUt5Ih8UU7uOoyATt4HT22GFTYxlpLSD51akWJOTPGbarsnYD7ruqcCgR2ty0nxN
+rpxZnWzpRBTqVKnd3tezD9MeNypFnk+x1wjzGVN5Pci1Vm58s/rW7S/5R1HYDY/klyAnyKid36sB
+zYubskaDlEMhmUTmtW62AjRJVD50Q7aU87IQuxyuEiCc5k2Ywb1tqTGS9CLV+GyH5bJJuxNLaHDx
+BjWqyhJqMokNiz4C8SlncF+rgxadnjXUgxWlbWSZp9JszpEp3sPcfuqLb5sSWJvnkegLtkw+lrao
+Pt0pfTFmkZWV8nMQYApEeYh9MpMhNRKYITl2KfBtK3hvBnFTGpyANKU9Y5K+O2rNheS3Jdkedvmm
+Rc9ZD4zWTd/DeNMbGICJQmX9yImEOiELHDZTlPBEiTTHgap+CBnQmZ6uXbpefGRJ9sMXfLBoAqLp
+jLUOjlfsmelrTA4JFnymCe8x8SRZjRw2X5E4TVI3ISZ0EQXQYaCp9TWqWeu1R0Ng6LVJMWL1ZM6N
+R4uiqc5edLF3QwFLVLsm5q6dG5QxD48lHUuEANvq3bVaw+lu1qVb3YIEAEVouXB92HpTznYU0wix
+lGad8EeisoSIL15sIvMKXIxZUx0smAYi3rrALGmxHxWlw2bmq4RDx49pVBGc+2HbMDXVlBXjI1OZ
+F2SFp7igxkZW1k46KunyOJjVq0lfVsc6YJd636LrFtq7YzFkDMUaRiLqj3XscuhXAefGs1mtmXAc
+pPoTGE9qnqMDkNeKVZYaMYjWdda5pJyspzFKl1r7bMtgr82tIs8y+THY4qlq/SLf1GhCYsrCGgCs
+467Duvfa2t+KPtkzC1o3vVwZasBdIu/TjN2qjWVqy73VmgjfGO5ebOtqiqUBFjDG+l+v5ljn1qgv
+6Ok3mf0dlNMmm74cNXpw/AY7KlQi2jTmjinMLfZPF2nq0PRprRyyCBJoDY1uXcZwWoEW+/SdTzP8
+NJ2r0MMHm2vdIpWv7DCSDuecGbfJ/WOX+xAB+lhCkKcD1w1lLQWDVBSzlrEJk94zaNfgXV7TwTqP
+Q/5LFvIekzObIjSrkTjEb5FJKFBSPRoq6WcFEcJB8OoydSfLRzBttBBZOYdRNb3EuCiR7Q16id6q
+KgCLZZec2VCWxruhPeRtuUwK41gN7oWqyaOme9aYM8gaAXzOsLPS3+s5Y3EgTDtMl8UQ7ooOAzdO
+dFNblS5YafzRVts/C4W8u4CoueIAcZ68CBNBHgMS/eu/Q13Ous2mbv73dfkfdsOSorz7zqN/Yzj8
+xw/503BoM1Wg9CUjBBGeTWX8p+EQKyLxMsLg31NrU33/RdOxdbJFXNew5jBUA2riXzSd/4/MUwSn
+/3tlbglbs7BtYDjkswDu+efomX8femqQYY2Q9f3/Mvc0YzHpifbVz+F7k+S6qbSMkvxopPY1VLg0
+jeYtmYk3LTEMfX8Ls3dpvHdVvnf7T+lma81XPutcrUCI9OdBg1rxRwRqqpB5VTufqpkgOb7EwMfQ
+h1uPE8XIUIuI+SkIAlOliARIM0dfmqeRrD3kvkOx1JPxzfqXXNTOnwCk5CAZIipXgLNSLCzYLBla
+WL03QBIgClDx39AMpNyvWTS+6sOw9eN1aXpGiyK68AbQc775GinH+m8ZqnbGxA90gA0+darjF4Rb
+H2Wp7vPWfVQRW1N8t9ZNgzTNxs1B5901K6M41v2LmZ4S+yCDjQSCGM9A/6e6fPKLs8ohkPT9LprL
+uZC4NzkxUUEyS16xLzfuHMlmWF9a/gXuZ1lVJ9U6/k5q9QkN19PoEujglqPX0ra8rH0kGWahM8CS
+UKYbsk2E8xA5XB3YEGQMId4/D8iO9ahe9GpLOZF5OlQ5M/4u4RVYypcCfQ8LxJzviozCiyCgpMEu
+Jy/CzIGTYf5ROp1oS2SRrMfI7TQ1uUUYW4ZPQXye7O/atZcMC5dqBb11Hb+glWeytFfM7ER+VpVA
+brQ/ob3p8amyWwiHM5QS+c1pNM5p/UWPCQ1I2Uy5tUrwvEvyy4OzOR4ty3yQzU5HGq31fC3lfQ6U
+VaIfTb+bWXfNOC/j7NEyX3pi3yDVu/m9FBXr8lUdfDjo9jQf4u0NZrpn0haxnYfx4sBFt1BULmFL
+rYkV8RSigOfzV0OyQ5hrRToHtpM5k7Zo4k2U5Ue0V8d8ri+xjhjpeP8dTxvUb/U8i3fMpaOQIOFO
+N3N0CZFVb5YxHVQ6D+Jpk1g/DGp/YiLG1Jk0tb5kqzAvtCp5/Cui1mgAIbgo5wmqQSsXb5SE3KFn
+3GjIrJi3kmw0XFgpT/qnSQyMAdCbXYue1AfQBv+VXht2xbFPNJ1ZEnCEZm359WOQstrQLj5fbiiY
+VDENCuz+1oCIR6Md+8V7ZcmN7vbQA1z9NRhRD8rsTTIxW1C3CVteU7UjL0nSRqn8SYz/aguaiptu
+XQ7qo5NprMGvU5K8GiOEbd1iRzNpv5rklyQ8xePhAbzQn2T83JLNTn5TMzwEPamIIlvypiR8QIZO
+qyrvPs2CxBIdXIvCnLEtwZxY9C4zjrSS+hOUBj6jvQjKD4v6urnVo7XoBnLm5ZfV5gcnjj8zNdj3
+DZEO8lSHctEV2cWsD6OjniZUmmlreLWebHxgxFbylvp8GO5uXENTXxzc8Nto0D+Et7oakEtPCwV3
+IS+19aEYqwGYpEzDPcE8tTjC07Br1EvIC1NAx5baX5q4ROHnHHEmLCF8rmx62Dz8DrVpbWop9IHu
+5pPJq6ewgxDx5ZO1zG3C4uIMDVV1nWintBIht6lsB2M42aAyldE6uan1FqXu1UBmFdevLtkWjFwJ
+tgDXxaCgeG4LHoGcHIt8HxSgdzrj1rl4D0eOpYyNvLT7LbzTY2Qxg+izX2EAViuMn5CpEafn/zLd
+8hhADGN4X5CxII6j1uwm3TpHBk9rmfXuAaPFpUr4p3iC9EBuQv2rlRVnQbEPETmqLcknKou8AOCq
+T9iV1m/Yiu204BkmxtqR8Vuo+GQdaFeoLjsd6AXd7q+ycj4MHrHKusN22FT87jynCvYpuz6yb1dB
+lh6YfwPmOCIBAaamKfycpQCuX0RoW2GpjA4GMgbZusnjmVnASKdEZXQCih1S0p6DFlHDg5lZ+5H5
+vRoxjgn+F3fnsWS5ki3XLwItgICcHi0zT2oxgaWohA7ogPh6LrQ9s0dyRE456bbb1bcq6xyIHb7d
+l5sFTm/TeZsqzp54N5+mnk1thTnF6u+DuCR7BVXdDN/zkpgS6bzOMjd+P79P0EB2JAdotgJBRoeA
+qZuXiWcM0PMrfUGnorg55Iawlij1MQOTGw6UemEVfMmyWwYLvQ6JSErrQHQx6X66kCCYWe4tyG8d
+axmdXwGvj1X8zWr+LqYzu6UcohaHNEOowAwdFfRz9TMeF9JGzJDoB7mP0TydHPzubYIPgs2GDssL
+/JVnlDeifBye+RsjU3vTxQSdAdND7YsxfmNtse2G+qDoDM/wVHvWme+sOuNmwtYR8zIEssOpZqZx
+2WKrkrv5Ke7NV3NyDmFDJoSOlqs2aC7gcIjjvKYusX6pxuZdTv4tLPVDbPdnEVI+0YbD3rb8f0Ea
+s5St5pcmoShIJQgQbnxzw7HZdHZMyEpwDnUQAlhgfGIQ7Vv2bD5AI5pQJEcI/qHksYQG+tX4mJt0
+5UNEyU8eq3k2wewh7fJqtTwWhT3BCrPxC/X6SDzjPJnZv6z20ZDoauhlcF8q5ynMJ/qXQJXhhAXJ
+VXHg2bA7RvvOKVwemkXZiwwKQdqYI2GWUjhqEJEk+6UxqgaPZVAOG6+PnbWIGWBkFkDTD3BAjK3+
+ZMH+5Fd+Qh8YfR+5w5ehbIQgNya/NjlWv2qJTLB5TOudi+zR9xazS+hfBXdWY3g/vLxNKtKS90KT
+KKjKmYcO1T5hXS4eIBW8a3PCvEZRNfv2p6SzD0jGtwwyYTT0b0SE8TziDCvVX0yP5Tqz082QzLtM
+sSV3DHQ/ElXuhBMLpt8KqRnLu30mqLNvFb5V0nC73rBwCXH0R6GdY8xvdVLmvJoSVsn/udu7+5H2
+DDf02Pm35jHryrcmlqCQUuPBMWjJtGZsRewL79NiuI/1gvHvKWYVBFm8GNciW6uYOJO08mfWLptJ
+ecRyrLeaV4SbtLx8fd4fxqptSXNowQVQiOQb8MuPj8JE2+elgCDbsAqHR7UohgQf3GH6rRJ2urM2
+Hmyn5Ke2kai9AIpzaXMtowMTwOubYeW22c3kve4txK8kFnchi9011GhvWbTXFCxB/qqE9y2UvvP6
+jsI9qPqzZT6bjkbdtvGPZXP629vYCxxMbivtcDc5NYW9jriY2EVX8xQtQJ3yq5Ujqzcl9fKaX4xw
+FBF3xfCk2vCv9nhn9/2btmgPdcz8bEh7yQwSaXdWme9cRr9ApSHlnPqJ3DgRC7QuoViqzrkRWWBf
+uSSfq3R6UHp4tH2iUJbE5xzYHVOfYTerbCJ+bMJis/yIy2vBavo0AJstJeviLynVVkfjg6fwakx1
+8t1kdgYXvb/vwTkfUmKw28VTQsjrSVmLHFAz0TuNvxPhERnmkObYCeD2arshhz9+lV1WXYVJibxB
+TcAqHAkn5gWFqIm3j3BsSmIzYz3cU9hOakqrS5YQsZJDegpTjv5eaiF3NEufAG1ZNWxnNcRg65Ba
++EOvTpL99HW7mVUCjZHSYWl/mkXUnojMvEJ1LzZ5S6WI+zwvYEfBxjDvhV6Zjn10wvDmjUCxqdQL
+SsUiIv+n6eatijfJyLeObXEtLFGsw7T7Sl29itLhRzfVh19fyire5blzljyQ2NyepgV3h2eMpLzb
+RhsnRqhD02XFZuBKml1mWQ2ZqRvkW8lkmH1zdmuAWM73lXAwpblvg6SZvSvqneKSq7yoO00Va1NH
+yHSTj/JPBFhT8wznVhb17yb582d6qvi7y27rRu7LIIjaJHl+gJJDMqbKzsS9jzN2mgTTkBP2+873
+T+2yHEBw/morv960Otn7fvHlIuN2YcyzrxuCtcSVtxitipgKPY1iPNTJzRcgovxl8xdFdO6kI7U4
+OMrszn+A9U3bH+wx38F6lR3wVOwar7srNWli3h57UyOwdp65x/O6K/vxzWiYv7I4O3hFYK/tzIQu
+yEtbdMYHR2rYnONutnk/G5Ue0KTaU+chjTVG1x+KIfa2nE8eEtlfysI8B3OzjS10Z3rkgrWh3GsR
+xh92Jb89ZzwNrB8amwwSBlZ++r0L65ESPn0nB0wZRgACLTC27ejp9SgnXvf0mDS2+O5pqrR79gNu
+UO7LkTMK9/x1TIwHyJEcg6tkL3gLQGk16HivtwaQe1IkDCRfPv0CtSJobRQlhzbQDCKuaBqriVa7
+BE7p3z5PjfsqU/U1c/mNeU1TZ7hLfGLASX9PgmHv1j3aX3T2EfIzb3zVWbh3ZLOFzb+vmU/ZWSfP
+oLrXTUlU0hH3ZDEw8OKKRwUua3XItf7wSa/iIsXmOlAmUvTRE8PPEZbpasIN4hf2oSpIS+mMcGN2
+G+b4ZrfyhfO5ZqvevydBiOnG+Wrz7CR0aa9nYiFxluwju/uKJqU2uMTILlSyB/2u8bdCNHTMJ+8H
+nJ/fs5DOzcUBaeBT6it8DOV0hpXK/afXlcC+WOPr7RrqzkV8UgiJTph/EbjZtMLBzY8bNhr+WV38
+nOlmB2ACV27K/EEpsw8IPCsJpttdcVfOzLeFJ47xHK2nLr8RP9vRhn5X+anJJWUvDXI1S8SAU+RS
+XjkDV8iWihzGOdN+r0EvIJ+8KxYpgDTSpwgUBdJwDCkTXoMQxtFsuj+Gq3ndgXRw8Gw2IB6cCJ/e
+APTBbOqEkQv3QGc8kAmm8rJaSzARbB8vPtgIs0YmByOBq241gZVI6/EcL5yJQtWXeKpOHQCKwifz
+vRAp8OedGhAVKagKvkWxJj+1roFYZCo5ekAtGuAWcqFcBO7bCPQi5fKOZxD3Cw0jAYsR4I+InAUx
+jHIrHdo7uwqERpuUJx+mRsLQQdDJvg0LboO9HI4ejVoCR11RN7RwOUIqXXpIHXkMsUMGBwXBw1XD
+UkW+qRexNPTZ+5EfzQhGlJONNk2IMM5P7sIEgQ2ikiuN8iAS21ej9N8mCCKiMn8Gsht4j7lqq0sA
+aQSDG2A42CMBDJIQFglKw5eHhuMweigw7fXINkD4F3As95LAXwnTZIJtgqPlzSJNsgJPDb6Tczff
+cMQ8lkFFyc34q4CSYnHE9FljkqxBEBJYh2M8fBaBFUJU2852LynElRTyStDNa9dtn4e5ZiuU7QwW
+zhZKkbdoDc3EBYb78IxVZh3TDYrF/YfqgYOG9sIjH3M3H11Xf0wLDka42b2GD2PTDmUEUDUF2fIR
+gow0wP5NxrseopOvcWGbsGZQlXHcVddQle8wVHniQaURgzqTReACnLIvDK3XwWOBirvjd7TUwYFs
+UyyIG57k9z4wgy5YJkIgOLQ9ctKcgCPXM+OR1B62vdiF6U9spQj1qWBjZY4uNlj4OhrBAULFUDrv
+YWb9QfTFWh0+afA8Yx/+9mx8w4q0dD5uVQcwMY54/cz1Y8+PrkbKUN0KIoxxy2lVYkVwY0FqolqF
+h6lT+8llsvDmf17OgsSs2N6mOH4GzHEq1UdKSe5iDecHcGXJz+PnPk9TjPbecCwrjaBkv6mYERCn
+Dxms3GAbTBqW4foI9+IY9ETiSys9AA88Ck89hkKzeZ3+Ks+/dbk6jFb4bEXps0bM0yq8dSq9jxws
+XrZ3GCe1z0T8xELhXvnis/V6qmDtBE6H5NGj6alPJn+ESTofeDEteWc+GxA7LhTGmJ1BGmBCnJvs
+BXQ4zX+52Bpe8xBDWk3m6EJaHu+n+creF8dmsrUTRLjFlc4Y0VO6NvCC4CP/Fu4x64NX050OnfCf
+28G9BK7zqXn9zHP0WoBlweTzJPtxXXV/oCcApFTvZsyXEscbM8Qh4WXbDs5BEKZHY4C0ERJ385Kj
+0yXngs5nfyAN204fk8fiQnwF/E5hzE6O4YDJi85R85XQ/E9eOPfp3NC+mH9UKSsS0yg2XjsdZrL2
+2hm2nSlId5nmczR/1PVS6x1+uK2BhRcwNg6NqzNVz6ljneohorgL4HgLtCLuH8zKeyGXdxeCgCEH
+2G0dpZ4kP7HRhF8aXcGAiShl9MAJYT1I/zia2Ooya5dL3NVUoCQaMTMqX3J73gs8zoHXWQQiyp1B
+22HWYnZKJpxZIwlbUTcv6O3nzEmDvdERqAoK6xvMw3s8A7dhO1fm87s/U5RJnozE3410xY9t9odZ
+iltVMWtS3FD4FL5w3Rfjn4dsSisy81fWrqZQsjnD22ox+7acTYZKYIrXj9E4nln9n4u6/S5CTh8g
+pDTnqy4uGS7I4Wij+dT5vPUj97mJsEbI5KcsYCWZFjFcVRwNOYA3aAyCmMk6oae6qpp5D1gKODn/
+Xi2CENxRSfI9cN76weJoXp9K0pwptYZVm0P4RCU2huyGsQaDfU4xaEI0fnjH9L9XII+6BvYBtTgh
+lTor1fhnGkOw00PWzAdqj1lpOWaIR3CI70yJHsUHd/RA9ZkVltpp1pfexznh9jfalKiwaDGYzBam
+waR2OWWA4p9njb5Gytwjl+sG352qb8kiOM8Wk6aiYbwCjgmf3W+iJ3+kPTadjZPVtEt5GzvXkthH
+vifavsq5csa5/0cL6H4w4/uyDPq1FiFTq3qc04IWDqCecfQZjBYFm9GZkrTHAKnfH62jdNhZC/c5
+NhaWjiWfw6HvWb/G5CMyIhnz9OWnsdjOABF0QK9AJred+GuwV8PrP/Q00CUer5sCb7Az400uJtYc
+i204oc4Tc+ImsikYx1dMhucg8BmHE3HjYIwRvHsyGOaPrIn8wXWgZc4iNUQDH57lsurRJ+VjoExc
+DYutefJ5RI+L1Zl0/GOC95mZEkto90Tb+cnBG12z5cilYNMI5ArvdJQG4BbsU4Kn2q3Ma9M7T9Zi
+trby4Tn2CaZhwSNXsCfY8Zzjzu5xacdZ9uXg2ibwCYKrvO8XNzeu7sHIjgKXd43b21ps3wP+71iJ
+f0y43OH5JsQfnixG8QzHeOpHTLE0seU8I3nPkE3wil0BfpuYYrMmB37rqP1EHOkPfQ4BLMGuTVGV
+dPKTP9ZH1zD3vVZns7XpIcqybWISphMBqVSnwWdIFycW7AebiD2pNqLC46pW7gPlMuCn5/hL9805
+phsnpM0J78tbDRtadv4bOaR9QNADlRUUcN8+0OK42IOHhV2AAXPe2kUISAx7Ruvfl1jO0ljDzUlX
+jQTeBOLWsLHyRtOt4qJFLmhxELEkUqG1tu2FVjxjthV4VtkRO0l7jaPx0vLPic8aVk4n4rIQVwy5
+sWgRHKRzp7PkoiCQeIPcp1l/r5A6LL/4KAIexG55aJzyKrjDbXDyLf/tslzxZ9ID+HURfTBXOHsF
+hn5A1g69AeZsAvpGU1+88OoDi2RI9MLE8mwBtC/cYFup597Bc1552C3a+BIBwA+T9l0CcPAA4+cx
+FhNA+VBIVjHgfA1AXzfdYTAd9jhKIEkxrDryklNik/XtfQCCvxwrRiMiSXWzyUD011XvriE4XTRP
+Y1cA3krj6rcG69+42LVheWWWc5iX1Dr4f1/5X3Q4ERTmTAgw+9GkKCAS1d4lJJra88xZUqPxL60C
+A/UCYhqJyncMiJRGUD+gZMP3ZF9CaglcPWIJi7aIJVt257jjkDOoMQgphRINcyc1Ci41B0bEB2ZQ
+fBCbT1EAyEktxQhm5EF38d5UDUEhoTvBYSad6VII0uJiUnBR0bFQ07WQ0bnArEuG1pInlzaGSBpP
+uVfZeIyL4xDV+4neBl13b4aKH7MGw9yMac0t5cGj6UGaWB7L/uDRAFGybYSmdahYktAsv6+I/1Hc
+s6e9g+qIpj4EGe9pOiU6AW5tGOQxQpRwgV14GIWqKr+6tFEwaHA7YlysHPhH+bpG9qtg7cy0WOQt
+zJyl1oI8CYEoaGEWjReJfhqML2PYD5RhWJRiNHBJLB4yOWUZFTH4AJW/DwW+nYZ4Pg4UKwKXVU7q
+qpbGjTHgVBzEIxR0VqVd8Wpb1RNzxl/eD8BJWAcYYQx6gVyLh9/e0+KA82+xqXHIK3Oy75n45Dm9
+65YikFot8nt0h9gCEGBpC3GTYkcjx8sc8DiCjUODlfPA5//R1jS8D3ABT5yf/7qlhcSnjsSpHOSh
+TD74FJXMM40lRU6NklhaTMo53ZfUmjRzvjD5eCExocdWuQ0oQCkdRBX4UStk3v1MRYpj0pWSslQs
+NMFdNlUtNB5vLMN905Vrz0ZtNyKH497SvQLU7J2papmccNKhSKulp8VwehIzyzPFZe1QAyGPS95u
+g++EGzFjDzd4WWdL90tICQy0x08IkPuiHWAEQrFoWjdY9RTHUF1+g429F8jLh8q3jjUVM6QBXzWV
+MxnVM70kCRjZHFLlx0Q1jZvJg+FCtgrs785FWRopsakps+ms7sWn3MY1KSMJ0h9Ik3ThuFTN1Tij
+JKTFyZBHL+/v6HEj7zQO8YKk6XCc5mese+ZdMhh83/m7F3JdAh2CM8RFLGJQI1HA3x9Vb5q6O2zs
+NlXv3p3DGnNXEfm1oxbjqqU/81HfVchbdWqOX/40f+U9SmfcplQwQ/nnyn8FxUzQwddfOOiKrcCv
+vPaXs3oSTG9lFTl8lT0GLlxt6WeEd2ZOiemMmBnBkuAFfuh52TFhQ1E5W8nGto70cd1aTSASx7xR
+P7vFNfap3eH95CfMAKIH9cGTIORBxQueVnWPr4+a3FUFDTEaSFEd84HHkl0SUFy6251z/ToONIl3
+trzJhftob0TZfA8OT9yOSGFaYB1S3U4EL2XrHyrsqlsYgw3Lj/TCvOHnlb11+cBn5vkGdhHFuE3t
+P9TKeojsGrxKjjYR07WrOioWW+t+CJq/kaXdSpjJJvdYGtP9xvRUrCME+SPnXfD1xhjjHxsXMtuo
+991MJ0X3q6LgKvSIb98/25jraiP8GdpJ7VJOK4Q36BW021/BH+rniIQRKYhV+6dt6fFB+HgF/jna
+RtSzyUar9rurXhQb+bA+zS0BrM69m2l6jfPpG9H8mOc0Grbp0a+vUTbv9Igs2jVk3/SuoSUFm5NE
+UAHGMdp3gnWxirkt+FPzil1UwQkFpWAX2eOtZOnYJGdhxw9S95+EORbgWbuXNlRHGkDYIp1qH0Fi
+lBwSOmdYVyNchokT5dodYeU4o7hJTzGfEXYlsXalWog6wH9JS5cJ+RTARgUWv44daKEZOiGDsscQ
+TnUZQ7pxWqc9U3N4dWv57uESnIz6TDz6cyppCJ9LjssZa8FxurZjjT4vf4egpPuuDshxmD9e+lOy
+YaHAKRvTO/6QjWEF17an5c6hvqgFdJplJzdS747sH/KqoVQ6fJ0wbrsN3t5IWHrjY93hCeveZpAZ
+tfE2tvnPBKCjZamiw6tJo09XweuAZgPXE9tBZxUkuwSWUHLqGQpkf+fUf5LlCRoSPXSvBR4zBY0r
+sfH2mX1yzJlB3ek+GPH4/TPrkHL5iEE5TZ7FaHK6bw5eab7ykd9XQUinZ+ZTAi/LnQ1Vy6hGROLw
+Lch90qQuQoe9K2zKcVosu4kgJFY99KJ76HKCXqTq+I+J9RxlFO4+x41YexzGLQLxm64YD0k+8+Q2
+3UNeePXq/3/jGWdjXg0Ca9b/vfOsKJuv4f+A3f/37/Nf5jPvf9BIgPXMkqa0QMpj7vov8xkcfNvC
+d2ZL+V8Nu/+L90xKy/F9M3B8IZb+tf/2nrmmS/+bEKYNGNG2/19CIaa7NMn977B76bpkQYQtXcdn
+bfZ/VLn1di1jMmj9Wmreo6XvKvR+86NpIoDJGvelITRuxyqDA91xz442ZMrBCu4t1/+P7DluBCWt
+OxZUy5uqQmCHcClh1+5A0J5ybLNrCLGSKhV2yqE/L2rowvJCj/Rr6zEf3fRcTF68I4TJnZK53aqi
+LjxMoRjxqlzaMXlBt8VA6eAQE5ZM8hBtWY+MtDM/yyQq3BzzlNB/mmkOjU2EUA/TxEeYwJoi117t
+G+CCcacVtsXCfsg/mqF/KsQ4bA1prHNyxHNv4AoqmWpwtzpxT1O7j1FTbNXcLKEONjoYVP9qWYbr
+OXB/uj54rEMYTh2vWb78eyuNt6Psks08TXpthCgpeb00tbBQcBozOFml4/AhW/vBQv42jf8wBeeb
+1y6NvibUq8xox7VTNg+9n9zXMmk2unEzyusJ7qv+TSgLa5P7GCnjkmvxHBGi3jfslnk9xxiD3eqs
+Mm9ZPg5rM3VpL9ccwOrOZJFZ4UpwozzYWVA4VmA0Mnp1MKcsh5u4lxuSzQV5wfFlnoCQlnnfM6nd
+RrwodNlRolO3RHXYttFKPszgKzqkIDGHBzIp6baPe7w5RvkI/++EooaGmu9cwzl6bvreF/5j5v2z
+pA0SL+fPTwkzUDwVGJSOAZMaDLGjBfNKrto7pprOW4SBzhB8ETPG64TA+Yqsu3Py/fQ2ZV6ymzTU
+oHGqj95MWFwRpK3TlmPVmJ3xFv9FheutWsrS3vju+/3cCGM16gaNGd9+MI4Pue1GlyRil9D07mOQ
+WUDTzOnoTBBpdCDO9oRzXI7MtWEqFe4TFpp64GQy9ESb+s04tjAs+v6l8A0FVo7IiMmZXrBLiglx
+kfZzT1JV47ZrcULZ5acJ3LDNsTa2vTy4WbOvGPWm3t07Rf0STWgbdssbGNCHN5Bd4kNA1p3xa43z
+RYwCdGzE1TFO89mskLhEclYmbpJ0aagXikRGAJep5kBZc9AIctDFDb/SBtMnQ1bOG1IuJEFsYw7L
+fdYa/r+ieo9lTwcjm/PV0PXuKc25vYop+tERWhi3eLoBFkGCW19VqW6FwzpYdQkKVEExKsGLOSre
+qNw9qJxmxsDcD5P/lefjO+42kubAUbfThP9r9NJjANLpwScfkBjNYlpJaL/lMbO2EmAbRIZhVeYf
+2RBH+46WUUyD7bjCmv9hmfUDcaynRudPdlI9zm0YrgfSCmt8vLvQ15/An9J1kLiHojCCjckkv3aw
+nkGzYjat3DtB3VZqGDfNMpAJBcHV+mqD/p6VwLEdor84jA5JWH50lXozSuPKVQ6dDZdSKDmyWNOt
+V8Y57dJtHZTPyqQKzQ2613gayC474bPRIDJPhnXooOqSbNU/dRAd2sZ9BqMy7pGgtxy+0JZCX7B2
+Kk5zMd/CDIhxQwDLddhDDqy8FPVmXpFjU3B3ud/81eCuM9fY+7b5yLadAtjFs9a67FUA9rTI8dui
+zR9yNmi4eMFLNiEWRQCJK9lHXyrqP/um4gziCDLHbICEarecnz5k075VkJXYhq09wbec48BQsXGz
+3XSBG1BCHUJvTqk8SzIEqKpkUnTwukTDHf9DtUqq+RTBMOZCKidauurPvqRmmG2pWboIumyJfHW1
+ZzrWhE2GpUFkEi4XZWOhH/Q2C/2O3ULtkSS0vOfKx4HSeO4Ld/UJsCKgJX5VJul1cqWxjSsHBEAo
+njzS2g1RjqTL9nmBp6dp4oNbtWfalVGmI2CVKXkI5khy6RgUy2Kf1/0+tfOfNM3veZd+uN6iunsX
+FlVHS1aXLI82FX+H2KkezM5g45PuG54mfWUjTGAmDLiU8hQ3Y48/ZpTXKGQHEXW7GJjXZEbcfSFH
+UYIGcye7jQMAdoxgU8yz+vR0cjeAnOlSdMjSIqVn6DeoTnC5Jd1seaIIyiPbEf9xQ71L6gB73cwv
+BkdypQfO8MxnahuIdmuOAOCa/l+WNGu5mHwLuhzHaedgsMp7ZmQl3HvKLanqJEIdlbR3contYCi9
+mVb7ELrljorO36ANnweb80DLU8XLDcQq7kFFdtgt8ofY0idf9vQekntf0Xz5BLcB+TfEr9rzlqPr
+9XOOKBKYrJnINU2hSarXEj5NnZ1UNvx25ICAcd5mCeHYHe9DjWfH80tgLPF7WKE45gVoQZA/6K9x
+cevLGkd3R3QeEXEknFLBczI0eTvnu4YehZdkZ5dGvrZEBhelP9dxB/WiQhrNf1wz2vl+/BdK/ZH7
+5XPczRzD+Htldv5ZKiqqWnfn4SnlYq53eTTvmgKQZUSs1cpbBBHSZGPBUVsMehX2DX9t/DCOcn/J
+wf+nH4qnrPgKTe8xCDDxJt2AqDl9VFYMoKl97l3I9sF1+J4/KYl4dFEThwzraBTgL4+qB3eCq2gM
+ejrl3ujtRnrG7+Ig3qdanAoG8XrMPhuxFFIMVzpE3/u4uoG7IhzYbHUcf/WA042+UevUS/Fs2OF3
+BmCm6/BUB/KuBQ1o5rMBTcQBExPyXgXGyO3Qss3JYrY6IZaWkhZFCFn+oS3rt8Ey+UwwJNm1e0jJ
+Enr9eIea9jGNw80SoN0njKaJA8gbSBTmp49U9Ye0MN6mQn1IUPKrnhiom5X08PnBPcjVgy7rYwRV
+McSfTIpYZIxBwdtsW3fTwLozcdwjzHK2lFP1RVkjrxFGolahRzmoVK1zUmFz1NmC86nnejdV5qNy
+sIyGVU/pgyu2Yd5cg9LkzTiJrRkrlrU1i01zzHdqUG8AuXFKZNlD72U7P25/y3p+rshOLZW9QY2b
+nnfzQZB10xM9puyiSBt8+iZ+rbDkYReS5BJ1Somj41ytQn+n5hO7ckbNWhyzYQkgmEjGVoHEp2Bg
+4vvDxokY7eJ+BuZXvtpGfIvd+T7N9T7ycYqwfsCoxWA69f2l11OIKAz0ZFTVa2J53Qkkq700amJX
+BfnNITe+zTkq1zIczIN4d6253yMCrW3JDeO3zbbNBx4zXYyPzmgOAwYiXuTTrsoXx6Tid+PDvJYq
+unGR7K2x5GFD6144nLMBU2Nnf8dj9pDC91j1WsLYdD9cnzW8K3AMFFljb6XfbWY7gG06YSVBUkry
+8g6FmruSwGZbi49IF1++rPbZ7N/NAjVPJI9lWxxE1WzNAO8/jRGLBTuvg6c5PuWp/cNRACNLsU9x
+zA18I7Lmeu7072RLsKxutklDPnd7ZHKAF9vzrvQM9izWSN7ZkQjl7VMnBnmRESDS5I2FNEva8hq5
+Bqh6EAuBGKha9NGdmuKEQe/XaRWhVayCpfWZ8y/pjKdzjDaI1RdrbHSMdHyw6v4E0vhuqOMfAz/z
+5LN0MTinjxOK3gjtNScAztKcqnhtJ3j0CVIvGG1b/iNihvscKw4tlDuI43s5ZTtXuedmSjbZNLKS
+xpfohG+h16zTiTBIzCfoEIa34YRkcCZcnw4E34KWBbiM30i16UvCHVktDkefp46OjdPA/8nnL9gl
+/4ihzSsrzvhF5syV8lS21aMaCV+wZJvbK9LMJgPfsWun4QXXWbFhuL+XOsVYW1lneE9fBtU4m6lx
+tvXs/xiqYZZjLQd7COxfm9/VsfbXjuqBjeTEeOZ3nXYoIX7CBsg5D0X+mBRLkCfh0GRja8Rc0H8J
+xTFmkBjkdYBhciYiz8acd3ufeR+OJ/D4hsVJhPVrMskfuk/htrYDSXMqPARQCmjYat7QUos/QOAn
+D69Gyz4Z71VTRmcwje+sWH/7ND81TX/hBsWxmHhHkY/rLLaC7ZgyuMDeSvv25LcS/IUFKj/rfxuZ
+s8Nn8jVoWBmX+mLRkrEIr6pB/SJ5eGr78bNsmZ51Eu78ciBCYtLwjf40DX7IJjW/lXbxoSK5o53u
+WUhxobTw32A7fxW3sIVJipnfkXd2Pr0Fy9tWGeTHlcJGz4aisXyXVUn9wzC3rTxNM4fFJkSd54Ac
+Ui3GPwUhuRzIZU8jhK2uOHC2/i2C6F77CnkKMt24gVTFVKzwTzgpi+cIk2axmFamBj9m9Wk5JoEV
+taWTZs925xBR2lin4WvP42YVeeG+wIMilnj9iK6vVLNuPNyWKd20mL/8zDc2bcvL3xwNVm8Jv4Hk
+eI/RDx1ZDliZi5bpUm58YW95RT3UwAGmBlvN2ERIRZ57qQhuIvTO0cHwctgpFRNo4kTxhpqdc6gb
+AIOx+1KHDm6ABlMg7Z67QfGXXrangY3ka1fjTkKHhN+4na3FjTX3V5nNP27uXZenY2lNT0447SZH
+2Vsnw0cXjTc3J6RVS7bhcBQ4I0fkCVxRg2dkJd3UFv7J+WJR32BO3Uth4zEvI1pvC8c99wsAzc9Y
+XtStt+9pYNhVNlZn2Rwg2K21jK8CnnNG8LynAdKC95mr+Q2V/9cbyi1UzDWN1XeqdGAg6WOlHLmO
+Qrz2vHZ2saYRer6rmh77R5ycNJuKEtRm53UP0ml2LjGrYRKP2YBHs2lqfKkxbU+z5OnZwC7CA4Bp
+cRM1EztywqFeOD2OmtBs744nZKCTaeIeaVDRDROunyz7X6vku60Me8DHHNx5VvurkKatruVVKl5j
+ym08PZN6NzZNMk+YOfIX5inwNIH3EKrhFlY0Q5k1OzkizaZim27Wu7RDFBcZ/qvM4YaPUGPQfuQ/
+qOKveHnvUzuJWbeyOtf82MTZgTn4wRHu1U6iWUj2q+tKzrc2aQ8yiNnCdiVArvIBPNqVJN4+d6q3
+CovONjJLB88Fey2VVbchJWRTiRdjiC6+IjMksk9pDQLzLDuQwSq5XYzpz0gHasSKfFubNjcuRw2T
+FSV9v51gEu3D+ouH44+XmBzEih+f9ojyP1gGzuipj/vNHT8srTkQwRnHF3OXD8Pi1Wy2gdPsqaRF
+3zFy+IHhAdTrxSMzhtYjnsIQhb8aqeUZOFGMQ7ce2vBuDPjxOv3+H9rxEliJ42tpjt92Mp0z24wx
+k5jcSjzlC/exQauJvX4X2sOjT/ACwuHinaifu2wRdEE7MLXDf83ZwaJEqH20qFy+FW4y9mQe0Mpo
+ii4GKeVMM8WW5FRQ3ndJOB9k38IXJNnCrtE3mnPAhBMg5fTutE8N5zfCnf8/yTuT3VaiLLv+iuGx
+I3GjvTcGnog9KUqiSLWTwJOeFH3fx9i/5v/yuoVyNTaMQo2NBHKQSLxOZMQ5Z6+9Nyed5KJAqJj/
+uPPg+lxslPsFcOSOPEPqncvhc4LbLCvjy3CoY8rAFxqOd3ckgmx5Lf0QV6wdZTnZsoWOtuINzfc5
+axGEeqJN65bGCGGX+7JzbskEiUOu9irWs2tl1aQ9ZDRjNZegZYUzbKwDPDEWpW86TnKsGGDNQD6k
+XfKcwO2mvUddss5xSPFxua/UloHFGfmLX0XHkOxkMuh5Acb1sG4oaoH/kGs5oy8XEUOa5c2/WdYe
+Ro+PZC+9uzTx9nwyd3mePgflcqgieTPqctkbXcidfarOJPi7K8zvfPHc99ZxQdhJ11yFTfNA+AWQ
+jb+v2vJN1PjjCXM9col/wLpwkkOwzWH52lhcnGrB9MNzUTVw0R6r+qbriDo3Frn1+QSvhVceOUzh
+VFjeZdMh5jo1YfaB+ZRmPFuHYZcp4M8GsDS3tgT/k1+BizOHEQ9q496CW8YrYG2isFW8T8sbEVq0
+DFQeeEe9cRpW9o4f2V0viq9gqn7seLj5VXiSqng0EhRcfoBG6dxP6UxEeFlf6LX96gtMWu1AYkfp
+kaGldX4T2z3MfY1rJCNcrsNFMtf0+mhbiQLyrBv7VPliXWrjSc1LcxLzB9w45X5GupvwqCR4VUJt
+WhmG9BdnlsZyyaJp3zKk1tmenzBV7FvtemFKpdzeWUsHyKaai+6BYHx673j3apljL2veFWogizwT
+RIWZtcAyOn2XRkLEV7kp0vZLViHByBVLAD3d6Gehs02Q4Aw53AveaGlL+YUpeXJyhMQ7VwCAiLNv
+Y4dYLJfbHPp7R68LkXQUYbH52idyJfbtYizrphrqCw6dZFMO6NBe8GWm4XdK0NlKGpeS2nJpCypH
+eKOjm+o81U3aPKbkls9ow/UMrb+YP8nQwR4QXERKa0Yy6ULaSSiOhA0RBICibd7VPQlLMvVegmAk
+PTNgjzYX60cM1M4UVw/gMEiZGJdmV8+GttREO4gHwH18fI04i8Y8SZMGrE5sLNP7k7uQr7h6T4FN
+yGRhrGwMwbk1g8Kiu5rOb5IEByrIH41hGRim4jdNlNSuf28QxGDuoubQk7xZueW2Sc5JWD30ZI6x
+xQKh2eTzq51dvfgYgGbr2RzEspYiJ/Hd6cI1Xd6neaouTdm+NlhJnzCFQ+LC60raoDZVJoKdPda4
+eoq5Y4A3goCd0xIPfW25d/iH+AiLD0UYaeQ3HtXYw9aGPl7HDfZgwmRq8kLLAE9hToxfSY3IXkau
+pQtvnGMVsO+4DFvb3i7kZgSumyXbmCN9FxM8rtyGJy9Pu33bd8c6oESFoazd9mZ5qfGl2X65J/Nw
+hfvrjljqbtMm7x4wP9g3RQykp478PgGj+MKZnCVvct7zMnoSALZWE1ym8Je5lNJwEGOB1t2Tlsv/
+toRK32G/cHWItW7H7Dy64n3n4tbJE1A1NYbRKfYfFpAvLymOKOlcNnFZgDoTF32Xhz+tD4iayAfG
+rXo+xQp8ZcJcGyIcY54ITj3PA2nEigKaW4qRcWs73bWwYfijOf0IDXc1ORPdcSaAlPNt6QbEuSPH
+knNUFmrdxCaBENNr0mP/bkxOxyS0zPI6mTy9u6E1DmXhT8eiABchCP1vNw4fgwNWhg4EW4sGMqtz
+wG7IRuwq+IKpIgUxn7k0+Ao//6JWInE+zL52Cfb0d8S10isnk2PZxFvfmWzMHDi7JBJ75EjqWsw+
+JzK42AlCVZOy5ugXA8UkD4P75rYk6DIEYli/b9og3UStt7cRbe+imJ+VZZJbwP9jbL4SziC8XVBn
+a/2H4syNbJT9jRdKA2RPxow1xg+ksT3aOmVyUsNFj3RtFO3zWt2sLn4eF65vPu9iQ6wKJ+nB5osj
+FjNmao8MhF69Npm5df1623vD+zBM7s5s1NlW5Zbk2VU3o5oUGgovQaeIkd+UXXfKw34rkuqQ1jH5
+9t6hL/UdOyZ0RbkjzWug/qto5PSYeouzT3HBl5TYyYTtsa33tDEZ9RkCiwDLjq0X0NEWa6P2XcBf
+ceM8Ed05bn6Z/Oze0ddiL8t5q2XVuYvLF5umO4rgD6Brb4uBV8/Kfzo7JwE95fuwfM9Zg7xhkHxE
+vylrLxlasa3OY+LzrFRHOatlnSic5k1/Yxw4uS6tPX64rVsXH6rxgJ63jSJKeIaCbswR73WSW6v/
+DyRlz6SvXJgovv+RpozaXvz8z//xf2rJ//oL/LOYbP9DISZSnU5aFSKK+69JJtY/HLrKCQq0dLm6
+EMSV/LOa7Ip/mMi7Upim/PcBg0oHDFouML2nBDKw+Z/Skm2PevZ/ryUTxuq4grefdMhFlDrn5PvP
+c1yE7X//r+Z/4xWheq65CGLespdVzQNTPUOj7GEKP5NMF0yZ8T6wjOO8YO1QnL2nAaOloI8LF7p/
+7UPiGiREPb/Ni5GrfRyGex+Ayg2Glwagagas6jVhtUzyS6phU0+UMIJggfh/EFnNqASfNcJpCat7
+bYCAavgtxpdi7/U+vrr+CU37T1EH1A2a8aY3BeZzvNUjIwpdI38SjYctsTqkgEsrh7K1dUcOAnW0
+1ppKOgodNGCm74ylRs5A8EhbhUKruTjReUI2LRtHGAGq8YPE/JURQxeOAaYJC5jaR05dWF9YQDXu
+RlbIpwi6nYSDK5OAdw5k3KDopExh5QxcTi3sXAVDh9F/Z2qoLi9rliIN2kmIO58OWEcjeBIWr9VQ
+XgCd53DAx7jCXcLP3Y+slhcByVdUulEOto/j4TbXsF85tNzm4f8MWLW7VhOBkjxACMGSVjgS2iD2
+YXgYxDj6U1aQDAgMoRGtYw0augv2bcjDUjbX3sbBCZEYpWTouTbGPQ0roj1svAk8c9EgIyMBSQyE
+LYoH5bInADumQI828KMd0hoADMl99HHGng6B3jtPNrxkGgxreEQASo1Susivgn3HtJBrYC0jLlo9
+7KUpUiD8BJJz2WVRcfZgNL1wWkfaSBpZB4SIYkOmDO04zaqzmj18ITgdvGcN92n41Q4RBU9qBktT
+UtfgUlQ17B1euB7cqAs/WvT+KtFAaVInzyOEKTrJt1M27IXFoVp4rRqWcZUwqVlqHYPJxjsOrdpA
+rdbQq0HGZW4xDmT0HTqD4QrKtZnhiSy416lTe9oaF1IUxlUUxYfaGB788hoAykqJXQt48lIa5aFl
+pM6tBF+bcwjlyPeu/OxAbrMu2tTWiPGl+o5BcqXsrjOIbo3g4oHsCjnvJhBeqVnesFsIuEjdZY1J
+fV2qGhIdVaktnpPJIEkFIlh5wZ8KRFiACitiyWPQYXot11Qy3WO7/+uN+sSWc1nPs/s5WjwMBbQj
+EdbTgyOPc72hRHKj6v6xWuZtGdNfCb6cdNa1DHiNJBSy9gDOMaBzzid/AXye/HStAKEXbDzcW97Z
+qDaNbZzQCnnDcZIui5tlqY0NUD24zS0BsA5pye3+ibgGvS5AsAPa0Ur42BI0u4Z9k6DaA8g2lOha
+gnCLkfwtkG6fG4dFR2ZJHcsArxbUtCrkHyUUuBGOOLXsHYrceoQSDxf5YEONe9DjVWa2iKa0EMGV
+q9w4dtZ8n8nuHDPGpIWBhjnvnZHPew6ZHiKfmVQz3tUaWm+g1xcYkhmavUVICPjjxhGUPrQ7c9yj
+RzihCwXvhcTBMbe6Go8nTwkPbntxch6aGqAPeFY0XvDGGIwmkbz1qvzKymgzQt4nsUGYtxeCxngX
+dlH+GWvN6bykdXfB07FBv5YUPNhAttzQsBxsLA36W3F1kpD/adiSX0pYBI4AQuGfc3zhFU6BVlsG
+gsF/wtDXoNHlKzDObc0YGOUkBjX4DYixJzwm9q+C/Hrqkfbcnmnetp45Hr5lkaTNUkfe2/EEaKtj
+8Gdm1C42FbmHw29EKmjji3dJcn7Z0bPYtM6tn43zaDCywUSfxyGi7hykk4MNa6+o0YptUvkHy7oW
+YCMOaf0SNHWS81NMir9Jmj/eBSymFHYFEvAC7HY76Oh/06xp1qENgNWw5OAAdMEj/tRI6AiaA2Ia
+BGxZXayJJtq5fQoDVmOgRKK1k2SjUHjbmsgIuYy3TnrfQzLcm7qogDK64LnnzOZDotS6zKCm1cCk
+3cCsm0tjUxNm1xgVu2TndhQhhKXuRPCwKuJEpyihpzFhoTmBzh7a4SVpq7Ekyd04MLBvObgizVfp
+ZylGiifygS4GmR1UUN1s3dKw/FNfwwSjqBscKhvZE4bK4kRYiY4OJroeFD2f68Ro95Ia8TtpywO3
+h+huoiGipSmCW3+Ml8vtVoY1QZIO+6WcyeKlX2JBcqQOGA3RxeJul+KodBlF2cCskme5IlFgY9JX
+YRYhlbE84oP5T0yfRUWvhR81f7FkjkdboZY3A8YwDS7weFkpWjFK2jFmDO8UfR7cUpx6QXsGLRqt
+oG/EcaAA+C6PXfQMnNJsTV29MVeUcISh9dGoihgr6jmIM3mci/DvmFLc0eoKD0JOnlNC5C3tsoeL
+ObS0fWSqx+mIC9yakDfoAynNeVvA5ioB3lTSGFLTHOJOLOqDLhOp6lYfqKl3ysRLUHdPzeBt465Z
+K3pIavpIUJaZ0OknoafEm73rRG9Jz3kP9hx7tF88ZrrZRFecKF124oEoE+iyLQZqUEh8eO64YswE
+o2v3fnY16EwJQWt9L952dKnUrQ9DUuAvRW32dN0K4OhDNlPAImhiMXu5DnQ1Swldw7zSVFS2CKV2
+EXud0GUuMseGqOtd6phXMlGH1TqlNZsAIhw1kXq0Fu/MjEVzsjyVui5G6gNz7HGy000yPndcXS3D
+xMO931hZunQmovEuoYWG90Szp1TiDhb603NL+OZeq+tU12TJ+JrrMhtv8s+BJf94uuamC40tFnJQ
+Ixpwmr5hvaATJ9DlOOwx16Awt+DT0T4d0dDp0Sno04kIDuZTuWno2XFk+xAmUIcVohye7oQ+Hqeu
+ToRWK/J/Y6LpOvQz4l3iIb0oXebTOgWnH13w4yzh0WjUwaH5xzHzY8dRlaJNyBn1Z9QVQfzjBbxi
+g0vtJVy6FMQzPi6WbwaP/t7yUfiIA77zAChaCuwV+csTG3HQlOui9Q98Usm4zB/AyuS648EZkUlD
+KtYKmePUeOIkir94YTIOBOabm1e0bYl9FWCANGnYUtmZBPmrG/vbkPNv74Qr366oOeIbDL7NQslh
+c6Clsck8rHuUlSGmoWlcfEuQvlmv2RLP1cSo5xn+py3K13KWsHMSIl8Uv6Pnb2ttuQ0KY8MYAI4z
+XQsh7yzXe4IX+16aahdF+p5PtRDNiQDVplqXRnc/llQm2ohVCWqsyf2lHcp16mbfiyBlS4J7B833
+xEVHVuIYS2xKy/LZZ39bskX9uH1VC6XAiMGqN/jrtD99bq5iG0uEms+lEMcqxZ44jPGa9PNTU3Z3
+bWPi4nME+SZZQ2shT7bGqBU80rfZ8c3lsX83eNX9UE4vSpLxwXf6wcuYJItsE8fd+1yVbxxsYpQK
+9cdO6apS3Id7+TssNVNGywHdcMVTFutra/iZAGDiFSTKMPBI2DL5UYtboGPBlE2iEWnYsHMjZgX/
+hS0KGbRLSW+tcu40/byTFYeOOLG/GzXehCohMOSxC+23HBNC63Aoyql6sAsGUOz6Slb7cQQbjzj0
+QQmuFmwQ1Juw2MdrxTvVQWvmFLQrS/xcy7wusQKbsVlsYvy90if7Z3RxZlvEB3TPSfsjNYOnMFbL
+pf/oKLpeZVaIyyWwHy1ICnJq44eCkhrO2Jt6ALFolusyE23C92dlkdoEja5InnaGE10fsf5Ev3su
+T+pq+pmxCQWUNcez8+yFAaJ87ckVR2LEQi+4esRbG0TxjLn3pjR9I4U8Dbm8uZWzokr6l0Gffwl5
+GCx1pceMJSjlNcuBWNwNyKOD41xhgR87Clb76C1ujWQ9Wcu5LwALAmzxPk6a3FKAos2wm/P4t1qq
+Fx4bxmrmYxfhqeNHTq9lj1kvArwitzL0+48lXAhcmf/2Y0V7uPPTZPVvCnWZNtGDkTSrrMm3oxcc
+7LC/RZgLAa+2djxeZ9P8sPvxs+ux5wYoGHbf7UTi3tH2fW0784O/37UzHYagn8Tk72gwDCBEXkTX
+9iwIi8B8SBG2V1kUbM2kYxdMHGP+ExvRBiuozlJ0p7XpuEcn8J7TqfgR/sTnvS6GVRb6a/JU3hOJ
+9xm/Rz7PZzkRCrLkP2Y63BrByOkAVSMHTHeJKp+MpCTEHG0gDciZ740N5+B4NWfzpfH8N1f+Zk72
+1ufjE5ja1RhcRs++QgXGHEEtIKdMjlr0uE2E5GGEu+C8IAsUIRoRaWnWAX/+YRpRDKaYAg0iipbZ
+Bfib7EPVctIso4VfDE24Y4fjI7A8R7Z8ImHy1+Y1xSbM0Jnb1nfDqSmv4vtsTpM9VYUDecAhNlU5
+RSePiO6g9Dd4+ndTB3Zo2THmoRnKgKyML5Enn3bi/pFYwYXXsmNy3116u1+nvvwGtO/W8yRIpwn9
+e5NQh1VCAQ0nyPLRTXKC1efpHEczUcVjeSkpEUT6oRhETD+JNE/FUCer3hcv/kiwYVPhTyIcr5pc
+YzebkEqGDSPQeIOzCqz4F4s65l2CUNpUvff1dAd1SMcrG0Q4fHbcAJRzX1RoO940EWOdPkeEbKGR
+fhbNdO/kTCKIzUBBfmjcau4SnvvqQ4iTlfNrVtBWQVbvQj6v68JCOxjQ5ismY2eYL5CyL3ToPbf9
+HODQ9K31UCbPSwAjkcvxOMV4WQpqMSPzzzgCIkyeAWE5HyyCTOKZ5KUJ3yBOna10PmLvECXDtRT1
+ithcRlleXoTTuMrnh2fhsMzuuGNWMLVNxxcVUzrfi28WUNskuQ0ljjCMITkJTGpWfj8GwyPfMpPm
+VvqbDdfbtfPJ8IlZnFJ325PAlvXrAoarooCgstCcMi7E1DiR0PjYt2eRrfX11F27BI8sByneFR6Y
+O7zUj3300XneIbGqY0ice10PzwbmP2w1vHpgjkoya4IbAzQnZv3TmPFe1/54rNPipuTzGO6GuLqJ
+2uLPhnJWen1AiVNzMjtxXSoe1+4P0UsasZE30kboeukx7fAcM3Z9HTBdQl3vDTsQjPDyjDnq2W7w
+EIUgg104vYVe9hlUzSOqtVyFkf8TooWCewfRauQ70rn+QYYOkbOWe+mtfmuwbloh4VNe/JewLLwC
+abgvM3j0ZWA4L9xeHLMsvCw952xQaEOJzUsEEvaYuPXMdD2/58VjmF7oII5ucR0Fz0ni0SPtkifg
+tOJo0cn6I/FJbIiYCldj5roo4Dqnq3SB7gDkEGrT3wxM4YoHf3iXcfdrR4pztXuGCsBGlAf3meN7
+DzlU/botuny1GIAb0sVYoWpYPpZhwPDIvwB+1wjdJN2PyfA3jrObFQebMJxRuk3yIHNYAS5eWC4o
+UrwzZGHvpnR6CTufMt65e6tAfjy6bo/GZLwqk10sb7J7ngHz2lj65DQT9w/2C3hgjdcpAd9ztkYA
+aD3G564kQs0IH4hoOuGM2bfMXP487Gxp8wkwVw1exTp8HSv5HIkSTtCRJ4IWzlZk3jsUJUSW2inj
+axnNTcPEkgkwugqWVvYHEQ8EnBv5R1f3pM4QKRxXn64FiNXeTP8+0o/dYfSJgPfbxzCiK75ToPAk
+bE2J5W0mhN/edfb5xIhYussxDvVcMPyMXvgnICyXu/sfi4slAldOSGpXYo3jfaI6ClZQwebVGJN7
+S8b4Zuo6+vXiicahCbJH2rk4mO3w2hYVyTv5FH/NiX9qRJOsLfslU4LS54H5tlxeq8XfNIXzYxvF
+a5y1+wLCh25fHRwhvP5Oknc4NDVZZtVm6tMnYjtX0E04/8onczFvJPNtctVex5C7Tt+nf5uwWckC
+Xxpff2mdF9OhNthbm/VwGkGJZFlfyzZ6M7Lk6PfDZyr5OwvvleZDmsg8M93JMT/wUT1VMFc8UOKP
+ou2pmwyfEqF4l5k+YAXyytFygnPcdw8jQ6LtDLvS8X586IO8Ld4Lj5dk7y/fwn2sMOICoOI+6mmx
+CJ2zbEOiTTnE9sG+HwBJRTm8eaSUUJ3XUcrZP///Iz/8x5a29E+TleOf5v8hP/AL/Iv8gLPZ84XJ
+f1s2QsO/eNmsfwjfNC0fzQ2PqmtSLvSv8oPj4a37N461//K/zWz+P/ifHSFdz7JcV7n+f0qAIFL4
+/xIg0EaktNA7+I/yEEH+rQBhRHYZk+hIKpWTYcLUIwkbwW/MjEJKEG4K8EfB9EJqRAWOqjVakoqE
+HnGwglI1z9DT6/GHtq611ANRTT8z3cu8F4deXqii+KZweIPpVazA1qp1CFkzu/G1Y+ICQX/DNFwz
+hy3MY8r2dEu7aWwMZrUeqTXERGd79RP3GZZKc6hJjcGfwZxHme+PwRaRMf8p5sCCnYTZ6T1lPlRO
+g7NAj4wJs2MpnWfBLBkPAUOlHi8j5kwqvvjiMHdCsaBTMIouzKSuHk5VmH6PybgLKddF89AD7PDj
+4hBXPIca5lu3sK4m825jk7TB/OsyxOP9nz8nJmMgz2s8EXmn4ziK8TYxQedM0iEmlXYyztrXZATt
+78jE3TF5Z/PfWQ/iERN5RpmdYEL3qXH2ekK59egew1xiyzVIGWxePANQhCk/h3blasLgT1/Lpp+L
+PdsB3a+sBl1Ez5C1oab3UfredWSDMC2upU1GCXeg14tEBVcwpUOrbSR5/dulhPt1/o2/30nqBQWf
++9vQylOyjJzhE9LCXL3W1JLFq5n6Hwko54TNGkn+A0qHwrx2Oln/tB+pECwWqJX9EIPOOHzVAqyP
+pYoA4ZOpNy1yPh+XhsTyAeJkoqCeSqv+Q0TZ3rQTjxsJ2oDD4jYsHqtNvotDwkr0Zkd+wbrRMfI1
+EEhPJAXRrylhLT4P+JbV0Ah5kLEqZgmAsN4dpV4il3ozDgQRZ6yZPeummBVRHhgqLOd18JVxVZQF
+3yMTUmgYGC9dxeDFl7ZfBcWCBy61b1Zu3+exIuiI3TchmCBNSTxvXOtJ6BWZ34FaljbixscaHUbw
+1pXbHVwW7YnaJ/7Ej8xThJFNL83Y3C9s5UKv52nxbcueHhGX95yha7D1Kt/opX4y/TWv6/ulTdZm
+ZL4BGbz2nAFSF+Hb9EER+595CJ8FDd45x1Z/yZ+77G8olk8pDcphuUQFU/YkRiD11AAOJYW/srp9
+bIXYlPJ8VXGwaK2SQl9OAOA4mXDx6XDb4Cv+Qhbz69A1myapKfML3qEgjiJ3+ZnTF0OI1nyXgiVw
+oBX6Fyd+taDwhy0XOABWJCJtaXaMJ0ibkcgj+xU/5loW2VvteR+2xILZQVITNbrQGeI0zblupx38
+JghDh1+NjAFmjBFydc5ueaVukkHoriv1vwhxoBrDNpr+pOzo0nXzXo0GkC800WRROeKITTOZxBUm
+iJ0GeGoz2o9jMRyF39YbT2RPmOZ3xL9yVTLAcHMF+xDPAPChyua1Z/LvZRXOm5MWwbrNHZJZAYa5
+Y8qXxaRNYOmbXwbpl8Vl84vdW7kUX3YBHBlA13Jxx5kadO2hb+FBBbGyiryiCfuUGLPLMMXGtuTr
+5+SY7X0lH6HD33wnPbU22WRVlzBam86JMLQ91GdG+VR2j+QmySpaiOSxt2k7v4yZDDkCGi8keD92
+JS1h+UBvW0B2tGr/1GF3iQoLs5cOx6Bx3KG6gT1/62VqPXeR7uNJzqBABt+z8VOVwM913n0EE3kw
+ndFdOiO4xDjk0lI+BCS010t3Kzl48LSXL8Vc/y2N5gXt6+Cb45MaknuOWKT899PRJCk4tfOJYghJ
+k114SkSy5x71k1jxmXhiUr7r9IkLMMwfj7gk4+jmt89q0GYi7FqY61iIyEGss+VtFuriJhdjIuB+
+6RlhNWzVvVAr+pY21qM3mlTfWITSB4SV2rXSVTZ73jwHxGvoKevbK9KzXWO49ePpse5oZTbHz8Gu
+7wOEDc6CL1VpHIyYbtrUuTpjC5Opwh8rYzlL+1veCX8lG3q8liUCWuY5mQ9iQh9btnzGsJzYf32b
+LDLVA3REBJIMQ0YOJlx1ML0YlBlJIobQ8japj26V0ghVRvbf1OblY+Y8N4gr2rYNp4NZVUcl4wv2
+QhKc9CeEugaLsLORTtfLJOr6KKIdUUHHNsRwYFFk2rjjXpWp2CCzBeuoid7wtFL06pugye0XUjPi
+x7RgVjbr7tU3HGdfcXoYRJESB1xvFp8TJVOmmDECDn9m/MCNR1ToO4ZZHoFbuAsBxgnp3tJlNTEN
+E0vjyJJcYoSbVH7mGHaMNiH7hOgSp4cF47TdjykA6Wgv274W/Nsn/KX8XJESiCAHxc5pXh9h+3Bd
+JzHRQ1W2Sshp39fh+Ep9NWH4gMkcfdmHonxPDaA2KT7iembYMPSCRp3vcq/wbLq82ffKsJ2NGhmS
+O/KrvLZgFRpJJTReEqt9CmT+YSCVW0YPWu2qrZkWDs23bLdhBTLGshIWhIGRGlrawJHpa+1rlKy8
+JvwKvYqOfk7Yo21+Y8xdYXLv131TPvoLMKfVXzBm4ScgezINn6Pm1QnHb8rEP6Qz6eAhh7Sckd+K
+8Pk7+ArMDLgDarWNOIlmpU0bQhpsxoTwf8snp5hsr+8IMkHXPflkeDIYni3CH0t2Ib9sNyMlh1Pk
+cOkgbQDiki8bN7HCv7e/ioGwpjCcnjnHPPqSyGJi+HfuJGEEkPorwOWkwfRB1d4Ag5yQbG4C1/k6
+OZCaRRC4XVzhGiJefnAVBiDiDO9qYe06590lYLNqo6NjsR4adnfBqAZhSs9EM3b7BWtdmDmPeUHL
+VYxeYLnP9mgcA1Oj6x+YrTC4vSektt5Z7Ziuu4UqlWFSKztiwysfrLa5z0qOpAYtCmQTpwRvKkPc
+uICeSC/4ZEJ7x/b1MKWK3YgbkfPojiau8ngVhDhmu4zjX3RdiCO3u6dcROupxp1KpittZ6SK+ota
+d8XylRQZJo8FgoZz4oKxd2ixS5v7eAyZNIC7POM4LVQZTF9+WG04Cv76KtjKovtgtWUiAOi9m4BI
+iarCdRyWcF+LeJ+n+CVMPwd86Gjo9ZlZSiezWIvcgYHVw3KK3AfyEYIFihP/Yu/zvq/C6qcPoi80
+By6W1nEauOJQYs0PyJEc7dP5zuIACLFblGrjuf6eKwDRA+jbbXUUs0cKG1HLycX36MGj9AyG+oj+
+xVDnlgc5YaBLvkM3eqhy881GZdVBCE+1CSjkxo8M/2Q9Yk6O8/zebW/0RO3C0uY3MpfPqXUO7AlM
+8RfTxBtFIpZweRDrv16E4pOqgDk0BYOwOJ2lQfqOfSJNqy0psFsnoWhh4dbdhsT+5LcY74soKzAc
+zAKc1D/nKn9MANop3m2fvHInTK4USVxeWgf7XEl+PFJV4cyHwgcNMngEskkr91aZ1Xc7OsnWmL7r
+UkG5HOOSuIC23rZ81ltHF6i/ixiQYzI4hQKgYPQhxpts+4bgHmwMNKdxpaBcb8fjG+p2sJ8FrZSq
+rYktyt31VIEf5vbTkGsMnlfTNMO5mBEnztapjhjs9pKQVsbAdjcZFCP2xG5MeHsn7BmEklqz+iQB
+8EAUUH83X722exd9eeOfaudBsaf05SUMLJmConTzh8av6Bwkay4+zXQEaJusg28OuXVwUGS4ML7K
+Zdfh5cainDTWDk7n06Bxcd/iAqdtex5/VAX2gvFCrbTUOQzX1Hzht1+VXG/IfjfMM7ZUDKwK4oK0
+yzhfVzZPB2iCGaz4pORhjq09Ccb7kQvMlHOvNWhQLvz9hIvI4cyrr9gb+jcJHTBu8VK+V5repRad
+ufVm2h8ZL5jQn06LtG6TYHSJ7Z88JEFgSZZVnS7PtbWskiI+xWb9YZaIBHlv3PMDh9AygEI7jCiG
+Xz4vhbriH99FxT/FazVnWmJEiTucdeo4k8GAT5CvRLqVDR4QwNK7Nq+2NX1TOgnVrzAPltlT7YVb
+mwJ5MX15an6p7foNkqC3/xgLpLe6UXX0lPjrgDD2zrY3/sj1Sg3bjoQBODKDD5JdfiWJdUZNwKQ+
+P02m3BZEDjZ8YsVY3aSjHh2iGXKKBAqL5g7TZJngwpm+8t7ZGsBkZl3QngMgJHfK5LDfb5L20+H5
+L10qd6AkYpSjfDrm42895JhcnTN3Ksc1UU05t+vcCZIDsge3l5RQIQ0S03szCc+vqKgdxvJUOpHF
+U6nczZW7o4nox12Mjazmx3HIpjvCr6CmTGwEvXXviASbxvSYKW/XkydjL+0RU8dbpEhSD7g85/OW
+TkaeY238hUVHOb99Jw8mJSs4Q24LfhNC0ojFfmf5X8VJTjNoeuwie2sYOqi9OwFKrN1ufLNmuAtS
+/6Zk56vlb+zGGysx1pVsHxWJx1J5+WocXlUbAdY/xLAvUTNtfK50TtJtTAIcXPcrovpWv7nCkX+o
+aB/n1KucnQHlwCfOpvCuXrG8ppwb6rDe+hVnOq4Kkw3oQnifgUcSj06UeHQVtXx4zI1Zjzf2sF2O
+DlwNkJU+E0Xctw+M+gb2A07tgnSoKKdzXKfZLsMO6f1AwS7xubSDMcZrOL0miQGL/drvp4VB3MPV
+wag7kNpxLReeBaP5OpIpVtQCuNdbeVVyn6Tujrg6bEmOz1LIPTqq8fixT7BxzwUyZQffWI4vmT77
+xwuVVcFTQxds1xPN2lfjPqW9FbbgpHLauWRMxSk/asw1rIepfdd021k7U9KFPEAgLP+cLqeyX1Xy
+LUkeYiRvAj7MiJ9u8U4v09oOOMkP8bmaTRDuZmdOUKBZYl21l0Ahnc4xJrFp2vQCzxWLOj06K8//
+E/OP7WXxZzYT3GblJFbDdbq5iSAofq0kfTXxAFUx9RRaXCQYJ0/HExGp91FePkGfbFKXK2hohPe9
+qO4d+z2TK4JFd6NLPV01nGrAIMGuE8zywNlzxVmdN3PkMlKF51aUxzhjZp5+TF7EpWtQ5NKcrP9F
+3pnsRs6c2/Zd7pwGGWSQjGn2jVKpJtVOCJVUxb4Ptk9/F3/8xr3HwIHhsT3wwLCqShKT8cX+9l67
+pFQhGJ8aHVB+PZ7mZbIw6wJHlnkJampCVDh+kHLZTBUB6BbEqMkFKw3n13oYedYtbHFDaOCzIGF1
+akbjD7+lfevCOxUGfVzdXc54U5TDZVxWZSN2Ahz7lNMsa7RgWaj5ht7Z9rifMWn4IvvM2Ly1f63g
+JK/ATLKQL9nPKfZ0Hvu61HWjc76s8KJlmZcua71sOd6V/Zax7/vvUVuRHP+N2btr9e/vNEZUhZij
+p+MP3ui/jd588d9Kq/MPVwqfHIJnCuGZEqv18LvV/F8Fpm3ETeW6pm1TTvn/Kiul9Q8c4PzvwvH8
+/1lZiQfc9FwlYYnZIMgs3/+PlFZH/Ss2zPJdz/dxjiMEO570/0VpVaquKY9aGt1hJLXYXqo6xDhi
+loglDn03wdHAIGPhJ/YwzGiMMxIDTcQZ3XWCdzzWmhTUmMBqUzfEzgYHB1Pp/4pl/ycZ2Y0Y/ruR
+eztpjRv2cnjlrKs50pKM+61v9JkdPNaRUQF6HxNwM9ZZpEtY1sxKsnHZpsM/BBgM4nv3bXbf2tJQ
+Augjp4gROW58KtFmIjs9DXRuzNN4F6bezSIXEaAyRL63rSThITAIPg0rVRaSaq8EaAn/4M/OO/og
+a9T8EkTpCz7k+8AUDzBy98EQ4fcoxoeYw7fGn1U7vKNKIJu++BTtVy/aT0lDETf3exhXP5Q1b2Ir
+vU9mzmDJu7qmJBn4M6lHPoSj5shdKvWgc2yNHLkT2s+qIbzu0cthxMmhnPQ3ZeCX1nL3OVzO0iWX
+OFBwHuPatWV0GsKWtmHyRExP47Eaouc6q2D+Q3BtSW1P/qbLajL/tZfxYqLNgeXwOuiSF2/qwG+m
+bKMrCKpm7j8YLe3DoV/fZqDamy5We0t0p3BCGcdzvoWlnq7jhkrF3s3OKMCsrY30E6LiqY6DZ0xk
+JPMrhV4c/xnM8NHqSwjU6Uyole0Yy6/xVNUZBtk4Cs5DSJN6MzM0DvU6qXBqqsR/qujtGXHV9hpD
+zWzt3aj/cgoUKAbwFyLCH7g4uXdZuCiQ6mDsDN9JEL8ZYrhOtg92rk4J57q3YRr5IaPMWOMFH+MR
+NCj3Auuoa/+ulJ1/IgB1Z7nRzyyapywwnROXKINJJr0GFlDMLCz9NW185BtbQahoQKtPMDTvZjgu
+XUj6gShSNlnMVkP52UfWTWnc18MYvnkmtGoV3Zsx3ZAsEvizprMSxnq2iAfVjAFpTa1l8ZIU/mfq
+RFdlwXjuoMthA4ixWVYdyGAyzpO4xO1CzkqqjRTv/BK3Y7oAmDNBoAuqr6npvYKENAzFa++1f+ou
+OAFzWVzBGMMC7PsKH39WnxovuPB2OiU6Z43P82fnbGJlnWNnlAwjSt5TMf2oXU71UMOPqSJo3Jmy
+CaHl9rnupnPvEeygpvOMbaMm0OyfVQCgSIYHO/3JMaSj/x2iBMDDKsJINvXeeJ7KZhuY5oPh/umw
+IN+5wFocnTgbJ0IH81uLfsw83guV43JgicLU4m/GEnwVYtbG4oIUdRTHaOOQBhL3DXgNKZAp+pJZ
+Ojd3RT48YQdFFcBryfxhF+au7lH+LEXTk0uvpg2UZIiB1Kfg1gzS4c26zpt3Ofs/bRZeJcv1rcXU
+TVGf804d+ybB4a/L6A/eSQc2MF2to39JPEiDhXEAqiDWLfT6oVNvixWyz8QbtUKPLhQBR4Tr3HMO
+gcqQYVk6c4sFgfKMC+/khPXGyoI/STpdpoou3Q5iCzv5TTVgCasEhEK1c+Nx7chkX3fduTKdp6jj
+TQCDY1rbrNR3Q4Pg4of06pg/8eB/UU9IsqU+eM2iEsh63w8u3IeM8HmUhJdQ2HAvfJjWwgedYx/5
+3vkFL5l//5u4HpY+vk6Y1CqUdAJP01qK5ua3+H+Zl5fkOkU2uOwmSoHdhKoE2YGXjz354HdYAoL2
+hP737mcRDULl8p31V+ll766hj0sLTTbLDzce9k5sPat0eLLm6iezcZ6HgGXTfg5BprfjqW2gy+Zk
+clZFPfYbfA33yh/8dZf3l9YNT5PDTZFmpLzsdjDzUI6N4qH1aGM0i30cW4AC1XtKSaGgyqYjm7OX
+vXcwVH2nW0paDEZAnEfZWZb4Lwxvdo9L7qScRopuqXLg6H01WRA2JZWwWn1VjtgTsvjIIDiiXF+0
+hlAVNy40CBAcAWXLrC2YZ4U6DBPFCan9FFhkdQCk7GfaS3JgWCFhDtr9tqqvn2zRHyfgh1RrfAEC
+/wDa+tgQvpgVXASKCfylxmYu35y62InQ3usqwtbWHCZSv25GwRGZmRE3Boi3rcKZOySU8Pht8Yrn
++11b/s6mU8yV8FhSFAy3dz+MOb4PA8mRxpqnyB06+6aN5U9P5Zh8ZNH0mTu4fJsRSg1ECi466b2x
+tMOFo/PLJ3+ZVywGwuS6lPdFMc3AEbAQ8pxrbeRPiTle8MOsxiJGgrIvdMiuHHT89TxRozKjhqdh
+8G2OAeuzJJmvLJhBWChxP8yzvWmk913SwUhUo/jwphx4eK7GWyPI7QxULlFaRfWLiD9Kgkq4dmhj
+VxvH53gceki/uf2ONyI6mHS+1mJ53IunoXD2fTKeQ+Cegt0Dl6/g6jn1sfGWUHyjt2PVf4wOEUrS
+VE8TgYakG7N1n7EYoUbnCoP4OpipR9Ki3ZvmsK1tb4/z+hP9YDvGv+wFfi0/chT53I3eG1vw+MtL
+3pDBmE39rCznkEzgTuLi0+mMlx5IHdDPn3YxtWjjh+WVS4OlU+BM1F94LC6dGi+psHY6Ygs787em
+iouvufD6qU9y48d2Qh7T6p2m1prWRcSHzDQPCIqE/s1XkPIvhqkYYzBjAYJ9tqdiG2ZAisxsBS1u
+ZeNRPToeGmpkAPGh2ugdm+yLITPwDTkoYn6XYVNy1BnuCaumfcfnHC/nnDyQGROHjseDpfRzry+W
+9eBp8mS5sHeslBHYKuJrsufWXvFOMQMiP8VDl7sx3Snjb8AmOGC042/knJ4A1py4/z5DSx321oQu
+iZMm7AlzmaGJM1sZvHSl8wWGmdUcYeAeNRCwjbmxkiVoZWdHKjTDislTzEMBcsW+KE04pyJP74bh
+Wz/rHgmOBoTK6k5yDpM9HqUTfn/+4CXrFrmvTd4dXC1PTW0+iQiNmZh14XiPTSe3wh5eqBPcCpY2
+GG3ZfCY2Gx0smsm4y9Ir7A0UGn2JupOXH7z01sb3/JCvFWtPYpE7lVmbXEyfHo6V2jSeCwV7FHyg
+XNeU7/mVe4C3BZwK1EMWftdNKTYLvhwewc6v0AvM6OobyY3uTlz3vNuFGF5VoO9yLDWhTp4T0zzP
+wzjyF+Ea4HXtb3X2u3SNDz96COx4lSOzziDhRtM4h+4FuSVZ46LLSIaD0rXFc9AwnUbQmCiJZSR3
+oofFrtxm5iYW3nnQn/jK3y1h3NOlwctj/AUzEkjJU+z8ttryJ03mApnIffKE+W47pyZ9DSYkIA92
+dtM842h762CjkJh6DvSHlZRihdtfsQ7J7mZWsyOTbYL3LhBknZz5pXNKKuizQ2YzLztflWX9jpwK
+Fbr6DjpKQbHc4S3FGBTp9lxM8VUH3Y/KMqzmMHVQmOrGvRnja4xe6MzjLRixs3cdU3ihwzdy5XcR
+KzYvKH+BjgPc5cLQ8eY3TdDd8b4FDZJuUL2Q7aAP5j43skcVkpVc4koMqJQsLl7HQ6LjFLdxu3fh
+dpBUOuQgHfzcz45hWj9bkFvamlASwlQVuneD+VITh+kLMnhDUW05ZTgqXmQWbvOmfebhXUUjVVNB
+Xy927eSxkRHuK10fKgXFzHJh0PPUuMn04do0AePzOneT2Hg59SFhXdDFONJrZh27+S5ySKIq7y7j
+sMwcb8vp+qNgNgiTwET63E2+A3UI4UU1zSaUijmU/rPSjw+h/u015gZnlhuwL7OMt07G7tackiuG
+UyKJdsTlv/MBm2XH1KZUSXM+BiDkAiN9mAtFafOhb79yFMWUB5Medy/Ziz4Fw+7Q7NH8ahrMmTBz
+ZBPfYVUmDus+wzPLvOhaz3fjPJPWdI52dPLDJ8s8BAb70Km+74rmJTA+Gf22IuqvnVa78XHmjkOF
+8EZOaisRIQv+niEhwPIbvN2qa+o1RIhNkN7s+JW13crmW2Iw3wxw7wSORq8zn2PFW6vYBXQcdC3P
+v8SfCdRHbQH57hRutzqo1+D5gKCMjNvMYhbUA9GjvGEcfYvm/Nx5+16yulHZbspRtfBys5BE/oR4
+4FAjnZvg9pMH37pTw1WHv7uctHCtL87YnUyPK5JpYFpDz0GW1WC6uogVP/vTles3uOUdU+5ZW1FM
+7NhbzL2PsrH/uKUHZLen0GfUhty6fMLXU0Me1JmJ8EWk+4K1M/lHkUMQ1t+lx3WxrXx1IPH2RYWy
+e0hsvDZm9Fgb7q+0CTJuoM1nBOXDbfPfXiHfs45UigGCoM+CKzklLspD+EyxITHYkBrjCMzl5Clw
+91V3H4B1SYv2GomWwgLzahrDySmIMEkV5MS7us+hBfXUZWaxmhxJYM+xHpMZRZh3OC1VtTb+SsSG
+pRHyQaIhLMIitrYy0kGFYEdBrhHrYM9zlVAY6KZIhwKKaF8lUB2a7AP7ylORwUseuxBsjvBwn/fd
+FVQqfX3mhFcCGBA+c+Mx7ZoT5I7Hhn2v1fuPiZl5xybK9xDc9MpRSMBi2ZE6xrCjCfedOPv91LBL
+R6ok9Dl627ALSbopIntEsaifM0ckbCBqmgSnoJmbRnPuCUkm9mAr/pgm7l6iCkRXZv7KEdck2xrE
+eQxbcamjjRu1NYAafe145Nj8VmcDMwujAC0DdIL281MuBABn8zYFSbyL6XRY52N/PzKb39VNm9wn
+rSaCSmJww0J8wmjQYGKfoQahLmQbAFYF/8hKbuLE/65C/ZEbAbQ00Xa7kP0levxwHMM+305+feqs
+4irYfnEfBXib6QUnG6WPZqHoy2ivthzuwqi+x6TBUoBISd3qZmV51VPD+nptYC3CIHVhV38dUsxG
+loM5q+gyD9EZlSPC/M16d9yZUq8hVt/PuT7IGnSOSO4jC6ZY4QTrhP+se9/YNi6oFca3lWMl77oB
+fqgLXq3NXk3OsW30AMAzDyDPhOFGyPSzCKx7unWuvnJe56y5avGdJ90RaYIDuf0hzfxGSAeoMWCB
+PgZ/3VG6bqvpKSj6Z5lS1zP758KvfmVJ8+Ukw22CuFFaaUQvyu92Kg+uR8derXe5lzzldNuslGrS
+9VDkH/SCfmHqYmOX7WuHgAl4vy1Tk15wL7sh8o9dHt6TmYZe2PdXc6auU0s2LW41gJA1hqunjZvO
+q6MKRXJRkpe8zVywi43iQDc9FPeYw0Y67GxVHD2Qj40hJRSXyIyX05xKWjk8Fg3d12mecTCI6i3v
+0OBrg4yR4d4QoSh6Zkc60BpGJD66G0bmM3TulCVVNa8ZJ55ky0hp1A4/2BQ3MQXB4bGTvPkNz/xK
+s/S3QbShmNt3vMDY9sHurqwmK/Y6LtzjbOftE7BBDPBYZVCFgcXC8H6GNLGxxbKqta0C6KO75fzM
+zwIs0qry8VkFnQtGT0QO/XmfhOCAMTdUqZuvU2S/s+w9dQFXAIEeIxDF4+g5lcgDKFVSdkyKOQXe
+NENuG03rUTWxau5oXE3U8BLxxNbpuBv+sppkjyHOk2ixoAQdNEN3saWwg390GwpWPZusDpLRzsTD
+wqKFG7JRAxas0BELXuo1hhcvtR+mynZPsEtBCdhHVNZDGmG0h7GQHyAa9Qe7D8mkkwftuHHCJm9u
+1mK8MZPf9uLEiWr3OcCaox11rLHqZAqLJ2MwFIfqFnB7SEjTHeRCYK5lf0AOe68sMLOWV8It9e87
+FlJ8WMDq4pLeWuP8LFz/jU3PC+rxvrL5OSA2UcqFyaiWw9uwuI48p4SwuriToGY8ADLDCRE0S0BS
+I9XFB3NxNDXyOhhsqYLF9ASomyFpehhwQxW4onLcUTMuqXBUE+8WfeP9eOgcY9eZeNWV/9jir/La
+ODiMGWGdxXqlzOnTjhQ1EJB+JsVJIvFpOS6E3PQw1vapLwOkLvb6qqq/poTX7QidgIelXZxfUDqu
+bqtexsUT5nB8pzCRF2su/r9di2EMX8Op6ZjIwo4jIbPCX+6c/u4xmZWL22y2qZZy08cAD1raLhU3
+jCAlTc95Pg6bAaZqY3oBA0uG1a65M8042AijPuY93Gu1ON6acWaowASX196NNSTUnvE0YZIjG8Rl
+P5UvuhA0pEm6gmo+WLq2f4yCyB45sofOs94wH3Mn9RbvnanwtnhLZtS7lj4GNStAtsKkZ5AwWC/t
+cSIUd/Ni5EN3OBmTdXX/svj1zq9k9q9BqI8lBkAVt2dBgnE3yhlLqTZXVICt2wabQJxRCCMnpDWS
+ioIuRVUaLzSxUmaYH/0J74IudjaJmmLEaakXT2JtTYQfmwvWLcyK1UcxeVjFsB54wNY75XBI0KZd
+EVXD5TjgdoQvF21EEZ4VIKZhMURKnJH+YpGk8xFIehl53KaRhhYzZTR3qzTvmGRgiTqMJjHvC3ua
+6L5s9oYBJG36SbzgeSaKOpU8zg3h1J6Qqm//9pbMKr5cCEQQZCVxViWIXg3UhHcD/kQCr0FWPWZ9
+TegbQY99IGm5eL2sRqE97JxZaEoJq50mRBvWJfqSYjOaPQ+EbFPc1yXjzUz41uqgdHb222BhWmqd
+7yKfcfvO54rQ7n/PHou10r/ZY2Xxr9/N/7bJ4sv/3mTJf7g2Qqai/sZ0+G+SAX9vspx/2I5w4ScD
+q1LwgckZ/DMzwCaLoUspV4AmktLx/s8/MwNsslg6+coDXCQcx/rPoEXK+dfIAIssstK2Q8oJ27xn
+84/4/yMDPD1dI/qI4SRIH6HJ74hSbaxSPPqSRg8PFs9sL+d1ACqBt2xh2Cc9AQOJ3CP2WjRTd7jw
+ZuBcCVnbj/ocF95rs1gcczBubroAz7mgJmY+bMjXPZk6IIUfPhhB96FqRmRjyg9hnKTr1mwZKefw
+PrXchnAvTmUKodZlAjtADsURhZdrtGTUKxWWP88yL0CQrbMdUVfV9+G0S8se74HqQetAJgwPvqPC
+X93s73wnRXkc0lPJDbIrYRnUbn5XzdauK8FE4wyFCUuQyTA5piaGuN5EyI7eHZ+uxsa4Kn88BLzm
+az1wqC2FNagyqscOQs09dnl8TDhVN1OSDti3MJek/X1c8eFsJh+7n8CV7ANzEKDyVy4zu7I1S6om
+uxVubLJLwRuRtqCX5bwevHRvM6WHmqqVYiBgFKCdU2ge5rB7RnHMq/Lgod2OpX/NejfaDOQ9Bqfa
+W633WeLmTvRS9IUBQ0wsTKJhPXTOHsNvQX5iuhQzOO803ddWegDGxrUouiZTshvqEVzN+EUk4cEr
+g/vQiB88ADh865sBQjA2pmPGVMI6/7ks9rXk1j7cOosRAZoMcrMR5qe2RaDhPm0Nw1uv/f1oIUZG
+8C9stGMs/t2QMVSbN6DMy54t/fazelf2chvByPNr3kEEDj0pr43Duh3sa1VaJ+lj6M7GRrL5Cl5M
+C1BwHzpPwqgeJ9HfOsVs4NCZoObmw4k981D3RrmKgmLteg5eMPsSG75H44H56QIunVrzu4rtnNB1
+eki8l6zP+IHIWw5c3IXJ3legqrVJjytZ3qY0j2GbfUHMp5Fp3CXBfJ8qdDmFVSNp1Ispwi/Il7cB
+JTzF6beB7zQy5PXuZ72U/TTAG3gkgm+jqi9xln/WsX9jHsaWAozb9v+gl7FDw1vXUo+ka03hEkJ7
+228G3FCdtE5Rm57yDl8MTtBzyJwNKOtJmvFJpcHzxNWA2BoLrw4/Za5AgOC6TYxfVA8eytbepDU1
+pO64rqFvkLQ2cDLgwmrzm0jjV8+w5l2VtxdjAv9X6rvKyda5ET874IlSI9k1QXEuANAOXV5tmPEg
+To9LQ2CH/RNqlKzrLeIIADO3O+JGwpuXtynpeC69FXxDOS/bixZXRg9tjxsyqPkQh0t1SljZrkVk
+fBO8f5XsMJcLf5Z3u5ZEgT+6Z9+K9uQl7ifF4ZzZ+PEGydmfI+dWHp9sokee4f8ExDYzYV1k7u3T
+HhXCaxpWDFBA2IoDV3IhTEV45tzwgBHs6qTxeS70u5+MV1lnP71mWhitZthE7nRndsNWerz0kDJs
+IIjj4H7BnllHvQCD2dZcrtWpTJ1DN9ZfJcbRAatLLdk0NhOgzDF0XuAY3efhcE668mgqfQvz7MUw
+zDsfErjTpjfhGSitI2KLxRYk/Zys2joQYMBBVPKBpUqro7KY4u/Qhl0yWheFTrvOW355THKEPrwz
+KItN3BIbd6X1TgTlaaj4lXaAunMeBnv8Slz3V0ODSjCYrPPlI3DnmOs2/vBitCDFxpBpyukuXa6Q
+c8rQgpoaNx2dI9Zt7LH1BXI6TWb7KgMerEEEVzZVDEWwrfjIVh+mYoeBRJ3NNVTfsid85PHnj8ci
+nTc29wCvg8nAJw3I9x4QAzGVlBeFTlYO6AyTpaoXOdTlBMHWceXEt8qXQOI8W30Vbe1i1Nuh0vWW
+u051HAR7ucBJ3mz7z9xcLE0Zm+V3CpQFpd+wrpujtmimnZxzW4eoDUVuLmNrf+nTiGzZ1BMa0MV0
+iS3NtEV4SyUooUv7Fa9t7Pszk7SN664bSeKG0ai2fe6E1J9Zr8qazatnV5KJjIccnjJll/D2N1MG
+uL6V4XRoZWZvZwPsJeUDjJeg1bVnPXiQUpBb+yO1ULCACh8XkUFQF4gYD+jeLNV9JpIj6m9x0mUf
+7bWEMJ6n8a8ZEho+B/vH9HK8jFN6Mgp5zMvsPSu8M9oudL0aP6df0cXJQ+dpjJAieVIJz+gYVZ9+
+lH8WSf0yxRO7uVmslWd85R2mFN3VryJIUVa0t0LbuRq8fgzwrWV5KBYjMBaoDlUHEyjWEPeuNzQU
+P5onsao/JZyZEqAwTbO5/IDpwwXNRT0ZFrnTni5JGu7TsZz2Q1nfdbZ4G5nfY4ddbpURRcwcCzLI
+VK5bSRbOpzVkVOXV79OtTgAtZ4PBT8iydrZHj2uX9u/J2FwjuvHOYNTu6aObtmg5H07X/ri9j0g/
+3nouMJyo1qv28bvkqSsZMrDWuInDC6lllUUdHhLaQn0oLIewd+1trXBcrkH9x+C4nwog/CpzX20g
+j1y4PLDZMnjgDRo9NswLU2MgL9RbANbONl1KWBKGuZU9lOs+crc5a9/NYI384Ez3AZ2y3Ax1/BtU
+/xpX6K5vWBiZAJLa4qzmny7PboaFFGzy+a6mcOOrAeIy/o4OYUiXmMdDPB1xi3ZGX/1d5PO2S2IQ
+zy0KtIs/pUsLLCy19bx4IYha3iWMPWwrdxnddDqnNcd46jiZCnN4p774PSUngxqhX7qYvfJc+28s
+u3ZF2XbAw6rXtm2LTV/9LhzaeSKToszRdASB9PTKyzQ6+mGAs2QJe9su81u28DAii7yHlEfH4LNn
+e+FD2GCVLS3+/HDI75UybqGZZ/vZg4rdJZDQmz4C8jGMt9Z330o736dZ9qDc5hQwD++mInkv8vAl
+JtDthYtlskvfMz6hu1ojKBKNaE5pOiz38X7j2r7cdsHM7zRtqKdKCMs/ybTBqE++diUsylUw98Qr
+A5oH4JeIg2qKYOb0j2wI13Azg2Yr+uaXwGgY0uqeaJv7p2RlW7Ki+TFS/THqn9wZfi3XdlSVZmO7
+YAV4uvTY3ealBgExcPBjsSLHdWqt/gH4n7POfYf9PBxHOidYHXwNrmTL0NyDY2apKvQ9GufaHhFb
+Y4/hUhf6dUZ2q+zhIQnc3xEvdgaaUwhUsmu//ULfxRm0x3CusJVE19xg0dFFMPao5kKmwsKKgouj
+qQ+ubW+fCd0xv+bHfEakn+DmePqQRBZmiY+xMdWKlnNnW7eGdais6KEvKCUnRWpTTStP8ODxr1d0
+iQxZBv82O3h++mJG/jvtGjFjZUHvoWG7RwFTI2OPaqQQPhY7MPtVsSxaZ+3dRjavjTO++mxiczay
+87KaNZYlbdV8UJqJEd8NHwnmsBowHqjNu5psd6OezRaH9y6HftP7gtWx/ioLE3xU4AH2ZUfcUhdN
+g9QPievdkKkXwS65b4cdNO+D0TfPwV+/arbOhm0+sFR+g6N1bZsPr+cN7n1lZbg12VjXkSIPPGxH
+/tYwMdyNnS5rfPcKSSpb2yViMl1q/Iurp2lZiGu3/RjYkPcmCVm7ro45u3OEbr59jtK5789hgNbd
+ZU8V23bfE1/jsn5PpPk+VwigJZT7GdYkvuQznQVssuKPsG3/gkvt4ZvmW3S58WajwKw8Nv6O4bAX
+SuQ3tEZ7A9Px3s/4TMXY51iE2nT41os/gJXlhJsgHON+PQKhR5+4aJu4Dmc2UsulxYcggKZSsrEJ
+F4MCYvYuSKNrgXPBJK7j+NavYLE0eHgbyDm9ohv4u2yxPaT4H2i5+EhE8uiQncnxR3iLUQJG2C7A
+OSFxUMyLlaLGhS7wVrR4LOh/fvfwXPSL+UJyV8xcfzvgyoiodQfdhDJinTtcG5Fh7K3Q3lOMvetx
+dfhZeqYgeDPh9oDCuhsdsiq4QALcIJOcdwJ3iI9LZPTgky6ydWS82dr+dHGTBBMN6zH+kv4vnwl9
+jBZ1Z3qxoBgqeE2YxCOFzatr1FlmSIS4VlRn7WdcLNQfnFvlbgnyv9J3vy4Wu0uC06eKovVMREMN
+6OFD+CCoEOtaQizu78JO36noXLkWPP7Yni8auyC3P3XswciuZOOO7FlaegpzAmW87sucgRYUENNo
+vM+jSrC1saOdMupfJVbEgQDPuncI+OXMzyo0r4T9eEENwdGyqtPkda9xNFzT2SzXwGuPc5CLVUTz
+mauz13zkb5wSVsQspFPKmZdrwlCGG1fk2zLNH6iQPEcFXmvbXC9zuCUcIjvVNp7743+PuoMI82/U
+naj5+vnfxB2++m9xx/0H1AZpKdZ+LuUMFjbgv8UduUCnhUDcYZlM9A/d5Z/ijvkP7MmO5duKYnmE
+UL7obyDEYlPmMkxaGGHII5T3nxGpLe9fbcrC8oSwJD052J4teDD/U93xnDDHSy170pnjMkHopRwp
+pwdW3VpLPRjgmTUEvbAMjlNffJo2CUR38Dezkb/yHVzHPtky9aydxjhVZvcnWeqQIgM+MBE/izsb
+C6gXzJbJDpoNbjxd7hBhiUexCeus/g6y5IeROTcjyOAgYDuzArbUroJYx8McqRyCUnVn+LiQCS7f
+aafSp550+Vp4OSjm3ruLFDyeGvtVqwuOwvJ+iGJ4y5ghQ4R5K+HeZySv5pz+uBVuRuBT4VThY7OH
+O8OCDGHPcJOMYaR0q8s4tsRJ+P5VW8mT3ZOzlRrLJrGQ+6Fik57Go7UP20Bt8lac8LE2+zCK7iFR
+/Uhy6KoildIBR6zT127A1BFFMXHKnly51IhMvOoT7fccxtnGQL+JBnnnNwzcOZtgzSncR8Fr5PaC
+kmTzNIrpwelzd8Uj8hikgKbrgO6Gxn8AmrNr8PyhptPzCn4Bx9B2serqsbmMujinlSMPTQNsafCa
+YykqajQI9g16QHVjPsqgYfiB+ONn+mEZZ9kE/AGjwbUYWhOeDBaLctnkepOzDXWuLomkHTaaQVAF
+RxG0j4Vfvvs15woc/fvOhkch/ZcYSj9u6uILUFhul8exwErEPWYrS+cmKm5DnXlIgeFXo3etw/Fu
+npZQNQ0fRDWzvcyaBj6xDcynclY4iePVgJlzX3bRzYyXo4Ydr18Me3B7u9noriM/9jB1PXLN1q6Z
+9WWWIebF5JTXwb01tBvcXup+CqLLOLHu8BsGwJTCNauFUqZZs1lcCta4TEqupyD7J/JD+NxZYrkx
+ngUz/D3NA92bKUvYyM7ozdXusR2HZptn4xPNGVc6DBtYtIzO4wTanNd6KN1LlVDY4RGFw8af/nCL
+YpaUboX2ErwGVBevzRlDqGqWC5+DjJCTQHI9qok0lxIGQ5aENYYkYBmIg938Uvn+k+PAQzNoUuTu
+RrOPbb3Wwly7hvGqw3bbkA+HDgBTXvfk4dXKs433PsEkIzug6q76zictmCpcNpvzMRIIev2SUg2i
+8XedeB/j2NwNE3jLMeyijT04BJHS6jscizvb5R2gE28Vd665Msjb2JN9GnHdmobxnPjdLjOo1YrZ
+ywzcnVdyqD/cSh34B394Lc4oaIroZGg3rvKytdG569lnj5RoEAIzpT9Oh/ktD+xvMXMesZ27iKxC
+WsIAge3A6Vh2OTQ+taE4qYb/Ry2Ab6AovjuOhyk8BnLJxTFBzzX76uoZ2NA9b4egzc3CcsYjMtxa
+dd4z899Igdl8mfxlJ6QorTXtdWCCSaidND3SDSq3g01PuVOmL0Fm3gUBqNY+JkmZT7haR088BDrm
+8zuWGKMSfiaZjO7MkBYnDCX+Lk4qAlSwcdnyJ1dpFe9Jk/9ppPc0h/0Vk7GxVvhZkT8pqZqhYK/M
+BrJVqlgLjUE+rRrisFKEL5Rye7sJrLvZj7dU8iBSaQj9gFVVAGBK1i66JVLRnI8OGeGk4ucxbMsq
+guSnnE8ddW8Zd51tXsOqJ+URj+n/Je9MluNY0uz8Kte0DygiPDyGtlYtkJlAAokZJEhiEwYCYMzz
+HE+gjV5AOy21qKe40nvpcwCcQF5WVyetO82UizIrEpeJ9PRw//9zzn8OFG9gLQdN4PfS4qyROt6p
+VFawyWTe1YmXLCYrwwscf/lCwwLGE9ph6snDmlYS4VY5bLTAxjQ1ZHw8GXEXrhm0lN5mYnJiv0it
+pWZV8bUQrHpQwVQ1BRytHQWXMQp/JsnL67YNEHIgWo6y+aiavTPTZoptTNDPyFBhPMKtNlbYrGPG
+5vfdaSB9KSNWuCzf9kV0nhfB26QgeBr/EXujG/pNVmjrNg+PuMD2de3e9HExkj7WIAZJXONF5VjM
+4BrpTVHRDgQZTuedJYMFjhPIWlwTz5EaOCOZK+KA+uaBpxZfDvTPU5U8wiyjdR1whW6iN1UhTrUw
+uQ8SpfaLgptMl6emb5Hj40v6Oxvqn7HbDrvK8lRo071pEJI5lrm+mqwmwrW8OfHM0T0rdFx+szpK
+FphVtAvpcv6FNkaqGb07KpXz1s3CFWQq57rjrXnAcKbsbnkMP2BUcc9EYX3Yt8QcOAMpUJNFxyEG
+ouBsdXzMmqUdVq6FGKMAszZxLkO4QH+eyOuCg4pmEeaxqArruPedYGXWzdt6dBHrajZmCkVNflCK
+t7idVMlSjFg+xiUa7lKm4aqDuzpoktk8TgedakFBXZMCvWwFf7kKCEtBxDoFjZHf5dEf9BOzcBFB
+sgpCI2irwDPGXmQtfhQVOJttKmUYwNusILhaJQp1Qd6fIh3RN7WC6iSYXQlr4igQb7ZKNCcaZ18Y
+VvqSWEIn/8QM7zusBXGs48o46hUoaCp4UEoeYltBhlZE36FARC4wf9W3JngRawbOyMRTjKYqeTOA
+QAJZHo4mAgiQyRkdPyYCfPEj4dKkzoBgskfwRBmZEGYQ3x/M4sOg6xTa4J4j+KfhB7SwIKJdAR+u
+IFKrF2/IQ6CmnzZCgagIKZZkGsOqu8eFglndgeNv9ELyE8FgO4tzGExWpNbHOviIx8xhR0zOqKBb
+0ZZXQM7v8a2hPAPdrUB5S0CBXMG+vgKAq4oNyrGfgwwLEGJUneTAFcu+KQ5mBSH7YMlFgWIXbFko
+jBms2XXmAx/sufCjt4mo3yRg0jnYtANGPYBV5yZ2d1NTKhvmmbDa6X0Prm0Jc52Cc1dDcR4o4Jtf
+cTGAhCNLXwE5r8iVWswg5bjonwwKOo9rTpBWjx4cUPXcrhBVRxsG9869HqdhBb8TpY2FKYi8pATp
+FESfmIzMgNlnYPf+HOIBzBi/WSy9gVMJjH9UYL9EvUw6AgSAmMIz8lMPPQDBZnQOx7o/qJStODfy
+BIMgYBIiRSmkTX2MW0qwSGEbcmA4B1W1rWiIFN+OwOR68VOSFo2ROTokaEepoi9s+jChCI05xFRJ
+URw1CYujIj3wrn/bwII0cXogYUWYAb0uFEsy1YQjhGvDb09dRaNkXXIj4FWSFkNXRmnJDM2WXTjS
+wllHJUyMByOTDx9bRdB0MDU5jM2oqJuZzeDC5ZBHQe1bXmnY59hwPWZLeRXA/pi5TlYDsVmwQk5p
+HDawRLpvLWxYI9oP5ggAcgH2kAuicHHkG1uPb52xONXgnXLlalErKqpSpNSg6KlUEVUjfXIKc4Vc
+/k4Lnbc+jBbuJQCI0sAwmHATOC8tiO8Hi4AnqzgliuCwcB9q1zjOO8q1yUHDDZ5l5/yPSaSXExu3
+gcsseoLb/OB1l7rHrRoHfJPhdGhN9pGXDc5aPnmi4pDtYMM8Sfsx0DikcOl8HGImdHxzPHBwtneB
+9SNl3COAuyPSFQeGirxPLbFkbQ5+WpNrM380kND7JuxZD0re6DciqE4ELrb7aS8/FKZxpLvV7SjE
+nR10x1aI0tQ2JIUEDYvUj3U+RsCCuF6Fby+y22HEn96YbVIvQrxvcBqIPCouvXvba/Od7mj3jsTV
+N/GXQjrLhtC1kEwziu9h1bjho5SSYehqxfGNCtWEZY4OHUc7HC1qMcXJ6ooy7yfCIwsclYeWkAYi
+KhoEM3MyXk6611H4NyeW0Z6ZHXigpmFjmzvysq9AeAllcb3+nRG3qDxacTcEN5o/tZtQz95Krfpg
+VgyViLhH6R8v4pHZOcLLQEZze78U7Ukxxwe235xnKaPxKKCx+emJxptK9ywjUVMOlClh2i8xTO5W
+2B/RHNVHFV74ujMcZpM88oR53BvFTU0oGLngx3aGgkTE7aNAP6CScqwiRDEI2GZx6efe1CxzRRw4
+XbaGqd4MhnnY1PqDR5FpuawbgDABL2JlW+UdwXAEbbjyuIB2wEUc5hD/3sSltjWV7KZDsxmG1lqi
+PAXLJ/nUDoolER0qOW1EXI6X+uTDVlj5m7RFTVZXIQI1910RDtctad0eQufcxw3LiIMTJ6yP8/kt
+U2ig3HPzkbwXwL2SoQCtOMBKg5GV9qyMzBvDqo8c2R9ETGhOHZqiCczHg4juDRRzWpZfQ/goNEgN
+o+NEjR/bleFjTNCZ84pHZly0pSv3CVdbdKNHoJ13o5HOMEbywJaMeTr6de+G5wI7bKro4hyTo/3G
+nxeyra7dXCBwZolH93r2pbEcrPqdkzsLEh+Z+ATQ7J3VXKU4mRGjXufGZYoIA3YSO7/21NEwmGjq
+y5j0iDCdzmeLAQL1XweptqZVXLQNo2z0CgcYqy/jIVnFs77IUnE9pv01MtfrsU8+jKgLB33AOyM5
+REfF9F+Ez0WKZVuKfivvPWYHeNwwEfOOcIAZ0btF6VJgQIJj+lKQ4szXM3EB4rRO5iehx+CrGBNh
+JbOURrfs5/TNoPVESBIWQ5sZrxnVXKuIqwCNAH434SILwuvJm5mNDc6Yw19qISXRU7Xv8hB2IBtG
+2raX0RyTCiL1i1Yz7i0tPizz/sB1oxPigk+7qn+XxaLG1ib+VOjxSUshta57f7/qPBpRRTMyVoYY
+3Uiv2nZ+Kwt/rVfi3VQ0ysYqAsv2kxOHygF2v7lqjPbQmocNJumXfo03B1UyEQgfgxjzcgeFCDEH
+D4FXXCQemXU4ihwamB/KuDvuB5QwTLuVtCZ4eTBfncTeqmh5fExYKlxdNxleCmmEVBYk5Mat/Udf
+TzfIOg5s4lgK7HD1pv6Uq7ie1ld/INGgM/FimcnHaIyWEk4rQUMYxIDEmD8SwnefdSZWdVr6LoN/
+NcbmasrFsorQEfowd76XI9TE3cqfhtNWaUkjWzl23wxWQxBxkK1Sj1TfelinPOaL0OyYMsS7A9sv
+7GsXoU/haUUJwxVVf24N41FblnCHASvbdUzL6mATXYwjluacMX1LQKHergSZLA2OaAjVV3aDBKYW
+0/vJxI/FGjzUFJV1rQVmRPxWfd678tMsGYNK6ujOMZrVaDNv6uASQKaVwBle9040DPXLaH7v8bNo
+b5aeX99UWaaGq/P15FHC6Whcwqhmut2cy/2knfT3qEmslcXwOrMhZbOhXsL13HgrEt25iAsYZKlZ
+R6kh1j0kQavlG4YmMHTMSP/0hEe5kzGDoEu8w7OovXE6G8Mdz4jXs9DW2RTd90SxRa5HQFVv+cy0
+BlcBSxy2DLG01K6zll8aVYDDiAOobyFTJzfLTFeEYGMwEd4WYXuaCpwzw2jpx87bqk2RRA+INskf
+ryqffj1d1bW99v3iEvnZtZaLtfTmhlDNhDAcohKJTz9zE4+KIaM9Dc3l/z8oMKq6f4ACw6I/dB+j
+v7Cr4L//ggO7tGCuhykE2YS6A9r7BQcWtuliDuwapiGEQmi/4sAmcmnhYJ3j2tIUX3Fgy9uTuPgq
+Awzpeq4l/jm7CvTM4LxFOgVFruw18NAwPIFrhgOU6EgQYaUC/CaZUDJjB2OgZjfm/EMZltpC100k
+HEF6FGkof2d3WNe5oMwIicMcz3wHSW4XrssyQj1bbQz0eQ7u/nCQcEvFbd1j/WrIlAYse6jr7NhJ
+2aGuPhymQHmIM7R12lanOhe9r98wv4ujmy2QwjfX6AfEajTHB4rIo5a5tQzRlRyHNeFP4GuthiBP
+WGgE+wfHEbdjWt2IiqEcl9iBBGpH2vd6eCx77VrvC1J3B7JSqMNLsEVwylKPruCwDzHdP0sCclT6
+7M6V5ge9KQ8KhyC1MC3OxoKeEinxW9i+QxOFRprUOHZZQ7YvXS4zD66r7Xnmswliacwu48j5mOIa
+o0/TJiyMpUmkRBAzMJkzOCaH0xKLPEASjYONHvwgACJwq3aN9EljDoc6wWvqFWZLAZPjOJObc3fY
+++Z7nVsb5hcAr9HOyVjOTplhBWbO+NdC02mPszEvb1IDF+B+8lcMRHUnNjYUFoI4b8KdMESp5rdn
+rTMf+bp3PgLWCoatYmY5Rz8pVtg0b2SunYY2qS59c121zUFpDx8sVy6STm9W1oyMzSw3/BbpYhLz
+bTw3jEiEzPA2GZDS6B6YFprKrIRmj0hpGirDZPgvx6Cwu4BnwlWsPHPgi5s+z9HjYGUSy/5mCAsm
+ZiTD5ekxe/IO83xKo6k/mxWEWMsgPjQcjsqwKa+nFKN2XwsxxyX5APMrd595pP1Wa3AeqTY6aR29
+Kb39zh0+at1APvAHLWwGIkjCa1r/AwtPrAXScqKMDTJtyB46TxHz90Ceri+ocKAb1qaNSVhGDPZg
+1vjpY77IdwbwpRmE72gnXUH0pa9yE3JidIuHWkJa59RkC3QqpOZh58yYrXEwj3CAztCdFcz1ZOBp
+M94B+1XRfghFeVkEFjI9xgywDq+YjmpwLazO0VdT6ueWBM4tGMO2WElrYbTGsk/sBw2mYt+kNY9w
+QSvLeN0QL6aFDBbaxr2ZZKvebX0KzvENuGi9dhWJ7uuXmKxhfzGD8uDot8L7amUW4BJNpj8Wk31r
+dCXhC4Vxa6LQZLTxTg9JtyQzC6ErQ8DZQBxDpA0e6I91mBWU4o1/ETHuK0zu2IG6W+IIJ8RxYoKI
+JGPzEI1mDW/UHqd84NEwpyUl0GNiBthBWvda3gtm6pvhorChILB5AR3ZD3n8R2/GL6BeCL7z/cZI
+QN0wsDAl5lm2aS9JET8oaMgjP3grWvzYuiZ+9EN5QcrCuV7N955MLELPqfgaLz+r7PJRdEO/MixV
+pUwSp5tO/+SWs3Iqq04w3ydkrchc2i8mOyYdFLCxHRLrh6t6ss4s9DyBjtmqBI3Nk+q+GJybcHSh
+NNAi2V27nmYIlCLNyawvTrzZOk6Yng1Gp1iMdrKSAw5ZtWccGT4jR5FXnRtSnCdm/OCDCmCZx9hh
+jvCPuS37nY5kPww0Qtei7FC07Uaazu1Qdlf4LK7GIsdvrBErK4JuGWf9cDIdcIl4IZoZBMtosCfJ
+TxmSWJWOs7ICCOlWG9hJPaLokShSNi/H2ORnITvS6zaab6FTtS9LESH77bJjiY8njnvuVY1aspT4
+OSQROjoKNiuOjq20JeXAVrSTQS8ahM1jO2Dm3kXtWZ9StfhZj7MCGS6CDhG7R+Wp7STRpWX79RLm
+40NcjjgQG8mxX5ubOsvOSkkTQ3QfhatnvauE+T60Gf8KhfFJg4XC+usCOsv8lLTZYwe2OcJXuYq4
+YqqEQ6Viwg1KK1XkVouLTgfbVcJ69bBfGWraY68NDip4McIuD0Z4MjtESq2Is2h2LonWxVFVDBda
+MEMkVJBspnPTK9otCW3oGGRmUpwEHecjAGiiiDoi4Dg1cFv24fDSCXu3XtF6CI5vDHi+samXtOL7
+RRQ8MLpyZipCEJbkmIkypLYWWAxWuPHGhT9MU5NrtI5Rvs7hlQHHaMM1ZgwZYsPK16BoyJlpo1UQ
+9rgtYZ9n+gXMPHAw3KVuhDc6XGbbyYm0eWfZw3L6SX7WctRGSDcCRYMG8KGMRjGDpCjSTpGlFR7k
+gQd96vT1ieGD2cOrSvhVUxGtI9xOoEG9+nCwuLB8aOFkO4QozIWioCoJwrWDaWHmeXxQwORKjeg4
+ncHTAY43geut4HwL6R0ncMBpH60EnLBmJDdDXkMSwxaThXQbwh6XhnnqtLjTwCqPTA/FfYKASxHO
+fT8c+JSdnDsarIG/mihIiR7ad1SFaqtaFefSNVHS152fXTYUs3WZrIB+9nOKXCMqj2pV9RJm91ZS
+ZIS6ZHu3p0l4O6gqOVP1slSVMzPp3cJU1bROWR2q+hqWYxNScFcU3rWqwEmeJS+UorzztI86RXpZ
+R2v3qWxvVAWfq1reQYnEIBv1PXnu89LEAaaj9I/TbJHRCrSDONKYg9y3VJdg0y54tA1lETQbqTqJ
+sGLPpaq7SPuBMskmDXam9WAkLN6faEZ4VtgWtCctLRCQx6eKtmXG5T+hjUk99CR9GzmLSfU4PVyO
+6yZ3uup+Bn7Wox0KQtUXJQTKWhZ0m+qZRDkgxaGLAg5YtbRVkK9LY2pWbk24p0vjNWCauSyJMG5p
+yZoIR5zSZoEF7VpI28aNVy/bhlGmmBPCB1ExafEiWj1ZVASm0PyNvo5SLVtZgMbYAlU3CW0itcKR
+xhIbngbUTR+Jef5hrTrLmRbTpNXMaTmlaj0LnKzK8H6YnWWoetOYJtWmWY1AWyXNq58CmahuNq6J
+jlB5tIZqdGl48SFYJDTAOI5tHBpiOJWbTHXIDHAd2YjglMDTGpSpaeavHJpqP66Pw7Aswa7pt1mI
+Y1014JzEserIBz+7YMrjgWgcfEyjfC1j66M5gTxF8tCkqZc0927TQLg0V72OqhnVPwOkXrm0MxKj
+ZqABC4igASqggL3CMRoyXnEVWM3gegGw0CmEIdCwHgVywE8UqhEQImUeQc/DE4/AeAlIIUsSXuzp
+YmLw46ggkubcVCSo5xWHBL1Q3qVHhpOfxtxiGNqHD0EDBz+1gBDaIvLNgzpO7lPGAMDykumwQWlc
+Gc4SMegSgezMGARxfHFy1IQcsXqkR2irozMGQNS4ePKB8ZN1FZKOMOsf2tC8DHEqQDZ/FsPPDDSn
+Bw5pGIzDuPsVTii2Z5BBVWp4vjOjX2MUoPdU5iqDFSVbU0QnegG4PfFR6xFjAavYpGQZijgxF9PM
+3dDgHhClw9nQIuoV+OFZ7m3jVoxh9KdBM+OVx42l1fM6wX2T8LYrnUgNOYXHaFyUEU95PRqkA06J
+9cYYeQSs0GU+onpvSA1HJwvgNabHDaKj3tFAHBkr8AOTIRJzqfWQiIhV9kVPbWuCyGE++hjJ9BIh
+LI0LAHFY7EeGcRGF2mnneg+zqAK8gwHXjK57G8JrFgajO4nTv9eSXln2HFaz0xy4KZP0cXzRl/LE
+Ig121mD/rGYTZfWxEcrbWFoPRTkelIN9Bja23yOdHuOZz4/vmlYzk98SXkWqLHP/5klSukfN3F4N
+9XygR84BI37wldVFwJmEOVSIxqbHXctKi7XRlBgS9zMOLH5+kjvIA/0kQfc44V0xXoaGexcP8Zkp
+SS8QmX6Buxf43whtm4TOR2scT3o/PTSQ8jZ+3+6TiIeooX/fNfIoSRxtMzjlhW47yoF8Yw6McxoS
+G27c8EVvklWQHESu/NDb+prrZ00C18qfwT9xCdoPmcpg/IchZeM0QAPTYZQcC/19HYPQdba9yKP4
+2Ea5Lrr0FI8DZmHrje82R2ggj6fB37R5ctFX8gFH9XdTG0PYMw0x29ek9qb7iSzwzfIutYBKDXua
+B6iOI1H3HpHwmKO2mblybTRDvXtmAKRWuXHX9f6V02EjIIi+0kxnxOLGPmm97lNol7e9Xr8b8cLA
+pv4aledl59nvB554DJAxUGMDT+14y8zOdRdWh6WaobL09zHbVyt5mxTBRBicuThvlaF3WgDu++VI
+GAPurk0MIdvGSI5qHt7gsgxvM8PFFjuyiJe0sa6BwMrwXBkwC1wM2nQ8l0W8dEcUpnP4Jinza7ty
+Ti1BWwOrV+j2nYWf3OhMZ46GFTaMqM4IJ7pcL2P6zmePCxtFsFswM0tYc9+eeTb9FrNxuYbP9uAf
+jGV3Gg+YVeHjS3T9us/FNYl1remTEKGfkLUHLIu9CNqSwopXmUZ1qYMUaP7axN5Hs4LTgVJMCO0i
+iMfrYYQbYzMAkWZX0psumH8eVjDwGFFNmBWhRokq7a4PzI+erD/0nX9qFnSrtvFOqPcIINt8TSxk
+P91A6wCGoZ8J4QmiKj+p3fzTPKdHtVEs8QgOkOT778PUP9MxabANbpTUOQz9cdWPTDlr1X6BiXkd
+Ylkwh7haj6PJpLDBZAxMKnEPiCFkY+1XNpX0hDKffq5t9UumBDb1GJ5GXceGiY8tzwkO3ILaVvQl
+NFF9hA3uJvd7cQRROEKzVzB7HNB4Z+D1kST5aUN2wGrocEoqR/Os9PAPsBosdNqmPO8nKJy41NeY
+BaAlGN37yCoZWEwwpjUZ1Z2q9A3ewfxuLN/C8/js/ZyfUvBNK18bN4mFn2CGnVjU92+IHHqr5fEh
+ljinovFO8RFYyS79ZBJoGDJ7fuCa1RvLolAJEYXPQ1+uPc3m5AgA5PH9X/hCjdcEyP86XAHHcL7D
+s+4wg1+b/fyxCoJDUeYfGBTDN7qUG9c2jmsmBq1AOzEZwhIj89qDnDZlAPlCrDiHItxjfgO1euJY
+83sjbY7ydD5BRoCxl++duWV701fBRVZXMJaRwXiz1n8wtfaNUTn4xAHQUMmMDAqZ4QF2B8wwc7wu
+mow4oTYf2lM0/M5BWzDYr2OWCrDcUZmaDuPyEkON/sgilboUTPpnxYDMAffpg4ycY59aMDNCVBGz
+iymSYdzhQBygUcJPPp6TK2Ix1ymOwoApMjtiZn6pNz7yG8Z1JkzcvR6Fx+4gpf/1fvyX4LFY3rV3
+qydX3cvusZ6uHpsubZu//evXv70oopyMl3/fD/36H3rx830zlY//7b/cPVB+MYfW1tF9a4KTvvb6
+VarX78DXp9/s6df+5T+U3mEa3D3wFkosi5wIF179+YW4NS1yVBJPf23IPVM3DMnwh/f8+vbrUiv1
+V2vx64/5vKi//plffoIflsICrd1uKcCLcUvDhvjzRwXf/XYp7D2BONl23eep9m92y86sgb71Grh7
+jqQn44O+/vCuawiwd7Yhy/wf/+Hviy5v1dMYREX+7aPgvDYZ+Itn4NU/8PUR4Ht3LBI/Ob7+4hEQ
+wjV027Cf/5qV+U9ZgX94GigX7+0eAU4DdjhMB3r7pxff9vePgGGbJizNri+F+ZqV+otN8XpNv9sV
+zBtIQirFT5fC2WOuljR3/eW04LDYvV2hSDTxvF9f3V7/7B3BMIWtHDOeXq8ORmsPM3hTCvN5ofSd
+fUDcrZeCs0I3+NbBaZ8/7KvrUux5RIcyLvKfdUy+3tA/3JMvv9kW24E1cAWTVXQWz2vAqn57SLh7
+UK46ZO3LftjZ7WA9f0nbLYXhmaYl0Ws+vTh2vl0Ke882FF9tP49K/cffmv94O2x9Z6jtIC0uDFU2
+PL2+XwN3T3KnSCa7vuyW3TsoLc/V7ecjfIvtwPXpYFEDUvxSSbx6Mqw9NO1IEl7eaRe3w+uZvn/P
+vYnZki0s++dr4OLXxPHBUNGObweVS71dNcWTQUYuXAcjhU+vV/ems2dKWEHz+Y12cDe8dDpbPBGW
+S09lYYJovtwVr+5LSgemNCmz+PPdPBXE9j0VNYONeMnzfvj+LRuzCzqLHX8UrOdvZ5t94O2BmTLZ
+YL48CnTrry5K5tPor5n1fXrt6nZQGUrbnQoKccFlwzXU0/XtGsg9/B4M8QVpeQY0dvBYQEi35Rpw
+Mpoo9kwdYd7T64e6iT+14P9fTo2drabtrS8JtoNApughJ3w+BV613GKPRHrP8FzjeaV2d1dsjUWy
+K1R1ZNG1/nRXOHsUVg4Y3deOfEfvjO2xSJeimrvB8NS9oV7fnxUsBVJX25LPj+IOHhLO79gOnqnK
+SJS4z6/v10DsCcH5wDp8+evd3A5yazCKQ8JkzguXixfY4dUhIenIMWgyzM/Q9c5en1tXEiyFtHXX
+RfL95Wv//hblDkWk/7zmO/hgWL/jwZC4oei6fNkNr9pMuUcrDi7h7OwaiK3bTPVEmB6bwCCOUr1e
+PRH0Vrplg9W9FBg7e23Kre8KlsIBsqe8/vr0f/9EUGZRWr9U8Tv4SLhbnwqUDgYfEDfnrxXjqzUg
+6JTnZWcfCUW4bddYsAaC0okb8+uF+O0awF+6FN0gDs9PzPMb7uB2eDm7t2s3+aAkAn3mcl913gTj
+8jdwFs9n8Q6ugflbbgmcymkpX7YDW//b7eDCZOjo1pyXxmJnK0nvd5wOrISN7fBX0PHbpUDkYPNc
+mJ9xup29LJSF/faHBF21rabYnl6v7k0JZKkLzNZ2dju8cClbnA6qhASBdgnEfl4DNti328HaQ+ng
+KP+4HT8o3d9RRuGwx5UAlf30enVIgD4IfsDeXcbC/R2PhO3phiU+g1E/XBYclBRXL4X7Dl4WKo9i
+62OBQwHVj/lC2r56JDgWHNI1yLb40nTtZq+9vdpBYZNMC3MrvnQWr5bCQQbGD1BT72qT/W9VRL0m
+h78Tv0Bpk2iiv9wSrzpMgWMnvpwv19EOPhHe1qwNlwQicvRun4WRr5ZA7nFuOkKnwHp+7epu8La+
+JHgiPNvSTeczDvcKjLT2dDBZkEqcWJ9eu7oUyjdg63MSf1qDRvIVeUNHIV3HxHd2Vz+89Tv2gaU2
+vPjcVb3aB5TRpgCOVcYIu3k7KAPhrTeAi3zBxabiS3H4fe0oUEeiAdn1Y+FFyLtFGf10LGDGJXDm
+eHq9aiVsqH8d38DPK7GzXZW9NfTCZaHcRyxCyr4cgd/vCknoBsG/uyv1+B1Ho6fcux3j55SVhcqa
+WwTV7JcHZzcPCbn1Qcl2sISj8OefI3ESoA5J3EutuoPlk9i+qVIEprSIxHtpKH44HHQLES15I7t6
+V9j8xtvdFepUsIGdVZn49HrVSVA3MVggOEF3dg223gfqUVBwExrY55PxB4CBEwPyUnzlLnbzVLCf
+v6Qt7ku1HSwdxddfUFZiD+2oRYv9vPF28VjYeg2oGSz2O+NkPx8wYapCAtqbO99VvTAH220HQ4Wa
+Yl32/GRwEn5bM9hIpKgzPw8a7O5Uhfc7DkoUorqDUvSnS/GkEiXD8fMZsrOVpLW1HEyhT0xWqAmT
+5zvj1b2J0sNl7gKDvC+F5m6el+72BBYlBGN3kqvhp0tB8i8nKV33rstn3a3BKLUrbLSzNpZeT69X
+u4KxI6g8Xeyu6sXZuqhmDTgfHGZJXnb+K/QBOZiDLSPt6I4/Gc7W24FKgrRrW1lhfvms314d5h7j
+3BAa7s4elN7vaLnhrWyimX6OPlg8Eswr6ztcXP+OfUCUp+5xCP70WCA+S3XjpGvtaoPxIlHboozi
+WCACzDDY8c/PwqsySsDmCOnRbD8v0fPG28HiWtndbtdvshToQx2dAuH7UtLcU4yVAJn9p9fg37BQ
+X6wxMLdOH1bKoyJ6bH7mnfFXP/DZB+LHv//G8gJW67ufUxYZz2/9POOq/v/fvqO0nlwKvvnLz64F
+T2/z8p+/fL4f3/m79/r8oT7/4Tp6rO/q+3B6+ovp5bc8u8tw1FjwjvVd+gfGsY9ZdJf/8aNlgRpt
+0FWB9PWXe2X28c1W+OV73ZVRy3stonb6o/j0x0V9F3SPn/9d5VrMW9muyX7Y9q2uC+Iofv2hJHps
+bpzf806nRX3X/3z52MWMjOk0o9u+1UU6P/7f//6Tb4iLRY2EGtRZ277H5q5Oi3764+aunn7xTr/h
+0/z5P5v2z7//kd89/HFy9/Ex+8W7/Ya9dxJ9fKwf73/xJtw62y7e+ilA8o9N/ef/YhH//N+/eLff
+sMcvXozKH3/xNuBX236om6kp/s//iPK7X7wNl8G2b3OeFlnR/eoL+g0P6236599/dsS9PEAmNc62
+n+PzSaBdR+lj8xdHwvPzanK7//rtfnbef7Gz+fEW+OxT9LP/7PsbTv3Effp4V//t/wEAAP//</cx:binary>
               </cx:geoCache>
             </cx:geography>
           </cx:layoutPr>
@@ -14536,6 +14612,86 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B0F78992-30E2-40A7-B093-E4560512C015}" name="Tabela przestawna72" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="B45:C50" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField name="Year" axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Quarter" axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Average loan" fld="2" subtotal="average" baseField="4" baseItem="0" numFmtId="165"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="5" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleMedium14" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8E082A0B-AFBF-471B-A5AF-9A0D9692BBA6}" name="Tabela przestawna73" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="E45:H58" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
@@ -14677,86 +14833,6 @@
     </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B0F78992-30E2-40A7-B093-E4560512C015}" name="Tabela przestawna72" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
-  <location ref="B45:C50" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="6">
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField dataField="1" numFmtId="165" showAll="0"/>
-    <pivotField name="Year" axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item h="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField name="Quarter" axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item h="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Average loan" fld="2" subtotal="average" baseField="4" baseItem="0" numFmtId="165"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="5" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleMedium14" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -15841,7 +15917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49065281-2002-4F6F-B0B9-7220B369F6A3}">
   <dimension ref="A1:V893"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
@@ -29524,7 +29600,7 @@
   <dimension ref="A1:A33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -29575,7 +29651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF0C05D-F204-4616-9C92-E6E8069B8D78}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -42012,7 +42088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1750C6D-4679-44D9-97B8-06BD855C4978}">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
@@ -44812,7 +44888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF55C70B-55A8-416A-8C90-5741F1B66D46}">
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F77"/>
     </sheetView>
   </sheetViews>
